--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175935</v>
+        <v>0.468852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187315</v>
+        <v>0.438298</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196941</v>
+        <v>0.430897</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176336</v>
+        <v>0.462805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188204</v>
+        <v>0.428626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197467</v>
+        <v>0.421966</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177096</v>
+        <v>0.457322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189133</v>
+        <v>0.422857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198874</v>
+        <v>0.41723</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177694</v>
+        <v>0.452197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190699</v>
+        <v>0.418154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200555</v>
+        <v>0.413453</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178658</v>
+        <v>0.443693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192582</v>
+        <v>0.412251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202669</v>
+        <v>0.408156</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18033</v>
+        <v>0.43983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194705</v>
+        <v>0.408234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205602</v>
+        <v>0.406759</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182513</v>
+        <v>0.436562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19773</v>
+        <v>0.407201</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210269</v>
+        <v>0.407123</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186249</v>
+        <v>0.438179</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201556</v>
+        <v>0.409626</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193903</v>
+        <v>0.5212329999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181953</v>
+        <v>0.5487570000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187053</v>
+        <v>0.526613</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194048</v>
+        <v>0.515246</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181962</v>
+        <v>0.535903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186987</v>
+        <v>0.514414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195364</v>
+        <v>0.503113</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183004</v>
+        <v>0.525992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18723</v>
+        <v>0.503834</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194471</v>
+        <v>0.493373</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182161</v>
+        <v>0.514915</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187639</v>
+        <v>0.492086</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194808</v>
+        <v>0.482056</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182448</v>
+        <v>0.505609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188167</v>
+        <v>0.48211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196542</v>
+        <v>0.472632</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183536</v>
+        <v>0.496533</v>
       </c>
       <c r="C15" t="n">
-        <v>0.189124</v>
+        <v>0.472651</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196089</v>
+        <v>0.463968</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182816</v>
+        <v>0.487818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189355</v>
+        <v>0.463664</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19657</v>
+        <v>0.455511</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.183237</v>
+        <v>0.479603</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191028</v>
+        <v>0.455361</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197463</v>
+        <v>0.447427</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183647</v>
+        <v>0.471319</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19203</v>
+        <v>0.447574</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198421</v>
+        <v>0.43992</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18518</v>
+        <v>0.465397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192799</v>
+        <v>0.441375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200139</v>
+        <v>0.434862</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18578</v>
+        <v>0.458352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193825</v>
+        <v>0.433998</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20223</v>
+        <v>0.428681</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188324</v>
+        <v>0.45365</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195908</v>
+        <v>0.429353</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204776</v>
+        <v>0.425474</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.190098</v>
+        <v>0.450241</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198684</v>
+        <v>0.426114</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208967</v>
+        <v>0.423638</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193806</v>
+        <v>0.447832</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202211</v>
+        <v>0.424842</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201092</v>
+        <v>0.5428230000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.204996</v>
+        <v>0.561202</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193559</v>
+        <v>0.498589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201336</v>
+        <v>0.487587</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.205232</v>
+        <v>0.549076</v>
       </c>
       <c r="C25" t="n">
-        <v>0.193824</v>
+        <v>0.486668</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203833</v>
+        <v>0.477356</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.206411</v>
+        <v>0.537986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19489</v>
+        <v>0.477475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204019</v>
+        <v>0.468124</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206022</v>
+        <v>0.52725</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195741</v>
+        <v>0.468469</v>
       </c>
       <c r="D27" t="n">
-        <v>0.204671</v>
+        <v>0.459543</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206339</v>
+        <v>0.517648</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19586</v>
+        <v>0.460505</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20564</v>
+        <v>0.451908</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20621</v>
+        <v>0.507696</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196876</v>
+        <v>0.469755</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207272</v>
+        <v>0.443816</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20644</v>
+        <v>0.498649</v>
       </c>
       <c r="C30" t="n">
-        <v>0.197171</v>
+        <v>0.456429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.207667</v>
+        <v>0.436896</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206569</v>
+        <v>0.490116</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197203</v>
+        <v>0.43691</v>
       </c>
       <c r="D31" t="n">
-        <v>0.207786</v>
+        <v>0.430042</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206899</v>
+        <v>0.482563</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19908</v>
+        <v>0.431039</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209029</v>
+        <v>0.424565</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206623</v>
+        <v>0.475698</v>
       </c>
       <c r="C33" t="n">
-        <v>0.200407</v>
+        <v>0.425148</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210402</v>
+        <v>0.419549</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20787</v>
+        <v>0.469186</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201144</v>
+        <v>0.41973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212115</v>
+        <v>0.415071</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.211553</v>
+        <v>0.463391</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203806</v>
+        <v>0.417293</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214785</v>
+        <v>0.413577</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211147</v>
+        <v>0.459464</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207186</v>
+        <v>0.412787</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219084</v>
+        <v>0.41081</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213507</v>
+        <v>0.457665</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210717</v>
+        <v>0.412328</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218513</v>
+        <v>0.559532</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232133</v>
+        <v>0.570206</v>
       </c>
       <c r="C38" t="n">
-        <v>0.210558</v>
+        <v>0.512952</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220758</v>
+        <v>0.498216</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233165</v>
+        <v>0.559301</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210519</v>
+        <v>0.5280629999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221022</v>
+        <v>0.489357</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232401</v>
+        <v>0.547706</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21147</v>
+        <v>0.498151</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220758</v>
+        <v>0.483165</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232563</v>
+        <v>0.538002</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210817</v>
+        <v>0.502297</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221653</v>
+        <v>0.470904</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.234064</v>
+        <v>0.527531</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213161</v>
+        <v>0.472074</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223097</v>
+        <v>0.462917</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.235019</v>
+        <v>0.517891</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213956</v>
+        <v>0.475326</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223743</v>
+        <v>0.455262</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.235333</v>
+        <v>0.509019</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215746</v>
+        <v>0.455215</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225616</v>
+        <v>0.448066</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234311</v>
+        <v>0.501163</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215621</v>
+        <v>0.449592</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226186</v>
+        <v>0.442041</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.236535</v>
+        <v>0.49261</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21727</v>
+        <v>0.44356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228383</v>
+        <v>0.436673</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234949</v>
+        <v>0.48623</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218983</v>
+        <v>0.440431</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229598</v>
+        <v>0.430421</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.235717</v>
+        <v>0.479456</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219335</v>
+        <v>0.432631</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231449</v>
+        <v>0.426262</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236873</v>
+        <v>0.474054</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222927</v>
+        <v>0.428164</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234798</v>
+        <v>0.422639</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240957</v>
+        <v>0.469041</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225696</v>
+        <v>0.425491</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238581</v>
+        <v>0.421426</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24354</v>
+        <v>0.465997</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230408</v>
+        <v>0.423901</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232156</v>
+        <v>0.5754</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245955</v>
+        <v>0.435649</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237328</v>
+        <v>0.425594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23366</v>
+        <v>0.562736</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254016</v>
+        <v>0.57025</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22592</v>
+        <v>0.51373</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23469</v>
+        <v>0.503371</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260054</v>
+        <v>0.5591469999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226293</v>
+        <v>0.503066</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234953</v>
+        <v>0.494266</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.253524</v>
+        <v>0.548673</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226064</v>
+        <v>0.495071</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2354</v>
+        <v>0.486317</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261362</v>
+        <v>0.539893</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226662</v>
+        <v>0.488661</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235775</v>
+        <v>0.47812</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259901</v>
+        <v>0.531342</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228415</v>
+        <v>0.479277</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236802</v>
+        <v>0.470288</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261399</v>
+        <v>0.522832</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228895</v>
+        <v>0.474208</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237323</v>
+        <v>0.462678</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255449</v>
+        <v>0.51437</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230177</v>
+        <v>0.467425</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23856</v>
+        <v>0.456328</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254837</v>
+        <v>0.504428</v>
       </c>
       <c r="C60" t="n">
-        <v>0.231215</v>
+        <v>0.459358</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239868</v>
+        <v>0.452082</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262137</v>
+        <v>0.499794</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233571</v>
+        <v>0.455905</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242513</v>
+        <v>0.447106</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256315</v>
+        <v>0.493653</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235386</v>
+        <v>0.449083</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243949</v>
+        <v>0.441564</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263283</v>
+        <v>0.488229</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238183</v>
+        <v>0.445939</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247999</v>
+        <v>0.440317</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261632</v>
+        <v>0.484104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241323</v>
+        <v>0.441958</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252234</v>
+        <v>0.437154</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262622</v>
+        <v>0.47942</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246602</v>
+        <v>0.441739</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259785</v>
+        <v>0.437516</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269828</v>
+        <v>0.478609</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253611</v>
+        <v>0.441886</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242087</v>
+        <v>0.577635</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.273243</v>
+        <v>0.587443</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235993</v>
+        <v>0.529075</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242336</v>
+        <v>0.518222</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.273938</v>
+        <v>0.576133</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236934</v>
+        <v>0.518185</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242608</v>
+        <v>0.510253</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.273999</v>
+        <v>0.565912</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237882</v>
+        <v>0.51148</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243535</v>
+        <v>0.504112</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274145</v>
+        <v>0.556559</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238726</v>
+        <v>0.503436</v>
       </c>
       <c r="D70" t="n">
-        <v>0.24434</v>
+        <v>0.493383</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.274656</v>
+        <v>0.54706</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240094</v>
+        <v>0.498672</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245366</v>
+        <v>0.488223</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277195</v>
+        <v>0.538134</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241207</v>
+        <v>0.487006</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245603</v>
+        <v>0.482813</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274815</v>
+        <v>0.5297230000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24318</v>
+        <v>0.480855</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247375</v>
+        <v>0.473903</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279051</v>
+        <v>0.521965</v>
       </c>
       <c r="C74" t="n">
-        <v>0.244584</v>
+        <v>0.473676</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249551</v>
+        <v>0.46706</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27627</v>
+        <v>0.515184</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245914</v>
+        <v>0.468319</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250375</v>
+        <v>0.462704</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276649</v>
+        <v>0.508511</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248104</v>
+        <v>0.465336</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252631</v>
+        <v>0.459662</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281529</v>
+        <v>0.503607</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250048</v>
+        <v>0.460323</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257149</v>
+        <v>0.457201</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.279537</v>
+        <v>0.498391</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253836</v>
+        <v>0.454281</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260874</v>
+        <v>0.453026</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.281801</v>
+        <v>0.495408</v>
       </c>
       <c r="C79" t="n">
-        <v>0.257732</v>
+        <v>0.45374</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269337</v>
+        <v>0.453515</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286399</v>
+        <v>0.494148</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26442</v>
+        <v>0.455334</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255336</v>
+        <v>0.609142</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.297507</v>
+        <v>0.624931</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241843</v>
+        <v>0.554514</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257493</v>
+        <v>0.540144</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.298302</v>
+        <v>0.620013</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241534</v>
+        <v>0.542281</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252493</v>
+        <v>0.5323369999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.294814</v>
+        <v>0.611771</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243107</v>
+        <v>0.536681</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255808</v>
+        <v>0.52338</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298842</v>
+        <v>0.604486</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244474</v>
+        <v>0.52654</v>
       </c>
       <c r="D84" t="n">
-        <v>0.255841</v>
+        <v>0.515773</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298466</v>
+        <v>0.596434</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24603</v>
+        <v>0.523374</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257342</v>
+        <v>0.5094880000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298939</v>
+        <v>0.588724</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244635</v>
+        <v>0.511042</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258148</v>
+        <v>0.499708</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300372</v>
+        <v>0.580125</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244563</v>
+        <v>0.505146</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257797</v>
+        <v>0.496851</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302679</v>
+        <v>0.571719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24715</v>
+        <v>0.498551</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260893</v>
+        <v>0.487321</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.304774</v>
+        <v>0.563235</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250054</v>
+        <v>0.494293</v>
       </c>
       <c r="D89" t="n">
-        <v>0.263201</v>
+        <v>0.48505</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.304311</v>
+        <v>0.556876</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250515</v>
+        <v>0.488213</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264377</v>
+        <v>0.481535</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304276</v>
+        <v>0.550401</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253411</v>
+        <v>0.482351</v>
       </c>
       <c r="D91" t="n">
-        <v>0.266396</v>
+        <v>0.475749</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.306166</v>
+        <v>0.543473</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253457</v>
+        <v>0.474225</v>
       </c>
       <c r="D92" t="n">
-        <v>0.27125</v>
+        <v>0.468844</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.30516</v>
+        <v>0.539597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258593</v>
+        <v>0.475743</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278327</v>
+        <v>0.472467</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.308969</v>
+        <v>0.536211</v>
       </c>
       <c r="C94" t="n">
-        <v>0.267149</v>
+        <v>0.476507</v>
       </c>
       <c r="D94" t="n">
-        <v>0.369907</v>
+        <v>0.650515</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.459696</v>
+        <v>0.670479</v>
       </c>
       <c r="C95" t="n">
-        <v>0.384255</v>
+        <v>0.581382</v>
       </c>
       <c r="D95" t="n">
-        <v>0.371329</v>
+        <v>0.584404</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.440941</v>
+        <v>0.675997</v>
       </c>
       <c r="C96" t="n">
-        <v>0.399213</v>
+        <v>0.590049</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384034</v>
+        <v>0.588764</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46598</v>
+        <v>0.67621</v>
       </c>
       <c r="C97" t="n">
-        <v>0.375799</v>
+        <v>0.582956</v>
       </c>
       <c r="D97" t="n">
-        <v>0.373689</v>
+        <v>0.577061</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.427151</v>
+        <v>0.673557</v>
       </c>
       <c r="C98" t="n">
-        <v>0.38073</v>
+        <v>0.588466</v>
       </c>
       <c r="D98" t="n">
-        <v>0.384085</v>
+        <v>0.582072</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.433451</v>
+        <v>0.670266</v>
       </c>
       <c r="C99" t="n">
-        <v>0.392098</v>
+        <v>0.574995</v>
       </c>
       <c r="D99" t="n">
-        <v>0.382523</v>
+        <v>0.566825</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.434353</v>
+        <v>0.665512</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418658</v>
+        <v>0.5734629999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.406016</v>
+        <v>0.562406</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.496686</v>
+        <v>0.662371</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394769</v>
+        <v>0.583183</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396841</v>
+        <v>0.572585</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.448816</v>
+        <v>0.656264</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429507</v>
+        <v>0.578098</v>
       </c>
       <c r="D102" t="n">
-        <v>0.41858</v>
+        <v>0.564968</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.491931</v>
+        <v>0.652845</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433432</v>
+        <v>0.57605</v>
       </c>
       <c r="D103" t="n">
-        <v>0.418178</v>
+        <v>0.56128</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.495656</v>
+        <v>0.647441</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405665</v>
+        <v>0.568816</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400784</v>
+        <v>0.5545330000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.456956</v>
+        <v>0.646905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.436166</v>
+        <v>0.56989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.417498</v>
+        <v>0.555081</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.500381</v>
+        <v>0.641935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.436061</v>
+        <v>0.551141</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41904</v>
+        <v>0.536282</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494462</v>
+        <v>0.63685</v>
       </c>
       <c r="C107" t="n">
-        <v>0.441836</v>
+        <v>0.561592</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433298</v>
+        <v>0.547404</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492435</v>
+        <v>0.634502</v>
       </c>
       <c r="C108" t="n">
-        <v>0.443299</v>
+        <v>0.5641929999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.687528</v>
+        <v>0.729064</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494148</v>
+        <v>0.6007439999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450812</v>
+        <v>0.566098</v>
       </c>
       <c r="D109" t="n">
-        <v>0.693379</v>
+        <v>0.730957</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.821513</v>
+        <v>0.744124</v>
       </c>
       <c r="C110" t="n">
-        <v>0.702449</v>
+        <v>0.713726</v>
       </c>
       <c r="D110" t="n">
-        <v>0.707597</v>
+        <v>0.727031</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.819484</v>
+        <v>0.746713</v>
       </c>
       <c r="C111" t="n">
-        <v>0.68672</v>
+        <v>0.7213889999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710651</v>
+        <v>0.722298</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.817094</v>
+        <v>0.748851</v>
       </c>
       <c r="C112" t="n">
-        <v>0.705192</v>
+        <v>0.719218</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7107869999999999</v>
+        <v>0.725786</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.806392</v>
+        <v>0.752481</v>
       </c>
       <c r="C113" t="n">
-        <v>0.706555</v>
+        <v>0.720158</v>
       </c>
       <c r="D113" t="n">
-        <v>0.711884</v>
+        <v>0.706372</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.807478</v>
+        <v>0.7518280000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.707437</v>
+        <v>0.710448</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713535</v>
+        <v>0.7211920000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.822864</v>
+        <v>0.75366</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7097329999999999</v>
+        <v>0.712021</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7038990000000001</v>
+        <v>0.71287</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.808091</v>
+        <v>0.751884</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694043</v>
+        <v>0.714979</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7174199999999999</v>
+        <v>0.717021</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.817838</v>
+        <v>0.756261</v>
       </c>
       <c r="C117" t="n">
-        <v>0.697434</v>
+        <v>0.7126400000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.718681</v>
+        <v>0.708757</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.819384</v>
+        <v>0.758611</v>
       </c>
       <c r="C118" t="n">
-        <v>0.71561</v>
+        <v>0.71736</v>
       </c>
       <c r="D118" t="n">
-        <v>0.722495</v>
+        <v>0.703121</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.806998</v>
+        <v>0.757593</v>
       </c>
       <c r="C119" t="n">
-        <v>0.719715</v>
+        <v>0.709588</v>
       </c>
       <c r="D119" t="n">
-        <v>0.725233</v>
+        <v>0.714921</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.817949</v>
+        <v>0.761042</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7238560000000001</v>
+        <v>0.719343</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7195859999999999</v>
+        <v>0.713439</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.818558</v>
+        <v>0.7618740000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.730129</v>
+        <v>0.712588</v>
       </c>
       <c r="D121" t="n">
-        <v>0.739083</v>
+        <v>0.713207</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.822273</v>
+        <v>0.764983</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7382880000000001</v>
+        <v>0.7265470000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.748327</v>
+        <v>0.714762</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.824541</v>
+        <v>0.770068</v>
       </c>
       <c r="C123" t="n">
-        <v>0.747686</v>
+        <v>0.730452</v>
       </c>
       <c r="D123" t="n">
-        <v>0.830082</v>
+        <v>0.848193</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09668</v>
+        <v>0.923639</v>
       </c>
       <c r="C124" t="n">
-        <v>0.819318</v>
+        <v>0.861561</v>
       </c>
       <c r="D124" t="n">
-        <v>0.832251</v>
+        <v>0.863826</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.09485</v>
+        <v>0.926641</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8141620000000001</v>
+        <v>0.8661720000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.834068</v>
+        <v>0.864608</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.09944</v>
+        <v>0.928901</v>
       </c>
       <c r="C126" t="n">
-        <v>0.81472</v>
+        <v>0.867241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.834002</v>
+        <v>0.86316</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11869</v>
+        <v>0.930863</v>
       </c>
       <c r="C127" t="n">
-        <v>0.815905</v>
+        <v>0.870636</v>
       </c>
       <c r="D127" t="n">
-        <v>0.836139</v>
+        <v>0.863249</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11229</v>
+        <v>0.931871</v>
       </c>
       <c r="C128" t="n">
-        <v>0.818392</v>
+        <v>0.87009</v>
       </c>
       <c r="D128" t="n">
-        <v>0.838952</v>
+        <v>0.862835</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10961</v>
+        <v>0.93465</v>
       </c>
       <c r="C129" t="n">
-        <v>0.828611</v>
+        <v>0.871456</v>
       </c>
       <c r="D129" t="n">
-        <v>0.841427</v>
+        <v>0.86193</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10147</v>
+        <v>0.933044</v>
       </c>
       <c r="C130" t="n">
-        <v>0.830443</v>
+        <v>0.873667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844567</v>
+        <v>0.865629</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10824</v>
+        <v>0.939842</v>
       </c>
       <c r="C131" t="n">
-        <v>0.833937</v>
+        <v>0.876614</v>
       </c>
       <c r="D131" t="n">
-        <v>0.84803</v>
+        <v>0.864025</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10958</v>
+        <v>0.940194</v>
       </c>
       <c r="C132" t="n">
-        <v>0.836708</v>
+        <v>0.87217</v>
       </c>
       <c r="D132" t="n">
-        <v>0.851222</v>
+        <v>0.862383</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08048</v>
+        <v>0.94726</v>
       </c>
       <c r="C133" t="n">
-        <v>0.841645</v>
+        <v>0.879269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.85651</v>
+        <v>0.863228</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07817</v>
+        <v>0.940811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.847514</v>
+        <v>0.88406</v>
       </c>
       <c r="D134" t="n">
-        <v>0.858604</v>
+        <v>0.8728590000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10831</v>
+        <v>0.946655</v>
       </c>
       <c r="C135" t="n">
-        <v>0.854212</v>
+        <v>0.887375</v>
       </c>
       <c r="D135" t="n">
-        <v>0.87468</v>
+        <v>0.872457</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08642</v>
+        <v>0.953275</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8660949999999999</v>
+        <v>0.888578</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8921790000000001</v>
+        <v>0.870436</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.09611</v>
+        <v>0.9490229999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8816079999999999</v>
+        <v>0.89427</v>
       </c>
       <c r="D137" t="n">
-        <v>0.88586</v>
+        <v>1.01824</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35234</v>
+        <v>1.09439</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87153</v>
+        <v>1.03758</v>
       </c>
       <c r="D138" t="n">
-        <v>0.883483</v>
+        <v>1.02038</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35396</v>
+        <v>1.09621</v>
       </c>
       <c r="C139" t="n">
-        <v>0.872622</v>
+        <v>1.03437</v>
       </c>
       <c r="D139" t="n">
-        <v>0.888558</v>
+        <v>1.01866</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35476</v>
+        <v>1.09549</v>
       </c>
       <c r="C140" t="n">
-        <v>0.87454</v>
+        <v>1.03438</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887594</v>
+        <v>1.02223</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35463</v>
+        <v>1.09827</v>
       </c>
       <c r="C141" t="n">
-        <v>0.875146</v>
+        <v>1.04083</v>
       </c>
       <c r="D141" t="n">
-        <v>0.889257</v>
+        <v>1.02348</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34418</v>
+        <v>1.09666</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877048</v>
+        <v>1.03651</v>
       </c>
       <c r="D142" t="n">
-        <v>0.894312</v>
+        <v>1.02401</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3562</v>
+        <v>1.09614</v>
       </c>
       <c r="C143" t="n">
-        <v>0.880449</v>
+        <v>1.0399</v>
       </c>
       <c r="D143" t="n">
-        <v>0.896936</v>
+        <v>1.0242</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.468852</v>
+        <v>0.467227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.438298</v>
+        <v>0.437835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.430897</v>
+        <v>0.431008</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.462805</v>
+        <v>0.462163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.428626</v>
+        <v>0.427947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.421966</v>
+        <v>0.42167</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.457322</v>
+        <v>0.456379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.422857</v>
+        <v>0.422334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41723</v>
+        <v>0.417351</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.452197</v>
+        <v>0.450735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.418154</v>
+        <v>0.417452</v>
       </c>
       <c r="D5" t="n">
-        <v>0.413453</v>
+        <v>0.413208</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.443693</v>
+        <v>0.442959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.412251</v>
+        <v>0.4117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.408156</v>
+        <v>0.408121</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43983</v>
+        <v>0.438876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.408234</v>
+        <v>0.407875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.406759</v>
+        <v>0.406651</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436562</v>
+        <v>0.43557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.407201</v>
+        <v>0.40652</v>
       </c>
       <c r="D8" t="n">
-        <v>0.407123</v>
+        <v>0.406947</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.438179</v>
+        <v>0.437525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.409626</v>
+        <v>0.408939</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5212329999999999</v>
+        <v>0.521213</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5487570000000001</v>
+        <v>0.548304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.526613</v>
+        <v>0.526414</v>
       </c>
       <c r="D10" t="n">
-        <v>0.515246</v>
+        <v>0.514881</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.535903</v>
+        <v>0.53599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.514414</v>
+        <v>0.514035</v>
       </c>
       <c r="D11" t="n">
-        <v>0.503113</v>
+        <v>0.502951</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.525992</v>
+        <v>0.526357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.503834</v>
+        <v>0.503598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.493373</v>
+        <v>0.493411</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.514915</v>
+        <v>0.514969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.492086</v>
+        <v>0.491855</v>
       </c>
       <c r="D13" t="n">
-        <v>0.482056</v>
+        <v>0.482273</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505609</v>
+        <v>0.5057160000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.48211</v>
+        <v>0.482258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.472632</v>
+        <v>0.472782</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.496533</v>
+        <v>0.496732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.472651</v>
+        <v>0.472734</v>
       </c>
       <c r="D15" t="n">
-        <v>0.463968</v>
+        <v>0.464091</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.487818</v>
+        <v>0.487956</v>
       </c>
       <c r="C16" t="n">
-        <v>0.463664</v>
+        <v>0.463704</v>
       </c>
       <c r="D16" t="n">
-        <v>0.455511</v>
+        <v>0.455659</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479603</v>
+        <v>0.47972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455361</v>
+        <v>0.455318</v>
       </c>
       <c r="D17" t="n">
-        <v>0.447427</v>
+        <v>0.44768</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471319</v>
+        <v>0.471715</v>
       </c>
       <c r="C18" t="n">
-        <v>0.447574</v>
+        <v>0.447416</v>
       </c>
       <c r="D18" t="n">
-        <v>0.43992</v>
+        <v>0.440297</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465397</v>
+        <v>0.465816</v>
       </c>
       <c r="C19" t="n">
-        <v>0.441375</v>
+        <v>0.44107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.434862</v>
+        <v>0.434927</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458352</v>
+        <v>0.458674</v>
       </c>
       <c r="C20" t="n">
-        <v>0.433998</v>
+        <v>0.434133</v>
       </c>
       <c r="D20" t="n">
-        <v>0.428681</v>
+        <v>0.428908</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.45365</v>
+        <v>0.454047</v>
       </c>
       <c r="C21" t="n">
-        <v>0.429353</v>
+        <v>0.429705</v>
       </c>
       <c r="D21" t="n">
-        <v>0.425474</v>
+        <v>0.425778</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450241</v>
+        <v>0.450472</v>
       </c>
       <c r="C22" t="n">
-        <v>0.426114</v>
+        <v>0.426116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.423638</v>
+        <v>0.423827</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.447832</v>
+        <v>0.448122</v>
       </c>
       <c r="C23" t="n">
-        <v>0.424842</v>
+        <v>0.425185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5428230000000001</v>
+        <v>0.542932</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.561202</v>
+        <v>0.5615250000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.498589</v>
+        <v>0.497514</v>
       </c>
       <c r="D24" t="n">
-        <v>0.487587</v>
+        <v>0.488017</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.549076</v>
+        <v>0.548973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.486668</v>
+        <v>0.494872</v>
       </c>
       <c r="D25" t="n">
-        <v>0.477356</v>
+        <v>0.477449</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.537986</v>
+        <v>0.538042</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477475</v>
+        <v>0.490303</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468124</v>
+        <v>0.468592</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.52725</v>
+        <v>0.527506</v>
       </c>
       <c r="C27" t="n">
-        <v>0.468469</v>
+        <v>0.468694</v>
       </c>
       <c r="D27" t="n">
-        <v>0.459543</v>
+        <v>0.460145</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.517648</v>
+        <v>0.517962</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460505</v>
+        <v>0.468292</v>
       </c>
       <c r="D28" t="n">
-        <v>0.451908</v>
+        <v>0.452205</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.507696</v>
+        <v>0.507962</v>
       </c>
       <c r="C29" t="n">
-        <v>0.469755</v>
+        <v>0.452002</v>
       </c>
       <c r="D29" t="n">
-        <v>0.443816</v>
+        <v>0.443987</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.498649</v>
+        <v>0.499053</v>
       </c>
       <c r="C30" t="n">
-        <v>0.456429</v>
+        <v>0.444716</v>
       </c>
       <c r="D30" t="n">
-        <v>0.436896</v>
+        <v>0.437096</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.490116</v>
+        <v>0.490485</v>
       </c>
       <c r="C31" t="n">
-        <v>0.43691</v>
+        <v>0.437293</v>
       </c>
       <c r="D31" t="n">
-        <v>0.430042</v>
+        <v>0.430188</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482563</v>
+        <v>0.483056</v>
       </c>
       <c r="C32" t="n">
-        <v>0.431039</v>
+        <v>0.431243</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424565</v>
+        <v>0.424564</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.475698</v>
+        <v>0.475884</v>
       </c>
       <c r="C33" t="n">
-        <v>0.425148</v>
+        <v>0.426053</v>
       </c>
       <c r="D33" t="n">
-        <v>0.419549</v>
+        <v>0.419819</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.469186</v>
+        <v>0.469508</v>
       </c>
       <c r="C34" t="n">
-        <v>0.41973</v>
+        <v>0.420193</v>
       </c>
       <c r="D34" t="n">
-        <v>0.415071</v>
+        <v>0.414968</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463391</v>
+        <v>0.463851</v>
       </c>
       <c r="C35" t="n">
-        <v>0.417293</v>
+        <v>0.422059</v>
       </c>
       <c r="D35" t="n">
-        <v>0.413577</v>
+        <v>0.417125</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459464</v>
+        <v>0.459782</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412787</v>
+        <v>0.413376</v>
       </c>
       <c r="D36" t="n">
-        <v>0.41081</v>
+        <v>0.410791</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.457665</v>
+        <v>0.458179</v>
       </c>
       <c r="C37" t="n">
-        <v>0.412328</v>
+        <v>0.412505</v>
       </c>
       <c r="D37" t="n">
-        <v>0.559532</v>
+        <v>0.559129</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.570206</v>
+        <v>0.570178</v>
       </c>
       <c r="C38" t="n">
-        <v>0.512952</v>
+        <v>0.506736</v>
       </c>
       <c r="D38" t="n">
-        <v>0.498216</v>
+        <v>0.497865</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.559301</v>
+        <v>0.559624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5280629999999999</v>
+        <v>0.501904</v>
       </c>
       <c r="D39" t="n">
-        <v>0.489357</v>
+        <v>0.489034</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.547706</v>
+        <v>0.548315</v>
       </c>
       <c r="C40" t="n">
-        <v>0.498151</v>
+        <v>0.488542</v>
       </c>
       <c r="D40" t="n">
-        <v>0.483165</v>
+        <v>0.479505</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.538002</v>
+        <v>0.537477</v>
       </c>
       <c r="C41" t="n">
-        <v>0.502297</v>
+        <v>0.479855</v>
       </c>
       <c r="D41" t="n">
-        <v>0.470904</v>
+        <v>0.471117</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.527531</v>
+        <v>0.527513</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472074</v>
+        <v>0.476251</v>
       </c>
       <c r="D42" t="n">
-        <v>0.462917</v>
+        <v>0.463202</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.517891</v>
+        <v>0.518197</v>
       </c>
       <c r="C43" t="n">
-        <v>0.475326</v>
+        <v>0.466835</v>
       </c>
       <c r="D43" t="n">
-        <v>0.455262</v>
+        <v>0.455483</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.509019</v>
+        <v>0.509242</v>
       </c>
       <c r="C44" t="n">
-        <v>0.455215</v>
+        <v>0.459883</v>
       </c>
       <c r="D44" t="n">
-        <v>0.448066</v>
+        <v>0.44818</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.501163</v>
+        <v>0.500822</v>
       </c>
       <c r="C45" t="n">
-        <v>0.449592</v>
+        <v>0.449151</v>
       </c>
       <c r="D45" t="n">
-        <v>0.442041</v>
+        <v>0.441654</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.49261</v>
+        <v>0.493316</v>
       </c>
       <c r="C46" t="n">
-        <v>0.44356</v>
+        <v>0.443526</v>
       </c>
       <c r="D46" t="n">
-        <v>0.436673</v>
+        <v>0.436237</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.48623</v>
+        <v>0.486129</v>
       </c>
       <c r="C47" t="n">
-        <v>0.440431</v>
+        <v>0.440423</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430421</v>
+        <v>0.430482</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.479456</v>
+        <v>0.478878</v>
       </c>
       <c r="C48" t="n">
-        <v>0.432631</v>
+        <v>0.431599</v>
       </c>
       <c r="D48" t="n">
-        <v>0.426262</v>
+        <v>0.425961</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.474054</v>
+        <v>0.473836</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428164</v>
+        <v>0.430252</v>
       </c>
       <c r="D49" t="n">
-        <v>0.422639</v>
+        <v>0.42241</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469041</v>
+        <v>0.469329</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425491</v>
+        <v>0.425007</v>
       </c>
       <c r="D50" t="n">
-        <v>0.421426</v>
+        <v>0.42122</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465997</v>
+        <v>0.466625</v>
       </c>
       <c r="C51" t="n">
-        <v>0.423901</v>
+        <v>0.423732</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5754</v>
+        <v>0.5754050000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.435649</v>
+        <v>0.436107</v>
       </c>
       <c r="C52" t="n">
-        <v>0.425594</v>
+        <v>0.423241</v>
       </c>
       <c r="D52" t="n">
-        <v>0.562736</v>
+        <v>0.5623939999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.57025</v>
+        <v>0.570873</v>
       </c>
       <c r="C53" t="n">
-        <v>0.51373</v>
+        <v>0.519867</v>
       </c>
       <c r="D53" t="n">
-        <v>0.503371</v>
+        <v>0.505004</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5591469999999999</v>
+        <v>0.56032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.503066</v>
+        <v>0.5023</v>
       </c>
       <c r="D54" t="n">
-        <v>0.494266</v>
+        <v>0.493422</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.548673</v>
+        <v>0.5500350000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.495071</v>
+        <v>0.493881</v>
       </c>
       <c r="D55" t="n">
-        <v>0.486317</v>
+        <v>0.484801</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.539893</v>
+        <v>0.540337</v>
       </c>
       <c r="C56" t="n">
-        <v>0.488661</v>
+        <v>0.485426</v>
       </c>
       <c r="D56" t="n">
-        <v>0.47812</v>
+        <v>0.478911</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.531342</v>
+        <v>0.530457</v>
       </c>
       <c r="C57" t="n">
-        <v>0.479277</v>
+        <v>0.478572</v>
       </c>
       <c r="D57" t="n">
-        <v>0.470288</v>
+        <v>0.469848</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.522832</v>
+        <v>0.521208</v>
       </c>
       <c r="C58" t="n">
-        <v>0.474208</v>
+        <v>0.471215</v>
       </c>
       <c r="D58" t="n">
-        <v>0.462678</v>
+        <v>0.462868</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51437</v>
+        <v>0.513132</v>
       </c>
       <c r="C59" t="n">
-        <v>0.467425</v>
+        <v>0.463952</v>
       </c>
       <c r="D59" t="n">
-        <v>0.456328</v>
+        <v>0.456028</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.504428</v>
+        <v>0.506043</v>
       </c>
       <c r="C60" t="n">
-        <v>0.459358</v>
+        <v>0.457845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452082</v>
+        <v>0.450106</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.499794</v>
+        <v>0.500192</v>
       </c>
       <c r="C61" t="n">
-        <v>0.455905</v>
+        <v>0.45563</v>
       </c>
       <c r="D61" t="n">
-        <v>0.447106</v>
+        <v>0.444842</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.493653</v>
+        <v>0.493925</v>
       </c>
       <c r="C62" t="n">
-        <v>0.449083</v>
+        <v>0.446612</v>
       </c>
       <c r="D62" t="n">
-        <v>0.441564</v>
+        <v>0.44069</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.488229</v>
+        <v>0.487149</v>
       </c>
       <c r="C63" t="n">
-        <v>0.445939</v>
+        <v>0.445767</v>
       </c>
       <c r="D63" t="n">
-        <v>0.440317</v>
+        <v>0.438204</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.484104</v>
+        <v>0.482102</v>
       </c>
       <c r="C64" t="n">
-        <v>0.441958</v>
+        <v>0.44084</v>
       </c>
       <c r="D64" t="n">
-        <v>0.437154</v>
+        <v>0.436401</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.47942</v>
+        <v>0.479491</v>
       </c>
       <c r="C65" t="n">
-        <v>0.441739</v>
+        <v>0.438365</v>
       </c>
       <c r="D65" t="n">
-        <v>0.437516</v>
+        <v>0.436286</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.478609</v>
+        <v>0.479103</v>
       </c>
       <c r="C66" t="n">
-        <v>0.441886</v>
+        <v>0.438433</v>
       </c>
       <c r="D66" t="n">
-        <v>0.577635</v>
+        <v>0.5814820000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.587443</v>
+        <v>0.590101</v>
       </c>
       <c r="C67" t="n">
-        <v>0.529075</v>
+        <v>0.529979</v>
       </c>
       <c r="D67" t="n">
-        <v>0.518222</v>
+        <v>0.521386</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.576133</v>
+        <v>0.579508</v>
       </c>
       <c r="C68" t="n">
-        <v>0.518185</v>
+        <v>0.51942</v>
       </c>
       <c r="D68" t="n">
-        <v>0.510253</v>
+        <v>0.509521</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.565912</v>
+        <v>0.568824</v>
       </c>
       <c r="C69" t="n">
-        <v>0.51148</v>
+        <v>0.517474</v>
       </c>
       <c r="D69" t="n">
-        <v>0.504112</v>
+        <v>0.501252</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.556559</v>
+        <v>0.5587259999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.503436</v>
+        <v>0.501579</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493383</v>
+        <v>0.493291</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.54706</v>
+        <v>0.5503</v>
       </c>
       <c r="C71" t="n">
-        <v>0.498672</v>
+        <v>0.495539</v>
       </c>
       <c r="D71" t="n">
-        <v>0.488223</v>
+        <v>0.487018</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.538134</v>
+        <v>0.541717</v>
       </c>
       <c r="C72" t="n">
-        <v>0.487006</v>
+        <v>0.49136</v>
       </c>
       <c r="D72" t="n">
-        <v>0.482813</v>
+        <v>0.48043</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5297230000000001</v>
+        <v>0.533705</v>
       </c>
       <c r="C73" t="n">
-        <v>0.480855</v>
+        <v>0.485385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.473903</v>
+        <v>0.472824</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.521965</v>
+        <v>0.5255649999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.473676</v>
+        <v>0.478586</v>
       </c>
       <c r="D74" t="n">
-        <v>0.46706</v>
+        <v>0.467735</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.515184</v>
+        <v>0.518621</v>
       </c>
       <c r="C75" t="n">
-        <v>0.468319</v>
+        <v>0.470834</v>
       </c>
       <c r="D75" t="n">
-        <v>0.462704</v>
+        <v>0.462451</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.508511</v>
+        <v>0.512269</v>
       </c>
       <c r="C76" t="n">
-        <v>0.465336</v>
+        <v>0.464571</v>
       </c>
       <c r="D76" t="n">
-        <v>0.459662</v>
+        <v>0.458024</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.503607</v>
+        <v>0.506336</v>
       </c>
       <c r="C77" t="n">
-        <v>0.460323</v>
+        <v>0.459481</v>
       </c>
       <c r="D77" t="n">
-        <v>0.457201</v>
+        <v>0.454115</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.498391</v>
+        <v>0.501705</v>
       </c>
       <c r="C78" t="n">
-        <v>0.454281</v>
+        <v>0.4572</v>
       </c>
       <c r="D78" t="n">
-        <v>0.453026</v>
+        <v>0.452864</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.495408</v>
+        <v>0.498608</v>
       </c>
       <c r="C79" t="n">
-        <v>0.45374</v>
+        <v>0.45556</v>
       </c>
       <c r="D79" t="n">
-        <v>0.453515</v>
+        <v>0.452831</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.494148</v>
+        <v>0.496569</v>
       </c>
       <c r="C80" t="n">
-        <v>0.455334</v>
+        <v>0.455141</v>
       </c>
       <c r="D80" t="n">
-        <v>0.609142</v>
+        <v>0.613842</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.624931</v>
+        <v>0.62464</v>
       </c>
       <c r="C81" t="n">
-        <v>0.554514</v>
+        <v>0.551755</v>
       </c>
       <c r="D81" t="n">
-        <v>0.540144</v>
+        <v>0.539855</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.620013</v>
+        <v>0.6175850000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.542281</v>
+        <v>0.543247</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5323369999999999</v>
+        <v>0.53478</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.611771</v>
+        <v>0.609696</v>
       </c>
       <c r="C83" t="n">
-        <v>0.536681</v>
+        <v>0.544674</v>
       </c>
       <c r="D83" t="n">
-        <v>0.52338</v>
+        <v>0.526021</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.604486</v>
+        <v>0.60237</v>
       </c>
       <c r="C84" t="n">
-        <v>0.52654</v>
+        <v>0.531952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.515773</v>
+        <v>0.517236</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.596434</v>
+        <v>0.5949449999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.523374</v>
+        <v>0.523596</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5094880000000001</v>
+        <v>0.508547</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.588724</v>
+        <v>0.587981</v>
       </c>
       <c r="C86" t="n">
-        <v>0.511042</v>
+        <v>0.517894</v>
       </c>
       <c r="D86" t="n">
-        <v>0.499708</v>
+        <v>0.5051</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.580125</v>
+        <v>0.580327</v>
       </c>
       <c r="C87" t="n">
-        <v>0.505146</v>
+        <v>0.506501</v>
       </c>
       <c r="D87" t="n">
-        <v>0.496851</v>
+        <v>0.496672</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.571719</v>
+        <v>0.570031</v>
       </c>
       <c r="C88" t="n">
-        <v>0.498551</v>
+        <v>0.500134</v>
       </c>
       <c r="D88" t="n">
-        <v>0.487321</v>
+        <v>0.4903</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.563235</v>
+        <v>0.562401</v>
       </c>
       <c r="C89" t="n">
-        <v>0.494293</v>
+        <v>0.497162</v>
       </c>
       <c r="D89" t="n">
-        <v>0.48505</v>
+        <v>0.485561</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.556876</v>
+        <v>0.55799</v>
       </c>
       <c r="C90" t="n">
-        <v>0.488213</v>
+        <v>0.48691</v>
       </c>
       <c r="D90" t="n">
-        <v>0.481535</v>
+        <v>0.476262</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.550401</v>
+        <v>0.549436</v>
       </c>
       <c r="C91" t="n">
-        <v>0.482351</v>
+        <v>0.480395</v>
       </c>
       <c r="D91" t="n">
-        <v>0.475749</v>
+        <v>0.472463</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.543473</v>
+        <v>0.5441550000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.474225</v>
+        <v>0.483868</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468844</v>
+        <v>0.474565</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.539597</v>
+        <v>0.540003</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475743</v>
+        <v>0.474031</v>
       </c>
       <c r="D93" t="n">
-        <v>0.472467</v>
+        <v>0.468739</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.536211</v>
+        <v>0.534945</v>
       </c>
       <c r="C94" t="n">
-        <v>0.476507</v>
+        <v>0.472636</v>
       </c>
       <c r="D94" t="n">
-        <v>0.650515</v>
+        <v>0.6529470000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.670479</v>
+        <v>0.669864</v>
       </c>
       <c r="C95" t="n">
-        <v>0.581382</v>
+        <v>0.5799</v>
       </c>
       <c r="D95" t="n">
-        <v>0.584404</v>
+        <v>0.584293</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.675997</v>
+        <v>0.674671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.590049</v>
+        <v>0.5898</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588764</v>
+        <v>0.587973</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.67621</v>
+        <v>0.675374</v>
       </c>
       <c r="C97" t="n">
-        <v>0.582956</v>
+        <v>0.593465</v>
       </c>
       <c r="D97" t="n">
-        <v>0.577061</v>
+        <v>0.585754</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.673557</v>
+        <v>0.671867</v>
       </c>
       <c r="C98" t="n">
-        <v>0.588466</v>
+        <v>0.587669</v>
       </c>
       <c r="D98" t="n">
-        <v>0.582072</v>
+        <v>0.58136</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.670266</v>
+        <v>0.669839</v>
       </c>
       <c r="C99" t="n">
-        <v>0.574995</v>
+        <v>0.58588</v>
       </c>
       <c r="D99" t="n">
-        <v>0.566825</v>
+        <v>0.577331</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.665512</v>
+        <v>0.66429</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5734629999999999</v>
+        <v>0.58438</v>
       </c>
       <c r="D100" t="n">
-        <v>0.562406</v>
+        <v>0.572395</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.662371</v>
+        <v>0.6608889999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.583183</v>
+        <v>0.578664</v>
       </c>
       <c r="D101" t="n">
-        <v>0.572585</v>
+        <v>0.56816</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.656264</v>
+        <v>0.656904</v>
       </c>
       <c r="C102" t="n">
-        <v>0.578098</v>
+        <v>0.573841</v>
       </c>
       <c r="D102" t="n">
-        <v>0.564968</v>
+        <v>0.564049</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.652845</v>
+        <v>0.649739</v>
       </c>
       <c r="C103" t="n">
-        <v>0.57605</v>
+        <v>0.573718</v>
       </c>
       <c r="D103" t="n">
-        <v>0.56128</v>
+        <v>0.563192</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.647441</v>
+        <v>0.645016</v>
       </c>
       <c r="C104" t="n">
-        <v>0.568816</v>
+        <v>0.554674</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5545330000000001</v>
+        <v>0.540068</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.646905</v>
+        <v>0.640224</v>
       </c>
       <c r="C105" t="n">
-        <v>0.56989</v>
+        <v>0.56459</v>
       </c>
       <c r="D105" t="n">
-        <v>0.555081</v>
+        <v>0.5510620000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.641935</v>
+        <v>0.637085</v>
       </c>
       <c r="C106" t="n">
-        <v>0.551141</v>
+        <v>0.565014</v>
       </c>
       <c r="D106" t="n">
-        <v>0.536282</v>
+        <v>0.548621</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.63685</v>
+        <v>0.633927</v>
       </c>
       <c r="C107" t="n">
-        <v>0.561592</v>
+        <v>0.561661</v>
       </c>
       <c r="D107" t="n">
-        <v>0.547404</v>
+        <v>0.554885</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.634502</v>
+        <v>0.629671</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5641929999999999</v>
+        <v>0.563293</v>
       </c>
       <c r="D108" t="n">
-        <v>0.729064</v>
+        <v>0.714935</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6007439999999999</v>
+        <v>0.596467</v>
       </c>
       <c r="C109" t="n">
-        <v>0.566098</v>
+        <v>0.568137</v>
       </c>
       <c r="D109" t="n">
-        <v>0.730957</v>
+        <v>0.728324</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.744124</v>
+        <v>0.741703</v>
       </c>
       <c r="C110" t="n">
-        <v>0.713726</v>
+        <v>0.72781</v>
       </c>
       <c r="D110" t="n">
-        <v>0.727031</v>
+        <v>0.729513</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.746713</v>
+        <v>0.747891</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7213889999999999</v>
+        <v>0.722801</v>
       </c>
       <c r="D111" t="n">
-        <v>0.722298</v>
+        <v>0.72958</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.748851</v>
+        <v>0.7478630000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.719218</v>
+        <v>0.722352</v>
       </c>
       <c r="D112" t="n">
-        <v>0.725786</v>
+        <v>0.729346</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.752481</v>
+        <v>0.756627</v>
       </c>
       <c r="C113" t="n">
-        <v>0.720158</v>
+        <v>0.722252</v>
       </c>
       <c r="D113" t="n">
-        <v>0.706372</v>
+        <v>0.725441</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7518280000000001</v>
+        <v>0.756422</v>
       </c>
       <c r="C114" t="n">
-        <v>0.710448</v>
+        <v>0.723647</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7211920000000001</v>
+        <v>0.707497</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.75366</v>
+        <v>0.757646</v>
       </c>
       <c r="C115" t="n">
-        <v>0.712021</v>
+        <v>0.723818</v>
       </c>
       <c r="D115" t="n">
-        <v>0.71287</v>
+        <v>0.719103</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.751884</v>
+        <v>0.757109</v>
       </c>
       <c r="C116" t="n">
-        <v>0.714979</v>
+        <v>0.718302</v>
       </c>
       <c r="D116" t="n">
-        <v>0.717021</v>
+        <v>0.718189</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.756261</v>
+        <v>0.761517</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7126400000000001</v>
+        <v>0.713741</v>
       </c>
       <c r="D117" t="n">
-        <v>0.708757</v>
+        <v>0.715866</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.758611</v>
+        <v>0.76363</v>
       </c>
       <c r="C118" t="n">
-        <v>0.71736</v>
+        <v>0.721644</v>
       </c>
       <c r="D118" t="n">
-        <v>0.703121</v>
+        <v>0.712395</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.757593</v>
+        <v>0.76169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.709588</v>
+        <v>0.716761</v>
       </c>
       <c r="D119" t="n">
-        <v>0.714921</v>
+        <v>0.697891</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.761042</v>
+        <v>0.764966</v>
       </c>
       <c r="C120" t="n">
-        <v>0.719343</v>
+        <v>0.720869</v>
       </c>
       <c r="D120" t="n">
-        <v>0.713439</v>
+        <v>0.71455</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7618740000000001</v>
+        <v>0.7655110000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.712588</v>
+        <v>0.719675</v>
       </c>
       <c r="D121" t="n">
-        <v>0.713207</v>
+        <v>0.712361</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.764983</v>
+        <v>0.767218</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7265470000000001</v>
+        <v>0.715872</v>
       </c>
       <c r="D122" t="n">
-        <v>0.714762</v>
+        <v>0.713946</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.770068</v>
+        <v>0.769574</v>
       </c>
       <c r="C123" t="n">
-        <v>0.730452</v>
+        <v>0.725113</v>
       </c>
       <c r="D123" t="n">
-        <v>0.848193</v>
+        <v>0.8480569999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.923639</v>
+        <v>0.925627</v>
       </c>
       <c r="C124" t="n">
-        <v>0.861561</v>
+        <v>0.85932</v>
       </c>
       <c r="D124" t="n">
-        <v>0.863826</v>
+        <v>0.848563</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.926641</v>
+        <v>0.927264</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8661720000000001</v>
+        <v>0.86292</v>
       </c>
       <c r="D125" t="n">
-        <v>0.864608</v>
+        <v>0.863448</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.928901</v>
+        <v>0.930321</v>
       </c>
       <c r="C126" t="n">
-        <v>0.867241</v>
+        <v>0.869244</v>
       </c>
       <c r="D126" t="n">
-        <v>0.86316</v>
+        <v>0.864186</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.930863</v>
+        <v>0.933087</v>
       </c>
       <c r="C127" t="n">
-        <v>0.870636</v>
+        <v>0.868699</v>
       </c>
       <c r="D127" t="n">
-        <v>0.863249</v>
+        <v>0.865405</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.931871</v>
+        <v>0.934202</v>
       </c>
       <c r="C128" t="n">
-        <v>0.87009</v>
+        <v>0.871356</v>
       </c>
       <c r="D128" t="n">
-        <v>0.862835</v>
+        <v>0.861115</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.93465</v>
+        <v>0.93672</v>
       </c>
       <c r="C129" t="n">
-        <v>0.871456</v>
+        <v>0.874561</v>
       </c>
       <c r="D129" t="n">
-        <v>0.86193</v>
+        <v>0.865742</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.933044</v>
+        <v>0.938974</v>
       </c>
       <c r="C130" t="n">
-        <v>0.873667</v>
+        <v>0.874444</v>
       </c>
       <c r="D130" t="n">
-        <v>0.865629</v>
+        <v>0.865866</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.939842</v>
+        <v>0.93986</v>
       </c>
       <c r="C131" t="n">
-        <v>0.876614</v>
+        <v>0.875445</v>
       </c>
       <c r="D131" t="n">
-        <v>0.864025</v>
+        <v>0.867807</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.940194</v>
+        <v>0.943808</v>
       </c>
       <c r="C132" t="n">
-        <v>0.87217</v>
+        <v>0.875291</v>
       </c>
       <c r="D132" t="n">
-        <v>0.862383</v>
+        <v>0.869686</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.94726</v>
+        <v>0.942758</v>
       </c>
       <c r="C133" t="n">
-        <v>0.879269</v>
+        <v>0.877461</v>
       </c>
       <c r="D133" t="n">
-        <v>0.863228</v>
+        <v>0.863039</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.940811</v>
+        <v>0.945206</v>
       </c>
       <c r="C134" t="n">
-        <v>0.88406</v>
+        <v>0.880737</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8728590000000001</v>
+        <v>0.872641</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.946655</v>
+        <v>0.948672</v>
       </c>
       <c r="C135" t="n">
-        <v>0.887375</v>
+        <v>0.882428</v>
       </c>
       <c r="D135" t="n">
-        <v>0.872457</v>
+        <v>0.865675</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.953275</v>
+        <v>0.947279</v>
       </c>
       <c r="C136" t="n">
-        <v>0.888578</v>
+        <v>0.887564</v>
       </c>
       <c r="D136" t="n">
-        <v>0.870436</v>
+        <v>0.875705</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9490229999999999</v>
+        <v>0.953299</v>
       </c>
       <c r="C137" t="n">
-        <v>0.89427</v>
+        <v>0.8947619999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>1.01824</v>
+        <v>1.01844</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09439</v>
+        <v>1.09914</v>
       </c>
       <c r="C138" t="n">
-        <v>1.03758</v>
+        <v>1.03624</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02038</v>
+        <v>1.02556</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09621</v>
+        <v>1.09934</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03437</v>
+        <v>1.0403</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01866</v>
+        <v>1.02519</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09549</v>
+        <v>1.09714</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03438</v>
+        <v>1.03703</v>
       </c>
       <c r="D140" t="n">
-        <v>1.02223</v>
+        <v>1.02265</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09827</v>
+        <v>1.09918</v>
       </c>
       <c r="C141" t="n">
-        <v>1.04083</v>
+        <v>1.03997</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02348</v>
+        <v>1.02489</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09666</v>
+        <v>1.09576</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03651</v>
+        <v>1.03842</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02401</v>
+        <v>1.02383</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09614</v>
+        <v>1.09673</v>
       </c>
       <c r="C143" t="n">
-        <v>1.0399</v>
+        <v>1.03936</v>
       </c>
       <c r="D143" t="n">
-        <v>1.0242</v>
+        <v>1.02442</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.467227</v>
+        <v>0.467573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.437835</v>
+        <v>0.43703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.431008</v>
+        <v>0.430642</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.462163</v>
+        <v>0.462769</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427947</v>
+        <v>0.427927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42167</v>
+        <v>0.422074</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456379</v>
+        <v>0.456919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.422334</v>
+        <v>0.422127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417351</v>
+        <v>0.417098</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.450735</v>
+        <v>0.451071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.417452</v>
+        <v>0.417353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.413208</v>
+        <v>0.41305</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442959</v>
+        <v>0.443315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4117</v>
+        <v>0.411499</v>
       </c>
       <c r="D6" t="n">
-        <v>0.408121</v>
+        <v>0.408301</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.438876</v>
+        <v>0.439339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407875</v>
+        <v>0.407773</v>
       </c>
       <c r="D7" t="n">
-        <v>0.406651</v>
+        <v>0.406274</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.43557</v>
+        <v>0.435937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.40652</v>
+        <v>0.406498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.406947</v>
+        <v>0.406654</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437525</v>
+        <v>0.43792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.408939</v>
+        <v>0.408977</v>
       </c>
       <c r="D9" t="n">
-        <v>0.521213</v>
+        <v>0.5213179999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.548304</v>
+        <v>0.549444</v>
       </c>
       <c r="C10" t="n">
-        <v>0.526414</v>
+        <v>0.525841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.514881</v>
+        <v>0.515315</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.53599</v>
+        <v>0.537609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.514035</v>
+        <v>0.513243</v>
       </c>
       <c r="D11" t="n">
-        <v>0.502951</v>
+        <v>0.503172</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526357</v>
+        <v>0.527348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.503598</v>
+        <v>0.503082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.493411</v>
+        <v>0.493143</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.514969</v>
+        <v>0.516621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.491855</v>
+        <v>0.491602</v>
       </c>
       <c r="D13" t="n">
-        <v>0.482273</v>
+        <v>0.482319</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5057160000000001</v>
+        <v>0.507315</v>
       </c>
       <c r="C14" t="n">
-        <v>0.482258</v>
+        <v>0.481649</v>
       </c>
       <c r="D14" t="n">
-        <v>0.472782</v>
+        <v>0.473086</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.496732</v>
+        <v>0.497791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.472734</v>
+        <v>0.472639</v>
       </c>
       <c r="D15" t="n">
-        <v>0.464091</v>
+        <v>0.464284</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.487956</v>
+        <v>0.489094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.463704</v>
+        <v>0.463494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.455659</v>
+        <v>0.455646</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.47972</v>
+        <v>0.48051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455318</v>
+        <v>0.455404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.44768</v>
+        <v>0.448093</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471715</v>
+        <v>0.472933</v>
       </c>
       <c r="C18" t="n">
-        <v>0.447416</v>
+        <v>0.447015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.440297</v>
+        <v>0.440194</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465816</v>
+        <v>0.466831</v>
       </c>
       <c r="C19" t="n">
-        <v>0.44107</v>
+        <v>0.44117</v>
       </c>
       <c r="D19" t="n">
-        <v>0.434927</v>
+        <v>0.435056</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458674</v>
+        <v>0.459653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.434133</v>
+        <v>0.433795</v>
       </c>
       <c r="D20" t="n">
-        <v>0.428908</v>
+        <v>0.429102</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.454047</v>
+        <v>0.455053</v>
       </c>
       <c r="C21" t="n">
-        <v>0.429705</v>
+        <v>0.42959</v>
       </c>
       <c r="D21" t="n">
-        <v>0.425778</v>
+        <v>0.425976</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450472</v>
+        <v>0.451181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.426116</v>
+        <v>0.425903</v>
       </c>
       <c r="D22" t="n">
-        <v>0.423827</v>
+        <v>0.424192</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.448122</v>
+        <v>0.448964</v>
       </c>
       <c r="C23" t="n">
-        <v>0.425185</v>
+        <v>0.42475</v>
       </c>
       <c r="D23" t="n">
-        <v>0.542932</v>
+        <v>0.54283</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5615250000000001</v>
+        <v>0.562661</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497514</v>
+        <v>0.497024</v>
       </c>
       <c r="D24" t="n">
-        <v>0.488017</v>
+        <v>0.487758</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.548973</v>
+        <v>0.550219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.494872</v>
+        <v>0.486706</v>
       </c>
       <c r="D25" t="n">
-        <v>0.477449</v>
+        <v>0.477269</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.538042</v>
+        <v>0.539286</v>
       </c>
       <c r="C26" t="n">
-        <v>0.490303</v>
+        <v>0.477497</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468592</v>
+        <v>0.468368</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.527506</v>
+        <v>0.528336</v>
       </c>
       <c r="C27" t="n">
-        <v>0.468694</v>
+        <v>0.473542</v>
       </c>
       <c r="D27" t="n">
-        <v>0.460145</v>
+        <v>0.459182</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.517962</v>
+        <v>0.518954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.468292</v>
+        <v>0.460183</v>
       </c>
       <c r="D28" t="n">
-        <v>0.452205</v>
+        <v>0.451811</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.507962</v>
+        <v>0.508702</v>
       </c>
       <c r="C29" t="n">
-        <v>0.452002</v>
+        <v>0.451634</v>
       </c>
       <c r="D29" t="n">
-        <v>0.443987</v>
+        <v>0.443721</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499053</v>
+        <v>0.499374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.444716</v>
+        <v>0.444168</v>
       </c>
       <c r="D30" t="n">
-        <v>0.437096</v>
+        <v>0.436797</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.490485</v>
+        <v>0.491096</v>
       </c>
       <c r="C31" t="n">
-        <v>0.437293</v>
+        <v>0.437039</v>
       </c>
       <c r="D31" t="n">
-        <v>0.430188</v>
+        <v>0.430199</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.483056</v>
+        <v>0.48374</v>
       </c>
       <c r="C32" t="n">
-        <v>0.431243</v>
+        <v>0.430901</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424564</v>
+        <v>0.424671</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.475884</v>
+        <v>0.476754</v>
       </c>
       <c r="C33" t="n">
-        <v>0.426053</v>
+        <v>0.425086</v>
       </c>
       <c r="D33" t="n">
-        <v>0.419819</v>
+        <v>0.419424</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.469508</v>
+        <v>0.470122</v>
       </c>
       <c r="C34" t="n">
-        <v>0.420193</v>
+        <v>0.41966</v>
       </c>
       <c r="D34" t="n">
-        <v>0.414968</v>
+        <v>0.414889</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463851</v>
+        <v>0.464501</v>
       </c>
       <c r="C35" t="n">
-        <v>0.422059</v>
+        <v>0.415724</v>
       </c>
       <c r="D35" t="n">
-        <v>0.417125</v>
+        <v>0.411693</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459782</v>
+        <v>0.460443</v>
       </c>
       <c r="C36" t="n">
-        <v>0.413376</v>
+        <v>0.412777</v>
       </c>
       <c r="D36" t="n">
-        <v>0.410791</v>
+        <v>0.410492</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458179</v>
+        <v>0.458544</v>
       </c>
       <c r="C37" t="n">
-        <v>0.412505</v>
+        <v>0.417248</v>
       </c>
       <c r="D37" t="n">
-        <v>0.559129</v>
+        <v>0.559848</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.570178</v>
+        <v>0.57012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.506736</v>
+        <v>0.519528</v>
       </c>
       <c r="D38" t="n">
-        <v>0.497865</v>
+        <v>0.497598</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.559624</v>
+        <v>0.559866</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501904</v>
+        <v>0.501522</v>
       </c>
       <c r="D39" t="n">
-        <v>0.489034</v>
+        <v>0.488862</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.548315</v>
+        <v>0.548171</v>
       </c>
       <c r="C40" t="n">
-        <v>0.488542</v>
+        <v>0.488207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.479505</v>
+        <v>0.479492</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.537477</v>
+        <v>0.537516</v>
       </c>
       <c r="C41" t="n">
-        <v>0.479855</v>
+        <v>0.484029</v>
       </c>
       <c r="D41" t="n">
-        <v>0.471117</v>
+        <v>0.470625</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.527513</v>
+        <v>0.527685</v>
       </c>
       <c r="C42" t="n">
-        <v>0.476251</v>
+        <v>0.472611</v>
       </c>
       <c r="D42" t="n">
-        <v>0.463202</v>
+        <v>0.463252</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.518197</v>
+        <v>0.518034</v>
       </c>
       <c r="C43" t="n">
-        <v>0.466835</v>
+        <v>0.463222</v>
       </c>
       <c r="D43" t="n">
-        <v>0.455483</v>
+        <v>0.455401</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.509242</v>
+        <v>0.5097159999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.459883</v>
+        <v>0.455614</v>
       </c>
       <c r="D44" t="n">
-        <v>0.44818</v>
+        <v>0.448499</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.500822</v>
+        <v>0.5012</v>
       </c>
       <c r="C45" t="n">
-        <v>0.449151</v>
+        <v>0.448681</v>
       </c>
       <c r="D45" t="n">
-        <v>0.441654</v>
+        <v>0.441761</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.493316</v>
+        <v>0.493418</v>
       </c>
       <c r="C46" t="n">
-        <v>0.443526</v>
+        <v>0.44364</v>
       </c>
       <c r="D46" t="n">
-        <v>0.436237</v>
+        <v>0.437138</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.486129</v>
+        <v>0.486329</v>
       </c>
       <c r="C47" t="n">
-        <v>0.440423</v>
+        <v>0.436198</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430482</v>
+        <v>0.430669</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.478878</v>
+        <v>0.480174</v>
       </c>
       <c r="C48" t="n">
-        <v>0.431599</v>
+        <v>0.431555</v>
       </c>
       <c r="D48" t="n">
-        <v>0.425961</v>
+        <v>0.426304</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.473836</v>
+        <v>0.474581</v>
       </c>
       <c r="C49" t="n">
-        <v>0.430252</v>
+        <v>0.428032</v>
       </c>
       <c r="D49" t="n">
-        <v>0.42241</v>
+        <v>0.423631</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469329</v>
+        <v>0.470202</v>
       </c>
       <c r="C50" t="n">
-        <v>0.425007</v>
+        <v>0.424188</v>
       </c>
       <c r="D50" t="n">
-        <v>0.42122</v>
+        <v>0.424744</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466625</v>
+        <v>0.466729</v>
       </c>
       <c r="C51" t="n">
-        <v>0.423732</v>
+        <v>0.423633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5754050000000001</v>
+        <v>0.57679</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.436107</v>
+        <v>0.436558</v>
       </c>
       <c r="C52" t="n">
-        <v>0.423241</v>
+        <v>0.424346</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5623939999999999</v>
+        <v>0.562951</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.570873</v>
+        <v>0.57079</v>
       </c>
       <c r="C53" t="n">
-        <v>0.519867</v>
+        <v>0.513589</v>
       </c>
       <c r="D53" t="n">
-        <v>0.505004</v>
+        <v>0.50593</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.56032</v>
+        <v>0.560428</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5023</v>
+        <v>0.510057</v>
       </c>
       <c r="D54" t="n">
-        <v>0.493422</v>
+        <v>0.492826</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5500350000000001</v>
+        <v>0.55038</v>
       </c>
       <c r="C55" t="n">
-        <v>0.493881</v>
+        <v>0.497369</v>
       </c>
       <c r="D55" t="n">
-        <v>0.484801</v>
+        <v>0.484618</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.540337</v>
+        <v>0.540841</v>
       </c>
       <c r="C56" t="n">
-        <v>0.485426</v>
+        <v>0.491828</v>
       </c>
       <c r="D56" t="n">
-        <v>0.478911</v>
+        <v>0.47839</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.530457</v>
+        <v>0.5315260000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.478572</v>
+        <v>0.483105</v>
       </c>
       <c r="D57" t="n">
-        <v>0.469848</v>
+        <v>0.46988</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.521208</v>
+        <v>0.522315</v>
       </c>
       <c r="C58" t="n">
-        <v>0.471215</v>
+        <v>0.472138</v>
       </c>
       <c r="D58" t="n">
-        <v>0.462868</v>
+        <v>0.46397</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.513132</v>
+        <v>0.514978</v>
       </c>
       <c r="C59" t="n">
-        <v>0.463952</v>
+        <v>0.465127</v>
       </c>
       <c r="D59" t="n">
-        <v>0.456028</v>
+        <v>0.45634</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.506043</v>
+        <v>0.506233</v>
       </c>
       <c r="C60" t="n">
-        <v>0.457845</v>
+        <v>0.457447</v>
       </c>
       <c r="D60" t="n">
-        <v>0.450106</v>
+        <v>0.450742</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.500192</v>
+        <v>0.498577</v>
       </c>
       <c r="C61" t="n">
-        <v>0.45563</v>
+        <v>0.453041</v>
       </c>
       <c r="D61" t="n">
-        <v>0.444842</v>
+        <v>0.446199</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.493925</v>
+        <v>0.493919</v>
       </c>
       <c r="C62" t="n">
-        <v>0.446612</v>
+        <v>0.450523</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44069</v>
+        <v>0.441107</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.487149</v>
+        <v>0.486943</v>
       </c>
       <c r="C63" t="n">
-        <v>0.445767</v>
+        <v>0.443797</v>
       </c>
       <c r="D63" t="n">
-        <v>0.438204</v>
+        <v>0.439465</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.482102</v>
+        <v>0.483071</v>
       </c>
       <c r="C64" t="n">
-        <v>0.44084</v>
+        <v>0.442588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.436401</v>
+        <v>0.437519</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.479491</v>
+        <v>0.480087</v>
       </c>
       <c r="C65" t="n">
-        <v>0.438365</v>
+        <v>0.440601</v>
       </c>
       <c r="D65" t="n">
-        <v>0.436286</v>
+        <v>0.436958</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.479103</v>
+        <v>0.476771</v>
       </c>
       <c r="C66" t="n">
-        <v>0.438433</v>
+        <v>0.44093</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5814820000000001</v>
+        <v>0.582728</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.590101</v>
+        <v>0.5912269999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.529979</v>
+        <v>0.53043</v>
       </c>
       <c r="D67" t="n">
-        <v>0.521386</v>
+        <v>0.519309</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.579508</v>
+        <v>0.580853</v>
       </c>
       <c r="C68" t="n">
-        <v>0.51942</v>
+        <v>0.520162</v>
       </c>
       <c r="D68" t="n">
-        <v>0.509521</v>
+        <v>0.510551</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.568824</v>
+        <v>0.569365</v>
       </c>
       <c r="C69" t="n">
-        <v>0.517474</v>
+        <v>0.514146</v>
       </c>
       <c r="D69" t="n">
-        <v>0.501252</v>
+        <v>0.502374</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5587259999999999</v>
+        <v>0.559269</v>
       </c>
       <c r="C70" t="n">
-        <v>0.501579</v>
+        <v>0.505012</v>
       </c>
       <c r="D70" t="n">
-        <v>0.493291</v>
+        <v>0.492084</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5503</v>
+        <v>0.549551</v>
       </c>
       <c r="C71" t="n">
-        <v>0.495539</v>
+        <v>0.49881</v>
       </c>
       <c r="D71" t="n">
-        <v>0.487018</v>
+        <v>0.486944</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.541717</v>
+        <v>0.5412</v>
       </c>
       <c r="C72" t="n">
-        <v>0.49136</v>
+        <v>0.492485</v>
       </c>
       <c r="D72" t="n">
-        <v>0.48043</v>
+        <v>0.480495</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.533705</v>
+        <v>0.531714</v>
       </c>
       <c r="C73" t="n">
-        <v>0.485385</v>
+        <v>0.483603</v>
       </c>
       <c r="D73" t="n">
-        <v>0.472824</v>
+        <v>0.475268</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5255649999999999</v>
+        <v>0.523689</v>
       </c>
       <c r="C74" t="n">
-        <v>0.478586</v>
+        <v>0.478046</v>
       </c>
       <c r="D74" t="n">
-        <v>0.467735</v>
+        <v>0.467862</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.518621</v>
+        <v>0.517855</v>
       </c>
       <c r="C75" t="n">
-        <v>0.470834</v>
+        <v>0.471746</v>
       </c>
       <c r="D75" t="n">
-        <v>0.462451</v>
+        <v>0.462341</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.512269</v>
+        <v>0.511212</v>
       </c>
       <c r="C76" t="n">
-        <v>0.464571</v>
+        <v>0.462503</v>
       </c>
       <c r="D76" t="n">
-        <v>0.458024</v>
+        <v>0.459378</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.506336</v>
+        <v>0.504534</v>
       </c>
       <c r="C77" t="n">
-        <v>0.459481</v>
+        <v>0.459388</v>
       </c>
       <c r="D77" t="n">
-        <v>0.454115</v>
+        <v>0.457164</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.501705</v>
+        <v>0.499777</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4572</v>
+        <v>0.458446</v>
       </c>
       <c r="D78" t="n">
-        <v>0.452864</v>
+        <v>0.453814</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.498608</v>
+        <v>0.496402</v>
       </c>
       <c r="C79" t="n">
-        <v>0.45556</v>
+        <v>0.455916</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452831</v>
+        <v>0.452941</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.496569</v>
+        <v>0.495226</v>
       </c>
       <c r="C80" t="n">
-        <v>0.455141</v>
+        <v>0.456754</v>
       </c>
       <c r="D80" t="n">
-        <v>0.613842</v>
+        <v>0.615794</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.62464</v>
+        <v>0.627408</v>
       </c>
       <c r="C81" t="n">
-        <v>0.551755</v>
+        <v>0.551948</v>
       </c>
       <c r="D81" t="n">
-        <v>0.539855</v>
+        <v>0.541161</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6175850000000001</v>
+        <v>0.621139</v>
       </c>
       <c r="C82" t="n">
-        <v>0.543247</v>
+        <v>0.544643</v>
       </c>
       <c r="D82" t="n">
-        <v>0.53478</v>
+        <v>0.532843</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.609696</v>
+        <v>0.61308</v>
       </c>
       <c r="C83" t="n">
-        <v>0.544674</v>
+        <v>0.535828</v>
       </c>
       <c r="D83" t="n">
-        <v>0.526021</v>
+        <v>0.52506</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.60237</v>
+        <v>0.604508</v>
       </c>
       <c r="C84" t="n">
-        <v>0.531952</v>
+        <v>0.524623</v>
       </c>
       <c r="D84" t="n">
-        <v>0.517236</v>
+        <v>0.515421</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5949449999999999</v>
+        <v>0.597073</v>
       </c>
       <c r="C85" t="n">
-        <v>0.523596</v>
+        <v>0.521135</v>
       </c>
       <c r="D85" t="n">
-        <v>0.508547</v>
+        <v>0.511548</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.587981</v>
+        <v>0.589738</v>
       </c>
       <c r="C86" t="n">
-        <v>0.517894</v>
+        <v>0.513144</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5051</v>
+        <v>0.5050480000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.580327</v>
+        <v>0.580114</v>
       </c>
       <c r="C87" t="n">
-        <v>0.506501</v>
+        <v>0.504602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.496672</v>
+        <v>0.494675</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.570031</v>
+        <v>0.571298</v>
       </c>
       <c r="C88" t="n">
-        <v>0.500134</v>
+        <v>0.497786</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4903</v>
+        <v>0.488333</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.562401</v>
+        <v>0.56262</v>
       </c>
       <c r="C89" t="n">
-        <v>0.497162</v>
+        <v>0.49488</v>
       </c>
       <c r="D89" t="n">
-        <v>0.485561</v>
+        <v>0.485657</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.55799</v>
+        <v>0.556488</v>
       </c>
       <c r="C90" t="n">
-        <v>0.48691</v>
+        <v>0.486252</v>
       </c>
       <c r="D90" t="n">
-        <v>0.476262</v>
+        <v>0.477212</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.549436</v>
+        <v>0.551316</v>
       </c>
       <c r="C91" t="n">
-        <v>0.480395</v>
+        <v>0.485037</v>
       </c>
       <c r="D91" t="n">
-        <v>0.472463</v>
+        <v>0.477796</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5441550000000001</v>
+        <v>0.544919</v>
       </c>
       <c r="C92" t="n">
-        <v>0.483868</v>
+        <v>0.478835</v>
       </c>
       <c r="D92" t="n">
-        <v>0.474565</v>
+        <v>0.474345</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.540003</v>
+        <v>0.539176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.474031</v>
+        <v>0.478851</v>
       </c>
       <c r="D93" t="n">
-        <v>0.468739</v>
+        <v>0.474118</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.534945</v>
+        <v>0.537088</v>
       </c>
       <c r="C94" t="n">
-        <v>0.472636</v>
+        <v>0.477287</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6529470000000001</v>
+        <v>0.654514</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.669864</v>
+        <v>0.671393</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5799</v>
+        <v>0.588144</v>
       </c>
       <c r="D95" t="n">
-        <v>0.584293</v>
+        <v>0.590717</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.674671</v>
+        <v>0.677477</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5898</v>
+        <v>0.592622</v>
       </c>
       <c r="D96" t="n">
-        <v>0.587973</v>
+        <v>0.588561</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.675374</v>
+        <v>0.676511</v>
       </c>
       <c r="C97" t="n">
-        <v>0.593465</v>
+        <v>0.592086</v>
       </c>
       <c r="D97" t="n">
-        <v>0.585754</v>
+        <v>0.5847290000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.671867</v>
+        <v>0.675086</v>
       </c>
       <c r="C98" t="n">
-        <v>0.587669</v>
+        <v>0.584522</v>
       </c>
       <c r="D98" t="n">
-        <v>0.58136</v>
+        <v>0.574815</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.669839</v>
+        <v>0.671591</v>
       </c>
       <c r="C99" t="n">
-        <v>0.58588</v>
+        <v>0.581796</v>
       </c>
       <c r="D99" t="n">
-        <v>0.577331</v>
+        <v>0.570694</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.66429</v>
+        <v>0.667888</v>
       </c>
       <c r="C100" t="n">
-        <v>0.58438</v>
+        <v>0.5847250000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.572395</v>
+        <v>0.57292</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6608889999999999</v>
+        <v>0.663018</v>
       </c>
       <c r="C101" t="n">
-        <v>0.578664</v>
+        <v>0.572125</v>
       </c>
       <c r="D101" t="n">
-        <v>0.56816</v>
+        <v>0.560101</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.656904</v>
+        <v>0.658821</v>
       </c>
       <c r="C102" t="n">
-        <v>0.573841</v>
+        <v>0.564767</v>
       </c>
       <c r="D102" t="n">
-        <v>0.564049</v>
+        <v>0.551892</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.649739</v>
+        <v>0.652074</v>
       </c>
       <c r="C103" t="n">
-        <v>0.573718</v>
+        <v>0.574109</v>
       </c>
       <c r="D103" t="n">
-        <v>0.563192</v>
+        <v>0.560931</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.645016</v>
+        <v>0.646563</v>
       </c>
       <c r="C104" t="n">
-        <v>0.554674</v>
+        <v>0.5697680000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.540068</v>
+        <v>0.556605</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.640224</v>
+        <v>0.642509</v>
       </c>
       <c r="C105" t="n">
-        <v>0.56459</v>
+        <v>0.570499</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5510620000000001</v>
+        <v>0.555206</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.637085</v>
+        <v>0.642199</v>
       </c>
       <c r="C106" t="n">
-        <v>0.565014</v>
+        <v>0.5489270000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.548621</v>
+        <v>0.5351320000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.633927</v>
+        <v>0.635382</v>
       </c>
       <c r="C107" t="n">
-        <v>0.561661</v>
+        <v>0.563957</v>
       </c>
       <c r="D107" t="n">
-        <v>0.554885</v>
+        <v>0.5482320000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.629671</v>
+        <v>0.632224</v>
       </c>
       <c r="C108" t="n">
-        <v>0.563293</v>
+        <v>0.566211</v>
       </c>
       <c r="D108" t="n">
-        <v>0.714935</v>
+        <v>0.727484</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.596467</v>
+        <v>0.599121</v>
       </c>
       <c r="C109" t="n">
-        <v>0.568137</v>
+        <v>0.565713</v>
       </c>
       <c r="D109" t="n">
-        <v>0.728324</v>
+        <v>0.732213</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.741703</v>
+        <v>0.738305</v>
       </c>
       <c r="C110" t="n">
-        <v>0.72781</v>
+        <v>0.724646</v>
       </c>
       <c r="D110" t="n">
-        <v>0.729513</v>
+        <v>0.714686</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.747891</v>
+        <v>0.747387</v>
       </c>
       <c r="C111" t="n">
-        <v>0.722801</v>
+        <v>0.720662</v>
       </c>
       <c r="D111" t="n">
-        <v>0.72958</v>
+        <v>0.712873</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7478630000000001</v>
+        <v>0.750497</v>
       </c>
       <c r="C112" t="n">
-        <v>0.722352</v>
+        <v>0.726181</v>
       </c>
       <c r="D112" t="n">
-        <v>0.729346</v>
+        <v>0.710225</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.756627</v>
+        <v>0.749299</v>
       </c>
       <c r="C113" t="n">
-        <v>0.722252</v>
+        <v>0.722432</v>
       </c>
       <c r="D113" t="n">
-        <v>0.725441</v>
+        <v>0.720951</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.756422</v>
+        <v>0.7501679999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.723647</v>
+        <v>0.717043</v>
       </c>
       <c r="D114" t="n">
-        <v>0.707497</v>
+        <v>0.7105050000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.757646</v>
+        <v>0.754645</v>
       </c>
       <c r="C115" t="n">
-        <v>0.723818</v>
+        <v>0.7146130000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.719103</v>
+        <v>0.710311</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.757109</v>
+        <v>0.753868</v>
       </c>
       <c r="C116" t="n">
-        <v>0.718302</v>
+        <v>0.718734</v>
       </c>
       <c r="D116" t="n">
-        <v>0.718189</v>
+        <v>0.717172</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.761517</v>
+        <v>0.755661</v>
       </c>
       <c r="C117" t="n">
-        <v>0.713741</v>
+        <v>0.7118409999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.715866</v>
+        <v>0.7158949999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.76363</v>
+        <v>0.758057</v>
       </c>
       <c r="C118" t="n">
-        <v>0.721644</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.712395</v>
+        <v>0.699358</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.76169</v>
+        <v>0.762551</v>
       </c>
       <c r="C119" t="n">
-        <v>0.716761</v>
+        <v>0.7240259999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.697891</v>
+        <v>0.713934</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.764966</v>
+        <v>0.763355</v>
       </c>
       <c r="C120" t="n">
-        <v>0.720869</v>
+        <v>0.720372</v>
       </c>
       <c r="D120" t="n">
-        <v>0.71455</v>
+        <v>0.712684</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7655110000000001</v>
+        <v>0.763856</v>
       </c>
       <c r="C121" t="n">
-        <v>0.719675</v>
+        <v>0.717135</v>
       </c>
       <c r="D121" t="n">
-        <v>0.712361</v>
+        <v>0.710507</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.767218</v>
+        <v>0.767666</v>
       </c>
       <c r="C122" t="n">
-        <v>0.715872</v>
+        <v>0.723256</v>
       </c>
       <c r="D122" t="n">
-        <v>0.713946</v>
+        <v>0.699781</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.769574</v>
+        <v>0.771828</v>
       </c>
       <c r="C123" t="n">
-        <v>0.725113</v>
+        <v>0.7228</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8480569999999999</v>
+        <v>0.848419</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.925627</v>
+        <v>0.924787</v>
       </c>
       <c r="C124" t="n">
-        <v>0.85932</v>
+        <v>0.866066</v>
       </c>
       <c r="D124" t="n">
-        <v>0.848563</v>
+        <v>0.863429</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.927264</v>
+        <v>0.928198</v>
       </c>
       <c r="C125" t="n">
-        <v>0.86292</v>
+        <v>0.865354</v>
       </c>
       <c r="D125" t="n">
-        <v>0.863448</v>
+        <v>0.8531300000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.930321</v>
+        <v>0.929626</v>
       </c>
       <c r="C126" t="n">
-        <v>0.869244</v>
+        <v>0.869085</v>
       </c>
       <c r="D126" t="n">
-        <v>0.864186</v>
+        <v>0.852977</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.933087</v>
+        <v>0.932743</v>
       </c>
       <c r="C127" t="n">
-        <v>0.868699</v>
+        <v>0.872454</v>
       </c>
       <c r="D127" t="n">
-        <v>0.865405</v>
+        <v>0.859476</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.934202</v>
+        <v>0.934009</v>
       </c>
       <c r="C128" t="n">
-        <v>0.871356</v>
+        <v>0.871288</v>
       </c>
       <c r="D128" t="n">
-        <v>0.861115</v>
+        <v>0.8652879999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.93672</v>
+        <v>0.935673</v>
       </c>
       <c r="C129" t="n">
-        <v>0.874561</v>
+        <v>0.871565</v>
       </c>
       <c r="D129" t="n">
-        <v>0.865742</v>
+        <v>0.865168</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.938974</v>
+        <v>0.937348</v>
       </c>
       <c r="C130" t="n">
-        <v>0.874444</v>
+        <v>0.873989</v>
       </c>
       <c r="D130" t="n">
-        <v>0.865866</v>
+        <v>0.864483</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.93986</v>
+        <v>0.939714</v>
       </c>
       <c r="C131" t="n">
-        <v>0.875445</v>
+        <v>0.875578</v>
       </c>
       <c r="D131" t="n">
-        <v>0.867807</v>
+        <v>0.869073</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.943808</v>
+        <v>0.941368</v>
       </c>
       <c r="C132" t="n">
-        <v>0.875291</v>
+        <v>0.8783339999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869686</v>
+        <v>0.869792</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.942758</v>
+        <v>0.944721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.877461</v>
+        <v>0.880548</v>
       </c>
       <c r="D133" t="n">
-        <v>0.863039</v>
+        <v>0.866924</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.945206</v>
+        <v>0.94836</v>
       </c>
       <c r="C134" t="n">
-        <v>0.880737</v>
+        <v>0.883484</v>
       </c>
       <c r="D134" t="n">
-        <v>0.872641</v>
+        <v>0.87269</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.948672</v>
+        <v>0.949866</v>
       </c>
       <c r="C135" t="n">
-        <v>0.882428</v>
+        <v>0.885199</v>
       </c>
       <c r="D135" t="n">
-        <v>0.865675</v>
+        <v>0.869457</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.947279</v>
+        <v>0.952305</v>
       </c>
       <c r="C136" t="n">
-        <v>0.887564</v>
+        <v>0.889327</v>
       </c>
       <c r="D136" t="n">
-        <v>0.875705</v>
+        <v>0.875604</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.953299</v>
+        <v>0.954211</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8947619999999999</v>
+        <v>0.895579</v>
       </c>
       <c r="D137" t="n">
-        <v>1.01844</v>
+        <v>1.02458</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09914</v>
+        <v>1.10167</v>
       </c>
       <c r="C138" t="n">
-        <v>1.03624</v>
+        <v>1.03716</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02556</v>
+        <v>1.02171</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09934</v>
+        <v>1.10151</v>
       </c>
       <c r="C139" t="n">
-        <v>1.0403</v>
+        <v>1.03859</v>
       </c>
       <c r="D139" t="n">
-        <v>1.02519</v>
+        <v>1.02092</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09714</v>
+        <v>1.10137</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03703</v>
+        <v>1.03841</v>
       </c>
       <c r="D140" t="n">
-        <v>1.02265</v>
+        <v>1.02392</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09918</v>
+        <v>1.09876</v>
       </c>
       <c r="C141" t="n">
-        <v>1.03997</v>
+        <v>1.03983</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02489</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09576</v>
+        <v>1.10002</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03842</v>
+        <v>1.03822</v>
       </c>
       <c r="D142" t="n">
-        <v>1.02383</v>
+        <v>1.0257</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09673</v>
+        <v>1.0985</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03936</v>
+        <v>1.03979</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02442</v>
+        <v>1.02399</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.467573</v>
+        <v>0.467594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.43703</v>
+        <v>0.427051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.430642</v>
+        <v>0.421644</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.462769</v>
+        <v>0.461917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427927</v>
+        <v>0.417864</v>
       </c>
       <c r="D3" t="n">
-        <v>0.422074</v>
+        <v>0.412984</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456919</v>
+        <v>0.456502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.422127</v>
+        <v>0.41282</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417098</v>
+        <v>0.409028</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451071</v>
+        <v>0.451103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.417353</v>
+        <v>0.408577</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41305</v>
+        <v>0.40566</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.443315</v>
+        <v>0.443069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.411499</v>
+        <v>0.402831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.408301</v>
+        <v>0.400809</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439339</v>
+        <v>0.439023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.407773</v>
+        <v>0.399906</v>
       </c>
       <c r="D7" t="n">
-        <v>0.406274</v>
+        <v>0.399486</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.435937</v>
+        <v>0.434933</v>
       </c>
       <c r="C8" t="n">
-        <v>0.406498</v>
+        <v>0.398674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.406654</v>
+        <v>0.400033</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.43792</v>
+        <v>0.437557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.408977</v>
+        <v>0.401353</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5213179999999999</v>
+        <v>0.508297</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.549444</v>
+        <v>0.548881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.525841</v>
+        <v>0.512267</v>
       </c>
       <c r="D10" t="n">
-        <v>0.515315</v>
+        <v>0.502962</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.537609</v>
+        <v>0.536687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.513243</v>
+        <v>0.501389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.503172</v>
+        <v>0.491357</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.527348</v>
+        <v>0.526789</v>
       </c>
       <c r="C12" t="n">
-        <v>0.503082</v>
+        <v>0.491274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.493143</v>
+        <v>0.482367</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.516621</v>
+        <v>0.5152409999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.491602</v>
+        <v>0.480782</v>
       </c>
       <c r="D13" t="n">
-        <v>0.482319</v>
+        <v>0.471412</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.507315</v>
+        <v>0.506095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.481649</v>
+        <v>0.470847</v>
       </c>
       <c r="D14" t="n">
-        <v>0.473086</v>
+        <v>0.463175</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.497791</v>
+        <v>0.496926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.472639</v>
+        <v>0.462136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.464284</v>
+        <v>0.454634</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.489094</v>
+        <v>0.488308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.463494</v>
+        <v>0.453445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.455646</v>
+        <v>0.446573</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.48051</v>
+        <v>0.480241</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455404</v>
+        <v>0.445694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.448093</v>
+        <v>0.439239</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472933</v>
+        <v>0.471887</v>
       </c>
       <c r="C18" t="n">
-        <v>0.447015</v>
+        <v>0.437804</v>
       </c>
       <c r="D18" t="n">
-        <v>0.440194</v>
+        <v>0.431864</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.466831</v>
+        <v>0.465949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.44117</v>
+        <v>0.432407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435056</v>
+        <v>0.427426</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.459653</v>
+        <v>0.458699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.433795</v>
+        <v>0.425964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429102</v>
+        <v>0.421833</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.455053</v>
+        <v>0.454066</v>
       </c>
       <c r="C21" t="n">
-        <v>0.42959</v>
+        <v>0.421973</v>
       </c>
       <c r="D21" t="n">
-        <v>0.425976</v>
+        <v>0.418821</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.451181</v>
+        <v>0.450548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.425903</v>
+        <v>0.41884</v>
       </c>
       <c r="D22" t="n">
-        <v>0.424192</v>
+        <v>0.417111</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.448964</v>
+        <v>0.447974</v>
       </c>
       <c r="C23" t="n">
-        <v>0.42475</v>
+        <v>0.417398</v>
       </c>
       <c r="D23" t="n">
-        <v>0.54283</v>
+        <v>0.530162</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.562661</v>
+        <v>0.5621119999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.497024</v>
+        <v>0.484044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.487758</v>
+        <v>0.47537</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.550219</v>
+        <v>0.549994</v>
       </c>
       <c r="C25" t="n">
-        <v>0.486706</v>
+        <v>0.473561</v>
       </c>
       <c r="D25" t="n">
-        <v>0.477269</v>
+        <v>0.465148</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.539286</v>
+        <v>0.538893</v>
       </c>
       <c r="C26" t="n">
-        <v>0.477497</v>
+        <v>0.465183</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468368</v>
+        <v>0.457134</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.528336</v>
+        <v>0.527976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.473542</v>
+        <v>0.456572</v>
       </c>
       <c r="D27" t="n">
-        <v>0.459182</v>
+        <v>0.448674</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.518954</v>
+        <v>0.518545</v>
       </c>
       <c r="C28" t="n">
-        <v>0.460183</v>
+        <v>0.449376</v>
       </c>
       <c r="D28" t="n">
-        <v>0.451811</v>
+        <v>0.441909</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.508702</v>
+        <v>0.508448</v>
       </c>
       <c r="C29" t="n">
-        <v>0.451634</v>
+        <v>0.441197</v>
       </c>
       <c r="D29" t="n">
-        <v>0.443721</v>
+        <v>0.434074</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499374</v>
+        <v>0.499484</v>
       </c>
       <c r="C30" t="n">
-        <v>0.444168</v>
+        <v>0.433904</v>
       </c>
       <c r="D30" t="n">
-        <v>0.436797</v>
+        <v>0.428019</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.491096</v>
+        <v>0.490618</v>
       </c>
       <c r="C31" t="n">
-        <v>0.437039</v>
+        <v>0.43273</v>
       </c>
       <c r="D31" t="n">
-        <v>0.430199</v>
+        <v>0.421311</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.48374</v>
+        <v>0.483344</v>
       </c>
       <c r="C32" t="n">
-        <v>0.430901</v>
+        <v>0.421767</v>
       </c>
       <c r="D32" t="n">
-        <v>0.424671</v>
+        <v>0.415864</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.476754</v>
+        <v>0.476428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.425086</v>
+        <v>0.41634</v>
       </c>
       <c r="D33" t="n">
-        <v>0.419424</v>
+        <v>0.411505</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.470122</v>
+        <v>0.469766</v>
       </c>
       <c r="C34" t="n">
-        <v>0.41966</v>
+        <v>0.411744</v>
       </c>
       <c r="D34" t="n">
-        <v>0.414889</v>
+        <v>0.407582</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464501</v>
+        <v>0.463967</v>
       </c>
       <c r="C35" t="n">
-        <v>0.415724</v>
+        <v>0.406672</v>
       </c>
       <c r="D35" t="n">
-        <v>0.411693</v>
+        <v>0.404386</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.460443</v>
+        <v>0.459941</v>
       </c>
       <c r="C36" t="n">
-        <v>0.412777</v>
+        <v>0.40479</v>
       </c>
       <c r="D36" t="n">
-        <v>0.410492</v>
+        <v>0.403947</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458544</v>
+        <v>0.458143</v>
       </c>
       <c r="C37" t="n">
-        <v>0.417248</v>
+        <v>0.405195</v>
       </c>
       <c r="D37" t="n">
-        <v>0.559848</v>
+        <v>0.545943</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.57012</v>
+        <v>0.56989</v>
       </c>
       <c r="C38" t="n">
-        <v>0.519528</v>
+        <v>0.493277</v>
       </c>
       <c r="D38" t="n">
-        <v>0.497598</v>
+        <v>0.484981</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.559866</v>
+        <v>0.559382</v>
       </c>
       <c r="C39" t="n">
-        <v>0.501522</v>
+        <v>0.48459</v>
       </c>
       <c r="D39" t="n">
-        <v>0.488862</v>
+        <v>0.476824</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.548171</v>
+        <v>0.547598</v>
       </c>
       <c r="C40" t="n">
-        <v>0.488207</v>
+        <v>0.476092</v>
       </c>
       <c r="D40" t="n">
-        <v>0.479492</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.537516</v>
+        <v>0.537157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.484029</v>
+        <v>0.474901</v>
       </c>
       <c r="D41" t="n">
-        <v>0.470625</v>
+        <v>0.460899</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.527685</v>
+        <v>0.527627</v>
       </c>
       <c r="C42" t="n">
-        <v>0.472611</v>
+        <v>0.468859</v>
       </c>
       <c r="D42" t="n">
-        <v>0.463252</v>
+        <v>0.457433</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.518034</v>
+        <v>0.5179049999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.463222</v>
+        <v>0.452581</v>
       </c>
       <c r="D43" t="n">
-        <v>0.455401</v>
+        <v>0.445073</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5097159999999999</v>
+        <v>0.509064</v>
       </c>
       <c r="C44" t="n">
-        <v>0.455614</v>
+        <v>0.44625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.448499</v>
+        <v>0.439825</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5012</v>
+        <v>0.500367</v>
       </c>
       <c r="C45" t="n">
-        <v>0.448681</v>
+        <v>0.441084</v>
       </c>
       <c r="D45" t="n">
-        <v>0.441761</v>
+        <v>0.432787</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.493418</v>
+        <v>0.492898</v>
       </c>
       <c r="C46" t="n">
-        <v>0.44364</v>
+        <v>0.433804</v>
       </c>
       <c r="D46" t="n">
-        <v>0.437138</v>
+        <v>0.427781</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.486329</v>
+        <v>0.485725</v>
       </c>
       <c r="C47" t="n">
-        <v>0.436198</v>
+        <v>0.428585</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430669</v>
+        <v>0.422508</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.480174</v>
+        <v>0.479342</v>
       </c>
       <c r="C48" t="n">
-        <v>0.431555</v>
+        <v>0.425195</v>
       </c>
       <c r="D48" t="n">
-        <v>0.426304</v>
+        <v>0.418294</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.474581</v>
+        <v>0.473862</v>
       </c>
       <c r="C49" t="n">
-        <v>0.428032</v>
+        <v>0.420443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.423631</v>
+        <v>0.41703</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.470202</v>
+        <v>0.469983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.424188</v>
+        <v>0.417711</v>
       </c>
       <c r="D50" t="n">
-        <v>0.424744</v>
+        <v>0.414626</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466729</v>
+        <v>0.466825</v>
       </c>
       <c r="C51" t="n">
-        <v>0.423633</v>
+        <v>0.418208</v>
       </c>
       <c r="D51" t="n">
-        <v>0.57679</v>
+        <v>0.562425</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.436558</v>
+        <v>0.435725</v>
       </c>
       <c r="C52" t="n">
-        <v>0.424346</v>
+        <v>0.416297</v>
       </c>
       <c r="D52" t="n">
-        <v>0.562951</v>
+        <v>0.550556</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.57079</v>
+        <v>0.570787</v>
       </c>
       <c r="C53" t="n">
-        <v>0.513589</v>
+        <v>0.501501</v>
       </c>
       <c r="D53" t="n">
-        <v>0.50593</v>
+        <v>0.489765</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.560428</v>
+        <v>0.560592</v>
       </c>
       <c r="C54" t="n">
-        <v>0.510057</v>
+        <v>0.491292</v>
       </c>
       <c r="D54" t="n">
-        <v>0.492826</v>
+        <v>0.48205</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.55038</v>
+        <v>0.55042</v>
       </c>
       <c r="C55" t="n">
-        <v>0.497369</v>
+        <v>0.485724</v>
       </c>
       <c r="D55" t="n">
-        <v>0.484618</v>
+        <v>0.47374</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.540841</v>
+        <v>0.540224</v>
       </c>
       <c r="C56" t="n">
-        <v>0.491828</v>
+        <v>0.478037</v>
       </c>
       <c r="D56" t="n">
-        <v>0.47839</v>
+        <v>0.468731</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5315260000000001</v>
+        <v>0.531647</v>
       </c>
       <c r="C57" t="n">
-        <v>0.483105</v>
+        <v>0.469479</v>
       </c>
       <c r="D57" t="n">
-        <v>0.46988</v>
+        <v>0.459454</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.522315</v>
+        <v>0.522587</v>
       </c>
       <c r="C58" t="n">
-        <v>0.472138</v>
+        <v>0.462509</v>
       </c>
       <c r="D58" t="n">
-        <v>0.46397</v>
+        <v>0.453941</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.514978</v>
+        <v>0.51485</v>
       </c>
       <c r="C59" t="n">
-        <v>0.465127</v>
+        <v>0.458111</v>
       </c>
       <c r="D59" t="n">
-        <v>0.45634</v>
+        <v>0.448937</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.506233</v>
+        <v>0.507436</v>
       </c>
       <c r="C60" t="n">
-        <v>0.457447</v>
+        <v>0.452298</v>
       </c>
       <c r="D60" t="n">
-        <v>0.450742</v>
+        <v>0.442066</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.498577</v>
+        <v>0.500494</v>
       </c>
       <c r="C61" t="n">
-        <v>0.453041</v>
+        <v>0.445929</v>
       </c>
       <c r="D61" t="n">
-        <v>0.446199</v>
+        <v>0.436814</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.493919</v>
+        <v>0.494113</v>
       </c>
       <c r="C62" t="n">
-        <v>0.450523</v>
+        <v>0.438548</v>
       </c>
       <c r="D62" t="n">
-        <v>0.441107</v>
+        <v>0.435613</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.486943</v>
+        <v>0.487275</v>
       </c>
       <c r="C63" t="n">
-        <v>0.443797</v>
+        <v>0.437412</v>
       </c>
       <c r="D63" t="n">
-        <v>0.439465</v>
+        <v>0.430492</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.483071</v>
+        <v>0.483744</v>
       </c>
       <c r="C64" t="n">
-        <v>0.442588</v>
+        <v>0.432822</v>
       </c>
       <c r="D64" t="n">
-        <v>0.437519</v>
+        <v>0.430407</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.480087</v>
+        <v>0.480744</v>
       </c>
       <c r="C65" t="n">
-        <v>0.440601</v>
+        <v>0.435494</v>
       </c>
       <c r="D65" t="n">
-        <v>0.436958</v>
+        <v>0.431549</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.476771</v>
+        <v>0.479793</v>
       </c>
       <c r="C66" t="n">
-        <v>0.44093</v>
+        <v>0.433061</v>
       </c>
       <c r="D66" t="n">
-        <v>0.582728</v>
+        <v>0.56767</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5912269999999999</v>
+        <v>0.5897520000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.53043</v>
+        <v>0.518324</v>
       </c>
       <c r="D67" t="n">
-        <v>0.519309</v>
+        <v>0.507542</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.580853</v>
+        <v>0.578951</v>
       </c>
       <c r="C68" t="n">
-        <v>0.520162</v>
+        <v>0.509108</v>
       </c>
       <c r="D68" t="n">
-        <v>0.510551</v>
+        <v>0.499414</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.569365</v>
+        <v>0.568972</v>
       </c>
       <c r="C69" t="n">
-        <v>0.514146</v>
+        <v>0.500294</v>
       </c>
       <c r="D69" t="n">
-        <v>0.502374</v>
+        <v>0.492934</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.559269</v>
+        <v>0.558187</v>
       </c>
       <c r="C70" t="n">
-        <v>0.505012</v>
+        <v>0.492242</v>
       </c>
       <c r="D70" t="n">
-        <v>0.492084</v>
+        <v>0.483515</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.549551</v>
+        <v>0.548879</v>
       </c>
       <c r="C71" t="n">
-        <v>0.49881</v>
+        <v>0.486951</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486944</v>
+        <v>0.478464</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5412</v>
+        <v>0.540409</v>
       </c>
       <c r="C72" t="n">
-        <v>0.492485</v>
+        <v>0.478809</v>
       </c>
       <c r="D72" t="n">
-        <v>0.480495</v>
+        <v>0.471509</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.531714</v>
+        <v>0.532977</v>
       </c>
       <c r="C73" t="n">
-        <v>0.483603</v>
+        <v>0.473395</v>
       </c>
       <c r="D73" t="n">
-        <v>0.475268</v>
+        <v>0.465164</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.523689</v>
+        <v>0.524679</v>
       </c>
       <c r="C74" t="n">
-        <v>0.478046</v>
+        <v>0.46514</v>
       </c>
       <c r="D74" t="n">
-        <v>0.467862</v>
+        <v>0.459361</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.517855</v>
+        <v>0.517278</v>
       </c>
       <c r="C75" t="n">
-        <v>0.471746</v>
+        <v>0.460582</v>
       </c>
       <c r="D75" t="n">
-        <v>0.462341</v>
+        <v>0.4554</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.511212</v>
+        <v>0.511023</v>
       </c>
       <c r="C76" t="n">
-        <v>0.462503</v>
+        <v>0.45517</v>
       </c>
       <c r="D76" t="n">
-        <v>0.459378</v>
+        <v>0.450879</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.504534</v>
+        <v>0.505163</v>
       </c>
       <c r="C77" t="n">
-        <v>0.459388</v>
+        <v>0.452774</v>
       </c>
       <c r="D77" t="n">
-        <v>0.457164</v>
+        <v>0.448393</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.499777</v>
+        <v>0.500974</v>
       </c>
       <c r="C78" t="n">
-        <v>0.458446</v>
+        <v>0.453044</v>
       </c>
       <c r="D78" t="n">
-        <v>0.453814</v>
+        <v>0.447297</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.496402</v>
+        <v>0.497207</v>
       </c>
       <c r="C79" t="n">
-        <v>0.455916</v>
+        <v>0.449642</v>
       </c>
       <c r="D79" t="n">
-        <v>0.452941</v>
+        <v>0.447064</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.495226</v>
+        <v>0.495799</v>
       </c>
       <c r="C80" t="n">
-        <v>0.456754</v>
+        <v>0.450023</v>
       </c>
       <c r="D80" t="n">
-        <v>0.615794</v>
+        <v>0.600763</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.627408</v>
+        <v>0.627758</v>
       </c>
       <c r="C81" t="n">
-        <v>0.551948</v>
+        <v>0.5441319999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.541161</v>
+        <v>0.5321939999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.621139</v>
+        <v>0.620889</v>
       </c>
       <c r="C82" t="n">
-        <v>0.544643</v>
+        <v>0.5380819999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.532843</v>
+        <v>0.526201</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.61308</v>
+        <v>0.616014</v>
       </c>
       <c r="C83" t="n">
-        <v>0.535828</v>
+        <v>0.529316</v>
       </c>
       <c r="D83" t="n">
-        <v>0.52506</v>
+        <v>0.517445</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.604508</v>
+        <v>0.607443</v>
       </c>
       <c r="C84" t="n">
-        <v>0.524623</v>
+        <v>0.522348</v>
       </c>
       <c r="D84" t="n">
-        <v>0.515421</v>
+        <v>0.511032</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.597073</v>
+        <v>0.598614</v>
       </c>
       <c r="C85" t="n">
-        <v>0.521135</v>
+        <v>0.513933</v>
       </c>
       <c r="D85" t="n">
-        <v>0.511548</v>
+        <v>0.500593</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.589738</v>
+        <v>0.59199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.513144</v>
+        <v>0.507918</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5050480000000001</v>
+        <v>0.497224</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.580114</v>
+        <v>0.58197</v>
       </c>
       <c r="C87" t="n">
-        <v>0.504602</v>
+        <v>0.498587</v>
       </c>
       <c r="D87" t="n">
-        <v>0.494675</v>
+        <v>0.486595</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.571298</v>
+        <v>0.574063</v>
       </c>
       <c r="C88" t="n">
-        <v>0.497786</v>
+        <v>0.490921</v>
       </c>
       <c r="D88" t="n">
-        <v>0.488333</v>
+        <v>0.478968</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.56262</v>
+        <v>0.565856</v>
       </c>
       <c r="C89" t="n">
-        <v>0.49488</v>
+        <v>0.490131</v>
       </c>
       <c r="D89" t="n">
-        <v>0.485657</v>
+        <v>0.480425</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.556488</v>
+        <v>0.560368</v>
       </c>
       <c r="C90" t="n">
-        <v>0.486252</v>
+        <v>0.483677</v>
       </c>
       <c r="D90" t="n">
-        <v>0.477212</v>
+        <v>0.473748</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.551316</v>
+        <v>0.552052</v>
       </c>
       <c r="C91" t="n">
-        <v>0.485037</v>
+        <v>0.481989</v>
       </c>
       <c r="D91" t="n">
-        <v>0.477796</v>
+        <v>0.472208</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.544919</v>
+        <v>0.5460700000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.478835</v>
+        <v>0.478867</v>
       </c>
       <c r="D92" t="n">
-        <v>0.474345</v>
+        <v>0.468896</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.539176</v>
+        <v>0.5418500000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.478851</v>
+        <v>0.47385</v>
       </c>
       <c r="D93" t="n">
-        <v>0.474118</v>
+        <v>0.469451</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.537088</v>
+        <v>0.536836</v>
       </c>
       <c r="C94" t="n">
-        <v>0.477287</v>
+        <v>0.472687</v>
       </c>
       <c r="D94" t="n">
-        <v>0.654514</v>
+        <v>0.642791</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.671393</v>
+        <v>0.6709540000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.588144</v>
+        <v>0.5819220000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.590717</v>
+        <v>0.587373</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.677477</v>
+        <v>0.6780890000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.592622</v>
+        <v>0.588379</v>
       </c>
       <c r="D96" t="n">
-        <v>0.588561</v>
+        <v>0.587012</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.676511</v>
+        <v>0.678172</v>
       </c>
       <c r="C97" t="n">
-        <v>0.592086</v>
+        <v>0.589688</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5847290000000001</v>
+        <v>0.582043</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.675086</v>
+        <v>0.6751509999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.584522</v>
+        <v>0.587277</v>
       </c>
       <c r="D98" t="n">
-        <v>0.574815</v>
+        <v>0.578364</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.671591</v>
+        <v>0.672691</v>
       </c>
       <c r="C99" t="n">
-        <v>0.581796</v>
+        <v>0.582884</v>
       </c>
       <c r="D99" t="n">
-        <v>0.570694</v>
+        <v>0.573756</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.667888</v>
+        <v>0.66779</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5847250000000001</v>
+        <v>0.579844</v>
       </c>
       <c r="D100" t="n">
-        <v>0.57292</v>
+        <v>0.569173</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.663018</v>
+        <v>0.662792</v>
       </c>
       <c r="C101" t="n">
-        <v>0.572125</v>
+        <v>0.5785169999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.560101</v>
+        <v>0.566487</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.658821</v>
+        <v>0.656565</v>
       </c>
       <c r="C102" t="n">
-        <v>0.564767</v>
+        <v>0.575115</v>
       </c>
       <c r="D102" t="n">
-        <v>0.551892</v>
+        <v>0.562252</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.652074</v>
+        <v>0.652073</v>
       </c>
       <c r="C103" t="n">
-        <v>0.574109</v>
+        <v>0.562063</v>
       </c>
       <c r="D103" t="n">
-        <v>0.560931</v>
+        <v>0.546563</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.646563</v>
+        <v>0.647182</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5697680000000001</v>
+        <v>0.555495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.556605</v>
+        <v>0.543393</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.642509</v>
+        <v>0.640449</v>
       </c>
       <c r="C105" t="n">
-        <v>0.570499</v>
+        <v>0.5676369999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.555206</v>
+        <v>0.550652</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.642199</v>
+        <v>0.63841</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5489270000000001</v>
+        <v>0.549214</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5351320000000001</v>
+        <v>0.535756</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.635382</v>
+        <v>0.635293</v>
       </c>
       <c r="C107" t="n">
-        <v>0.563957</v>
+        <v>0.561325</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5482320000000001</v>
+        <v>0.547301</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.632224</v>
+        <v>0.629477</v>
       </c>
       <c r="C108" t="n">
-        <v>0.566211</v>
+        <v>0.5611969999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.727484</v>
+        <v>0.717147</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.599121</v>
+        <v>0.60209</v>
       </c>
       <c r="C109" t="n">
-        <v>0.565713</v>
+        <v>0.565559</v>
       </c>
       <c r="D109" t="n">
-        <v>0.732213</v>
+        <v>0.711553</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.738305</v>
+        <v>0.7458399999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.724646</v>
+        <v>0.7038489999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.714686</v>
+        <v>0.7102810000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.747387</v>
+        <v>0.752278</v>
       </c>
       <c r="C111" t="n">
-        <v>0.720662</v>
+        <v>0.706578</v>
       </c>
       <c r="D111" t="n">
-        <v>0.712873</v>
+        <v>0.718426</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.750497</v>
+        <v>0.745506</v>
       </c>
       <c r="C112" t="n">
-        <v>0.726181</v>
+        <v>0.702886</v>
       </c>
       <c r="D112" t="n">
-        <v>0.710225</v>
+        <v>0.713879</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.749299</v>
+        <v>0.755513</v>
       </c>
       <c r="C113" t="n">
-        <v>0.722432</v>
+        <v>0.704188</v>
       </c>
       <c r="D113" t="n">
-        <v>0.720951</v>
+        <v>0.7150339999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7501679999999999</v>
+        <v>0.756556</v>
       </c>
       <c r="C114" t="n">
-        <v>0.717043</v>
+        <v>0.704155</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7105050000000001</v>
+        <v>0.703175</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.754645</v>
+        <v>0.757838</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7146130000000001</v>
+        <v>0.703945</v>
       </c>
       <c r="D115" t="n">
-        <v>0.710311</v>
+        <v>0.702772</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.753868</v>
+        <v>0.757772</v>
       </c>
       <c r="C116" t="n">
-        <v>0.718734</v>
+        <v>0.701541</v>
       </c>
       <c r="D116" t="n">
-        <v>0.717172</v>
+        <v>0.706134</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.755661</v>
+        <v>0.757863</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7118409999999999</v>
+        <v>0.70307</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7158949999999999</v>
+        <v>0.70992</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.758057</v>
+        <v>0.762164</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7144740000000001</v>
+        <v>0.703534</v>
       </c>
       <c r="D118" t="n">
-        <v>0.699358</v>
+        <v>0.700162</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.762551</v>
+        <v>0.763101</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7240259999999999</v>
+        <v>0.707932</v>
       </c>
       <c r="D119" t="n">
-        <v>0.713934</v>
+        <v>0.708538</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.763355</v>
+        <v>0.76474</v>
       </c>
       <c r="C120" t="n">
-        <v>0.720372</v>
+        <v>0.707809</v>
       </c>
       <c r="D120" t="n">
-        <v>0.712684</v>
+        <v>0.708375</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.763856</v>
+        <v>0.767135</v>
       </c>
       <c r="C121" t="n">
-        <v>0.717135</v>
+        <v>0.707972</v>
       </c>
       <c r="D121" t="n">
-        <v>0.710507</v>
+        <v>0.7085</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.767666</v>
+        <v>0.766136</v>
       </c>
       <c r="C122" t="n">
-        <v>0.723256</v>
+        <v>0.711961</v>
       </c>
       <c r="D122" t="n">
-        <v>0.699781</v>
+        <v>0.709051</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.771828</v>
+        <v>0.770721</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7228</v>
+        <v>0.712615</v>
       </c>
       <c r="D123" t="n">
-        <v>0.848419</v>
+        <v>0.837185</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.924787</v>
+        <v>0.923055</v>
       </c>
       <c r="C124" t="n">
-        <v>0.866066</v>
+        <v>0.854089</v>
       </c>
       <c r="D124" t="n">
-        <v>0.863429</v>
+        <v>0.84674</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.928198</v>
+        <v>0.928777</v>
       </c>
       <c r="C125" t="n">
-        <v>0.865354</v>
+        <v>0.856577</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8531300000000001</v>
+        <v>0.854101</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.929626</v>
+        <v>0.928833</v>
       </c>
       <c r="C126" t="n">
-        <v>0.869085</v>
+        <v>0.858306</v>
       </c>
       <c r="D126" t="n">
-        <v>0.852977</v>
+        <v>0.847998</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.932743</v>
+        <v>0.934458</v>
       </c>
       <c r="C127" t="n">
-        <v>0.872454</v>
+        <v>0.858047</v>
       </c>
       <c r="D127" t="n">
-        <v>0.859476</v>
+        <v>0.854432</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.934009</v>
+        <v>0.934534</v>
       </c>
       <c r="C128" t="n">
-        <v>0.871288</v>
+        <v>0.860264</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8652879999999999</v>
+        <v>0.857305</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.935673</v>
+        <v>0.93576</v>
       </c>
       <c r="C129" t="n">
-        <v>0.871565</v>
+        <v>0.865302</v>
       </c>
       <c r="D129" t="n">
-        <v>0.865168</v>
+        <v>0.857148</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.937348</v>
+        <v>0.938678</v>
       </c>
       <c r="C130" t="n">
-        <v>0.873989</v>
+        <v>0.860991</v>
       </c>
       <c r="D130" t="n">
-        <v>0.864483</v>
+        <v>0.858654</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.939714</v>
+        <v>0.939365</v>
       </c>
       <c r="C131" t="n">
-        <v>0.875578</v>
+        <v>0.8642840000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.869073</v>
+        <v>0.860378</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.941368</v>
+        <v>0.942224</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8783339999999999</v>
+        <v>0.86585</v>
       </c>
       <c r="D132" t="n">
-        <v>0.869792</v>
+        <v>0.860815</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.944721</v>
+        <v>0.9429959999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.880548</v>
+        <v>0.870138</v>
       </c>
       <c r="D133" t="n">
-        <v>0.866924</v>
+        <v>0.8589560000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.94836</v>
+        <v>0.9474630000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.883484</v>
+        <v>0.87666</v>
       </c>
       <c r="D134" t="n">
-        <v>0.87269</v>
+        <v>0.861872</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.949866</v>
+        <v>0.949816</v>
       </c>
       <c r="C135" t="n">
-        <v>0.885199</v>
+        <v>0.877128</v>
       </c>
       <c r="D135" t="n">
-        <v>0.869457</v>
+        <v>0.867555</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.952305</v>
+        <v>0.952478</v>
       </c>
       <c r="C136" t="n">
-        <v>0.889327</v>
+        <v>0.882168</v>
       </c>
       <c r="D136" t="n">
-        <v>0.875604</v>
+        <v>0.869314</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.954211</v>
+        <v>0.956131</v>
       </c>
       <c r="C137" t="n">
-        <v>0.895579</v>
+        <v>0.886888</v>
       </c>
       <c r="D137" t="n">
-        <v>1.02458</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.10167</v>
+        <v>1.10335</v>
       </c>
       <c r="C138" t="n">
-        <v>1.03716</v>
+        <v>1.02484</v>
       </c>
       <c r="D138" t="n">
-        <v>1.02171</v>
+        <v>1.01025</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.10151</v>
+        <v>1.10026</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03859</v>
+        <v>1.02897</v>
       </c>
       <c r="D139" t="n">
-        <v>1.02092</v>
+        <v>1.01331</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.10137</v>
+        <v>1.10004</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03841</v>
+        <v>1.02807</v>
       </c>
       <c r="D140" t="n">
-        <v>1.02392</v>
+        <v>1.01392</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09876</v>
+        <v>1.10129</v>
       </c>
       <c r="C141" t="n">
-        <v>1.03983</v>
+        <v>1.02962</v>
       </c>
       <c r="D141" t="n">
-        <v>1.0248</v>
+        <v>1.01371</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.10002</v>
+        <v>1.1008</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03822</v>
+        <v>1.02834</v>
       </c>
       <c r="D142" t="n">
-        <v>1.0257</v>
+        <v>1.01602</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.0985</v>
+        <v>1.10032</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03979</v>
+        <v>1.03037</v>
       </c>
       <c r="D143" t="n">
-        <v>1.02399</v>
+        <v>1.01637</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.467594</v>
+        <v>0.473918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.427051</v>
+        <v>0.429914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421644</v>
+        <v>0.421815</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.461917</v>
+        <v>0.463891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417864</v>
+        <v>0.42107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.412984</v>
+        <v>0.413248</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456502</v>
+        <v>0.45889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41282</v>
+        <v>0.415796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409028</v>
+        <v>0.409098</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451103</v>
+        <v>0.459306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.408577</v>
+        <v>0.411089</v>
       </c>
       <c r="D5" t="n">
-        <v>0.40566</v>
+        <v>0.405539</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.443069</v>
+        <v>0.444681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402831</v>
+        <v>0.405534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.400809</v>
+        <v>0.400814</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439023</v>
+        <v>0.440097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.399906</v>
+        <v>0.401909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.399486</v>
+        <v>0.399529</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.434933</v>
+        <v>0.435951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398674</v>
+        <v>0.401262</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400033</v>
+        <v>0.400328</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437557</v>
+        <v>0.437812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401353</v>
+        <v>0.403454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.508297</v>
+        <v>0.5075460000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.548881</v>
+        <v>0.548891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.512267</v>
+        <v>0.514088</v>
       </c>
       <c r="D10" t="n">
-        <v>0.502962</v>
+        <v>0.502412</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.536687</v>
+        <v>0.536986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.501389</v>
+        <v>0.502443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.491357</v>
+        <v>0.491089</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526789</v>
+        <v>0.530785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.491274</v>
+        <v>0.492521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.482367</v>
+        <v>0.481669</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5152409999999999</v>
+        <v>0.515566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.480782</v>
+        <v>0.481116</v>
       </c>
       <c r="D13" t="n">
-        <v>0.471412</v>
+        <v>0.471153</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506095</v>
+        <v>0.506367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.470847</v>
+        <v>0.471876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.463175</v>
+        <v>0.462403</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.496926</v>
+        <v>0.497113</v>
       </c>
       <c r="C15" t="n">
-        <v>0.462136</v>
+        <v>0.462878</v>
       </c>
       <c r="D15" t="n">
-        <v>0.454634</v>
+        <v>0.454062</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.488308</v>
+        <v>0.48854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453445</v>
+        <v>0.454255</v>
       </c>
       <c r="D16" t="n">
-        <v>0.446573</v>
+        <v>0.445962</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.480241</v>
+        <v>0.480089</v>
       </c>
       <c r="C17" t="n">
-        <v>0.445694</v>
+        <v>0.44675</v>
       </c>
       <c r="D17" t="n">
-        <v>0.439239</v>
+        <v>0.43867</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471887</v>
+        <v>0.472207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437804</v>
+        <v>0.438831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431864</v>
+        <v>0.431449</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465949</v>
+        <v>0.46604</v>
       </c>
       <c r="C19" t="n">
-        <v>0.432407</v>
+        <v>0.432812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427426</v>
+        <v>0.426783</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458699</v>
+        <v>0.458996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.425964</v>
+        <v>0.426707</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421833</v>
+        <v>0.421268</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.454066</v>
+        <v>0.454149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.421973</v>
+        <v>0.422728</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418821</v>
+        <v>0.418565</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450548</v>
+        <v>0.450638</v>
       </c>
       <c r="C22" t="n">
-        <v>0.41884</v>
+        <v>0.419247</v>
       </c>
       <c r="D22" t="n">
-        <v>0.417111</v>
+        <v>0.416816</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.447974</v>
+        <v>0.448129</v>
       </c>
       <c r="C23" t="n">
-        <v>0.417398</v>
+        <v>0.418045</v>
       </c>
       <c r="D23" t="n">
-        <v>0.530162</v>
+        <v>0.529259</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5621119999999999</v>
+        <v>0.56228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.484044</v>
+        <v>0.484421</v>
       </c>
       <c r="D24" t="n">
-        <v>0.47537</v>
+        <v>0.475349</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.549994</v>
+        <v>0.549817</v>
       </c>
       <c r="C25" t="n">
-        <v>0.473561</v>
+        <v>0.473856</v>
       </c>
       <c r="D25" t="n">
-        <v>0.465148</v>
+        <v>0.465053</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.538893</v>
+        <v>0.538842</v>
       </c>
       <c r="C26" t="n">
-        <v>0.465183</v>
+        <v>0.475066</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457134</v>
+        <v>0.456963</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.527976</v>
+        <v>0.527813</v>
       </c>
       <c r="C27" t="n">
-        <v>0.456572</v>
+        <v>0.456507</v>
       </c>
       <c r="D27" t="n">
-        <v>0.448674</v>
+        <v>0.448643</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.518545</v>
+        <v>0.5184609999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.449376</v>
+        <v>0.449434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.441909</v>
+        <v>0.441732</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.508448</v>
+        <v>0.508585</v>
       </c>
       <c r="C29" t="n">
-        <v>0.441197</v>
+        <v>0.441601</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434074</v>
+        <v>0.433899</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499484</v>
+        <v>0.499438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.433904</v>
+        <v>0.434068</v>
       </c>
       <c r="D30" t="n">
-        <v>0.428019</v>
+        <v>0.427601</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.490618</v>
+        <v>0.491113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.43273</v>
+        <v>0.427182</v>
       </c>
       <c r="D31" t="n">
-        <v>0.421311</v>
+        <v>0.421261</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.483344</v>
+        <v>0.483345</v>
       </c>
       <c r="C32" t="n">
-        <v>0.421767</v>
+        <v>0.42174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.415864</v>
+        <v>0.416005</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.476428</v>
+        <v>0.476383</v>
       </c>
       <c r="C33" t="n">
-        <v>0.41634</v>
+        <v>0.42003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411505</v>
+        <v>0.411373</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.469766</v>
+        <v>0.470088</v>
       </c>
       <c r="C34" t="n">
-        <v>0.411744</v>
+        <v>0.417592</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407582</v>
+        <v>0.407286</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463967</v>
+        <v>0.464205</v>
       </c>
       <c r="C35" t="n">
-        <v>0.406672</v>
+        <v>0.40763</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404386</v>
+        <v>0.404431</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459941</v>
+        <v>0.459558</v>
       </c>
       <c r="C36" t="n">
-        <v>0.40479</v>
+        <v>0.405089</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403947</v>
+        <v>0.403722</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458143</v>
+        <v>0.458943</v>
       </c>
       <c r="C37" t="n">
-        <v>0.405195</v>
+        <v>0.40503</v>
       </c>
       <c r="D37" t="n">
-        <v>0.545943</v>
+        <v>0.545357</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.56989</v>
+        <v>0.569616</v>
       </c>
       <c r="C38" t="n">
-        <v>0.493277</v>
+        <v>0.493905</v>
       </c>
       <c r="D38" t="n">
-        <v>0.484981</v>
+        <v>0.485751</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.559382</v>
+        <v>0.559182</v>
       </c>
       <c r="C39" t="n">
-        <v>0.48459</v>
+        <v>0.491123</v>
       </c>
       <c r="D39" t="n">
-        <v>0.476824</v>
+        <v>0.477666</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.547598</v>
+        <v>0.54811</v>
       </c>
       <c r="C40" t="n">
-        <v>0.476092</v>
+        <v>0.484161</v>
       </c>
       <c r="D40" t="n">
-        <v>0.468</v>
+        <v>0.468883</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.537157</v>
+        <v>0.53754</v>
       </c>
       <c r="C41" t="n">
-        <v>0.474901</v>
+        <v>0.470796</v>
       </c>
       <c r="D41" t="n">
-        <v>0.460899</v>
+        <v>0.460166</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.527627</v>
+        <v>0.527783</v>
       </c>
       <c r="C42" t="n">
-        <v>0.468859</v>
+        <v>0.465463</v>
       </c>
       <c r="D42" t="n">
-        <v>0.457433</v>
+        <v>0.452147</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5179049999999999</v>
+        <v>0.518308</v>
       </c>
       <c r="C43" t="n">
-        <v>0.452581</v>
+        <v>0.452336</v>
       </c>
       <c r="D43" t="n">
-        <v>0.445073</v>
+        <v>0.445818</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.509064</v>
+        <v>0.509324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.44625</v>
+        <v>0.447136</v>
       </c>
       <c r="D44" t="n">
-        <v>0.439825</v>
+        <v>0.440339</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.500367</v>
+        <v>0.49986</v>
       </c>
       <c r="C45" t="n">
-        <v>0.441084</v>
+        <v>0.442458</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432787</v>
+        <v>0.432408</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.492898</v>
+        <v>0.492391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.433804</v>
+        <v>0.434017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.427781</v>
+        <v>0.427928</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.485725</v>
+        <v>0.485766</v>
       </c>
       <c r="C47" t="n">
-        <v>0.428585</v>
+        <v>0.430777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.422508</v>
+        <v>0.423541</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.479342</v>
+        <v>0.478824</v>
       </c>
       <c r="C48" t="n">
-        <v>0.425195</v>
+        <v>0.425975</v>
       </c>
       <c r="D48" t="n">
-        <v>0.418294</v>
+        <v>0.419393</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.473862</v>
+        <v>0.473899</v>
       </c>
       <c r="C49" t="n">
-        <v>0.420443</v>
+        <v>0.420755</v>
       </c>
       <c r="D49" t="n">
-        <v>0.41703</v>
+        <v>0.415201</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469983</v>
+        <v>0.469692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.417711</v>
+        <v>0.41745</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414626</v>
+        <v>0.415319</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466825</v>
+        <v>0.465205</v>
       </c>
       <c r="C51" t="n">
-        <v>0.418208</v>
+        <v>0.416974</v>
       </c>
       <c r="D51" t="n">
-        <v>0.562425</v>
+        <v>0.561627</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.435725</v>
+        <v>0.436989</v>
       </c>
       <c r="C52" t="n">
-        <v>0.416297</v>
+        <v>0.418946</v>
       </c>
       <c r="D52" t="n">
-        <v>0.550556</v>
+        <v>0.5500389999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.570787</v>
+        <v>0.57129</v>
       </c>
       <c r="C53" t="n">
-        <v>0.501501</v>
+        <v>0.503169</v>
       </c>
       <c r="D53" t="n">
-        <v>0.489765</v>
+        <v>0.493329</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.560592</v>
+        <v>0.5608649999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.491292</v>
+        <v>0.493452</v>
       </c>
       <c r="D54" t="n">
-        <v>0.48205</v>
+        <v>0.482357</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.55042</v>
+        <v>0.550105</v>
       </c>
       <c r="C55" t="n">
-        <v>0.485724</v>
+        <v>0.489684</v>
       </c>
       <c r="D55" t="n">
-        <v>0.47374</v>
+        <v>0.477636</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.540224</v>
+        <v>0.540399</v>
       </c>
       <c r="C56" t="n">
-        <v>0.478037</v>
+        <v>0.477512</v>
       </c>
       <c r="D56" t="n">
-        <v>0.468731</v>
+        <v>0.466801</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.531647</v>
+        <v>0.531868</v>
       </c>
       <c r="C57" t="n">
-        <v>0.469479</v>
+        <v>0.472249</v>
       </c>
       <c r="D57" t="n">
-        <v>0.459454</v>
+        <v>0.460569</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.522587</v>
+        <v>0.52301</v>
       </c>
       <c r="C58" t="n">
-        <v>0.462509</v>
+        <v>0.46597</v>
       </c>
       <c r="D58" t="n">
-        <v>0.453941</v>
+        <v>0.453678</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.51485</v>
+        <v>0.514647</v>
       </c>
       <c r="C59" t="n">
-        <v>0.458111</v>
+        <v>0.454745</v>
       </c>
       <c r="D59" t="n">
-        <v>0.448937</v>
+        <v>0.447368</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.507436</v>
+        <v>0.507305</v>
       </c>
       <c r="C60" t="n">
-        <v>0.452298</v>
+        <v>0.450969</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442066</v>
+        <v>0.441547</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.500494</v>
+        <v>0.500196</v>
       </c>
       <c r="C61" t="n">
-        <v>0.445929</v>
+        <v>0.445875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.436814</v>
+        <v>0.438323</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.494113</v>
+        <v>0.492705</v>
       </c>
       <c r="C62" t="n">
-        <v>0.438548</v>
+        <v>0.440368</v>
       </c>
       <c r="D62" t="n">
-        <v>0.435613</v>
+        <v>0.43368</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.487275</v>
+        <v>0.487018</v>
       </c>
       <c r="C63" t="n">
-        <v>0.437412</v>
+        <v>0.437932</v>
       </c>
       <c r="D63" t="n">
-        <v>0.430492</v>
+        <v>0.431804</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.483744</v>
+        <v>0.482085</v>
       </c>
       <c r="C64" t="n">
-        <v>0.432822</v>
+        <v>0.432722</v>
       </c>
       <c r="D64" t="n">
-        <v>0.430407</v>
+        <v>0.429055</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.480744</v>
+        <v>0.479292</v>
       </c>
       <c r="C65" t="n">
-        <v>0.435494</v>
+        <v>0.43148</v>
       </c>
       <c r="D65" t="n">
-        <v>0.431549</v>
+        <v>0.430287</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.479793</v>
+        <v>0.478305</v>
       </c>
       <c r="C66" t="n">
-        <v>0.433061</v>
+        <v>0.434189</v>
       </c>
       <c r="D66" t="n">
-        <v>0.56767</v>
+        <v>0.571276</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5897520000000001</v>
+        <v>0.594929</v>
       </c>
       <c r="C67" t="n">
-        <v>0.518324</v>
+        <v>0.522605</v>
       </c>
       <c r="D67" t="n">
-        <v>0.507542</v>
+        <v>0.5068319999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.578951</v>
+        <v>0.583017</v>
       </c>
       <c r="C68" t="n">
-        <v>0.509108</v>
+        <v>0.510674</v>
       </c>
       <c r="D68" t="n">
-        <v>0.499414</v>
+        <v>0.501138</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.568972</v>
+        <v>0.571611</v>
       </c>
       <c r="C69" t="n">
-        <v>0.500294</v>
+        <v>0.5031600000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.492934</v>
+        <v>0.491065</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.558187</v>
+        <v>0.562048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.492242</v>
+        <v>0.492693</v>
       </c>
       <c r="D70" t="n">
-        <v>0.483515</v>
+        <v>0.48329</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.548879</v>
+        <v>0.552196</v>
       </c>
       <c r="C71" t="n">
-        <v>0.486951</v>
+        <v>0.484367</v>
       </c>
       <c r="D71" t="n">
-        <v>0.478464</v>
+        <v>0.479105</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.540409</v>
+        <v>0.545367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.478809</v>
+        <v>0.477796</v>
       </c>
       <c r="D72" t="n">
-        <v>0.471509</v>
+        <v>0.471083</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.532977</v>
+        <v>0.53671</v>
       </c>
       <c r="C73" t="n">
-        <v>0.473395</v>
+        <v>0.470769</v>
       </c>
       <c r="D73" t="n">
-        <v>0.465164</v>
+        <v>0.464748</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.524679</v>
+        <v>0.529573</v>
       </c>
       <c r="C74" t="n">
-        <v>0.46514</v>
+        <v>0.467989</v>
       </c>
       <c r="D74" t="n">
-        <v>0.459361</v>
+        <v>0.458983</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.517278</v>
+        <v>0.522662</v>
       </c>
       <c r="C75" t="n">
-        <v>0.460582</v>
+        <v>0.461769</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4554</v>
+        <v>0.455314</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.511023</v>
+        <v>0.515879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.45517</v>
+        <v>0.460049</v>
       </c>
       <c r="D76" t="n">
-        <v>0.450879</v>
+        <v>0.451551</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.505163</v>
+        <v>0.509065</v>
       </c>
       <c r="C77" t="n">
-        <v>0.452774</v>
+        <v>0.454318</v>
       </c>
       <c r="D77" t="n">
-        <v>0.448393</v>
+        <v>0.447284</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.500974</v>
+        <v>0.505324</v>
       </c>
       <c r="C78" t="n">
-        <v>0.453044</v>
+        <v>0.448873</v>
       </c>
       <c r="D78" t="n">
-        <v>0.447297</v>
+        <v>0.44552</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.497207</v>
+        <v>0.501968</v>
       </c>
       <c r="C79" t="n">
-        <v>0.449642</v>
+        <v>0.449618</v>
       </c>
       <c r="D79" t="n">
-        <v>0.447064</v>
+        <v>0.44694</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.495799</v>
+        <v>0.5001409999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.450023</v>
+        <v>0.447647</v>
       </c>
       <c r="D80" t="n">
-        <v>0.600763</v>
+        <v>0.603216</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.627758</v>
+        <v>0.628598</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5441319999999999</v>
+        <v>0.542561</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5321939999999999</v>
+        <v>0.531794</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.620889</v>
+        <v>0.622173</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5380819999999999</v>
+        <v>0.536007</v>
       </c>
       <c r="D82" t="n">
-        <v>0.526201</v>
+        <v>0.525712</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.616014</v>
+        <v>0.614513</v>
       </c>
       <c r="C83" t="n">
-        <v>0.529316</v>
+        <v>0.528652</v>
       </c>
       <c r="D83" t="n">
-        <v>0.517445</v>
+        <v>0.517442</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.607443</v>
+        <v>0.606661</v>
       </c>
       <c r="C84" t="n">
-        <v>0.522348</v>
+        <v>0.519845</v>
       </c>
       <c r="D84" t="n">
-        <v>0.511032</v>
+        <v>0.506975</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.598614</v>
+        <v>0.598761</v>
       </c>
       <c r="C85" t="n">
-        <v>0.513933</v>
+        <v>0.516714</v>
       </c>
       <c r="D85" t="n">
-        <v>0.500593</v>
+        <v>0.503489</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.59199</v>
+        <v>0.589381</v>
       </c>
       <c r="C86" t="n">
-        <v>0.507918</v>
+        <v>0.506557</v>
       </c>
       <c r="D86" t="n">
-        <v>0.497224</v>
+        <v>0.494406</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.58197</v>
+        <v>0.580976</v>
       </c>
       <c r="C87" t="n">
-        <v>0.498587</v>
+        <v>0.499796</v>
       </c>
       <c r="D87" t="n">
-        <v>0.486595</v>
+        <v>0.489675</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.574063</v>
+        <v>0.5733</v>
       </c>
       <c r="C88" t="n">
-        <v>0.490921</v>
+        <v>0.493985</v>
       </c>
       <c r="D88" t="n">
-        <v>0.478968</v>
+        <v>0.485667</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.565856</v>
+        <v>0.5655</v>
       </c>
       <c r="C89" t="n">
-        <v>0.490131</v>
+        <v>0.490413</v>
       </c>
       <c r="D89" t="n">
-        <v>0.480425</v>
+        <v>0.479103</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.560368</v>
+        <v>0.557846</v>
       </c>
       <c r="C90" t="n">
-        <v>0.483677</v>
+        <v>0.485322</v>
       </c>
       <c r="D90" t="n">
-        <v>0.473748</v>
+        <v>0.474156</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.552052</v>
+        <v>0.550223</v>
       </c>
       <c r="C91" t="n">
-        <v>0.481989</v>
+        <v>0.475535</v>
       </c>
       <c r="D91" t="n">
-        <v>0.472208</v>
+        <v>0.466737</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5460700000000001</v>
+        <v>0.544167</v>
       </c>
       <c r="C92" t="n">
-        <v>0.478867</v>
+        <v>0.474356</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468896</v>
+        <v>0.468975</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5418500000000001</v>
+        <v>0.540458</v>
       </c>
       <c r="C93" t="n">
-        <v>0.47385</v>
+        <v>0.47324</v>
       </c>
       <c r="D93" t="n">
-        <v>0.469451</v>
+        <v>0.467531</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.536836</v>
+        <v>0.537895</v>
       </c>
       <c r="C94" t="n">
-        <v>0.472687</v>
+        <v>0.470513</v>
       </c>
       <c r="D94" t="n">
-        <v>0.642791</v>
+        <v>0.642912</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6709540000000001</v>
+        <v>0.671619</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5819220000000001</v>
+        <v>0.583021</v>
       </c>
       <c r="D95" t="n">
-        <v>0.587373</v>
+        <v>0.588384</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6780890000000001</v>
+        <v>0.677601</v>
       </c>
       <c r="C96" t="n">
-        <v>0.588379</v>
+        <v>0.587889</v>
       </c>
       <c r="D96" t="n">
-        <v>0.587012</v>
+        <v>0.585125</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.678172</v>
+        <v>0.6779230000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.589688</v>
+        <v>0.58778</v>
       </c>
       <c r="D97" t="n">
-        <v>0.582043</v>
+        <v>0.582802</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6751509999999999</v>
+        <v>0.675747</v>
       </c>
       <c r="C98" t="n">
-        <v>0.587277</v>
+        <v>0.587636</v>
       </c>
       <c r="D98" t="n">
-        <v>0.578364</v>
+        <v>0.578977</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.672691</v>
+        <v>0.670853</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582884</v>
+        <v>0.58478</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573756</v>
+        <v>0.573728</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.66779</v>
+        <v>0.66682</v>
       </c>
       <c r="C100" t="n">
-        <v>0.579844</v>
+        <v>0.580086</v>
       </c>
       <c r="D100" t="n">
-        <v>0.569173</v>
+        <v>0.568666</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.662792</v>
+        <v>0.661743</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5785169999999999</v>
+        <v>0.574759</v>
       </c>
       <c r="D101" t="n">
-        <v>0.566487</v>
+        <v>0.564828</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.656565</v>
+        <v>0.656901</v>
       </c>
       <c r="C102" t="n">
-        <v>0.575115</v>
+        <v>0.564743</v>
       </c>
       <c r="D102" t="n">
-        <v>0.562252</v>
+        <v>0.553084</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.652073</v>
+        <v>0.650323</v>
       </c>
       <c r="C103" t="n">
-        <v>0.562063</v>
+        <v>0.568845</v>
       </c>
       <c r="D103" t="n">
-        <v>0.546563</v>
+        <v>0.556704</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.647182</v>
+        <v>0.646436</v>
       </c>
       <c r="C104" t="n">
-        <v>0.555495</v>
+        <v>0.566746</v>
       </c>
       <c r="D104" t="n">
-        <v>0.543393</v>
+        <v>0.553242</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.640449</v>
+        <v>0.641142</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5676369999999999</v>
+        <v>0.563934</v>
       </c>
       <c r="D105" t="n">
-        <v>0.550652</v>
+        <v>0.550107</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.63841</v>
+        <v>0.636733</v>
       </c>
       <c r="C106" t="n">
-        <v>0.549214</v>
+        <v>0.5622549999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.535756</v>
+        <v>0.547746</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.635293</v>
+        <v>0.635433</v>
       </c>
       <c r="C107" t="n">
-        <v>0.561325</v>
+        <v>0.548993</v>
       </c>
       <c r="D107" t="n">
-        <v>0.547301</v>
+        <v>0.5364950000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.629477</v>
+        <v>0.633925</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5611969999999999</v>
+        <v>0.561249</v>
       </c>
       <c r="D108" t="n">
-        <v>0.717147</v>
+        <v>0.716496</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.60209</v>
+        <v>0.599491</v>
       </c>
       <c r="C109" t="n">
-        <v>0.565559</v>
+        <v>0.568201</v>
       </c>
       <c r="D109" t="n">
-        <v>0.711553</v>
+        <v>0.708526</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7458399999999999</v>
+        <v>0.747106</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7038489999999999</v>
+        <v>0.705353</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7102810000000001</v>
+        <v>0.717892</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.752278</v>
+        <v>0.7477819999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.706578</v>
+        <v>0.706271</v>
       </c>
       <c r="D111" t="n">
-        <v>0.718426</v>
+        <v>0.718737</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.745506</v>
+        <v>0.7486</v>
       </c>
       <c r="C112" t="n">
-        <v>0.702886</v>
+        <v>0.703247</v>
       </c>
       <c r="D112" t="n">
-        <v>0.713879</v>
+        <v>0.70527</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.755513</v>
+        <v>0.75246</v>
       </c>
       <c r="C113" t="n">
-        <v>0.704188</v>
+        <v>0.7045670000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7150339999999999</v>
+        <v>0.715125</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.756556</v>
+        <v>0.751383</v>
       </c>
       <c r="C114" t="n">
-        <v>0.704155</v>
+        <v>0.703694</v>
       </c>
       <c r="D114" t="n">
-        <v>0.703175</v>
+        <v>0.712655</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.757838</v>
+        <v>0.752226</v>
       </c>
       <c r="C115" t="n">
-        <v>0.703945</v>
+        <v>0.701763</v>
       </c>
       <c r="D115" t="n">
-        <v>0.702772</v>
+        <v>0.706968</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.757772</v>
+        <v>0.755065</v>
       </c>
       <c r="C116" t="n">
-        <v>0.701541</v>
+        <v>0.6989300000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.706134</v>
+        <v>0.705334</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.757863</v>
+        <v>0.760306</v>
       </c>
       <c r="C117" t="n">
-        <v>0.70307</v>
+        <v>0.698055</v>
       </c>
       <c r="D117" t="n">
-        <v>0.70992</v>
+        <v>0.700572</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.762164</v>
+        <v>0.759528</v>
       </c>
       <c r="C118" t="n">
-        <v>0.703534</v>
+        <v>0.703745</v>
       </c>
       <c r="D118" t="n">
-        <v>0.700162</v>
+        <v>0.708559</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.763101</v>
+        <v>0.760306</v>
       </c>
       <c r="C119" t="n">
-        <v>0.707932</v>
+        <v>0.702445</v>
       </c>
       <c r="D119" t="n">
-        <v>0.708538</v>
+        <v>0.70719</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.76474</v>
+        <v>0.763944</v>
       </c>
       <c r="C120" t="n">
-        <v>0.707809</v>
+        <v>0.70701</v>
       </c>
       <c r="D120" t="n">
-        <v>0.708375</v>
+        <v>0.707927</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.767135</v>
+        <v>0.767909</v>
       </c>
       <c r="C121" t="n">
-        <v>0.707972</v>
+        <v>0.704004</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7085</v>
+        <v>0.694478</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.766136</v>
+        <v>0.768707</v>
       </c>
       <c r="C122" t="n">
-        <v>0.711961</v>
+        <v>0.710598</v>
       </c>
       <c r="D122" t="n">
-        <v>0.709051</v>
+        <v>0.708476</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.770721</v>
+        <v>0.772054</v>
       </c>
       <c r="C123" t="n">
-        <v>0.712615</v>
+        <v>0.713403</v>
       </c>
       <c r="D123" t="n">
-        <v>0.837185</v>
+        <v>0.837833</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.923055</v>
+        <v>0.92735</v>
       </c>
       <c r="C124" t="n">
-        <v>0.854089</v>
+        <v>0.852855</v>
       </c>
       <c r="D124" t="n">
-        <v>0.84674</v>
+        <v>0.851403</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.928777</v>
+        <v>0.929155</v>
       </c>
       <c r="C125" t="n">
-        <v>0.856577</v>
+        <v>0.859001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.854101</v>
+        <v>0.852474</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.928833</v>
+        <v>0.931088</v>
       </c>
       <c r="C126" t="n">
-        <v>0.858306</v>
+        <v>0.859974</v>
       </c>
       <c r="D126" t="n">
-        <v>0.847998</v>
+        <v>0.854362</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.934458</v>
+        <v>0.933852</v>
       </c>
       <c r="C127" t="n">
-        <v>0.858047</v>
+        <v>0.862175</v>
       </c>
       <c r="D127" t="n">
-        <v>0.854432</v>
+        <v>0.853694</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.934534</v>
+        <v>0.937102</v>
       </c>
       <c r="C128" t="n">
-        <v>0.860264</v>
+        <v>0.863843</v>
       </c>
       <c r="D128" t="n">
-        <v>0.857305</v>
+        <v>0.847556</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.93576</v>
+        <v>0.937966</v>
       </c>
       <c r="C129" t="n">
-        <v>0.865302</v>
+        <v>0.865312</v>
       </c>
       <c r="D129" t="n">
-        <v>0.857148</v>
+        <v>0.852289</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.938678</v>
+        <v>0.940694</v>
       </c>
       <c r="C130" t="n">
-        <v>0.860991</v>
+        <v>0.865271</v>
       </c>
       <c r="D130" t="n">
-        <v>0.858654</v>
+        <v>0.857592</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.939365</v>
+        <v>0.943388</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8642840000000001</v>
+        <v>0.868852</v>
       </c>
       <c r="D131" t="n">
-        <v>0.860378</v>
+        <v>0.856888</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.942224</v>
+        <v>0.9444360000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.86585</v>
+        <v>0.870904</v>
       </c>
       <c r="D132" t="n">
-        <v>0.860815</v>
+        <v>0.8601</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9429959999999999</v>
+        <v>0.946769</v>
       </c>
       <c r="C133" t="n">
-        <v>0.870138</v>
+        <v>0.870576</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8589560000000001</v>
+        <v>0.858914</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9474630000000001</v>
+        <v>0.949451</v>
       </c>
       <c r="C134" t="n">
-        <v>0.87666</v>
+        <v>0.874952</v>
       </c>
       <c r="D134" t="n">
-        <v>0.861872</v>
+        <v>0.865112</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.949816</v>
+        <v>0.950309</v>
       </c>
       <c r="C135" t="n">
-        <v>0.877128</v>
+        <v>0.881591</v>
       </c>
       <c r="D135" t="n">
-        <v>0.867555</v>
+        <v>0.864247</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.952478</v>
+        <v>0.950698</v>
       </c>
       <c r="C136" t="n">
-        <v>0.882168</v>
+        <v>0.885191</v>
       </c>
       <c r="D136" t="n">
-        <v>0.869314</v>
+        <v>0.865772</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.956131</v>
+        <v>0.957072</v>
       </c>
       <c r="C137" t="n">
-        <v>0.886888</v>
+        <v>0.889306</v>
       </c>
       <c r="D137" t="n">
-        <v>1.013</v>
+        <v>1.01096</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.10335</v>
+        <v>1.10178</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02484</v>
+        <v>1.02756</v>
       </c>
       <c r="D138" t="n">
-        <v>1.01025</v>
+        <v>1.00907</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.10026</v>
+        <v>1.10086</v>
       </c>
       <c r="C139" t="n">
-        <v>1.02897</v>
+        <v>1.02533</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01331</v>
+        <v>1.01274</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.10004</v>
+        <v>1.09939</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02807</v>
+        <v>1.02748</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01392</v>
+        <v>1.01284</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.10129</v>
+        <v>1.1009</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02962</v>
+        <v>1.02996</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01371</v>
+        <v>1.01442</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.1008</v>
+        <v>1.1004</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02834</v>
+        <v>1.02843</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01602</v>
+        <v>1.01471</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10032</v>
+        <v>1.10064</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03037</v>
+        <v>1.03143</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01637</v>
+        <v>1.01539</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.473918</v>
+        <v>0.467141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.429914</v>
+        <v>0.426848</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421815</v>
+        <v>0.421442</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.463891</v>
+        <v>0.461736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.42107</v>
+        <v>0.417803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413248</v>
+        <v>0.413099</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.45889</v>
+        <v>0.456188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.415796</v>
+        <v>0.412796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409098</v>
+        <v>0.409164</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.459306</v>
+        <v>0.4506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.411089</v>
+        <v>0.408502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.405539</v>
+        <v>0.40564</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.444681</v>
+        <v>0.44268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.405534</v>
+        <v>0.402999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.400814</v>
+        <v>0.40082</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.440097</v>
+        <v>0.438859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.401909</v>
+        <v>0.399566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.399529</v>
+        <v>0.399446</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.435951</v>
+        <v>0.435214</v>
       </c>
       <c r="C8" t="n">
-        <v>0.401262</v>
+        <v>0.398842</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400328</v>
+        <v>0.400127</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437812</v>
+        <v>0.437316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.403454</v>
+        <v>0.401799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5075460000000001</v>
+        <v>0.508035</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.548891</v>
+        <v>0.548217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.514088</v>
+        <v>0.512711</v>
       </c>
       <c r="D10" t="n">
-        <v>0.502412</v>
+        <v>0.502456</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.536986</v>
+        <v>0.536225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.502443</v>
+        <v>0.500188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.491089</v>
+        <v>0.491254</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.530785</v>
+        <v>0.526188</v>
       </c>
       <c r="C12" t="n">
-        <v>0.492521</v>
+        <v>0.490755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.481669</v>
+        <v>0.481651</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.515566</v>
+        <v>0.514772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.481116</v>
+        <v>0.479616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.471153</v>
+        <v>0.470993</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506367</v>
+        <v>0.5059439999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.471876</v>
+        <v>0.470339</v>
       </c>
       <c r="D14" t="n">
-        <v>0.462403</v>
+        <v>0.462235</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.497113</v>
+        <v>0.496852</v>
       </c>
       <c r="C15" t="n">
-        <v>0.462878</v>
+        <v>0.461479</v>
       </c>
       <c r="D15" t="n">
-        <v>0.454062</v>
+        <v>0.453953</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.48854</v>
+        <v>0.487919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.454255</v>
+        <v>0.453334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.445962</v>
+        <v>0.445969</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.480089</v>
+        <v>0.479693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44675</v>
+        <v>0.445332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.43867</v>
+        <v>0.438805</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.472207</v>
+        <v>0.471636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.438831</v>
+        <v>0.437721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431449</v>
+        <v>0.431674</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.46604</v>
+        <v>0.465651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.432812</v>
+        <v>0.431986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426783</v>
+        <v>0.426754</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458996</v>
+        <v>0.458528</v>
       </c>
       <c r="C20" t="n">
-        <v>0.426707</v>
+        <v>0.425847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421268</v>
+        <v>0.421395</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.454149</v>
+        <v>0.453923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.422728</v>
+        <v>0.421509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418565</v>
+        <v>0.418491</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450638</v>
+        <v>0.450296</v>
       </c>
       <c r="C22" t="n">
-        <v>0.419247</v>
+        <v>0.418548</v>
       </c>
       <c r="D22" t="n">
-        <v>0.416816</v>
+        <v>0.417028</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.448129</v>
+        <v>0.448053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418045</v>
+        <v>0.417618</v>
       </c>
       <c r="D23" t="n">
-        <v>0.529259</v>
+        <v>0.52968</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.56228</v>
+        <v>0.561541</v>
       </c>
       <c r="C24" t="n">
-        <v>0.484421</v>
+        <v>0.487597</v>
       </c>
       <c r="D24" t="n">
-        <v>0.475349</v>
+        <v>0.4755</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.549817</v>
+        <v>0.5494</v>
       </c>
       <c r="C25" t="n">
-        <v>0.473856</v>
+        <v>0.473945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.465053</v>
+        <v>0.465799</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.538842</v>
+        <v>0.538347</v>
       </c>
       <c r="C26" t="n">
-        <v>0.475066</v>
+        <v>0.465276</v>
       </c>
       <c r="D26" t="n">
-        <v>0.456963</v>
+        <v>0.457325</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.527813</v>
+        <v>0.52755</v>
       </c>
       <c r="C27" t="n">
-        <v>0.456507</v>
+        <v>0.456769</v>
       </c>
       <c r="D27" t="n">
-        <v>0.448643</v>
+        <v>0.449236</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5184609999999999</v>
+        <v>0.517963</v>
       </c>
       <c r="C28" t="n">
-        <v>0.449434</v>
+        <v>0.449627</v>
       </c>
       <c r="D28" t="n">
-        <v>0.441732</v>
+        <v>0.442276</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.508585</v>
+        <v>0.507964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.441601</v>
+        <v>0.441155</v>
       </c>
       <c r="D29" t="n">
-        <v>0.433899</v>
+        <v>0.434536</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.499438</v>
+        <v>0.498786</v>
       </c>
       <c r="C30" t="n">
-        <v>0.434068</v>
+        <v>0.434367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427601</v>
+        <v>0.428089</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.491113</v>
+        <v>0.490354</v>
       </c>
       <c r="C31" t="n">
-        <v>0.427182</v>
+        <v>0.427584</v>
       </c>
       <c r="D31" t="n">
-        <v>0.421261</v>
+        <v>0.421795</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.483345</v>
+        <v>0.482911</v>
       </c>
       <c r="C32" t="n">
-        <v>0.42174</v>
+        <v>0.422317</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416005</v>
+        <v>0.416895</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.476383</v>
+        <v>0.476417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.42003</v>
+        <v>0.416886</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411373</v>
+        <v>0.41207</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.470088</v>
+        <v>0.469785</v>
       </c>
       <c r="C34" t="n">
-        <v>0.417592</v>
+        <v>0.411913</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407286</v>
+        <v>0.408024</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.464205</v>
+        <v>0.46405</v>
       </c>
       <c r="C35" t="n">
-        <v>0.40763</v>
+        <v>0.408815</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404431</v>
+        <v>0.405241</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459558</v>
+        <v>0.460077</v>
       </c>
       <c r="C36" t="n">
-        <v>0.405089</v>
+        <v>0.4061</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403722</v>
+        <v>0.404895</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458943</v>
+        <v>0.458533</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40503</v>
+        <v>0.405475</v>
       </c>
       <c r="D37" t="n">
-        <v>0.545357</v>
+        <v>0.548666</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.569616</v>
+        <v>0.570375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.493905</v>
+        <v>0.493569</v>
       </c>
       <c r="D38" t="n">
-        <v>0.485751</v>
+        <v>0.485455</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.559182</v>
+        <v>0.561257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.491123</v>
+        <v>0.485405</v>
       </c>
       <c r="D39" t="n">
-        <v>0.477666</v>
+        <v>0.477495</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.54811</v>
+        <v>0.551037</v>
       </c>
       <c r="C40" t="n">
-        <v>0.484161</v>
+        <v>0.476258</v>
       </c>
       <c r="D40" t="n">
-        <v>0.468883</v>
+        <v>0.468558</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.53754</v>
+        <v>0.541392</v>
       </c>
       <c r="C41" t="n">
-        <v>0.470796</v>
+        <v>0.468276</v>
       </c>
       <c r="D41" t="n">
-        <v>0.460166</v>
+        <v>0.460903</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.527783</v>
+        <v>0.530211</v>
       </c>
       <c r="C42" t="n">
-        <v>0.465463</v>
+        <v>0.464828</v>
       </c>
       <c r="D42" t="n">
-        <v>0.452147</v>
+        <v>0.452889</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.518308</v>
+        <v>0.52084</v>
       </c>
       <c r="C43" t="n">
-        <v>0.452336</v>
+        <v>0.453234</v>
       </c>
       <c r="D43" t="n">
-        <v>0.445818</v>
+        <v>0.44564</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.509324</v>
+        <v>0.51202</v>
       </c>
       <c r="C44" t="n">
-        <v>0.447136</v>
+        <v>0.450696</v>
       </c>
       <c r="D44" t="n">
-        <v>0.440339</v>
+        <v>0.439879</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.49986</v>
+        <v>0.50308</v>
       </c>
       <c r="C45" t="n">
-        <v>0.442458</v>
+        <v>0.439222</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432408</v>
+        <v>0.433469</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.492391</v>
+        <v>0.495691</v>
       </c>
       <c r="C46" t="n">
-        <v>0.434017</v>
+        <v>0.433816</v>
       </c>
       <c r="D46" t="n">
-        <v>0.427928</v>
+        <v>0.426847</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.485766</v>
+        <v>0.487909</v>
       </c>
       <c r="C47" t="n">
-        <v>0.430777</v>
+        <v>0.429111</v>
       </c>
       <c r="D47" t="n">
-        <v>0.423541</v>
+        <v>0.423819</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.478824</v>
+        <v>0.48127</v>
       </c>
       <c r="C48" t="n">
-        <v>0.425975</v>
+        <v>0.423959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.419393</v>
+        <v>0.419099</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.473899</v>
+        <v>0.475121</v>
       </c>
       <c r="C49" t="n">
-        <v>0.420755</v>
+        <v>0.419566</v>
       </c>
       <c r="D49" t="n">
-        <v>0.415201</v>
+        <v>0.415857</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469692</v>
+        <v>0.475731</v>
       </c>
       <c r="C50" t="n">
-        <v>0.41745</v>
+        <v>0.415873</v>
       </c>
       <c r="D50" t="n">
-        <v>0.415319</v>
+        <v>0.417536</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465205</v>
+        <v>0.470419</v>
       </c>
       <c r="C51" t="n">
-        <v>0.416974</v>
+        <v>0.421335</v>
       </c>
       <c r="D51" t="n">
-        <v>0.561627</v>
+        <v>0.566259</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.436989</v>
+        <v>0.437934</v>
       </c>
       <c r="C52" t="n">
-        <v>0.418946</v>
+        <v>0.417539</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5500389999999999</v>
+        <v>0.548089</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.57129</v>
+        <v>0.574398</v>
       </c>
       <c r="C53" t="n">
-        <v>0.503169</v>
+        <v>0.502216</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493329</v>
+        <v>0.490201</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5608649999999999</v>
+        <v>0.560871</v>
       </c>
       <c r="C54" t="n">
-        <v>0.493452</v>
+        <v>0.490522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.482357</v>
+        <v>0.48106</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.550105</v>
+        <v>0.549531</v>
       </c>
       <c r="C55" t="n">
-        <v>0.489684</v>
+        <v>0.482926</v>
       </c>
       <c r="D55" t="n">
-        <v>0.477636</v>
+        <v>0.473961</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.540399</v>
+        <v>0.540315</v>
       </c>
       <c r="C56" t="n">
-        <v>0.477512</v>
+        <v>0.477825</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466801</v>
+        <v>0.466686</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.531868</v>
+        <v>0.529961</v>
       </c>
       <c r="C57" t="n">
-        <v>0.472249</v>
+        <v>0.468503</v>
       </c>
       <c r="D57" t="n">
-        <v>0.460569</v>
+        <v>0.459038</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.52301</v>
+        <v>0.522007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.46597</v>
+        <v>0.46827</v>
       </c>
       <c r="D58" t="n">
-        <v>0.453678</v>
+        <v>0.453334</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.514647</v>
+        <v>0.512529</v>
       </c>
       <c r="C59" t="n">
-        <v>0.454745</v>
+        <v>0.453353</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447368</v>
+        <v>0.449734</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.507305</v>
+        <v>0.506962</v>
       </c>
       <c r="C60" t="n">
-        <v>0.450969</v>
+        <v>0.4483</v>
       </c>
       <c r="D60" t="n">
-        <v>0.441547</v>
+        <v>0.441843</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.500196</v>
+        <v>0.500027</v>
       </c>
       <c r="C61" t="n">
-        <v>0.445875</v>
+        <v>0.445955</v>
       </c>
       <c r="D61" t="n">
-        <v>0.438323</v>
+        <v>0.438066</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.492705</v>
+        <v>0.492388</v>
       </c>
       <c r="C62" t="n">
-        <v>0.440368</v>
+        <v>0.43959</v>
       </c>
       <c r="D62" t="n">
-        <v>0.43368</v>
+        <v>0.434376</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.487018</v>
+        <v>0.485443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.437932</v>
+        <v>0.435418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.431804</v>
+        <v>0.432261</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.482085</v>
+        <v>0.482355</v>
       </c>
       <c r="C64" t="n">
-        <v>0.432722</v>
+        <v>0.433737</v>
       </c>
       <c r="D64" t="n">
-        <v>0.429055</v>
+        <v>0.429794</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.479292</v>
+        <v>0.480249</v>
       </c>
       <c r="C65" t="n">
-        <v>0.43148</v>
+        <v>0.434596</v>
       </c>
       <c r="D65" t="n">
-        <v>0.430287</v>
+        <v>0.431092</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.478305</v>
+        <v>0.477598</v>
       </c>
       <c r="C66" t="n">
-        <v>0.434189</v>
+        <v>0.434753</v>
       </c>
       <c r="D66" t="n">
-        <v>0.571276</v>
+        <v>0.569137</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.594929</v>
+        <v>0.592888</v>
       </c>
       <c r="C67" t="n">
-        <v>0.522605</v>
+        <v>0.523035</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5068319999999999</v>
+        <v>0.508699</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.583017</v>
+        <v>0.581261</v>
       </c>
       <c r="C68" t="n">
-        <v>0.510674</v>
+        <v>0.509419</v>
       </c>
       <c r="D68" t="n">
-        <v>0.501138</v>
+        <v>0.497558</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.571611</v>
+        <v>0.571236</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5031600000000001</v>
+        <v>0.502818</v>
       </c>
       <c r="D69" t="n">
-        <v>0.491065</v>
+        <v>0.490278</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.562048</v>
+        <v>0.560497</v>
       </c>
       <c r="C70" t="n">
-        <v>0.492693</v>
+        <v>0.491269</v>
       </c>
       <c r="D70" t="n">
-        <v>0.48329</v>
+        <v>0.484376</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.552196</v>
+        <v>0.551502</v>
       </c>
       <c r="C71" t="n">
-        <v>0.484367</v>
+        <v>0.48561</v>
       </c>
       <c r="D71" t="n">
-        <v>0.479105</v>
+        <v>0.475902</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.545367</v>
+        <v>0.54317</v>
       </c>
       <c r="C72" t="n">
-        <v>0.477796</v>
+        <v>0.480624</v>
       </c>
       <c r="D72" t="n">
-        <v>0.471083</v>
+        <v>0.470364</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.53671</v>
+        <v>0.534857</v>
       </c>
       <c r="C73" t="n">
-        <v>0.470769</v>
+        <v>0.471576</v>
       </c>
       <c r="D73" t="n">
-        <v>0.464748</v>
+        <v>0.462096</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.529573</v>
+        <v>0.526632</v>
       </c>
       <c r="C74" t="n">
-        <v>0.467989</v>
+        <v>0.466772</v>
       </c>
       <c r="D74" t="n">
-        <v>0.458983</v>
+        <v>0.459468</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.522662</v>
+        <v>0.519086</v>
       </c>
       <c r="C75" t="n">
-        <v>0.461769</v>
+        <v>0.464628</v>
       </c>
       <c r="D75" t="n">
-        <v>0.455314</v>
+        <v>0.456265</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.515879</v>
+        <v>0.513188</v>
       </c>
       <c r="C76" t="n">
-        <v>0.460049</v>
+        <v>0.456152</v>
       </c>
       <c r="D76" t="n">
-        <v>0.451551</v>
+        <v>0.45075</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.509065</v>
+        <v>0.507863</v>
       </c>
       <c r="C77" t="n">
-        <v>0.454318</v>
+        <v>0.454607</v>
       </c>
       <c r="D77" t="n">
-        <v>0.447284</v>
+        <v>0.44826</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.505324</v>
+        <v>0.502535</v>
       </c>
       <c r="C78" t="n">
-        <v>0.448873</v>
+        <v>0.452387</v>
       </c>
       <c r="D78" t="n">
-        <v>0.44552</v>
+        <v>0.446563</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.501968</v>
+        <v>0.499621</v>
       </c>
       <c r="C79" t="n">
-        <v>0.449618</v>
+        <v>0.448788</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44694</v>
+        <v>0.445714</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5001409999999999</v>
+        <v>0.498628</v>
       </c>
       <c r="C80" t="n">
-        <v>0.447647</v>
+        <v>0.448232</v>
       </c>
       <c r="D80" t="n">
-        <v>0.603216</v>
+        <v>0.6062419999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.628598</v>
+        <v>0.631038</v>
       </c>
       <c r="C81" t="n">
-        <v>0.542561</v>
+        <v>0.546149</v>
       </c>
       <c r="D81" t="n">
-        <v>0.531794</v>
+        <v>0.531765</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.622173</v>
+        <v>0.624553</v>
       </c>
       <c r="C82" t="n">
-        <v>0.536007</v>
+        <v>0.538098</v>
       </c>
       <c r="D82" t="n">
-        <v>0.525712</v>
+        <v>0.524638</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.614513</v>
+        <v>0.617062</v>
       </c>
       <c r="C83" t="n">
-        <v>0.528652</v>
+        <v>0.530704</v>
       </c>
       <c r="D83" t="n">
-        <v>0.517442</v>
+        <v>0.517637</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.606661</v>
+        <v>0.609639</v>
       </c>
       <c r="C84" t="n">
-        <v>0.519845</v>
+        <v>0.524572</v>
       </c>
       <c r="D84" t="n">
-        <v>0.506975</v>
+        <v>0.509769</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.598761</v>
+        <v>0.601352</v>
       </c>
       <c r="C85" t="n">
-        <v>0.516714</v>
+        <v>0.516386</v>
       </c>
       <c r="D85" t="n">
-        <v>0.503489</v>
+        <v>0.503227</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.589381</v>
+        <v>0.592886</v>
       </c>
       <c r="C86" t="n">
-        <v>0.506557</v>
+        <v>0.5085229999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.494406</v>
+        <v>0.495524</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.580976</v>
+        <v>0.583781</v>
       </c>
       <c r="C87" t="n">
-        <v>0.499796</v>
+        <v>0.499216</v>
       </c>
       <c r="D87" t="n">
-        <v>0.489675</v>
+        <v>0.489739</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5733</v>
+        <v>0.575193</v>
       </c>
       <c r="C88" t="n">
-        <v>0.493985</v>
+        <v>0.494719</v>
       </c>
       <c r="D88" t="n">
-        <v>0.485667</v>
+        <v>0.485264</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5655</v>
+        <v>0.5674169999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.490413</v>
+        <v>0.488602</v>
       </c>
       <c r="D89" t="n">
-        <v>0.479103</v>
+        <v>0.478811</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.557846</v>
+        <v>0.559833</v>
       </c>
       <c r="C90" t="n">
-        <v>0.485322</v>
+        <v>0.485343</v>
       </c>
       <c r="D90" t="n">
-        <v>0.474156</v>
+        <v>0.474788</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.550223</v>
+        <v>0.553553</v>
       </c>
       <c r="C91" t="n">
-        <v>0.475535</v>
+        <v>0.478655</v>
       </c>
       <c r="D91" t="n">
-        <v>0.466737</v>
+        <v>0.471189</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.544167</v>
+        <v>0.547038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.474356</v>
+        <v>0.474621</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468975</v>
+        <v>0.469096</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.540458</v>
+        <v>0.5416260000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.47324</v>
+        <v>0.474751</v>
       </c>
       <c r="D93" t="n">
-        <v>0.467531</v>
+        <v>0.469121</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.537895</v>
+        <v>0.538784</v>
       </c>
       <c r="C94" t="n">
-        <v>0.470513</v>
+        <v>0.473126</v>
       </c>
       <c r="D94" t="n">
-        <v>0.642912</v>
+        <v>0.643012</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.671619</v>
+        <v>0.67223</v>
       </c>
       <c r="C95" t="n">
-        <v>0.583021</v>
+        <v>0.581088</v>
       </c>
       <c r="D95" t="n">
-        <v>0.588384</v>
+        <v>0.585928</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.677601</v>
+        <v>0.678812</v>
       </c>
       <c r="C96" t="n">
-        <v>0.587889</v>
+        <v>0.586494</v>
       </c>
       <c r="D96" t="n">
-        <v>0.585125</v>
+        <v>0.584413</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6779230000000001</v>
+        <v>0.67865</v>
       </c>
       <c r="C97" t="n">
-        <v>0.58778</v>
+        <v>0.584223</v>
       </c>
       <c r="D97" t="n">
-        <v>0.582802</v>
+        <v>0.578651</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.675747</v>
+        <v>0.675857</v>
       </c>
       <c r="C98" t="n">
-        <v>0.587636</v>
+        <v>0.580109</v>
       </c>
       <c r="D98" t="n">
-        <v>0.578977</v>
+        <v>0.573348</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.670853</v>
+        <v>0.67245</v>
       </c>
       <c r="C99" t="n">
-        <v>0.58478</v>
+        <v>0.584736</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573728</v>
+        <v>0.574918</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.66682</v>
+        <v>0.667513</v>
       </c>
       <c r="C100" t="n">
-        <v>0.580086</v>
+        <v>0.580613</v>
       </c>
       <c r="D100" t="n">
-        <v>0.568666</v>
+        <v>0.569722</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.661743</v>
+        <v>0.6626840000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.574759</v>
+        <v>0.578529</v>
       </c>
       <c r="D101" t="n">
-        <v>0.564828</v>
+        <v>0.566929</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.656901</v>
+        <v>0.65799</v>
       </c>
       <c r="C102" t="n">
-        <v>0.564743</v>
+        <v>0.572694</v>
       </c>
       <c r="D102" t="n">
-        <v>0.553084</v>
+        <v>0.562302</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.650323</v>
+        <v>0.65349</v>
       </c>
       <c r="C103" t="n">
-        <v>0.568845</v>
+        <v>0.568298</v>
       </c>
       <c r="D103" t="n">
-        <v>0.556704</v>
+        <v>0.557388</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.646436</v>
+        <v>0.647862</v>
       </c>
       <c r="C104" t="n">
-        <v>0.566746</v>
+        <v>0.558978</v>
       </c>
       <c r="D104" t="n">
-        <v>0.553242</v>
+        <v>0.54737</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.641142</v>
+        <v>0.643012</v>
       </c>
       <c r="C105" t="n">
-        <v>0.563934</v>
+        <v>0.565806</v>
       </c>
       <c r="D105" t="n">
-        <v>0.550107</v>
+        <v>0.55103</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.636733</v>
+        <v>0.640467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5622549999999999</v>
+        <v>0.565483</v>
       </c>
       <c r="D106" t="n">
-        <v>0.547746</v>
+        <v>0.550465</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.635433</v>
+        <v>0.637355</v>
       </c>
       <c r="C107" t="n">
-        <v>0.548993</v>
+        <v>0.561876</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5364950000000001</v>
+        <v>0.54881</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.633925</v>
+        <v>0.6356540000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.561249</v>
+        <v>0.548555</v>
       </c>
       <c r="D108" t="n">
-        <v>0.716496</v>
+        <v>0.717442</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.599491</v>
+        <v>0.600563</v>
       </c>
       <c r="C109" t="n">
-        <v>0.568201</v>
+        <v>0.566746</v>
       </c>
       <c r="D109" t="n">
-        <v>0.708526</v>
+        <v>0.723396</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.747106</v>
+        <v>0.747331</v>
       </c>
       <c r="C110" t="n">
-        <v>0.705353</v>
+        <v>0.703613</v>
       </c>
       <c r="D110" t="n">
-        <v>0.717892</v>
+        <v>0.7213349999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7477819999999999</v>
+        <v>0.745285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.706271</v>
+        <v>0.703219</v>
       </c>
       <c r="D111" t="n">
-        <v>0.718737</v>
+        <v>0.717602</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7486</v>
+        <v>0.750825</v>
       </c>
       <c r="C112" t="n">
-        <v>0.703247</v>
+        <v>0.70159</v>
       </c>
       <c r="D112" t="n">
-        <v>0.70527</v>
+        <v>0.712754</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.75246</v>
+        <v>0.754404</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7045670000000001</v>
+        <v>0.705917</v>
       </c>
       <c r="D113" t="n">
-        <v>0.715125</v>
+        <v>0.713565</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.751383</v>
+        <v>0.754403</v>
       </c>
       <c r="C114" t="n">
-        <v>0.703694</v>
+        <v>0.70387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.712655</v>
+        <v>0.710874</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.752226</v>
+        <v>0.756773</v>
       </c>
       <c r="C115" t="n">
-        <v>0.701763</v>
+        <v>0.704304</v>
       </c>
       <c r="D115" t="n">
-        <v>0.706968</v>
+        <v>0.705498</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.755065</v>
+        <v>0.755853</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6989300000000001</v>
+        <v>0.703062</v>
       </c>
       <c r="D116" t="n">
-        <v>0.705334</v>
+        <v>0.710089</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.760306</v>
+        <v>0.759995</v>
       </c>
       <c r="C117" t="n">
-        <v>0.698055</v>
+        <v>0.7043779999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.700572</v>
+        <v>0.7106479999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.759528</v>
+        <v>0.759078</v>
       </c>
       <c r="C118" t="n">
-        <v>0.703745</v>
+        <v>0.703834</v>
       </c>
       <c r="D118" t="n">
-        <v>0.708559</v>
+        <v>0.707115</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.760306</v>
+        <v>0.76444</v>
       </c>
       <c r="C119" t="n">
-        <v>0.702445</v>
+        <v>0.705174</v>
       </c>
       <c r="D119" t="n">
-        <v>0.70719</v>
+        <v>0.699105</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.763944</v>
+        <v>0.76486</v>
       </c>
       <c r="C120" t="n">
-        <v>0.70701</v>
+        <v>0.706032</v>
       </c>
       <c r="D120" t="n">
-        <v>0.707927</v>
+        <v>0.70769</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.767909</v>
+        <v>0.765771</v>
       </c>
       <c r="C121" t="n">
-        <v>0.704004</v>
+        <v>0.707205</v>
       </c>
       <c r="D121" t="n">
-        <v>0.694478</v>
+        <v>0.708704</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.768707</v>
+        <v>0.768898</v>
       </c>
       <c r="C122" t="n">
-        <v>0.710598</v>
+        <v>0.709583</v>
       </c>
       <c r="D122" t="n">
-        <v>0.708476</v>
+        <v>0.705539</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.772054</v>
+        <v>0.774968</v>
       </c>
       <c r="C123" t="n">
-        <v>0.713403</v>
+        <v>0.716123</v>
       </c>
       <c r="D123" t="n">
-        <v>0.837833</v>
+        <v>0.8503039999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.92735</v>
+        <v>0.92977</v>
       </c>
       <c r="C124" t="n">
-        <v>0.852855</v>
+        <v>0.853371</v>
       </c>
       <c r="D124" t="n">
-        <v>0.851403</v>
+        <v>0.851952</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.929155</v>
+        <v>0.928596</v>
       </c>
       <c r="C125" t="n">
-        <v>0.859001</v>
+        <v>0.854544</v>
       </c>
       <c r="D125" t="n">
-        <v>0.852474</v>
+        <v>0.848655</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.931088</v>
+        <v>0.932763</v>
       </c>
       <c r="C126" t="n">
-        <v>0.859974</v>
+        <v>0.851554</v>
       </c>
       <c r="D126" t="n">
-        <v>0.854362</v>
+        <v>0.849702</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.933852</v>
+        <v>0.93399</v>
       </c>
       <c r="C127" t="n">
-        <v>0.862175</v>
+        <v>0.853801</v>
       </c>
       <c r="D127" t="n">
-        <v>0.853694</v>
+        <v>0.853598</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.937102</v>
+        <v>0.938511</v>
       </c>
       <c r="C128" t="n">
-        <v>0.863843</v>
+        <v>0.855912</v>
       </c>
       <c r="D128" t="n">
-        <v>0.847556</v>
+        <v>0.849888</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.937966</v>
+        <v>0.940316</v>
       </c>
       <c r="C129" t="n">
-        <v>0.865312</v>
+        <v>0.862887</v>
       </c>
       <c r="D129" t="n">
-        <v>0.852289</v>
+        <v>0.85327</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.940694</v>
+        <v>0.942307</v>
       </c>
       <c r="C130" t="n">
-        <v>0.865271</v>
+        <v>0.863938</v>
       </c>
       <c r="D130" t="n">
-        <v>0.857592</v>
+        <v>0.857503</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.943388</v>
+        <v>0.943488</v>
       </c>
       <c r="C131" t="n">
-        <v>0.868852</v>
+        <v>0.861585</v>
       </c>
       <c r="D131" t="n">
-        <v>0.856888</v>
+        <v>0.856065</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9444360000000001</v>
+        <v>0.946427</v>
       </c>
       <c r="C132" t="n">
-        <v>0.870904</v>
+        <v>0.868426</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8601</v>
+        <v>0.859694</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.946769</v>
+        <v>0.945901</v>
       </c>
       <c r="C133" t="n">
-        <v>0.870576</v>
+        <v>0.86969</v>
       </c>
       <c r="D133" t="n">
-        <v>0.858914</v>
+        <v>0.86091</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.949451</v>
+        <v>0.951675</v>
       </c>
       <c r="C134" t="n">
-        <v>0.874952</v>
+        <v>0.8737780000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.865112</v>
+        <v>0.865478</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.950309</v>
+        <v>0.955999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.881591</v>
+        <v>0.8804149999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.864247</v>
+        <v>0.869302</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.950698</v>
+        <v>0.955478</v>
       </c>
       <c r="C136" t="n">
-        <v>0.885191</v>
+        <v>0.880923</v>
       </c>
       <c r="D136" t="n">
-        <v>0.865772</v>
+        <v>0.868011</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.957072</v>
+        <v>0.958383</v>
       </c>
       <c r="C137" t="n">
-        <v>0.889306</v>
+        <v>0.890321</v>
       </c>
       <c r="D137" t="n">
-        <v>1.01096</v>
+        <v>1.00825</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.10178</v>
+        <v>1.10398</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02756</v>
+        <v>1.02442</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00907</v>
+        <v>1.00985</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.10086</v>
+        <v>1.10171</v>
       </c>
       <c r="C139" t="n">
-        <v>1.02533</v>
+        <v>1.02647</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01274</v>
+        <v>1.01224</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09939</v>
+        <v>1.1055</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02748</v>
+        <v>1.02745</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01284</v>
+        <v>1.01251</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.1009</v>
+        <v>1.10484</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02996</v>
+        <v>1.02802</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01442</v>
+        <v>1.01288</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.1004</v>
+        <v>1.10538</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02843</v>
+        <v>1.02987</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01471</v>
+        <v>1.01559</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10064</v>
+        <v>1.10303</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03143</v>
+        <v>1.03256</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01539</v>
+        <v>1.01454</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.467141</v>
+        <v>0.467372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.426848</v>
+        <v>0.427249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421442</v>
+        <v>0.421427</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.461736</v>
+        <v>0.461965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.417803</v>
+        <v>0.418231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413099</v>
+        <v>0.413171</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456188</v>
+        <v>0.456301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412796</v>
+        <v>0.413089</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409164</v>
+        <v>0.409296</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4506</v>
+        <v>0.451253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.408502</v>
+        <v>0.408989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.40564</v>
+        <v>0.406003</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44268</v>
+        <v>0.443581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402999</v>
+        <v>0.403571</v>
       </c>
       <c r="D6" t="n">
-        <v>0.40082</v>
+        <v>0.401337</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.438859</v>
+        <v>0.439775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.399566</v>
+        <v>0.400353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.399446</v>
+        <v>0.399884</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.435214</v>
+        <v>0.435956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.398842</v>
+        <v>0.399344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400127</v>
+        <v>0.400539</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437316</v>
+        <v>0.437635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401799</v>
+        <v>0.401607</v>
       </c>
       <c r="D9" t="n">
-        <v>0.508035</v>
+        <v>0.508286</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.548217</v>
+        <v>0.5487880000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.512711</v>
+        <v>0.512486</v>
       </c>
       <c r="D10" t="n">
-        <v>0.502456</v>
+        <v>0.502957</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.536225</v>
+        <v>0.536351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.500188</v>
+        <v>0.501122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.491254</v>
+        <v>0.491602</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526188</v>
+        <v>0.526417</v>
       </c>
       <c r="C12" t="n">
-        <v>0.490755</v>
+        <v>0.49106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.481651</v>
+        <v>0.482142</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.514772</v>
+        <v>0.5154530000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.479616</v>
+        <v>0.480037</v>
       </c>
       <c r="D13" t="n">
-        <v>0.470993</v>
+        <v>0.471328</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5059439999999999</v>
+        <v>0.506317</v>
       </c>
       <c r="C14" t="n">
-        <v>0.470339</v>
+        <v>0.470484</v>
       </c>
       <c r="D14" t="n">
-        <v>0.462235</v>
+        <v>0.462513</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.496852</v>
+        <v>0.497295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.461479</v>
+        <v>0.461849</v>
       </c>
       <c r="D15" t="n">
-        <v>0.453953</v>
+        <v>0.454499</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.487919</v>
+        <v>0.488143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453334</v>
+        <v>0.453453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.445969</v>
+        <v>0.446269</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479693</v>
+        <v>0.479717</v>
       </c>
       <c r="C17" t="n">
-        <v>0.445332</v>
+        <v>0.445568</v>
       </c>
       <c r="D17" t="n">
-        <v>0.438805</v>
+        <v>0.438817</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471636</v>
+        <v>0.471762</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437721</v>
+        <v>0.437618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431674</v>
+        <v>0.431655</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465651</v>
+        <v>0.465697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.431986</v>
+        <v>0.432035</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426754</v>
+        <v>0.426944</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458528</v>
+        <v>0.458486</v>
       </c>
       <c r="C20" t="n">
-        <v>0.425847</v>
+        <v>0.425434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421395</v>
+        <v>0.421396</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.453923</v>
+        <v>0.453802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.421509</v>
+        <v>0.421909</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418491</v>
+        <v>0.418591</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450296</v>
+        <v>0.45048</v>
       </c>
       <c r="C22" t="n">
-        <v>0.418548</v>
+        <v>0.418517</v>
       </c>
       <c r="D22" t="n">
-        <v>0.417028</v>
+        <v>0.417051</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.448053</v>
+        <v>0.447816</v>
       </c>
       <c r="C23" t="n">
-        <v>0.417618</v>
+        <v>0.41739</v>
       </c>
       <c r="D23" t="n">
-        <v>0.52968</v>
+        <v>0.529634</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.561541</v>
+        <v>0.561754</v>
       </c>
       <c r="C24" t="n">
-        <v>0.487597</v>
+        <v>0.482789</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4755</v>
+        <v>0.474821</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5494</v>
+        <v>0.54938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.473945</v>
+        <v>0.473378</v>
       </c>
       <c r="D25" t="n">
-        <v>0.465799</v>
+        <v>0.464789</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.538347</v>
+        <v>0.538354</v>
       </c>
       <c r="C26" t="n">
-        <v>0.465276</v>
+        <v>0.464434</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457325</v>
+        <v>0.457269</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.52755</v>
+        <v>0.5279239999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.456769</v>
+        <v>0.456377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.449236</v>
+        <v>0.448483</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.517963</v>
+        <v>0.517968</v>
       </c>
       <c r="C28" t="n">
-        <v>0.449627</v>
+        <v>0.44818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.442276</v>
+        <v>0.441241</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.507964</v>
+        <v>0.507804</v>
       </c>
       <c r="C29" t="n">
-        <v>0.441155</v>
+        <v>0.440062</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434536</v>
+        <v>0.433691</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.498786</v>
+        <v>0.498754</v>
       </c>
       <c r="C30" t="n">
-        <v>0.434367</v>
+        <v>0.433166</v>
       </c>
       <c r="D30" t="n">
-        <v>0.428089</v>
+        <v>0.427217</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.490354</v>
+        <v>0.490368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.427584</v>
+        <v>0.426504</v>
       </c>
       <c r="D31" t="n">
-        <v>0.421795</v>
+        <v>0.420879</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482911</v>
+        <v>0.482795</v>
       </c>
       <c r="C32" t="n">
-        <v>0.422317</v>
+        <v>0.424199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416895</v>
+        <v>0.415774</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.476417</v>
+        <v>0.475864</v>
       </c>
       <c r="C33" t="n">
-        <v>0.416886</v>
+        <v>0.415523</v>
       </c>
       <c r="D33" t="n">
-        <v>0.41207</v>
+        <v>0.411068</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.469785</v>
+        <v>0.469361</v>
       </c>
       <c r="C34" t="n">
-        <v>0.411913</v>
+        <v>0.410921</v>
       </c>
       <c r="D34" t="n">
-        <v>0.408024</v>
+        <v>0.407179</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.46405</v>
+        <v>0.463479</v>
       </c>
       <c r="C35" t="n">
-        <v>0.408815</v>
+        <v>0.40671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.405241</v>
+        <v>0.404208</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.460077</v>
+        <v>0.459629</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4061</v>
+        <v>0.410338</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404895</v>
+        <v>0.40824</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.458533</v>
+        <v>0.457707</v>
       </c>
       <c r="C37" t="n">
-        <v>0.405475</v>
+        <v>0.4046</v>
       </c>
       <c r="D37" t="n">
-        <v>0.548666</v>
+        <v>0.545841</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.570375</v>
+        <v>0.570578</v>
       </c>
       <c r="C38" t="n">
-        <v>0.493569</v>
+        <v>0.499417</v>
       </c>
       <c r="D38" t="n">
-        <v>0.485455</v>
+        <v>0.484961</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.561257</v>
+        <v>0.5597760000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.485405</v>
+        <v>0.484782</v>
       </c>
       <c r="D39" t="n">
-        <v>0.477495</v>
+        <v>0.476493</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.551037</v>
+        <v>0.548558</v>
       </c>
       <c r="C40" t="n">
-        <v>0.476258</v>
+        <v>0.474689</v>
       </c>
       <c r="D40" t="n">
-        <v>0.468558</v>
+        <v>0.467599</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.541392</v>
+        <v>0.537671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.468276</v>
+        <v>0.468511</v>
       </c>
       <c r="D41" t="n">
-        <v>0.460903</v>
+        <v>0.459274</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.530211</v>
+        <v>0.5278620000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.464828</v>
+        <v>0.458973</v>
       </c>
       <c r="D42" t="n">
-        <v>0.452889</v>
+        <v>0.451814</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.52084</v>
+        <v>0.518584</v>
       </c>
       <c r="C43" t="n">
-        <v>0.453234</v>
+        <v>0.452803</v>
       </c>
       <c r="D43" t="n">
-        <v>0.44564</v>
+        <v>0.445405</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.51202</v>
+        <v>0.5097429999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.450696</v>
+        <v>0.44606</v>
       </c>
       <c r="D44" t="n">
-        <v>0.439879</v>
+        <v>0.439253</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.50308</v>
+        <v>0.501624</v>
       </c>
       <c r="C45" t="n">
-        <v>0.439222</v>
+        <v>0.438288</v>
       </c>
       <c r="D45" t="n">
-        <v>0.433469</v>
+        <v>0.432391</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.495691</v>
+        <v>0.49407</v>
       </c>
       <c r="C46" t="n">
-        <v>0.433816</v>
+        <v>0.433675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426847</v>
+        <v>0.427926</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.487909</v>
+        <v>0.486151</v>
       </c>
       <c r="C47" t="n">
-        <v>0.429111</v>
+        <v>0.427579</v>
       </c>
       <c r="D47" t="n">
-        <v>0.423819</v>
+        <v>0.42283</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.48127</v>
+        <v>0.479862</v>
       </c>
       <c r="C48" t="n">
-        <v>0.423959</v>
+        <v>0.426344</v>
       </c>
       <c r="D48" t="n">
-        <v>0.419099</v>
+        <v>0.419052</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.475121</v>
+        <v>0.473921</v>
       </c>
       <c r="C49" t="n">
-        <v>0.419566</v>
+        <v>0.418966</v>
       </c>
       <c r="D49" t="n">
-        <v>0.415857</v>
+        <v>0.414707</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.475731</v>
+        <v>0.468714</v>
       </c>
       <c r="C50" t="n">
-        <v>0.415873</v>
+        <v>0.41673</v>
       </c>
       <c r="D50" t="n">
-        <v>0.417536</v>
+        <v>0.414772</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.470419</v>
+        <v>0.466743</v>
       </c>
       <c r="C51" t="n">
-        <v>0.421335</v>
+        <v>0.418332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.566259</v>
+        <v>0.560822</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.437934</v>
+        <v>0.436249</v>
       </c>
       <c r="C52" t="n">
-        <v>0.417539</v>
+        <v>0.416598</v>
       </c>
       <c r="D52" t="n">
-        <v>0.548089</v>
+        <v>0.549169</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.574398</v>
+        <v>0.571763</v>
       </c>
       <c r="C53" t="n">
-        <v>0.502216</v>
+        <v>0.501014</v>
       </c>
       <c r="D53" t="n">
-        <v>0.490201</v>
+        <v>0.489771</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.560871</v>
+        <v>0.560391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.490522</v>
+        <v>0.493632</v>
       </c>
       <c r="D54" t="n">
-        <v>0.48106</v>
+        <v>0.483201</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.549531</v>
+        <v>0.550607</v>
       </c>
       <c r="C55" t="n">
-        <v>0.482926</v>
+        <v>0.482107</v>
       </c>
       <c r="D55" t="n">
-        <v>0.473961</v>
+        <v>0.472945</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.540315</v>
+        <v>0.541229</v>
       </c>
       <c r="C56" t="n">
-        <v>0.477825</v>
+        <v>0.474021</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466686</v>
+        <v>0.465907</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.529961</v>
+        <v>0.531132</v>
       </c>
       <c r="C57" t="n">
-        <v>0.468503</v>
+        <v>0.468127</v>
       </c>
       <c r="D57" t="n">
-        <v>0.459038</v>
+        <v>0.459964</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.522007</v>
+        <v>0.522328</v>
       </c>
       <c r="C58" t="n">
-        <v>0.46827</v>
+        <v>0.463298</v>
       </c>
       <c r="D58" t="n">
-        <v>0.453334</v>
+        <v>0.453026</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.512529</v>
+        <v>0.515814</v>
       </c>
       <c r="C59" t="n">
-        <v>0.453353</v>
+        <v>0.455005</v>
       </c>
       <c r="D59" t="n">
-        <v>0.449734</v>
+        <v>0.446972</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.506962</v>
+        <v>0.508171</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4483</v>
+        <v>0.450364</v>
       </c>
       <c r="D60" t="n">
-        <v>0.441843</v>
+        <v>0.442597</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.500027</v>
+        <v>0.500818</v>
       </c>
       <c r="C61" t="n">
-        <v>0.445955</v>
+        <v>0.445697</v>
       </c>
       <c r="D61" t="n">
-        <v>0.438066</v>
+        <v>0.437155</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.492388</v>
+        <v>0.493578</v>
       </c>
       <c r="C62" t="n">
-        <v>0.43959</v>
+        <v>0.442137</v>
       </c>
       <c r="D62" t="n">
-        <v>0.434376</v>
+        <v>0.435325</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.485443</v>
+        <v>0.486467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.435418</v>
+        <v>0.435969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.432261</v>
+        <v>0.433972</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.482355</v>
+        <v>0.482467</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433737</v>
+        <v>0.434318</v>
       </c>
       <c r="D64" t="n">
-        <v>0.429794</v>
+        <v>0.429085</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.480249</v>
+        <v>0.478757</v>
       </c>
       <c r="C65" t="n">
-        <v>0.434596</v>
+        <v>0.434974</v>
       </c>
       <c r="D65" t="n">
-        <v>0.431092</v>
+        <v>0.429673</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.477598</v>
+        <v>0.477913</v>
       </c>
       <c r="C66" t="n">
-        <v>0.434753</v>
+        <v>0.434135</v>
       </c>
       <c r="D66" t="n">
-        <v>0.569137</v>
+        <v>0.56976</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.592888</v>
+        <v>0.591418</v>
       </c>
       <c r="C67" t="n">
-        <v>0.523035</v>
+        <v>0.516384</v>
       </c>
       <c r="D67" t="n">
-        <v>0.508699</v>
+        <v>0.507331</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.581261</v>
+        <v>0.580932</v>
       </c>
       <c r="C68" t="n">
-        <v>0.509419</v>
+        <v>0.509769</v>
       </c>
       <c r="D68" t="n">
-        <v>0.497558</v>
+        <v>0.498453</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.571236</v>
+        <v>0.570929</v>
       </c>
       <c r="C69" t="n">
-        <v>0.502818</v>
+        <v>0.499949</v>
       </c>
       <c r="D69" t="n">
-        <v>0.490278</v>
+        <v>0.490207</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.560497</v>
+        <v>0.5607760000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.491269</v>
+        <v>0.492747</v>
       </c>
       <c r="D70" t="n">
-        <v>0.484376</v>
+        <v>0.482455</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.551502</v>
+        <v>0.55144</v>
       </c>
       <c r="C71" t="n">
-        <v>0.48561</v>
+        <v>0.488445</v>
       </c>
       <c r="D71" t="n">
-        <v>0.475902</v>
+        <v>0.476716</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.54317</v>
+        <v>0.542801</v>
       </c>
       <c r="C72" t="n">
-        <v>0.480624</v>
+        <v>0.480382</v>
       </c>
       <c r="D72" t="n">
-        <v>0.470364</v>
+        <v>0.46968</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.534857</v>
+        <v>0.534129</v>
       </c>
       <c r="C73" t="n">
-        <v>0.471576</v>
+        <v>0.472236</v>
       </c>
       <c r="D73" t="n">
-        <v>0.462096</v>
+        <v>0.46405</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.526632</v>
+        <v>0.526645</v>
       </c>
       <c r="C74" t="n">
-        <v>0.466772</v>
+        <v>0.468319</v>
       </c>
       <c r="D74" t="n">
-        <v>0.459468</v>
+        <v>0.459394</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.519086</v>
+        <v>0.520563</v>
       </c>
       <c r="C75" t="n">
-        <v>0.464628</v>
+        <v>0.459631</v>
       </c>
       <c r="D75" t="n">
-        <v>0.456265</v>
+        <v>0.455157</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.513188</v>
+        <v>0.513431</v>
       </c>
       <c r="C76" t="n">
-        <v>0.456152</v>
+        <v>0.457805</v>
       </c>
       <c r="D76" t="n">
-        <v>0.45075</v>
+        <v>0.450803</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.507863</v>
+        <v>0.50769</v>
       </c>
       <c r="C77" t="n">
-        <v>0.454607</v>
+        <v>0.452023</v>
       </c>
       <c r="D77" t="n">
-        <v>0.44826</v>
+        <v>0.447517</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.502535</v>
+        <v>0.502893</v>
       </c>
       <c r="C78" t="n">
-        <v>0.452387</v>
+        <v>0.448015</v>
       </c>
       <c r="D78" t="n">
-        <v>0.446563</v>
+        <v>0.445211</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.499621</v>
+        <v>0.499089</v>
       </c>
       <c r="C79" t="n">
-        <v>0.448788</v>
+        <v>0.447579</v>
       </c>
       <c r="D79" t="n">
-        <v>0.445714</v>
+        <v>0.445249</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.498628</v>
+        <v>0.49758</v>
       </c>
       <c r="C80" t="n">
-        <v>0.448232</v>
+        <v>0.450274</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6062419999999999</v>
+        <v>0.602081</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.631038</v>
+        <v>0.628462</v>
       </c>
       <c r="C81" t="n">
-        <v>0.546149</v>
+        <v>0.5429659999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.531765</v>
+        <v>0.531514</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.624553</v>
+        <v>0.622557</v>
       </c>
       <c r="C82" t="n">
-        <v>0.538098</v>
+        <v>0.5374370000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.524638</v>
+        <v>0.52432</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.617062</v>
+        <v>0.615937</v>
       </c>
       <c r="C83" t="n">
-        <v>0.530704</v>
+        <v>0.528593</v>
       </c>
       <c r="D83" t="n">
-        <v>0.517637</v>
+        <v>0.515709</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.609639</v>
+        <v>0.607707</v>
       </c>
       <c r="C84" t="n">
-        <v>0.524572</v>
+        <v>0.521674</v>
       </c>
       <c r="D84" t="n">
-        <v>0.509769</v>
+        <v>0.508863</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.601352</v>
+        <v>0.599589</v>
       </c>
       <c r="C85" t="n">
-        <v>0.516386</v>
+        <v>0.5120400000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.503227</v>
+        <v>0.5000790000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.592886</v>
+        <v>0.59172</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5085229999999999</v>
+        <v>0.510982</v>
       </c>
       <c r="D86" t="n">
-        <v>0.495524</v>
+        <v>0.49473</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.583781</v>
+        <v>0.582588</v>
       </c>
       <c r="C87" t="n">
-        <v>0.499216</v>
+        <v>0.50385</v>
       </c>
       <c r="D87" t="n">
-        <v>0.489739</v>
+        <v>0.491006</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.575193</v>
+        <v>0.574442</v>
       </c>
       <c r="C88" t="n">
-        <v>0.494719</v>
+        <v>0.492673</v>
       </c>
       <c r="D88" t="n">
-        <v>0.485264</v>
+        <v>0.482342</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5674169999999999</v>
+        <v>0.566882</v>
       </c>
       <c r="C89" t="n">
-        <v>0.488602</v>
+        <v>0.485869</v>
       </c>
       <c r="D89" t="n">
-        <v>0.478811</v>
+        <v>0.478022</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.559833</v>
+        <v>0.5584249999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.485343</v>
+        <v>0.484761</v>
       </c>
       <c r="D90" t="n">
-        <v>0.474788</v>
+        <v>0.47436</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.553553</v>
+        <v>0.552466</v>
       </c>
       <c r="C91" t="n">
-        <v>0.478655</v>
+        <v>0.481946</v>
       </c>
       <c r="D91" t="n">
-        <v>0.471189</v>
+        <v>0.471112</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.547038</v>
+        <v>0.54447</v>
       </c>
       <c r="C92" t="n">
-        <v>0.474621</v>
+        <v>0.475325</v>
       </c>
       <c r="D92" t="n">
-        <v>0.469096</v>
+        <v>0.468474</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5416260000000001</v>
+        <v>0.541242</v>
       </c>
       <c r="C93" t="n">
-        <v>0.474751</v>
+        <v>0.475431</v>
       </c>
       <c r="D93" t="n">
-        <v>0.469121</v>
+        <v>0.469812</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.538784</v>
+        <v>0.538293</v>
       </c>
       <c r="C94" t="n">
-        <v>0.473126</v>
+        <v>0.475062</v>
       </c>
       <c r="D94" t="n">
-        <v>0.643012</v>
+        <v>0.637219</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.67223</v>
+        <v>0.670542</v>
       </c>
       <c r="C95" t="n">
-        <v>0.581088</v>
+        <v>0.581694</v>
       </c>
       <c r="D95" t="n">
-        <v>0.585928</v>
+        <v>0.586383</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.678812</v>
+        <v>0.676029</v>
       </c>
       <c r="C96" t="n">
-        <v>0.586494</v>
+        <v>0.58668</v>
       </c>
       <c r="D96" t="n">
-        <v>0.584413</v>
+        <v>0.584543</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.67865</v>
+        <v>0.676697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.584223</v>
+        <v>0.587207</v>
       </c>
       <c r="D97" t="n">
-        <v>0.578651</v>
+        <v>0.582709</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.675857</v>
+        <v>0.673778</v>
       </c>
       <c r="C98" t="n">
-        <v>0.580109</v>
+        <v>0.583082</v>
       </c>
       <c r="D98" t="n">
-        <v>0.573348</v>
+        <v>0.5777600000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.67245</v>
+        <v>0.671026</v>
       </c>
       <c r="C99" t="n">
-        <v>0.584736</v>
+        <v>0.582395</v>
       </c>
       <c r="D99" t="n">
-        <v>0.574918</v>
+        <v>0.573421</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.667513</v>
+        <v>0.666503</v>
       </c>
       <c r="C100" t="n">
-        <v>0.580613</v>
+        <v>0.580896</v>
       </c>
       <c r="D100" t="n">
-        <v>0.569722</v>
+        <v>0.570566</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6626840000000001</v>
+        <v>0.662462</v>
       </c>
       <c r="C101" t="n">
-        <v>0.578529</v>
+        <v>0.57518</v>
       </c>
       <c r="D101" t="n">
-        <v>0.566929</v>
+        <v>0.565499</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.65799</v>
+        <v>0.657063</v>
       </c>
       <c r="C102" t="n">
-        <v>0.572694</v>
+        <v>0.57589</v>
       </c>
       <c r="D102" t="n">
-        <v>0.562302</v>
+        <v>0.562314</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.65349</v>
+        <v>0.653636</v>
       </c>
       <c r="C103" t="n">
-        <v>0.568298</v>
+        <v>0.5717410000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.557388</v>
+        <v>0.558244</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.647862</v>
+        <v>0.647861</v>
       </c>
       <c r="C104" t="n">
-        <v>0.558978</v>
+        <v>0.553105</v>
       </c>
       <c r="D104" t="n">
-        <v>0.54737</v>
+        <v>0.538811</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.643012</v>
+        <v>0.6436730000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.565806</v>
+        <v>0.550577</v>
       </c>
       <c r="D105" t="n">
-        <v>0.55103</v>
+        <v>0.536537</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.640467</v>
+        <v>0.640055</v>
       </c>
       <c r="C106" t="n">
-        <v>0.565483</v>
+        <v>0.546587</v>
       </c>
       <c r="D106" t="n">
-        <v>0.550465</v>
+        <v>0.533861</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.637355</v>
+        <v>0.637451</v>
       </c>
       <c r="C107" t="n">
-        <v>0.561876</v>
+        <v>0.548455</v>
       </c>
       <c r="D107" t="n">
-        <v>0.54881</v>
+        <v>0.535598</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6356540000000001</v>
+        <v>0.635231</v>
       </c>
       <c r="C108" t="n">
-        <v>0.548555</v>
+        <v>0.546075</v>
       </c>
       <c r="D108" t="n">
-        <v>0.717442</v>
+        <v>0.716773</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.600563</v>
+        <v>0.5992769999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.566746</v>
+        <v>0.564478</v>
       </c>
       <c r="D109" t="n">
-        <v>0.723396</v>
+        <v>0.720422</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.747331</v>
+        <v>0.744385</v>
       </c>
       <c r="C110" t="n">
-        <v>0.703613</v>
+        <v>0.702901</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7213349999999999</v>
+        <v>0.716812</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.745285</v>
+        <v>0.7489440000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.703219</v>
+        <v>0.703118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.717602</v>
+        <v>0.717187</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.750825</v>
+        <v>0.748522</v>
       </c>
       <c r="C112" t="n">
-        <v>0.70159</v>
+        <v>0.704222</v>
       </c>
       <c r="D112" t="n">
-        <v>0.712754</v>
+        <v>0.7173349999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.754404</v>
+        <v>0.752586</v>
       </c>
       <c r="C113" t="n">
-        <v>0.705917</v>
+        <v>0.704741</v>
       </c>
       <c r="D113" t="n">
-        <v>0.713565</v>
+        <v>0.71623</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.754403</v>
+        <v>0.753678</v>
       </c>
       <c r="C114" t="n">
-        <v>0.70387</v>
+        <v>0.705978</v>
       </c>
       <c r="D114" t="n">
-        <v>0.710874</v>
+        <v>0.7141459999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.756773</v>
+        <v>0.757036</v>
       </c>
       <c r="C115" t="n">
-        <v>0.704304</v>
+        <v>0.703085</v>
       </c>
       <c r="D115" t="n">
-        <v>0.705498</v>
+        <v>0.707333</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.755853</v>
+        <v>0.758969</v>
       </c>
       <c r="C116" t="n">
-        <v>0.703062</v>
+        <v>0.704995</v>
       </c>
       <c r="D116" t="n">
-        <v>0.710089</v>
+        <v>0.7006289999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.759995</v>
+        <v>0.764029</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7043779999999999</v>
+        <v>0.706384</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7106479999999999</v>
+        <v>0.710491</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.759078</v>
+        <v>0.7619359999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.703834</v>
+        <v>0.699395</v>
       </c>
       <c r="D118" t="n">
-        <v>0.707115</v>
+        <v>0.700817</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.76444</v>
+        <v>0.764252</v>
       </c>
       <c r="C119" t="n">
-        <v>0.705174</v>
+        <v>0.706073</v>
       </c>
       <c r="D119" t="n">
-        <v>0.699105</v>
+        <v>0.710511</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.76486</v>
+        <v>0.764794</v>
       </c>
       <c r="C120" t="n">
-        <v>0.706032</v>
+        <v>0.707776</v>
       </c>
       <c r="D120" t="n">
-        <v>0.70769</v>
+        <v>0.708772</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.765771</v>
+        <v>0.7677040000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.707205</v>
+        <v>0.703913</v>
       </c>
       <c r="D121" t="n">
-        <v>0.708704</v>
+        <v>0.708653</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.768898</v>
+        <v>0.770307</v>
       </c>
       <c r="C122" t="n">
-        <v>0.709583</v>
+        <v>0.7139760000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705539</v>
+        <v>0.710651</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774968</v>
+        <v>0.773684</v>
       </c>
       <c r="C123" t="n">
-        <v>0.716123</v>
+        <v>0.716841</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8503039999999999</v>
+        <v>0.850346</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.92977</v>
+        <v>0.926902</v>
       </c>
       <c r="C124" t="n">
-        <v>0.853371</v>
+        <v>0.856994</v>
       </c>
       <c r="D124" t="n">
-        <v>0.851952</v>
+        <v>0.85099</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.928596</v>
+        <v>0.930308</v>
       </c>
       <c r="C125" t="n">
-        <v>0.854544</v>
+        <v>0.858026</v>
       </c>
       <c r="D125" t="n">
-        <v>0.848655</v>
+        <v>0.852649</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.932763</v>
+        <v>0.933097</v>
       </c>
       <c r="C126" t="n">
-        <v>0.851554</v>
+        <v>0.86025</v>
       </c>
       <c r="D126" t="n">
-        <v>0.849702</v>
+        <v>0.853313</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.93399</v>
+        <v>0.934876</v>
       </c>
       <c r="C127" t="n">
-        <v>0.853801</v>
+        <v>0.861262</v>
       </c>
       <c r="D127" t="n">
-        <v>0.853598</v>
+        <v>0.850843</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.938511</v>
+        <v>0.93693</v>
       </c>
       <c r="C128" t="n">
-        <v>0.855912</v>
+        <v>0.860301</v>
       </c>
       <c r="D128" t="n">
-        <v>0.849888</v>
+        <v>0.84865</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.940316</v>
+        <v>0.939202</v>
       </c>
       <c r="C129" t="n">
-        <v>0.862887</v>
+        <v>0.857883</v>
       </c>
       <c r="D129" t="n">
-        <v>0.85327</v>
+        <v>0.853826</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.942307</v>
+        <v>0.941018</v>
       </c>
       <c r="C130" t="n">
-        <v>0.863938</v>
+        <v>0.864729</v>
       </c>
       <c r="D130" t="n">
-        <v>0.857503</v>
+        <v>0.857772</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.943488</v>
+        <v>0.94238</v>
       </c>
       <c r="C131" t="n">
-        <v>0.861585</v>
+        <v>0.868229</v>
       </c>
       <c r="D131" t="n">
-        <v>0.856065</v>
+        <v>0.85733</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.946427</v>
+        <v>0.944174</v>
       </c>
       <c r="C132" t="n">
-        <v>0.868426</v>
+        <v>0.866757</v>
       </c>
       <c r="D132" t="n">
-        <v>0.859694</v>
+        <v>0.855973</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.945901</v>
+        <v>0.944076</v>
       </c>
       <c r="C133" t="n">
-        <v>0.86969</v>
+        <v>0.874661</v>
       </c>
       <c r="D133" t="n">
-        <v>0.86091</v>
+        <v>0.861248</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.951675</v>
+        <v>0.945169</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8737780000000001</v>
+        <v>0.872193</v>
       </c>
       <c r="D134" t="n">
-        <v>0.865478</v>
+        <v>0.8589869999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.955999</v>
+        <v>0.953698</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8804149999999999</v>
+        <v>0.875964</v>
       </c>
       <c r="D135" t="n">
-        <v>0.869302</v>
+        <v>0.863053</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.955478</v>
+        <v>0.956418</v>
       </c>
       <c r="C136" t="n">
-        <v>0.880923</v>
+        <v>0.882097</v>
       </c>
       <c r="D136" t="n">
-        <v>0.868011</v>
+        <v>0.8695850000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.958383</v>
+        <v>0.960686</v>
       </c>
       <c r="C137" t="n">
-        <v>0.890321</v>
+        <v>0.891021</v>
       </c>
       <c r="D137" t="n">
-        <v>1.00825</v>
+        <v>1.0104</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.10398</v>
+        <v>1.10447</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02442</v>
+        <v>1.02864</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00985</v>
+        <v>1.01229</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.10171</v>
+        <v>1.10463</v>
       </c>
       <c r="C139" t="n">
-        <v>1.02647</v>
+        <v>1.03009</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01224</v>
+        <v>1.01373</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.1055</v>
+        <v>1.10464</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02745</v>
+        <v>1.02935</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01251</v>
+        <v>1.01439</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.10484</v>
+        <v>1.10367</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02802</v>
+        <v>1.0318</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01288</v>
+        <v>1.01424</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.10538</v>
+        <v>1.104</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02987</v>
+        <v>1.03169</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01559</v>
+        <v>1.01611</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10303</v>
+        <v>1.10246</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03256</v>
+        <v>1.03233</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01454</v>
+        <v>1.01746</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.467372</v>
+        <v>0.468751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.427249</v>
+        <v>0.432309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421427</v>
+        <v>0.421856</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.461965</v>
+        <v>0.462446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.418231</v>
+        <v>0.422636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413171</v>
+        <v>0.413454</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456301</v>
+        <v>0.456885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.413089</v>
+        <v>0.416919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409296</v>
+        <v>0.409136</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451253</v>
+        <v>0.451499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.408989</v>
+        <v>0.417251</v>
       </c>
       <c r="D5" t="n">
-        <v>0.406003</v>
+        <v>0.405903</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.443581</v>
+        <v>0.44339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403571</v>
+        <v>0.406935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.401337</v>
+        <v>0.401093</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439775</v>
+        <v>0.439172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.400353</v>
+        <v>0.403385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.399884</v>
+        <v>0.399785</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.435956</v>
+        <v>0.436244</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399344</v>
+        <v>0.402118</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400539</v>
+        <v>0.400298</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437635</v>
+        <v>0.438378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.401607</v>
+        <v>0.404753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.508286</v>
+        <v>0.507722</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5487880000000001</v>
+        <v>0.548551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.512486</v>
+        <v>0.515539</v>
       </c>
       <c r="D10" t="n">
-        <v>0.502957</v>
+        <v>0.502228</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.536351</v>
+        <v>0.536312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.501122</v>
+        <v>0.504625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.491602</v>
+        <v>0.491178</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526417</v>
+        <v>0.526294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49106</v>
+        <v>0.49383</v>
       </c>
       <c r="D12" t="n">
-        <v>0.482142</v>
+        <v>0.481839</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5154530000000001</v>
+        <v>0.514973</v>
       </c>
       <c r="C13" t="n">
-        <v>0.480037</v>
+        <v>0.482599</v>
       </c>
       <c r="D13" t="n">
-        <v>0.471328</v>
+        <v>0.471205</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.506317</v>
+        <v>0.505896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.470484</v>
+        <v>0.473332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.462513</v>
+        <v>0.462601</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.497295</v>
+        <v>0.49678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.461849</v>
+        <v>0.464356</v>
       </c>
       <c r="D15" t="n">
-        <v>0.454499</v>
+        <v>0.45407</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.488143</v>
+        <v>0.488049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.453453</v>
+        <v>0.455677</v>
       </c>
       <c r="D16" t="n">
-        <v>0.446269</v>
+        <v>0.446258</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.479717</v>
+        <v>0.480192</v>
       </c>
       <c r="C17" t="n">
-        <v>0.445568</v>
+        <v>0.447559</v>
       </c>
       <c r="D17" t="n">
-        <v>0.438817</v>
+        <v>0.438818</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.471762</v>
+        <v>0.47219</v>
       </c>
       <c r="C18" t="n">
-        <v>0.437618</v>
+        <v>0.439907</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431655</v>
+        <v>0.431446</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465697</v>
+        <v>0.465893</v>
       </c>
       <c r="C19" t="n">
-        <v>0.432035</v>
+        <v>0.434045</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426944</v>
+        <v>0.427274</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.458486</v>
+        <v>0.45861</v>
       </c>
       <c r="C20" t="n">
-        <v>0.425434</v>
+        <v>0.427901</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421396</v>
+        <v>0.421549</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.453802</v>
+        <v>0.453995</v>
       </c>
       <c r="C21" t="n">
-        <v>0.421909</v>
+        <v>0.423353</v>
       </c>
       <c r="D21" t="n">
-        <v>0.418591</v>
+        <v>0.41858</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.45048</v>
+        <v>0.450185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.418517</v>
+        <v>0.420282</v>
       </c>
       <c r="D22" t="n">
-        <v>0.417051</v>
+        <v>0.416871</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.447816</v>
+        <v>0.447941</v>
       </c>
       <c r="C23" t="n">
-        <v>0.41739</v>
+        <v>0.418825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.529634</v>
+        <v>0.529562</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.561754</v>
+        <v>0.561634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.482789</v>
+        <v>0.484899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.474821</v>
+        <v>0.475001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.54938</v>
+        <v>0.549053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.473378</v>
+        <v>0.474391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.464789</v>
+        <v>0.464979</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.538354</v>
+        <v>0.53807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.464434</v>
+        <v>0.472089</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457269</v>
+        <v>0.456844</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5279239999999999</v>
+        <v>0.527376</v>
       </c>
       <c r="C27" t="n">
-        <v>0.456377</v>
+        <v>0.45727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.448483</v>
+        <v>0.448655</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.517968</v>
+        <v>0.517921</v>
       </c>
       <c r="C28" t="n">
-        <v>0.44818</v>
+        <v>0.451612</v>
       </c>
       <c r="D28" t="n">
-        <v>0.441241</v>
+        <v>0.441829</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.507804</v>
+        <v>0.507939</v>
       </c>
       <c r="C29" t="n">
-        <v>0.440062</v>
+        <v>0.441619</v>
       </c>
       <c r="D29" t="n">
-        <v>0.433691</v>
+        <v>0.434067</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.498754</v>
+        <v>0.498655</v>
       </c>
       <c r="C30" t="n">
-        <v>0.433166</v>
+        <v>0.43473</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427217</v>
+        <v>0.427563</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.490368</v>
+        <v>0.490274</v>
       </c>
       <c r="C31" t="n">
-        <v>0.426504</v>
+        <v>0.428142</v>
       </c>
       <c r="D31" t="n">
-        <v>0.420879</v>
+        <v>0.421411</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.482795</v>
+        <v>0.48247</v>
       </c>
       <c r="C32" t="n">
-        <v>0.424199</v>
+        <v>0.422216</v>
       </c>
       <c r="D32" t="n">
-        <v>0.415774</v>
+        <v>0.416085</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.475864</v>
+        <v>0.475898</v>
       </c>
       <c r="C33" t="n">
-        <v>0.415523</v>
+        <v>0.417367</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411068</v>
+        <v>0.411311</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.469361</v>
+        <v>0.469211</v>
       </c>
       <c r="C34" t="n">
-        <v>0.410921</v>
+        <v>0.412157</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407179</v>
+        <v>0.407747</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463479</v>
+        <v>0.463502</v>
       </c>
       <c r="C35" t="n">
-        <v>0.40671</v>
+        <v>0.407783</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404208</v>
+        <v>0.404377</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459629</v>
+        <v>0.459726</v>
       </c>
       <c r="C36" t="n">
-        <v>0.410338</v>
+        <v>0.405605</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40824</v>
+        <v>0.403879</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.457707</v>
+        <v>0.457944</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4046</v>
+        <v>0.407489</v>
       </c>
       <c r="D37" t="n">
-        <v>0.545841</v>
+        <v>0.54631</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.570578</v>
+        <v>0.570903</v>
       </c>
       <c r="C38" t="n">
-        <v>0.499417</v>
+        <v>0.494298</v>
       </c>
       <c r="D38" t="n">
-        <v>0.484961</v>
+        <v>0.485324</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5597760000000001</v>
+        <v>0.559741</v>
       </c>
       <c r="C39" t="n">
-        <v>0.484782</v>
+        <v>0.485612</v>
       </c>
       <c r="D39" t="n">
-        <v>0.476493</v>
+        <v>0.482507</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.548558</v>
+        <v>0.54866</v>
       </c>
       <c r="C40" t="n">
-        <v>0.474689</v>
+        <v>0.476981</v>
       </c>
       <c r="D40" t="n">
-        <v>0.467599</v>
+        <v>0.473178</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.537671</v>
+        <v>0.538072</v>
       </c>
       <c r="C41" t="n">
-        <v>0.468511</v>
+        <v>0.473637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.459274</v>
+        <v>0.460539</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5278620000000001</v>
+        <v>0.52788</v>
       </c>
       <c r="C42" t="n">
-        <v>0.458973</v>
+        <v>0.462343</v>
       </c>
       <c r="D42" t="n">
-        <v>0.451814</v>
+        <v>0.452268</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.518584</v>
+        <v>0.518333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.452803</v>
+        <v>0.464682</v>
       </c>
       <c r="D43" t="n">
-        <v>0.445405</v>
+        <v>0.446156</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5097429999999999</v>
+        <v>0.509263</v>
       </c>
       <c r="C44" t="n">
-        <v>0.44606</v>
+        <v>0.446946</v>
       </c>
       <c r="D44" t="n">
-        <v>0.439253</v>
+        <v>0.440089</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.501624</v>
+        <v>0.501563</v>
       </c>
       <c r="C45" t="n">
-        <v>0.438288</v>
+        <v>0.443262</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432391</v>
+        <v>0.432757</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.49407</v>
+        <v>0.493594</v>
       </c>
       <c r="C46" t="n">
-        <v>0.433675</v>
+        <v>0.435177</v>
       </c>
       <c r="D46" t="n">
-        <v>0.427926</v>
+        <v>0.427644</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.486151</v>
+        <v>0.486362</v>
       </c>
       <c r="C47" t="n">
-        <v>0.427579</v>
+        <v>0.432151</v>
       </c>
       <c r="D47" t="n">
-        <v>0.42283</v>
+        <v>0.422882</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.479862</v>
+        <v>0.47981</v>
       </c>
       <c r="C48" t="n">
-        <v>0.426344</v>
+        <v>0.424463</v>
       </c>
       <c r="D48" t="n">
-        <v>0.419052</v>
+        <v>0.418638</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.473921</v>
+        <v>0.47417</v>
       </c>
       <c r="C49" t="n">
-        <v>0.418966</v>
+        <v>0.421616</v>
       </c>
       <c r="D49" t="n">
-        <v>0.414707</v>
+        <v>0.416794</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.468714</v>
+        <v>0.469781</v>
       </c>
       <c r="C50" t="n">
-        <v>0.41673</v>
+        <v>0.417639</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414772</v>
+        <v>0.414412</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466743</v>
+        <v>0.466884</v>
       </c>
       <c r="C51" t="n">
-        <v>0.418332</v>
+        <v>0.418041</v>
       </c>
       <c r="D51" t="n">
-        <v>0.560822</v>
+        <v>0.56257</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.436249</v>
+        <v>0.436192</v>
       </c>
       <c r="C52" t="n">
-        <v>0.416598</v>
+        <v>0.418553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.549169</v>
+        <v>0.550988</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.571763</v>
+        <v>0.5721810000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.501014</v>
+        <v>0.504282</v>
       </c>
       <c r="D53" t="n">
-        <v>0.489771</v>
+        <v>0.48953</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.560391</v>
+        <v>0.561205</v>
       </c>
       <c r="C54" t="n">
-        <v>0.493632</v>
+        <v>0.494861</v>
       </c>
       <c r="D54" t="n">
-        <v>0.483201</v>
+        <v>0.482758</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.550607</v>
+        <v>0.551055</v>
       </c>
       <c r="C55" t="n">
-        <v>0.482107</v>
+        <v>0.483556</v>
       </c>
       <c r="D55" t="n">
-        <v>0.472945</v>
+        <v>0.476402</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.541229</v>
+        <v>0.540613</v>
       </c>
       <c r="C56" t="n">
-        <v>0.474021</v>
+        <v>0.475755</v>
       </c>
       <c r="D56" t="n">
-        <v>0.465907</v>
+        <v>0.466681</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.531132</v>
+        <v>0.531259</v>
       </c>
       <c r="C57" t="n">
-        <v>0.468127</v>
+        <v>0.468805</v>
       </c>
       <c r="D57" t="n">
-        <v>0.459964</v>
+        <v>0.460654</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.522328</v>
+        <v>0.5238699999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.463298</v>
+        <v>0.462156</v>
       </c>
       <c r="D58" t="n">
-        <v>0.453026</v>
+        <v>0.454707</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.515814</v>
+        <v>0.515327</v>
       </c>
       <c r="C59" t="n">
-        <v>0.455005</v>
+        <v>0.45492</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446972</v>
+        <v>0.447887</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.508171</v>
+        <v>0.507845</v>
       </c>
       <c r="C60" t="n">
-        <v>0.450364</v>
+        <v>0.449786</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442597</v>
+        <v>0.442837</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.500818</v>
+        <v>0.5007740000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.445697</v>
+        <v>0.443605</v>
       </c>
       <c r="D61" t="n">
-        <v>0.437155</v>
+        <v>0.438032</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.493578</v>
+        <v>0.494633</v>
       </c>
       <c r="C62" t="n">
-        <v>0.442137</v>
+        <v>0.443403</v>
       </c>
       <c r="D62" t="n">
-        <v>0.435325</v>
+        <v>0.434385</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.486467</v>
+        <v>0.489189</v>
       </c>
       <c r="C63" t="n">
-        <v>0.435969</v>
+        <v>0.437886</v>
       </c>
       <c r="D63" t="n">
-        <v>0.433972</v>
+        <v>0.432149</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.482467</v>
+        <v>0.484514</v>
       </c>
       <c r="C64" t="n">
-        <v>0.434318</v>
+        <v>0.437213</v>
       </c>
       <c r="D64" t="n">
-        <v>0.429085</v>
+        <v>0.429271</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.478757</v>
+        <v>0.479792</v>
       </c>
       <c r="C65" t="n">
-        <v>0.434974</v>
+        <v>0.434456</v>
       </c>
       <c r="D65" t="n">
-        <v>0.429673</v>
+        <v>0.431524</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.477913</v>
+        <v>0.480436</v>
       </c>
       <c r="C66" t="n">
-        <v>0.434135</v>
+        <v>0.432576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.56976</v>
+        <v>0.5727449999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.591418</v>
+        <v>0.595463</v>
       </c>
       <c r="C67" t="n">
-        <v>0.516384</v>
+        <v>0.520678</v>
       </c>
       <c r="D67" t="n">
-        <v>0.507331</v>
+        <v>0.508984</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.580932</v>
+        <v>0.584598</v>
       </c>
       <c r="C68" t="n">
-        <v>0.509769</v>
+        <v>0.511246</v>
       </c>
       <c r="D68" t="n">
-        <v>0.498453</v>
+        <v>0.499615</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.570929</v>
+        <v>0.5704050000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.499949</v>
+        <v>0.5010019999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.490207</v>
+        <v>0.493224</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5607760000000001</v>
+        <v>0.560682</v>
       </c>
       <c r="C70" t="n">
-        <v>0.492747</v>
+        <v>0.494682</v>
       </c>
       <c r="D70" t="n">
-        <v>0.482455</v>
+        <v>0.484403</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.55144</v>
+        <v>0.551539</v>
       </c>
       <c r="C71" t="n">
-        <v>0.488445</v>
+        <v>0.487104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.476716</v>
+        <v>0.477488</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.542801</v>
+        <v>0.543633</v>
       </c>
       <c r="C72" t="n">
-        <v>0.480382</v>
+        <v>0.478672</v>
       </c>
       <c r="D72" t="n">
-        <v>0.46968</v>
+        <v>0.471277</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.534129</v>
+        <v>0.534954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.472236</v>
+        <v>0.474293</v>
       </c>
       <c r="D73" t="n">
-        <v>0.46405</v>
+        <v>0.464763</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.526645</v>
+        <v>0.5272289999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.468319</v>
+        <v>0.466244</v>
       </c>
       <c r="D74" t="n">
-        <v>0.459394</v>
+        <v>0.461728</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.520563</v>
+        <v>0.521593</v>
       </c>
       <c r="C75" t="n">
-        <v>0.459631</v>
+        <v>0.461917</v>
       </c>
       <c r="D75" t="n">
-        <v>0.455157</v>
+        <v>0.454564</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.513431</v>
+        <v>0.514671</v>
       </c>
       <c r="C76" t="n">
-        <v>0.457805</v>
+        <v>0.460229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.450803</v>
+        <v>0.450284</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.50769</v>
+        <v>0.508582</v>
       </c>
       <c r="C77" t="n">
-        <v>0.452023</v>
+        <v>0.454837</v>
       </c>
       <c r="D77" t="n">
-        <v>0.447517</v>
+        <v>0.44813</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.502893</v>
+        <v>0.5036040000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.448015</v>
+        <v>0.451313</v>
       </c>
       <c r="D78" t="n">
-        <v>0.445211</v>
+        <v>0.447457</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.499089</v>
+        <v>0.499703</v>
       </c>
       <c r="C79" t="n">
-        <v>0.447579</v>
+        <v>0.447083</v>
       </c>
       <c r="D79" t="n">
-        <v>0.445249</v>
+        <v>0.445605</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.49758</v>
+        <v>0.497652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.450274</v>
+        <v>0.449784</v>
       </c>
       <c r="D80" t="n">
-        <v>0.602081</v>
+        <v>0.6033809999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.628462</v>
+        <v>0.629046</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5429659999999999</v>
+        <v>0.546206</v>
       </c>
       <c r="D81" t="n">
-        <v>0.531514</v>
+        <v>0.532816</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.622557</v>
+        <v>0.6232839999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5374370000000001</v>
+        <v>0.538608</v>
       </c>
       <c r="D82" t="n">
-        <v>0.52432</v>
+        <v>0.524339</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.615937</v>
+        <v>0.617038</v>
       </c>
       <c r="C83" t="n">
-        <v>0.528593</v>
+        <v>0.531931</v>
       </c>
       <c r="D83" t="n">
-        <v>0.515709</v>
+        <v>0.518267</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.607707</v>
+        <v>0.609194</v>
       </c>
       <c r="C84" t="n">
-        <v>0.521674</v>
+        <v>0.524763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.508863</v>
+        <v>0.5112409999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.599589</v>
+        <v>0.60022</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5120400000000001</v>
+        <v>0.515325</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5000790000000001</v>
+        <v>0.505399</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.59172</v>
+        <v>0.591455</v>
       </c>
       <c r="C86" t="n">
-        <v>0.510982</v>
+        <v>0.506788</v>
       </c>
       <c r="D86" t="n">
-        <v>0.49473</v>
+        <v>0.497588</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.582588</v>
+        <v>0.584031</v>
       </c>
       <c r="C87" t="n">
-        <v>0.50385</v>
+        <v>0.502092</v>
       </c>
       <c r="D87" t="n">
-        <v>0.491006</v>
+        <v>0.491237</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.574442</v>
+        <v>0.5759339999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.492673</v>
+        <v>0.497172</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482342</v>
+        <v>0.485949</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.566882</v>
+        <v>0.566463</v>
       </c>
       <c r="C89" t="n">
-        <v>0.485869</v>
+        <v>0.491079</v>
       </c>
       <c r="D89" t="n">
-        <v>0.478022</v>
+        <v>0.480541</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5584249999999999</v>
+        <v>0.559429</v>
       </c>
       <c r="C90" t="n">
-        <v>0.484761</v>
+        <v>0.487485</v>
       </c>
       <c r="D90" t="n">
-        <v>0.47436</v>
+        <v>0.475129</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.552466</v>
+        <v>0.553053</v>
       </c>
       <c r="C91" t="n">
-        <v>0.481946</v>
+        <v>0.479461</v>
       </c>
       <c r="D91" t="n">
-        <v>0.471112</v>
+        <v>0.47281</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.54447</v>
+        <v>0.545884</v>
       </c>
       <c r="C92" t="n">
-        <v>0.475325</v>
+        <v>0.475452</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468474</v>
+        <v>0.470153</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.541242</v>
+        <v>0.541566</v>
       </c>
       <c r="C93" t="n">
-        <v>0.475431</v>
+        <v>0.472186</v>
       </c>
       <c r="D93" t="n">
-        <v>0.469812</v>
+        <v>0.466277</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.538293</v>
+        <v>0.539283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.475062</v>
+        <v>0.475431</v>
       </c>
       <c r="D94" t="n">
-        <v>0.637219</v>
+        <v>0.638982</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.670542</v>
+        <v>0.6729619999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.581694</v>
+        <v>0.575942</v>
       </c>
       <c r="D95" t="n">
-        <v>0.586383</v>
+        <v>0.581138</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.676029</v>
+        <v>0.678924</v>
       </c>
       <c r="C96" t="n">
-        <v>0.58668</v>
+        <v>0.583436</v>
       </c>
       <c r="D96" t="n">
-        <v>0.584543</v>
+        <v>0.577306</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.676697</v>
+        <v>0.678469</v>
       </c>
       <c r="C97" t="n">
-        <v>0.587207</v>
+        <v>0.58632</v>
       </c>
       <c r="D97" t="n">
-        <v>0.582709</v>
+        <v>0.580631</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.673778</v>
+        <v>0.675976</v>
       </c>
       <c r="C98" t="n">
-        <v>0.583082</v>
+        <v>0.585048</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5777600000000001</v>
+        <v>0.57835</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.671026</v>
+        <v>0.671878</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582395</v>
+        <v>0.584956</v>
       </c>
       <c r="D99" t="n">
-        <v>0.573421</v>
+        <v>0.574244</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.666503</v>
+        <v>0.666949</v>
       </c>
       <c r="C100" t="n">
-        <v>0.580896</v>
+        <v>0.580251</v>
       </c>
       <c r="D100" t="n">
-        <v>0.570566</v>
+        <v>0.569479</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.662462</v>
+        <v>0.664018</v>
       </c>
       <c r="C101" t="n">
-        <v>0.57518</v>
+        <v>0.567524</v>
       </c>
       <c r="D101" t="n">
-        <v>0.565499</v>
+        <v>0.5550040000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.657063</v>
+        <v>0.659598</v>
       </c>
       <c r="C102" t="n">
-        <v>0.57589</v>
+        <v>0.572927</v>
       </c>
       <c r="D102" t="n">
-        <v>0.562314</v>
+        <v>0.5613939999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.653636</v>
+        <v>0.654922</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5717410000000001</v>
+        <v>0.570794</v>
       </c>
       <c r="D103" t="n">
-        <v>0.558244</v>
+        <v>0.560048</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.647861</v>
+        <v>0.650545</v>
       </c>
       <c r="C104" t="n">
-        <v>0.553105</v>
+        <v>0.567125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.538811</v>
+        <v>0.553314</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6436730000000001</v>
+        <v>0.646477</v>
       </c>
       <c r="C105" t="n">
-        <v>0.550577</v>
+        <v>0.554432</v>
       </c>
       <c r="D105" t="n">
-        <v>0.536537</v>
+        <v>0.541328</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.640055</v>
+        <v>0.642692</v>
       </c>
       <c r="C106" t="n">
-        <v>0.546587</v>
+        <v>0.549333</v>
       </c>
       <c r="D106" t="n">
-        <v>0.533861</v>
+        <v>0.5343560000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.637451</v>
+        <v>0.639003</v>
       </c>
       <c r="C107" t="n">
-        <v>0.548455</v>
+        <v>0.5482669999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535598</v>
+        <v>0.535485</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.635231</v>
+        <v>0.6362139999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.546075</v>
+        <v>0.54748</v>
       </c>
       <c r="D108" t="n">
-        <v>0.716773</v>
+        <v>0.701893</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5992769999999999</v>
+        <v>0.597733</v>
       </c>
       <c r="C109" t="n">
-        <v>0.564478</v>
+        <v>0.564022</v>
       </c>
       <c r="D109" t="n">
-        <v>0.720422</v>
+        <v>0.722674</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.744385</v>
+        <v>0.742801</v>
       </c>
       <c r="C110" t="n">
-        <v>0.702901</v>
+        <v>0.701277</v>
       </c>
       <c r="D110" t="n">
-        <v>0.716812</v>
+        <v>0.705269</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7489440000000001</v>
+        <v>0.744333</v>
       </c>
       <c r="C111" t="n">
-        <v>0.703118</v>
+        <v>0.7009880000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.717187</v>
+        <v>0.71923</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.748522</v>
+        <v>0.746775</v>
       </c>
       <c r="C112" t="n">
-        <v>0.704222</v>
+        <v>0.700477</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7173349999999999</v>
+        <v>0.716452</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.752586</v>
+        <v>0.748776</v>
       </c>
       <c r="C113" t="n">
-        <v>0.704741</v>
+        <v>0.702298</v>
       </c>
       <c r="D113" t="n">
-        <v>0.71623</v>
+        <v>0.7145049999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.753678</v>
+        <v>0.749846</v>
       </c>
       <c r="C114" t="n">
-        <v>0.705978</v>
+        <v>0.701977</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7141459999999999</v>
+        <v>0.711804</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.757036</v>
+        <v>0.754239</v>
       </c>
       <c r="C115" t="n">
-        <v>0.703085</v>
+        <v>0.701622</v>
       </c>
       <c r="D115" t="n">
-        <v>0.707333</v>
+        <v>0.6961039999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.758969</v>
+        <v>0.754922</v>
       </c>
       <c r="C116" t="n">
-        <v>0.704995</v>
+        <v>0.6975209999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7006289999999999</v>
+        <v>0.701852</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.764029</v>
+        <v>0.757202</v>
       </c>
       <c r="C117" t="n">
-        <v>0.706384</v>
+        <v>0.700861</v>
       </c>
       <c r="D117" t="n">
-        <v>0.710491</v>
+        <v>0.7077290000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7619359999999999</v>
+        <v>0.759773</v>
       </c>
       <c r="C118" t="n">
-        <v>0.699395</v>
+        <v>0.70379</v>
       </c>
       <c r="D118" t="n">
-        <v>0.700817</v>
+        <v>0.708862</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.764252</v>
+        <v>0.761388</v>
       </c>
       <c r="C119" t="n">
-        <v>0.706073</v>
+        <v>0.704915</v>
       </c>
       <c r="D119" t="n">
-        <v>0.710511</v>
+        <v>0.706839</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.764794</v>
+        <v>0.763999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.707776</v>
+        <v>0.69895</v>
       </c>
       <c r="D120" t="n">
-        <v>0.708772</v>
+        <v>0.691194</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7677040000000001</v>
+        <v>0.7657659999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.703913</v>
+        <v>0.6987679999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.708653</v>
+        <v>0.7073390000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.770307</v>
+        <v>0.767487</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7139760000000001</v>
+        <v>0.707205</v>
       </c>
       <c r="D122" t="n">
-        <v>0.710651</v>
+        <v>0.696036</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.773684</v>
+        <v>0.770367</v>
       </c>
       <c r="C123" t="n">
-        <v>0.716841</v>
+        <v>0.708955</v>
       </c>
       <c r="D123" t="n">
-        <v>0.850346</v>
+        <v>0.83735</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.926902</v>
+        <v>0.926718</v>
       </c>
       <c r="C124" t="n">
-        <v>0.856994</v>
+        <v>0.855648</v>
       </c>
       <c r="D124" t="n">
-        <v>0.85099</v>
+        <v>0.850577</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.930308</v>
+        <v>0.9294559999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.858026</v>
+        <v>0.857038</v>
       </c>
       <c r="D125" t="n">
-        <v>0.852649</v>
+        <v>0.838072</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.933097</v>
+        <v>0.928359</v>
       </c>
       <c r="C126" t="n">
-        <v>0.86025</v>
+        <v>0.850284</v>
       </c>
       <c r="D126" t="n">
-        <v>0.853313</v>
+        <v>0.843296</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.934876</v>
+        <v>0.933878</v>
       </c>
       <c r="C127" t="n">
-        <v>0.861262</v>
+        <v>0.860168</v>
       </c>
       <c r="D127" t="n">
-        <v>0.850843</v>
+        <v>0.847366</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.93693</v>
+        <v>0.93549</v>
       </c>
       <c r="C128" t="n">
-        <v>0.860301</v>
+        <v>0.859085</v>
       </c>
       <c r="D128" t="n">
-        <v>0.84865</v>
+        <v>0.852881</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.939202</v>
+        <v>0.936918</v>
       </c>
       <c r="C129" t="n">
-        <v>0.857883</v>
+        <v>0.86215</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853826</v>
+        <v>0.855595</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.941018</v>
+        <v>0.938098</v>
       </c>
       <c r="C130" t="n">
-        <v>0.864729</v>
+        <v>0.861445</v>
       </c>
       <c r="D130" t="n">
-        <v>0.857772</v>
+        <v>0.856468</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.94238</v>
+        <v>0.939534</v>
       </c>
       <c r="C131" t="n">
-        <v>0.868229</v>
+        <v>0.864944</v>
       </c>
       <c r="D131" t="n">
-        <v>0.85733</v>
+        <v>0.856833</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.944174</v>
+        <v>0.939867</v>
       </c>
       <c r="C132" t="n">
-        <v>0.866757</v>
+        <v>0.864653</v>
       </c>
       <c r="D132" t="n">
-        <v>0.855973</v>
+        <v>0.85886</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.944076</v>
+        <v>0.94411</v>
       </c>
       <c r="C133" t="n">
-        <v>0.874661</v>
+        <v>0.870965</v>
       </c>
       <c r="D133" t="n">
-        <v>0.861248</v>
+        <v>0.862043</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.945169</v>
+        <v>0.945072</v>
       </c>
       <c r="C134" t="n">
-        <v>0.872193</v>
+        <v>0.873427</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8589869999999999</v>
+        <v>0.863389</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.953698</v>
+        <v>0.949451</v>
       </c>
       <c r="C135" t="n">
-        <v>0.875964</v>
+        <v>0.878375</v>
       </c>
       <c r="D135" t="n">
-        <v>0.863053</v>
+        <v>0.86368</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.956418</v>
+        <v>0.95386</v>
       </c>
       <c r="C136" t="n">
-        <v>0.882097</v>
+        <v>0.8803840000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8695850000000001</v>
+        <v>0.86374</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.960686</v>
+        <v>0.957179</v>
       </c>
       <c r="C137" t="n">
-        <v>0.891021</v>
+        <v>0.886238</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0104</v>
+        <v>1.00955</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.10447</v>
+        <v>1.0959</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02864</v>
+        <v>1.0211</v>
       </c>
       <c r="D138" t="n">
-        <v>1.01229</v>
+        <v>1.0085</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.10463</v>
+        <v>1.10029</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03009</v>
+        <v>1.026</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01373</v>
+        <v>1.01051</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.10464</v>
+        <v>1.09958</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02935</v>
+        <v>1.02289</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01439</v>
+        <v>1.01142</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.10367</v>
+        <v>1.1009</v>
       </c>
       <c r="C141" t="n">
-        <v>1.0318</v>
+        <v>1.02544</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01424</v>
+        <v>1.01214</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.104</v>
+        <v>1.09921</v>
       </c>
       <c r="C142" t="n">
-        <v>1.03169</v>
+        <v>1.02705</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01611</v>
+        <v>1.01219</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.10246</v>
+        <v>1.1008</v>
       </c>
       <c r="C143" t="n">
-        <v>1.03233</v>
+        <v>1.02902</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01746</v>
+        <v>1.00979</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.468751</v>
+        <v>0.442352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.432309</v>
+        <v>0.413335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421856</v>
+        <v>0.410004</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.462446</v>
+        <v>0.432994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.422636</v>
+        <v>0.404025</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413454</v>
+        <v>0.40218</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456885</v>
+        <v>0.428567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.416919</v>
+        <v>0.399604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409136</v>
+        <v>0.398642</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.451499</v>
+        <v>0.424241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.417251</v>
+        <v>0.395864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.405903</v>
+        <v>0.395693</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44339</v>
+        <v>0.41764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.406935</v>
+        <v>0.39048</v>
       </c>
       <c r="D6" t="n">
-        <v>0.401093</v>
+        <v>0.391195</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.439172</v>
+        <v>0.41463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403385</v>
+        <v>0.387818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.399785</v>
+        <v>0.390675</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436244</v>
+        <v>0.41362</v>
       </c>
       <c r="C8" t="n">
-        <v>0.402118</v>
+        <v>0.387027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.400298</v>
+        <v>0.391943</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.438378</v>
+        <v>0.416051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.404753</v>
+        <v>0.390087</v>
       </c>
       <c r="D9" t="n">
-        <v>0.507722</v>
+        <v>0.477757</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.548551</v>
+        <v>0.497555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.515539</v>
+        <v>0.484249</v>
       </c>
       <c r="D10" t="n">
-        <v>0.502228</v>
+        <v>0.467565</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.536312</v>
+        <v>0.487803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.504625</v>
+        <v>0.473651</v>
       </c>
       <c r="D11" t="n">
-        <v>0.491178</v>
+        <v>0.45781</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526294</v>
+        <v>0.480176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49383</v>
+        <v>0.465431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.481839</v>
+        <v>0.449984</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.514973</v>
+        <v>0.470698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.482599</v>
+        <v>0.455269</v>
       </c>
       <c r="D13" t="n">
-        <v>0.471205</v>
+        <v>0.440988</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.505896</v>
+        <v>0.463492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.473332</v>
+        <v>0.447169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.462601</v>
+        <v>0.433724</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.49678</v>
+        <v>0.456526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464356</v>
+        <v>0.43878</v>
       </c>
       <c r="D15" t="n">
-        <v>0.45407</v>
+        <v>0.426874</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.488049</v>
+        <v>0.449765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.455677</v>
+        <v>0.431176</v>
       </c>
       <c r="D16" t="n">
-        <v>0.446258</v>
+        <v>0.420175</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.480192</v>
+        <v>0.443134</v>
       </c>
       <c r="C17" t="n">
-        <v>0.447559</v>
+        <v>0.423887</v>
       </c>
       <c r="D17" t="n">
-        <v>0.438818</v>
+        <v>0.414075</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.47219</v>
+        <v>0.436925</v>
       </c>
       <c r="C18" t="n">
-        <v>0.439907</v>
+        <v>0.416998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431446</v>
+        <v>0.408139</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.465893</v>
+        <v>0.43256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.434045</v>
+        <v>0.41219</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427274</v>
+        <v>0.404455</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.45861</v>
+        <v>0.426971</v>
       </c>
       <c r="C20" t="n">
-        <v>0.427901</v>
+        <v>0.405945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.421549</v>
+        <v>0.399878</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.453995</v>
+        <v>0.423685</v>
       </c>
       <c r="C21" t="n">
-        <v>0.423353</v>
+        <v>0.403597</v>
       </c>
       <c r="D21" t="n">
-        <v>0.41858</v>
+        <v>0.398034</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.450185</v>
+        <v>0.421359</v>
       </c>
       <c r="C22" t="n">
-        <v>0.420282</v>
+        <v>0.397817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.416871</v>
+        <v>0.397391</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.447941</v>
+        <v>0.421204</v>
       </c>
       <c r="C23" t="n">
-        <v>0.418825</v>
+        <v>0.393502</v>
       </c>
       <c r="D23" t="n">
-        <v>0.529562</v>
+        <v>0.484141</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.561634</v>
+        <v>0.506587</v>
       </c>
       <c r="C24" t="n">
-        <v>0.484899</v>
+        <v>0.480268</v>
       </c>
       <c r="D24" t="n">
-        <v>0.475001</v>
+        <v>0.47546</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.549053</v>
+        <v>0.496005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.474391</v>
+        <v>0.470883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.464979</v>
+        <v>0.46564</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.53807</v>
+        <v>0.487651</v>
       </c>
       <c r="C26" t="n">
-        <v>0.472089</v>
+        <v>0.461649</v>
       </c>
       <c r="D26" t="n">
-        <v>0.456844</v>
+        <v>0.457218</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.527376</v>
+        <v>0.478903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.45727</v>
+        <v>0.452845</v>
       </c>
       <c r="D27" t="n">
-        <v>0.448655</v>
+        <v>0.449511</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.517921</v>
+        <v>0.471803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.451612</v>
+        <v>0.445835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.441829</v>
+        <v>0.442137</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.507939</v>
+        <v>0.463915</v>
       </c>
       <c r="C29" t="n">
-        <v>0.441619</v>
+        <v>0.437751</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434067</v>
+        <v>0.434446</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.498655</v>
+        <v>0.456987</v>
       </c>
       <c r="C30" t="n">
-        <v>0.43473</v>
+        <v>0.430506</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427563</v>
+        <v>0.427939</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.490274</v>
+        <v>0.450387</v>
       </c>
       <c r="C31" t="n">
-        <v>0.428142</v>
+        <v>0.42403</v>
       </c>
       <c r="D31" t="n">
-        <v>0.421411</v>
+        <v>0.421697</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.48247</v>
+        <v>0.444679</v>
       </c>
       <c r="C32" t="n">
-        <v>0.422216</v>
+        <v>0.418234</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416085</v>
+        <v>0.416553</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.475898</v>
+        <v>0.439371</v>
       </c>
       <c r="C33" t="n">
-        <v>0.417367</v>
+        <v>0.412934</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411311</v>
+        <v>0.41207</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.469211</v>
+        <v>0.434306</v>
       </c>
       <c r="C34" t="n">
-        <v>0.412157</v>
+        <v>0.408132</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407747</v>
+        <v>0.407885</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.463502</v>
+        <v>0.430012</v>
       </c>
       <c r="C35" t="n">
-        <v>0.407783</v>
+        <v>0.404172</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404377</v>
+        <v>0.404905</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.459726</v>
+        <v>0.427229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.405605</v>
+        <v>0.401796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403879</v>
+        <v>0.404091</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.457944</v>
+        <v>0.426283</v>
       </c>
       <c r="C37" t="n">
-        <v>0.407489</v>
+        <v>0.40156</v>
       </c>
       <c r="D37" t="n">
-        <v>0.54631</v>
+        <v>0.500912</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.570903</v>
+        <v>0.507876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.494298</v>
+        <v>0.49542</v>
       </c>
       <c r="D38" t="n">
-        <v>0.485324</v>
+        <v>0.491546</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.559741</v>
+        <v>0.500134</v>
       </c>
       <c r="C39" t="n">
-        <v>0.485612</v>
+        <v>0.486962</v>
       </c>
       <c r="D39" t="n">
-        <v>0.482507</v>
+        <v>0.482629</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.54866</v>
+        <v>0.491381</v>
       </c>
       <c r="C40" t="n">
-        <v>0.476981</v>
+        <v>0.47753</v>
       </c>
       <c r="D40" t="n">
-        <v>0.473178</v>
+        <v>0.473539</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.538072</v>
+        <v>0.483459</v>
       </c>
       <c r="C41" t="n">
-        <v>0.473637</v>
+        <v>0.469039</v>
       </c>
       <c r="D41" t="n">
-        <v>0.460539</v>
+        <v>0.465414</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.52788</v>
+        <v>0.476124</v>
       </c>
       <c r="C42" t="n">
-        <v>0.462343</v>
+        <v>0.461262</v>
       </c>
       <c r="D42" t="n">
-        <v>0.452268</v>
+        <v>0.457841</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.518333</v>
+        <v>0.468863</v>
       </c>
       <c r="C43" t="n">
-        <v>0.464682</v>
+        <v>0.45343</v>
       </c>
       <c r="D43" t="n">
-        <v>0.446156</v>
+        <v>0.450508</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.509263</v>
+        <v>0.462431</v>
       </c>
       <c r="C44" t="n">
-        <v>0.446946</v>
+        <v>0.446556</v>
       </c>
       <c r="D44" t="n">
-        <v>0.440089</v>
+        <v>0.443911</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.501563</v>
+        <v>0.456111</v>
       </c>
       <c r="C45" t="n">
-        <v>0.443262</v>
+        <v>0.439839</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432757</v>
+        <v>0.437555</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.493594</v>
+        <v>0.4504</v>
       </c>
       <c r="C46" t="n">
-        <v>0.435177</v>
+        <v>0.434004</v>
       </c>
       <c r="D46" t="n">
-        <v>0.427644</v>
+        <v>0.432889</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.486362</v>
+        <v>0.444866</v>
       </c>
       <c r="C47" t="n">
-        <v>0.432151</v>
+        <v>0.428188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.422882</v>
+        <v>0.427783</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.47981</v>
+        <v>0.440366</v>
       </c>
       <c r="C48" t="n">
-        <v>0.424463</v>
+        <v>0.423334</v>
       </c>
       <c r="D48" t="n">
-        <v>0.418638</v>
+        <v>0.422744</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.47417</v>
+        <v>0.436535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.421616</v>
+        <v>0.419467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.416794</v>
+        <v>0.419783</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.469781</v>
+        <v>0.433995</v>
       </c>
       <c r="C50" t="n">
-        <v>0.417639</v>
+        <v>0.416987</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414412</v>
+        <v>0.418708</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466884</v>
+        <v>0.432374</v>
       </c>
       <c r="C51" t="n">
-        <v>0.418041</v>
+        <v>0.41563</v>
       </c>
       <c r="D51" t="n">
-        <v>0.56257</v>
+        <v>0.51423</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.436192</v>
+        <v>0.433514</v>
       </c>
       <c r="C52" t="n">
-        <v>0.418553</v>
+        <v>0.417289</v>
       </c>
       <c r="D52" t="n">
-        <v>0.550988</v>
+        <v>0.504869</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5721810000000001</v>
+        <v>0.512472</v>
       </c>
       <c r="C53" t="n">
-        <v>0.504282</v>
+        <v>0.5016659999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.48953</v>
+        <v>0.496639</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.561205</v>
+        <v>0.504184</v>
       </c>
       <c r="C54" t="n">
-        <v>0.494861</v>
+        <v>0.49255</v>
       </c>
       <c r="D54" t="n">
-        <v>0.482758</v>
+        <v>0.487564</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.551055</v>
+        <v>0.496694</v>
       </c>
       <c r="C55" t="n">
-        <v>0.483556</v>
+        <v>0.48421</v>
       </c>
       <c r="D55" t="n">
-        <v>0.476402</v>
+        <v>0.479519</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.540613</v>
+        <v>0.489388</v>
       </c>
       <c r="C56" t="n">
-        <v>0.475755</v>
+        <v>0.476458</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466681</v>
+        <v>0.472023</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.531259</v>
+        <v>0.482556</v>
       </c>
       <c r="C57" t="n">
-        <v>0.468805</v>
+        <v>0.469186</v>
       </c>
       <c r="D57" t="n">
-        <v>0.460654</v>
+        <v>0.464813</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5238699999999999</v>
+        <v>0.476124</v>
       </c>
       <c r="C58" t="n">
-        <v>0.462156</v>
+        <v>0.461848</v>
       </c>
       <c r="D58" t="n">
-        <v>0.454707</v>
+        <v>0.458276</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.515327</v>
+        <v>0.470755</v>
       </c>
       <c r="C59" t="n">
-        <v>0.45492</v>
+        <v>0.4551</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447887</v>
+        <v>0.452406</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.507845</v>
+        <v>0.464606</v>
       </c>
       <c r="C60" t="n">
-        <v>0.449786</v>
+        <v>0.449178</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442837</v>
+        <v>0.447423</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5007740000000001</v>
+        <v>0.459881</v>
       </c>
       <c r="C61" t="n">
-        <v>0.443605</v>
+        <v>0.443567</v>
       </c>
       <c r="D61" t="n">
-        <v>0.438032</v>
+        <v>0.442036</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.494633</v>
+        <v>0.45504</v>
       </c>
       <c r="C62" t="n">
-        <v>0.443403</v>
+        <v>0.438882</v>
       </c>
       <c r="D62" t="n">
-        <v>0.434385</v>
+        <v>0.437752</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.489189</v>
+        <v>0.451349</v>
       </c>
       <c r="C63" t="n">
-        <v>0.437886</v>
+        <v>0.435053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.432149</v>
+        <v>0.434898</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.484514</v>
+        <v>0.448538</v>
       </c>
       <c r="C64" t="n">
-        <v>0.437213</v>
+        <v>0.432098</v>
       </c>
       <c r="D64" t="n">
-        <v>0.429271</v>
+        <v>0.433249</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.479792</v>
+        <v>0.446734</v>
       </c>
       <c r="C65" t="n">
-        <v>0.434456</v>
+        <v>0.430989</v>
       </c>
       <c r="D65" t="n">
-        <v>0.431524</v>
+        <v>0.433718</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.480436</v>
+        <v>0.447408</v>
       </c>
       <c r="C66" t="n">
-        <v>0.432576</v>
+        <v>0.431634</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5727449999999999</v>
+        <v>0.519594</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.595463</v>
+        <v>0.530809</v>
       </c>
       <c r="C67" t="n">
-        <v>0.520678</v>
+        <v>0.5158</v>
       </c>
       <c r="D67" t="n">
-        <v>0.508984</v>
+        <v>0.511622</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.584598</v>
+        <v>0.522502</v>
       </c>
       <c r="C68" t="n">
-        <v>0.511246</v>
+        <v>0.508475</v>
       </c>
       <c r="D68" t="n">
-        <v>0.499615</v>
+        <v>0.5031099999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5704050000000001</v>
+        <v>0.514615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5010019999999999</v>
+        <v>0.500018</v>
       </c>
       <c r="D69" t="n">
-        <v>0.493224</v>
+        <v>0.495228</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.560682</v>
+        <v>0.507458</v>
       </c>
       <c r="C70" t="n">
-        <v>0.494682</v>
+        <v>0.490458</v>
       </c>
       <c r="D70" t="n">
-        <v>0.484403</v>
+        <v>0.488031</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.551539</v>
+        <v>0.501105</v>
       </c>
       <c r="C71" t="n">
-        <v>0.487104</v>
+        <v>0.483118</v>
       </c>
       <c r="D71" t="n">
-        <v>0.477488</v>
+        <v>0.480856</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.543633</v>
+        <v>0.49499</v>
       </c>
       <c r="C72" t="n">
-        <v>0.478672</v>
+        <v>0.475971</v>
       </c>
       <c r="D72" t="n">
-        <v>0.471277</v>
+        <v>0.474221</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.534954</v>
+        <v>0.488895</v>
       </c>
       <c r="C73" t="n">
-        <v>0.474293</v>
+        <v>0.47005</v>
       </c>
       <c r="D73" t="n">
-        <v>0.464763</v>
+        <v>0.467427</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5272289999999999</v>
+        <v>0.483252</v>
       </c>
       <c r="C74" t="n">
-        <v>0.466244</v>
+        <v>0.463843</v>
       </c>
       <c r="D74" t="n">
-        <v>0.461728</v>
+        <v>0.462986</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.521593</v>
+        <v>0.478139</v>
       </c>
       <c r="C75" t="n">
-        <v>0.461917</v>
+        <v>0.458239</v>
       </c>
       <c r="D75" t="n">
-        <v>0.454564</v>
+        <v>0.456546</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.514671</v>
+        <v>0.473572</v>
       </c>
       <c r="C76" t="n">
-        <v>0.460229</v>
+        <v>0.45421</v>
       </c>
       <c r="D76" t="n">
-        <v>0.450284</v>
+        <v>0.453267</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.508582</v>
+        <v>0.4695</v>
       </c>
       <c r="C77" t="n">
-        <v>0.454837</v>
+        <v>0.449052</v>
       </c>
       <c r="D77" t="n">
-        <v>0.44813</v>
+        <v>0.449036</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5036040000000001</v>
+        <v>0.466917</v>
       </c>
       <c r="C78" t="n">
-        <v>0.451313</v>
+        <v>0.446522</v>
       </c>
       <c r="D78" t="n">
-        <v>0.447457</v>
+        <v>0.448071</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.499703</v>
+        <v>0.465591</v>
       </c>
       <c r="C79" t="n">
-        <v>0.447083</v>
+        <v>0.445063</v>
       </c>
       <c r="D79" t="n">
-        <v>0.445605</v>
+        <v>0.450344</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.497652</v>
+        <v>0.465363</v>
       </c>
       <c r="C80" t="n">
-        <v>0.449784</v>
+        <v>0.445292</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6033809999999999</v>
+        <v>0.569133</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.629046</v>
+        <v>0.572295</v>
       </c>
       <c r="C81" t="n">
-        <v>0.546206</v>
+        <v>0.540313</v>
       </c>
       <c r="D81" t="n">
-        <v>0.532816</v>
+        <v>0.560012</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6232839999999999</v>
+        <v>0.566073</v>
       </c>
       <c r="C82" t="n">
-        <v>0.538608</v>
+        <v>0.532648</v>
       </c>
       <c r="D82" t="n">
-        <v>0.524339</v>
+        <v>0.551138</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.617038</v>
+        <v>0.560101</v>
       </c>
       <c r="C83" t="n">
-        <v>0.531931</v>
+        <v>0.52445</v>
       </c>
       <c r="D83" t="n">
-        <v>0.518267</v>
+        <v>0.542656</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.609194</v>
+        <v>0.555566</v>
       </c>
       <c r="C84" t="n">
-        <v>0.524763</v>
+        <v>0.518084</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5112409999999999</v>
+        <v>0.534837</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.60022</v>
+        <v>0.549956</v>
       </c>
       <c r="C85" t="n">
-        <v>0.515325</v>
+        <v>0.511089</v>
       </c>
       <c r="D85" t="n">
-        <v>0.505399</v>
+        <v>0.526309</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.591455</v>
+        <v>0.544724</v>
       </c>
       <c r="C86" t="n">
-        <v>0.506788</v>
+        <v>0.504244</v>
       </c>
       <c r="D86" t="n">
-        <v>0.497588</v>
+        <v>0.518913</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.584031</v>
+        <v>0.53877</v>
       </c>
       <c r="C87" t="n">
-        <v>0.502092</v>
+        <v>0.498084</v>
       </c>
       <c r="D87" t="n">
-        <v>0.491237</v>
+        <v>0.51226</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5759339999999999</v>
+        <v>0.533759</v>
       </c>
       <c r="C88" t="n">
-        <v>0.497172</v>
+        <v>0.491927</v>
       </c>
       <c r="D88" t="n">
-        <v>0.485949</v>
+        <v>0.507182</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.566463</v>
+        <v>0.527466</v>
       </c>
       <c r="C89" t="n">
-        <v>0.491079</v>
+        <v>0.486903</v>
       </c>
       <c r="D89" t="n">
-        <v>0.480541</v>
+        <v>0.500108</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.559429</v>
+        <v>0.521833</v>
       </c>
       <c r="C90" t="n">
-        <v>0.487485</v>
+        <v>0.480935</v>
       </c>
       <c r="D90" t="n">
-        <v>0.475129</v>
+        <v>0.495204</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.553053</v>
+        <v>0.516943</v>
       </c>
       <c r="C91" t="n">
-        <v>0.479461</v>
+        <v>0.476752</v>
       </c>
       <c r="D91" t="n">
-        <v>0.47281</v>
+        <v>0.490963</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.545884</v>
+        <v>0.512938</v>
       </c>
       <c r="C92" t="n">
-        <v>0.475452</v>
+        <v>0.473288</v>
       </c>
       <c r="D92" t="n">
-        <v>0.470153</v>
+        <v>0.486791</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.541566</v>
+        <v>0.509764</v>
       </c>
       <c r="C93" t="n">
-        <v>0.472186</v>
+        <v>0.471051</v>
       </c>
       <c r="D93" t="n">
-        <v>0.466277</v>
+        <v>0.485719</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.539283</v>
+        <v>0.5090209999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.475431</v>
+        <v>0.470818</v>
       </c>
       <c r="D94" t="n">
-        <v>0.638982</v>
+        <v>0.615097</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6729619999999999</v>
+        <v>0.608581</v>
       </c>
       <c r="C95" t="n">
-        <v>0.575942</v>
+        <v>0.573536</v>
       </c>
       <c r="D95" t="n">
-        <v>0.581138</v>
+        <v>0.614438</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.678924</v>
+        <v>0.6150139999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.583436</v>
+        <v>0.578756</v>
       </c>
       <c r="D96" t="n">
-        <v>0.577306</v>
+        <v>0.611223</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.678469</v>
+        <v>0.617265</v>
       </c>
       <c r="C97" t="n">
-        <v>0.58632</v>
+        <v>0.578321</v>
       </c>
       <c r="D97" t="n">
-        <v>0.580631</v>
+        <v>0.607216</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.675976</v>
+        <v>0.617328</v>
       </c>
       <c r="C98" t="n">
-        <v>0.585048</v>
+        <v>0.577021</v>
       </c>
       <c r="D98" t="n">
-        <v>0.57835</v>
+        <v>0.601948</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.671878</v>
+        <v>0.616359</v>
       </c>
       <c r="C99" t="n">
-        <v>0.584956</v>
+        <v>0.57402</v>
       </c>
       <c r="D99" t="n">
-        <v>0.574244</v>
+        <v>0.597279</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.666949</v>
+        <v>0.614761</v>
       </c>
       <c r="C100" t="n">
-        <v>0.580251</v>
+        <v>0.570977</v>
       </c>
       <c r="D100" t="n">
-        <v>0.569479</v>
+        <v>0.590799</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.664018</v>
+        <v>0.611946</v>
       </c>
       <c r="C101" t="n">
-        <v>0.567524</v>
+        <v>0.567668</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5550040000000001</v>
+        <v>0.5865590000000001</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.659598</v>
+        <v>0.609511</v>
       </c>
       <c r="C102" t="n">
-        <v>0.572927</v>
+        <v>0.564512</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5613939999999999</v>
+        <v>0.580807</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.654922</v>
+        <v>0.606953</v>
       </c>
       <c r="C103" t="n">
-        <v>0.570794</v>
+        <v>0.56167</v>
       </c>
       <c r="D103" t="n">
-        <v>0.560048</v>
+        <v>0.576948</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.650545</v>
+        <v>0.604374</v>
       </c>
       <c r="C104" t="n">
-        <v>0.567125</v>
+        <v>0.558983</v>
       </c>
       <c r="D104" t="n">
-        <v>0.553314</v>
+        <v>0.572997</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.646477</v>
+        <v>0.602344</v>
       </c>
       <c r="C105" t="n">
-        <v>0.554432</v>
+        <v>0.5563940000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.541328</v>
+        <v>0.569092</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.642692</v>
+        <v>0.600128</v>
       </c>
       <c r="C106" t="n">
-        <v>0.549333</v>
+        <v>0.554668</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5343560000000001</v>
+        <v>0.566744</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.639003</v>
+        <v>0.5986900000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5482669999999999</v>
+        <v>0.5534829999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.535485</v>
+        <v>0.565192</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6362139999999999</v>
+        <v>0.598588</v>
       </c>
       <c r="C108" t="n">
-        <v>0.54748</v>
+        <v>0.553526</v>
       </c>
       <c r="D108" t="n">
-        <v>0.701893</v>
+        <v>0.737575</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.597733</v>
+        <v>0.59959</v>
       </c>
       <c r="C109" t="n">
-        <v>0.564022</v>
+        <v>0.553592</v>
       </c>
       <c r="D109" t="n">
-        <v>0.722674</v>
+        <v>0.722099</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.742801</v>
+        <v>0.7515810000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.701277</v>
+        <v>0.691303</v>
       </c>
       <c r="D110" t="n">
-        <v>0.705269</v>
+        <v>0.721762</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.744333</v>
+        <v>0.75423</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7009880000000001</v>
+        <v>0.692437</v>
       </c>
       <c r="D111" t="n">
-        <v>0.71923</v>
+        <v>0.718642</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.746775</v>
+        <v>0.756742</v>
       </c>
       <c r="C112" t="n">
-        <v>0.700477</v>
+        <v>0.693695</v>
       </c>
       <c r="D112" t="n">
-        <v>0.716452</v>
+        <v>0.715574</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.748776</v>
+        <v>0.758246</v>
       </c>
       <c r="C113" t="n">
-        <v>0.702298</v>
+        <v>0.691419</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7145049999999999</v>
+        <v>0.7143350000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.749846</v>
+        <v>0.759341</v>
       </c>
       <c r="C114" t="n">
-        <v>0.701977</v>
+        <v>0.691406</v>
       </c>
       <c r="D114" t="n">
-        <v>0.711804</v>
+        <v>0.712775</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.754239</v>
+        <v>0.761327</v>
       </c>
       <c r="C115" t="n">
-        <v>0.701622</v>
+        <v>0.6904709999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6961039999999999</v>
+        <v>0.710908</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.754922</v>
+        <v>0.761805</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6975209999999999</v>
+        <v>0.690589</v>
       </c>
       <c r="D116" t="n">
-        <v>0.701852</v>
+        <v>0.709211</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.757202</v>
+        <v>0.7667620000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.700861</v>
+        <v>0.6923010000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7077290000000001</v>
+        <v>0.708686</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.759773</v>
+        <v>0.767566</v>
       </c>
       <c r="C118" t="n">
-        <v>0.70379</v>
+        <v>0.694105</v>
       </c>
       <c r="D118" t="n">
-        <v>0.708862</v>
+        <v>0.707308</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.761388</v>
+        <v>0.768327</v>
       </c>
       <c r="C119" t="n">
-        <v>0.704915</v>
+        <v>0.6927680000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.706839</v>
+        <v>0.706506</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.763999</v>
+        <v>0.767929</v>
       </c>
       <c r="C120" t="n">
-        <v>0.69895</v>
+        <v>0.6934900000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.691194</v>
+        <v>0.705508</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7657659999999999</v>
+        <v>0.770037</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6987679999999999</v>
+        <v>0.695376</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7073390000000001</v>
+        <v>0.706547</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.767487</v>
+        <v>0.771712</v>
       </c>
       <c r="C122" t="n">
-        <v>0.707205</v>
+        <v>0.697247</v>
       </c>
       <c r="D122" t="n">
-        <v>0.696036</v>
+        <v>0.707551</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.770367</v>
+        <v>0.774833</v>
       </c>
       <c r="C123" t="n">
-        <v>0.708955</v>
+        <v>0.700366</v>
       </c>
       <c r="D123" t="n">
-        <v>0.83735</v>
+        <v>0.863365</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.926718</v>
+        <v>0.931501</v>
       </c>
       <c r="C124" t="n">
-        <v>0.855648</v>
+        <v>0.84285</v>
       </c>
       <c r="D124" t="n">
-        <v>0.850577</v>
+        <v>0.8490839999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9294559999999999</v>
+        <v>0.932958</v>
       </c>
       <c r="C125" t="n">
-        <v>0.857038</v>
+        <v>0.8440800000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.838072</v>
+        <v>0.855646</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.928359</v>
+        <v>0.93401</v>
       </c>
       <c r="C126" t="n">
-        <v>0.850284</v>
+        <v>0.844659</v>
       </c>
       <c r="D126" t="n">
-        <v>0.843296</v>
+        <v>0.849911</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.933878</v>
+        <v>0.936012</v>
       </c>
       <c r="C127" t="n">
-        <v>0.860168</v>
+        <v>0.8443850000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.847366</v>
+        <v>0.850306</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.93549</v>
+        <v>0.935643</v>
       </c>
       <c r="C128" t="n">
-        <v>0.859085</v>
+        <v>0.844623</v>
       </c>
       <c r="D128" t="n">
-        <v>0.852881</v>
+        <v>0.851279</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.936918</v>
+        <v>0.936965</v>
       </c>
       <c r="C129" t="n">
-        <v>0.86215</v>
+        <v>0.846666</v>
       </c>
       <c r="D129" t="n">
-        <v>0.855595</v>
+        <v>0.860326</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.938098</v>
+        <v>0.93892</v>
       </c>
       <c r="C130" t="n">
-        <v>0.861445</v>
+        <v>0.848086</v>
       </c>
       <c r="D130" t="n">
-        <v>0.856468</v>
+        <v>0.863514</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.939534</v>
+        <v>0.94046</v>
       </c>
       <c r="C131" t="n">
-        <v>0.864944</v>
+        <v>0.850826</v>
       </c>
       <c r="D131" t="n">
-        <v>0.856833</v>
+        <v>0.863283</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.939867</v>
+        <v>0.941927</v>
       </c>
       <c r="C132" t="n">
-        <v>0.864653</v>
+        <v>0.852569</v>
       </c>
       <c r="D132" t="n">
-        <v>0.85886</v>
+        <v>0.863104</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.94411</v>
+        <v>0.943665</v>
       </c>
       <c r="C133" t="n">
-        <v>0.870965</v>
+        <v>0.855057</v>
       </c>
       <c r="D133" t="n">
-        <v>0.862043</v>
+        <v>0.86464</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.945072</v>
+        <v>0.946207</v>
       </c>
       <c r="C134" t="n">
-        <v>0.873427</v>
+        <v>0.857374</v>
       </c>
       <c r="D134" t="n">
-        <v>0.863389</v>
+        <v>0.862877</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.949451</v>
+        <v>0.948398</v>
       </c>
       <c r="C135" t="n">
-        <v>0.878375</v>
+        <v>0.860285</v>
       </c>
       <c r="D135" t="n">
-        <v>0.86368</v>
+        <v>0.8679210000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.95386</v>
+        <v>0.95107</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8803840000000001</v>
+        <v>0.863882</v>
       </c>
       <c r="D136" t="n">
-        <v>0.86374</v>
+        <v>0.868523</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.957179</v>
+        <v>0.95458</v>
       </c>
       <c r="C137" t="n">
-        <v>0.886238</v>
+        <v>0.867479</v>
       </c>
       <c r="D137" t="n">
-        <v>1.00955</v>
+        <v>1.0097</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.0959</v>
+        <v>1.10093</v>
       </c>
       <c r="C138" t="n">
-        <v>1.0211</v>
+        <v>1.00638</v>
       </c>
       <c r="D138" t="n">
-        <v>1.0085</v>
+        <v>1.0132</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.10029</v>
+        <v>1.09917</v>
       </c>
       <c r="C139" t="n">
-        <v>1.026</v>
+        <v>1.00566</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01051</v>
+        <v>1.01038</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09958</v>
+        <v>1.09935</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02289</v>
+        <v>1.00594</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01142</v>
+        <v>1.01096</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.1009</v>
+        <v>1.09767</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02544</v>
+        <v>1.00481</v>
       </c>
       <c r="D141" t="n">
-        <v>1.01214</v>
+        <v>1.00692</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09921</v>
+        <v>1.0975</v>
       </c>
       <c r="C142" t="n">
-        <v>1.02705</v>
+        <v>1.00655</v>
       </c>
       <c r="D142" t="n">
-        <v>1.01219</v>
+        <v>1.00681</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.1008</v>
+        <v>1.09682</v>
       </c>
       <c r="C143" t="n">
-        <v>1.02902</v>
+        <v>1.00672</v>
       </c>
       <c r="D143" t="n">
-        <v>1.00979</v>
+        <v>1.01218</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442352</v>
+        <v>0.448364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.413335</v>
+        <v>0.410119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.410004</v>
+        <v>0.410684</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.432994</v>
+        <v>0.432956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.404025</v>
+        <v>0.401886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.40218</v>
+        <v>0.402841</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428567</v>
+        <v>0.428698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.399604</v>
+        <v>0.397191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.398642</v>
+        <v>0.399114</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424241</v>
+        <v>0.424384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.395864</v>
+        <v>0.393384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.395693</v>
+        <v>0.396338</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.41764</v>
+        <v>0.417849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.39048</v>
+        <v>0.388033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.391195</v>
+        <v>0.392121</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.41463</v>
+        <v>0.414875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.387818</v>
+        <v>0.385276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.390675</v>
+        <v>0.391452</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.41362</v>
+        <v>0.413786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.387027</v>
+        <v>0.384697</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391943</v>
+        <v>0.392461</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416051</v>
+        <v>0.416202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.390087</v>
+        <v>0.387334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.477757</v>
+        <v>0.477682</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.497555</v>
+        <v>0.498007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.484249</v>
+        <v>0.470908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.467565</v>
+        <v>0.467779</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.487803</v>
+        <v>0.488182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.473651</v>
+        <v>0.460609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.45781</v>
+        <v>0.457972</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.480176</v>
+        <v>0.480455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.465431</v>
+        <v>0.452357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.449984</v>
+        <v>0.450308</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.470698</v>
+        <v>0.471089</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455269</v>
+        <v>0.442933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.440988</v>
+        <v>0.441144</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.463492</v>
+        <v>0.463827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.447169</v>
+        <v>0.43499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.433724</v>
+        <v>0.43394</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456526</v>
+        <v>0.45689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43878</v>
+        <v>0.427735</v>
       </c>
       <c r="D15" t="n">
-        <v>0.426874</v>
+        <v>0.427109</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449765</v>
+        <v>0.450037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.431176</v>
+        <v>0.420578</v>
       </c>
       <c r="D16" t="n">
-        <v>0.420175</v>
+        <v>0.420391</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.443134</v>
+        <v>0.443339</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423887</v>
+        <v>0.413908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.414075</v>
+        <v>0.414269</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.436925</v>
+        <v>0.437068</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416998</v>
+        <v>0.40744</v>
       </c>
       <c r="D18" t="n">
-        <v>0.408139</v>
+        <v>0.408331</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.43256</v>
+        <v>0.432638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.41219</v>
+        <v>0.402952</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404455</v>
+        <v>0.404701</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.426971</v>
+        <v>0.427089</v>
       </c>
       <c r="C20" t="n">
-        <v>0.405945</v>
+        <v>0.397299</v>
       </c>
       <c r="D20" t="n">
-        <v>0.399878</v>
+        <v>0.400187</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423685</v>
+        <v>0.423856</v>
       </c>
       <c r="C21" t="n">
-        <v>0.403597</v>
+        <v>0.394343</v>
       </c>
       <c r="D21" t="n">
-        <v>0.398034</v>
+        <v>0.398209</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421359</v>
+        <v>0.421503</v>
       </c>
       <c r="C22" t="n">
-        <v>0.397817</v>
+        <v>0.392022</v>
       </c>
       <c r="D22" t="n">
-        <v>0.397391</v>
+        <v>0.397547</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421204</v>
+        <v>0.421271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.393502</v>
+        <v>0.39166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.484141</v>
+        <v>0.484172</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.506587</v>
+        <v>0.505769</v>
       </c>
       <c r="C24" t="n">
-        <v>0.480268</v>
+        <v>0.479193</v>
       </c>
       <c r="D24" t="n">
-        <v>0.47546</v>
+        <v>0.475426</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.496005</v>
+        <v>0.495929</v>
       </c>
       <c r="C25" t="n">
-        <v>0.470883</v>
+        <v>0.469065</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46564</v>
+        <v>0.465615</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.487651</v>
+        <v>0.4874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.461649</v>
+        <v>0.460426</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457218</v>
+        <v>0.457246</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.478903</v>
+        <v>0.478935</v>
       </c>
       <c r="C27" t="n">
-        <v>0.452845</v>
+        <v>0.451672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.449511</v>
+        <v>0.449003</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.471803</v>
+        <v>0.471785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.445835</v>
+        <v>0.444318</v>
       </c>
       <c r="D28" t="n">
-        <v>0.442137</v>
+        <v>0.442136</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.463915</v>
+        <v>0.463858</v>
       </c>
       <c r="C29" t="n">
-        <v>0.437751</v>
+        <v>0.436015</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434446</v>
+        <v>0.434307</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.456987</v>
+        <v>0.457053</v>
       </c>
       <c r="C30" t="n">
-        <v>0.430506</v>
+        <v>0.428995</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427939</v>
+        <v>0.427848</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.450387</v>
+        <v>0.450422</v>
       </c>
       <c r="C31" t="n">
-        <v>0.42403</v>
+        <v>0.422308</v>
       </c>
       <c r="D31" t="n">
-        <v>0.421697</v>
+        <v>0.421511</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.444679</v>
+        <v>0.444785</v>
       </c>
       <c r="C32" t="n">
-        <v>0.418234</v>
+        <v>0.416489</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416553</v>
+        <v>0.416319</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.439371</v>
+        <v>0.439638</v>
       </c>
       <c r="C33" t="n">
-        <v>0.412934</v>
+        <v>0.411199</v>
       </c>
       <c r="D33" t="n">
-        <v>0.41207</v>
+        <v>0.411826</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434306</v>
+        <v>0.434617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.408132</v>
+        <v>0.406262</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407885</v>
+        <v>0.40759</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.430012</v>
+        <v>0.430337</v>
       </c>
       <c r="C35" t="n">
-        <v>0.404172</v>
+        <v>0.402031</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404905</v>
+        <v>0.404631</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.427229</v>
+        <v>0.427633</v>
       </c>
       <c r="C36" t="n">
-        <v>0.401796</v>
+        <v>0.399711</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404091</v>
+        <v>0.403885</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426283</v>
+        <v>0.426752</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40156</v>
+        <v>0.399371</v>
       </c>
       <c r="D37" t="n">
-        <v>0.500912</v>
+        <v>0.494611</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.507876</v>
+        <v>0.510651</v>
       </c>
       <c r="C38" t="n">
-        <v>0.49542</v>
+        <v>0.488978</v>
       </c>
       <c r="D38" t="n">
-        <v>0.491546</v>
+        <v>0.485039</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.500134</v>
+        <v>0.501957</v>
       </c>
       <c r="C39" t="n">
-        <v>0.486962</v>
+        <v>0.480501</v>
       </c>
       <c r="D39" t="n">
-        <v>0.482629</v>
+        <v>0.476634</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.491381</v>
+        <v>0.492589</v>
       </c>
       <c r="C40" t="n">
-        <v>0.47753</v>
+        <v>0.471306</v>
       </c>
       <c r="D40" t="n">
-        <v>0.473539</v>
+        <v>0.467816</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.483459</v>
+        <v>0.484266</v>
       </c>
       <c r="C41" t="n">
-        <v>0.469039</v>
+        <v>0.46289</v>
       </c>
       <c r="D41" t="n">
-        <v>0.465414</v>
+        <v>0.460011</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476124</v>
+        <v>0.476918</v>
       </c>
       <c r="C42" t="n">
-        <v>0.461262</v>
+        <v>0.455097</v>
       </c>
       <c r="D42" t="n">
-        <v>0.457841</v>
+        <v>0.452313</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.468863</v>
+        <v>0.47156</v>
       </c>
       <c r="C43" t="n">
-        <v>0.45343</v>
+        <v>0.447779</v>
       </c>
       <c r="D43" t="n">
-        <v>0.450508</v>
+        <v>0.445094</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.462431</v>
+        <v>0.463232</v>
       </c>
       <c r="C44" t="n">
-        <v>0.446556</v>
+        <v>0.440578</v>
       </c>
       <c r="D44" t="n">
-        <v>0.443911</v>
+        <v>0.438648</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.456111</v>
+        <v>0.457197</v>
       </c>
       <c r="C45" t="n">
-        <v>0.439839</v>
+        <v>0.433777</v>
       </c>
       <c r="D45" t="n">
-        <v>0.437555</v>
+        <v>0.432708</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4504</v>
+        <v>0.453732</v>
       </c>
       <c r="C46" t="n">
-        <v>0.434004</v>
+        <v>0.427888</v>
       </c>
       <c r="D46" t="n">
-        <v>0.432889</v>
+        <v>0.427064</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.444866</v>
+        <v>0.448172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.428188</v>
+        <v>0.42209</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427783</v>
+        <v>0.421885</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.440366</v>
+        <v>0.443401</v>
       </c>
       <c r="C48" t="n">
-        <v>0.423334</v>
+        <v>0.417176</v>
       </c>
       <c r="D48" t="n">
-        <v>0.422744</v>
+        <v>0.417875</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.436535</v>
+        <v>0.439725</v>
       </c>
       <c r="C49" t="n">
-        <v>0.419467</v>
+        <v>0.413409</v>
       </c>
       <c r="D49" t="n">
-        <v>0.419783</v>
+        <v>0.415062</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433995</v>
+        <v>0.43715</v>
       </c>
       <c r="C50" t="n">
-        <v>0.416987</v>
+        <v>0.410879</v>
       </c>
       <c r="D50" t="n">
-        <v>0.418708</v>
+        <v>0.414005</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.432374</v>
+        <v>0.43551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.41563</v>
+        <v>0.409673</v>
       </c>
       <c r="D51" t="n">
-        <v>0.51423</v>
+        <v>0.5064920000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433514</v>
+        <v>0.436787</v>
       </c>
       <c r="C52" t="n">
-        <v>0.417289</v>
+        <v>0.410993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.504869</v>
+        <v>0.497812</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.512472</v>
+        <v>0.514222</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5016659999999999</v>
+        <v>0.494004</v>
       </c>
       <c r="D53" t="n">
-        <v>0.496639</v>
+        <v>0.488869</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.504184</v>
+        <v>0.506119</v>
       </c>
       <c r="C54" t="n">
-        <v>0.49255</v>
+        <v>0.486036</v>
       </c>
       <c r="D54" t="n">
-        <v>0.487564</v>
+        <v>0.480703</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.496694</v>
+        <v>0.498474</v>
       </c>
       <c r="C55" t="n">
-        <v>0.48421</v>
+        <v>0.477408</v>
       </c>
       <c r="D55" t="n">
-        <v>0.479519</v>
+        <v>0.472971</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489388</v>
+        <v>0.491266</v>
       </c>
       <c r="C56" t="n">
-        <v>0.476458</v>
+        <v>0.469638</v>
       </c>
       <c r="D56" t="n">
-        <v>0.472023</v>
+        <v>0.465929</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.482556</v>
+        <v>0.484483</v>
       </c>
       <c r="C57" t="n">
-        <v>0.469186</v>
+        <v>0.462351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.464813</v>
+        <v>0.458914</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.476124</v>
+        <v>0.477909</v>
       </c>
       <c r="C58" t="n">
-        <v>0.461848</v>
+        <v>0.455487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.458276</v>
+        <v>0.452315</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.470755</v>
+        <v>0.471885</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4551</v>
+        <v>0.449273</v>
       </c>
       <c r="D59" t="n">
-        <v>0.452406</v>
+        <v>0.446359</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.464606</v>
+        <v>0.466353</v>
       </c>
       <c r="C60" t="n">
-        <v>0.449178</v>
+        <v>0.443323</v>
       </c>
       <c r="D60" t="n">
-        <v>0.447423</v>
+        <v>0.441082</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.459881</v>
+        <v>0.461153</v>
       </c>
       <c r="C61" t="n">
-        <v>0.443567</v>
+        <v>0.43808</v>
       </c>
       <c r="D61" t="n">
-        <v>0.442036</v>
+        <v>0.436242</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.45504</v>
+        <v>0.456661</v>
       </c>
       <c r="C62" t="n">
-        <v>0.438882</v>
+        <v>0.433309</v>
       </c>
       <c r="D62" t="n">
-        <v>0.437752</v>
+        <v>0.432302</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.451349</v>
+        <v>0.452884</v>
       </c>
       <c r="C63" t="n">
-        <v>0.435053</v>
+        <v>0.42963</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434898</v>
+        <v>0.4295</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.448538</v>
+        <v>0.450021</v>
       </c>
       <c r="C64" t="n">
-        <v>0.432098</v>
+        <v>0.426951</v>
       </c>
       <c r="D64" t="n">
-        <v>0.433249</v>
+        <v>0.428069</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.446734</v>
+        <v>0.448401</v>
       </c>
       <c r="C65" t="n">
-        <v>0.430989</v>
+        <v>0.425439</v>
       </c>
       <c r="D65" t="n">
-        <v>0.433718</v>
+        <v>0.428535</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.447408</v>
+        <v>0.448971</v>
       </c>
       <c r="C66" t="n">
-        <v>0.431634</v>
+        <v>0.426064</v>
       </c>
       <c r="D66" t="n">
-        <v>0.519594</v>
+        <v>0.515482</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.530809</v>
+        <v>0.530077</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5158</v>
+        <v>0.5129359999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511622</v>
+        <v>0.506585</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.522502</v>
+        <v>0.522323</v>
       </c>
       <c r="C68" t="n">
-        <v>0.508475</v>
+        <v>0.504061</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5031099999999999</v>
+        <v>0.498272</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.514615</v>
+        <v>0.514705</v>
       </c>
       <c r="C69" t="n">
-        <v>0.500018</v>
+        <v>0.49586</v>
       </c>
       <c r="D69" t="n">
-        <v>0.495228</v>
+        <v>0.490387</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507458</v>
+        <v>0.507529</v>
       </c>
       <c r="C70" t="n">
-        <v>0.490458</v>
+        <v>0.48805</v>
       </c>
       <c r="D70" t="n">
-        <v>0.488031</v>
+        <v>0.48292</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.501105</v>
+        <v>0.501091</v>
       </c>
       <c r="C71" t="n">
-        <v>0.483118</v>
+        <v>0.480627</v>
       </c>
       <c r="D71" t="n">
-        <v>0.480856</v>
+        <v>0.476054</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.49499</v>
+        <v>0.494965</v>
       </c>
       <c r="C72" t="n">
-        <v>0.475971</v>
+        <v>0.473663</v>
       </c>
       <c r="D72" t="n">
-        <v>0.474221</v>
+        <v>0.469572</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488895</v>
+        <v>0.488951</v>
       </c>
       <c r="C73" t="n">
-        <v>0.47005</v>
+        <v>0.467335</v>
       </c>
       <c r="D73" t="n">
-        <v>0.467427</v>
+        <v>0.463629</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.483252</v>
+        <v>0.483406</v>
       </c>
       <c r="C74" t="n">
-        <v>0.463843</v>
+        <v>0.461289</v>
       </c>
       <c r="D74" t="n">
-        <v>0.462986</v>
+        <v>0.458163</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.478139</v>
+        <v>0.478496</v>
       </c>
       <c r="C75" t="n">
-        <v>0.458239</v>
+        <v>0.456</v>
       </c>
       <c r="D75" t="n">
-        <v>0.456546</v>
+        <v>0.453229</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.473572</v>
+        <v>0.473948</v>
       </c>
       <c r="C76" t="n">
-        <v>0.45421</v>
+        <v>0.451155</v>
       </c>
       <c r="D76" t="n">
-        <v>0.453267</v>
+        <v>0.449371</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4695</v>
+        <v>0.470024</v>
       </c>
       <c r="C77" t="n">
-        <v>0.449052</v>
+        <v>0.447072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.449036</v>
+        <v>0.446129</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.466917</v>
+        <v>0.467516</v>
       </c>
       <c r="C78" t="n">
-        <v>0.446522</v>
+        <v>0.444276</v>
       </c>
       <c r="D78" t="n">
-        <v>0.448071</v>
+        <v>0.444538</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.465591</v>
+        <v>0.465606</v>
       </c>
       <c r="C79" t="n">
-        <v>0.445063</v>
+        <v>0.44264</v>
       </c>
       <c r="D79" t="n">
-        <v>0.450344</v>
+        <v>0.444771</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465363</v>
+        <v>0.465463</v>
       </c>
       <c r="C80" t="n">
-        <v>0.445292</v>
+        <v>0.442975</v>
       </c>
       <c r="D80" t="n">
-        <v>0.569133</v>
+        <v>0.5392130000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.572295</v>
+        <v>0.570817</v>
       </c>
       <c r="C81" t="n">
-        <v>0.540313</v>
+        <v>0.541123</v>
       </c>
       <c r="D81" t="n">
-        <v>0.560012</v>
+        <v>0.531153</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.566073</v>
+        <v>0.565044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.532648</v>
+        <v>0.533287</v>
       </c>
       <c r="D82" t="n">
-        <v>0.551138</v>
+        <v>0.523274</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.560101</v>
+        <v>0.559513</v>
       </c>
       <c r="C83" t="n">
-        <v>0.52445</v>
+        <v>0.525746</v>
       </c>
       <c r="D83" t="n">
-        <v>0.542656</v>
+        <v>0.5159319999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.555566</v>
+        <v>0.553937</v>
       </c>
       <c r="C84" t="n">
-        <v>0.518084</v>
+        <v>0.5184299999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.534837</v>
+        <v>0.508871</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.549956</v>
+        <v>0.548414</v>
       </c>
       <c r="C85" t="n">
-        <v>0.511089</v>
+        <v>0.511501</v>
       </c>
       <c r="D85" t="n">
-        <v>0.526309</v>
+        <v>0.501933</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.544724</v>
+        <v>0.542655</v>
       </c>
       <c r="C86" t="n">
-        <v>0.504244</v>
+        <v>0.504596</v>
       </c>
       <c r="D86" t="n">
-        <v>0.518913</v>
+        <v>0.495498</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.53877</v>
+        <v>0.536786</v>
       </c>
       <c r="C87" t="n">
-        <v>0.498084</v>
+        <v>0.497714</v>
       </c>
       <c r="D87" t="n">
-        <v>0.51226</v>
+        <v>0.489134</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.533759</v>
+        <v>0.53079</v>
       </c>
       <c r="C88" t="n">
-        <v>0.491927</v>
+        <v>0.491502</v>
       </c>
       <c r="D88" t="n">
-        <v>0.507182</v>
+        <v>0.4834</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.527466</v>
+        <v>0.525126</v>
       </c>
       <c r="C89" t="n">
-        <v>0.486903</v>
+        <v>0.485723</v>
       </c>
       <c r="D89" t="n">
-        <v>0.500108</v>
+        <v>0.478312</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.521833</v>
+        <v>0.519614</v>
       </c>
       <c r="C90" t="n">
-        <v>0.480935</v>
+        <v>0.480292</v>
       </c>
       <c r="D90" t="n">
-        <v>0.495204</v>
+        <v>0.4737</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.516943</v>
+        <v>0.514779</v>
       </c>
       <c r="C91" t="n">
-        <v>0.476752</v>
+        <v>0.475673</v>
       </c>
       <c r="D91" t="n">
-        <v>0.490963</v>
+        <v>0.470427</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.512938</v>
+        <v>0.51068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.473288</v>
+        <v>0.471984</v>
       </c>
       <c r="D92" t="n">
-        <v>0.486791</v>
+        <v>0.468037</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.509764</v>
+        <v>0.5074070000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.471051</v>
+        <v>0.469351</v>
       </c>
       <c r="D93" t="n">
-        <v>0.485719</v>
+        <v>0.467564</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5090209999999999</v>
+        <v>0.506235</v>
       </c>
       <c r="C94" t="n">
-        <v>0.470818</v>
+        <v>0.468677</v>
       </c>
       <c r="D94" t="n">
-        <v>0.615097</v>
+        <v>0.578002</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.608581</v>
+        <v>0.606048</v>
       </c>
       <c r="C95" t="n">
-        <v>0.573536</v>
+        <v>0.574503</v>
       </c>
       <c r="D95" t="n">
-        <v>0.614438</v>
+        <v>0.579534</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6150139999999999</v>
+        <v>0.612462</v>
       </c>
       <c r="C96" t="n">
-        <v>0.578756</v>
+        <v>0.579256</v>
       </c>
       <c r="D96" t="n">
-        <v>0.611223</v>
+        <v>0.578076</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.617265</v>
+        <v>0.6145699999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.578321</v>
+        <v>0.578952</v>
       </c>
       <c r="D97" t="n">
-        <v>0.607216</v>
+        <v>0.575273</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.617328</v>
+        <v>0.614874</v>
       </c>
       <c r="C98" t="n">
-        <v>0.577021</v>
+        <v>0.576777</v>
       </c>
       <c r="D98" t="n">
-        <v>0.601948</v>
+        <v>0.571835</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.616359</v>
+        <v>0.613658</v>
       </c>
       <c r="C99" t="n">
-        <v>0.57402</v>
+        <v>0.573821</v>
       </c>
       <c r="D99" t="n">
-        <v>0.597279</v>
+        <v>0.567923</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.614761</v>
+        <v>0.611897</v>
       </c>
       <c r="C100" t="n">
-        <v>0.570977</v>
+        <v>0.570914</v>
       </c>
       <c r="D100" t="n">
-        <v>0.590799</v>
+        <v>0.563939</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.611946</v>
+        <v>0.609639</v>
       </c>
       <c r="C101" t="n">
-        <v>0.567668</v>
+        <v>0.567667</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5865590000000001</v>
+        <v>0.560118</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.609511</v>
+        <v>0.607046</v>
       </c>
       <c r="C102" t="n">
-        <v>0.564512</v>
+        <v>0.5644130000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.580807</v>
+        <v>0.556202</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.606953</v>
+        <v>0.6044040000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.56167</v>
+        <v>0.56126</v>
       </c>
       <c r="D103" t="n">
-        <v>0.576948</v>
+        <v>0.552561</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.604374</v>
+        <v>0.602025</v>
       </c>
       <c r="C104" t="n">
-        <v>0.558983</v>
+        <v>0.558326</v>
       </c>
       <c r="D104" t="n">
-        <v>0.572997</v>
+        <v>0.549378</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.602344</v>
+        <v>0.599808</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5563940000000001</v>
+        <v>0.555867</v>
       </c>
       <c r="D105" t="n">
-        <v>0.569092</v>
+        <v>0.5469349999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.600128</v>
+        <v>0.5977980000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.554668</v>
+        <v>0.553644</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566744</v>
+        <v>0.54493</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5986900000000001</v>
+        <v>0.5964429999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5534829999999999</v>
+        <v>0.552311</v>
       </c>
       <c r="D107" t="n">
-        <v>0.565192</v>
+        <v>0.544177</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.598588</v>
+        <v>0.596491</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553526</v>
+        <v>0.552312</v>
       </c>
       <c r="D108" t="n">
-        <v>0.737575</v>
+        <v>0.72365</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.59959</v>
+        <v>0.597828</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553592</v>
+        <v>0.554894</v>
       </c>
       <c r="D109" t="n">
-        <v>0.722099</v>
+        <v>0.727487</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7515810000000001</v>
+        <v>0.755153</v>
       </c>
       <c r="C110" t="n">
-        <v>0.691303</v>
+        <v>0.696963</v>
       </c>
       <c r="D110" t="n">
-        <v>0.721762</v>
+        <v>0.725106</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.75423</v>
+        <v>0.756196</v>
       </c>
       <c r="C111" t="n">
-        <v>0.692437</v>
+        <v>0.696946</v>
       </c>
       <c r="D111" t="n">
-        <v>0.718642</v>
+        <v>0.722163</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.756742</v>
+        <v>0.759289</v>
       </c>
       <c r="C112" t="n">
-        <v>0.693695</v>
+        <v>0.6966</v>
       </c>
       <c r="D112" t="n">
-        <v>0.715574</v>
+        <v>0.72056</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.758246</v>
+        <v>0.760305</v>
       </c>
       <c r="C113" t="n">
-        <v>0.691419</v>
+        <v>0.695883</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7143350000000001</v>
+        <v>0.718587</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.759341</v>
+        <v>0.760668</v>
       </c>
       <c r="C114" t="n">
-        <v>0.691406</v>
+        <v>0.695886</v>
       </c>
       <c r="D114" t="n">
-        <v>0.712775</v>
+        <v>0.716181</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.761327</v>
+        <v>0.762193</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6904709999999999</v>
+        <v>0.694565</v>
       </c>
       <c r="D115" t="n">
-        <v>0.710908</v>
+        <v>0.71358</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.761805</v>
+        <v>0.763294</v>
       </c>
       <c r="C116" t="n">
-        <v>0.690589</v>
+        <v>0.694492</v>
       </c>
       <c r="D116" t="n">
-        <v>0.709211</v>
+        <v>0.711487</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7667620000000001</v>
+        <v>0.764768</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6923010000000001</v>
+        <v>0.6934360000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.708686</v>
+        <v>0.710074</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.767566</v>
+        <v>0.764347</v>
       </c>
       <c r="C118" t="n">
-        <v>0.694105</v>
+        <v>0.6940190000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.707308</v>
+        <v>0.7093930000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.768327</v>
+        <v>0.766691</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6927680000000001</v>
+        <v>0.694192</v>
       </c>
       <c r="D119" t="n">
-        <v>0.706506</v>
+        <v>0.707762</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.767929</v>
+        <v>0.768007</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6934900000000001</v>
+        <v>0.694484</v>
       </c>
       <c r="D120" t="n">
-        <v>0.705508</v>
+        <v>0.705014</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.770037</v>
+        <v>0.768837</v>
       </c>
       <c r="C121" t="n">
-        <v>0.695376</v>
+        <v>0.695686</v>
       </c>
       <c r="D121" t="n">
-        <v>0.706547</v>
+        <v>0.707085</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.771712</v>
+        <v>0.770428</v>
       </c>
       <c r="C122" t="n">
-        <v>0.697247</v>
+        <v>0.697182</v>
       </c>
       <c r="D122" t="n">
-        <v>0.707551</v>
+        <v>0.706321</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774833</v>
+        <v>0.773575</v>
       </c>
       <c r="C123" t="n">
-        <v>0.700366</v>
+        <v>0.699615</v>
       </c>
       <c r="D123" t="n">
-        <v>0.863365</v>
+        <v>0.851166</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.931501</v>
+        <v>0.93146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.84285</v>
+        <v>0.8451109999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8490839999999999</v>
+        <v>0.851846</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.932958</v>
+        <v>0.933186</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8440800000000001</v>
+        <v>0.846616</v>
       </c>
       <c r="D125" t="n">
-        <v>0.855646</v>
+        <v>0.85127</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.93401</v>
+        <v>0.9333</v>
       </c>
       <c r="C126" t="n">
-        <v>0.844659</v>
+        <v>0.8468329999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.849911</v>
+        <v>0.852457</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.936012</v>
+        <v>0.934256</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8443850000000001</v>
+        <v>0.847678</v>
       </c>
       <c r="D127" t="n">
-        <v>0.850306</v>
+        <v>0.852116</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.935643</v>
+        <v>0.934895</v>
       </c>
       <c r="C128" t="n">
-        <v>0.844623</v>
+        <v>0.848871</v>
       </c>
       <c r="D128" t="n">
-        <v>0.851279</v>
+        <v>0.852938</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.936965</v>
+        <v>0.935661</v>
       </c>
       <c r="C129" t="n">
-        <v>0.846666</v>
+        <v>0.849813</v>
       </c>
       <c r="D129" t="n">
-        <v>0.860326</v>
+        <v>0.853229</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.93892</v>
+        <v>0.938156</v>
       </c>
       <c r="C130" t="n">
-        <v>0.848086</v>
+        <v>0.851025</v>
       </c>
       <c r="D130" t="n">
-        <v>0.863514</v>
+        <v>0.853957</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.94046</v>
+        <v>0.939143</v>
       </c>
       <c r="C131" t="n">
-        <v>0.850826</v>
+        <v>0.851518</v>
       </c>
       <c r="D131" t="n">
-        <v>0.863283</v>
+        <v>0.854308</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.941927</v>
+        <v>0.939764</v>
       </c>
       <c r="C132" t="n">
-        <v>0.852569</v>
+        <v>0.85255</v>
       </c>
       <c r="D132" t="n">
-        <v>0.863104</v>
+        <v>0.85587</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.943665</v>
+        <v>0.941287</v>
       </c>
       <c r="C133" t="n">
-        <v>0.855057</v>
+        <v>0.855554</v>
       </c>
       <c r="D133" t="n">
-        <v>0.86464</v>
+        <v>0.8570489999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.946207</v>
+        <v>0.942846</v>
       </c>
       <c r="C134" t="n">
-        <v>0.857374</v>
+        <v>0.8573730000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.862877</v>
+        <v>0.857814</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.948398</v>
+        <v>0.9449</v>
       </c>
       <c r="C135" t="n">
-        <v>0.860285</v>
+        <v>0.858534</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8679210000000001</v>
+        <v>0.8585429999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.95107</v>
+        <v>0.9475170000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.863882</v>
+        <v>0.8617899999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.868523</v>
+        <v>0.86031</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.95458</v>
+        <v>0.949863</v>
       </c>
       <c r="C137" t="n">
-        <v>0.867479</v>
+        <v>0.864743</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0097</v>
+        <v>1.00194</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.10093</v>
+        <v>1.09828</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00638</v>
+        <v>1.00705</v>
       </c>
       <c r="D138" t="n">
-        <v>1.0132</v>
+        <v>1.00213</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09917</v>
+        <v>1.09708</v>
       </c>
       <c r="C139" t="n">
-        <v>1.00566</v>
+        <v>1.00567</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01038</v>
+        <v>1.00293</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09935</v>
+        <v>1.09607</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00594</v>
+        <v>1.00605</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01096</v>
+        <v>1.00208</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09767</v>
+        <v>1.09485</v>
       </c>
       <c r="C141" t="n">
-        <v>1.00481</v>
+        <v>1.00617</v>
       </c>
       <c r="D141" t="n">
-        <v>1.00692</v>
+        <v>1.00257</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.0975</v>
+        <v>1.09367</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00655</v>
+        <v>1.00732</v>
       </c>
       <c r="D142" t="n">
-        <v>1.00681</v>
+        <v>1.00296</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09682</v>
+        <v>1.09249</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00672</v>
+        <v>1.00699</v>
       </c>
       <c r="D143" t="n">
-        <v>1.01218</v>
+        <v>1.00339</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.448364</v>
+        <v>0.44483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410119</v>
+        <v>0.410696</v>
       </c>
       <c r="D2" t="n">
-        <v>0.410684</v>
+        <v>0.413424</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.432956</v>
+        <v>0.4368</v>
       </c>
       <c r="C3" t="n">
-        <v>0.401886</v>
+        <v>0.402233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.402841</v>
+        <v>0.405856</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428698</v>
+        <v>0.432251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.397191</v>
+        <v>0.397639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.399114</v>
+        <v>0.40197</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424384</v>
+        <v>0.427776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.393384</v>
+        <v>0.394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.396338</v>
+        <v>0.39893</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.417849</v>
+        <v>0.421026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.388033</v>
+        <v>0.388648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.392121</v>
+        <v>0.394771</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414875</v>
+        <v>0.417906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.385276</v>
+        <v>0.385762</v>
       </c>
       <c r="D7" t="n">
-        <v>0.391452</v>
+        <v>0.394319</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413786</v>
+        <v>0.416814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.384697</v>
+        <v>0.385365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.392461</v>
+        <v>0.396023</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416202</v>
+        <v>0.419126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.387334</v>
+        <v>0.388114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.477682</v>
+        <v>0.481661</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.498007</v>
+        <v>0.500005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470908</v>
+        <v>0.470939</v>
       </c>
       <c r="D10" t="n">
-        <v>0.467779</v>
+        <v>0.471025</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.488182</v>
+        <v>0.490007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.460609</v>
+        <v>0.461441</v>
       </c>
       <c r="D11" t="n">
-        <v>0.457972</v>
+        <v>0.461333</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.480455</v>
+        <v>0.482382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.452357</v>
+        <v>0.453224</v>
       </c>
       <c r="D12" t="n">
-        <v>0.450308</v>
+        <v>0.453385</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.471089</v>
+        <v>0.472596</v>
       </c>
       <c r="C13" t="n">
-        <v>0.442933</v>
+        <v>0.44354</v>
       </c>
       <c r="D13" t="n">
-        <v>0.441144</v>
+        <v>0.443398</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.463827</v>
+        <v>0.465209</v>
       </c>
       <c r="C14" t="n">
-        <v>0.43499</v>
+        <v>0.435644</v>
       </c>
       <c r="D14" t="n">
-        <v>0.43394</v>
+        <v>0.436462</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.45689</v>
+        <v>0.458413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.427735</v>
+        <v>0.428287</v>
       </c>
       <c r="D15" t="n">
-        <v>0.427109</v>
+        <v>0.429387</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.450037</v>
+        <v>0.451604</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420578</v>
+        <v>0.42081</v>
       </c>
       <c r="D16" t="n">
-        <v>0.420391</v>
+        <v>0.422452</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.443339</v>
+        <v>0.444772</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413908</v>
+        <v>0.414381</v>
       </c>
       <c r="D17" t="n">
-        <v>0.414269</v>
+        <v>0.416234</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.437068</v>
+        <v>0.438439</v>
       </c>
       <c r="C18" t="n">
-        <v>0.40744</v>
+        <v>0.406644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.408331</v>
+        <v>0.409736</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.432638</v>
+        <v>0.434095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.402952</v>
+        <v>0.403406</v>
       </c>
       <c r="D19" t="n">
-        <v>0.404701</v>
+        <v>0.406041</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.427089</v>
+        <v>0.428167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.397299</v>
+        <v>0.396244</v>
       </c>
       <c r="D20" t="n">
-        <v>0.400187</v>
+        <v>0.401424</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423856</v>
+        <v>0.425101</v>
       </c>
       <c r="C21" t="n">
-        <v>0.394343</v>
+        <v>0.394836</v>
       </c>
       <c r="D21" t="n">
-        <v>0.398209</v>
+        <v>0.400413</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421503</v>
+        <v>0.42275</v>
       </c>
       <c r="C22" t="n">
-        <v>0.392022</v>
+        <v>0.39255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.397547</v>
+        <v>0.40001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421271</v>
+        <v>0.422421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39166</v>
+        <v>0.392427</v>
       </c>
       <c r="D23" t="n">
-        <v>0.484172</v>
+        <v>0.486728</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.505769</v>
+        <v>0.506648</v>
       </c>
       <c r="C24" t="n">
-        <v>0.479193</v>
+        <v>0.47917</v>
       </c>
       <c r="D24" t="n">
-        <v>0.475426</v>
+        <v>0.478177</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.495929</v>
+        <v>0.497313</v>
       </c>
       <c r="C25" t="n">
-        <v>0.469065</v>
+        <v>0.46956</v>
       </c>
       <c r="D25" t="n">
-        <v>0.465615</v>
+        <v>0.466849</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4874</v>
+        <v>0.48884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.460426</v>
+        <v>0.45919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457246</v>
+        <v>0.458558</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.478935</v>
+        <v>0.479739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.451672</v>
+        <v>0.449373</v>
       </c>
       <c r="D27" t="n">
-        <v>0.449003</v>
+        <v>0.449452</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.471785</v>
+        <v>0.473066</v>
       </c>
       <c r="C28" t="n">
-        <v>0.444318</v>
+        <v>0.441624</v>
       </c>
       <c r="D28" t="n">
-        <v>0.442136</v>
+        <v>0.44309</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.463858</v>
+        <v>0.465042</v>
       </c>
       <c r="C29" t="n">
-        <v>0.436015</v>
+        <v>0.433663</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434307</v>
+        <v>0.434584</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.457053</v>
+        <v>0.457782</v>
       </c>
       <c r="C30" t="n">
-        <v>0.428995</v>
+        <v>0.425952</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427848</v>
+        <v>0.427733</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.450422</v>
+        <v>0.451344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.422308</v>
+        <v>0.418816</v>
       </c>
       <c r="D31" t="n">
-        <v>0.421511</v>
+        <v>0.420899</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.444785</v>
+        <v>0.445773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.416489</v>
+        <v>0.41304</v>
       </c>
       <c r="D32" t="n">
-        <v>0.416319</v>
+        <v>0.415618</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.439638</v>
+        <v>0.439799</v>
       </c>
       <c r="C33" t="n">
-        <v>0.411199</v>
+        <v>0.407619</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411826</v>
+        <v>0.411612</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434617</v>
+        <v>0.434955</v>
       </c>
       <c r="C34" t="n">
-        <v>0.406262</v>
+        <v>0.403355</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40759</v>
+        <v>0.407641</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.430337</v>
+        <v>0.430428</v>
       </c>
       <c r="C35" t="n">
-        <v>0.402031</v>
+        <v>0.398508</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404631</v>
+        <v>0.403916</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.427633</v>
+        <v>0.427644</v>
       </c>
       <c r="C36" t="n">
-        <v>0.399711</v>
+        <v>0.396085</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403885</v>
+        <v>0.403489</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426752</v>
+        <v>0.426743</v>
       </c>
       <c r="C37" t="n">
-        <v>0.399371</v>
+        <v>0.396091</v>
       </c>
       <c r="D37" t="n">
-        <v>0.494611</v>
+        <v>0.494919</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.510651</v>
+        <v>0.508046</v>
       </c>
       <c r="C38" t="n">
-        <v>0.488978</v>
+        <v>0.485674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.485039</v>
+        <v>0.485677</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.501957</v>
+        <v>0.500391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.480501</v>
+        <v>0.476644</v>
       </c>
       <c r="D39" t="n">
-        <v>0.476634</v>
+        <v>0.477151</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.492589</v>
+        <v>0.491944</v>
       </c>
       <c r="C40" t="n">
-        <v>0.471306</v>
+        <v>0.467109</v>
       </c>
       <c r="D40" t="n">
-        <v>0.467816</v>
+        <v>0.466989</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.484266</v>
+        <v>0.483774</v>
       </c>
       <c r="C41" t="n">
-        <v>0.46289</v>
+        <v>0.458321</v>
       </c>
       <c r="D41" t="n">
-        <v>0.460011</v>
+        <v>0.458608</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476918</v>
+        <v>0.47753</v>
       </c>
       <c r="C42" t="n">
-        <v>0.455097</v>
+        <v>0.450426</v>
       </c>
       <c r="D42" t="n">
-        <v>0.452313</v>
+        <v>0.450959</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.47156</v>
+        <v>0.469284</v>
       </c>
       <c r="C43" t="n">
-        <v>0.447779</v>
+        <v>0.442617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.445094</v>
+        <v>0.443693</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.463232</v>
+        <v>0.462907</v>
       </c>
       <c r="C44" t="n">
-        <v>0.440578</v>
+        <v>0.43549</v>
       </c>
       <c r="D44" t="n">
-        <v>0.438648</v>
+        <v>0.437084</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.457197</v>
+        <v>0.456657</v>
       </c>
       <c r="C45" t="n">
-        <v>0.433777</v>
+        <v>0.428919</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432708</v>
+        <v>0.431098</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.453732</v>
+        <v>0.4509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.427888</v>
+        <v>0.422931</v>
       </c>
       <c r="D46" t="n">
-        <v>0.427064</v>
+        <v>0.425538</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.448172</v>
+        <v>0.445567</v>
       </c>
       <c r="C47" t="n">
-        <v>0.42209</v>
+        <v>0.417187</v>
       </c>
       <c r="D47" t="n">
-        <v>0.421885</v>
+        <v>0.42051</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.443401</v>
+        <v>0.44094</v>
       </c>
       <c r="C48" t="n">
-        <v>0.417176</v>
+        <v>0.412652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.417875</v>
+        <v>0.416884</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.439725</v>
+        <v>0.437247</v>
       </c>
       <c r="C49" t="n">
-        <v>0.413409</v>
+        <v>0.409056</v>
       </c>
       <c r="D49" t="n">
-        <v>0.415062</v>
+        <v>0.414477</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.43715</v>
+        <v>0.434766</v>
       </c>
       <c r="C50" t="n">
-        <v>0.410879</v>
+        <v>0.406823</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414005</v>
+        <v>0.413952</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.43551</v>
+        <v>0.433127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.409673</v>
+        <v>0.405901</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5064920000000001</v>
+        <v>0.50789</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.436787</v>
+        <v>0.434235</v>
       </c>
       <c r="C52" t="n">
-        <v>0.410993</v>
+        <v>0.407954</v>
       </c>
       <c r="D52" t="n">
-        <v>0.497812</v>
+        <v>0.498302</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.514222</v>
+        <v>0.510255</v>
       </c>
       <c r="C53" t="n">
-        <v>0.494004</v>
+        <v>0.492457</v>
       </c>
       <c r="D53" t="n">
-        <v>0.488869</v>
+        <v>0.489804</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.506119</v>
+        <v>0.502199</v>
       </c>
       <c r="C54" t="n">
-        <v>0.486036</v>
+        <v>0.48315</v>
       </c>
       <c r="D54" t="n">
-        <v>0.480703</v>
+        <v>0.481042</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.498474</v>
+        <v>0.494894</v>
       </c>
       <c r="C55" t="n">
-        <v>0.477408</v>
+        <v>0.474395</v>
       </c>
       <c r="D55" t="n">
-        <v>0.472971</v>
+        <v>0.472858</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.491266</v>
+        <v>0.487801</v>
       </c>
       <c r="C56" t="n">
-        <v>0.469638</v>
+        <v>0.466364</v>
       </c>
       <c r="D56" t="n">
-        <v>0.465929</v>
+        <v>0.464977</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.484483</v>
+        <v>0.481126</v>
       </c>
       <c r="C57" t="n">
-        <v>0.462351</v>
+        <v>0.458735</v>
       </c>
       <c r="D57" t="n">
-        <v>0.458914</v>
+        <v>0.457657</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.477909</v>
+        <v>0.474686</v>
       </c>
       <c r="C58" t="n">
-        <v>0.455487</v>
+        <v>0.451653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.452315</v>
+        <v>0.450785</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.471885</v>
+        <v>0.468781</v>
       </c>
       <c r="C59" t="n">
-        <v>0.449273</v>
+        <v>0.444983</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446359</v>
+        <v>0.444762</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466353</v>
+        <v>0.463411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.443323</v>
+        <v>0.439197</v>
       </c>
       <c r="D60" t="n">
-        <v>0.441082</v>
+        <v>0.439351</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.461153</v>
+        <v>0.458369</v>
       </c>
       <c r="C61" t="n">
-        <v>0.43808</v>
+        <v>0.433506</v>
       </c>
       <c r="D61" t="n">
-        <v>0.436242</v>
+        <v>0.434567</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.456661</v>
+        <v>0.453928</v>
       </c>
       <c r="C62" t="n">
-        <v>0.433309</v>
+        <v>0.428807</v>
       </c>
       <c r="D62" t="n">
-        <v>0.432302</v>
+        <v>0.431304</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.452884</v>
+        <v>0.450226</v>
       </c>
       <c r="C63" t="n">
-        <v>0.42963</v>
+        <v>0.425218</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4295</v>
+        <v>0.428447</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.450021</v>
+        <v>0.447571</v>
       </c>
       <c r="C64" t="n">
-        <v>0.426951</v>
+        <v>0.422699</v>
       </c>
       <c r="D64" t="n">
-        <v>0.428069</v>
+        <v>0.427882</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.448401</v>
+        <v>0.445924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.425439</v>
+        <v>0.421615</v>
       </c>
       <c r="D65" t="n">
-        <v>0.428535</v>
+        <v>0.430398</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.448971</v>
+        <v>0.446576</v>
       </c>
       <c r="C66" t="n">
-        <v>0.426064</v>
+        <v>0.423357</v>
       </c>
       <c r="D66" t="n">
-        <v>0.515482</v>
+        <v>0.515953</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.530077</v>
+        <v>0.52987</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5129359999999999</v>
+        <v>0.510089</v>
       </c>
       <c r="D67" t="n">
-        <v>0.506585</v>
+        <v>0.506376</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.522323</v>
+        <v>0.521589</v>
       </c>
       <c r="C68" t="n">
-        <v>0.504061</v>
+        <v>0.5009209999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.498272</v>
+        <v>0.497322</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.514705</v>
+        <v>0.514074</v>
       </c>
       <c r="C69" t="n">
-        <v>0.49586</v>
+        <v>0.492135</v>
       </c>
       <c r="D69" t="n">
-        <v>0.490387</v>
+        <v>0.489086</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507529</v>
+        <v>0.507012</v>
       </c>
       <c r="C70" t="n">
-        <v>0.48805</v>
+        <v>0.482612</v>
       </c>
       <c r="D70" t="n">
-        <v>0.48292</v>
+        <v>0.481269</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.501091</v>
+        <v>0.499864</v>
       </c>
       <c r="C71" t="n">
-        <v>0.480627</v>
+        <v>0.474921</v>
       </c>
       <c r="D71" t="n">
-        <v>0.476054</v>
+        <v>0.473889</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.494965</v>
+        <v>0.493777</v>
       </c>
       <c r="C72" t="n">
-        <v>0.473663</v>
+        <v>0.467655</v>
       </c>
       <c r="D72" t="n">
-        <v>0.469572</v>
+        <v>0.466863</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488951</v>
+        <v>0.487938</v>
       </c>
       <c r="C73" t="n">
-        <v>0.467335</v>
+        <v>0.460808</v>
       </c>
       <c r="D73" t="n">
-        <v>0.463629</v>
+        <v>0.460829</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.483406</v>
+        <v>0.481983</v>
       </c>
       <c r="C74" t="n">
-        <v>0.461289</v>
+        <v>0.454484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.458163</v>
+        <v>0.45462</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.478496</v>
+        <v>0.47741</v>
       </c>
       <c r="C75" t="n">
-        <v>0.456</v>
+        <v>0.448978</v>
       </c>
       <c r="D75" t="n">
-        <v>0.453229</v>
+        <v>0.450346</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.473948</v>
+        <v>0.472825</v>
       </c>
       <c r="C76" t="n">
-        <v>0.451155</v>
+        <v>0.444351</v>
       </c>
       <c r="D76" t="n">
-        <v>0.449371</v>
+        <v>0.446157</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.470024</v>
+        <v>0.468649</v>
       </c>
       <c r="C77" t="n">
-        <v>0.447072</v>
+        <v>0.440097</v>
       </c>
       <c r="D77" t="n">
-        <v>0.446129</v>
+        <v>0.443542</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.467516</v>
+        <v>0.466138</v>
       </c>
       <c r="C78" t="n">
-        <v>0.444276</v>
+        <v>0.437437</v>
       </c>
       <c r="D78" t="n">
-        <v>0.444538</v>
+        <v>0.442244</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.465606</v>
+        <v>0.464381</v>
       </c>
       <c r="C79" t="n">
-        <v>0.44264</v>
+        <v>0.435675</v>
       </c>
       <c r="D79" t="n">
-        <v>0.444771</v>
+        <v>0.442976</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465463</v>
+        <v>0.464666</v>
       </c>
       <c r="C80" t="n">
-        <v>0.442975</v>
+        <v>0.436442</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5392130000000001</v>
+        <v>0.535654</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.570817</v>
+        <v>0.5702970000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.541123</v>
+        <v>0.531842</v>
       </c>
       <c r="D81" t="n">
-        <v>0.531153</v>
+        <v>0.526624</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565044</v>
+        <v>0.564472</v>
       </c>
       <c r="C82" t="n">
-        <v>0.533287</v>
+        <v>0.523473</v>
       </c>
       <c r="D82" t="n">
-        <v>0.523274</v>
+        <v>0.517988</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.559513</v>
+        <v>0.558813</v>
       </c>
       <c r="C83" t="n">
-        <v>0.525746</v>
+        <v>0.514709</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5159319999999999</v>
+        <v>0.509648</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.553937</v>
+        <v>0.552996</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5184299999999999</v>
+        <v>0.506466</v>
       </c>
       <c r="D84" t="n">
-        <v>0.508871</v>
+        <v>0.501557</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.548414</v>
+        <v>0.547574</v>
       </c>
       <c r="C85" t="n">
-        <v>0.511501</v>
+        <v>0.498529</v>
       </c>
       <c r="D85" t="n">
-        <v>0.501933</v>
+        <v>0.494094</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.542655</v>
+        <v>0.541847</v>
       </c>
       <c r="C86" t="n">
-        <v>0.504596</v>
+        <v>0.491409</v>
       </c>
       <c r="D86" t="n">
-        <v>0.495498</v>
+        <v>0.486998</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.536786</v>
+        <v>0.535991</v>
       </c>
       <c r="C87" t="n">
-        <v>0.497714</v>
+        <v>0.484166</v>
       </c>
       <c r="D87" t="n">
-        <v>0.489134</v>
+        <v>0.480264</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.53079</v>
+        <v>0.5300859999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.491502</v>
+        <v>0.47752</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4834</v>
+        <v>0.474053</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.525126</v>
+        <v>0.524235</v>
       </c>
       <c r="C89" t="n">
-        <v>0.485723</v>
+        <v>0.47122</v>
       </c>
       <c r="D89" t="n">
-        <v>0.478312</v>
+        <v>0.468705</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.519614</v>
+        <v>0.518742</v>
       </c>
       <c r="C90" t="n">
-        <v>0.480292</v>
+        <v>0.465585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4737</v>
+        <v>0.464128</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.514779</v>
+        <v>0.513982</v>
       </c>
       <c r="C91" t="n">
-        <v>0.475673</v>
+        <v>0.460977</v>
       </c>
       <c r="D91" t="n">
-        <v>0.470427</v>
+        <v>0.460693</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.51068</v>
+        <v>0.510024</v>
       </c>
       <c r="C92" t="n">
-        <v>0.471984</v>
+        <v>0.457123</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468037</v>
+        <v>0.458529</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5074070000000001</v>
+        <v>0.506941</v>
       </c>
       <c r="C93" t="n">
-        <v>0.469351</v>
+        <v>0.454857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.467564</v>
+        <v>0.458538</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.506235</v>
+        <v>0.505536</v>
       </c>
       <c r="C94" t="n">
-        <v>0.468677</v>
+        <v>0.454776</v>
       </c>
       <c r="D94" t="n">
-        <v>0.578002</v>
+        <v>0.56625</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.606048</v>
+        <v>0.605152</v>
       </c>
       <c r="C95" t="n">
-        <v>0.574503</v>
+        <v>0.559557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.579534</v>
+        <v>0.565349</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.612462</v>
+        <v>0.612201</v>
       </c>
       <c r="C96" t="n">
-        <v>0.579256</v>
+        <v>0.5606910000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.578076</v>
+        <v>0.562577</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6145699999999999</v>
+        <v>0.614757</v>
       </c>
       <c r="C97" t="n">
-        <v>0.578952</v>
+        <v>0.558297</v>
       </c>
       <c r="D97" t="n">
-        <v>0.575273</v>
+        <v>0.558748</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.614874</v>
+        <v>0.6151450000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.576777</v>
+        <v>0.55516</v>
       </c>
       <c r="D98" t="n">
-        <v>0.571835</v>
+        <v>0.554569</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.613658</v>
+        <v>0.614604</v>
       </c>
       <c r="C99" t="n">
-        <v>0.573821</v>
+        <v>0.551396</v>
       </c>
       <c r="D99" t="n">
-        <v>0.567923</v>
+        <v>0.550353</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.611897</v>
+        <v>0.613258</v>
       </c>
       <c r="C100" t="n">
-        <v>0.570914</v>
+        <v>0.547736</v>
       </c>
       <c r="D100" t="n">
-        <v>0.563939</v>
+        <v>0.546139</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.609639</v>
+        <v>0.6113</v>
       </c>
       <c r="C101" t="n">
-        <v>0.567667</v>
+        <v>0.543643</v>
       </c>
       <c r="D101" t="n">
-        <v>0.560118</v>
+        <v>0.542118</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.607046</v>
+        <v>0.608959</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5644130000000001</v>
+        <v>0.53993</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556202</v>
+        <v>0.538413</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6044040000000001</v>
+        <v>0.606739</v>
       </c>
       <c r="C103" t="n">
-        <v>0.56126</v>
+        <v>0.536642</v>
       </c>
       <c r="D103" t="n">
-        <v>0.552561</v>
+        <v>0.535133</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.602025</v>
+        <v>0.604706</v>
       </c>
       <c r="C104" t="n">
-        <v>0.558326</v>
+        <v>0.533896</v>
       </c>
       <c r="D104" t="n">
-        <v>0.549378</v>
+        <v>0.532449</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.599808</v>
+        <v>0.602678</v>
       </c>
       <c r="C105" t="n">
-        <v>0.555867</v>
+        <v>0.531649</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5469349999999999</v>
+        <v>0.5308310000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5977980000000001</v>
+        <v>0.601208</v>
       </c>
       <c r="C106" t="n">
-        <v>0.553644</v>
+        <v>0.5301129999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.54493</v>
+        <v>0.5298659999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5964429999999999</v>
+        <v>0.600065</v>
       </c>
       <c r="C107" t="n">
-        <v>0.552311</v>
+        <v>0.529689</v>
       </c>
       <c r="D107" t="n">
-        <v>0.544177</v>
+        <v>0.530394</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.596491</v>
+        <v>0.600005</v>
       </c>
       <c r="C108" t="n">
-        <v>0.552312</v>
+        <v>0.530822</v>
       </c>
       <c r="D108" t="n">
-        <v>0.72365</v>
+        <v>0.701983</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.597828</v>
+        <v>0.603403</v>
       </c>
       <c r="C109" t="n">
-        <v>0.554894</v>
+        <v>0.533508</v>
       </c>
       <c r="D109" t="n">
-        <v>0.727487</v>
+        <v>0.702336</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.755153</v>
+        <v>0.7545230000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.696963</v>
+        <v>0.667179</v>
       </c>
       <c r="D110" t="n">
-        <v>0.725106</v>
+        <v>0.697416</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.756196</v>
+        <v>0.755355</v>
       </c>
       <c r="C111" t="n">
-        <v>0.696946</v>
+        <v>0.663397</v>
       </c>
       <c r="D111" t="n">
-        <v>0.722163</v>
+        <v>0.693097</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.759289</v>
+        <v>0.756175</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6966</v>
+        <v>0.66015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.72056</v>
+        <v>0.688903</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.760305</v>
+        <v>0.7575190000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.695883</v>
+        <v>0.65582</v>
       </c>
       <c r="D113" t="n">
-        <v>0.718587</v>
+        <v>0.686551</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.760668</v>
+        <v>0.760325</v>
       </c>
       <c r="C114" t="n">
-        <v>0.695886</v>
+        <v>0.656582</v>
       </c>
       <c r="D114" t="n">
-        <v>0.716181</v>
+        <v>0.683499</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.762193</v>
+        <v>0.761796</v>
       </c>
       <c r="C115" t="n">
-        <v>0.694565</v>
+        <v>0.65582</v>
       </c>
       <c r="D115" t="n">
-        <v>0.71358</v>
+        <v>0.681592</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.763294</v>
+        <v>0.761646</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694492</v>
+        <v>0.653103</v>
       </c>
       <c r="D116" t="n">
-        <v>0.711487</v>
+        <v>0.680709</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.764768</v>
+        <v>0.764884</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6934360000000001</v>
+        <v>0.6524759999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.710074</v>
+        <v>0.679913</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.764347</v>
+        <v>0.766554</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6940190000000001</v>
+        <v>0.6518040000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7093930000000001</v>
+        <v>0.679579</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.766691</v>
+        <v>0.766074</v>
       </c>
       <c r="C119" t="n">
-        <v>0.694192</v>
+        <v>0.653742</v>
       </c>
       <c r="D119" t="n">
-        <v>0.707762</v>
+        <v>0.68005</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.768007</v>
+        <v>0.7683950000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.694484</v>
+        <v>0.6571630000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.705014</v>
+        <v>0.682461</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.768837</v>
+        <v>0.769651</v>
       </c>
       <c r="C121" t="n">
-        <v>0.695686</v>
+        <v>0.659832</v>
       </c>
       <c r="D121" t="n">
-        <v>0.707085</v>
+        <v>0.686115</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.770428</v>
+        <v>0.772598</v>
       </c>
       <c r="C122" t="n">
-        <v>0.697182</v>
+        <v>0.664527</v>
       </c>
       <c r="D122" t="n">
-        <v>0.706321</v>
+        <v>0.690037</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.773575</v>
+        <v>0.7759200000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.699615</v>
+        <v>0.671118</v>
       </c>
       <c r="D123" t="n">
-        <v>0.851166</v>
+        <v>0.823307</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.93146</v>
+        <v>0.930623</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8451109999999999</v>
+        <v>0.80813</v>
       </c>
       <c r="D124" t="n">
-        <v>0.851846</v>
+        <v>0.8194979999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.933186</v>
+        <v>0.932616</v>
       </c>
       <c r="C125" t="n">
-        <v>0.846616</v>
+        <v>0.8038650000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.85127</v>
+        <v>0.815127</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9333</v>
+        <v>0.934137</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8468329999999999</v>
+        <v>0.799587</v>
       </c>
       <c r="D126" t="n">
-        <v>0.852457</v>
+        <v>0.811325</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.934256</v>
+        <v>0.93538</v>
       </c>
       <c r="C127" t="n">
-        <v>0.847678</v>
+        <v>0.796885</v>
       </c>
       <c r="D127" t="n">
-        <v>0.852116</v>
+        <v>0.808252</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.934895</v>
+        <v>0.936036</v>
       </c>
       <c r="C128" t="n">
-        <v>0.848871</v>
+        <v>0.7922400000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.852938</v>
+        <v>0.805799</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.935661</v>
+        <v>0.937862</v>
       </c>
       <c r="C129" t="n">
-        <v>0.849813</v>
+        <v>0.789273</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853229</v>
+        <v>0.803723</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.938156</v>
+        <v>0.939424</v>
       </c>
       <c r="C130" t="n">
-        <v>0.851025</v>
+        <v>0.787868</v>
       </c>
       <c r="D130" t="n">
-        <v>0.853957</v>
+        <v>0.802129</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.939143</v>
+        <v>0.940233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.851518</v>
+        <v>0.786776</v>
       </c>
       <c r="D131" t="n">
-        <v>0.854308</v>
+        <v>0.801752</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.939764</v>
+        <v>0.942729</v>
       </c>
       <c r="C132" t="n">
-        <v>0.85255</v>
+        <v>0.786802</v>
       </c>
       <c r="D132" t="n">
-        <v>0.85587</v>
+        <v>0.802188</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.941287</v>
+        <v>0.943347</v>
       </c>
       <c r="C133" t="n">
-        <v>0.855554</v>
+        <v>0.788107</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8570489999999999</v>
+        <v>0.8045679999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.942846</v>
+        <v>0.946007</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8573730000000001</v>
+        <v>0.78987</v>
       </c>
       <c r="D134" t="n">
-        <v>0.857814</v>
+        <v>0.807818</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9449</v>
+        <v>0.94782</v>
       </c>
       <c r="C135" t="n">
-        <v>0.858534</v>
+        <v>0.793091</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8585429999999999</v>
+        <v>0.8126060000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9475170000000001</v>
+        <v>0.951413</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8617899999999999</v>
+        <v>0.798524</v>
       </c>
       <c r="D136" t="n">
-        <v>0.86031</v>
+        <v>0.819591</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.949863</v>
+        <v>0.954308</v>
       </c>
       <c r="C137" t="n">
-        <v>0.864743</v>
+        <v>0.805388</v>
       </c>
       <c r="D137" t="n">
-        <v>1.00194</v>
+        <v>0.956305</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09828</v>
+        <v>1.09976</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00705</v>
+        <v>0.944748</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00213</v>
+        <v>0.949782</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09708</v>
+        <v>1.09872</v>
       </c>
       <c r="C139" t="n">
-        <v>1.00567</v>
+        <v>0.936705</v>
       </c>
       <c r="D139" t="n">
-        <v>1.00293</v>
+        <v>0.94312</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09607</v>
+        <v>1.09796</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00605</v>
+        <v>0.9306</v>
       </c>
       <c r="D140" t="n">
-        <v>1.00208</v>
+        <v>0.9376989999999999</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09485</v>
+        <v>1.0981</v>
       </c>
       <c r="C141" t="n">
-        <v>1.00617</v>
+        <v>0.925332</v>
       </c>
       <c r="D141" t="n">
-        <v>1.00257</v>
+        <v>0.932317</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09367</v>
+        <v>1.09776</v>
       </c>
       <c r="C142" t="n">
-        <v>1.00732</v>
+        <v>0.919749</v>
       </c>
       <c r="D142" t="n">
-        <v>1.00296</v>
+        <v>0.9282820000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09249</v>
+        <v>1.09769</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00699</v>
+        <v>0.915324</v>
       </c>
       <c r="D143" t="n">
-        <v>1.00339</v>
+        <v>0.924119</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.44483</v>
+        <v>0.442545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410696</v>
+        <v>0.409637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.413424</v>
+        <v>0.421528</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4368</v>
+        <v>0.432679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.402233</v>
+        <v>0.401466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.405856</v>
+        <v>0.413248</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.432251</v>
+        <v>0.42836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.397639</v>
+        <v>0.396708</v>
       </c>
       <c r="D4" t="n">
-        <v>0.40197</v>
+        <v>0.409348</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.427776</v>
+        <v>0.424063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.394</v>
+        <v>0.392679</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39893</v>
+        <v>0.405796</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.421026</v>
+        <v>0.4174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.388648</v>
+        <v>0.387384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.394771</v>
+        <v>0.401283</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417906</v>
+        <v>0.414367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.385762</v>
+        <v>0.384703</v>
       </c>
       <c r="D7" t="n">
-        <v>0.394319</v>
+        <v>0.400406</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416814</v>
+        <v>0.413237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.385365</v>
+        <v>0.384345</v>
       </c>
       <c r="D8" t="n">
-        <v>0.396023</v>
+        <v>0.401655</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.419126</v>
+        <v>0.415694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388114</v>
+        <v>0.387486</v>
       </c>
       <c r="D9" t="n">
-        <v>0.481661</v>
+        <v>0.493793</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.500005</v>
+        <v>0.497361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470939</v>
+        <v>0.470616</v>
       </c>
       <c r="D10" t="n">
-        <v>0.471025</v>
+        <v>0.483029</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.490007</v>
+        <v>0.487668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.461441</v>
+        <v>0.460175</v>
       </c>
       <c r="D11" t="n">
-        <v>0.461333</v>
+        <v>0.472162</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.482382</v>
+        <v>0.479976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.453224</v>
+        <v>0.451947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.453385</v>
+        <v>0.463399</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.472596</v>
+        <v>0.470749</v>
       </c>
       <c r="C13" t="n">
-        <v>0.44354</v>
+        <v>0.442256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.443398</v>
+        <v>0.453362</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.465209</v>
+        <v>0.463493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.435644</v>
+        <v>0.434161</v>
       </c>
       <c r="D14" t="n">
-        <v>0.436462</v>
+        <v>0.445341</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.458413</v>
+        <v>0.456436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.428287</v>
+        <v>0.426664</v>
       </c>
       <c r="D15" t="n">
-        <v>0.429387</v>
+        <v>0.437681</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.451604</v>
+        <v>0.449762</v>
       </c>
       <c r="C16" t="n">
-        <v>0.42081</v>
+        <v>0.419261</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422452</v>
+        <v>0.430513</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.444772</v>
+        <v>0.44301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.414381</v>
+        <v>0.412414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.416234</v>
+        <v>0.423938</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.438439</v>
+        <v>0.436759</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406644</v>
+        <v>0.405824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.409736</v>
+        <v>0.417058</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.434095</v>
+        <v>0.432334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.403406</v>
+        <v>0.401327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.406041</v>
+        <v>0.413183</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.428167</v>
+        <v>0.4268</v>
       </c>
       <c r="C20" t="n">
-        <v>0.396244</v>
+        <v>0.395724</v>
       </c>
       <c r="D20" t="n">
-        <v>0.401424</v>
+        <v>0.408298</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.425101</v>
+        <v>0.423442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.394836</v>
+        <v>0.392797</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400413</v>
+        <v>0.406314</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.42275</v>
+        <v>0.421082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.39255</v>
+        <v>0.390469</v>
       </c>
       <c r="D22" t="n">
-        <v>0.40001</v>
+        <v>0.405271</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.422421</v>
+        <v>0.420945</v>
       </c>
       <c r="C23" t="n">
-        <v>0.392427</v>
+        <v>0.39076</v>
       </c>
       <c r="D23" t="n">
-        <v>0.486728</v>
+        <v>0.499257</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.506648</v>
+        <v>0.506765</v>
       </c>
       <c r="C24" t="n">
-        <v>0.47917</v>
+        <v>0.47753</v>
       </c>
       <c r="D24" t="n">
-        <v>0.478177</v>
+        <v>0.489369</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.497313</v>
+        <v>0.496764</v>
       </c>
       <c r="C25" t="n">
-        <v>0.46956</v>
+        <v>0.467011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.466849</v>
+        <v>0.478433</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.48884</v>
+        <v>0.488544</v>
       </c>
       <c r="C26" t="n">
-        <v>0.45919</v>
+        <v>0.457809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.458558</v>
+        <v>0.469096</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479739</v>
+        <v>0.479854</v>
       </c>
       <c r="C27" t="n">
-        <v>0.449373</v>
+        <v>0.448613</v>
       </c>
       <c r="D27" t="n">
-        <v>0.449452</v>
+        <v>0.45985</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.473066</v>
+        <v>0.472675</v>
       </c>
       <c r="C28" t="n">
-        <v>0.441624</v>
+        <v>0.440962</v>
       </c>
       <c r="D28" t="n">
-        <v>0.44309</v>
+        <v>0.452039</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.465042</v>
+        <v>0.464625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.433663</v>
+        <v>0.432311</v>
       </c>
       <c r="D29" t="n">
-        <v>0.434584</v>
+        <v>0.443137</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.457782</v>
+        <v>0.457681</v>
       </c>
       <c r="C30" t="n">
-        <v>0.425952</v>
+        <v>0.425126</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427733</v>
+        <v>0.435945</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.451344</v>
+        <v>0.450915</v>
       </c>
       <c r="C31" t="n">
-        <v>0.418816</v>
+        <v>0.418115</v>
       </c>
       <c r="D31" t="n">
-        <v>0.420899</v>
+        <v>0.428938</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.445773</v>
+        <v>0.445235</v>
       </c>
       <c r="C32" t="n">
-        <v>0.41304</v>
+        <v>0.41307</v>
       </c>
       <c r="D32" t="n">
-        <v>0.415618</v>
+        <v>0.423609</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.439799</v>
+        <v>0.439898</v>
       </c>
       <c r="C33" t="n">
-        <v>0.407619</v>
+        <v>0.406794</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411612</v>
+        <v>0.418272</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434955</v>
+        <v>0.434927</v>
       </c>
       <c r="C34" t="n">
-        <v>0.403355</v>
+        <v>0.401746</v>
       </c>
       <c r="D34" t="n">
-        <v>0.407641</v>
+        <v>0.413919</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.430428</v>
+        <v>0.430478</v>
       </c>
       <c r="C35" t="n">
-        <v>0.398508</v>
+        <v>0.39762</v>
       </c>
       <c r="D35" t="n">
-        <v>0.403916</v>
+        <v>0.410646</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.427644</v>
+        <v>0.427633</v>
       </c>
       <c r="C36" t="n">
-        <v>0.396085</v>
+        <v>0.395349</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403489</v>
+        <v>0.409776</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426743</v>
+        <v>0.426727</v>
       </c>
       <c r="C37" t="n">
-        <v>0.396091</v>
+        <v>0.395266</v>
       </c>
       <c r="D37" t="n">
-        <v>0.494919</v>
+        <v>0.507593</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.508046</v>
+        <v>0.50832</v>
       </c>
       <c r="C38" t="n">
-        <v>0.485674</v>
+        <v>0.491817</v>
       </c>
       <c r="D38" t="n">
-        <v>0.485677</v>
+        <v>0.496844</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.500391</v>
+        <v>0.500657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.476644</v>
+        <v>0.482458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.477151</v>
+        <v>0.487451</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.491944</v>
+        <v>0.49186</v>
       </c>
       <c r="C40" t="n">
-        <v>0.467109</v>
+        <v>0.472534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.466989</v>
+        <v>0.477759</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.483774</v>
+        <v>0.483981</v>
       </c>
       <c r="C41" t="n">
-        <v>0.458321</v>
+        <v>0.463693</v>
       </c>
       <c r="D41" t="n">
-        <v>0.458608</v>
+        <v>0.469356</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.47753</v>
+        <v>0.476673</v>
       </c>
       <c r="C42" t="n">
-        <v>0.450426</v>
+        <v>0.456201</v>
       </c>
       <c r="D42" t="n">
-        <v>0.450959</v>
+        <v>0.460742</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.469284</v>
+        <v>0.4695</v>
       </c>
       <c r="C43" t="n">
-        <v>0.442617</v>
+        <v>0.447874</v>
       </c>
       <c r="D43" t="n">
-        <v>0.443693</v>
+        <v>0.452793</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.462907</v>
+        <v>0.463126</v>
       </c>
       <c r="C44" t="n">
-        <v>0.43549</v>
+        <v>0.440386</v>
       </c>
       <c r="D44" t="n">
-        <v>0.437084</v>
+        <v>0.445687</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.456657</v>
+        <v>0.456719</v>
       </c>
       <c r="C45" t="n">
-        <v>0.428919</v>
+        <v>0.433214</v>
       </c>
       <c r="D45" t="n">
-        <v>0.431098</v>
+        <v>0.438879</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4509</v>
+        <v>0.45088</v>
       </c>
       <c r="C46" t="n">
-        <v>0.422931</v>
+        <v>0.427392</v>
       </c>
       <c r="D46" t="n">
-        <v>0.425538</v>
+        <v>0.433069</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.445567</v>
+        <v>0.445544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.417187</v>
+        <v>0.421156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.42051</v>
+        <v>0.427905</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.44094</v>
+        <v>0.441019</v>
       </c>
       <c r="C48" t="n">
-        <v>0.412652</v>
+        <v>0.41788</v>
       </c>
       <c r="D48" t="n">
-        <v>0.416884</v>
+        <v>0.423589</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.437247</v>
+        <v>0.437135</v>
       </c>
       <c r="C49" t="n">
-        <v>0.409056</v>
+        <v>0.41293</v>
       </c>
       <c r="D49" t="n">
-        <v>0.414477</v>
+        <v>0.420706</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.434766</v>
+        <v>0.434702</v>
       </c>
       <c r="C50" t="n">
-        <v>0.406823</v>
+        <v>0.410429</v>
       </c>
       <c r="D50" t="n">
-        <v>0.413952</v>
+        <v>0.419941</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.433127</v>
+        <v>0.433059</v>
       </c>
       <c r="C51" t="n">
-        <v>0.405901</v>
+        <v>0.409335</v>
       </c>
       <c r="D51" t="n">
-        <v>0.50789</v>
+        <v>0.519991</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.434235</v>
+        <v>0.43401</v>
       </c>
       <c r="C52" t="n">
-        <v>0.407954</v>
+        <v>0.411074</v>
       </c>
       <c r="D52" t="n">
-        <v>0.498302</v>
+        <v>0.509698</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.510255</v>
+        <v>0.510149</v>
       </c>
       <c r="C53" t="n">
-        <v>0.492457</v>
+        <v>0.497211</v>
       </c>
       <c r="D53" t="n">
-        <v>0.489804</v>
+        <v>0.500185</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.502199</v>
+        <v>0.502458</v>
       </c>
       <c r="C54" t="n">
-        <v>0.48315</v>
+        <v>0.487555</v>
       </c>
       <c r="D54" t="n">
-        <v>0.481042</v>
+        <v>0.491232</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.494894</v>
+        <v>0.495128</v>
       </c>
       <c r="C55" t="n">
-        <v>0.474395</v>
+        <v>0.479085</v>
       </c>
       <c r="D55" t="n">
-        <v>0.472858</v>
+        <v>0.482717</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.487801</v>
+        <v>0.488281</v>
       </c>
       <c r="C56" t="n">
-        <v>0.466364</v>
+        <v>0.470499</v>
       </c>
       <c r="D56" t="n">
-        <v>0.464977</v>
+        <v>0.473853</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.481126</v>
+        <v>0.481753</v>
       </c>
       <c r="C57" t="n">
-        <v>0.458735</v>
+        <v>0.462847</v>
       </c>
       <c r="D57" t="n">
-        <v>0.457657</v>
+        <v>0.466097</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.474686</v>
+        <v>0.475453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.451653</v>
+        <v>0.455132</v>
       </c>
       <c r="D58" t="n">
-        <v>0.450785</v>
+        <v>0.459062</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.468781</v>
+        <v>0.469714</v>
       </c>
       <c r="C59" t="n">
-        <v>0.444983</v>
+        <v>0.448477</v>
       </c>
       <c r="D59" t="n">
-        <v>0.444762</v>
+        <v>0.452468</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.463411</v>
+        <v>0.464595</v>
       </c>
       <c r="C60" t="n">
-        <v>0.439197</v>
+        <v>0.443966</v>
       </c>
       <c r="D60" t="n">
-        <v>0.439351</v>
+        <v>0.446688</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.458369</v>
+        <v>0.459526</v>
       </c>
       <c r="C61" t="n">
-        <v>0.433506</v>
+        <v>0.43753</v>
       </c>
       <c r="D61" t="n">
-        <v>0.434567</v>
+        <v>0.44167</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.453928</v>
+        <v>0.455167</v>
       </c>
       <c r="C62" t="n">
-        <v>0.428807</v>
+        <v>0.431875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.431304</v>
+        <v>0.437491</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.450226</v>
+        <v>0.451645</v>
       </c>
       <c r="C63" t="n">
-        <v>0.425218</v>
+        <v>0.427915</v>
       </c>
       <c r="D63" t="n">
-        <v>0.428447</v>
+        <v>0.434811</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.447571</v>
+        <v>0.44902</v>
       </c>
       <c r="C64" t="n">
-        <v>0.422699</v>
+        <v>0.426105</v>
       </c>
       <c r="D64" t="n">
-        <v>0.427882</v>
+        <v>0.43359</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.445924</v>
+        <v>0.447513</v>
       </c>
       <c r="C65" t="n">
-        <v>0.421615</v>
+        <v>0.424027</v>
       </c>
       <c r="D65" t="n">
-        <v>0.430398</v>
+        <v>0.434784</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.446576</v>
+        <v>0.448319</v>
       </c>
       <c r="C66" t="n">
-        <v>0.423357</v>
+        <v>0.425384</v>
       </c>
       <c r="D66" t="n">
-        <v>0.515953</v>
+        <v>0.527798</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.52987</v>
+        <v>0.530688</v>
       </c>
       <c r="C67" t="n">
-        <v>0.510089</v>
+        <v>0.512661</v>
       </c>
       <c r="D67" t="n">
-        <v>0.506376</v>
+        <v>0.51767</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.521589</v>
+        <v>0.522471</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5009209999999999</v>
+        <v>0.503042</v>
       </c>
       <c r="D68" t="n">
-        <v>0.497322</v>
+        <v>0.507903</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.514074</v>
+        <v>0.515213</v>
       </c>
       <c r="C69" t="n">
-        <v>0.492135</v>
+        <v>0.494411</v>
       </c>
       <c r="D69" t="n">
-        <v>0.489086</v>
+        <v>0.499122</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507012</v>
+        <v>0.507874</v>
       </c>
       <c r="C70" t="n">
-        <v>0.482612</v>
+        <v>0.485391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.481269</v>
+        <v>0.490589</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.499864</v>
+        <v>0.501158</v>
       </c>
       <c r="C71" t="n">
-        <v>0.474921</v>
+        <v>0.477953</v>
       </c>
       <c r="D71" t="n">
-        <v>0.473889</v>
+        <v>0.482569</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.493777</v>
+        <v>0.494714</v>
       </c>
       <c r="C72" t="n">
-        <v>0.467655</v>
+        <v>0.470538</v>
       </c>
       <c r="D72" t="n">
-        <v>0.466863</v>
+        <v>0.475042</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.487938</v>
+        <v>0.488847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.460808</v>
+        <v>0.464791</v>
       </c>
       <c r="D73" t="n">
-        <v>0.460829</v>
+        <v>0.468504</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.481983</v>
+        <v>0.483351</v>
       </c>
       <c r="C74" t="n">
-        <v>0.454484</v>
+        <v>0.456534</v>
       </c>
       <c r="D74" t="n">
-        <v>0.45462</v>
+        <v>0.462192</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.47741</v>
+        <v>0.478333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.448978</v>
+        <v>0.451107</v>
       </c>
       <c r="D75" t="n">
-        <v>0.450346</v>
+        <v>0.457033</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.472825</v>
+        <v>0.473668</v>
       </c>
       <c r="C76" t="n">
-        <v>0.444351</v>
+        <v>0.446855</v>
       </c>
       <c r="D76" t="n">
-        <v>0.446157</v>
+        <v>0.452488</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.468649</v>
+        <v>0.469861</v>
       </c>
       <c r="C77" t="n">
-        <v>0.440097</v>
+        <v>0.442172</v>
       </c>
       <c r="D77" t="n">
-        <v>0.443542</v>
+        <v>0.4491</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.466138</v>
+        <v>0.467096</v>
       </c>
       <c r="C78" t="n">
-        <v>0.437437</v>
+        <v>0.439279</v>
       </c>
       <c r="D78" t="n">
-        <v>0.442244</v>
+        <v>0.447421</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.464381</v>
+        <v>0.465436</v>
       </c>
       <c r="C79" t="n">
-        <v>0.435675</v>
+        <v>0.438267</v>
       </c>
       <c r="D79" t="n">
-        <v>0.442976</v>
+        <v>0.448053</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.464666</v>
+        <v>0.465485</v>
       </c>
       <c r="C80" t="n">
-        <v>0.436442</v>
+        <v>0.438449</v>
       </c>
       <c r="D80" t="n">
-        <v>0.535654</v>
+        <v>0.545772</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5702970000000001</v>
+        <v>0.570924</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531842</v>
+        <v>0.531986</v>
       </c>
       <c r="D81" t="n">
-        <v>0.526624</v>
+        <v>0.536151</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.564472</v>
+        <v>0.565449</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523473</v>
+        <v>0.523238</v>
       </c>
       <c r="D82" t="n">
-        <v>0.517988</v>
+        <v>0.526865</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.558813</v>
+        <v>0.559872</v>
       </c>
       <c r="C83" t="n">
-        <v>0.514709</v>
+        <v>0.51464</v>
       </c>
       <c r="D83" t="n">
-        <v>0.509648</v>
+        <v>0.518053</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.552996</v>
+        <v>0.554724</v>
       </c>
       <c r="C84" t="n">
-        <v>0.506466</v>
+        <v>0.5063029999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.501557</v>
+        <v>0.509806</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.547574</v>
+        <v>0.549229</v>
       </c>
       <c r="C85" t="n">
-        <v>0.498529</v>
+        <v>0.49859</v>
       </c>
       <c r="D85" t="n">
-        <v>0.494094</v>
+        <v>0.50177</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.541847</v>
+        <v>0.543107</v>
       </c>
       <c r="C86" t="n">
-        <v>0.491409</v>
+        <v>0.490864</v>
       </c>
       <c r="D86" t="n">
-        <v>0.486998</v>
+        <v>0.493985</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.535991</v>
+        <v>0.537216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.484166</v>
+        <v>0.483771</v>
       </c>
       <c r="D87" t="n">
-        <v>0.480264</v>
+        <v>0.486878</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5300859999999999</v>
+        <v>0.531227</v>
       </c>
       <c r="C88" t="n">
-        <v>0.47752</v>
+        <v>0.476801</v>
       </c>
       <c r="D88" t="n">
-        <v>0.474053</v>
+        <v>0.480035</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.524235</v>
+        <v>0.525272</v>
       </c>
       <c r="C89" t="n">
-        <v>0.47122</v>
+        <v>0.470641</v>
       </c>
       <c r="D89" t="n">
-        <v>0.468705</v>
+        <v>0.474488</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.518742</v>
+        <v>0.519943</v>
       </c>
       <c r="C90" t="n">
-        <v>0.465585</v>
+        <v>0.465029</v>
       </c>
       <c r="D90" t="n">
-        <v>0.464128</v>
+        <v>0.469457</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.513982</v>
+        <v>0.514812</v>
       </c>
       <c r="C91" t="n">
-        <v>0.460977</v>
+        <v>0.460115</v>
       </c>
       <c r="D91" t="n">
-        <v>0.460693</v>
+        <v>0.465452</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.510024</v>
+        <v>0.51074</v>
       </c>
       <c r="C92" t="n">
-        <v>0.457123</v>
+        <v>0.456381</v>
       </c>
       <c r="D92" t="n">
-        <v>0.458529</v>
+        <v>0.462855</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.506941</v>
+        <v>0.507574</v>
       </c>
       <c r="C93" t="n">
-        <v>0.454857</v>
+        <v>0.454005</v>
       </c>
       <c r="D93" t="n">
-        <v>0.458538</v>
+        <v>0.46259</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.505536</v>
+        <v>0.506355</v>
       </c>
       <c r="C94" t="n">
-        <v>0.454776</v>
+        <v>0.453695</v>
       </c>
       <c r="D94" t="n">
-        <v>0.56625</v>
+        <v>0.568039</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.605152</v>
+        <v>0.605894</v>
       </c>
       <c r="C95" t="n">
-        <v>0.559557</v>
+        <v>0.558385</v>
       </c>
       <c r="D95" t="n">
-        <v>0.565349</v>
+        <v>0.566519</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.612201</v>
+        <v>0.612743</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5606910000000001</v>
+        <v>0.558985</v>
       </c>
       <c r="D96" t="n">
-        <v>0.562577</v>
+        <v>0.563204</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.614757</v>
+        <v>0.615487</v>
       </c>
       <c r="C97" t="n">
-        <v>0.558297</v>
+        <v>0.556893</v>
       </c>
       <c r="D97" t="n">
-        <v>0.558748</v>
+        <v>0.559186</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6151450000000001</v>
+        <v>0.615519</v>
       </c>
       <c r="C98" t="n">
-        <v>0.55516</v>
+        <v>0.553657</v>
       </c>
       <c r="D98" t="n">
-        <v>0.554569</v>
+        <v>0.554754</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.614604</v>
+        <v>0.614814</v>
       </c>
       <c r="C99" t="n">
-        <v>0.551396</v>
+        <v>0.549956</v>
       </c>
       <c r="D99" t="n">
-        <v>0.550353</v>
+        <v>0.550176</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.613258</v>
+        <v>0.612997</v>
       </c>
       <c r="C100" t="n">
-        <v>0.547736</v>
+        <v>0.546028</v>
       </c>
       <c r="D100" t="n">
-        <v>0.546139</v>
+        <v>0.5457340000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6113</v>
+        <v>0.610907</v>
       </c>
       <c r="C101" t="n">
-        <v>0.543643</v>
+        <v>0.54227</v>
       </c>
       <c r="D101" t="n">
-        <v>0.542118</v>
+        <v>0.541533</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.608959</v>
+        <v>0.608572</v>
       </c>
       <c r="C102" t="n">
-        <v>0.53993</v>
+        <v>0.538512</v>
       </c>
       <c r="D102" t="n">
-        <v>0.538413</v>
+        <v>0.537521</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.606739</v>
+        <v>0.60624</v>
       </c>
       <c r="C103" t="n">
-        <v>0.536642</v>
+        <v>0.535158</v>
       </c>
       <c r="D103" t="n">
-        <v>0.535133</v>
+        <v>0.5340549999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.604706</v>
+        <v>0.603939</v>
       </c>
       <c r="C104" t="n">
-        <v>0.533896</v>
+        <v>0.532321</v>
       </c>
       <c r="D104" t="n">
-        <v>0.532449</v>
+        <v>0.531374</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.602678</v>
+        <v>0.602138</v>
       </c>
       <c r="C105" t="n">
-        <v>0.531649</v>
+        <v>0.530254</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5308310000000001</v>
+        <v>0.5294759999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.601208</v>
+        <v>0.600244</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5301129999999999</v>
+        <v>0.528748</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5298659999999999</v>
+        <v>0.528274</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.600065</v>
+        <v>0.599024</v>
       </c>
       <c r="C107" t="n">
-        <v>0.529689</v>
+        <v>0.52841</v>
       </c>
       <c r="D107" t="n">
-        <v>0.530394</v>
+        <v>0.528797</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.600005</v>
+        <v>0.598917</v>
       </c>
       <c r="C108" t="n">
-        <v>0.530822</v>
+        <v>0.529446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.701983</v>
+        <v>0.714036</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.603403</v>
+        <v>0.599776</v>
       </c>
       <c r="C109" t="n">
-        <v>0.533508</v>
+        <v>0.5313290000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.702336</v>
+        <v>0.711936</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7545230000000001</v>
+        <v>0.7536620000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.667179</v>
+        <v>0.665683</v>
       </c>
       <c r="D110" t="n">
-        <v>0.697416</v>
+        <v>0.70705</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.755355</v>
+        <v>0.7560750000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663397</v>
+        <v>0.6623289999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.693097</v>
+        <v>0.702745</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.756175</v>
+        <v>0.7565229999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.66015</v>
+        <v>0.660841</v>
       </c>
       <c r="D112" t="n">
-        <v>0.688903</v>
+        <v>0.698299</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7575190000000001</v>
+        <v>0.75608</v>
       </c>
       <c r="C113" t="n">
-        <v>0.65582</v>
+        <v>0.656587</v>
       </c>
       <c r="D113" t="n">
-        <v>0.686551</v>
+        <v>0.694874</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.760325</v>
+        <v>0.758888</v>
       </c>
       <c r="C114" t="n">
-        <v>0.656582</v>
+        <v>0.654694</v>
       </c>
       <c r="D114" t="n">
-        <v>0.683499</v>
+        <v>0.692255</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.761796</v>
+        <v>0.760885</v>
       </c>
       <c r="C115" t="n">
-        <v>0.65582</v>
+        <v>0.654501</v>
       </c>
       <c r="D115" t="n">
-        <v>0.681592</v>
+        <v>0.6891929999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.761646</v>
+        <v>0.762452</v>
       </c>
       <c r="C116" t="n">
-        <v>0.653103</v>
+        <v>0.652783</v>
       </c>
       <c r="D116" t="n">
-        <v>0.680709</v>
+        <v>0.68652</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.764884</v>
+        <v>0.762926</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6524759999999999</v>
+        <v>0.651613</v>
       </c>
       <c r="D117" t="n">
-        <v>0.679913</v>
+        <v>0.686115</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.766554</v>
+        <v>0.76503</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6518040000000001</v>
+        <v>0.65261</v>
       </c>
       <c r="D118" t="n">
-        <v>0.679579</v>
+        <v>0.685391</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.766074</v>
+        <v>0.7642409999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.653742</v>
+        <v>0.65225</v>
       </c>
       <c r="D119" t="n">
-        <v>0.68005</v>
+        <v>0.685554</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7683950000000001</v>
+        <v>0.76491</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6571630000000001</v>
+        <v>0.6551</v>
       </c>
       <c r="D120" t="n">
-        <v>0.682461</v>
+        <v>0.686923</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.769651</v>
+        <v>0.76698</v>
       </c>
       <c r="C121" t="n">
-        <v>0.659832</v>
+        <v>0.657707</v>
       </c>
       <c r="D121" t="n">
-        <v>0.686115</v>
+        <v>0.689926</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.772598</v>
+        <v>0.769818</v>
       </c>
       <c r="C122" t="n">
-        <v>0.664527</v>
+        <v>0.662784</v>
       </c>
       <c r="D122" t="n">
-        <v>0.690037</v>
+        <v>0.693078</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7759200000000001</v>
+        <v>0.772773</v>
       </c>
       <c r="C123" t="n">
-        <v>0.671118</v>
+        <v>0.668141</v>
       </c>
       <c r="D123" t="n">
-        <v>0.823307</v>
+        <v>0.83303</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.930623</v>
+        <v>0.92781</v>
       </c>
       <c r="C124" t="n">
-        <v>0.80813</v>
+        <v>0.806217</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8194979999999999</v>
+        <v>0.828333</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.932616</v>
+        <v>0.92924</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8038650000000001</v>
+        <v>0.800998</v>
       </c>
       <c r="D125" t="n">
-        <v>0.815127</v>
+        <v>0.822638</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.934137</v>
+        <v>0.930579</v>
       </c>
       <c r="C126" t="n">
-        <v>0.799587</v>
+        <v>0.796926</v>
       </c>
       <c r="D126" t="n">
-        <v>0.811325</v>
+        <v>0.818257</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.93538</v>
+        <v>0.932298</v>
       </c>
       <c r="C127" t="n">
-        <v>0.796885</v>
+        <v>0.794146</v>
       </c>
       <c r="D127" t="n">
-        <v>0.808252</v>
+        <v>0.815567</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.936036</v>
+        <v>0.933369</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7922400000000001</v>
+        <v>0.788955</v>
       </c>
       <c r="D128" t="n">
-        <v>0.805799</v>
+        <v>0.811778</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.937862</v>
+        <v>0.933397</v>
       </c>
       <c r="C129" t="n">
-        <v>0.789273</v>
+        <v>0.786606</v>
       </c>
       <c r="D129" t="n">
-        <v>0.803723</v>
+        <v>0.808821</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.939424</v>
+        <v>0.935053</v>
       </c>
       <c r="C130" t="n">
-        <v>0.787868</v>
+        <v>0.784686</v>
       </c>
       <c r="D130" t="n">
-        <v>0.802129</v>
+        <v>0.8069190000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.940233</v>
+        <v>0.93555</v>
       </c>
       <c r="C131" t="n">
-        <v>0.786776</v>
+        <v>0.783404</v>
       </c>
       <c r="D131" t="n">
-        <v>0.801752</v>
+        <v>0.806327</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.942729</v>
+        <v>0.9368030000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.786802</v>
+        <v>0.783146</v>
       </c>
       <c r="D132" t="n">
-        <v>0.802188</v>
+        <v>0.806206</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.943347</v>
+        <v>0.9385869999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.788107</v>
+        <v>0.784122</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8045679999999999</v>
+        <v>0.807557</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.946007</v>
+        <v>0.9417450000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.78987</v>
+        <v>0.78595</v>
       </c>
       <c r="D134" t="n">
-        <v>0.807818</v>
+        <v>0.810979</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.94782</v>
+        <v>0.943649</v>
       </c>
       <c r="C135" t="n">
-        <v>0.793091</v>
+        <v>0.789538</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8126060000000001</v>
+        <v>0.814839</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.951413</v>
+        <v>0.94575</v>
       </c>
       <c r="C136" t="n">
-        <v>0.798524</v>
+        <v>0.79444</v>
       </c>
       <c r="D136" t="n">
-        <v>0.819591</v>
+        <v>0.8213279999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.954308</v>
+        <v>0.949113</v>
       </c>
       <c r="C137" t="n">
-        <v>0.805388</v>
+        <v>0.802246</v>
       </c>
       <c r="D137" t="n">
-        <v>0.956305</v>
+        <v>0.965024</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09976</v>
+        <v>1.09575</v>
       </c>
       <c r="C138" t="n">
-        <v>0.944748</v>
+        <v>0.939998</v>
       </c>
       <c r="D138" t="n">
-        <v>0.949782</v>
+        <v>0.957271</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09872</v>
+        <v>1.09477</v>
       </c>
       <c r="C139" t="n">
-        <v>0.936705</v>
+        <v>0.932949</v>
       </c>
       <c r="D139" t="n">
-        <v>0.94312</v>
+        <v>0.9497910000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09796</v>
+        <v>1.09363</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9306</v>
+        <v>0.926574</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9376989999999999</v>
+        <v>0.943831</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.0981</v>
+        <v>1.09257</v>
       </c>
       <c r="C141" t="n">
-        <v>0.925332</v>
+        <v>0.920067</v>
       </c>
       <c r="D141" t="n">
-        <v>0.932317</v>
+        <v>0.936854</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09776</v>
+        <v>1.09154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.919749</v>
+        <v>0.914436</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9282820000000001</v>
+        <v>0.932254</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09769</v>
+        <v>1.09144</v>
       </c>
       <c r="C143" t="n">
-        <v>0.915324</v>
+        <v>0.910631</v>
       </c>
       <c r="D143" t="n">
-        <v>0.924119</v>
+        <v>0.92797</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442545</v>
+        <v>0.442556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.409637</v>
+        <v>0.410406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421528</v>
+        <v>0.412254</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.432679</v>
+        <v>0.433348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.401466</v>
+        <v>0.40179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413248</v>
+        <v>0.404662</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42836</v>
+        <v>0.429134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.396708</v>
+        <v>0.397424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409348</v>
+        <v>0.401113</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424063</v>
+        <v>0.424901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.392679</v>
+        <v>0.393365</v>
       </c>
       <c r="D5" t="n">
-        <v>0.405796</v>
+        <v>0.398203</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4174</v>
+        <v>0.418057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.387384</v>
+        <v>0.388257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.401283</v>
+        <v>0.393694</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414367</v>
+        <v>0.415127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.384703</v>
+        <v>0.385692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.400406</v>
+        <v>0.393023</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.413237</v>
+        <v>0.414225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.384345</v>
+        <v>0.385363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.401655</v>
+        <v>0.394358</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.415694</v>
+        <v>0.416297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.387486</v>
+        <v>0.388226</v>
       </c>
       <c r="D9" t="n">
-        <v>0.493793</v>
+        <v>0.480201</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.497361</v>
+        <v>0.497876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470616</v>
+        <v>0.471786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.483029</v>
+        <v>0.470244</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.487668</v>
+        <v>0.488178</v>
       </c>
       <c r="C11" t="n">
-        <v>0.460175</v>
+        <v>0.461107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.472162</v>
+        <v>0.46023</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.479976</v>
+        <v>0.480527</v>
       </c>
       <c r="C12" t="n">
-        <v>0.451947</v>
+        <v>0.452691</v>
       </c>
       <c r="D12" t="n">
-        <v>0.463399</v>
+        <v>0.452337</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.470749</v>
+        <v>0.470948</v>
       </c>
       <c r="C13" t="n">
-        <v>0.442256</v>
+        <v>0.443065</v>
       </c>
       <c r="D13" t="n">
-        <v>0.453362</v>
+        <v>0.442926</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.463493</v>
+        <v>0.463789</v>
       </c>
       <c r="C14" t="n">
-        <v>0.434161</v>
+        <v>0.434824</v>
       </c>
       <c r="D14" t="n">
-        <v>0.445341</v>
+        <v>0.435549</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456436</v>
+        <v>0.456807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.426664</v>
+        <v>0.427396</v>
       </c>
       <c r="D15" t="n">
-        <v>0.437681</v>
+        <v>0.428411</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449762</v>
+        <v>0.449999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.419261</v>
+        <v>0.420222</v>
       </c>
       <c r="D16" t="n">
-        <v>0.430513</v>
+        <v>0.421449</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.44301</v>
+        <v>0.443341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.412414</v>
+        <v>0.413177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.423938</v>
+        <v>0.415274</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.436759</v>
+        <v>0.437091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.405824</v>
+        <v>0.406723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.417058</v>
+        <v>0.409096</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.432334</v>
+        <v>0.43265</v>
       </c>
       <c r="C19" t="n">
-        <v>0.401327</v>
+        <v>0.402215</v>
       </c>
       <c r="D19" t="n">
-        <v>0.413183</v>
+        <v>0.405253</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4268</v>
+        <v>0.427066</v>
       </c>
       <c r="C20" t="n">
-        <v>0.395724</v>
+        <v>0.396501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.408298</v>
+        <v>0.400934</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.423442</v>
+        <v>0.42364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.392797</v>
+        <v>0.393317</v>
       </c>
       <c r="D21" t="n">
-        <v>0.406314</v>
+        <v>0.39899</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421082</v>
+        <v>0.421272</v>
       </c>
       <c r="C22" t="n">
-        <v>0.390469</v>
+        <v>0.391181</v>
       </c>
       <c r="D22" t="n">
-        <v>0.405271</v>
+        <v>0.398506</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.420945</v>
+        <v>0.421053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.39076</v>
+        <v>0.390939</v>
       </c>
       <c r="D23" t="n">
-        <v>0.499257</v>
+        <v>0.485362</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.506765</v>
+        <v>0.505723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.47753</v>
+        <v>0.483972</v>
       </c>
       <c r="D24" t="n">
-        <v>0.489369</v>
+        <v>0.476256</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.496764</v>
+        <v>0.495857</v>
       </c>
       <c r="C25" t="n">
-        <v>0.467011</v>
+        <v>0.474923</v>
       </c>
       <c r="D25" t="n">
-        <v>0.478433</v>
+        <v>0.465936</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.488544</v>
+        <v>0.487476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.457809</v>
+        <v>0.463526</v>
       </c>
       <c r="D26" t="n">
-        <v>0.469096</v>
+        <v>0.457399</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479854</v>
+        <v>0.47937</v>
       </c>
       <c r="C27" t="n">
-        <v>0.448613</v>
+        <v>0.455949</v>
       </c>
       <c r="D27" t="n">
-        <v>0.45985</v>
+        <v>0.44958</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.472675</v>
+        <v>0.47179</v>
       </c>
       <c r="C28" t="n">
-        <v>0.440962</v>
+        <v>0.446569</v>
       </c>
       <c r="D28" t="n">
-        <v>0.452039</v>
+        <v>0.441533</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.464625</v>
+        <v>0.463881</v>
       </c>
       <c r="C29" t="n">
-        <v>0.432311</v>
+        <v>0.439535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.443137</v>
+        <v>0.433641</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.457681</v>
+        <v>0.456984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.425126</v>
+        <v>0.430254</v>
       </c>
       <c r="D30" t="n">
-        <v>0.435945</v>
+        <v>0.427048</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.450915</v>
+        <v>0.450472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.418115</v>
+        <v>0.424381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.428938</v>
+        <v>0.420498</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.445235</v>
+        <v>0.444815</v>
       </c>
       <c r="C32" t="n">
-        <v>0.41307</v>
+        <v>0.417206</v>
       </c>
       <c r="D32" t="n">
-        <v>0.423609</v>
+        <v>0.415116</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.439898</v>
+        <v>0.439477</v>
       </c>
       <c r="C33" t="n">
-        <v>0.406794</v>
+        <v>0.411785</v>
       </c>
       <c r="D33" t="n">
-        <v>0.418272</v>
+        <v>0.410658</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434927</v>
+        <v>0.434494</v>
       </c>
       <c r="C34" t="n">
-        <v>0.401746</v>
+        <v>0.406603</v>
       </c>
       <c r="D34" t="n">
-        <v>0.413919</v>
+        <v>0.406562</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.430478</v>
+        <v>0.430156</v>
       </c>
       <c r="C35" t="n">
-        <v>0.39762</v>
+        <v>0.402252</v>
       </c>
       <c r="D35" t="n">
-        <v>0.410646</v>
+        <v>0.40368</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.427633</v>
+        <v>0.427403</v>
       </c>
       <c r="C36" t="n">
-        <v>0.395349</v>
+        <v>0.399727</v>
       </c>
       <c r="D36" t="n">
-        <v>0.409776</v>
+        <v>0.403439</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426727</v>
+        <v>0.426498</v>
       </c>
       <c r="C37" t="n">
-        <v>0.395266</v>
+        <v>0.398865</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507593</v>
+        <v>0.495161</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.50832</v>
+        <v>0.508154</v>
       </c>
       <c r="C38" t="n">
-        <v>0.491817</v>
+        <v>0.488496</v>
       </c>
       <c r="D38" t="n">
-        <v>0.496844</v>
+        <v>0.48495</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.500657</v>
+        <v>0.500561</v>
       </c>
       <c r="C39" t="n">
-        <v>0.482458</v>
+        <v>0.479156</v>
       </c>
       <c r="D39" t="n">
-        <v>0.487451</v>
+        <v>0.476101</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.49186</v>
+        <v>0.491794</v>
       </c>
       <c r="C40" t="n">
-        <v>0.472534</v>
+        <v>0.470004</v>
       </c>
       <c r="D40" t="n">
-        <v>0.477759</v>
+        <v>0.467017</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.483981</v>
+        <v>0.483916</v>
       </c>
       <c r="C41" t="n">
-        <v>0.463693</v>
+        <v>0.460941</v>
       </c>
       <c r="D41" t="n">
-        <v>0.469356</v>
+        <v>0.45952</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476673</v>
+        <v>0.476765</v>
       </c>
       <c r="C42" t="n">
-        <v>0.456201</v>
+        <v>0.452703</v>
       </c>
       <c r="D42" t="n">
-        <v>0.460742</v>
+        <v>0.451134</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4695</v>
+        <v>0.46958</v>
       </c>
       <c r="C43" t="n">
-        <v>0.447874</v>
+        <v>0.444766</v>
       </c>
       <c r="D43" t="n">
-        <v>0.452793</v>
+        <v>0.443659</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.463126</v>
+        <v>0.463148</v>
       </c>
       <c r="C44" t="n">
-        <v>0.440386</v>
+        <v>0.436825</v>
       </c>
       <c r="D44" t="n">
-        <v>0.445687</v>
+        <v>0.43725</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.456719</v>
+        <v>0.4569</v>
       </c>
       <c r="C45" t="n">
-        <v>0.433214</v>
+        <v>0.429766</v>
       </c>
       <c r="D45" t="n">
-        <v>0.438879</v>
+        <v>0.430972</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.45088</v>
+        <v>0.451226</v>
       </c>
       <c r="C46" t="n">
-        <v>0.427392</v>
+        <v>0.424195</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433069</v>
+        <v>0.426189</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.445544</v>
+        <v>0.445863</v>
       </c>
       <c r="C47" t="n">
-        <v>0.421156</v>
+        <v>0.417659</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427905</v>
+        <v>0.4214</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.441019</v>
+        <v>0.441334</v>
       </c>
       <c r="C48" t="n">
-        <v>0.41788</v>
+        <v>0.413102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.423589</v>
+        <v>0.417036</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.437135</v>
+        <v>0.437555</v>
       </c>
       <c r="C49" t="n">
-        <v>0.41293</v>
+        <v>0.409751</v>
       </c>
       <c r="D49" t="n">
-        <v>0.420706</v>
+        <v>0.414681</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.434702</v>
+        <v>0.435062</v>
       </c>
       <c r="C50" t="n">
-        <v>0.410429</v>
+        <v>0.407189</v>
       </c>
       <c r="D50" t="n">
-        <v>0.419941</v>
+        <v>0.414801</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.433059</v>
+        <v>0.433553</v>
       </c>
       <c r="C51" t="n">
-        <v>0.409335</v>
+        <v>0.406266</v>
       </c>
       <c r="D51" t="n">
-        <v>0.519991</v>
+        <v>0.508533</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.43401</v>
+        <v>0.43454</v>
       </c>
       <c r="C52" t="n">
-        <v>0.411074</v>
+        <v>0.408357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.509698</v>
+        <v>0.498478</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.510149</v>
+        <v>0.513649</v>
       </c>
       <c r="C53" t="n">
-        <v>0.497211</v>
+        <v>0.491368</v>
       </c>
       <c r="D53" t="n">
-        <v>0.500185</v>
+        <v>0.490324</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.502458</v>
+        <v>0.504216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.487555</v>
+        <v>0.482315</v>
       </c>
       <c r="D54" t="n">
-        <v>0.491232</v>
+        <v>0.480944</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.495128</v>
+        <v>0.49652</v>
       </c>
       <c r="C55" t="n">
-        <v>0.479085</v>
+        <v>0.4737</v>
       </c>
       <c r="D55" t="n">
-        <v>0.482717</v>
+        <v>0.472511</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.488281</v>
+        <v>0.489416</v>
       </c>
       <c r="C56" t="n">
-        <v>0.470499</v>
+        <v>0.465527</v>
       </c>
       <c r="D56" t="n">
-        <v>0.473853</v>
+        <v>0.464589</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.481753</v>
+        <v>0.482911</v>
       </c>
       <c r="C57" t="n">
-        <v>0.462847</v>
+        <v>0.458429</v>
       </c>
       <c r="D57" t="n">
-        <v>0.466097</v>
+        <v>0.458132</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.475453</v>
+        <v>0.476531</v>
       </c>
       <c r="C58" t="n">
-        <v>0.455132</v>
+        <v>0.451</v>
       </c>
       <c r="D58" t="n">
-        <v>0.459062</v>
+        <v>0.450923</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.469714</v>
+        <v>0.470481</v>
       </c>
       <c r="C59" t="n">
-        <v>0.448477</v>
+        <v>0.444427</v>
       </c>
       <c r="D59" t="n">
-        <v>0.452468</v>
+        <v>0.445208</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.464595</v>
+        <v>0.465251</v>
       </c>
       <c r="C60" t="n">
-        <v>0.443966</v>
+        <v>0.438335</v>
       </c>
       <c r="D60" t="n">
-        <v>0.446688</v>
+        <v>0.440213</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.459526</v>
+        <v>0.460244</v>
       </c>
       <c r="C61" t="n">
-        <v>0.43753</v>
+        <v>0.432888</v>
       </c>
       <c r="D61" t="n">
-        <v>0.44167</v>
+        <v>0.434816</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.455167</v>
+        <v>0.455761</v>
       </c>
       <c r="C62" t="n">
-        <v>0.431875</v>
+        <v>0.428106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.437491</v>
+        <v>0.430363</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.451645</v>
+        <v>0.452105</v>
       </c>
       <c r="C63" t="n">
-        <v>0.427915</v>
+        <v>0.424954</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434811</v>
+        <v>0.427945</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.44902</v>
+        <v>0.449412</v>
       </c>
       <c r="C64" t="n">
-        <v>0.426105</v>
+        <v>0.422292</v>
       </c>
       <c r="D64" t="n">
-        <v>0.43359</v>
+        <v>0.427594</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.447513</v>
+        <v>0.447788</v>
       </c>
       <c r="C65" t="n">
-        <v>0.424027</v>
+        <v>0.421736</v>
       </c>
       <c r="D65" t="n">
-        <v>0.434784</v>
+        <v>0.428632</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.448319</v>
+        <v>0.448434</v>
       </c>
       <c r="C66" t="n">
-        <v>0.425384</v>
+        <v>0.422259</v>
       </c>
       <c r="D66" t="n">
-        <v>0.527798</v>
+        <v>0.514517</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.530688</v>
+        <v>0.533563</v>
       </c>
       <c r="C67" t="n">
-        <v>0.512661</v>
+        <v>0.509225</v>
       </c>
       <c r="D67" t="n">
-        <v>0.51767</v>
+        <v>0.504717</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.522471</v>
+        <v>0.524486</v>
       </c>
       <c r="C68" t="n">
-        <v>0.503042</v>
+        <v>0.498675</v>
       </c>
       <c r="D68" t="n">
-        <v>0.507903</v>
+        <v>0.49572</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.515213</v>
+        <v>0.515832</v>
       </c>
       <c r="C69" t="n">
-        <v>0.494411</v>
+        <v>0.490044</v>
       </c>
       <c r="D69" t="n">
-        <v>0.499122</v>
+        <v>0.487409</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.507874</v>
+        <v>0.508978</v>
       </c>
       <c r="C70" t="n">
-        <v>0.485391</v>
+        <v>0.481654</v>
       </c>
       <c r="D70" t="n">
-        <v>0.490589</v>
+        <v>0.479576</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.501158</v>
+        <v>0.502238</v>
       </c>
       <c r="C71" t="n">
-        <v>0.477953</v>
+        <v>0.473819</v>
       </c>
       <c r="D71" t="n">
-        <v>0.482569</v>
+        <v>0.472027</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.494714</v>
+        <v>0.495989</v>
       </c>
       <c r="C72" t="n">
-        <v>0.470538</v>
+        <v>0.466589</v>
       </c>
       <c r="D72" t="n">
-        <v>0.475042</v>
+        <v>0.464961</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.488847</v>
+        <v>0.489294</v>
       </c>
       <c r="C73" t="n">
-        <v>0.464791</v>
+        <v>0.459638</v>
       </c>
       <c r="D73" t="n">
-        <v>0.468504</v>
+        <v>0.458842</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.483351</v>
+        <v>0.483851</v>
       </c>
       <c r="C74" t="n">
-        <v>0.456534</v>
+        <v>0.453692</v>
       </c>
       <c r="D74" t="n">
-        <v>0.462192</v>
+        <v>0.453112</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.478333</v>
+        <v>0.478695</v>
       </c>
       <c r="C75" t="n">
-        <v>0.451107</v>
+        <v>0.447626</v>
       </c>
       <c r="D75" t="n">
-        <v>0.457033</v>
+        <v>0.448201</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.473668</v>
+        <v>0.473679</v>
       </c>
       <c r="C76" t="n">
-        <v>0.446855</v>
+        <v>0.443263</v>
       </c>
       <c r="D76" t="n">
-        <v>0.452488</v>
+        <v>0.444289</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.469861</v>
+        <v>0.470025</v>
       </c>
       <c r="C77" t="n">
-        <v>0.442172</v>
+        <v>0.438588</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4491</v>
+        <v>0.441276</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.467096</v>
+        <v>0.466924</v>
       </c>
       <c r="C78" t="n">
-        <v>0.439279</v>
+        <v>0.435933</v>
       </c>
       <c r="D78" t="n">
-        <v>0.447421</v>
+        <v>0.440094</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.465436</v>
+        <v>0.465019</v>
       </c>
       <c r="C79" t="n">
-        <v>0.438267</v>
+        <v>0.434473</v>
       </c>
       <c r="D79" t="n">
-        <v>0.448053</v>
+        <v>0.440939</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465485</v>
+        <v>0.465375</v>
       </c>
       <c r="C80" t="n">
-        <v>0.438449</v>
+        <v>0.435291</v>
       </c>
       <c r="D80" t="n">
-        <v>0.545772</v>
+        <v>0.533693</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.570924</v>
+        <v>0.573043</v>
       </c>
       <c r="C81" t="n">
-        <v>0.531986</v>
+        <v>0.52979</v>
       </c>
       <c r="D81" t="n">
-        <v>0.536151</v>
+        <v>0.524801</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.565449</v>
+        <v>0.566708</v>
       </c>
       <c r="C82" t="n">
-        <v>0.523238</v>
+        <v>0.520957</v>
       </c>
       <c r="D82" t="n">
-        <v>0.526865</v>
+        <v>0.516115</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.559872</v>
+        <v>0.56145</v>
       </c>
       <c r="C83" t="n">
-        <v>0.51464</v>
+        <v>0.512608</v>
       </c>
       <c r="D83" t="n">
-        <v>0.518053</v>
+        <v>0.508009</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.554724</v>
+        <v>0.555603</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5063029999999999</v>
+        <v>0.504618</v>
       </c>
       <c r="D84" t="n">
-        <v>0.509806</v>
+        <v>0.500247</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.549229</v>
+        <v>0.550252</v>
       </c>
       <c r="C85" t="n">
-        <v>0.49859</v>
+        <v>0.496816</v>
       </c>
       <c r="D85" t="n">
-        <v>0.50177</v>
+        <v>0.492613</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.543107</v>
+        <v>0.544066</v>
       </c>
       <c r="C86" t="n">
-        <v>0.490864</v>
+        <v>0.489487</v>
       </c>
       <c r="D86" t="n">
-        <v>0.493985</v>
+        <v>0.485391</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.537216</v>
+        <v>0.538172</v>
       </c>
       <c r="C87" t="n">
-        <v>0.483771</v>
+        <v>0.48234</v>
       </c>
       <c r="D87" t="n">
-        <v>0.486878</v>
+        <v>0.478752</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.531227</v>
+        <v>0.531717</v>
       </c>
       <c r="C88" t="n">
-        <v>0.476801</v>
+        <v>0.475403</v>
       </c>
       <c r="D88" t="n">
-        <v>0.480035</v>
+        <v>0.472731</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.525272</v>
+        <v>0.526305</v>
       </c>
       <c r="C89" t="n">
-        <v>0.470641</v>
+        <v>0.469455</v>
       </c>
       <c r="D89" t="n">
-        <v>0.474488</v>
+        <v>0.46719</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.519943</v>
+        <v>0.52061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.465029</v>
+        <v>0.463921</v>
       </c>
       <c r="D90" t="n">
-        <v>0.469457</v>
+        <v>0.462487</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.514812</v>
+        <v>0.5155729999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.460115</v>
+        <v>0.459349</v>
       </c>
       <c r="D91" t="n">
-        <v>0.465452</v>
+        <v>0.459009</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.51074</v>
+        <v>0.511294</v>
       </c>
       <c r="C92" t="n">
-        <v>0.456381</v>
+        <v>0.455495</v>
       </c>
       <c r="D92" t="n">
-        <v>0.462855</v>
+        <v>0.457021</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.507574</v>
+        <v>0.508177</v>
       </c>
       <c r="C93" t="n">
-        <v>0.454005</v>
+        <v>0.453391</v>
       </c>
       <c r="D93" t="n">
-        <v>0.46259</v>
+        <v>0.456927</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.506355</v>
+        <v>0.506923</v>
       </c>
       <c r="C94" t="n">
-        <v>0.453695</v>
+        <v>0.453333</v>
       </c>
       <c r="D94" t="n">
-        <v>0.568039</v>
+        <v>0.5652779999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.605894</v>
+        <v>0.605421</v>
       </c>
       <c r="C95" t="n">
-        <v>0.558385</v>
+        <v>0.558122</v>
       </c>
       <c r="D95" t="n">
-        <v>0.566519</v>
+        <v>0.563841</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.612743</v>
+        <v>0.611978</v>
       </c>
       <c r="C96" t="n">
-        <v>0.558985</v>
+        <v>0.558758</v>
       </c>
       <c r="D96" t="n">
-        <v>0.563204</v>
+        <v>0.560785</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.615487</v>
+        <v>0.6145</v>
       </c>
       <c r="C97" t="n">
-        <v>0.556893</v>
+        <v>0.556414</v>
       </c>
       <c r="D97" t="n">
-        <v>0.559186</v>
+        <v>0.556968</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.615519</v>
+        <v>0.614892</v>
       </c>
       <c r="C98" t="n">
-        <v>0.553657</v>
+        <v>0.553209</v>
       </c>
       <c r="D98" t="n">
-        <v>0.554754</v>
+        <v>0.552581</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.614814</v>
+        <v>0.614148</v>
       </c>
       <c r="C99" t="n">
-        <v>0.549956</v>
+        <v>0.549685</v>
       </c>
       <c r="D99" t="n">
-        <v>0.550176</v>
+        <v>0.5479270000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.612997</v>
+        <v>0.6127320000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.546028</v>
+        <v>0.5455989999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5457340000000001</v>
+        <v>0.543468</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.610907</v>
+        <v>0.610823</v>
       </c>
       <c r="C101" t="n">
-        <v>0.54227</v>
+        <v>0.541745</v>
       </c>
       <c r="D101" t="n">
-        <v>0.541533</v>
+        <v>0.5391899999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.608572</v>
+        <v>0.608277</v>
       </c>
       <c r="C102" t="n">
-        <v>0.538512</v>
+        <v>0.538254</v>
       </c>
       <c r="D102" t="n">
-        <v>0.537521</v>
+        <v>0.535406</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.60624</v>
+        <v>0.606197</v>
       </c>
       <c r="C103" t="n">
-        <v>0.535158</v>
+        <v>0.534544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5340549999999999</v>
+        <v>0.531699</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.603939</v>
+        <v>0.603857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.532321</v>
+        <v>0.531724</v>
       </c>
       <c r="D104" t="n">
-        <v>0.531374</v>
+        <v>0.528944</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.602138</v>
+        <v>0.6019910000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.530254</v>
+        <v>0.529451</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5294759999999999</v>
+        <v>0.526945</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.600244</v>
+        <v>0.5999719999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.528748</v>
+        <v>0.528407</v>
       </c>
       <c r="D106" t="n">
-        <v>0.528274</v>
+        <v>0.525711</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.599024</v>
+        <v>0.598882</v>
       </c>
       <c r="C107" t="n">
-        <v>0.52841</v>
+        <v>0.527683</v>
       </c>
       <c r="D107" t="n">
-        <v>0.528797</v>
+        <v>0.526098</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.598917</v>
+        <v>0.599078</v>
       </c>
       <c r="C108" t="n">
-        <v>0.529446</v>
+        <v>0.528543</v>
       </c>
       <c r="D108" t="n">
-        <v>0.714036</v>
+        <v>0.7004</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.599776</v>
+        <v>0.599437</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5313290000000001</v>
+        <v>0.533197</v>
       </c>
       <c r="D109" t="n">
-        <v>0.711936</v>
+        <v>0.698428</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7536620000000001</v>
+        <v>0.753033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.665683</v>
+        <v>0.665079</v>
       </c>
       <c r="D110" t="n">
-        <v>0.70705</v>
+        <v>0.693835</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7560750000000001</v>
+        <v>0.756929</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6623289999999999</v>
+        <v>0.663771</v>
       </c>
       <c r="D111" t="n">
-        <v>0.702745</v>
+        <v>0.690412</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7565229999999999</v>
+        <v>0.757958</v>
       </c>
       <c r="C112" t="n">
-        <v>0.660841</v>
+        <v>0.660635</v>
       </c>
       <c r="D112" t="n">
-        <v>0.698299</v>
+        <v>0.686593</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.75608</v>
+        <v>0.759088</v>
       </c>
       <c r="C113" t="n">
-        <v>0.656587</v>
+        <v>0.659514</v>
       </c>
       <c r="D113" t="n">
-        <v>0.694874</v>
+        <v>0.683651</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.758888</v>
+        <v>0.760139</v>
       </c>
       <c r="C114" t="n">
-        <v>0.654694</v>
+        <v>0.656006</v>
       </c>
       <c r="D114" t="n">
-        <v>0.692255</v>
+        <v>0.68115</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.760885</v>
+        <v>0.761137</v>
       </c>
       <c r="C115" t="n">
-        <v>0.654501</v>
+        <v>0.653933</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6891929999999999</v>
+        <v>0.678529</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.762452</v>
+        <v>0.761398</v>
       </c>
       <c r="C116" t="n">
-        <v>0.652783</v>
+        <v>0.652511</v>
       </c>
       <c r="D116" t="n">
-        <v>0.68652</v>
+        <v>0.676546</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.762926</v>
+        <v>0.76125</v>
       </c>
       <c r="C117" t="n">
-        <v>0.651613</v>
+        <v>0.65213</v>
       </c>
       <c r="D117" t="n">
-        <v>0.686115</v>
+        <v>0.675107</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.76503</v>
+        <v>0.762763</v>
       </c>
       <c r="C118" t="n">
-        <v>0.65261</v>
+        <v>0.651397</v>
       </c>
       <c r="D118" t="n">
-        <v>0.685391</v>
+        <v>0.675369</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.7642409999999999</v>
+        <v>0.762918</v>
       </c>
       <c r="C119" t="n">
-        <v>0.65225</v>
+        <v>0.6525570000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.685554</v>
+        <v>0.676657</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.76491</v>
+        <v>0.764411</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6551</v>
+        <v>0.655057</v>
       </c>
       <c r="D120" t="n">
-        <v>0.686923</v>
+        <v>0.678521</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76698</v>
+        <v>0.765605</v>
       </c>
       <c r="C121" t="n">
-        <v>0.657707</v>
+        <v>0.657417</v>
       </c>
       <c r="D121" t="n">
-        <v>0.689926</v>
+        <v>0.681349</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.769818</v>
+        <v>0.7681249999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.662784</v>
+        <v>0.663427</v>
       </c>
       <c r="D122" t="n">
-        <v>0.693078</v>
+        <v>0.686024</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.772773</v>
+        <v>0.7715959999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.668141</v>
+        <v>0.6690160000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.83303</v>
+        <v>0.8194399999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.92781</v>
+        <v>0.927316</v>
       </c>
       <c r="C124" t="n">
-        <v>0.806217</v>
+        <v>0.80679</v>
       </c>
       <c r="D124" t="n">
-        <v>0.828333</v>
+        <v>0.8149380000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.92924</v>
+        <v>0.930103</v>
       </c>
       <c r="C125" t="n">
-        <v>0.800998</v>
+        <v>0.800752</v>
       </c>
       <c r="D125" t="n">
-        <v>0.822638</v>
+        <v>0.810536</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.930579</v>
+        <v>0.929581</v>
       </c>
       <c r="C126" t="n">
-        <v>0.796926</v>
+        <v>0.797276</v>
       </c>
       <c r="D126" t="n">
-        <v>0.818257</v>
+        <v>0.806754</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.932298</v>
+        <v>0.931319</v>
       </c>
       <c r="C127" t="n">
-        <v>0.794146</v>
+        <v>0.792649</v>
       </c>
       <c r="D127" t="n">
-        <v>0.815567</v>
+        <v>0.802844</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.933369</v>
+        <v>0.932952</v>
       </c>
       <c r="C128" t="n">
-        <v>0.788955</v>
+        <v>0.789305</v>
       </c>
       <c r="D128" t="n">
-        <v>0.811778</v>
+        <v>0.80074</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.933397</v>
+        <v>0.933971</v>
       </c>
       <c r="C129" t="n">
-        <v>0.786606</v>
+        <v>0.786486</v>
       </c>
       <c r="D129" t="n">
-        <v>0.808821</v>
+        <v>0.798113</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.935053</v>
+        <v>0.935366</v>
       </c>
       <c r="C130" t="n">
-        <v>0.784686</v>
+        <v>0.7846959999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8069190000000001</v>
+        <v>0.797027</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.93555</v>
+        <v>0.934852</v>
       </c>
       <c r="C131" t="n">
-        <v>0.783404</v>
+        <v>0.783766</v>
       </c>
       <c r="D131" t="n">
-        <v>0.806327</v>
+        <v>0.796245</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9368030000000001</v>
+        <v>0.9372779999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.783146</v>
+        <v>0.783345</v>
       </c>
       <c r="D132" t="n">
-        <v>0.806206</v>
+        <v>0.796719</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9385869999999999</v>
+        <v>0.939011</v>
       </c>
       <c r="C133" t="n">
-        <v>0.784122</v>
+        <v>0.785842</v>
       </c>
       <c r="D133" t="n">
-        <v>0.807557</v>
+        <v>0.798983</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9417450000000001</v>
+        <v>0.941462</v>
       </c>
       <c r="C134" t="n">
-        <v>0.78595</v>
+        <v>0.786708</v>
       </c>
       <c r="D134" t="n">
-        <v>0.810979</v>
+        <v>0.802283</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.943649</v>
+        <v>0.943299</v>
       </c>
       <c r="C135" t="n">
-        <v>0.789538</v>
+        <v>0.789403</v>
       </c>
       <c r="D135" t="n">
-        <v>0.814839</v>
+        <v>0.806831</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.94575</v>
+        <v>0.9456599999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.79444</v>
+        <v>0.794614</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8213279999999999</v>
+        <v>0.813935</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.949113</v>
+        <v>0.950088</v>
       </c>
       <c r="C137" t="n">
-        <v>0.802246</v>
+        <v>0.801942</v>
       </c>
       <c r="D137" t="n">
-        <v>0.965024</v>
+        <v>0.951493</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09575</v>
+        <v>1.09624</v>
       </c>
       <c r="C138" t="n">
-        <v>0.939998</v>
+        <v>0.9415249999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.957271</v>
+        <v>0.944065</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09477</v>
+        <v>1.09441</v>
       </c>
       <c r="C139" t="n">
-        <v>0.932949</v>
+        <v>0.932916</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9497910000000001</v>
+        <v>0.937827</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09363</v>
+        <v>1.09389</v>
       </c>
       <c r="C140" t="n">
-        <v>0.926574</v>
+        <v>0.9264</v>
       </c>
       <c r="D140" t="n">
-        <v>0.943831</v>
+        <v>0.93167</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09257</v>
+        <v>1.0927</v>
       </c>
       <c r="C141" t="n">
-        <v>0.920067</v>
+        <v>0.9202129999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.936854</v>
+        <v>0.926465</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09154</v>
+        <v>1.09235</v>
       </c>
       <c r="C142" t="n">
-        <v>0.914436</v>
+        <v>0.914833</v>
       </c>
       <c r="D142" t="n">
-        <v>0.932254</v>
+        <v>0.9215370000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09144</v>
+        <v>1.09131</v>
       </c>
       <c r="C143" t="n">
-        <v>0.910631</v>
+        <v>0.909865</v>
       </c>
       <c r="D143" t="n">
-        <v>0.92797</v>
+        <v>0.9172940000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442556</v>
+        <v>0.337385</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410406</v>
+        <v>0.293707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.412254</v>
+        <v>0.319125</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433348</v>
+        <v>0.328259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.40179</v>
+        <v>0.286126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.404662</v>
+        <v>0.312421</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.429134</v>
+        <v>0.323213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.397424</v>
+        <v>0.281615</v>
       </c>
       <c r="D4" t="n">
-        <v>0.401113</v>
+        <v>0.308061</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424901</v>
+        <v>0.319249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.393365</v>
+        <v>0.27796</v>
       </c>
       <c r="D5" t="n">
-        <v>0.398203</v>
+        <v>0.305158</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418057</v>
+        <v>0.31326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.388257</v>
+        <v>0.272657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.393694</v>
+        <v>0.300388</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.415127</v>
+        <v>0.310366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.385692</v>
+        <v>0.270784</v>
       </c>
       <c r="D7" t="n">
-        <v>0.393023</v>
+        <v>0.299318</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414225</v>
+        <v>0.308676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.385363</v>
+        <v>0.269179</v>
       </c>
       <c r="D8" t="n">
-        <v>0.394358</v>
+        <v>0.299262</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416297</v>
+        <v>0.310644</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388226</v>
+        <v>0.272092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.480201</v>
+        <v>0.385654</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.497876</v>
+        <v>0.392583</v>
       </c>
       <c r="C10" t="n">
-        <v>0.471786</v>
+        <v>0.355147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.470244</v>
+        <v>0.376102</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.488178</v>
+        <v>0.383115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.461107</v>
+        <v>0.345222</v>
       </c>
       <c r="D11" t="n">
-        <v>0.46023</v>
+        <v>0.366744</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.480527</v>
+        <v>0.374997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.452691</v>
+        <v>0.336365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.452337</v>
+        <v>0.358977</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.470948</v>
+        <v>0.366328</v>
       </c>
       <c r="C13" t="n">
-        <v>0.443065</v>
+        <v>0.32681</v>
       </c>
       <c r="D13" t="n">
-        <v>0.442926</v>
+        <v>0.350405</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.463789</v>
+        <v>0.359095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.434824</v>
+        <v>0.319017</v>
       </c>
       <c r="D14" t="n">
-        <v>0.435549</v>
+        <v>0.343145</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.456807</v>
+        <v>0.351476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.427396</v>
+        <v>0.311309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.428411</v>
+        <v>0.336147</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.449999</v>
+        <v>0.34457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.420222</v>
+        <v>0.304085</v>
       </c>
       <c r="D16" t="n">
-        <v>0.421449</v>
+        <v>0.329444</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.443341</v>
+        <v>0.337986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.413177</v>
+        <v>0.297739</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415274</v>
+        <v>0.323819</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.437091</v>
+        <v>0.331821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.406723</v>
+        <v>0.291653</v>
       </c>
       <c r="D18" t="n">
-        <v>0.409096</v>
+        <v>0.317994</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.43265</v>
+        <v>0.327068</v>
       </c>
       <c r="C19" t="n">
-        <v>0.402215</v>
+        <v>0.287024</v>
       </c>
       <c r="D19" t="n">
-        <v>0.405253</v>
+        <v>0.31379</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.427066</v>
+        <v>0.321988</v>
       </c>
       <c r="C20" t="n">
-        <v>0.396501</v>
+        <v>0.282049</v>
       </c>
       <c r="D20" t="n">
-        <v>0.400934</v>
+        <v>0.309825</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.42364</v>
+        <v>0.318625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.393317</v>
+        <v>0.279122</v>
       </c>
       <c r="D21" t="n">
-        <v>0.39899</v>
+        <v>0.307208</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.421272</v>
+        <v>0.316294</v>
       </c>
       <c r="C22" t="n">
-        <v>0.391181</v>
+        <v>0.2775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.398506</v>
+        <v>0.306655</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.421053</v>
+        <v>0.315632</v>
       </c>
       <c r="C23" t="n">
-        <v>0.390939</v>
+        <v>0.278305</v>
       </c>
       <c r="D23" t="n">
-        <v>0.485362</v>
+        <v>0.393296</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.505723</v>
+        <v>0.400485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.483972</v>
+        <v>0.366212</v>
       </c>
       <c r="D24" t="n">
-        <v>0.476256</v>
+        <v>0.384097</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.495857</v>
+        <v>0.390987</v>
       </c>
       <c r="C25" t="n">
-        <v>0.474923</v>
+        <v>0.356266</v>
       </c>
       <c r="D25" t="n">
-        <v>0.465936</v>
+        <v>0.374542</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.487476</v>
+        <v>0.382426</v>
       </c>
       <c r="C26" t="n">
-        <v>0.463526</v>
+        <v>0.346781</v>
       </c>
       <c r="D26" t="n">
-        <v>0.457399</v>
+        <v>0.365734</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.47937</v>
+        <v>0.374095</v>
       </c>
       <c r="C27" t="n">
-        <v>0.455949</v>
+        <v>0.337665</v>
       </c>
       <c r="D27" t="n">
-        <v>0.44958</v>
+        <v>0.357642</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.47179</v>
+        <v>0.366485</v>
       </c>
       <c r="C28" t="n">
-        <v>0.446569</v>
+        <v>0.329672</v>
       </c>
       <c r="D28" t="n">
-        <v>0.441533</v>
+        <v>0.350255</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.463881</v>
+        <v>0.358828</v>
       </c>
       <c r="C29" t="n">
-        <v>0.439535</v>
+        <v>0.321505</v>
       </c>
       <c r="D29" t="n">
-        <v>0.433641</v>
+        <v>0.342673</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.456984</v>
+        <v>0.351834</v>
       </c>
       <c r="C30" t="n">
-        <v>0.430254</v>
+        <v>0.313888</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427048</v>
+        <v>0.335675</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.450472</v>
+        <v>0.345135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.424381</v>
+        <v>0.306839</v>
       </c>
       <c r="D31" t="n">
-        <v>0.420498</v>
+        <v>0.329222</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.444815</v>
+        <v>0.339343</v>
       </c>
       <c r="C32" t="n">
-        <v>0.417206</v>
+        <v>0.300446</v>
       </c>
       <c r="D32" t="n">
-        <v>0.415116</v>
+        <v>0.32353</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.439477</v>
+        <v>0.333919</v>
       </c>
       <c r="C33" t="n">
-        <v>0.411785</v>
+        <v>0.294722</v>
       </c>
       <c r="D33" t="n">
-        <v>0.410658</v>
+        <v>0.31831</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434494</v>
+        <v>0.329167</v>
       </c>
       <c r="C34" t="n">
-        <v>0.406603</v>
+        <v>0.28982</v>
       </c>
       <c r="D34" t="n">
-        <v>0.406562</v>
+        <v>0.313925</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.430156</v>
+        <v>0.324961</v>
       </c>
       <c r="C35" t="n">
-        <v>0.402252</v>
+        <v>0.285469</v>
       </c>
       <c r="D35" t="n">
-        <v>0.40368</v>
+        <v>0.310484</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.427403</v>
+        <v>0.322205</v>
       </c>
       <c r="C36" t="n">
-        <v>0.399727</v>
+        <v>0.28324</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403439</v>
+        <v>0.309472</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426498</v>
+        <v>0.321363</v>
       </c>
       <c r="C37" t="n">
-        <v>0.398865</v>
+        <v>0.283185</v>
       </c>
       <c r="D37" t="n">
-        <v>0.495161</v>
+        <v>0.399727</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.508154</v>
+        <v>0.403636</v>
       </c>
       <c r="C38" t="n">
-        <v>0.488496</v>
+        <v>0.373396</v>
       </c>
       <c r="D38" t="n">
-        <v>0.48495</v>
+        <v>0.389691</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.500561</v>
+        <v>0.395288</v>
       </c>
       <c r="C39" t="n">
-        <v>0.479156</v>
+        <v>0.364185</v>
       </c>
       <c r="D39" t="n">
-        <v>0.476101</v>
+        <v>0.380752</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.491794</v>
+        <v>0.386627</v>
       </c>
       <c r="C40" t="n">
-        <v>0.470004</v>
+        <v>0.354454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.467017</v>
+        <v>0.371666</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.483916</v>
+        <v>0.378536</v>
       </c>
       <c r="C41" t="n">
-        <v>0.460941</v>
+        <v>0.345335</v>
       </c>
       <c r="D41" t="n">
-        <v>0.45952</v>
+        <v>0.363012</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.476765</v>
+        <v>0.37085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.452703</v>
+        <v>0.337021</v>
       </c>
       <c r="D42" t="n">
-        <v>0.451134</v>
+        <v>0.355227</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.46958</v>
+        <v>0.363714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.444766</v>
+        <v>0.328962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.443659</v>
+        <v>0.34769</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.463148</v>
+        <v>0.356926</v>
       </c>
       <c r="C44" t="n">
-        <v>0.436825</v>
+        <v>0.321573</v>
       </c>
       <c r="D44" t="n">
-        <v>0.43725</v>
+        <v>0.340674</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4569</v>
+        <v>0.350446</v>
       </c>
       <c r="C45" t="n">
-        <v>0.429766</v>
+        <v>0.314793</v>
       </c>
       <c r="D45" t="n">
-        <v>0.430972</v>
+        <v>0.334273</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.451226</v>
+        <v>0.344526</v>
       </c>
       <c r="C46" t="n">
-        <v>0.424195</v>
+        <v>0.308462</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426189</v>
+        <v>0.32837</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.445863</v>
+        <v>0.339004</v>
       </c>
       <c r="C47" t="n">
-        <v>0.417659</v>
+        <v>0.302802</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4214</v>
+        <v>0.323235</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.441334</v>
+        <v>0.334268</v>
       </c>
       <c r="C48" t="n">
-        <v>0.413102</v>
+        <v>0.297996</v>
       </c>
       <c r="D48" t="n">
-        <v>0.417036</v>
+        <v>0.318852</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.437555</v>
+        <v>0.330288</v>
       </c>
       <c r="C49" t="n">
-        <v>0.409751</v>
+        <v>0.294325</v>
       </c>
       <c r="D49" t="n">
-        <v>0.414681</v>
+        <v>0.315896</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.435062</v>
+        <v>0.327413</v>
       </c>
       <c r="C50" t="n">
-        <v>0.407189</v>
+        <v>0.291679</v>
       </c>
       <c r="D50" t="n">
-        <v>0.414801</v>
+        <v>0.314568</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.433553</v>
+        <v>0.325784</v>
       </c>
       <c r="C51" t="n">
-        <v>0.406266</v>
+        <v>0.290766</v>
       </c>
       <c r="D51" t="n">
-        <v>0.508533</v>
+        <v>0.407994</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.43454</v>
+        <v>0.326583</v>
       </c>
       <c r="C52" t="n">
-        <v>0.408357</v>
+        <v>0.292413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.498478</v>
+        <v>0.397691</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.513649</v>
+        <v>0.402778</v>
       </c>
       <c r="C53" t="n">
-        <v>0.491368</v>
+        <v>0.374556</v>
       </c>
       <c r="D53" t="n">
-        <v>0.490324</v>
+        <v>0.388172</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.504216</v>
+        <v>0.394484</v>
       </c>
       <c r="C54" t="n">
-        <v>0.482315</v>
+        <v>0.365365</v>
       </c>
       <c r="D54" t="n">
-        <v>0.480944</v>
+        <v>0.379133</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.49652</v>
+        <v>0.386802</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4737</v>
+        <v>0.356538</v>
       </c>
       <c r="D55" t="n">
-        <v>0.472511</v>
+        <v>0.370702</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489416</v>
+        <v>0.379724</v>
       </c>
       <c r="C56" t="n">
-        <v>0.465527</v>
+        <v>0.348426</v>
       </c>
       <c r="D56" t="n">
-        <v>0.464589</v>
+        <v>0.362676</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.482911</v>
+        <v>0.3729</v>
       </c>
       <c r="C57" t="n">
-        <v>0.458429</v>
+        <v>0.340852</v>
       </c>
       <c r="D57" t="n">
-        <v>0.458132</v>
+        <v>0.35528</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.476531</v>
+        <v>0.366423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.451</v>
+        <v>0.333422</v>
       </c>
       <c r="D58" t="n">
-        <v>0.450923</v>
+        <v>0.347992</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.470481</v>
+        <v>0.360462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.444427</v>
+        <v>0.326633</v>
       </c>
       <c r="D59" t="n">
-        <v>0.445208</v>
+        <v>0.341368</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.465251</v>
+        <v>0.354986</v>
       </c>
       <c r="C60" t="n">
-        <v>0.438335</v>
+        <v>0.320473</v>
       </c>
       <c r="D60" t="n">
-        <v>0.440213</v>
+        <v>0.335727</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.460244</v>
+        <v>0.349861</v>
       </c>
       <c r="C61" t="n">
-        <v>0.432888</v>
+        <v>0.315006</v>
       </c>
       <c r="D61" t="n">
-        <v>0.434816</v>
+        <v>0.330617</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.455761</v>
+        <v>0.345236</v>
       </c>
       <c r="C62" t="n">
-        <v>0.428106</v>
+        <v>0.310113</v>
       </c>
       <c r="D62" t="n">
-        <v>0.430363</v>
+        <v>0.326487</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.452105</v>
+        <v>0.341469</v>
       </c>
       <c r="C63" t="n">
-        <v>0.424954</v>
+        <v>0.30616</v>
       </c>
       <c r="D63" t="n">
-        <v>0.427945</v>
+        <v>0.323694</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.449412</v>
+        <v>0.338575</v>
       </c>
       <c r="C64" t="n">
-        <v>0.422292</v>
+        <v>0.303178</v>
       </c>
       <c r="D64" t="n">
-        <v>0.427594</v>
+        <v>0.321573</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.447788</v>
+        <v>0.336952</v>
       </c>
       <c r="C65" t="n">
-        <v>0.421736</v>
+        <v>0.301802</v>
       </c>
       <c r="D65" t="n">
-        <v>0.428632</v>
+        <v>0.322126</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.448434</v>
+        <v>0.337307</v>
       </c>
       <c r="C66" t="n">
-        <v>0.422259</v>
+        <v>0.303227</v>
       </c>
       <c r="D66" t="n">
-        <v>0.514517</v>
+        <v>0.407087</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.533563</v>
+        <v>0.421039</v>
       </c>
       <c r="C67" t="n">
-        <v>0.509225</v>
+        <v>0.388569</v>
       </c>
       <c r="D67" t="n">
-        <v>0.504717</v>
+        <v>0.397621</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.524486</v>
+        <v>0.412625</v>
       </c>
       <c r="C68" t="n">
-        <v>0.498675</v>
+        <v>0.378989</v>
       </c>
       <c r="D68" t="n">
-        <v>0.49572</v>
+        <v>0.387794</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.515832</v>
+        <v>0.404925</v>
       </c>
       <c r="C69" t="n">
-        <v>0.490044</v>
+        <v>0.369963</v>
       </c>
       <c r="D69" t="n">
-        <v>0.487409</v>
+        <v>0.379334</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.508978</v>
+        <v>0.397472</v>
       </c>
       <c r="C70" t="n">
-        <v>0.481654</v>
+        <v>0.361377</v>
       </c>
       <c r="D70" t="n">
-        <v>0.479576</v>
+        <v>0.370891</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.502238</v>
+        <v>0.390939</v>
       </c>
       <c r="C71" t="n">
-        <v>0.473819</v>
+        <v>0.35342</v>
       </c>
       <c r="D71" t="n">
-        <v>0.472027</v>
+        <v>0.363223</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.495989</v>
+        <v>0.384258</v>
       </c>
       <c r="C72" t="n">
-        <v>0.466589</v>
+        <v>0.346017</v>
       </c>
       <c r="D72" t="n">
-        <v>0.464961</v>
+        <v>0.35558</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.489294</v>
+        <v>0.378222</v>
       </c>
       <c r="C73" t="n">
-        <v>0.459638</v>
+        <v>0.339015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.458842</v>
+        <v>0.348787</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.483851</v>
+        <v>0.372497</v>
       </c>
       <c r="C74" t="n">
-        <v>0.453692</v>
+        <v>0.332591</v>
       </c>
       <c r="D74" t="n">
-        <v>0.453112</v>
+        <v>0.342833</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.478695</v>
+        <v>0.367388</v>
       </c>
       <c r="C75" t="n">
-        <v>0.447626</v>
+        <v>0.326755</v>
       </c>
       <c r="D75" t="n">
-        <v>0.448201</v>
+        <v>0.337474</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.473679</v>
+        <v>0.362757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.443263</v>
+        <v>0.321405</v>
       </c>
       <c r="D76" t="n">
-        <v>0.444289</v>
+        <v>0.332359</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.470025</v>
+        <v>0.358906</v>
       </c>
       <c r="C77" t="n">
-        <v>0.438588</v>
+        <v>0.317059</v>
       </c>
       <c r="D77" t="n">
-        <v>0.441276</v>
+        <v>0.329573</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.466924</v>
+        <v>0.355804</v>
       </c>
       <c r="C78" t="n">
-        <v>0.435933</v>
+        <v>0.313715</v>
       </c>
       <c r="D78" t="n">
-        <v>0.440094</v>
+        <v>0.32755</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.465019</v>
+        <v>0.354087</v>
       </c>
       <c r="C79" t="n">
-        <v>0.434473</v>
+        <v>0.31198</v>
       </c>
       <c r="D79" t="n">
-        <v>0.440939</v>
+        <v>0.327243</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465375</v>
+        <v>0.354286</v>
       </c>
       <c r="C80" t="n">
-        <v>0.435291</v>
+        <v>0.312287</v>
       </c>
       <c r="D80" t="n">
-        <v>0.533693</v>
+        <v>0.420283</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.573043</v>
+        <v>0.459048</v>
       </c>
       <c r="C81" t="n">
-        <v>0.52979</v>
+        <v>0.406715</v>
       </c>
       <c r="D81" t="n">
-        <v>0.524801</v>
+        <v>0.410984</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.566708</v>
+        <v>0.452479</v>
       </c>
       <c r="C82" t="n">
-        <v>0.520957</v>
+        <v>0.397402</v>
       </c>
       <c r="D82" t="n">
-        <v>0.516115</v>
+        <v>0.40219</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.56145</v>
+        <v>0.446576</v>
       </c>
       <c r="C83" t="n">
-        <v>0.512608</v>
+        <v>0.388056</v>
       </c>
       <c r="D83" t="n">
-        <v>0.508009</v>
+        <v>0.393787</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.555603</v>
+        <v>0.44099</v>
       </c>
       <c r="C84" t="n">
-        <v>0.504618</v>
+        <v>0.379046</v>
       </c>
       <c r="D84" t="n">
-        <v>0.500247</v>
+        <v>0.385584</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.550252</v>
+        <v>0.435504</v>
       </c>
       <c r="C85" t="n">
-        <v>0.496816</v>
+        <v>0.370662</v>
       </c>
       <c r="D85" t="n">
-        <v>0.492613</v>
+        <v>0.377882</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.544066</v>
+        <v>0.429557</v>
       </c>
       <c r="C86" t="n">
-        <v>0.489487</v>
+        <v>0.36275</v>
       </c>
       <c r="D86" t="n">
-        <v>0.485391</v>
+        <v>0.370429</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.538172</v>
+        <v>0.423274</v>
       </c>
       <c r="C87" t="n">
-        <v>0.48234</v>
+        <v>0.355035</v>
       </c>
       <c r="D87" t="n">
-        <v>0.478752</v>
+        <v>0.36334</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.531717</v>
+        <v>0.417171</v>
       </c>
       <c r="C88" t="n">
-        <v>0.475403</v>
+        <v>0.348137</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472731</v>
+        <v>0.356908</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.526305</v>
+        <v>0.41145</v>
       </c>
       <c r="C89" t="n">
-        <v>0.469455</v>
+        <v>0.341729</v>
       </c>
       <c r="D89" t="n">
-        <v>0.46719</v>
+        <v>0.351038</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.52061</v>
+        <v>0.405805</v>
       </c>
       <c r="C90" t="n">
-        <v>0.463921</v>
+        <v>0.335992</v>
       </c>
       <c r="D90" t="n">
-        <v>0.462487</v>
+        <v>0.345953</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5155729999999999</v>
+        <v>0.400701</v>
       </c>
       <c r="C91" t="n">
-        <v>0.459349</v>
+        <v>0.331092</v>
       </c>
       <c r="D91" t="n">
-        <v>0.459009</v>
+        <v>0.341956</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.511294</v>
+        <v>0.396536</v>
       </c>
       <c r="C92" t="n">
-        <v>0.455495</v>
+        <v>0.327062</v>
       </c>
       <c r="D92" t="n">
-        <v>0.457021</v>
+        <v>0.339229</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.508177</v>
+        <v>0.393349</v>
       </c>
       <c r="C93" t="n">
-        <v>0.453391</v>
+        <v>0.324576</v>
       </c>
       <c r="D93" t="n">
-        <v>0.456927</v>
+        <v>0.338605</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.506923</v>
+        <v>0.391831</v>
       </c>
       <c r="C94" t="n">
-        <v>0.453333</v>
+        <v>0.32418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5652779999999999</v>
+        <v>0.445294</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.605421</v>
+        <v>0.491428</v>
       </c>
       <c r="C95" t="n">
-        <v>0.558122</v>
+        <v>0.426454</v>
       </c>
       <c r="D95" t="n">
-        <v>0.563841</v>
+        <v>0.444546</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.611978</v>
+        <v>0.496693</v>
       </c>
       <c r="C96" t="n">
-        <v>0.558758</v>
+        <v>0.423453</v>
       </c>
       <c r="D96" t="n">
-        <v>0.560785</v>
+        <v>0.442472</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6145</v>
+        <v>0.497092</v>
       </c>
       <c r="C97" t="n">
-        <v>0.556414</v>
+        <v>0.416086</v>
       </c>
       <c r="D97" t="n">
-        <v>0.556968</v>
+        <v>0.439479</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.614892</v>
+        <v>0.4968</v>
       </c>
       <c r="C98" t="n">
-        <v>0.553209</v>
+        <v>0.408085</v>
       </c>
       <c r="D98" t="n">
-        <v>0.552581</v>
+        <v>0.435839</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.614148</v>
+        <v>0.494958</v>
       </c>
       <c r="C99" t="n">
-        <v>0.549685</v>
+        <v>0.40034</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5479270000000001</v>
+        <v>0.431825</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6127320000000001</v>
+        <v>0.49279</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5455989999999999</v>
+        <v>0.392986</v>
       </c>
       <c r="D100" t="n">
-        <v>0.543468</v>
+        <v>0.428072</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.610823</v>
+        <v>0.489997</v>
       </c>
       <c r="C101" t="n">
-        <v>0.541745</v>
+        <v>0.386104</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5391899999999999</v>
+        <v>0.424118</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.608277</v>
+        <v>0.487374</v>
       </c>
       <c r="C102" t="n">
-        <v>0.538254</v>
+        <v>0.379616</v>
       </c>
       <c r="D102" t="n">
-        <v>0.535406</v>
+        <v>0.420688</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.606197</v>
+        <v>0.484715</v>
       </c>
       <c r="C103" t="n">
-        <v>0.534544</v>
+        <v>0.37394</v>
       </c>
       <c r="D103" t="n">
-        <v>0.531699</v>
+        <v>0.417537</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.603857</v>
+        <v>0.482031</v>
       </c>
       <c r="C104" t="n">
-        <v>0.531724</v>
+        <v>0.368994</v>
       </c>
       <c r="D104" t="n">
-        <v>0.528944</v>
+        <v>0.414835</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6019910000000001</v>
+        <v>0.479734</v>
       </c>
       <c r="C105" t="n">
-        <v>0.529451</v>
+        <v>0.364827</v>
       </c>
       <c r="D105" t="n">
-        <v>0.526945</v>
+        <v>0.413032</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5999719999999999</v>
+        <v>0.477907</v>
       </c>
       <c r="C106" t="n">
-        <v>0.528407</v>
+        <v>0.361821</v>
       </c>
       <c r="D106" t="n">
-        <v>0.525711</v>
+        <v>0.412136</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.598882</v>
+        <v>0.476506</v>
       </c>
       <c r="C107" t="n">
-        <v>0.527683</v>
+        <v>0.360092</v>
       </c>
       <c r="D107" t="n">
-        <v>0.526098</v>
+        <v>0.412426</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.599078</v>
+        <v>0.47603</v>
       </c>
       <c r="C108" t="n">
-        <v>0.528543</v>
+        <v>0.359981</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7004</v>
+        <v>0.582865</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.599437</v>
+        <v>0.478381</v>
       </c>
       <c r="C109" t="n">
-        <v>0.533197</v>
+        <v>0.362953</v>
       </c>
       <c r="D109" t="n">
-        <v>0.698428</v>
+        <v>0.581956</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.753033</v>
+        <v>0.630064</v>
       </c>
       <c r="C110" t="n">
-        <v>0.665079</v>
+        <v>0.49382</v>
       </c>
       <c r="D110" t="n">
-        <v>0.693835</v>
+        <v>0.578564</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.756929</v>
+        <v>0.629961</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663771</v>
+        <v>0.485956</v>
       </c>
       <c r="D111" t="n">
-        <v>0.690412</v>
+        <v>0.5753549999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.757958</v>
+        <v>0.627808</v>
       </c>
       <c r="C112" t="n">
-        <v>0.660635</v>
+        <v>0.480001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.686593</v>
+        <v>0.573385</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.759088</v>
+        <v>0.628315</v>
       </c>
       <c r="C113" t="n">
-        <v>0.659514</v>
+        <v>0.473617</v>
       </c>
       <c r="D113" t="n">
-        <v>0.683651</v>
+        <v>0.569753</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.760139</v>
+        <v>0.626909</v>
       </c>
       <c r="C114" t="n">
-        <v>0.656006</v>
+        <v>0.467317</v>
       </c>
       <c r="D114" t="n">
-        <v>0.68115</v>
+        <v>0.5667140000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.761137</v>
+        <v>0.6280210000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.653933</v>
+        <v>0.462023</v>
       </c>
       <c r="D115" t="n">
-        <v>0.678529</v>
+        <v>0.564954</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.761398</v>
+        <v>0.625968</v>
       </c>
       <c r="C116" t="n">
-        <v>0.652511</v>
+        <v>0.457006</v>
       </c>
       <c r="D116" t="n">
-        <v>0.676546</v>
+        <v>0.563188</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.76125</v>
+        <v>0.626175</v>
       </c>
       <c r="C117" t="n">
-        <v>0.65213</v>
+        <v>0.454079</v>
       </c>
       <c r="D117" t="n">
-        <v>0.675107</v>
+        <v>0.561702</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.762763</v>
+        <v>0.625328</v>
       </c>
       <c r="C118" t="n">
-        <v>0.651397</v>
+        <v>0.452643</v>
       </c>
       <c r="D118" t="n">
-        <v>0.675369</v>
+        <v>0.561079</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.762918</v>
+        <v>0.626291</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6525570000000001</v>
+        <v>0.450615</v>
       </c>
       <c r="D119" t="n">
-        <v>0.676657</v>
+        <v>0.561464</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.764411</v>
+        <v>0.626208</v>
       </c>
       <c r="C120" t="n">
-        <v>0.655057</v>
+        <v>0.450138</v>
       </c>
       <c r="D120" t="n">
-        <v>0.678521</v>
+        <v>0.563439</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.765605</v>
+        <v>0.626838</v>
       </c>
       <c r="C121" t="n">
-        <v>0.657417</v>
+        <v>0.452307</v>
       </c>
       <c r="D121" t="n">
-        <v>0.681349</v>
+        <v>0.5657489999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7681249999999999</v>
+        <v>0.629907</v>
       </c>
       <c r="C122" t="n">
-        <v>0.663427</v>
+        <v>0.45453</v>
       </c>
       <c r="D122" t="n">
-        <v>0.686024</v>
+        <v>0.569883</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7715959999999999</v>
+        <v>0.631331</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6690160000000001</v>
+        <v>0.458394</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8194399999999999</v>
+        <v>0.701965</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.927316</v>
+        <v>0.786681</v>
       </c>
       <c r="C124" t="n">
-        <v>0.80679</v>
+        <v>0.594796</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8149380000000001</v>
+        <v>0.695088</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.930103</v>
+        <v>0.786992</v>
       </c>
       <c r="C125" t="n">
-        <v>0.800752</v>
+        <v>0.588788</v>
       </c>
       <c r="D125" t="n">
-        <v>0.810536</v>
+        <v>0.6896409999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.929581</v>
+        <v>0.787081</v>
       </c>
       <c r="C126" t="n">
-        <v>0.797276</v>
+        <v>0.583623</v>
       </c>
       <c r="D126" t="n">
-        <v>0.806754</v>
+        <v>0.684728</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.931319</v>
+        <v>0.787342</v>
       </c>
       <c r="C127" t="n">
-        <v>0.792649</v>
+        <v>0.578508</v>
       </c>
       <c r="D127" t="n">
-        <v>0.802844</v>
+        <v>0.679932</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.932952</v>
+        <v>0.788588</v>
       </c>
       <c r="C128" t="n">
-        <v>0.789305</v>
+        <v>0.573782</v>
       </c>
       <c r="D128" t="n">
-        <v>0.80074</v>
+        <v>0.675851</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.933971</v>
+        <v>0.789479</v>
       </c>
       <c r="C129" t="n">
-        <v>0.786486</v>
+        <v>0.569493</v>
       </c>
       <c r="D129" t="n">
-        <v>0.798113</v>
+        <v>0.672459</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.935366</v>
+        <v>0.789802</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7846959999999999</v>
+        <v>0.567017</v>
       </c>
       <c r="D130" t="n">
-        <v>0.797027</v>
+        <v>0.670134</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.934852</v>
+        <v>0.791891</v>
       </c>
       <c r="C131" t="n">
-        <v>0.783766</v>
+        <v>0.565746</v>
       </c>
       <c r="D131" t="n">
-        <v>0.796245</v>
+        <v>0.66653</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9372779999999999</v>
+        <v>0.792571</v>
       </c>
       <c r="C132" t="n">
-        <v>0.783345</v>
+        <v>0.563789</v>
       </c>
       <c r="D132" t="n">
-        <v>0.796719</v>
+        <v>0.665806</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.939011</v>
+        <v>0.794812</v>
       </c>
       <c r="C133" t="n">
-        <v>0.785842</v>
+        <v>0.563463</v>
       </c>
       <c r="D133" t="n">
-        <v>0.798983</v>
+        <v>0.664898</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.941462</v>
+        <v>0.796938</v>
       </c>
       <c r="C134" t="n">
-        <v>0.786708</v>
+        <v>0.564371</v>
       </c>
       <c r="D134" t="n">
-        <v>0.802283</v>
+        <v>0.665915</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.943299</v>
+        <v>0.797184</v>
       </c>
       <c r="C135" t="n">
-        <v>0.789403</v>
+        <v>0.566209</v>
       </c>
       <c r="D135" t="n">
-        <v>0.806831</v>
+        <v>0.668131</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9456599999999999</v>
+        <v>0.799265</v>
       </c>
       <c r="C136" t="n">
-        <v>0.794614</v>
+        <v>0.569407</v>
       </c>
       <c r="D136" t="n">
-        <v>0.813935</v>
+        <v>0.672948</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.950088</v>
+        <v>0.8014250000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.801942</v>
+        <v>0.57437</v>
       </c>
       <c r="D137" t="n">
-        <v>0.951493</v>
+        <v>0.808234</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.09624</v>
+        <v>0.948349</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9415249999999999</v>
+        <v>0.711253</v>
       </c>
       <c r="D138" t="n">
-        <v>0.944065</v>
+        <v>0.798169</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.09441</v>
+        <v>0.948319</v>
       </c>
       <c r="C139" t="n">
-        <v>0.932916</v>
+        <v>0.703858</v>
       </c>
       <c r="D139" t="n">
-        <v>0.937827</v>
+        <v>0.789868</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.09389</v>
+        <v>0.948518</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9264</v>
+        <v>0.697674</v>
       </c>
       <c r="D140" t="n">
-        <v>0.93167</v>
+        <v>0.781015</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.0927</v>
+        <v>0.947997</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9202129999999999</v>
+        <v>0.6915829999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.926465</v>
+        <v>0.773628</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09235</v>
+        <v>0.948901</v>
       </c>
       <c r="C142" t="n">
-        <v>0.914833</v>
+        <v>0.686588</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9215370000000001</v>
+        <v>0.766513</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09131</v>
+        <v>0.948585</v>
       </c>
       <c r="C143" t="n">
-        <v>0.909865</v>
+        <v>0.681696</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9172940000000001</v>
+        <v>0.7600749999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.337385</v>
+        <v>0.33687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.293707</v>
+        <v>0.307263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.319125</v>
+        <v>0.336825</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.328259</v>
+        <v>0.331344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286126</v>
+        <v>0.300218</v>
       </c>
       <c r="D3" t="n">
-        <v>0.312421</v>
+        <v>0.328832</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.323213</v>
+        <v>0.326501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.281615</v>
+        <v>0.294359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.308061</v>
+        <v>0.324209</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.319249</v>
+        <v>0.32189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.27796</v>
+        <v>0.290378</v>
       </c>
       <c r="D5" t="n">
-        <v>0.305158</v>
+        <v>0.320374</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31326</v>
+        <v>0.31615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.272657</v>
+        <v>0.284387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.300388</v>
+        <v>0.314631</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.310366</v>
+        <v>0.313091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.270784</v>
+        <v>0.281669</v>
       </c>
       <c r="D7" t="n">
-        <v>0.299318</v>
+        <v>0.312577</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.308676</v>
+        <v>0.311033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.269179</v>
+        <v>0.279677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.299262</v>
+        <v>0.311933</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.310644</v>
+        <v>0.312505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.272092</v>
+        <v>0.281968</v>
       </c>
       <c r="D9" t="n">
-        <v>0.385654</v>
+        <v>0.409978</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.392583</v>
+        <v>0.39446</v>
       </c>
       <c r="C10" t="n">
-        <v>0.355147</v>
+        <v>0.365189</v>
       </c>
       <c r="D10" t="n">
-        <v>0.376102</v>
+        <v>0.399404</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.383115</v>
+        <v>0.384871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.345222</v>
+        <v>0.355167</v>
       </c>
       <c r="D11" t="n">
-        <v>0.366744</v>
+        <v>0.388829</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.374997</v>
+        <v>0.376474</v>
       </c>
       <c r="C12" t="n">
-        <v>0.336365</v>
+        <v>0.346294</v>
       </c>
       <c r="D12" t="n">
-        <v>0.358977</v>
+        <v>0.379899</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.366328</v>
+        <v>0.367572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32681</v>
+        <v>0.336871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.350405</v>
+        <v>0.37025</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.359095</v>
+        <v>0.360224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.319017</v>
+        <v>0.329203</v>
       </c>
       <c r="D14" t="n">
-        <v>0.343145</v>
+        <v>0.362425</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.351476</v>
+        <v>0.35275</v>
       </c>
       <c r="C15" t="n">
-        <v>0.311309</v>
+        <v>0.32147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.336147</v>
+        <v>0.354439</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34457</v>
+        <v>0.34574</v>
       </c>
       <c r="C16" t="n">
-        <v>0.304085</v>
+        <v>0.31398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.329444</v>
+        <v>0.346698</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.337986</v>
+        <v>0.3392</v>
       </c>
       <c r="C17" t="n">
-        <v>0.297739</v>
+        <v>0.307332</v>
       </c>
       <c r="D17" t="n">
-        <v>0.323819</v>
+        <v>0.340165</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.331821</v>
+        <v>0.332776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.291653</v>
+        <v>0.301207</v>
       </c>
       <c r="D18" t="n">
-        <v>0.317994</v>
+        <v>0.333909</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.327068</v>
+        <v>0.327856</v>
       </c>
       <c r="C19" t="n">
-        <v>0.287024</v>
+        <v>0.296299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31379</v>
+        <v>0.329273</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.321988</v>
+        <v>0.32275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.282049</v>
+        <v>0.291268</v>
       </c>
       <c r="D20" t="n">
-        <v>0.309825</v>
+        <v>0.323987</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.318625</v>
+        <v>0.319344</v>
       </c>
       <c r="C21" t="n">
-        <v>0.279122</v>
+        <v>0.288037</v>
       </c>
       <c r="D21" t="n">
-        <v>0.307208</v>
+        <v>0.32112</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.316294</v>
+        <v>0.316921</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2775</v>
+        <v>0.285982</v>
       </c>
       <c r="D22" t="n">
-        <v>0.306655</v>
+        <v>0.320087</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.315632</v>
+        <v>0.316141</v>
       </c>
       <c r="C23" t="n">
-        <v>0.278305</v>
+        <v>0.286346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.393296</v>
+        <v>0.419319</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.400485</v>
+        <v>0.407145</v>
       </c>
       <c r="C24" t="n">
-        <v>0.366212</v>
+        <v>0.373285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.384097</v>
+        <v>0.409142</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.390987</v>
+        <v>0.397695</v>
       </c>
       <c r="C25" t="n">
-        <v>0.356266</v>
+        <v>0.362948</v>
       </c>
       <c r="D25" t="n">
-        <v>0.374542</v>
+        <v>0.398666</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.382426</v>
+        <v>0.388537</v>
       </c>
       <c r="C26" t="n">
-        <v>0.346781</v>
+        <v>0.352539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.365734</v>
+        <v>0.388955</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.374095</v>
+        <v>0.380102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.337665</v>
+        <v>0.343774</v>
       </c>
       <c r="D27" t="n">
-        <v>0.357642</v>
+        <v>0.379741</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.366485</v>
+        <v>0.37188</v>
       </c>
       <c r="C28" t="n">
-        <v>0.329672</v>
+        <v>0.335907</v>
       </c>
       <c r="D28" t="n">
-        <v>0.350255</v>
+        <v>0.371548</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.358828</v>
+        <v>0.363797</v>
       </c>
       <c r="C29" t="n">
-        <v>0.321505</v>
+        <v>0.328073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.342673</v>
+        <v>0.363259</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.351834</v>
+        <v>0.356898</v>
       </c>
       <c r="C30" t="n">
-        <v>0.313888</v>
+        <v>0.320571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.335675</v>
+        <v>0.355373</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.345135</v>
+        <v>0.349768</v>
       </c>
       <c r="C31" t="n">
-        <v>0.306839</v>
+        <v>0.313708</v>
       </c>
       <c r="D31" t="n">
-        <v>0.329222</v>
+        <v>0.348247</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.339343</v>
+        <v>0.343008</v>
       </c>
       <c r="C32" t="n">
-        <v>0.300446</v>
+        <v>0.307382</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32353</v>
+        <v>0.341769</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.333919</v>
+        <v>0.337427</v>
       </c>
       <c r="C33" t="n">
-        <v>0.294722</v>
+        <v>0.301368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.31831</v>
+        <v>0.336031</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.329167</v>
+        <v>0.332854</v>
       </c>
       <c r="C34" t="n">
-        <v>0.28982</v>
+        <v>0.296299</v>
       </c>
       <c r="D34" t="n">
-        <v>0.313925</v>
+        <v>0.330893</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.324961</v>
+        <v>0.327963</v>
       </c>
       <c r="C35" t="n">
-        <v>0.285469</v>
+        <v>0.291954</v>
       </c>
       <c r="D35" t="n">
-        <v>0.310484</v>
+        <v>0.326903</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.322205</v>
+        <v>0.322827</v>
       </c>
       <c r="C36" t="n">
-        <v>0.28324</v>
+        <v>0.289282</v>
       </c>
       <c r="D36" t="n">
-        <v>0.309472</v>
+        <v>0.325003</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321363</v>
+        <v>0.322043</v>
       </c>
       <c r="C37" t="n">
-        <v>0.283185</v>
+        <v>0.288882</v>
       </c>
       <c r="D37" t="n">
-        <v>0.399727</v>
+        <v>0.427843</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.403636</v>
+        <v>0.404449</v>
       </c>
       <c r="C38" t="n">
-        <v>0.373396</v>
+        <v>0.378597</v>
       </c>
       <c r="D38" t="n">
-        <v>0.389691</v>
+        <v>0.417167</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.395288</v>
+        <v>0.395971</v>
       </c>
       <c r="C39" t="n">
-        <v>0.364185</v>
+        <v>0.369464</v>
       </c>
       <c r="D39" t="n">
-        <v>0.380752</v>
+        <v>0.407193</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.386627</v>
+        <v>0.387474</v>
       </c>
       <c r="C40" t="n">
-        <v>0.354454</v>
+        <v>0.360255</v>
       </c>
       <c r="D40" t="n">
-        <v>0.371666</v>
+        <v>0.397371</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.378536</v>
+        <v>0.379331</v>
       </c>
       <c r="C41" t="n">
-        <v>0.345335</v>
+        <v>0.351472</v>
       </c>
       <c r="D41" t="n">
-        <v>0.363012</v>
+        <v>0.388243</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.37085</v>
+        <v>0.371701</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337021</v>
+        <v>0.343394</v>
       </c>
       <c r="D42" t="n">
-        <v>0.355227</v>
+        <v>0.379646</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.363714</v>
+        <v>0.364541</v>
       </c>
       <c r="C43" t="n">
-        <v>0.328962</v>
+        <v>0.335517</v>
       </c>
       <c r="D43" t="n">
-        <v>0.34769</v>
+        <v>0.371426</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.356926</v>
+        <v>0.357837</v>
       </c>
       <c r="C44" t="n">
-        <v>0.321573</v>
+        <v>0.328082</v>
       </c>
       <c r="D44" t="n">
-        <v>0.340674</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.350446</v>
+        <v>0.351243</v>
       </c>
       <c r="C45" t="n">
-        <v>0.314793</v>
+        <v>0.321435</v>
       </c>
       <c r="D45" t="n">
-        <v>0.334273</v>
+        <v>0.356549</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.344526</v>
+        <v>0.345399</v>
       </c>
       <c r="C46" t="n">
-        <v>0.308462</v>
+        <v>0.31506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.32837</v>
+        <v>0.349931</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.339004</v>
+        <v>0.339856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.302802</v>
+        <v>0.309347</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323235</v>
+        <v>0.34396</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.334268</v>
+        <v>0.335271</v>
       </c>
       <c r="C48" t="n">
-        <v>0.297996</v>
+        <v>0.304366</v>
       </c>
       <c r="D48" t="n">
-        <v>0.318852</v>
+        <v>0.338903</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.330288</v>
+        <v>0.331343</v>
       </c>
       <c r="C49" t="n">
-        <v>0.294325</v>
+        <v>0.300308</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315896</v>
+        <v>0.334955</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.327413</v>
+        <v>0.328423</v>
       </c>
       <c r="C50" t="n">
-        <v>0.291679</v>
+        <v>0.29728</v>
       </c>
       <c r="D50" t="n">
-        <v>0.314568</v>
+        <v>0.33256</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.325784</v>
+        <v>0.326829</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290766</v>
+        <v>0.295835</v>
       </c>
       <c r="D51" t="n">
-        <v>0.407994</v>
+        <v>0.43799</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.326583</v>
+        <v>0.32759</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292413</v>
+        <v>0.297047</v>
       </c>
       <c r="D52" t="n">
-        <v>0.397691</v>
+        <v>0.427353</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.402778</v>
+        <v>0.404092</v>
       </c>
       <c r="C53" t="n">
-        <v>0.374556</v>
+        <v>0.379243</v>
       </c>
       <c r="D53" t="n">
-        <v>0.388172</v>
+        <v>0.417208</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.394484</v>
+        <v>0.395918</v>
       </c>
       <c r="C54" t="n">
-        <v>0.365365</v>
+        <v>0.370147</v>
       </c>
       <c r="D54" t="n">
-        <v>0.379133</v>
+        <v>0.407583</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.386802</v>
+        <v>0.388124</v>
       </c>
       <c r="C55" t="n">
-        <v>0.356538</v>
+        <v>0.361524</v>
       </c>
       <c r="D55" t="n">
-        <v>0.370702</v>
+        <v>0.398479</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.379724</v>
+        <v>0.380998</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348426</v>
+        <v>0.35407</v>
       </c>
       <c r="D56" t="n">
-        <v>0.362676</v>
+        <v>0.389864</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3729</v>
+        <v>0.374042</v>
       </c>
       <c r="C57" t="n">
-        <v>0.340852</v>
+        <v>0.345882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.35528</v>
+        <v>0.381759</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.366423</v>
+        <v>0.367689</v>
       </c>
       <c r="C58" t="n">
-        <v>0.333422</v>
+        <v>0.338569</v>
       </c>
       <c r="D58" t="n">
-        <v>0.347992</v>
+        <v>0.373968</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.360462</v>
+        <v>0.361574</v>
       </c>
       <c r="C59" t="n">
-        <v>0.326633</v>
+        <v>0.331835</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341368</v>
+        <v>0.366896</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.354986</v>
+        <v>0.356112</v>
       </c>
       <c r="C60" t="n">
-        <v>0.320473</v>
+        <v>0.326037</v>
       </c>
       <c r="D60" t="n">
-        <v>0.335727</v>
+        <v>0.360495</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.349861</v>
+        <v>0.350887</v>
       </c>
       <c r="C61" t="n">
-        <v>0.315006</v>
+        <v>0.320356</v>
       </c>
       <c r="D61" t="n">
-        <v>0.330617</v>
+        <v>0.354495</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.345236</v>
+        <v>0.346309</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310113</v>
+        <v>0.315489</v>
       </c>
       <c r="D62" t="n">
-        <v>0.326487</v>
+        <v>0.349352</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.341469</v>
+        <v>0.342464</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30616</v>
+        <v>0.310692</v>
       </c>
       <c r="D63" t="n">
-        <v>0.323694</v>
+        <v>0.345175</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.338575</v>
+        <v>0.339541</v>
       </c>
       <c r="C64" t="n">
-        <v>0.303178</v>
+        <v>0.307316</v>
       </c>
       <c r="D64" t="n">
-        <v>0.321573</v>
+        <v>0.342497</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.336952</v>
+        <v>0.337996</v>
       </c>
       <c r="C65" t="n">
-        <v>0.301802</v>
+        <v>0.305482</v>
       </c>
       <c r="D65" t="n">
-        <v>0.322126</v>
+        <v>0.341762</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.337307</v>
+        <v>0.33816</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303227</v>
+        <v>0.306269</v>
       </c>
       <c r="D66" t="n">
-        <v>0.407087</v>
+        <v>0.439678</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.421039</v>
+        <v>0.424604</v>
       </c>
       <c r="C67" t="n">
-        <v>0.388569</v>
+        <v>0.391669</v>
       </c>
       <c r="D67" t="n">
-        <v>0.397621</v>
+        <v>0.429277</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.412625</v>
+        <v>0.416501</v>
       </c>
       <c r="C68" t="n">
-        <v>0.378989</v>
+        <v>0.382151</v>
       </c>
       <c r="D68" t="n">
-        <v>0.387794</v>
+        <v>0.419426</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.404925</v>
+        <v>0.407963</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369963</v>
+        <v>0.373819</v>
       </c>
       <c r="D69" t="n">
-        <v>0.379334</v>
+        <v>0.410019</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.397472</v>
+        <v>0.400438</v>
       </c>
       <c r="C70" t="n">
-        <v>0.361377</v>
+        <v>0.366003</v>
       </c>
       <c r="D70" t="n">
-        <v>0.370891</v>
+        <v>0.401154</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.390939</v>
+        <v>0.393217</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35342</v>
+        <v>0.357733</v>
       </c>
       <c r="D71" t="n">
-        <v>0.363223</v>
+        <v>0.392767</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.384258</v>
+        <v>0.387051</v>
       </c>
       <c r="C72" t="n">
-        <v>0.346017</v>
+        <v>0.350734</v>
       </c>
       <c r="D72" t="n">
-        <v>0.35558</v>
+        <v>0.384912</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.378222</v>
+        <v>0.380898</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339015</v>
+        <v>0.34394</v>
       </c>
       <c r="D73" t="n">
-        <v>0.348787</v>
+        <v>0.377616</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.372497</v>
+        <v>0.374877</v>
       </c>
       <c r="C74" t="n">
-        <v>0.332591</v>
+        <v>0.337498</v>
       </c>
       <c r="D74" t="n">
-        <v>0.342833</v>
+        <v>0.370817</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.367388</v>
+        <v>0.369794</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326755</v>
+        <v>0.331577</v>
       </c>
       <c r="D75" t="n">
-        <v>0.337474</v>
+        <v>0.364732</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.362757</v>
+        <v>0.36484</v>
       </c>
       <c r="C76" t="n">
-        <v>0.321405</v>
+        <v>0.326355</v>
       </c>
       <c r="D76" t="n">
-        <v>0.332359</v>
+        <v>0.359337</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.358906</v>
+        <v>0.360964</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317059</v>
+        <v>0.321804</v>
       </c>
       <c r="D77" t="n">
-        <v>0.329573</v>
+        <v>0.354978</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.355804</v>
+        <v>0.357916</v>
       </c>
       <c r="C78" t="n">
-        <v>0.313715</v>
+        <v>0.318539</v>
       </c>
       <c r="D78" t="n">
-        <v>0.32755</v>
+        <v>0.352017</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.354087</v>
+        <v>0.356045</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31198</v>
+        <v>0.316939</v>
       </c>
       <c r="D79" t="n">
-        <v>0.327243</v>
+        <v>0.351009</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.354286</v>
+        <v>0.356188</v>
       </c>
       <c r="C80" t="n">
-        <v>0.312287</v>
+        <v>0.316798</v>
       </c>
       <c r="D80" t="n">
-        <v>0.420283</v>
+        <v>0.453559</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.459048</v>
+        <v>0.462086</v>
       </c>
       <c r="C81" t="n">
-        <v>0.406715</v>
+        <v>0.410908</v>
       </c>
       <c r="D81" t="n">
-        <v>0.410984</v>
+        <v>0.443789</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.452479</v>
+        <v>0.455238</v>
       </c>
       <c r="C82" t="n">
-        <v>0.397402</v>
+        <v>0.402546</v>
       </c>
       <c r="D82" t="n">
-        <v>0.40219</v>
+        <v>0.434431</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.446576</v>
+        <v>0.449252</v>
       </c>
       <c r="C83" t="n">
-        <v>0.388056</v>
+        <v>0.394326</v>
       </c>
       <c r="D83" t="n">
-        <v>0.393787</v>
+        <v>0.425559</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.44099</v>
+        <v>0.444754</v>
       </c>
       <c r="C84" t="n">
-        <v>0.379046</v>
+        <v>0.38666</v>
       </c>
       <c r="D84" t="n">
-        <v>0.385584</v>
+        <v>0.416981</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.435504</v>
+        <v>0.437258</v>
       </c>
       <c r="C85" t="n">
-        <v>0.370662</v>
+        <v>0.379188</v>
       </c>
       <c r="D85" t="n">
-        <v>0.377882</v>
+        <v>0.408752</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.429557</v>
+        <v>0.432006</v>
       </c>
       <c r="C86" t="n">
-        <v>0.36275</v>
+        <v>0.37193</v>
       </c>
       <c r="D86" t="n">
-        <v>0.370429</v>
+        <v>0.400831</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.423274</v>
+        <v>0.425868</v>
       </c>
       <c r="C87" t="n">
-        <v>0.355035</v>
+        <v>0.364871</v>
       </c>
       <c r="D87" t="n">
-        <v>0.36334</v>
+        <v>0.393427</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.417171</v>
+        <v>0.419248</v>
       </c>
       <c r="C88" t="n">
-        <v>0.348137</v>
+        <v>0.358437</v>
       </c>
       <c r="D88" t="n">
-        <v>0.356908</v>
+        <v>0.386467</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.41145</v>
+        <v>0.413572</v>
       </c>
       <c r="C89" t="n">
-        <v>0.341729</v>
+        <v>0.352441</v>
       </c>
       <c r="D89" t="n">
-        <v>0.351038</v>
+        <v>0.380197</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.405805</v>
+        <v>0.407851</v>
       </c>
       <c r="C90" t="n">
-        <v>0.335992</v>
+        <v>0.347002</v>
       </c>
       <c r="D90" t="n">
-        <v>0.345953</v>
+        <v>0.374492</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.400701</v>
+        <v>0.402477</v>
       </c>
       <c r="C91" t="n">
-        <v>0.331092</v>
+        <v>0.3422</v>
       </c>
       <c r="D91" t="n">
-        <v>0.341956</v>
+        <v>0.369778</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.396536</v>
+        <v>0.398478</v>
       </c>
       <c r="C92" t="n">
-        <v>0.327062</v>
+        <v>0.338237</v>
       </c>
       <c r="D92" t="n">
-        <v>0.339229</v>
+        <v>0.366435</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.393349</v>
+        <v>0.394615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.324576</v>
+        <v>0.335611</v>
       </c>
       <c r="D93" t="n">
-        <v>0.338605</v>
+        <v>0.36488</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.391831</v>
+        <v>0.393479</v>
       </c>
       <c r="C94" t="n">
-        <v>0.32418</v>
+        <v>0.334803</v>
       </c>
       <c r="D94" t="n">
-        <v>0.445294</v>
+        <v>0.477173</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.491428</v>
+        <v>0.492212</v>
       </c>
       <c r="C95" t="n">
-        <v>0.426454</v>
+        <v>0.43818</v>
       </c>
       <c r="D95" t="n">
-        <v>0.444546</v>
+        <v>0.477529</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496693</v>
+        <v>0.497667</v>
       </c>
       <c r="C96" t="n">
-        <v>0.423453</v>
+        <v>0.439192</v>
       </c>
       <c r="D96" t="n">
-        <v>0.442472</v>
+        <v>0.475233</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497092</v>
+        <v>0.498081</v>
       </c>
       <c r="C97" t="n">
-        <v>0.416086</v>
+        <v>0.435662</v>
       </c>
       <c r="D97" t="n">
-        <v>0.439479</v>
+        <v>0.471867</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4968</v>
+        <v>0.497237</v>
       </c>
       <c r="C98" t="n">
-        <v>0.408085</v>
+        <v>0.431562</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435839</v>
+        <v>0.467638</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.494958</v>
+        <v>0.495689</v>
       </c>
       <c r="C99" t="n">
-        <v>0.40034</v>
+        <v>0.42716</v>
       </c>
       <c r="D99" t="n">
-        <v>0.431825</v>
+        <v>0.46317</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.49279</v>
+        <v>0.493252</v>
       </c>
       <c r="C100" t="n">
-        <v>0.392986</v>
+        <v>0.422362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.428072</v>
+        <v>0.458474</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.489997</v>
+        <v>0.491162</v>
       </c>
       <c r="C101" t="n">
-        <v>0.386104</v>
+        <v>0.417714</v>
       </c>
       <c r="D101" t="n">
-        <v>0.424118</v>
+        <v>0.453746</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.487374</v>
+        <v>0.488345</v>
       </c>
       <c r="C102" t="n">
-        <v>0.379616</v>
+        <v>0.413198</v>
       </c>
       <c r="D102" t="n">
-        <v>0.420688</v>
+        <v>0.449178</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484715</v>
+        <v>0.485577</v>
       </c>
       <c r="C103" t="n">
-        <v>0.37394</v>
+        <v>0.409158</v>
       </c>
       <c r="D103" t="n">
-        <v>0.417537</v>
+        <v>0.445021</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.482031</v>
+        <v>0.483039</v>
       </c>
       <c r="C104" t="n">
-        <v>0.368994</v>
+        <v>0.4052</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414835</v>
+        <v>0.441342</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.479734</v>
+        <v>0.48078</v>
       </c>
       <c r="C105" t="n">
-        <v>0.364827</v>
+        <v>0.401922</v>
       </c>
       <c r="D105" t="n">
-        <v>0.413032</v>
+        <v>0.43832</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477907</v>
+        <v>0.478789</v>
       </c>
       <c r="C106" t="n">
-        <v>0.361821</v>
+        <v>0.399016</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412136</v>
+        <v>0.435892</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.476506</v>
+        <v>0.477347</v>
       </c>
       <c r="C107" t="n">
-        <v>0.360092</v>
+        <v>0.396857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.412426</v>
+        <v>0.434638</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.47603</v>
+        <v>0.476905</v>
       </c>
       <c r="C108" t="n">
-        <v>0.359981</v>
+        <v>0.396272</v>
       </c>
       <c r="D108" t="n">
-        <v>0.582865</v>
+        <v>0.626004</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.478381</v>
+        <v>0.478165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.362953</v>
+        <v>0.399228</v>
       </c>
       <c r="D109" t="n">
-        <v>0.581956</v>
+        <v>0.6272219999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.630064</v>
+        <v>0.630934</v>
       </c>
       <c r="C110" t="n">
-        <v>0.49382</v>
+        <v>0.53245</v>
       </c>
       <c r="D110" t="n">
-        <v>0.578564</v>
+        <v>0.623912</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.629961</v>
+        <v>0.629657</v>
       </c>
       <c r="C111" t="n">
-        <v>0.485956</v>
+        <v>0.526633</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5753549999999999</v>
+        <v>0.619796</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.627808</v>
+        <v>0.627239</v>
       </c>
       <c r="C112" t="n">
-        <v>0.480001</v>
+        <v>0.521956</v>
       </c>
       <c r="D112" t="n">
-        <v>0.573385</v>
+        <v>0.6160679999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.628315</v>
+        <v>0.628072</v>
       </c>
       <c r="C113" t="n">
-        <v>0.473617</v>
+        <v>0.518234</v>
       </c>
       <c r="D113" t="n">
-        <v>0.569753</v>
+        <v>0.612129</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.626909</v>
+        <v>0.627169</v>
       </c>
       <c r="C114" t="n">
-        <v>0.467317</v>
+        <v>0.513577</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5667140000000001</v>
+        <v>0.609264</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6280210000000001</v>
+        <v>0.626572</v>
       </c>
       <c r="C115" t="n">
-        <v>0.462023</v>
+        <v>0.508721</v>
       </c>
       <c r="D115" t="n">
-        <v>0.564954</v>
+        <v>0.606564</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.625968</v>
+        <v>0.626232</v>
       </c>
       <c r="C116" t="n">
-        <v>0.457006</v>
+        <v>0.506769</v>
       </c>
       <c r="D116" t="n">
-        <v>0.563188</v>
+        <v>0.604136</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.626175</v>
+        <v>0.626251</v>
       </c>
       <c r="C117" t="n">
-        <v>0.454079</v>
+        <v>0.504726</v>
       </c>
       <c r="D117" t="n">
-        <v>0.561702</v>
+        <v>0.601544</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625328</v>
+        <v>0.626923</v>
       </c>
       <c r="C118" t="n">
-        <v>0.452643</v>
+        <v>0.502288</v>
       </c>
       <c r="D118" t="n">
-        <v>0.561079</v>
+        <v>0.5994</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.626291</v>
+        <v>0.6270790000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.450615</v>
+        <v>0.499589</v>
       </c>
       <c r="D119" t="n">
-        <v>0.561464</v>
+        <v>0.597266</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.626208</v>
+        <v>0.627035</v>
       </c>
       <c r="C120" t="n">
-        <v>0.450138</v>
+        <v>0.496775</v>
       </c>
       <c r="D120" t="n">
-        <v>0.563439</v>
+        <v>0.596425</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.626838</v>
+        <v>0.626258</v>
       </c>
       <c r="C121" t="n">
-        <v>0.452307</v>
+        <v>0.494902</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5657489999999999</v>
+        <v>0.595629</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.629907</v>
+        <v>0.628727</v>
       </c>
       <c r="C122" t="n">
-        <v>0.45453</v>
+        <v>0.494757</v>
       </c>
       <c r="D122" t="n">
-        <v>0.569883</v>
+        <v>0.597359</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.631331</v>
+        <v>0.631722</v>
       </c>
       <c r="C123" t="n">
-        <v>0.458394</v>
+        <v>0.497605</v>
       </c>
       <c r="D123" t="n">
-        <v>0.701965</v>
+        <v>0.747842</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.786681</v>
+        <v>0.78692</v>
       </c>
       <c r="C124" t="n">
-        <v>0.594796</v>
+        <v>0.634485</v>
       </c>
       <c r="D124" t="n">
-        <v>0.695088</v>
+        <v>0.7447279999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.786992</v>
+        <v>0.787985</v>
       </c>
       <c r="C125" t="n">
-        <v>0.588788</v>
+        <v>0.631386</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6896409999999999</v>
+        <v>0.741191</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.787081</v>
+        <v>0.787878</v>
       </c>
       <c r="C126" t="n">
-        <v>0.583623</v>
+        <v>0.62791</v>
       </c>
       <c r="D126" t="n">
-        <v>0.684728</v>
+        <v>0.7379019999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.787342</v>
+        <v>0.789371</v>
       </c>
       <c r="C127" t="n">
-        <v>0.578508</v>
+        <v>0.623826</v>
       </c>
       <c r="D127" t="n">
-        <v>0.679932</v>
+        <v>0.734846</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.788588</v>
+        <v>0.788324</v>
       </c>
       <c r="C128" t="n">
-        <v>0.573782</v>
+        <v>0.62073</v>
       </c>
       <c r="D128" t="n">
-        <v>0.675851</v>
+        <v>0.7320489999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.789479</v>
+        <v>0.789732</v>
       </c>
       <c r="C129" t="n">
-        <v>0.569493</v>
+        <v>0.618038</v>
       </c>
       <c r="D129" t="n">
-        <v>0.672459</v>
+        <v>0.730734</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.789802</v>
+        <v>0.790228</v>
       </c>
       <c r="C130" t="n">
-        <v>0.567017</v>
+        <v>0.615845</v>
       </c>
       <c r="D130" t="n">
-        <v>0.670134</v>
+        <v>0.729224</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.791891</v>
+        <v>0.792579</v>
       </c>
       <c r="C131" t="n">
-        <v>0.565746</v>
+        <v>0.613787</v>
       </c>
       <c r="D131" t="n">
-        <v>0.66653</v>
+        <v>0.727187</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.792571</v>
+        <v>0.793156</v>
       </c>
       <c r="C132" t="n">
-        <v>0.563789</v>
+        <v>0.611578</v>
       </c>
       <c r="D132" t="n">
-        <v>0.665806</v>
+        <v>0.726357</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.794812</v>
+        <v>0.79425</v>
       </c>
       <c r="C133" t="n">
-        <v>0.563463</v>
+        <v>0.609793</v>
       </c>
       <c r="D133" t="n">
-        <v>0.664898</v>
+        <v>0.725383</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.796938</v>
+        <v>0.796231</v>
       </c>
       <c r="C134" t="n">
-        <v>0.564371</v>
+        <v>0.609457</v>
       </c>
       <c r="D134" t="n">
-        <v>0.665915</v>
+        <v>0.724898</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.797184</v>
+        <v>0.797211</v>
       </c>
       <c r="C135" t="n">
-        <v>0.566209</v>
+        <v>0.608739</v>
       </c>
       <c r="D135" t="n">
-        <v>0.668131</v>
+        <v>0.7259139999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.799265</v>
+        <v>0.799153</v>
       </c>
       <c r="C136" t="n">
-        <v>0.569407</v>
+        <v>0.608581</v>
       </c>
       <c r="D136" t="n">
-        <v>0.672948</v>
+        <v>0.727481</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8014250000000001</v>
+        <v>0.8013940000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.57437</v>
+        <v>0.611728</v>
       </c>
       <c r="D137" t="n">
-        <v>0.808234</v>
+        <v>0.8787160000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.948349</v>
+        <v>0.946839</v>
       </c>
       <c r="C138" t="n">
-        <v>0.711253</v>
+        <v>0.747005</v>
       </c>
       <c r="D138" t="n">
-        <v>0.798169</v>
+        <v>0.873049</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.948319</v>
+        <v>0.9468</v>
       </c>
       <c r="C139" t="n">
-        <v>0.703858</v>
+        <v>0.741345</v>
       </c>
       <c r="D139" t="n">
-        <v>0.789868</v>
+        <v>0.867911</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.948518</v>
+        <v>0.94738</v>
       </c>
       <c r="C140" t="n">
-        <v>0.697674</v>
+        <v>0.738161</v>
       </c>
       <c r="D140" t="n">
-        <v>0.781015</v>
+        <v>0.863429</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.947997</v>
+        <v>0.947452</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6915829999999999</v>
+        <v>0.7334619999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.773628</v>
+        <v>0.857958</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.948901</v>
+        <v>0.947364</v>
       </c>
       <c r="C142" t="n">
-        <v>0.686588</v>
+        <v>0.729425</v>
       </c>
       <c r="D142" t="n">
-        <v>0.766513</v>
+        <v>0.854777</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.948585</v>
+        <v>0.947416</v>
       </c>
       <c r="C143" t="n">
-        <v>0.681696</v>
+        <v>0.726281</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7600749999999999</v>
+        <v>0.850442</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.33687</v>
+        <v>0.247006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.307263</v>
+        <v>0.199201</v>
       </c>
       <c r="D2" t="n">
-        <v>0.336825</v>
+        <v>0.195794</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331344</v>
+        <v>0.241774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.300218</v>
+        <v>0.193177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.328832</v>
+        <v>0.190809</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.326501</v>
+        <v>0.236275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.294359</v>
+        <v>0.189908</v>
       </c>
       <c r="D4" t="n">
-        <v>0.324209</v>
+        <v>0.185519</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32189</v>
+        <v>0.231502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.290378</v>
+        <v>0.186375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.320374</v>
+        <v>0.181255</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31615</v>
+        <v>0.227623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284387</v>
+        <v>0.182185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.314631</v>
+        <v>0.178192</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.313091</v>
+        <v>0.224542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.281669</v>
+        <v>0.182401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.312577</v>
+        <v>0.177778</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.311033</v>
+        <v>0.222474</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279677</v>
+        <v>0.181433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.311933</v>
+        <v>0.178294</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.312505</v>
+        <v>0.22287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.281968</v>
+        <v>0.184858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.409978</v>
+        <v>0.269429</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.39446</v>
+        <v>0.307928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.365189</v>
+        <v>0.269129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399404</v>
+        <v>0.260042</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.384871</v>
+        <v>0.299679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.355167</v>
+        <v>0.260119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.388829</v>
+        <v>0.250223</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.376474</v>
+        <v>0.291007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.346294</v>
+        <v>0.251269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.379899</v>
+        <v>0.242166</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.367572</v>
+        <v>0.283237</v>
       </c>
       <c r="C13" t="n">
-        <v>0.336871</v>
+        <v>0.242516</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37025</v>
+        <v>0.233734</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.360224</v>
+        <v>0.27598</v>
       </c>
       <c r="C14" t="n">
-        <v>0.329203</v>
+        <v>0.235113</v>
       </c>
       <c r="D14" t="n">
-        <v>0.362425</v>
+        <v>0.226135</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.35275</v>
+        <v>0.269938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.32147</v>
+        <v>0.228172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.354439</v>
+        <v>0.21895</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34574</v>
+        <v>0.2633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.31398</v>
+        <v>0.221421</v>
       </c>
       <c r="D16" t="n">
-        <v>0.346698</v>
+        <v>0.212116</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3392</v>
+        <v>0.257452</v>
       </c>
       <c r="C17" t="n">
-        <v>0.307332</v>
+        <v>0.214728</v>
       </c>
       <c r="D17" t="n">
-        <v>0.340165</v>
+        <v>0.206187</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.332776</v>
+        <v>0.251601</v>
       </c>
       <c r="C18" t="n">
-        <v>0.301207</v>
+        <v>0.210094</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333909</v>
+        <v>0.20084</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.327856</v>
+        <v>0.246682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.296299</v>
+        <v>0.205564</v>
       </c>
       <c r="D19" t="n">
-        <v>0.329273</v>
+        <v>0.196521</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.32275</v>
+        <v>0.242027</v>
       </c>
       <c r="C20" t="n">
-        <v>0.291268</v>
+        <v>0.201803</v>
       </c>
       <c r="D20" t="n">
-        <v>0.323987</v>
+        <v>0.193622</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.319344</v>
+        <v>0.238041</v>
       </c>
       <c r="C21" t="n">
-        <v>0.288037</v>
+        <v>0.19921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.32112</v>
+        <v>0.192027</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.316921</v>
+        <v>0.23555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.285982</v>
+        <v>0.197929</v>
       </c>
       <c r="D22" t="n">
-        <v>0.320087</v>
+        <v>0.192831</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.316141</v>
+        <v>0.235059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.286346</v>
+        <v>0.198883</v>
       </c>
       <c r="D23" t="n">
-        <v>0.419319</v>
+        <v>0.281445</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.407145</v>
+        <v>0.319351</v>
       </c>
       <c r="C24" t="n">
-        <v>0.373285</v>
+        <v>0.286387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.409142</v>
+        <v>0.271628</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.397695</v>
+        <v>0.310803</v>
       </c>
       <c r="C25" t="n">
-        <v>0.362948</v>
+        <v>0.276681</v>
       </c>
       <c r="D25" t="n">
-        <v>0.398666</v>
+        <v>0.262282</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.388537</v>
+        <v>0.302358</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352539</v>
+        <v>0.266664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.388955</v>
+        <v>0.253212</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.380102</v>
+        <v>0.29362</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343774</v>
+        <v>0.258155</v>
       </c>
       <c r="D27" t="n">
-        <v>0.379741</v>
+        <v>0.244851</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.37188</v>
+        <v>0.286605</v>
       </c>
       <c r="C28" t="n">
-        <v>0.335907</v>
+        <v>0.249939</v>
       </c>
       <c r="D28" t="n">
-        <v>0.371548</v>
+        <v>0.236852</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.363797</v>
+        <v>0.279253</v>
       </c>
       <c r="C29" t="n">
-        <v>0.328073</v>
+        <v>0.241552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.363259</v>
+        <v>0.22951</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.356898</v>
+        <v>0.27233</v>
       </c>
       <c r="C30" t="n">
-        <v>0.320571</v>
+        <v>0.234285</v>
       </c>
       <c r="D30" t="n">
-        <v>0.355373</v>
+        <v>0.222439</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.349768</v>
+        <v>0.265843</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313708</v>
+        <v>0.227367</v>
       </c>
       <c r="D31" t="n">
-        <v>0.348247</v>
+        <v>0.216227</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.343008</v>
+        <v>0.260005</v>
       </c>
       <c r="C32" t="n">
-        <v>0.307382</v>
+        <v>0.220979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.341769</v>
+        <v>0.210173</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.337427</v>
+        <v>0.254666</v>
       </c>
       <c r="C33" t="n">
-        <v>0.301368</v>
+        <v>0.216034</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336031</v>
+        <v>0.205167</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.332854</v>
+        <v>0.249694</v>
       </c>
       <c r="C34" t="n">
-        <v>0.296299</v>
+        <v>0.211205</v>
       </c>
       <c r="D34" t="n">
-        <v>0.330893</v>
+        <v>0.200992</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.327963</v>
+        <v>0.244878</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291954</v>
+        <v>0.207342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.326903</v>
+        <v>0.198421</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.322827</v>
+        <v>0.242091</v>
       </c>
       <c r="C36" t="n">
-        <v>0.289282</v>
+        <v>0.204671</v>
       </c>
       <c r="D36" t="n">
-        <v>0.325003</v>
+        <v>0.197918</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322043</v>
+        <v>0.240901</v>
       </c>
       <c r="C37" t="n">
-        <v>0.288882</v>
+        <v>0.20432</v>
       </c>
       <c r="D37" t="n">
-        <v>0.427843</v>
+        <v>0.28849</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.404449</v>
+        <v>0.323541</v>
       </c>
       <c r="C38" t="n">
-        <v>0.378597</v>
+        <v>0.294312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.417167</v>
+        <v>0.278615</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.395971</v>
+        <v>0.31529</v>
       </c>
       <c r="C39" t="n">
-        <v>0.369464</v>
+        <v>0.284492</v>
       </c>
       <c r="D39" t="n">
-        <v>0.407193</v>
+        <v>0.269319</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.387474</v>
+        <v>0.307443</v>
       </c>
       <c r="C40" t="n">
-        <v>0.360255</v>
+        <v>0.274984</v>
       </c>
       <c r="D40" t="n">
-        <v>0.397371</v>
+        <v>0.260507</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.379331</v>
+        <v>0.298903</v>
       </c>
       <c r="C41" t="n">
-        <v>0.351472</v>
+        <v>0.265959</v>
       </c>
       <c r="D41" t="n">
-        <v>0.388243</v>
+        <v>0.252068</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.371701</v>
+        <v>0.291359</v>
       </c>
       <c r="C42" t="n">
-        <v>0.343394</v>
+        <v>0.257436</v>
       </c>
       <c r="D42" t="n">
-        <v>0.379646</v>
+        <v>0.244143</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.364541</v>
+        <v>0.284068</v>
       </c>
       <c r="C43" t="n">
-        <v>0.335517</v>
+        <v>0.249354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.371426</v>
+        <v>0.236595</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.357837</v>
+        <v>0.277291</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328082</v>
+        <v>0.242165</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3636</v>
+        <v>0.229665</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.351243</v>
+        <v>0.270984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.321435</v>
+        <v>0.235236</v>
       </c>
       <c r="D45" t="n">
-        <v>0.356549</v>
+        <v>0.223363</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.345399</v>
+        <v>0.26517</v>
       </c>
       <c r="C46" t="n">
-        <v>0.31506</v>
+        <v>0.229138</v>
       </c>
       <c r="D46" t="n">
-        <v>0.349931</v>
+        <v>0.217677</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.339856</v>
+        <v>0.259795</v>
       </c>
       <c r="C47" t="n">
-        <v>0.309347</v>
+        <v>0.223631</v>
       </c>
       <c r="D47" t="n">
-        <v>0.34396</v>
+        <v>0.212709</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.335271</v>
+        <v>0.256041</v>
       </c>
       <c r="C48" t="n">
-        <v>0.304366</v>
+        <v>0.21865</v>
       </c>
       <c r="D48" t="n">
-        <v>0.338903</v>
+        <v>0.208643</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.331343</v>
+        <v>0.251167</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300308</v>
+        <v>0.214151</v>
       </c>
       <c r="D49" t="n">
-        <v>0.334955</v>
+        <v>0.205899</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.328423</v>
+        <v>0.24829</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29728</v>
+        <v>0.212045</v>
       </c>
       <c r="D50" t="n">
-        <v>0.33256</v>
+        <v>0.20489</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.326829</v>
+        <v>0.247177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.295835</v>
+        <v>0.210889</v>
       </c>
       <c r="D51" t="n">
-        <v>0.43799</v>
+        <v>0.2987</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.32759</v>
+        <v>0.247242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.297047</v>
+        <v>0.21259</v>
       </c>
       <c r="D52" t="n">
-        <v>0.427353</v>
+        <v>0.288662</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.404092</v>
+        <v>0.324917</v>
       </c>
       <c r="C53" t="n">
-        <v>0.379243</v>
+        <v>0.297474</v>
       </c>
       <c r="D53" t="n">
-        <v>0.417208</v>
+        <v>0.279071</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.395918</v>
+        <v>0.317045</v>
       </c>
       <c r="C54" t="n">
-        <v>0.370147</v>
+        <v>0.287779</v>
       </c>
       <c r="D54" t="n">
-        <v>0.407583</v>
+        <v>0.27009</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.388124</v>
+        <v>0.309466</v>
       </c>
       <c r="C55" t="n">
-        <v>0.361524</v>
+        <v>0.279171</v>
       </c>
       <c r="D55" t="n">
-        <v>0.398479</v>
+        <v>0.261456</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.380998</v>
+        <v>0.302107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.35407</v>
+        <v>0.27045</v>
       </c>
       <c r="D56" t="n">
-        <v>0.389864</v>
+        <v>0.253429</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.374042</v>
+        <v>0.295287</v>
       </c>
       <c r="C57" t="n">
-        <v>0.345882</v>
+        <v>0.262801</v>
       </c>
       <c r="D57" t="n">
-        <v>0.381759</v>
+        <v>0.245954</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.367689</v>
+        <v>0.288701</v>
       </c>
       <c r="C58" t="n">
-        <v>0.338569</v>
+        <v>0.2554</v>
       </c>
       <c r="D58" t="n">
-        <v>0.373968</v>
+        <v>0.238804</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.361574</v>
+        <v>0.282751</v>
       </c>
       <c r="C59" t="n">
-        <v>0.331835</v>
+        <v>0.248054</v>
       </c>
       <c r="D59" t="n">
-        <v>0.366896</v>
+        <v>0.232291</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.356112</v>
+        <v>0.276743</v>
       </c>
       <c r="C60" t="n">
-        <v>0.326037</v>
+        <v>0.241644</v>
       </c>
       <c r="D60" t="n">
-        <v>0.360495</v>
+        <v>0.226583</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.350887</v>
+        <v>0.272121</v>
       </c>
       <c r="C61" t="n">
-        <v>0.320356</v>
+        <v>0.236009</v>
       </c>
       <c r="D61" t="n">
-        <v>0.354495</v>
+        <v>0.221633</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.346309</v>
+        <v>0.267612</v>
       </c>
       <c r="C62" t="n">
-        <v>0.315489</v>
+        <v>0.230851</v>
       </c>
       <c r="D62" t="n">
-        <v>0.349352</v>
+        <v>0.217382</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.342464</v>
+        <v>0.263501</v>
       </c>
       <c r="C63" t="n">
-        <v>0.310692</v>
+        <v>0.22658</v>
       </c>
       <c r="D63" t="n">
-        <v>0.345175</v>
+        <v>0.214225</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.339541</v>
+        <v>0.26072</v>
       </c>
       <c r="C64" t="n">
-        <v>0.307316</v>
+        <v>0.223468</v>
       </c>
       <c r="D64" t="n">
-        <v>0.342497</v>
+        <v>0.212747</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.337996</v>
+        <v>0.258784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305482</v>
+        <v>0.221524</v>
       </c>
       <c r="D65" t="n">
-        <v>0.341762</v>
+        <v>0.213723</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.33816</v>
+        <v>0.259026</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306269</v>
+        <v>0.223069</v>
       </c>
       <c r="D66" t="n">
-        <v>0.439678</v>
+        <v>0.298853</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.424604</v>
+        <v>0.340434</v>
       </c>
       <c r="C67" t="n">
-        <v>0.391669</v>
+        <v>0.309549</v>
       </c>
       <c r="D67" t="n">
-        <v>0.429277</v>
+        <v>0.28923</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.416501</v>
+        <v>0.332562</v>
       </c>
       <c r="C68" t="n">
-        <v>0.382151</v>
+        <v>0.300152</v>
       </c>
       <c r="D68" t="n">
-        <v>0.419426</v>
+        <v>0.279801</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.407963</v>
+        <v>0.325061</v>
       </c>
       <c r="C69" t="n">
-        <v>0.373819</v>
+        <v>0.290517</v>
       </c>
       <c r="D69" t="n">
-        <v>0.410019</v>
+        <v>0.27103</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.400438</v>
+        <v>0.317917</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366003</v>
+        <v>0.282016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.401154</v>
+        <v>0.26266</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.393217</v>
+        <v>0.311229</v>
       </c>
       <c r="C71" t="n">
-        <v>0.357733</v>
+        <v>0.273789</v>
       </c>
       <c r="D71" t="n">
-        <v>0.392767</v>
+        <v>0.254907</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.387051</v>
+        <v>0.305071</v>
       </c>
       <c r="C72" t="n">
-        <v>0.350734</v>
+        <v>0.266337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.384912</v>
+        <v>0.247624</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.380898</v>
+        <v>0.299237</v>
       </c>
       <c r="C73" t="n">
-        <v>0.34394</v>
+        <v>0.259016</v>
       </c>
       <c r="D73" t="n">
-        <v>0.377616</v>
+        <v>0.240943</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.374877</v>
+        <v>0.293661</v>
       </c>
       <c r="C74" t="n">
-        <v>0.337498</v>
+        <v>0.25259</v>
       </c>
       <c r="D74" t="n">
-        <v>0.370817</v>
+        <v>0.234851</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.369794</v>
+        <v>0.288772</v>
       </c>
       <c r="C75" t="n">
-        <v>0.331577</v>
+        <v>0.246779</v>
       </c>
       <c r="D75" t="n">
-        <v>0.364732</v>
+        <v>0.229387</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.36484</v>
+        <v>0.284116</v>
       </c>
       <c r="C76" t="n">
-        <v>0.326355</v>
+        <v>0.241471</v>
       </c>
       <c r="D76" t="n">
-        <v>0.359337</v>
+        <v>0.224816</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.360964</v>
+        <v>0.280313</v>
       </c>
       <c r="C77" t="n">
-        <v>0.321804</v>
+        <v>0.23687</v>
       </c>
       <c r="D77" t="n">
-        <v>0.354978</v>
+        <v>0.221299</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.357916</v>
+        <v>0.277211</v>
       </c>
       <c r="C78" t="n">
-        <v>0.318539</v>
+        <v>0.233363</v>
       </c>
       <c r="D78" t="n">
-        <v>0.352017</v>
+        <v>0.219289</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.356045</v>
+        <v>0.275183</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316939</v>
+        <v>0.231383</v>
       </c>
       <c r="D79" t="n">
-        <v>0.351009</v>
+        <v>0.219723</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.356188</v>
+        <v>0.274947</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316798</v>
+        <v>0.231583</v>
       </c>
       <c r="D80" t="n">
-        <v>0.453559</v>
+        <v>0.313786</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.462086</v>
+        <v>0.388811</v>
       </c>
       <c r="C81" t="n">
-        <v>0.410908</v>
+        <v>0.331243</v>
       </c>
       <c r="D81" t="n">
-        <v>0.443789</v>
+        <v>0.304318</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.455238</v>
+        <v>0.382027</v>
       </c>
       <c r="C82" t="n">
-        <v>0.402546</v>
+        <v>0.322087</v>
       </c>
       <c r="D82" t="n">
-        <v>0.434431</v>
+        <v>0.29499</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.449252</v>
+        <v>0.37544</v>
       </c>
       <c r="C83" t="n">
-        <v>0.394326</v>
+        <v>0.312487</v>
       </c>
       <c r="D83" t="n">
-        <v>0.425559</v>
+        <v>0.286103</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.444754</v>
+        <v>0.368772</v>
       </c>
       <c r="C84" t="n">
-        <v>0.38666</v>
+        <v>0.303387</v>
       </c>
       <c r="D84" t="n">
-        <v>0.416981</v>
+        <v>0.277671</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.437258</v>
+        <v>0.362206</v>
       </c>
       <c r="C85" t="n">
-        <v>0.379188</v>
+        <v>0.29456</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408752</v>
+        <v>0.269461</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.432006</v>
+        <v>0.355425</v>
       </c>
       <c r="C86" t="n">
-        <v>0.37193</v>
+        <v>0.286328</v>
       </c>
       <c r="D86" t="n">
-        <v>0.400831</v>
+        <v>0.261793</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.425868</v>
+        <v>0.348819</v>
       </c>
       <c r="C87" t="n">
-        <v>0.364871</v>
+        <v>0.278793</v>
       </c>
       <c r="D87" t="n">
-        <v>0.393427</v>
+        <v>0.254619</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.419248</v>
+        <v>0.342406</v>
       </c>
       <c r="C88" t="n">
-        <v>0.358437</v>
+        <v>0.271682</v>
       </c>
       <c r="D88" t="n">
-        <v>0.386467</v>
+        <v>0.248119</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.413572</v>
+        <v>0.336059</v>
       </c>
       <c r="C89" t="n">
-        <v>0.352441</v>
+        <v>0.265185</v>
       </c>
       <c r="D89" t="n">
-        <v>0.380197</v>
+        <v>0.24225</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.407851</v>
+        <v>0.330391</v>
       </c>
       <c r="C90" t="n">
-        <v>0.347002</v>
+        <v>0.259503</v>
       </c>
       <c r="D90" t="n">
-        <v>0.374492</v>
+        <v>0.237255</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.402477</v>
+        <v>0.325025</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3422</v>
+        <v>0.254157</v>
       </c>
       <c r="D91" t="n">
-        <v>0.369778</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.398478</v>
+        <v>0.320635</v>
       </c>
       <c r="C92" t="n">
-        <v>0.338237</v>
+        <v>0.249877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.366435</v>
+        <v>0.230583</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394615</v>
+        <v>0.317083</v>
       </c>
       <c r="C93" t="n">
-        <v>0.335611</v>
+        <v>0.247</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36488</v>
+        <v>0.230086</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.393479</v>
+        <v>0.315175</v>
       </c>
       <c r="C94" t="n">
-        <v>0.334803</v>
+        <v>0.246567</v>
       </c>
       <c r="D94" t="n">
-        <v>0.477173</v>
+        <v>0.332759</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.492212</v>
+        <v>0.409434</v>
       </c>
       <c r="C95" t="n">
-        <v>0.43818</v>
+        <v>0.348228</v>
       </c>
       <c r="D95" t="n">
-        <v>0.477529</v>
+        <v>0.327096</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.497667</v>
+        <v>0.409871</v>
       </c>
       <c r="C96" t="n">
-        <v>0.439192</v>
+        <v>0.343905</v>
       </c>
       <c r="D96" t="n">
-        <v>0.475233</v>
+        <v>0.319466</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.498081</v>
+        <v>0.406722</v>
       </c>
       <c r="C97" t="n">
-        <v>0.435662</v>
+        <v>0.335814</v>
       </c>
       <c r="D97" t="n">
-        <v>0.471867</v>
+        <v>0.311444</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.497237</v>
+        <v>0.40293</v>
       </c>
       <c r="C98" t="n">
-        <v>0.431562</v>
+        <v>0.327154</v>
       </c>
       <c r="D98" t="n">
-        <v>0.467638</v>
+        <v>0.303726</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.495689</v>
+        <v>0.398746</v>
       </c>
       <c r="C99" t="n">
-        <v>0.42716</v>
+        <v>0.31873</v>
       </c>
       <c r="D99" t="n">
-        <v>0.46317</v>
+        <v>0.29634</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.493252</v>
+        <v>0.394417</v>
       </c>
       <c r="C100" t="n">
-        <v>0.422362</v>
+        <v>0.311036</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458474</v>
+        <v>0.289367</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.491162</v>
+        <v>0.39031</v>
       </c>
       <c r="C101" t="n">
-        <v>0.417714</v>
+        <v>0.30393</v>
       </c>
       <c r="D101" t="n">
-        <v>0.453746</v>
+        <v>0.28294</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488345</v>
+        <v>0.386098</v>
       </c>
       <c r="C102" t="n">
-        <v>0.413198</v>
+        <v>0.297031</v>
       </c>
       <c r="D102" t="n">
-        <v>0.449178</v>
+        <v>0.277066</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.485577</v>
+        <v>0.38232</v>
       </c>
       <c r="C103" t="n">
-        <v>0.409158</v>
+        <v>0.291087</v>
       </c>
       <c r="D103" t="n">
-        <v>0.445021</v>
+        <v>0.271888</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483039</v>
+        <v>0.378796</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4052</v>
+        <v>0.285771</v>
       </c>
       <c r="D104" t="n">
-        <v>0.441342</v>
+        <v>0.267549</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.48078</v>
+        <v>0.375497</v>
       </c>
       <c r="C105" t="n">
-        <v>0.401922</v>
+        <v>0.281314</v>
       </c>
       <c r="D105" t="n">
-        <v>0.43832</v>
+        <v>0.264086</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.478789</v>
+        <v>0.372617</v>
       </c>
       <c r="C106" t="n">
-        <v>0.399016</v>
+        <v>0.277967</v>
       </c>
       <c r="D106" t="n">
-        <v>0.435892</v>
+        <v>0.261814</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.477347</v>
+        <v>0.370343</v>
       </c>
       <c r="C107" t="n">
-        <v>0.396857</v>
+        <v>0.275846</v>
       </c>
       <c r="D107" t="n">
-        <v>0.434638</v>
+        <v>0.261031</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.476905</v>
+        <v>0.369127</v>
       </c>
       <c r="C108" t="n">
-        <v>0.396272</v>
+        <v>0.275508</v>
       </c>
       <c r="D108" t="n">
-        <v>0.626004</v>
+        <v>0.432772</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.478165</v>
+        <v>0.370443</v>
       </c>
       <c r="C109" t="n">
-        <v>0.399228</v>
+        <v>0.27809</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6272219999999999</v>
+        <v>0.426209</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.630934</v>
+        <v>0.518226</v>
       </c>
       <c r="C110" t="n">
-        <v>0.53245</v>
+        <v>0.407158</v>
       </c>
       <c r="D110" t="n">
-        <v>0.623912</v>
+        <v>0.417624</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.629657</v>
+        <v>0.512854</v>
       </c>
       <c r="C111" t="n">
-        <v>0.526633</v>
+        <v>0.398506</v>
       </c>
       <c r="D111" t="n">
-        <v>0.619796</v>
+        <v>0.409702</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.627239</v>
+        <v>0.509061</v>
       </c>
       <c r="C112" t="n">
-        <v>0.521956</v>
+        <v>0.391375</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6160679999999999</v>
+        <v>0.401693</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.628072</v>
+        <v>0.503206</v>
       </c>
       <c r="C113" t="n">
-        <v>0.518234</v>
+        <v>0.384721</v>
       </c>
       <c r="D113" t="n">
-        <v>0.612129</v>
+        <v>0.395499</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.627169</v>
+        <v>0.497774</v>
       </c>
       <c r="C114" t="n">
-        <v>0.513577</v>
+        <v>0.376992</v>
       </c>
       <c r="D114" t="n">
-        <v>0.609264</v>
+        <v>0.389436</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.626572</v>
+        <v>0.494168</v>
       </c>
       <c r="C115" t="n">
-        <v>0.508721</v>
+        <v>0.374173</v>
       </c>
       <c r="D115" t="n">
-        <v>0.606564</v>
+        <v>0.383971</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.626232</v>
+        <v>0.490629</v>
       </c>
       <c r="C116" t="n">
-        <v>0.506769</v>
+        <v>0.369821</v>
       </c>
       <c r="D116" t="n">
-        <v>0.604136</v>
+        <v>0.376646</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.626251</v>
+        <v>0.485477</v>
       </c>
       <c r="C117" t="n">
-        <v>0.504726</v>
+        <v>0.365833</v>
       </c>
       <c r="D117" t="n">
-        <v>0.601544</v>
+        <v>0.372767</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626923</v>
+        <v>0.482822</v>
       </c>
       <c r="C118" t="n">
-        <v>0.502288</v>
+        <v>0.362382</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5994</v>
+        <v>0.368903</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6270790000000001</v>
+        <v>0.478836</v>
       </c>
       <c r="C119" t="n">
-        <v>0.499589</v>
+        <v>0.360423</v>
       </c>
       <c r="D119" t="n">
-        <v>0.597266</v>
+        <v>0.367015</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.627035</v>
+        <v>0.475286</v>
       </c>
       <c r="C120" t="n">
-        <v>0.496775</v>
+        <v>0.358792</v>
       </c>
       <c r="D120" t="n">
-        <v>0.596425</v>
+        <v>0.365976</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.626258</v>
+        <v>0.472718</v>
       </c>
       <c r="C121" t="n">
-        <v>0.494902</v>
+        <v>0.35866</v>
       </c>
       <c r="D121" t="n">
-        <v>0.595629</v>
+        <v>0.366681</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.628727</v>
+        <v>0.471509</v>
       </c>
       <c r="C122" t="n">
-        <v>0.494757</v>
+        <v>0.361377</v>
       </c>
       <c r="D122" t="n">
-        <v>0.597359</v>
+        <v>0.368783</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.631722</v>
+        <v>0.472221</v>
       </c>
       <c r="C123" t="n">
-        <v>0.497605</v>
+        <v>0.363181</v>
       </c>
       <c r="D123" t="n">
-        <v>0.747842</v>
+        <v>0.497115</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.78692</v>
+        <v>0.624876</v>
       </c>
       <c r="C124" t="n">
-        <v>0.634485</v>
+        <v>0.497702</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7447279999999999</v>
+        <v>0.488855</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.787985</v>
+        <v>0.62275</v>
       </c>
       <c r="C125" t="n">
-        <v>0.631386</v>
+        <v>0.489728</v>
       </c>
       <c r="D125" t="n">
-        <v>0.741191</v>
+        <v>0.481497</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.787878</v>
+        <v>0.618765</v>
       </c>
       <c r="C126" t="n">
-        <v>0.62791</v>
+        <v>0.483093</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7379019999999999</v>
+        <v>0.474688</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.789371</v>
+        <v>0.616244</v>
       </c>
       <c r="C127" t="n">
-        <v>0.623826</v>
+        <v>0.477207</v>
       </c>
       <c r="D127" t="n">
-        <v>0.734846</v>
+        <v>0.467803</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.788324</v>
+        <v>0.613308</v>
       </c>
       <c r="C128" t="n">
-        <v>0.62073</v>
+        <v>0.4724</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7320489999999999</v>
+        <v>0.46207</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.789732</v>
+        <v>0.61089</v>
       </c>
       <c r="C129" t="n">
-        <v>0.618038</v>
+        <v>0.467246</v>
       </c>
       <c r="D129" t="n">
-        <v>0.730734</v>
+        <v>0.457087</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.790228</v>
+        <v>0.609132</v>
       </c>
       <c r="C130" t="n">
-        <v>0.615845</v>
+        <v>0.462641</v>
       </c>
       <c r="D130" t="n">
-        <v>0.729224</v>
+        <v>0.45243</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.792579</v>
+        <v>0.606545</v>
       </c>
       <c r="C131" t="n">
-        <v>0.613787</v>
+        <v>0.459093</v>
       </c>
       <c r="D131" t="n">
-        <v>0.727187</v>
+        <v>0.448351</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.793156</v>
+        <v>0.604062</v>
       </c>
       <c r="C132" t="n">
-        <v>0.611578</v>
+        <v>0.457908</v>
       </c>
       <c r="D132" t="n">
-        <v>0.726357</v>
+        <v>0.445311</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.79425</v>
+        <v>0.603168</v>
       </c>
       <c r="C133" t="n">
-        <v>0.609793</v>
+        <v>0.455373</v>
       </c>
       <c r="D133" t="n">
-        <v>0.725383</v>
+        <v>0.443736</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.796231</v>
+        <v>0.6010450000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.609457</v>
+        <v>0.454301</v>
       </c>
       <c r="D134" t="n">
-        <v>0.724898</v>
+        <v>0.443193</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.797211</v>
+        <v>0.601068</v>
       </c>
       <c r="C135" t="n">
-        <v>0.608739</v>
+        <v>0.454671</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7259139999999999</v>
+        <v>0.444866</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.799153</v>
+        <v>0.599426</v>
       </c>
       <c r="C136" t="n">
-        <v>0.608581</v>
+        <v>0.456052</v>
       </c>
       <c r="D136" t="n">
-        <v>0.727481</v>
+        <v>0.449101</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8013940000000001</v>
+        <v>0.600091</v>
       </c>
       <c r="C137" t="n">
-        <v>0.611728</v>
+        <v>0.459729</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8787160000000001</v>
+        <v>0.583752</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.946839</v>
+        <v>0.745345</v>
       </c>
       <c r="C138" t="n">
-        <v>0.747005</v>
+        <v>0.596567</v>
       </c>
       <c r="D138" t="n">
-        <v>0.873049</v>
+        <v>0.5742119999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9468</v>
+        <v>0.744512</v>
       </c>
       <c r="C139" t="n">
-        <v>0.741345</v>
+        <v>0.589149</v>
       </c>
       <c r="D139" t="n">
-        <v>0.867911</v>
+        <v>0.564018</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.94738</v>
+        <v>0.744224</v>
       </c>
       <c r="C140" t="n">
-        <v>0.738161</v>
+        <v>0.580732</v>
       </c>
       <c r="D140" t="n">
-        <v>0.863429</v>
+        <v>0.554837</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.947452</v>
+        <v>0.742377</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7334619999999999</v>
+        <v>0.573493</v>
       </c>
       <c r="D141" t="n">
-        <v>0.857958</v>
+        <v>0.546505</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.947364</v>
+        <v>0.7423419999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.729425</v>
+        <v>0.567571</v>
       </c>
       <c r="D142" t="n">
-        <v>0.854777</v>
+        <v>0.538816</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.947416</v>
+        <v>0.741772</v>
       </c>
       <c r="C143" t="n">
-        <v>0.726281</v>
+        <v>0.562019</v>
       </c>
       <c r="D143" t="n">
-        <v>0.850442</v>
+        <v>0.531405</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247006</v>
+        <v>0.246911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.199201</v>
+        <v>0.201463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195794</v>
+        <v>0.201945</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241774</v>
+        <v>0.241805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193177</v>
+        <v>0.194654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.190809</v>
+        <v>0.195295</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236275</v>
+        <v>0.235992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189908</v>
+        <v>0.190557</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185519</v>
+        <v>0.190242</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231502</v>
+        <v>0.231296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186375</v>
+        <v>0.186414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.181255</v>
+        <v>0.186163</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.227623</v>
+        <v>0.227828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182185</v>
+        <v>0.18197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.178192</v>
+        <v>0.183534</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224542</v>
+        <v>0.224904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182401</v>
+        <v>0.179612</v>
       </c>
       <c r="D7" t="n">
-        <v>0.177778</v>
+        <v>0.18275</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222474</v>
+        <v>0.222758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181433</v>
+        <v>0.178778</v>
       </c>
       <c r="D8" t="n">
-        <v>0.178294</v>
+        <v>0.183705</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22287</v>
+        <v>0.222864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.184858</v>
+        <v>0.181217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.269429</v>
+        <v>0.276502</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307928</v>
+        <v>0.309585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.269129</v>
+        <v>0.26753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260042</v>
+        <v>0.266992</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.299679</v>
+        <v>0.300703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260119</v>
+        <v>0.25845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250223</v>
+        <v>0.257789</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.291007</v>
+        <v>0.292253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.251269</v>
+        <v>0.249931</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242166</v>
+        <v>0.249059</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283237</v>
+        <v>0.284209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242516</v>
+        <v>0.241247</v>
       </c>
       <c r="D13" t="n">
-        <v>0.233734</v>
+        <v>0.240825</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.27598</v>
+        <v>0.276866</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235113</v>
+        <v>0.233444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226135</v>
+        <v>0.233297</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269938</v>
+        <v>0.269625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228172</v>
+        <v>0.226216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21895</v>
+        <v>0.22626</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2633</v>
+        <v>0.263046</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221421</v>
+        <v>0.21924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.212116</v>
+        <v>0.219868</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257452</v>
+        <v>0.256833</v>
       </c>
       <c r="C17" t="n">
-        <v>0.214728</v>
+        <v>0.213161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206187</v>
+        <v>0.214283</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251601</v>
+        <v>0.250897</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210094</v>
+        <v>0.207976</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20084</v>
+        <v>0.209339</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.246682</v>
+        <v>0.245959</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205564</v>
+        <v>0.202729</v>
       </c>
       <c r="D19" t="n">
-        <v>0.196521</v>
+        <v>0.204794</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.242027</v>
+        <v>0.241516</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201803</v>
+        <v>0.198367</v>
       </c>
       <c r="D20" t="n">
-        <v>0.193622</v>
+        <v>0.201191</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238041</v>
+        <v>0.238225</v>
       </c>
       <c r="C21" t="n">
-        <v>0.19921</v>
+        <v>0.195789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192027</v>
+        <v>0.2006</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23555</v>
+        <v>0.235955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197929</v>
+        <v>0.194197</v>
       </c>
       <c r="D22" t="n">
-        <v>0.192831</v>
+        <v>0.201171</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235059</v>
+        <v>0.235002</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198883</v>
+        <v>0.195512</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281445</v>
+        <v>0.290214</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.319351</v>
+        <v>0.324824</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286387</v>
+        <v>0.280312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271628</v>
+        <v>0.280079</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.310803</v>
+        <v>0.313579</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276681</v>
+        <v>0.271189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262282</v>
+        <v>0.270608</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302358</v>
+        <v>0.305891</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266664</v>
+        <v>0.262079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253212</v>
+        <v>0.261588</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29362</v>
+        <v>0.297916</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258155</v>
+        <v>0.253974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244851</v>
+        <v>0.253359</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286605</v>
+        <v>0.289875</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249939</v>
+        <v>0.245289</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236852</v>
+        <v>0.245454</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279253</v>
+        <v>0.282517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.241552</v>
+        <v>0.2383</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22951</v>
+        <v>0.238019</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27233</v>
+        <v>0.275407</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234285</v>
+        <v>0.231165</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222439</v>
+        <v>0.230832</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.265843</v>
+        <v>0.268787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227367</v>
+        <v>0.224593</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216227</v>
+        <v>0.225316</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260005</v>
+        <v>0.262753</v>
       </c>
       <c r="C32" t="n">
-        <v>0.220979</v>
+        <v>0.217685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210173</v>
+        <v>0.219505</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254666</v>
+        <v>0.257258</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216034</v>
+        <v>0.212738</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205167</v>
+        <v>0.215312</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249694</v>
+        <v>0.252306</v>
       </c>
       <c r="C34" t="n">
-        <v>0.211205</v>
+        <v>0.208207</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200992</v>
+        <v>0.210495</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.244878</v>
+        <v>0.248271</v>
       </c>
       <c r="C35" t="n">
-        <v>0.207342</v>
+        <v>0.203042</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198421</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.242091</v>
+        <v>0.244983</v>
       </c>
       <c r="C36" t="n">
-        <v>0.204671</v>
+        <v>0.201659</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197918</v>
+        <v>0.207305</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240901</v>
+        <v>0.244582</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20432</v>
+        <v>0.200837</v>
       </c>
       <c r="D37" t="n">
-        <v>0.28849</v>
+        <v>0.298931</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.323541</v>
+        <v>0.327703</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294312</v>
+        <v>0.287524</v>
       </c>
       <c r="D38" t="n">
-        <v>0.278615</v>
+        <v>0.288971</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.31529</v>
+        <v>0.318825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.284492</v>
+        <v>0.278045</v>
       </c>
       <c r="D39" t="n">
-        <v>0.269319</v>
+        <v>0.279235</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.307443</v>
+        <v>0.309771</v>
       </c>
       <c r="C40" t="n">
-        <v>0.274984</v>
+        <v>0.269068</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260507</v>
+        <v>0.270151</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.298903</v>
+        <v>0.302498</v>
       </c>
       <c r="C41" t="n">
-        <v>0.265959</v>
+        <v>0.260337</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252068</v>
+        <v>0.261658</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.291359</v>
+        <v>0.294989</v>
       </c>
       <c r="C42" t="n">
-        <v>0.257436</v>
+        <v>0.2524</v>
       </c>
       <c r="D42" t="n">
-        <v>0.244143</v>
+        <v>0.254149</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.284068</v>
+        <v>0.286655</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249354</v>
+        <v>0.244597</v>
       </c>
       <c r="D43" t="n">
-        <v>0.236595</v>
+        <v>0.246003</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.277291</v>
+        <v>0.279343</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242165</v>
+        <v>0.238447</v>
       </c>
       <c r="D44" t="n">
-        <v>0.229665</v>
+        <v>0.239388</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270984</v>
+        <v>0.273174</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235236</v>
+        <v>0.23116</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223363</v>
+        <v>0.232583</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26517</v>
+        <v>0.2678</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229138</v>
+        <v>0.225561</v>
       </c>
       <c r="D46" t="n">
-        <v>0.217677</v>
+        <v>0.227685</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259795</v>
+        <v>0.262629</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223631</v>
+        <v>0.219706</v>
       </c>
       <c r="D47" t="n">
-        <v>0.212709</v>
+        <v>0.223167</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256041</v>
+        <v>0.25655</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21865</v>
+        <v>0.21503</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208643</v>
+        <v>0.218373</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251167</v>
+        <v>0.252817</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214151</v>
+        <v>0.212036</v>
       </c>
       <c r="D49" t="n">
-        <v>0.205899</v>
+        <v>0.215811</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24829</v>
+        <v>0.249977</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212045</v>
+        <v>0.209496</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20489</v>
+        <v>0.214897</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247177</v>
+        <v>0.24883</v>
       </c>
       <c r="C51" t="n">
-        <v>0.210889</v>
+        <v>0.208199</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2987</v>
+        <v>0.311194</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.247242</v>
+        <v>0.249395</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21259</v>
+        <v>0.209685</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288662</v>
+        <v>0.300766</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.324917</v>
+        <v>0.331287</v>
       </c>
       <c r="C53" t="n">
-        <v>0.297474</v>
+        <v>0.290159</v>
       </c>
       <c r="D53" t="n">
-        <v>0.279071</v>
+        <v>0.290584</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.317045</v>
+        <v>0.323052</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287779</v>
+        <v>0.281048</v>
       </c>
       <c r="D54" t="n">
-        <v>0.27009</v>
+        <v>0.281712</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.309466</v>
+        <v>0.315079</v>
       </c>
       <c r="C55" t="n">
-        <v>0.279171</v>
+        <v>0.272333</v>
       </c>
       <c r="D55" t="n">
-        <v>0.261456</v>
+        <v>0.272855</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.302107</v>
+        <v>0.307739</v>
       </c>
       <c r="C56" t="n">
-        <v>0.27045</v>
+        <v>0.264188</v>
       </c>
       <c r="D56" t="n">
-        <v>0.253429</v>
+        <v>0.264797</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.295287</v>
+        <v>0.300676</v>
       </c>
       <c r="C57" t="n">
-        <v>0.262801</v>
+        <v>0.256523</v>
       </c>
       <c r="D57" t="n">
-        <v>0.245954</v>
+        <v>0.257445</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.288701</v>
+        <v>0.294089</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2554</v>
+        <v>0.249085</v>
       </c>
       <c r="D58" t="n">
-        <v>0.238804</v>
+        <v>0.250988</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.282751</v>
+        <v>0.287743</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248054</v>
+        <v>0.242269</v>
       </c>
       <c r="D59" t="n">
-        <v>0.232291</v>
+        <v>0.243862</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.276743</v>
+        <v>0.281758</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241644</v>
+        <v>0.236277</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226583</v>
+        <v>0.238013</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.272121</v>
+        <v>0.276821</v>
       </c>
       <c r="C61" t="n">
-        <v>0.236009</v>
+        <v>0.230456</v>
       </c>
       <c r="D61" t="n">
-        <v>0.221633</v>
+        <v>0.233082</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.267612</v>
+        <v>0.271599</v>
       </c>
       <c r="C62" t="n">
-        <v>0.230851</v>
+        <v>0.225418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.217382</v>
+        <v>0.229487</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263501</v>
+        <v>0.26744</v>
       </c>
       <c r="C63" t="n">
-        <v>0.22658</v>
+        <v>0.221887</v>
       </c>
       <c r="D63" t="n">
-        <v>0.214225</v>
+        <v>0.226031</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26072</v>
+        <v>0.264314</v>
       </c>
       <c r="C64" t="n">
-        <v>0.223468</v>
+        <v>0.218377</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212747</v>
+        <v>0.224825</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258784</v>
+        <v>0.262592</v>
       </c>
       <c r="C65" t="n">
-        <v>0.221524</v>
+        <v>0.216753</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213723</v>
+        <v>0.225293</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.259026</v>
+        <v>0.262489</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223069</v>
+        <v>0.217867</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298853</v>
+        <v>0.335763</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.340434</v>
+        <v>0.388077</v>
       </c>
       <c r="C67" t="n">
-        <v>0.309549</v>
+        <v>0.327903</v>
       </c>
       <c r="D67" t="n">
-        <v>0.28923</v>
+        <v>0.323389</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.332562</v>
+        <v>0.37943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.300152</v>
+        <v>0.316629</v>
       </c>
       <c r="D68" t="n">
-        <v>0.279801</v>
+        <v>0.312712</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.325061</v>
+        <v>0.371951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.290517</v>
+        <v>0.307289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.27103</v>
+        <v>0.303067</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.317917</v>
+        <v>0.365324</v>
       </c>
       <c r="C70" t="n">
-        <v>0.282016</v>
+        <v>0.298452</v>
       </c>
       <c r="D70" t="n">
-        <v>0.26266</v>
+        <v>0.294058</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.311229</v>
+        <v>0.359339</v>
       </c>
       <c r="C71" t="n">
-        <v>0.273789</v>
+        <v>0.290195</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254907</v>
+        <v>0.285665</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.305071</v>
+        <v>0.353558</v>
       </c>
       <c r="C72" t="n">
-        <v>0.266337</v>
+        <v>0.282081</v>
       </c>
       <c r="D72" t="n">
-        <v>0.247624</v>
+        <v>0.27785</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.299237</v>
+        <v>0.346798</v>
       </c>
       <c r="C73" t="n">
-        <v>0.259016</v>
+        <v>0.274787</v>
       </c>
       <c r="D73" t="n">
-        <v>0.240943</v>
+        <v>0.271172</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.293661</v>
+        <v>0.341247</v>
       </c>
       <c r="C74" t="n">
-        <v>0.25259</v>
+        <v>0.268015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.234851</v>
+        <v>0.263876</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288772</v>
+        <v>0.335405</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246779</v>
+        <v>0.261459</v>
       </c>
       <c r="D75" t="n">
-        <v>0.229387</v>
+        <v>0.259134</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.284116</v>
+        <v>0.330395</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241471</v>
+        <v>0.25582</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224816</v>
+        <v>0.254739</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.280313</v>
+        <v>0.325112</v>
       </c>
       <c r="C77" t="n">
-        <v>0.23687</v>
+        <v>0.250696</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221299</v>
+        <v>0.250597</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.277211</v>
+        <v>0.321273</v>
       </c>
       <c r="C78" t="n">
-        <v>0.233363</v>
+        <v>0.247006</v>
       </c>
       <c r="D78" t="n">
-        <v>0.219289</v>
+        <v>0.248624</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275183</v>
+        <v>0.3177</v>
       </c>
       <c r="C79" t="n">
-        <v>0.231383</v>
+        <v>0.245054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.219723</v>
+        <v>0.248662</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.274947</v>
+        <v>0.316077</v>
       </c>
       <c r="C80" t="n">
-        <v>0.231583</v>
+        <v>0.244511</v>
       </c>
       <c r="D80" t="n">
-        <v>0.313786</v>
+        <v>0.374327</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.388811</v>
+        <v>0.447608</v>
       </c>
       <c r="C81" t="n">
-        <v>0.331243</v>
+        <v>0.36474</v>
       </c>
       <c r="D81" t="n">
-        <v>0.304318</v>
+        <v>0.366787</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.382027</v>
+        <v>0.443764</v>
       </c>
       <c r="C82" t="n">
-        <v>0.322087</v>
+        <v>0.359275</v>
       </c>
       <c r="D82" t="n">
-        <v>0.29499</v>
+        <v>0.359164</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.37544</v>
+        <v>0.438509</v>
       </c>
       <c r="C83" t="n">
-        <v>0.312487</v>
+        <v>0.350955</v>
       </c>
       <c r="D83" t="n">
-        <v>0.286103</v>
+        <v>0.350113</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.368772</v>
+        <v>0.433199</v>
       </c>
       <c r="C84" t="n">
-        <v>0.303387</v>
+        <v>0.342031</v>
       </c>
       <c r="D84" t="n">
-        <v>0.277671</v>
+        <v>0.341131</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.362206</v>
+        <v>0.428019</v>
       </c>
       <c r="C85" t="n">
-        <v>0.29456</v>
+        <v>0.333246</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269461</v>
+        <v>0.332786</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.355425</v>
+        <v>0.422423</v>
       </c>
       <c r="C86" t="n">
-        <v>0.286328</v>
+        <v>0.324638</v>
       </c>
       <c r="D86" t="n">
-        <v>0.261793</v>
+        <v>0.325281</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348819</v>
+        <v>0.416846</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278793</v>
+        <v>0.317337</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254619</v>
+        <v>0.317938</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.342406</v>
+        <v>0.411062</v>
       </c>
       <c r="C88" t="n">
-        <v>0.271682</v>
+        <v>0.309922</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248119</v>
+        <v>0.311224</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.336059</v>
+        <v>0.405994</v>
       </c>
       <c r="C89" t="n">
-        <v>0.265185</v>
+        <v>0.30346</v>
       </c>
       <c r="D89" t="n">
-        <v>0.24225</v>
+        <v>0.305583</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.330391</v>
+        <v>0.400879</v>
       </c>
       <c r="C90" t="n">
-        <v>0.259503</v>
+        <v>0.297523</v>
       </c>
       <c r="D90" t="n">
-        <v>0.237255</v>
+        <v>0.300031</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.325025</v>
+        <v>0.395867</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254157</v>
+        <v>0.292132</v>
       </c>
       <c r="D91" t="n">
-        <v>0.233098</v>
+        <v>0.296095</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.320635</v>
+        <v>0.391416</v>
       </c>
       <c r="C92" t="n">
-        <v>0.249877</v>
+        <v>0.287971</v>
       </c>
       <c r="D92" t="n">
-        <v>0.230583</v>
+        <v>0.292796</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.317083</v>
+        <v>0.387987</v>
       </c>
       <c r="C93" t="n">
-        <v>0.247</v>
+        <v>0.285355</v>
       </c>
       <c r="D93" t="n">
-        <v>0.230086</v>
+        <v>0.291671</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.315175</v>
+        <v>0.385539</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246567</v>
+        <v>0.283774</v>
       </c>
       <c r="D94" t="n">
-        <v>0.332759</v>
+        <v>0.526128</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.409434</v>
+        <v>0.576928</v>
       </c>
       <c r="C95" t="n">
-        <v>0.348228</v>
+        <v>0.452783</v>
       </c>
       <c r="D95" t="n">
-        <v>0.327096</v>
+        <v>0.516232</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.409871</v>
+        <v>0.573781</v>
       </c>
       <c r="C96" t="n">
-        <v>0.343905</v>
+        <v>0.448984</v>
       </c>
       <c r="D96" t="n">
-        <v>0.319466</v>
+        <v>0.507023</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.406722</v>
+        <v>0.5648919999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.335814</v>
+        <v>0.441506</v>
       </c>
       <c r="D97" t="n">
-        <v>0.311444</v>
+        <v>0.497029</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.40293</v>
+        <v>0.555396</v>
       </c>
       <c r="C98" t="n">
-        <v>0.327154</v>
+        <v>0.432458</v>
       </c>
       <c r="D98" t="n">
-        <v>0.303726</v>
+        <v>0.486624</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.398746</v>
+        <v>0.546686</v>
       </c>
       <c r="C99" t="n">
-        <v>0.31873</v>
+        <v>0.427235</v>
       </c>
       <c r="D99" t="n">
-        <v>0.29634</v>
+        <v>0.478305</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.394417</v>
+        <v>0.537776</v>
       </c>
       <c r="C100" t="n">
-        <v>0.311036</v>
+        <v>0.419948</v>
       </c>
       <c r="D100" t="n">
-        <v>0.289367</v>
+        <v>0.469646</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.39031</v>
+        <v>0.529872</v>
       </c>
       <c r="C101" t="n">
-        <v>0.30393</v>
+        <v>0.415251</v>
       </c>
       <c r="D101" t="n">
-        <v>0.28294</v>
+        <v>0.461734</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.386098</v>
+        <v>0.523164</v>
       </c>
       <c r="C102" t="n">
-        <v>0.297031</v>
+        <v>0.410536</v>
       </c>
       <c r="D102" t="n">
-        <v>0.277066</v>
+        <v>0.453967</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.38232</v>
+        <v>0.5160979999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291087</v>
+        <v>0.404238</v>
       </c>
       <c r="D103" t="n">
-        <v>0.271888</v>
+        <v>0.448315</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.378796</v>
+        <v>0.509132</v>
       </c>
       <c r="C104" t="n">
-        <v>0.285771</v>
+        <v>0.400017</v>
       </c>
       <c r="D104" t="n">
-        <v>0.267549</v>
+        <v>0.442541</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.375497</v>
+        <v>0.5040519999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.281314</v>
+        <v>0.395905</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264086</v>
+        <v>0.436723</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.372617</v>
+        <v>0.497896</v>
       </c>
       <c r="C106" t="n">
-        <v>0.277967</v>
+        <v>0.392136</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261814</v>
+        <v>0.432693</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.370343</v>
+        <v>0.493611</v>
       </c>
       <c r="C107" t="n">
-        <v>0.275846</v>
+        <v>0.390793</v>
       </c>
       <c r="D107" t="n">
-        <v>0.261031</v>
+        <v>0.429529</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.369127</v>
+        <v>0.490359</v>
       </c>
       <c r="C108" t="n">
-        <v>0.275508</v>
+        <v>0.389076</v>
       </c>
       <c r="D108" t="n">
-        <v>0.432772</v>
+        <v>0.607724</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.370443</v>
+        <v>0.489421</v>
       </c>
       <c r="C109" t="n">
-        <v>0.27809</v>
+        <v>0.388352</v>
       </c>
       <c r="D109" t="n">
-        <v>0.426209</v>
+        <v>0.59934</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.518226</v>
+        <v>0.686357</v>
       </c>
       <c r="C110" t="n">
-        <v>0.407158</v>
+        <v>0.564828</v>
       </c>
       <c r="D110" t="n">
-        <v>0.417624</v>
+        <v>0.5880919999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.512854</v>
+        <v>0.675104</v>
       </c>
       <c r="C111" t="n">
-        <v>0.398506</v>
+        <v>0.556922</v>
       </c>
       <c r="D111" t="n">
-        <v>0.409702</v>
+        <v>0.579315</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.509061</v>
+        <v>0.663699</v>
       </c>
       <c r="C112" t="n">
-        <v>0.391375</v>
+        <v>0.548316</v>
       </c>
       <c r="D112" t="n">
-        <v>0.401693</v>
+        <v>0.571384</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.503206</v>
+        <v>0.652705</v>
       </c>
       <c r="C113" t="n">
-        <v>0.384721</v>
+        <v>0.539721</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395499</v>
+        <v>0.563961</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.497774</v>
+        <v>0.642364</v>
       </c>
       <c r="C114" t="n">
-        <v>0.376992</v>
+        <v>0.533768</v>
       </c>
       <c r="D114" t="n">
-        <v>0.389436</v>
+        <v>0.557314</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.494168</v>
+        <v>0.632084</v>
       </c>
       <c r="C115" t="n">
-        <v>0.374173</v>
+        <v>0.526645</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383971</v>
+        <v>0.5502089999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.490629</v>
+        <v>0.622171</v>
       </c>
       <c r="C116" t="n">
-        <v>0.369821</v>
+        <v>0.520595</v>
       </c>
       <c r="D116" t="n">
-        <v>0.376646</v>
+        <v>0.544398</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.485477</v>
+        <v>0.614001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.365833</v>
+        <v>0.514975</v>
       </c>
       <c r="D117" t="n">
-        <v>0.372767</v>
+        <v>0.538716</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.482822</v>
+        <v>0.605694</v>
       </c>
       <c r="C118" t="n">
-        <v>0.362382</v>
+        <v>0.5107080000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.368903</v>
+        <v>0.535626</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.478836</v>
+        <v>0.598029</v>
       </c>
       <c r="C119" t="n">
-        <v>0.360423</v>
+        <v>0.5058589999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.367015</v>
+        <v>0.532018</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.475286</v>
+        <v>0.591027</v>
       </c>
       <c r="C120" t="n">
-        <v>0.358792</v>
+        <v>0.502092</v>
       </c>
       <c r="D120" t="n">
-        <v>0.365976</v>
+        <v>0.528495</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.472718</v>
+        <v>0.58494</v>
       </c>
       <c r="C121" t="n">
-        <v>0.35866</v>
+        <v>0.500369</v>
       </c>
       <c r="D121" t="n">
-        <v>0.366681</v>
+        <v>0.528054</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.471509</v>
+        <v>0.580068</v>
       </c>
       <c r="C122" t="n">
-        <v>0.361377</v>
+        <v>0.499562</v>
       </c>
       <c r="D122" t="n">
-        <v>0.368783</v>
+        <v>0.527984</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472221</v>
+        <v>0.576886</v>
       </c>
       <c r="C123" t="n">
-        <v>0.363181</v>
+        <v>0.5009479999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.497115</v>
+        <v>0.701304</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.624876</v>
+        <v>0.768883</v>
       </c>
       <c r="C124" t="n">
-        <v>0.497702</v>
+        <v>0.673407</v>
       </c>
       <c r="D124" t="n">
-        <v>0.488855</v>
+        <v>0.6906639999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.62275</v>
+        <v>0.759375</v>
       </c>
       <c r="C125" t="n">
-        <v>0.489728</v>
+        <v>0.661089</v>
       </c>
       <c r="D125" t="n">
-        <v>0.481497</v>
+        <v>0.680291</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.618765</v>
+        <v>0.75091</v>
       </c>
       <c r="C126" t="n">
-        <v>0.483093</v>
+        <v>0.650046</v>
       </c>
       <c r="D126" t="n">
-        <v>0.474688</v>
+        <v>0.67073</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.616244</v>
+        <v>0.742192</v>
       </c>
       <c r="C127" t="n">
-        <v>0.477207</v>
+        <v>0.640557</v>
       </c>
       <c r="D127" t="n">
-        <v>0.467803</v>
+        <v>0.660958</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.613308</v>
+        <v>0.734551</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4724</v>
+        <v>0.630648</v>
       </c>
       <c r="D128" t="n">
-        <v>0.46207</v>
+        <v>0.652305</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.61089</v>
+        <v>0.727074</v>
       </c>
       <c r="C129" t="n">
-        <v>0.467246</v>
+        <v>0.621844</v>
       </c>
       <c r="D129" t="n">
-        <v>0.457087</v>
+        <v>0.644048</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.609132</v>
+        <v>0.720601</v>
       </c>
       <c r="C130" t="n">
-        <v>0.462641</v>
+        <v>0.613998</v>
       </c>
       <c r="D130" t="n">
-        <v>0.45243</v>
+        <v>0.636973</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.606545</v>
+        <v>0.7137520000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.459093</v>
+        <v>0.606585</v>
       </c>
       <c r="D131" t="n">
-        <v>0.448351</v>
+        <v>0.628706</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.604062</v>
+        <v>0.707439</v>
       </c>
       <c r="C132" t="n">
-        <v>0.457908</v>
+        <v>0.599553</v>
       </c>
       <c r="D132" t="n">
-        <v>0.445311</v>
+        <v>0.623906</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.603168</v>
+        <v>0.702092</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455373</v>
+        <v>0.593604</v>
       </c>
       <c r="D133" t="n">
-        <v>0.443736</v>
+        <v>0.619497</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6010450000000001</v>
+        <v>0.696882</v>
       </c>
       <c r="C134" t="n">
-        <v>0.454301</v>
+        <v>0.588583</v>
       </c>
       <c r="D134" t="n">
-        <v>0.443193</v>
+        <v>0.616089</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.601068</v>
+        <v>0.692584</v>
       </c>
       <c r="C135" t="n">
-        <v>0.454671</v>
+        <v>0.585486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.444866</v>
+        <v>0.616353</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.599426</v>
+        <v>0.688627</v>
       </c>
       <c r="C136" t="n">
-        <v>0.456052</v>
+        <v>0.584288</v>
       </c>
       <c r="D136" t="n">
-        <v>0.449101</v>
+        <v>0.617092</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.600091</v>
+        <v>0.685154</v>
       </c>
       <c r="C137" t="n">
-        <v>0.459729</v>
+        <v>0.58626</v>
       </c>
       <c r="D137" t="n">
-        <v>0.583752</v>
+        <v>0.794184</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.745345</v>
+        <v>0.872363</v>
       </c>
       <c r="C138" t="n">
-        <v>0.596567</v>
+        <v>0.761335</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5742119999999999</v>
+        <v>0.779458</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.744512</v>
+        <v>0.865777</v>
       </c>
       <c r="C139" t="n">
-        <v>0.589149</v>
+        <v>0.747317</v>
       </c>
       <c r="D139" t="n">
-        <v>0.564018</v>
+        <v>0.764956</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.744224</v>
+        <v>0.85883</v>
       </c>
       <c r="C140" t="n">
-        <v>0.580732</v>
+        <v>0.733464</v>
       </c>
       <c r="D140" t="n">
-        <v>0.554837</v>
+        <v>0.75297</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.742377</v>
+        <v>0.85293</v>
       </c>
       <c r="C141" t="n">
-        <v>0.573493</v>
+        <v>0.720933</v>
       </c>
       <c r="D141" t="n">
-        <v>0.546505</v>
+        <v>0.740634</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7423419999999999</v>
+        <v>0.847136</v>
       </c>
       <c r="C142" t="n">
-        <v>0.567571</v>
+        <v>0.708875</v>
       </c>
       <c r="D142" t="n">
-        <v>0.538816</v>
+        <v>0.729626</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.741772</v>
+        <v>0.841592</v>
       </c>
       <c r="C143" t="n">
-        <v>0.562019</v>
+        <v>0.697283</v>
       </c>
       <c r="D143" t="n">
-        <v>0.531405</v>
+        <v>0.719068</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.176173</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.170454</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.16664</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.162842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.15949</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.157601</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.157526</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.158158</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.224312</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.216303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.20828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.199434</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.192234</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.186342</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.179839</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.174481</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.169736</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.164781</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.1601</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.160533</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.161606</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.244449</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.234816</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.226429</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.209945</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.203289</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.196451</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.190226</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.187762</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.183073</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.179351</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.174169</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.174738</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.249169</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.239482</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.230602</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.210872</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.203724</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.196883</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.191412</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.18555</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.181005</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.177226</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.174961</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.173021</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.173452</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.17753</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.24268</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.233963</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.2252</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.217991</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.209943</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.203009</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.196908</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.191258</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.18607</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.182011</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.178467</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.177595</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.177299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.180167</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.244646</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.235989</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.228156</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.220387</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.212482</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.205975</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.200613</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.194739</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.189617</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.184908</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.181292</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.178826</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.179163</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.181138</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.257644</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.249569</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.241893</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.234751</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.226978</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.219799</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.213375</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.207166</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.201474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.19677</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.192537</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.189582</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.188357</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.18918</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.26912</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.263515</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.258001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.251707</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.244324</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.237919</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.232212</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.227439</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.221821</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.217357</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.213424</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.210226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.207964</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.207921</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.209559</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.283981</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.277131</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.270794</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.264867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.259794</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.253954</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.24921</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.244865</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.240339</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.236998</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.233953</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.231224</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.230513</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.231737</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.319243</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.313506</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.302012</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.296555</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.291959</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.287332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.283552</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.279594</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.276526</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.273541</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.271458</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.271185</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.271892</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.37228</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.367218</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.360389</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.354692</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.350179</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.345269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.185496</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.17914</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.170524</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.169499</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.149657</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.161619</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.160816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.161312</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.237105</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.225645</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.217736</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.210439</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.202388</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.195072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.188701</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.182715</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.178189</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.173444</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.169013</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.16628</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.16432</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.164868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.244335</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.234904</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.227016</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.218274</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.211272</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.204111</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.196912</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.190547</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.187527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.182838</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.180848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.17426</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.172159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.171778</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.256269</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.246739</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.23547</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.225397</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.217593</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.209907</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.202922</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.196554</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.190564</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.185285</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.180769</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.177066</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.174203</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.173722</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.175298</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.251635</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.242034</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.233004</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.225257</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.217553</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.209839</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.202907</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.197025</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.1914</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.186386</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.182207</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.179104</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.178898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.260092</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.251907</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.241291</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.232729</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.224656</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.216811</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.20989</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.203254</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.19737</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.192268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.187689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.184139</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.182458</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.182405</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.263051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.254497</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.245979</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.237991</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.229829</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.222655</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.215492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.208861</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.202819</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.197551</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.19288</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.189225</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.186981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.18652</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.279398</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.272839</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.265664</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.25832</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.251327</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.243832</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.237699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.231533</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.225275</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.221074</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.215871</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.212823</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.211155</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.210494</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.212712</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.296635</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.289079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.281344</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.274607</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.268304</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.26231</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.256897</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.251768</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.247624</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.243795</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.240537</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.237909</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.237154</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.238699</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.324651</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.318184</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.312519</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.307125</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.302006</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.29769</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.293184</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.28978</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.286402</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.283895</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.281675</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.280269</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.280711</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.282617</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.382259</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.37477</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.368197</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.362373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.35649</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.35135</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.177535</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.17311</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.162867</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.164279</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.160258</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.149896</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.158577</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.234336</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.224925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.216883</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.20972</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.201848</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.194494</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.187921</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.182167</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.177316</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.171691</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.168023</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.165471</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.163669</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.163704</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.242678</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.235687</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.22455</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.218977</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.21035</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.203212</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.195416</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.188549</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.18509</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.182046</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.179224</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.177848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.173541</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.169102</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.254042</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.259149</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.236306</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.222767</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.216405</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.208142</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.201677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.195548</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.189056</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.182624</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.178156</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.174608</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.171633</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.170934</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.255758</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.247302</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.23943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.22978</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.220805</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.213086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.206423</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.199202</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.193161</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.188345</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.183701</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.179105</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.175983</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.175207</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.176868</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.255168</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.245687</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.235894</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.228449</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.220252</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.212395</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.205789</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.198979</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.193168</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.187939</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.183439</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.179541</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.179061</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.179082</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.259911</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.251563</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.242857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.234493</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.226465</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.218893</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.211566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.20522</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.199014</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.193511</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.189531</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.185885</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.18375</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.183845</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.278244</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.271679</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.265508</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.256713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.249207</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.24149</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.235856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.228715</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.223444</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.218043</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.213537</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.210039</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.208195</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.208204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.304461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.297571</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.287177</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.279271</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.273178</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.266397</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.260727</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.255738</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.250645</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.245993</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.241963</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.238673</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.236356</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.235818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.237864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.32462</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.319055</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.314235</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.309144</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.304711</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.300168</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.296269</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.292886</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.289318</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.287032</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.285057</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.283504</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.284257</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.286675</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.386674</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.379899</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.37323</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.367346</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.361801</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.356534</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.351406</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246911</v>
+        <v>0.247065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201463</v>
+        <v>0.201039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201945</v>
+        <v>0.199459</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241805</v>
+        <v>0.241709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194654</v>
+        <v>0.196339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195295</v>
+        <v>0.194951</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235992</v>
+        <v>0.23645</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190557</v>
+        <v>0.190952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190242</v>
+        <v>0.190395</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231296</v>
+        <v>0.232007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186414</v>
+        <v>0.187319</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186163</v>
+        <v>0.187487</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.227828</v>
+        <v>0.227842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18197</v>
+        <v>0.183003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.183534</v>
+        <v>0.183679</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224904</v>
+        <v>0.224604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179612</v>
+        <v>0.180862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18275</v>
+        <v>0.183829</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222758</v>
+        <v>0.222901</v>
       </c>
       <c r="C8" t="n">
-        <v>0.178778</v>
+        <v>0.179594</v>
       </c>
       <c r="D8" t="n">
-        <v>0.183705</v>
+        <v>0.184524</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222864</v>
+        <v>0.223086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181217</v>
+        <v>0.181017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.276502</v>
+        <v>0.276513</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309585</v>
+        <v>0.309458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.26753</v>
+        <v>0.267433</v>
       </c>
       <c r="D10" t="n">
-        <v>0.266992</v>
+        <v>0.267077</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300703</v>
+        <v>0.300714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25845</v>
+        <v>0.2576</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257789</v>
+        <v>0.257884</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.292253</v>
+        <v>0.292146</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249931</v>
+        <v>0.24995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249059</v>
+        <v>0.248958</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.284209</v>
+        <v>0.283999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241247</v>
+        <v>0.241268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240825</v>
+        <v>0.240871</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.276866</v>
+        <v>0.276583</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233444</v>
+        <v>0.232837</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233297</v>
+        <v>0.23368</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269625</v>
+        <v>0.269376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226216</v>
+        <v>0.225446</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22626</v>
+        <v>0.226038</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263046</v>
+        <v>0.262754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21924</v>
+        <v>0.218771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219868</v>
+        <v>0.219989</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256833</v>
+        <v>0.256659</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213161</v>
+        <v>0.213151</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214283</v>
+        <v>0.214361</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250897</v>
+        <v>0.250801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207976</v>
+        <v>0.207423</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209339</v>
+        <v>0.209626</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245959</v>
+        <v>0.245754</v>
       </c>
       <c r="C19" t="n">
-        <v>0.202729</v>
+        <v>0.202475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.204794</v>
+        <v>0.205678</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.241516</v>
+        <v>0.241342</v>
       </c>
       <c r="C20" t="n">
-        <v>0.198367</v>
+        <v>0.197735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201191</v>
+        <v>0.202507</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238225</v>
+        <v>0.238309</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195789</v>
+        <v>0.195674</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2006</v>
+        <v>0.201169</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235955</v>
+        <v>0.235692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194197</v>
+        <v>0.194451</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201171</v>
+        <v>0.201862</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235002</v>
+        <v>0.234842</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195512</v>
+        <v>0.194876</v>
       </c>
       <c r="D23" t="n">
-        <v>0.290214</v>
+        <v>0.299504</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324824</v>
+        <v>0.320952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.280312</v>
+        <v>0.290203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280079</v>
+        <v>0.289459</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313579</v>
+        <v>0.312383</v>
       </c>
       <c r="C25" t="n">
-        <v>0.271189</v>
+        <v>0.280172</v>
       </c>
       <c r="D25" t="n">
-        <v>0.270608</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305891</v>
+        <v>0.303873</v>
       </c>
       <c r="C26" t="n">
-        <v>0.262079</v>
+        <v>0.270417</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261588</v>
+        <v>0.269829</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297916</v>
+        <v>0.295734</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253974</v>
+        <v>0.261364</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253359</v>
+        <v>0.260804</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289875</v>
+        <v>0.287918</v>
       </c>
       <c r="C28" t="n">
-        <v>0.245289</v>
+        <v>0.252938</v>
       </c>
       <c r="D28" t="n">
-        <v>0.245454</v>
+        <v>0.252756</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282517</v>
+        <v>0.280316</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2383</v>
+        <v>0.245366</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238019</v>
+        <v>0.244908</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275407</v>
+        <v>0.273413</v>
       </c>
       <c r="C30" t="n">
-        <v>0.231165</v>
+        <v>0.238186</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230832</v>
+        <v>0.237903</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268787</v>
+        <v>0.266997</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224593</v>
+        <v>0.231295</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225316</v>
+        <v>0.231489</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262753</v>
+        <v>0.260959</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217685</v>
+        <v>0.22484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.219505</v>
+        <v>0.225239</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257258</v>
+        <v>0.255633</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212738</v>
+        <v>0.219305</v>
       </c>
       <c r="D33" t="n">
-        <v>0.215312</v>
+        <v>0.22062</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252306</v>
+        <v>0.250817</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208207</v>
+        <v>0.21441</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210495</v>
+        <v>0.216706</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248271</v>
+        <v>0.246744</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203042</v>
+        <v>0.21009</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2082</v>
+        <v>0.213585</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244983</v>
+        <v>0.24402</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201659</v>
+        <v>0.205992</v>
       </c>
       <c r="D36" t="n">
-        <v>0.207305</v>
+        <v>0.213261</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.244582</v>
+        <v>0.243133</v>
       </c>
       <c r="C37" t="n">
-        <v>0.200837</v>
+        <v>0.205578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.298931</v>
+        <v>0.30463</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327703</v>
+        <v>0.327171</v>
       </c>
       <c r="C38" t="n">
-        <v>0.287524</v>
+        <v>0.291942</v>
       </c>
       <c r="D38" t="n">
-        <v>0.288971</v>
+        <v>0.293802</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318825</v>
+        <v>0.319101</v>
       </c>
       <c r="C39" t="n">
-        <v>0.278045</v>
+        <v>0.28316</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279235</v>
+        <v>0.28384</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309771</v>
+        <v>0.309575</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269068</v>
+        <v>0.274025</v>
       </c>
       <c r="D40" t="n">
-        <v>0.270151</v>
+        <v>0.274863</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302498</v>
+        <v>0.301331</v>
       </c>
       <c r="C41" t="n">
-        <v>0.260337</v>
+        <v>0.264691</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261658</v>
+        <v>0.265948</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294989</v>
+        <v>0.294179</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2524</v>
+        <v>0.256506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254149</v>
+        <v>0.257664</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286655</v>
+        <v>0.286587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244597</v>
+        <v>0.248543</v>
       </c>
       <c r="D43" t="n">
-        <v>0.246003</v>
+        <v>0.249814</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279343</v>
+        <v>0.280195</v>
       </c>
       <c r="C44" t="n">
-        <v>0.238447</v>
+        <v>0.242392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.239388</v>
+        <v>0.243142</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273174</v>
+        <v>0.273509</v>
       </c>
       <c r="C45" t="n">
-        <v>0.23116</v>
+        <v>0.235253</v>
       </c>
       <c r="D45" t="n">
-        <v>0.232583</v>
+        <v>0.236794</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2678</v>
+        <v>0.268073</v>
       </c>
       <c r="C46" t="n">
-        <v>0.225561</v>
+        <v>0.229544</v>
       </c>
       <c r="D46" t="n">
-        <v>0.227685</v>
+        <v>0.230763</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262629</v>
+        <v>0.262276</v>
       </c>
       <c r="C47" t="n">
-        <v>0.219706</v>
+        <v>0.222591</v>
       </c>
       <c r="D47" t="n">
-        <v>0.223167</v>
+        <v>0.225913</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25655</v>
+        <v>0.257286</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21503</v>
+        <v>0.217841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.218373</v>
+        <v>0.222051</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252817</v>
+        <v>0.253609</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212036</v>
+        <v>0.213393</v>
       </c>
       <c r="D49" t="n">
-        <v>0.215811</v>
+        <v>0.219516</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249977</v>
+        <v>0.24998</v>
       </c>
       <c r="C50" t="n">
-        <v>0.209496</v>
+        <v>0.211084</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214897</v>
+        <v>0.218958</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24883</v>
+        <v>0.249167</v>
       </c>
       <c r="C51" t="n">
-        <v>0.208199</v>
+        <v>0.211003</v>
       </c>
       <c r="D51" t="n">
-        <v>0.311194</v>
+        <v>0.315904</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249395</v>
+        <v>0.250634</v>
       </c>
       <c r="C52" t="n">
-        <v>0.209685</v>
+        <v>0.211989</v>
       </c>
       <c r="D52" t="n">
-        <v>0.300766</v>
+        <v>0.305766</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331287</v>
+        <v>0.330371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.290159</v>
+        <v>0.292834</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290584</v>
+        <v>0.295345</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.323052</v>
+        <v>0.321985</v>
       </c>
       <c r="C54" t="n">
-        <v>0.281048</v>
+        <v>0.283494</v>
       </c>
       <c r="D54" t="n">
-        <v>0.281712</v>
+        <v>0.285951</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.315079</v>
+        <v>0.314242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.272333</v>
+        <v>0.27485</v>
       </c>
       <c r="D55" t="n">
-        <v>0.272855</v>
+        <v>0.276872</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307739</v>
+        <v>0.306772</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264188</v>
+        <v>0.266252</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264797</v>
+        <v>0.268549</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.300676</v>
+        <v>0.299917</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256523</v>
+        <v>0.25891</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257445</v>
+        <v>0.260562</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294089</v>
+        <v>0.293387</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249085</v>
+        <v>0.251487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250988</v>
+        <v>0.253341</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.287743</v>
+        <v>0.287399</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242269</v>
+        <v>0.244754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243862</v>
+        <v>0.246631</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281758</v>
+        <v>0.281629</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236277</v>
+        <v>0.237589</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238013</v>
+        <v>0.240881</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276821</v>
+        <v>0.276351</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230456</v>
+        <v>0.232688</v>
       </c>
       <c r="D61" t="n">
-        <v>0.233082</v>
+        <v>0.235784</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271599</v>
+        <v>0.271785</v>
       </c>
       <c r="C62" t="n">
-        <v>0.225418</v>
+        <v>0.2271</v>
       </c>
       <c r="D62" t="n">
-        <v>0.229487</v>
+        <v>0.231728</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26744</v>
+        <v>0.26787</v>
       </c>
       <c r="C63" t="n">
-        <v>0.221887</v>
+        <v>0.22319</v>
       </c>
       <c r="D63" t="n">
-        <v>0.226031</v>
+        <v>0.228752</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264314</v>
+        <v>0.264969</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218377</v>
+        <v>0.219355</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224825</v>
+        <v>0.227167</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262592</v>
+        <v>0.26331</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216753</v>
+        <v>0.218236</v>
       </c>
       <c r="D65" t="n">
-        <v>0.225293</v>
+        <v>0.228591</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262489</v>
+        <v>0.263737</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217867</v>
+        <v>0.219558</v>
       </c>
       <c r="D66" t="n">
-        <v>0.335763</v>
+        <v>0.336174</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388077</v>
+        <v>0.385188</v>
       </c>
       <c r="C67" t="n">
-        <v>0.327903</v>
+        <v>0.327859</v>
       </c>
       <c r="D67" t="n">
-        <v>0.323389</v>
+        <v>0.325006</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.37943</v>
+        <v>0.377096</v>
       </c>
       <c r="C68" t="n">
-        <v>0.316629</v>
+        <v>0.317037</v>
       </c>
       <c r="D68" t="n">
-        <v>0.312712</v>
+        <v>0.314581</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371951</v>
+        <v>0.369618</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307289</v>
+        <v>0.307347</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303067</v>
+        <v>0.305051</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365324</v>
+        <v>0.363048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.298452</v>
+        <v>0.29848</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294058</v>
+        <v>0.296119</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359339</v>
+        <v>0.357164</v>
       </c>
       <c r="C71" t="n">
-        <v>0.290195</v>
+        <v>0.289962</v>
       </c>
       <c r="D71" t="n">
-        <v>0.285665</v>
+        <v>0.287197</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353558</v>
+        <v>0.350805</v>
       </c>
       <c r="C72" t="n">
-        <v>0.282081</v>
+        <v>0.281989</v>
       </c>
       <c r="D72" t="n">
-        <v>0.27785</v>
+        <v>0.279626</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346798</v>
+        <v>0.344775</v>
       </c>
       <c r="C73" t="n">
-        <v>0.274787</v>
+        <v>0.274823</v>
       </c>
       <c r="D73" t="n">
-        <v>0.271172</v>
+        <v>0.272471</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341247</v>
+        <v>0.339269</v>
       </c>
       <c r="C74" t="n">
-        <v>0.268015</v>
+        <v>0.268139</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263876</v>
+        <v>0.266117</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335405</v>
+        <v>0.333362</v>
       </c>
       <c r="C75" t="n">
-        <v>0.261459</v>
+        <v>0.261031</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259134</v>
+        <v>0.260539</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.330395</v>
+        <v>0.328044</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25582</v>
+        <v>0.255037</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254739</v>
+        <v>0.255647</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325112</v>
+        <v>0.323056</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250696</v>
+        <v>0.250323</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250597</v>
+        <v>0.252467</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.321273</v>
+        <v>0.318988</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247006</v>
+        <v>0.24691</v>
       </c>
       <c r="D78" t="n">
-        <v>0.248624</v>
+        <v>0.250507</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3177</v>
+        <v>0.315683</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245054</v>
+        <v>0.244788</v>
       </c>
       <c r="D79" t="n">
-        <v>0.248662</v>
+        <v>0.251001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.316077</v>
+        <v>0.314114</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244511</v>
+        <v>0.244621</v>
       </c>
       <c r="D80" t="n">
-        <v>0.374327</v>
+        <v>0.374537</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.447608</v>
+        <v>0.445419</v>
       </c>
       <c r="C81" t="n">
-        <v>0.36474</v>
+        <v>0.361321</v>
       </c>
       <c r="D81" t="n">
-        <v>0.366787</v>
+        <v>0.36738</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.443764</v>
+        <v>0.44179</v>
       </c>
       <c r="C82" t="n">
-        <v>0.359275</v>
+        <v>0.355753</v>
       </c>
       <c r="D82" t="n">
-        <v>0.359164</v>
+        <v>0.358626</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.438509</v>
+        <v>0.436494</v>
       </c>
       <c r="C83" t="n">
-        <v>0.350955</v>
+        <v>0.34578</v>
       </c>
       <c r="D83" t="n">
-        <v>0.350113</v>
+        <v>0.349575</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.433199</v>
+        <v>0.431023</v>
       </c>
       <c r="C84" t="n">
-        <v>0.342031</v>
+        <v>0.336205</v>
       </c>
       <c r="D84" t="n">
-        <v>0.341131</v>
+        <v>0.34023</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.428019</v>
+        <v>0.425617</v>
       </c>
       <c r="C85" t="n">
-        <v>0.333246</v>
+        <v>0.328034</v>
       </c>
       <c r="D85" t="n">
-        <v>0.332786</v>
+        <v>0.331518</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.422423</v>
+        <v>0.42027</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324638</v>
+        <v>0.321262</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325281</v>
+        <v>0.323911</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.416846</v>
+        <v>0.414798</v>
       </c>
       <c r="C87" t="n">
-        <v>0.317337</v>
+        <v>0.314065</v>
       </c>
       <c r="D87" t="n">
-        <v>0.317938</v>
+        <v>0.316517</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.411062</v>
+        <v>0.409244</v>
       </c>
       <c r="C88" t="n">
-        <v>0.309922</v>
+        <v>0.307414</v>
       </c>
       <c r="D88" t="n">
-        <v>0.311224</v>
+        <v>0.309472</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.405994</v>
+        <v>0.403928</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30346</v>
+        <v>0.30082</v>
       </c>
       <c r="D89" t="n">
-        <v>0.305583</v>
+        <v>0.303319</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.400879</v>
+        <v>0.398962</v>
       </c>
       <c r="C90" t="n">
-        <v>0.297523</v>
+        <v>0.295139</v>
       </c>
       <c r="D90" t="n">
-        <v>0.300031</v>
+        <v>0.298162</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.395867</v>
+        <v>0.393891</v>
       </c>
       <c r="C91" t="n">
-        <v>0.292132</v>
+        <v>0.29015</v>
       </c>
       <c r="D91" t="n">
-        <v>0.296095</v>
+        <v>0.29393</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.391416</v>
+        <v>0.389527</v>
       </c>
       <c r="C92" t="n">
-        <v>0.287971</v>
+        <v>0.285933</v>
       </c>
       <c r="D92" t="n">
-        <v>0.292796</v>
+        <v>0.290628</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387987</v>
+        <v>0.385997</v>
       </c>
       <c r="C93" t="n">
-        <v>0.285355</v>
+        <v>0.282875</v>
       </c>
       <c r="D93" t="n">
-        <v>0.291671</v>
+        <v>0.289713</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.385539</v>
+        <v>0.383703</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283774</v>
+        <v>0.281868</v>
       </c>
       <c r="D94" t="n">
-        <v>0.526128</v>
+        <v>0.542065</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.576928</v>
+        <v>0.584145</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452783</v>
+        <v>0.46833</v>
       </c>
       <c r="D95" t="n">
-        <v>0.516232</v>
+        <v>0.532853</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.573781</v>
+        <v>0.5809569999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.448984</v>
+        <v>0.485301</v>
       </c>
       <c r="D96" t="n">
-        <v>0.507023</v>
+        <v>0.522049</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5648919999999999</v>
+        <v>0.572069</v>
       </c>
       <c r="C97" t="n">
-        <v>0.441506</v>
+        <v>0.451419</v>
       </c>
       <c r="D97" t="n">
-        <v>0.497029</v>
+        <v>0.511866</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.555396</v>
+        <v>0.563126</v>
       </c>
       <c r="C98" t="n">
-        <v>0.432458</v>
+        <v>0.444903</v>
       </c>
       <c r="D98" t="n">
-        <v>0.486624</v>
+        <v>0.501096</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.546686</v>
+        <v>0.55327</v>
       </c>
       <c r="C99" t="n">
-        <v>0.427235</v>
+        <v>0.437787</v>
       </c>
       <c r="D99" t="n">
-        <v>0.478305</v>
+        <v>0.492322</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.537776</v>
+        <v>0.54437</v>
       </c>
       <c r="C100" t="n">
-        <v>0.419948</v>
+        <v>0.430616</v>
       </c>
       <c r="D100" t="n">
-        <v>0.469646</v>
+        <v>0.482573</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.529872</v>
+        <v>0.535836</v>
       </c>
       <c r="C101" t="n">
-        <v>0.415251</v>
+        <v>0.425893</v>
       </c>
       <c r="D101" t="n">
-        <v>0.461734</v>
+        <v>0.475355</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.523164</v>
+        <v>0.528138</v>
       </c>
       <c r="C102" t="n">
-        <v>0.410536</v>
+        <v>0.420275</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453967</v>
+        <v>0.466818</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5160979999999999</v>
+        <v>0.520701</v>
       </c>
       <c r="C103" t="n">
-        <v>0.404238</v>
+        <v>0.414609</v>
       </c>
       <c r="D103" t="n">
-        <v>0.448315</v>
+        <v>0.460006</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.509132</v>
+        <v>0.513443</v>
       </c>
       <c r="C104" t="n">
-        <v>0.400017</v>
+        <v>0.408824</v>
       </c>
       <c r="D104" t="n">
-        <v>0.442541</v>
+        <v>0.453813</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5040519999999999</v>
+        <v>0.507428</v>
       </c>
       <c r="C105" t="n">
-        <v>0.395905</v>
+        <v>0.407296</v>
       </c>
       <c r="D105" t="n">
-        <v>0.436723</v>
+        <v>0.44889</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.497896</v>
+        <v>0.501169</v>
       </c>
       <c r="C106" t="n">
-        <v>0.392136</v>
+        <v>0.401412</v>
       </c>
       <c r="D106" t="n">
-        <v>0.432693</v>
+        <v>0.442715</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.493611</v>
+        <v>0.496681</v>
       </c>
       <c r="C107" t="n">
-        <v>0.390793</v>
+        <v>0.397901</v>
       </c>
       <c r="D107" t="n">
-        <v>0.429529</v>
+        <v>0.439764</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.490359</v>
+        <v>0.492947</v>
       </c>
       <c r="C108" t="n">
-        <v>0.389076</v>
+        <v>0.39669</v>
       </c>
       <c r="D108" t="n">
-        <v>0.607724</v>
+        <v>0.624305</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489421</v>
+        <v>0.491522</v>
       </c>
       <c r="C109" t="n">
-        <v>0.388352</v>
+        <v>0.397325</v>
       </c>
       <c r="D109" t="n">
-        <v>0.59934</v>
+        <v>0.614556</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.686357</v>
+        <v>0.697215</v>
       </c>
       <c r="C110" t="n">
-        <v>0.564828</v>
+        <v>0.580026</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5880919999999999</v>
+        <v>0.605313</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.675104</v>
+        <v>0.685937</v>
       </c>
       <c r="C111" t="n">
-        <v>0.556922</v>
+        <v>0.5723200000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579315</v>
+        <v>0.596621</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.663699</v>
+        <v>0.673436</v>
       </c>
       <c r="C112" t="n">
-        <v>0.548316</v>
+        <v>0.562913</v>
       </c>
       <c r="D112" t="n">
-        <v>0.571384</v>
+        <v>0.587417</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.652705</v>
+        <v>0.662064</v>
       </c>
       <c r="C113" t="n">
-        <v>0.539721</v>
+        <v>0.556215</v>
       </c>
       <c r="D113" t="n">
-        <v>0.563961</v>
+        <v>0.58211</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.642364</v>
+        <v>0.650733</v>
       </c>
       <c r="C114" t="n">
-        <v>0.533768</v>
+        <v>0.548301</v>
       </c>
       <c r="D114" t="n">
-        <v>0.557314</v>
+        <v>0.574438</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.632084</v>
+        <v>0.640561</v>
       </c>
       <c r="C115" t="n">
-        <v>0.526645</v>
+        <v>0.541946</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5502089999999999</v>
+        <v>0.566634</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.622171</v>
+        <v>0.630733</v>
       </c>
       <c r="C116" t="n">
-        <v>0.520595</v>
+        <v>0.536157</v>
       </c>
       <c r="D116" t="n">
-        <v>0.544398</v>
+        <v>0.561443</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.614001</v>
+        <v>0.621485</v>
       </c>
       <c r="C117" t="n">
-        <v>0.514975</v>
+        <v>0.5305530000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.538716</v>
+        <v>0.555748</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.605694</v>
+        <v>0.613085</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5107080000000001</v>
+        <v>0.525093</v>
       </c>
       <c r="D118" t="n">
-        <v>0.535626</v>
+        <v>0.55086</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.598029</v>
+        <v>0.604796</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5058589999999999</v>
+        <v>0.52062</v>
       </c>
       <c r="D119" t="n">
-        <v>0.532018</v>
+        <v>0.546067</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.591027</v>
+        <v>0.597472</v>
       </c>
       <c r="C120" t="n">
-        <v>0.502092</v>
+        <v>0.517749</v>
       </c>
       <c r="D120" t="n">
-        <v>0.528495</v>
+        <v>0.54461</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.58494</v>
+        <v>0.59079</v>
       </c>
       <c r="C121" t="n">
-        <v>0.500369</v>
+        <v>0.51403</v>
       </c>
       <c r="D121" t="n">
-        <v>0.528054</v>
+        <v>0.542945</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.580068</v>
+        <v>0.585373</v>
       </c>
       <c r="C122" t="n">
-        <v>0.499562</v>
+        <v>0.514101</v>
       </c>
       <c r="D122" t="n">
-        <v>0.527984</v>
+        <v>0.543562</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.576886</v>
+        <v>0.581852</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5009479999999999</v>
+        <v>0.515015</v>
       </c>
       <c r="D123" t="n">
-        <v>0.701304</v>
+        <v>0.729123</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.768883</v>
+        <v>0.7825029999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.673407</v>
+        <v>0.698443</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6906639999999999</v>
+        <v>0.716849</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.759375</v>
+        <v>0.772532</v>
       </c>
       <c r="C125" t="n">
-        <v>0.661089</v>
+        <v>0.687767</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680291</v>
+        <v>0.705043</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75091</v>
+        <v>0.763056</v>
       </c>
       <c r="C126" t="n">
-        <v>0.650046</v>
+        <v>0.676413</v>
       </c>
       <c r="D126" t="n">
-        <v>0.67073</v>
+        <v>0.69576</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742192</v>
+        <v>0.754046</v>
       </c>
       <c r="C127" t="n">
-        <v>0.640557</v>
+        <v>0.666584</v>
       </c>
       <c r="D127" t="n">
-        <v>0.660958</v>
+        <v>0.686751</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.734551</v>
+        <v>0.745444</v>
       </c>
       <c r="C128" t="n">
-        <v>0.630648</v>
+        <v>0.656517</v>
       </c>
       <c r="D128" t="n">
-        <v>0.652305</v>
+        <v>0.6777030000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.727074</v>
+        <v>0.737026</v>
       </c>
       <c r="C129" t="n">
-        <v>0.621844</v>
+        <v>0.647786</v>
       </c>
       <c r="D129" t="n">
-        <v>0.644048</v>
+        <v>0.667573</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.720601</v>
+        <v>0.729413</v>
       </c>
       <c r="C130" t="n">
-        <v>0.613998</v>
+        <v>0.638965</v>
       </c>
       <c r="D130" t="n">
-        <v>0.636973</v>
+        <v>0.662394</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7137520000000001</v>
+        <v>0.722714</v>
       </c>
       <c r="C131" t="n">
-        <v>0.606585</v>
+        <v>0.631179</v>
       </c>
       <c r="D131" t="n">
-        <v>0.628706</v>
+        <v>0.65484</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.707439</v>
+        <v>0.715899</v>
       </c>
       <c r="C132" t="n">
-        <v>0.599553</v>
+        <v>0.624667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.623906</v>
+        <v>0.64872</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.702092</v>
+        <v>0.709921</v>
       </c>
       <c r="C133" t="n">
-        <v>0.593604</v>
+        <v>0.61865</v>
       </c>
       <c r="D133" t="n">
-        <v>0.619497</v>
+        <v>0.644591</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.696882</v>
+        <v>0.704565</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588583</v>
+        <v>0.613348</v>
       </c>
       <c r="D134" t="n">
-        <v>0.616089</v>
+        <v>0.641925</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.692584</v>
+        <v>0.698833</v>
       </c>
       <c r="C135" t="n">
-        <v>0.585486</v>
+        <v>0.609968</v>
       </c>
       <c r="D135" t="n">
-        <v>0.616353</v>
+        <v>0.6409550000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.688627</v>
+        <v>0.694779</v>
       </c>
       <c r="C136" t="n">
-        <v>0.584288</v>
+        <v>0.608622</v>
       </c>
       <c r="D136" t="n">
-        <v>0.617092</v>
+        <v>0.642564</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.685154</v>
+        <v>0.691481</v>
       </c>
       <c r="C137" t="n">
-        <v>0.58626</v>
+        <v>0.610199</v>
       </c>
       <c r="D137" t="n">
-        <v>0.794184</v>
+        <v>0.828446</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.872363</v>
+        <v>0.8893180000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.761335</v>
+        <v>0.795286</v>
       </c>
       <c r="D138" t="n">
-        <v>0.779458</v>
+        <v>0.817698</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.865777</v>
+        <v>0.88192</v>
       </c>
       <c r="C139" t="n">
-        <v>0.747317</v>
+        <v>0.780246</v>
       </c>
       <c r="D139" t="n">
-        <v>0.764956</v>
+        <v>0.8043439999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.85883</v>
+        <v>0.874108</v>
       </c>
       <c r="C140" t="n">
-        <v>0.733464</v>
+        <v>0.765049</v>
       </c>
       <c r="D140" t="n">
-        <v>0.75297</v>
+        <v>0.791484</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.85293</v>
+        <v>0.867543</v>
       </c>
       <c r="C141" t="n">
-        <v>0.720933</v>
+        <v>0.75074</v>
       </c>
       <c r="D141" t="n">
-        <v>0.740634</v>
+        <v>0.777949</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.847136</v>
+        <v>0.8606</v>
       </c>
       <c r="C142" t="n">
-        <v>0.708875</v>
+        <v>0.737177</v>
       </c>
       <c r="D142" t="n">
-        <v>0.729626</v>
+        <v>0.767072</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.841592</v>
+        <v>0.854344</v>
       </c>
       <c r="C143" t="n">
-        <v>0.697283</v>
+        <v>0.725058</v>
       </c>
       <c r="D143" t="n">
-        <v>0.719068</v>
+        <v>0.756131</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247065</v>
+        <v>0.246792</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201039</v>
+        <v>0.201079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199459</v>
+        <v>0.199081</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241709</v>
+        <v>0.242055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196339</v>
+        <v>0.195934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194951</v>
+        <v>0.193041</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23645</v>
+        <v>0.236401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190952</v>
+        <v>0.19035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190395</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232007</v>
+        <v>0.231687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187319</v>
+        <v>0.187134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.187487</v>
+        <v>0.186181</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.227842</v>
+        <v>0.22775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183003</v>
+        <v>0.182719</v>
       </c>
       <c r="D6" t="n">
-        <v>0.183679</v>
+        <v>0.183541</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224604</v>
+        <v>0.224711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.180862</v>
+        <v>0.181236</v>
       </c>
       <c r="D7" t="n">
-        <v>0.183829</v>
+        <v>0.182584</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222901</v>
+        <v>0.223246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179594</v>
+        <v>0.179782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.184524</v>
+        <v>0.184618</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223086</v>
+        <v>0.222772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181017</v>
+        <v>0.181241</v>
       </c>
       <c r="D9" t="n">
-        <v>0.276513</v>
+        <v>0.27694</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309458</v>
+        <v>0.309533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.267433</v>
+        <v>0.270794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.267077</v>
+        <v>0.267829</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300714</v>
+        <v>0.301198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2576</v>
+        <v>0.26066</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257884</v>
+        <v>0.258185</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.292146</v>
+        <v>0.292524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24995</v>
+        <v>0.252821</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248958</v>
+        <v>0.248975</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.283999</v>
+        <v>0.284444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241268</v>
+        <v>0.243851</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240871</v>
+        <v>0.24101</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.276583</v>
+        <v>0.276375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.232837</v>
+        <v>0.236205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23368</v>
+        <v>0.23359</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269376</v>
+        <v>0.269658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225446</v>
+        <v>0.228865</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226038</v>
+        <v>0.226243</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.262754</v>
+        <v>0.2631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218771</v>
+        <v>0.221582</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219989</v>
+        <v>0.220197</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256659</v>
+        <v>0.256899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213151</v>
+        <v>0.215648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214361</v>
+        <v>0.214337</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250801</v>
+        <v>0.251174</v>
       </c>
       <c r="C18" t="n">
-        <v>0.207423</v>
+        <v>0.209909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209626</v>
+        <v>0.209468</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245754</v>
+        <v>0.245891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.202475</v>
+        <v>0.204729</v>
       </c>
       <c r="D19" t="n">
-        <v>0.205678</v>
+        <v>0.205396</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.241342</v>
+        <v>0.241204</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197735</v>
+        <v>0.200687</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202507</v>
+        <v>0.202257</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238309</v>
+        <v>0.23766</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195674</v>
+        <v>0.198036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201169</v>
+        <v>0.200715</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235692</v>
+        <v>0.235837</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194451</v>
+        <v>0.196783</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201862</v>
+        <v>0.201226</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.234842</v>
+        <v>0.234999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194876</v>
+        <v>0.196732</v>
       </c>
       <c r="D23" t="n">
-        <v>0.299504</v>
+        <v>0.290198</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.320952</v>
+        <v>0.320909</v>
       </c>
       <c r="C24" t="n">
-        <v>0.290203</v>
+        <v>0.282491</v>
       </c>
       <c r="D24" t="n">
-        <v>0.289459</v>
+        <v>0.280372</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.312383</v>
+        <v>0.31183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.280172</v>
+        <v>0.273197</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2793</v>
+        <v>0.270894</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303873</v>
+        <v>0.303645</v>
       </c>
       <c r="C26" t="n">
-        <v>0.270417</v>
+        <v>0.26414</v>
       </c>
       <c r="D26" t="n">
-        <v>0.269829</v>
+        <v>0.261991</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295734</v>
+        <v>0.295195</v>
       </c>
       <c r="C27" t="n">
-        <v>0.261364</v>
+        <v>0.255388</v>
       </c>
       <c r="D27" t="n">
-        <v>0.260804</v>
+        <v>0.253643</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287918</v>
+        <v>0.287798</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252938</v>
+        <v>0.247916</v>
       </c>
       <c r="D28" t="n">
-        <v>0.252756</v>
+        <v>0.245968</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280316</v>
+        <v>0.279713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245366</v>
+        <v>0.241685</v>
       </c>
       <c r="D29" t="n">
-        <v>0.244908</v>
+        <v>0.238675</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.273413</v>
+        <v>0.272749</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238186</v>
+        <v>0.234352</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237903</v>
+        <v>0.231774</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266997</v>
+        <v>0.266824</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231295</v>
+        <v>0.227567</v>
       </c>
       <c r="D31" t="n">
-        <v>0.231489</v>
+        <v>0.225867</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260959</v>
+        <v>0.260178</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22484</v>
+        <v>0.221219</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225239</v>
+        <v>0.220145</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255633</v>
+        <v>0.254642</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219305</v>
+        <v>0.216258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22062</v>
+        <v>0.215072</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.250817</v>
+        <v>0.250509</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21441</v>
+        <v>0.210833</v>
       </c>
       <c r="D34" t="n">
-        <v>0.216706</v>
+        <v>0.211861</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246744</v>
+        <v>0.245846</v>
       </c>
       <c r="C35" t="n">
-        <v>0.21009</v>
+        <v>0.207945</v>
       </c>
       <c r="D35" t="n">
-        <v>0.213585</v>
+        <v>0.209569</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24402</v>
+        <v>0.243316</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205992</v>
+        <v>0.204956</v>
       </c>
       <c r="D36" t="n">
-        <v>0.213261</v>
+        <v>0.209517</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243133</v>
+        <v>0.242229</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205578</v>
+        <v>0.203556</v>
       </c>
       <c r="D37" t="n">
-        <v>0.30463</v>
+        <v>0.300937</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327171</v>
+        <v>0.326498</v>
       </c>
       <c r="C38" t="n">
-        <v>0.291942</v>
+        <v>0.290648</v>
       </c>
       <c r="D38" t="n">
-        <v>0.293802</v>
+        <v>0.290117</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.319101</v>
+        <v>0.318431</v>
       </c>
       <c r="C39" t="n">
-        <v>0.28316</v>
+        <v>0.281626</v>
       </c>
       <c r="D39" t="n">
-        <v>0.28384</v>
+        <v>0.280383</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309575</v>
+        <v>0.309221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.274025</v>
+        <v>0.271798</v>
       </c>
       <c r="D40" t="n">
-        <v>0.274863</v>
+        <v>0.2718</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301331</v>
+        <v>0.300995</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264691</v>
+        <v>0.263527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265948</v>
+        <v>0.263408</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294179</v>
+        <v>0.29341</v>
       </c>
       <c r="C42" t="n">
-        <v>0.256506</v>
+        <v>0.255463</v>
       </c>
       <c r="D42" t="n">
-        <v>0.257664</v>
+        <v>0.25534</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286587</v>
+        <v>0.285817</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248543</v>
+        <v>0.247499</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249814</v>
+        <v>0.246673</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280195</v>
+        <v>0.279103</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242392</v>
+        <v>0.240585</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243142</v>
+        <v>0.240612</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273509</v>
+        <v>0.272518</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235253</v>
+        <v>0.233348</v>
       </c>
       <c r="D45" t="n">
-        <v>0.236794</v>
+        <v>0.234704</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268073</v>
+        <v>0.266607</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229544</v>
+        <v>0.227243</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230763</v>
+        <v>0.228747</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262276</v>
+        <v>0.261235</v>
       </c>
       <c r="C47" t="n">
-        <v>0.222591</v>
+        <v>0.221764</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225913</v>
+        <v>0.224639</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257286</v>
+        <v>0.256807</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217841</v>
+        <v>0.216791</v>
       </c>
       <c r="D48" t="n">
-        <v>0.222051</v>
+        <v>0.220646</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253609</v>
+        <v>0.252518</v>
       </c>
       <c r="C49" t="n">
-        <v>0.213393</v>
+        <v>0.212971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.219516</v>
+        <v>0.21812</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24998</v>
+        <v>0.249436</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211084</v>
+        <v>0.210788</v>
       </c>
       <c r="D50" t="n">
-        <v>0.218958</v>
+        <v>0.217249</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.249167</v>
+        <v>0.249052</v>
       </c>
       <c r="C51" t="n">
-        <v>0.211003</v>
+        <v>0.209819</v>
       </c>
       <c r="D51" t="n">
-        <v>0.315904</v>
+        <v>0.312321</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250634</v>
+        <v>0.249909</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211989</v>
+        <v>0.212179</v>
       </c>
       <c r="D52" t="n">
-        <v>0.305766</v>
+        <v>0.301737</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330371</v>
+        <v>0.329954</v>
       </c>
       <c r="C53" t="n">
-        <v>0.292834</v>
+        <v>0.289246</v>
       </c>
       <c r="D53" t="n">
-        <v>0.295345</v>
+        <v>0.29164</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321985</v>
+        <v>0.322025</v>
       </c>
       <c r="C54" t="n">
-        <v>0.283494</v>
+        <v>0.279992</v>
       </c>
       <c r="D54" t="n">
-        <v>0.285951</v>
+        <v>0.282065</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.314242</v>
+        <v>0.31417</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27485</v>
+        <v>0.271295</v>
       </c>
       <c r="D55" t="n">
-        <v>0.276872</v>
+        <v>0.273086</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306772</v>
+        <v>0.30692</v>
       </c>
       <c r="C56" t="n">
-        <v>0.266252</v>
+        <v>0.263062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.268549</v>
+        <v>0.264563</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299917</v>
+        <v>0.299891</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25891</v>
+        <v>0.255942</v>
       </c>
       <c r="D57" t="n">
-        <v>0.260562</v>
+        <v>0.257105</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293387</v>
+        <v>0.293148</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251487</v>
+        <v>0.248439</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253341</v>
+        <v>0.249708</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.287399</v>
+        <v>0.286955</v>
       </c>
       <c r="C59" t="n">
-        <v>0.244754</v>
+        <v>0.242004</v>
       </c>
       <c r="D59" t="n">
-        <v>0.246631</v>
+        <v>0.243314</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281629</v>
+        <v>0.281255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237589</v>
+        <v>0.235583</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240881</v>
+        <v>0.237786</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276351</v>
+        <v>0.275917</v>
       </c>
       <c r="C61" t="n">
-        <v>0.232688</v>
+        <v>0.229735</v>
       </c>
       <c r="D61" t="n">
-        <v>0.235784</v>
+        <v>0.232913</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271785</v>
+        <v>0.271374</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2271</v>
+        <v>0.225065</v>
       </c>
       <c r="D62" t="n">
-        <v>0.231728</v>
+        <v>0.228817</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26787</v>
+        <v>0.267247</v>
       </c>
       <c r="C63" t="n">
-        <v>0.22319</v>
+        <v>0.220787</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228752</v>
+        <v>0.225838</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264969</v>
+        <v>0.264276</v>
       </c>
       <c r="C64" t="n">
-        <v>0.219355</v>
+        <v>0.217066</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227167</v>
+        <v>0.224642</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26331</v>
+        <v>0.262748</v>
       </c>
       <c r="C65" t="n">
-        <v>0.218236</v>
+        <v>0.215276</v>
       </c>
       <c r="D65" t="n">
-        <v>0.228591</v>
+        <v>0.225903</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263737</v>
+        <v>0.263203</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219558</v>
+        <v>0.217018</v>
       </c>
       <c r="D66" t="n">
-        <v>0.336174</v>
+        <v>0.33253</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.385188</v>
+        <v>0.385546</v>
       </c>
       <c r="C67" t="n">
-        <v>0.327859</v>
+        <v>0.326871</v>
       </c>
       <c r="D67" t="n">
-        <v>0.325006</v>
+        <v>0.321784</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.377096</v>
+        <v>0.377649</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317037</v>
+        <v>0.316056</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314581</v>
+        <v>0.311907</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369618</v>
+        <v>0.370291</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307347</v>
+        <v>0.306943</v>
       </c>
       <c r="D69" t="n">
-        <v>0.305051</v>
+        <v>0.302673</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.363048</v>
+        <v>0.363637</v>
       </c>
       <c r="C70" t="n">
-        <v>0.29848</v>
+        <v>0.297912</v>
       </c>
       <c r="D70" t="n">
-        <v>0.296119</v>
+        <v>0.293493</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.357164</v>
+        <v>0.357062</v>
       </c>
       <c r="C71" t="n">
-        <v>0.289962</v>
+        <v>0.289501</v>
       </c>
       <c r="D71" t="n">
-        <v>0.287197</v>
+        <v>0.285566</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350805</v>
+        <v>0.351012</v>
       </c>
       <c r="C72" t="n">
-        <v>0.281989</v>
+        <v>0.281489</v>
       </c>
       <c r="D72" t="n">
-        <v>0.279626</v>
+        <v>0.27765</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344775</v>
+        <v>0.344999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.274823</v>
+        <v>0.274533</v>
       </c>
       <c r="D73" t="n">
-        <v>0.272471</v>
+        <v>0.270524</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.339269</v>
+        <v>0.338976</v>
       </c>
       <c r="C74" t="n">
-        <v>0.268139</v>
+        <v>0.267075</v>
       </c>
       <c r="D74" t="n">
-        <v>0.266117</v>
+        <v>0.264458</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333362</v>
+        <v>0.333225</v>
       </c>
       <c r="C75" t="n">
-        <v>0.261031</v>
+        <v>0.260716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.260539</v>
+        <v>0.258912</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.328044</v>
+        <v>0.327578</v>
       </c>
       <c r="C76" t="n">
-        <v>0.255037</v>
+        <v>0.254568</v>
       </c>
       <c r="D76" t="n">
-        <v>0.255647</v>
+        <v>0.254324</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.323056</v>
+        <v>0.322694</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250323</v>
+        <v>0.249975</v>
       </c>
       <c r="D77" t="n">
-        <v>0.252467</v>
+        <v>0.251025</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318988</v>
+        <v>0.318399</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24691</v>
+        <v>0.24639</v>
       </c>
       <c r="D78" t="n">
-        <v>0.250507</v>
+        <v>0.249221</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315683</v>
+        <v>0.315141</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244788</v>
+        <v>0.244246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.251001</v>
+        <v>0.249323</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.314114</v>
+        <v>0.313615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244621</v>
+        <v>0.24443</v>
       </c>
       <c r="D80" t="n">
-        <v>0.374537</v>
+        <v>0.373933</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.445419</v>
+        <v>0.445009</v>
       </c>
       <c r="C81" t="n">
-        <v>0.361321</v>
+        <v>0.361608</v>
       </c>
       <c r="D81" t="n">
-        <v>0.36738</v>
+        <v>0.367206</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.44179</v>
+        <v>0.441275</v>
       </c>
       <c r="C82" t="n">
-        <v>0.355753</v>
+        <v>0.356457</v>
       </c>
       <c r="D82" t="n">
-        <v>0.358626</v>
+        <v>0.35811</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.436494</v>
+        <v>0.436126</v>
       </c>
       <c r="C83" t="n">
-        <v>0.34578</v>
+        <v>0.346703</v>
       </c>
       <c r="D83" t="n">
-        <v>0.349575</v>
+        <v>0.348897</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.431023</v>
+        <v>0.430774</v>
       </c>
       <c r="C84" t="n">
-        <v>0.336205</v>
+        <v>0.338233</v>
       </c>
       <c r="D84" t="n">
-        <v>0.34023</v>
+        <v>0.340217</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.425617</v>
+        <v>0.425519</v>
       </c>
       <c r="C85" t="n">
-        <v>0.328034</v>
+        <v>0.330345</v>
       </c>
       <c r="D85" t="n">
-        <v>0.331518</v>
+        <v>0.332035</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.42027</v>
+        <v>0.420034</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321262</v>
+        <v>0.322218</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323911</v>
+        <v>0.32397</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414798</v>
+        <v>0.414447</v>
       </c>
       <c r="C87" t="n">
-        <v>0.314065</v>
+        <v>0.314479</v>
       </c>
       <c r="D87" t="n">
-        <v>0.316517</v>
+        <v>0.316766</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.409244</v>
+        <v>0.408961</v>
       </c>
       <c r="C88" t="n">
-        <v>0.307414</v>
+        <v>0.307587</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309472</v>
+        <v>0.309874</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403928</v>
+        <v>0.403665</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30082</v>
+        <v>0.301892</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303319</v>
+        <v>0.303916</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.398962</v>
+        <v>0.398401</v>
       </c>
       <c r="C90" t="n">
-        <v>0.295139</v>
+        <v>0.296057</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298162</v>
+        <v>0.298682</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.393891</v>
+        <v>0.393851</v>
       </c>
       <c r="C91" t="n">
-        <v>0.29015</v>
+        <v>0.29094</v>
       </c>
       <c r="D91" t="n">
-        <v>0.29393</v>
+        <v>0.294571</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.389527</v>
+        <v>0.389343</v>
       </c>
       <c r="C92" t="n">
-        <v>0.285933</v>
+        <v>0.286876</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290628</v>
+        <v>0.291502</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385997</v>
+        <v>0.385633</v>
       </c>
       <c r="C93" t="n">
-        <v>0.282875</v>
+        <v>0.283324</v>
       </c>
       <c r="D93" t="n">
-        <v>0.289713</v>
+        <v>0.290541</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.383703</v>
+        <v>0.383496</v>
       </c>
       <c r="C94" t="n">
-        <v>0.281868</v>
+        <v>0.282459</v>
       </c>
       <c r="D94" t="n">
-        <v>0.542065</v>
+        <v>0.526997</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.584145</v>
+        <v>0.5760690000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.46833</v>
+        <v>0.453048</v>
       </c>
       <c r="D95" t="n">
-        <v>0.532853</v>
+        <v>0.517186</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5809569999999999</v>
+        <v>0.573226</v>
       </c>
       <c r="C96" t="n">
-        <v>0.485301</v>
+        <v>0.44634</v>
       </c>
       <c r="D96" t="n">
-        <v>0.522049</v>
+        <v>0.508248</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.572069</v>
+        <v>0.56437</v>
       </c>
       <c r="C97" t="n">
-        <v>0.451419</v>
+        <v>0.4389</v>
       </c>
       <c r="D97" t="n">
-        <v>0.511866</v>
+        <v>0.497246</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.563126</v>
+        <v>0.555156</v>
       </c>
       <c r="C98" t="n">
-        <v>0.444903</v>
+        <v>0.432805</v>
       </c>
       <c r="D98" t="n">
-        <v>0.501096</v>
+        <v>0.488101</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.55327</v>
+        <v>0.546345</v>
       </c>
       <c r="C99" t="n">
-        <v>0.437787</v>
+        <v>0.427386</v>
       </c>
       <c r="D99" t="n">
-        <v>0.492322</v>
+        <v>0.479463</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.54437</v>
+        <v>0.537615</v>
       </c>
       <c r="C100" t="n">
-        <v>0.430616</v>
+        <v>0.421459</v>
       </c>
       <c r="D100" t="n">
-        <v>0.482573</v>
+        <v>0.470176</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.535836</v>
+        <v>0.5306110000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.425893</v>
+        <v>0.415268</v>
       </c>
       <c r="D101" t="n">
-        <v>0.475355</v>
+        <v>0.462648</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.528138</v>
+        <v>0.521927</v>
       </c>
       <c r="C102" t="n">
-        <v>0.420275</v>
+        <v>0.40891</v>
       </c>
       <c r="D102" t="n">
-        <v>0.466818</v>
+        <v>0.455088</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.520701</v>
+        <v>0.514884</v>
       </c>
       <c r="C103" t="n">
-        <v>0.414609</v>
+        <v>0.404141</v>
       </c>
       <c r="D103" t="n">
-        <v>0.460006</v>
+        <v>0.448615</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.513443</v>
+        <v>0.507417</v>
       </c>
       <c r="C104" t="n">
-        <v>0.408824</v>
+        <v>0.399149</v>
       </c>
       <c r="D104" t="n">
-        <v>0.453813</v>
+        <v>0.44238</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.507428</v>
+        <v>0.502638</v>
       </c>
       <c r="C105" t="n">
-        <v>0.407296</v>
+        <v>0.395596</v>
       </c>
       <c r="D105" t="n">
-        <v>0.44889</v>
+        <v>0.437828</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.501169</v>
+        <v>0.497493</v>
       </c>
       <c r="C106" t="n">
-        <v>0.401412</v>
+        <v>0.390589</v>
       </c>
       <c r="D106" t="n">
-        <v>0.442715</v>
+        <v>0.433833</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.496681</v>
+        <v>0.492846</v>
       </c>
       <c r="C107" t="n">
-        <v>0.397901</v>
+        <v>0.389832</v>
       </c>
       <c r="D107" t="n">
-        <v>0.439764</v>
+        <v>0.43007</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492947</v>
+        <v>0.48802</v>
       </c>
       <c r="C108" t="n">
-        <v>0.39669</v>
+        <v>0.3884</v>
       </c>
       <c r="D108" t="n">
-        <v>0.624305</v>
+        <v>0.607355</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.491522</v>
+        <v>0.487663</v>
       </c>
       <c r="C109" t="n">
-        <v>0.397325</v>
+        <v>0.38959</v>
       </c>
       <c r="D109" t="n">
-        <v>0.614556</v>
+        <v>0.599243</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.697215</v>
+        <v>0.6840079999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.580026</v>
+        <v>0.564282</v>
       </c>
       <c r="D110" t="n">
-        <v>0.605313</v>
+        <v>0.589773</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.685937</v>
+        <v>0.673807</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5723200000000001</v>
+        <v>0.5576759999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.596621</v>
+        <v>0.579736</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.673436</v>
+        <v>0.661694</v>
       </c>
       <c r="C112" t="n">
-        <v>0.562913</v>
+        <v>0.54821</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587417</v>
+        <v>0.572787</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.662064</v>
+        <v>0.650899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.556215</v>
+        <v>0.540924</v>
       </c>
       <c r="D113" t="n">
-        <v>0.58211</v>
+        <v>0.564708</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.650733</v>
+        <v>0.640451</v>
       </c>
       <c r="C114" t="n">
-        <v>0.548301</v>
+        <v>0.53257</v>
       </c>
       <c r="D114" t="n">
-        <v>0.574438</v>
+        <v>0.557523</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.640561</v>
+        <v>0.630494</v>
       </c>
       <c r="C115" t="n">
-        <v>0.541946</v>
+        <v>0.526538</v>
       </c>
       <c r="D115" t="n">
-        <v>0.566634</v>
+        <v>0.550726</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.630733</v>
+        <v>0.620733</v>
       </c>
       <c r="C116" t="n">
-        <v>0.536157</v>
+        <v>0.521</v>
       </c>
       <c r="D116" t="n">
-        <v>0.561443</v>
+        <v>0.544888</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.621485</v>
+        <v>0.612609</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5305530000000001</v>
+        <v>0.515348</v>
       </c>
       <c r="D117" t="n">
-        <v>0.555748</v>
+        <v>0.53974</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613085</v>
+        <v>0.604172</v>
       </c>
       <c r="C118" t="n">
-        <v>0.525093</v>
+        <v>0.509624</v>
       </c>
       <c r="D118" t="n">
-        <v>0.55086</v>
+        <v>0.535911</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.604796</v>
+        <v>0.596352</v>
       </c>
       <c r="C119" t="n">
-        <v>0.52062</v>
+        <v>0.506123</v>
       </c>
       <c r="D119" t="n">
-        <v>0.546067</v>
+        <v>0.532834</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597472</v>
+        <v>0.589585</v>
       </c>
       <c r="C120" t="n">
-        <v>0.517749</v>
+        <v>0.5023919999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.54461</v>
+        <v>0.52882</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.59079</v>
+        <v>0.583283</v>
       </c>
       <c r="C121" t="n">
-        <v>0.51403</v>
+        <v>0.50007</v>
       </c>
       <c r="D121" t="n">
-        <v>0.542945</v>
+        <v>0.5291090000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.585373</v>
+        <v>0.578027</v>
       </c>
       <c r="C122" t="n">
-        <v>0.514101</v>
+        <v>0.498635</v>
       </c>
       <c r="D122" t="n">
-        <v>0.543562</v>
+        <v>0.529181</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.581852</v>
+        <v>0.5759</v>
       </c>
       <c r="C123" t="n">
-        <v>0.515015</v>
+        <v>0.50081</v>
       </c>
       <c r="D123" t="n">
-        <v>0.729123</v>
+        <v>0.701796</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7825029999999999</v>
+        <v>0.766716</v>
       </c>
       <c r="C124" t="n">
-        <v>0.698443</v>
+        <v>0.673544</v>
       </c>
       <c r="D124" t="n">
-        <v>0.716849</v>
+        <v>0.690999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.772532</v>
+        <v>0.757296</v>
       </c>
       <c r="C125" t="n">
-        <v>0.687767</v>
+        <v>0.661879</v>
       </c>
       <c r="D125" t="n">
-        <v>0.705043</v>
+        <v>0.681189</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.763056</v>
+        <v>0.748615</v>
       </c>
       <c r="C126" t="n">
-        <v>0.676413</v>
+        <v>0.651353</v>
       </c>
       <c r="D126" t="n">
-        <v>0.69576</v>
+        <v>0.671192</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.754046</v>
+        <v>0.740447</v>
       </c>
       <c r="C127" t="n">
-        <v>0.666584</v>
+        <v>0.641163</v>
       </c>
       <c r="D127" t="n">
-        <v>0.686751</v>
+        <v>0.661397</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.745444</v>
+        <v>0.732552</v>
       </c>
       <c r="C128" t="n">
-        <v>0.656517</v>
+        <v>0.631678</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6777030000000001</v>
+        <v>0.65233</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.737026</v>
+        <v>0.725293</v>
       </c>
       <c r="C129" t="n">
-        <v>0.647786</v>
+        <v>0.622906</v>
       </c>
       <c r="D129" t="n">
-        <v>0.667573</v>
+        <v>0.644757</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.729413</v>
+        <v>0.7183349999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.638965</v>
+        <v>0.614463</v>
       </c>
       <c r="D130" t="n">
-        <v>0.662394</v>
+        <v>0.636512</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.722714</v>
+        <v>0.711406</v>
       </c>
       <c r="C131" t="n">
-        <v>0.631179</v>
+        <v>0.606252</v>
       </c>
       <c r="D131" t="n">
-        <v>0.65484</v>
+        <v>0.6305809999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.715899</v>
+        <v>0.7057369999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.624667</v>
+        <v>0.600573</v>
       </c>
       <c r="D132" t="n">
-        <v>0.64872</v>
+        <v>0.625759</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.709921</v>
+        <v>0.699815</v>
       </c>
       <c r="C133" t="n">
-        <v>0.61865</v>
+        <v>0.594892</v>
       </c>
       <c r="D133" t="n">
-        <v>0.644591</v>
+        <v>0.619368</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.704565</v>
+        <v>0.69416</v>
       </c>
       <c r="C134" t="n">
-        <v>0.613348</v>
+        <v>0.5892849999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.641925</v>
+        <v>0.618274</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.698833</v>
+        <v>0.689726</v>
       </c>
       <c r="C135" t="n">
-        <v>0.609968</v>
+        <v>0.585707</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6409550000000001</v>
+        <v>0.617852</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.694779</v>
+        <v>0.6862200000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.608622</v>
+        <v>0.584859</v>
       </c>
       <c r="D136" t="n">
-        <v>0.642564</v>
+        <v>0.618748</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.691481</v>
+        <v>0.682918</v>
       </c>
       <c r="C137" t="n">
-        <v>0.610199</v>
+        <v>0.5865050000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.828446</v>
+        <v>0.794858</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8893180000000001</v>
+        <v>0.871223</v>
       </c>
       <c r="C138" t="n">
-        <v>0.795286</v>
+        <v>0.763562</v>
       </c>
       <c r="D138" t="n">
-        <v>0.817698</v>
+        <v>0.780581</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.88192</v>
+        <v>0.86464</v>
       </c>
       <c r="C139" t="n">
-        <v>0.780246</v>
+        <v>0.74864</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8043439999999999</v>
+        <v>0.76754</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.874108</v>
+        <v>0.858635</v>
       </c>
       <c r="C140" t="n">
-        <v>0.765049</v>
+        <v>0.735121</v>
       </c>
       <c r="D140" t="n">
-        <v>0.791484</v>
+        <v>0.754874</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.867543</v>
+        <v>0.8521840000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.75074</v>
+        <v>0.72239</v>
       </c>
       <c r="D141" t="n">
-        <v>0.777949</v>
+        <v>0.742791</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8606</v>
+        <v>0.845173</v>
       </c>
       <c r="C142" t="n">
-        <v>0.737177</v>
+        <v>0.709747</v>
       </c>
       <c r="D142" t="n">
-        <v>0.767072</v>
+        <v>0.7311299999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854344</v>
+        <v>0.83991</v>
       </c>
       <c r="C143" t="n">
-        <v>0.725058</v>
+        <v>0.698621</v>
       </c>
       <c r="D143" t="n">
-        <v>0.756131</v>
+        <v>0.720198</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246792</v>
+        <v>0.247256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201079</v>
+        <v>0.196849</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199081</v>
+        <v>0.208678</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242055</v>
+        <v>0.242037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195934</v>
+        <v>0.190747</v>
       </c>
       <c r="D3" t="n">
-        <v>0.193041</v>
+        <v>0.20191</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236401</v>
+        <v>0.236558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19035</v>
+        <v>0.186209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1897</v>
+        <v>0.195969</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231687</v>
+        <v>0.231565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187134</v>
+        <v>0.182729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186181</v>
+        <v>0.19145</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22775</v>
+        <v>0.227527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182719</v>
+        <v>0.18015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.183541</v>
+        <v>0.187517</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224711</v>
+        <v>0.224736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181236</v>
+        <v>0.177883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182584</v>
+        <v>0.186723</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223246</v>
+        <v>0.223091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179782</v>
+        <v>0.176871</v>
       </c>
       <c r="D8" t="n">
-        <v>0.184618</v>
+        <v>0.187395</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222772</v>
+        <v>0.222806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181241</v>
+        <v>0.179392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.27694</v>
+        <v>0.287868</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309533</v>
+        <v>0.309682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270794</v>
+        <v>0.267398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.267829</v>
+        <v>0.277341</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301198</v>
+        <v>0.300811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26066</v>
+        <v>0.25837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.258185</v>
+        <v>0.267356</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.292524</v>
+        <v>0.292388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252821</v>
+        <v>0.249792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248975</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.284444</v>
+        <v>0.284384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243851</v>
+        <v>0.241411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24101</v>
+        <v>0.249427</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.276375</v>
+        <v>0.277121</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236205</v>
+        <v>0.233621</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23359</v>
+        <v>0.241233</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269658</v>
+        <v>0.269731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228865</v>
+        <v>0.226473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226243</v>
+        <v>0.233303</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2631</v>
+        <v>0.263242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221582</v>
+        <v>0.219962</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220197</v>
+        <v>0.225777</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256899</v>
+        <v>0.257086</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215648</v>
+        <v>0.213647</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214337</v>
+        <v>0.219487</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251174</v>
+        <v>0.251247</v>
       </c>
       <c r="C18" t="n">
-        <v>0.209909</v>
+        <v>0.208303</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209468</v>
+        <v>0.213609</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245891</v>
+        <v>0.24624</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204729</v>
+        <v>0.20372</v>
       </c>
       <c r="D19" t="n">
-        <v>0.205396</v>
+        <v>0.208779</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.241204</v>
+        <v>0.241636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.200687</v>
+        <v>0.199664</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202257</v>
+        <v>0.204769</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.23766</v>
+        <v>0.238515</v>
       </c>
       <c r="C21" t="n">
-        <v>0.198036</v>
+        <v>0.196596</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200715</v>
+        <v>0.202521</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235837</v>
+        <v>0.235959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.196783</v>
+        <v>0.195328</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201226</v>
+        <v>0.202526</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.234999</v>
+        <v>0.235064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196732</v>
+        <v>0.196392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.290198</v>
+        <v>0.301589</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.320909</v>
+        <v>0.320584</v>
       </c>
       <c r="C24" t="n">
-        <v>0.282491</v>
+        <v>0.286044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280372</v>
+        <v>0.291247</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.31183</v>
+        <v>0.311873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273197</v>
+        <v>0.276432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.270894</v>
+        <v>0.281111</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303645</v>
+        <v>0.303503</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26414</v>
+        <v>0.267209</v>
       </c>
       <c r="D26" t="n">
-        <v>0.261991</v>
+        <v>0.271326</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295195</v>
+        <v>0.295344</v>
       </c>
       <c r="C27" t="n">
-        <v>0.255388</v>
+        <v>0.257974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.253643</v>
+        <v>0.262113</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287798</v>
+        <v>0.287615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247916</v>
+        <v>0.249448</v>
       </c>
       <c r="D28" t="n">
-        <v>0.245968</v>
+        <v>0.253619</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279713</v>
+        <v>0.280154</v>
       </c>
       <c r="C29" t="n">
-        <v>0.241685</v>
+        <v>0.24123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.238675</v>
+        <v>0.245499</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272749</v>
+        <v>0.273103</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234352</v>
+        <v>0.234073</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231774</v>
+        <v>0.237663</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266824</v>
+        <v>0.266639</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227567</v>
+        <v>0.226947</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225867</v>
+        <v>0.230634</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260178</v>
+        <v>0.260495</v>
       </c>
       <c r="C32" t="n">
-        <v>0.221219</v>
+        <v>0.221034</v>
       </c>
       <c r="D32" t="n">
-        <v>0.220145</v>
+        <v>0.223961</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254642</v>
+        <v>0.255103</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216258</v>
+        <v>0.215103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.215072</v>
+        <v>0.218307</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.250509</v>
+        <v>0.249781</v>
       </c>
       <c r="C34" t="n">
-        <v>0.210833</v>
+        <v>0.209212</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211861</v>
+        <v>0.213591</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.245846</v>
+        <v>0.246098</v>
       </c>
       <c r="C35" t="n">
-        <v>0.207945</v>
+        <v>0.205202</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209569</v>
+        <v>0.210278</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243316</v>
+        <v>0.242863</v>
       </c>
       <c r="C36" t="n">
-        <v>0.204956</v>
+        <v>0.20251</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209517</v>
+        <v>0.209184</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242229</v>
+        <v>0.241743</v>
       </c>
       <c r="C37" t="n">
-        <v>0.203556</v>
+        <v>0.201453</v>
       </c>
       <c r="D37" t="n">
-        <v>0.300937</v>
+        <v>0.310132</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326498</v>
+        <v>0.325448</v>
       </c>
       <c r="C38" t="n">
-        <v>0.290648</v>
+        <v>0.294741</v>
       </c>
       <c r="D38" t="n">
-        <v>0.290117</v>
+        <v>0.299671</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318431</v>
+        <v>0.317431</v>
       </c>
       <c r="C39" t="n">
-        <v>0.281626</v>
+        <v>0.285187</v>
       </c>
       <c r="D39" t="n">
-        <v>0.280383</v>
+        <v>0.289332</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309221</v>
+        <v>0.308725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271798</v>
+        <v>0.27545</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2718</v>
+        <v>0.279722</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300995</v>
+        <v>0.300502</v>
       </c>
       <c r="C41" t="n">
-        <v>0.263527</v>
+        <v>0.267006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.263408</v>
+        <v>0.270443</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29341</v>
+        <v>0.292103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255463</v>
+        <v>0.258637</v>
       </c>
       <c r="D42" t="n">
-        <v>0.25534</v>
+        <v>0.261874</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285817</v>
+        <v>0.284598</v>
       </c>
       <c r="C43" t="n">
-        <v>0.247499</v>
+        <v>0.250571</v>
       </c>
       <c r="D43" t="n">
-        <v>0.246673</v>
+        <v>0.253631</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279103</v>
+        <v>0.277947</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240585</v>
+        <v>0.242431</v>
       </c>
       <c r="D44" t="n">
-        <v>0.240612</v>
+        <v>0.245874</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272518</v>
+        <v>0.272154</v>
       </c>
       <c r="C45" t="n">
-        <v>0.233348</v>
+        <v>0.236025</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234704</v>
+        <v>0.238846</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266607</v>
+        <v>0.265466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.227243</v>
+        <v>0.229527</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228747</v>
+        <v>0.232339</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261235</v>
+        <v>0.26043</v>
       </c>
       <c r="C47" t="n">
-        <v>0.221764</v>
+        <v>0.223729</v>
       </c>
       <c r="D47" t="n">
-        <v>0.224639</v>
+        <v>0.226661</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256807</v>
+        <v>0.255296</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216791</v>
+        <v>0.218416</v>
       </c>
       <c r="D48" t="n">
-        <v>0.220646</v>
+        <v>0.221738</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252518</v>
+        <v>0.251393</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212971</v>
+        <v>0.214037</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21812</v>
+        <v>0.218166</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249436</v>
+        <v>0.248607</v>
       </c>
       <c r="C50" t="n">
-        <v>0.210788</v>
+        <v>0.21008</v>
       </c>
       <c r="D50" t="n">
-        <v>0.217249</v>
+        <v>0.216303</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.249052</v>
+        <v>0.247019</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209819</v>
+        <v>0.209333</v>
       </c>
       <c r="D51" t="n">
-        <v>0.312321</v>
+        <v>0.318241</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249909</v>
+        <v>0.248092</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212179</v>
+        <v>0.210374</v>
       </c>
       <c r="D52" t="n">
-        <v>0.301737</v>
+        <v>0.30713</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329954</v>
+        <v>0.328296</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289246</v>
+        <v>0.29591</v>
       </c>
       <c r="D53" t="n">
-        <v>0.29164</v>
+        <v>0.296885</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322025</v>
+        <v>0.320681</v>
       </c>
       <c r="C54" t="n">
-        <v>0.279992</v>
+        <v>0.286628</v>
       </c>
       <c r="D54" t="n">
-        <v>0.282065</v>
+        <v>0.287222</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31417</v>
+        <v>0.312396</v>
       </c>
       <c r="C55" t="n">
-        <v>0.271295</v>
+        <v>0.278004</v>
       </c>
       <c r="D55" t="n">
-        <v>0.273086</v>
+        <v>0.27816</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.30692</v>
+        <v>0.30488</v>
       </c>
       <c r="C56" t="n">
-        <v>0.263062</v>
+        <v>0.269373</v>
       </c>
       <c r="D56" t="n">
-        <v>0.264563</v>
+        <v>0.269581</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299891</v>
+        <v>0.298804</v>
       </c>
       <c r="C57" t="n">
-        <v>0.255942</v>
+        <v>0.261144</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257105</v>
+        <v>0.261369</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293148</v>
+        <v>0.292356</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248439</v>
+        <v>0.253535</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249708</v>
+        <v>0.253692</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286955</v>
+        <v>0.286316</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242004</v>
+        <v>0.247342</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243314</v>
+        <v>0.246371</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281255</v>
+        <v>0.280612</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235583</v>
+        <v>0.240924</v>
       </c>
       <c r="D60" t="n">
-        <v>0.237786</v>
+        <v>0.239979</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275917</v>
+        <v>0.275468</v>
       </c>
       <c r="C61" t="n">
-        <v>0.229735</v>
+        <v>0.234841</v>
       </c>
       <c r="D61" t="n">
-        <v>0.232913</v>
+        <v>0.234197</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271374</v>
+        <v>0.270831</v>
       </c>
       <c r="C62" t="n">
-        <v>0.225065</v>
+        <v>0.229889</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228817</v>
+        <v>0.229176</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267247</v>
+        <v>0.266983</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220787</v>
+        <v>0.225068</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225838</v>
+        <v>0.225348</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264276</v>
+        <v>0.263977</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217066</v>
+        <v>0.221541</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224642</v>
+        <v>0.223123</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262748</v>
+        <v>0.262018</v>
       </c>
       <c r="C65" t="n">
-        <v>0.215276</v>
+        <v>0.219529</v>
       </c>
       <c r="D65" t="n">
-        <v>0.225903</v>
+        <v>0.224183</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263203</v>
+        <v>0.262707</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217018</v>
+        <v>0.220179</v>
       </c>
       <c r="D66" t="n">
-        <v>0.33253</v>
+        <v>0.334194</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.385546</v>
+        <v>0.384919</v>
       </c>
       <c r="C67" t="n">
-        <v>0.326871</v>
+        <v>0.329924</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321784</v>
+        <v>0.324263</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.377649</v>
+        <v>0.377493</v>
       </c>
       <c r="C68" t="n">
-        <v>0.316056</v>
+        <v>0.320268</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311907</v>
+        <v>0.314348</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.370291</v>
+        <v>0.370164</v>
       </c>
       <c r="C69" t="n">
-        <v>0.306943</v>
+        <v>0.31093</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302673</v>
+        <v>0.304599</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.363637</v>
+        <v>0.363578</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297912</v>
+        <v>0.301847</v>
       </c>
       <c r="D70" t="n">
-        <v>0.293493</v>
+        <v>0.295668</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.357062</v>
+        <v>0.356919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.289501</v>
+        <v>0.2933</v>
       </c>
       <c r="D71" t="n">
-        <v>0.285566</v>
+        <v>0.287289</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351012</v>
+        <v>0.350785</v>
       </c>
       <c r="C72" t="n">
-        <v>0.281489</v>
+        <v>0.285291</v>
       </c>
       <c r="D72" t="n">
-        <v>0.27765</v>
+        <v>0.279099</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344999</v>
+        <v>0.344573</v>
       </c>
       <c r="C73" t="n">
-        <v>0.274533</v>
+        <v>0.277656</v>
       </c>
       <c r="D73" t="n">
-        <v>0.270524</v>
+        <v>0.271701</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.338976</v>
+        <v>0.338712</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267075</v>
+        <v>0.270431</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264458</v>
+        <v>0.264546</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333225</v>
+        <v>0.333117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260716</v>
+        <v>0.263872</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258912</v>
+        <v>0.258368</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327578</v>
+        <v>0.327854</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254568</v>
+        <v>0.25792</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254324</v>
+        <v>0.252902</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.322694</v>
+        <v>0.323003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.249975</v>
+        <v>0.252706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251025</v>
+        <v>0.248403</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318399</v>
+        <v>0.318578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24639</v>
+        <v>0.248403</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249221</v>
+        <v>0.245175</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315141</v>
+        <v>0.315282</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244246</v>
+        <v>0.245549</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249323</v>
+        <v>0.244423</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.313615</v>
+        <v>0.313756</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24443</v>
+        <v>0.244931</v>
       </c>
       <c r="D80" t="n">
-        <v>0.373933</v>
+        <v>0.385931</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.445009</v>
+        <v>0.444911</v>
       </c>
       <c r="C81" t="n">
-        <v>0.361608</v>
+        <v>0.39222</v>
       </c>
       <c r="D81" t="n">
-        <v>0.367206</v>
+        <v>0.377555</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.441275</v>
+        <v>0.440792</v>
       </c>
       <c r="C82" t="n">
-        <v>0.356457</v>
+        <v>0.385034</v>
       </c>
       <c r="D82" t="n">
-        <v>0.35811</v>
+        <v>0.368173</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.436126</v>
+        <v>0.435921</v>
       </c>
       <c r="C83" t="n">
-        <v>0.346703</v>
+        <v>0.375522</v>
       </c>
       <c r="D83" t="n">
-        <v>0.348897</v>
+        <v>0.358755</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.430774</v>
+        <v>0.430479</v>
       </c>
       <c r="C84" t="n">
-        <v>0.338233</v>
+        <v>0.365516</v>
       </c>
       <c r="D84" t="n">
-        <v>0.340217</v>
+        <v>0.348975</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.425519</v>
+        <v>0.425114</v>
       </c>
       <c r="C85" t="n">
-        <v>0.330345</v>
+        <v>0.35602</v>
       </c>
       <c r="D85" t="n">
-        <v>0.332035</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.420034</v>
+        <v>0.419582</v>
       </c>
       <c r="C86" t="n">
-        <v>0.322218</v>
+        <v>0.346881</v>
       </c>
       <c r="D86" t="n">
-        <v>0.32397</v>
+        <v>0.33159</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414447</v>
+        <v>0.414103</v>
       </c>
       <c r="C87" t="n">
-        <v>0.314479</v>
+        <v>0.337759</v>
       </c>
       <c r="D87" t="n">
-        <v>0.316766</v>
+        <v>0.323145</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.408961</v>
+        <v>0.408459</v>
       </c>
       <c r="C88" t="n">
-        <v>0.307587</v>
+        <v>0.329685</v>
       </c>
       <c r="D88" t="n">
-        <v>0.309874</v>
+        <v>0.31538</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403665</v>
+        <v>0.403054</v>
       </c>
       <c r="C89" t="n">
-        <v>0.301892</v>
+        <v>0.322057</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303916</v>
+        <v>0.307957</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.398401</v>
+        <v>0.39801</v>
       </c>
       <c r="C90" t="n">
-        <v>0.296057</v>
+        <v>0.314894</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298682</v>
+        <v>0.301476</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.393851</v>
+        <v>0.392993</v>
       </c>
       <c r="C91" t="n">
-        <v>0.29094</v>
+        <v>0.308366</v>
       </c>
       <c r="D91" t="n">
-        <v>0.294571</v>
+        <v>0.295711</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.389343</v>
+        <v>0.38869</v>
       </c>
       <c r="C92" t="n">
-        <v>0.286876</v>
+        <v>0.302798</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291502</v>
+        <v>0.291239</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385633</v>
+        <v>0.384677</v>
       </c>
       <c r="C93" t="n">
-        <v>0.283324</v>
+        <v>0.298575</v>
       </c>
       <c r="D93" t="n">
-        <v>0.290541</v>
+        <v>0.288898</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.383496</v>
+        <v>0.38239</v>
       </c>
       <c r="C94" t="n">
-        <v>0.282459</v>
+        <v>0.296477</v>
       </c>
       <c r="D94" t="n">
-        <v>0.526997</v>
+        <v>0.574676</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5760690000000001</v>
+        <v>0.575563</v>
       </c>
       <c r="C95" t="n">
-        <v>0.453048</v>
+        <v>0.516029</v>
       </c>
       <c r="D95" t="n">
-        <v>0.517186</v>
+        <v>0.561551</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.573226</v>
+        <v>0.572674</v>
       </c>
       <c r="C96" t="n">
-        <v>0.44634</v>
+        <v>0.509815</v>
       </c>
       <c r="D96" t="n">
-        <v>0.508248</v>
+        <v>0.546057</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.56437</v>
+        <v>0.564314</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4389</v>
+        <v>0.495632</v>
       </c>
       <c r="D97" t="n">
-        <v>0.497246</v>
+        <v>0.52911</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.555156</v>
+        <v>0.555196</v>
       </c>
       <c r="C98" t="n">
-        <v>0.432805</v>
+        <v>0.482833</v>
       </c>
       <c r="D98" t="n">
-        <v>0.488101</v>
+        <v>0.514029</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.546345</v>
+        <v>0.546276</v>
       </c>
       <c r="C99" t="n">
-        <v>0.427386</v>
+        <v>0.469178</v>
       </c>
       <c r="D99" t="n">
-        <v>0.479463</v>
+        <v>0.498289</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.537615</v>
+        <v>0.537418</v>
       </c>
       <c r="C100" t="n">
-        <v>0.421459</v>
+        <v>0.45656</v>
       </c>
       <c r="D100" t="n">
-        <v>0.470176</v>
+        <v>0.484581</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5306110000000001</v>
+        <v>0.5286</v>
       </c>
       <c r="C101" t="n">
-        <v>0.415268</v>
+        <v>0.444233</v>
       </c>
       <c r="D101" t="n">
-        <v>0.462648</v>
+        <v>0.470837</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.521927</v>
+        <v>0.521411</v>
       </c>
       <c r="C102" t="n">
-        <v>0.40891</v>
+        <v>0.433064</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455088</v>
+        <v>0.458387</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.514884</v>
+        <v>0.515303</v>
       </c>
       <c r="C103" t="n">
-        <v>0.404141</v>
+        <v>0.422865</v>
       </c>
       <c r="D103" t="n">
-        <v>0.448615</v>
+        <v>0.446124</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.507417</v>
+        <v>0.508212</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399149</v>
+        <v>0.411996</v>
       </c>
       <c r="D104" t="n">
-        <v>0.44238</v>
+        <v>0.435277</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.502638</v>
+        <v>0.501963</v>
       </c>
       <c r="C105" t="n">
-        <v>0.395596</v>
+        <v>0.404274</v>
       </c>
       <c r="D105" t="n">
-        <v>0.437828</v>
+        <v>0.425306</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.497493</v>
+        <v>0.496656</v>
       </c>
       <c r="C106" t="n">
-        <v>0.390589</v>
+        <v>0.396498</v>
       </c>
       <c r="D106" t="n">
-        <v>0.433833</v>
+        <v>0.416775</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.492846</v>
+        <v>0.492114</v>
       </c>
       <c r="C107" t="n">
-        <v>0.389832</v>
+        <v>0.390281</v>
       </c>
       <c r="D107" t="n">
-        <v>0.43007</v>
+        <v>0.409975</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.48802</v>
+        <v>0.488926</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3884</v>
+        <v>0.386198</v>
       </c>
       <c r="D108" t="n">
-        <v>0.607355</v>
+        <v>0.622827</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.487663</v>
+        <v>0.487122</v>
       </c>
       <c r="C109" t="n">
-        <v>0.38959</v>
+        <v>0.384913</v>
       </c>
       <c r="D109" t="n">
-        <v>0.599243</v>
+        <v>0.60905</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6840079999999999</v>
+        <v>0.684422</v>
       </c>
       <c r="C110" t="n">
-        <v>0.564282</v>
+        <v>0.597604</v>
       </c>
       <c r="D110" t="n">
-        <v>0.589773</v>
+        <v>0.593149</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.673807</v>
+        <v>0.673107</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5576759999999999</v>
+        <v>0.583767</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579736</v>
+        <v>0.577017</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.661694</v>
+        <v>0.66157</v>
       </c>
       <c r="C112" t="n">
-        <v>0.54821</v>
+        <v>0.569823</v>
       </c>
       <c r="D112" t="n">
-        <v>0.572787</v>
+        <v>0.561665</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.650899</v>
+        <v>0.65038</v>
       </c>
       <c r="C113" t="n">
-        <v>0.540924</v>
+        <v>0.5556140000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.564708</v>
+        <v>0.546604</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.640451</v>
+        <v>0.64003</v>
       </c>
       <c r="C114" t="n">
-        <v>0.53257</v>
+        <v>0.542208</v>
       </c>
       <c r="D114" t="n">
-        <v>0.557523</v>
+        <v>0.533479</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.630494</v>
+        <v>0.630277</v>
       </c>
       <c r="C115" t="n">
-        <v>0.526538</v>
+        <v>0.529046</v>
       </c>
       <c r="D115" t="n">
-        <v>0.550726</v>
+        <v>0.519384</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620733</v>
+        <v>0.620174</v>
       </c>
       <c r="C116" t="n">
-        <v>0.521</v>
+        <v>0.517294</v>
       </c>
       <c r="D116" t="n">
-        <v>0.544888</v>
+        <v>0.507097</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612609</v>
+        <v>0.612571</v>
       </c>
       <c r="C117" t="n">
-        <v>0.515348</v>
+        <v>0.505518</v>
       </c>
       <c r="D117" t="n">
-        <v>0.53974</v>
+        <v>0.495378</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.604172</v>
+        <v>0.603733</v>
       </c>
       <c r="C118" t="n">
-        <v>0.509624</v>
+        <v>0.495596</v>
       </c>
       <c r="D118" t="n">
-        <v>0.535911</v>
+        <v>0.484225</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.596352</v>
+        <v>0.595925</v>
       </c>
       <c r="C119" t="n">
-        <v>0.506123</v>
+        <v>0.485123</v>
       </c>
       <c r="D119" t="n">
-        <v>0.532834</v>
+        <v>0.473741</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.589585</v>
+        <v>0.589377</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5023919999999999</v>
+        <v>0.477337</v>
       </c>
       <c r="D120" t="n">
-        <v>0.52882</v>
+        <v>0.46503</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.583283</v>
+        <v>0.58327</v>
       </c>
       <c r="C121" t="n">
-        <v>0.50007</v>
+        <v>0.469309</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5291090000000001</v>
+        <v>0.457485</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.578027</v>
+        <v>0.577626</v>
       </c>
       <c r="C122" t="n">
-        <v>0.498635</v>
+        <v>0.462693</v>
       </c>
       <c r="D122" t="n">
-        <v>0.529181</v>
+        <v>0.452322</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5759</v>
+        <v>0.574348</v>
       </c>
       <c r="C123" t="n">
-        <v>0.50081</v>
+        <v>0.45891</v>
       </c>
       <c r="D123" t="n">
-        <v>0.701796</v>
+        <v>0.667293</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.766716</v>
+        <v>0.765751</v>
       </c>
       <c r="C124" t="n">
-        <v>0.673544</v>
+        <v>0.674381</v>
       </c>
       <c r="D124" t="n">
-        <v>0.690999</v>
+        <v>0.652809</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.757296</v>
+        <v>0.7576850000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.661879</v>
+        <v>0.661308</v>
       </c>
       <c r="D125" t="n">
-        <v>0.681189</v>
+        <v>0.639343</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.748615</v>
+        <v>0.748396</v>
       </c>
       <c r="C126" t="n">
-        <v>0.651353</v>
+        <v>0.6477000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.671192</v>
+        <v>0.6259710000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740447</v>
+        <v>0.740062</v>
       </c>
       <c r="C127" t="n">
-        <v>0.641163</v>
+        <v>0.6344880000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.661397</v>
+        <v>0.6133110000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732552</v>
+        <v>0.73193</v>
       </c>
       <c r="C128" t="n">
-        <v>0.631678</v>
+        <v>0.622335</v>
       </c>
       <c r="D128" t="n">
-        <v>0.65233</v>
+        <v>0.601475</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.725293</v>
+        <v>0.7246860000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.622906</v>
+        <v>0.610707</v>
       </c>
       <c r="D129" t="n">
-        <v>0.644757</v>
+        <v>0.5905049999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7183349999999999</v>
+        <v>0.717492</v>
       </c>
       <c r="C130" t="n">
-        <v>0.614463</v>
+        <v>0.600685</v>
       </c>
       <c r="D130" t="n">
-        <v>0.636512</v>
+        <v>0.57977</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.711406</v>
+        <v>0.710636</v>
       </c>
       <c r="C131" t="n">
-        <v>0.606252</v>
+        <v>0.590861</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6305809999999999</v>
+        <v>0.569202</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7057369999999999</v>
+        <v>0.703996</v>
       </c>
       <c r="C132" t="n">
-        <v>0.600573</v>
+        <v>0.581816</v>
       </c>
       <c r="D132" t="n">
-        <v>0.625759</v>
+        <v>0.560354</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.699815</v>
+        <v>0.698708</v>
       </c>
       <c r="C133" t="n">
-        <v>0.594892</v>
+        <v>0.573948</v>
       </c>
       <c r="D133" t="n">
-        <v>0.619368</v>
+        <v>0.551071</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.69416</v>
+        <v>0.694006</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5892849999999999</v>
+        <v>0.566448</v>
       </c>
       <c r="D134" t="n">
-        <v>0.618274</v>
+        <v>0.543759</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.689726</v>
+        <v>0.689329</v>
       </c>
       <c r="C135" t="n">
-        <v>0.585707</v>
+        <v>0.560015</v>
       </c>
       <c r="D135" t="n">
-        <v>0.617852</v>
+        <v>0.537118</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6862200000000001</v>
+        <v>0.68558</v>
       </c>
       <c r="C136" t="n">
-        <v>0.584859</v>
+        <v>0.554519</v>
       </c>
       <c r="D136" t="n">
-        <v>0.618748</v>
+        <v>0.531539</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.682918</v>
+        <v>0.682732</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5865050000000001</v>
+        <v>0.551059</v>
       </c>
       <c r="D137" t="n">
-        <v>0.794858</v>
+        <v>0.7474229999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.871223</v>
+        <v>0.870209</v>
       </c>
       <c r="C138" t="n">
-        <v>0.763562</v>
+        <v>0.770946</v>
       </c>
       <c r="D138" t="n">
-        <v>0.780581</v>
+        <v>0.732146</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.86464</v>
+        <v>0.86329</v>
       </c>
       <c r="C139" t="n">
-        <v>0.74864</v>
+        <v>0.757349</v>
       </c>
       <c r="D139" t="n">
-        <v>0.76754</v>
+        <v>0.718314</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.858635</v>
+        <v>0.856858</v>
       </c>
       <c r="C140" t="n">
-        <v>0.735121</v>
+        <v>0.743675</v>
       </c>
       <c r="D140" t="n">
-        <v>0.754874</v>
+        <v>0.704672</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8521840000000001</v>
+        <v>0.8503810000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.72239</v>
+        <v>0.730751</v>
       </c>
       <c r="D141" t="n">
-        <v>0.742791</v>
+        <v>0.692203</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.845173</v>
+        <v>0.844185</v>
       </c>
       <c r="C142" t="n">
-        <v>0.709747</v>
+        <v>0.718713</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7311299999999999</v>
+        <v>0.679696</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.83991</v>
+        <v>0.839154</v>
       </c>
       <c r="C143" t="n">
-        <v>0.698621</v>
+        <v>0.707012</v>
       </c>
       <c r="D143" t="n">
-        <v>0.720198</v>
+        <v>0.668747</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.247256</v>
+        <v>0.246634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196849</v>
+        <v>0.210728</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208678</v>
+        <v>0.207705</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.242037</v>
+        <v>0.241424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190747</v>
+        <v>0.204235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20191</v>
+        <v>0.201773</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236558</v>
+        <v>0.23576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186209</v>
+        <v>0.199142</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195969</v>
+        <v>0.196437</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231565</v>
+        <v>0.231123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.182729</v>
+        <v>0.194609</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19145</v>
+        <v>0.192654</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.227527</v>
+        <v>0.226942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18015</v>
+        <v>0.190293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187517</v>
+        <v>0.189426</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224736</v>
+        <v>0.224149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.177883</v>
+        <v>0.187727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186723</v>
+        <v>0.18793</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.223091</v>
+        <v>0.221924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.176871</v>
+        <v>0.18602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.187395</v>
+        <v>0.188772</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222806</v>
+        <v>0.222219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179392</v>
+        <v>0.187145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287868</v>
+        <v>0.283469</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.309682</v>
+        <v>0.308264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.267398</v>
+        <v>0.27604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.277341</v>
+        <v>0.273373</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.300811</v>
+        <v>0.2995</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25837</v>
+        <v>0.266661</v>
       </c>
       <c r="D11" t="n">
-        <v>0.267356</v>
+        <v>0.26418</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.292388</v>
+        <v>0.290877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.249792</v>
+        <v>0.257298</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2579</v>
+        <v>0.254904</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.284384</v>
+        <v>0.282644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241411</v>
+        <v>0.248585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.249427</v>
+        <v>0.246362</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.277121</v>
+        <v>0.275453</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233621</v>
+        <v>0.240187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.241233</v>
+        <v>0.238663</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.269731</v>
+        <v>0.268184</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226473</v>
+        <v>0.232424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233303</v>
+        <v>0.231173</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.263242</v>
+        <v>0.261958</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219962</v>
+        <v>0.224856</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225777</v>
+        <v>0.223997</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.257086</v>
+        <v>0.255943</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213647</v>
+        <v>0.218104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219487</v>
+        <v>0.218134</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251247</v>
+        <v>0.249586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208303</v>
+        <v>0.212239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.213609</v>
+        <v>0.212643</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24624</v>
+        <v>0.244421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20372</v>
+        <v>0.206614</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208779</v>
+        <v>0.207663</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.241636</v>
+        <v>0.24006</v>
       </c>
       <c r="C20" t="n">
-        <v>0.199664</v>
+        <v>0.202174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204769</v>
+        <v>0.203915</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.238515</v>
+        <v>0.237151</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196596</v>
+        <v>0.198999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202521</v>
+        <v>0.202436</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235959</v>
+        <v>0.234746</v>
       </c>
       <c r="C22" t="n">
-        <v>0.195328</v>
+        <v>0.196886</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202526</v>
+        <v>0.202817</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235064</v>
+        <v>0.234376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196392</v>
+        <v>0.197532</v>
       </c>
       <c r="D23" t="n">
-        <v>0.301589</v>
+        <v>0.296469</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.320584</v>
+        <v>0.320009</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286044</v>
+        <v>0.287328</v>
       </c>
       <c r="D24" t="n">
-        <v>0.291247</v>
+        <v>0.286433</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.311873</v>
+        <v>0.31123</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276432</v>
+        <v>0.277498</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281111</v>
+        <v>0.276771</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.303503</v>
+        <v>0.302912</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267209</v>
+        <v>0.268095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271326</v>
+        <v>0.267477</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.295344</v>
+        <v>0.294602</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257974</v>
+        <v>0.258995</v>
       </c>
       <c r="D27" t="n">
-        <v>0.262113</v>
+        <v>0.258691</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287615</v>
+        <v>0.286954</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249448</v>
+        <v>0.250844</v>
       </c>
       <c r="D28" t="n">
-        <v>0.253619</v>
+        <v>0.250475</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280154</v>
+        <v>0.279424</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24123</v>
+        <v>0.24269</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245499</v>
+        <v>0.242382</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.273103</v>
+        <v>0.272454</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234073</v>
+        <v>0.235128</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237663</v>
+        <v>0.2356</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266639</v>
+        <v>0.266022</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226947</v>
+        <v>0.228173</v>
       </c>
       <c r="D31" t="n">
-        <v>0.230634</v>
+        <v>0.228894</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260495</v>
+        <v>0.260079</v>
       </c>
       <c r="C32" t="n">
-        <v>0.221034</v>
+        <v>0.221484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223961</v>
+        <v>0.222678</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255103</v>
+        <v>0.254772</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215103</v>
+        <v>0.215679</v>
       </c>
       <c r="D33" t="n">
-        <v>0.218307</v>
+        <v>0.217425</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249781</v>
+        <v>0.249358</v>
       </c>
       <c r="C34" t="n">
-        <v>0.209212</v>
+        <v>0.210309</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213591</v>
+        <v>0.212124</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246098</v>
+        <v>0.245529</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205202</v>
+        <v>0.205958</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210278</v>
+        <v>0.20995</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.242863</v>
+        <v>0.242721</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20251</v>
+        <v>0.203309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209184</v>
+        <v>0.209204</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241743</v>
+        <v>0.241468</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201453</v>
+        <v>0.20246</v>
       </c>
       <c r="D37" t="n">
-        <v>0.310132</v>
+        <v>0.304233</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325448</v>
+        <v>0.325155</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294741</v>
+        <v>0.295015</v>
       </c>
       <c r="D38" t="n">
-        <v>0.299671</v>
+        <v>0.294677</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317431</v>
+        <v>0.317428</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285187</v>
+        <v>0.285228</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289332</v>
+        <v>0.284948</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308725</v>
+        <v>0.307971</v>
       </c>
       <c r="C40" t="n">
-        <v>0.27545</v>
+        <v>0.275891</v>
       </c>
       <c r="D40" t="n">
-        <v>0.279722</v>
+        <v>0.275735</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300502</v>
+        <v>0.300129</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267006</v>
+        <v>0.267084</v>
       </c>
       <c r="D41" t="n">
-        <v>0.270443</v>
+        <v>0.267016</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292103</v>
+        <v>0.292783</v>
       </c>
       <c r="C42" t="n">
-        <v>0.258637</v>
+        <v>0.258675</v>
       </c>
       <c r="D42" t="n">
-        <v>0.261874</v>
+        <v>0.258813</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.284598</v>
+        <v>0.285273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250571</v>
+        <v>0.250636</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253631</v>
+        <v>0.25101</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.277947</v>
+        <v>0.279218</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242431</v>
+        <v>0.243123</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245874</v>
+        <v>0.243656</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272154</v>
+        <v>0.271664</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236025</v>
+        <v>0.236308</v>
       </c>
       <c r="D45" t="n">
-        <v>0.238846</v>
+        <v>0.23699</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265466</v>
+        <v>0.266158</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229527</v>
+        <v>0.229841</v>
       </c>
       <c r="D46" t="n">
-        <v>0.232339</v>
+        <v>0.230896</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26043</v>
+        <v>0.26123</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223729</v>
+        <v>0.224063</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226661</v>
+        <v>0.225607</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.255296</v>
+        <v>0.257162</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218416</v>
+        <v>0.218748</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221738</v>
+        <v>0.221023</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251393</v>
+        <v>0.252845</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214037</v>
+        <v>0.21465</v>
       </c>
       <c r="D49" t="n">
-        <v>0.218166</v>
+        <v>0.217872</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248607</v>
+        <v>0.249356</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21008</v>
+        <v>0.211598</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216303</v>
+        <v>0.216361</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247019</v>
+        <v>0.24827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209333</v>
+        <v>0.209698</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318241</v>
+        <v>0.315338</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248092</v>
+        <v>0.250164</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210374</v>
+        <v>0.211132</v>
       </c>
       <c r="D52" t="n">
-        <v>0.30713</v>
+        <v>0.305054</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.328296</v>
+        <v>0.329702</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29591</v>
+        <v>0.295547</v>
       </c>
       <c r="D53" t="n">
-        <v>0.296885</v>
+        <v>0.295175</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320681</v>
+        <v>0.321607</v>
       </c>
       <c r="C54" t="n">
-        <v>0.286628</v>
+        <v>0.285901</v>
       </c>
       <c r="D54" t="n">
-        <v>0.287222</v>
+        <v>0.285738</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.312396</v>
+        <v>0.313676</v>
       </c>
       <c r="C55" t="n">
-        <v>0.278004</v>
+        <v>0.277161</v>
       </c>
       <c r="D55" t="n">
-        <v>0.27816</v>
+        <v>0.276815</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.30488</v>
+        <v>0.306401</v>
       </c>
       <c r="C56" t="n">
-        <v>0.269373</v>
+        <v>0.268706</v>
       </c>
       <c r="D56" t="n">
-        <v>0.269581</v>
+        <v>0.268485</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298804</v>
+        <v>0.299291</v>
       </c>
       <c r="C57" t="n">
-        <v>0.261144</v>
+        <v>0.260636</v>
       </c>
       <c r="D57" t="n">
-        <v>0.261369</v>
+        <v>0.260614</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292356</v>
+        <v>0.292765</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253535</v>
+        <v>0.253064</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253692</v>
+        <v>0.253163</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286316</v>
+        <v>0.286507</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247342</v>
+        <v>0.245872</v>
       </c>
       <c r="D59" t="n">
-        <v>0.246371</v>
+        <v>0.246223</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280612</v>
+        <v>0.280667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.240924</v>
+        <v>0.239301</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239979</v>
+        <v>0.239993</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275468</v>
+        <v>0.275533</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234841</v>
+        <v>0.233351</v>
       </c>
       <c r="D61" t="n">
-        <v>0.234197</v>
+        <v>0.234517</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270831</v>
+        <v>0.270828</v>
       </c>
       <c r="C62" t="n">
-        <v>0.229889</v>
+        <v>0.227924</v>
       </c>
       <c r="D62" t="n">
-        <v>0.229176</v>
+        <v>0.229748</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266983</v>
+        <v>0.26692</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225068</v>
+        <v>0.223191</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225348</v>
+        <v>0.226173</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263977</v>
+        <v>0.263944</v>
       </c>
       <c r="C64" t="n">
-        <v>0.221541</v>
+        <v>0.219462</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223123</v>
+        <v>0.224235</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262018</v>
+        <v>0.262309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.219529</v>
+        <v>0.217547</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224183</v>
+        <v>0.224797</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262707</v>
+        <v>0.262815</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220179</v>
+        <v>0.218331</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334194</v>
+        <v>0.337686</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.384919</v>
+        <v>0.384243</v>
       </c>
       <c r="C67" t="n">
-        <v>0.329924</v>
+        <v>0.334689</v>
       </c>
       <c r="D67" t="n">
-        <v>0.324263</v>
+        <v>0.327141</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.377493</v>
+        <v>0.376493</v>
       </c>
       <c r="C68" t="n">
-        <v>0.320268</v>
+        <v>0.324371</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314348</v>
+        <v>0.317028</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.370164</v>
+        <v>0.368866</v>
       </c>
       <c r="C69" t="n">
-        <v>0.31093</v>
+        <v>0.314604</v>
       </c>
       <c r="D69" t="n">
-        <v>0.304599</v>
+        <v>0.307392</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.363578</v>
+        <v>0.362263</v>
       </c>
       <c r="C70" t="n">
-        <v>0.301847</v>
+        <v>0.305388</v>
       </c>
       <c r="D70" t="n">
-        <v>0.295668</v>
+        <v>0.298269</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.356919</v>
+        <v>0.355969</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2933</v>
+        <v>0.296344</v>
       </c>
       <c r="D71" t="n">
-        <v>0.287289</v>
+        <v>0.289414</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350785</v>
+        <v>0.34995</v>
       </c>
       <c r="C72" t="n">
-        <v>0.285291</v>
+        <v>0.287994</v>
       </c>
       <c r="D72" t="n">
-        <v>0.279099</v>
+        <v>0.28132</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344573</v>
+        <v>0.344185</v>
       </c>
       <c r="C73" t="n">
-        <v>0.277656</v>
+        <v>0.28005</v>
       </c>
       <c r="D73" t="n">
-        <v>0.271701</v>
+        <v>0.273578</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.338712</v>
+        <v>0.338644</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270431</v>
+        <v>0.272433</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264546</v>
+        <v>0.266585</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333117</v>
+        <v>0.332957</v>
       </c>
       <c r="C75" t="n">
-        <v>0.263872</v>
+        <v>0.265617</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258368</v>
+        <v>0.260272</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327854</v>
+        <v>0.32741</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25792</v>
+        <v>0.259327</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252902</v>
+        <v>0.254891</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.323003</v>
+        <v>0.32245</v>
       </c>
       <c r="C77" t="n">
-        <v>0.252706</v>
+        <v>0.253902</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248403</v>
+        <v>0.250283</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318578</v>
+        <v>0.318116</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248403</v>
+        <v>0.249705</v>
       </c>
       <c r="D78" t="n">
-        <v>0.245175</v>
+        <v>0.247557</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315282</v>
+        <v>0.314813</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245549</v>
+        <v>0.246626</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244423</v>
+        <v>0.247145</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.313756</v>
+        <v>0.313309</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244931</v>
+        <v>0.246004</v>
       </c>
       <c r="D80" t="n">
-        <v>0.385931</v>
+        <v>0.401092</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.444911</v>
+        <v>0.448027</v>
       </c>
       <c r="C81" t="n">
-        <v>0.39222</v>
+        <v>0.4018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.377555</v>
+        <v>0.392281</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.440792</v>
+        <v>0.444277</v>
       </c>
       <c r="C82" t="n">
-        <v>0.385034</v>
+        <v>0.393621</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368173</v>
+        <v>0.381969</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.435921</v>
+        <v>0.438988</v>
       </c>
       <c r="C83" t="n">
-        <v>0.375522</v>
+        <v>0.383232</v>
       </c>
       <c r="D83" t="n">
-        <v>0.358755</v>
+        <v>0.371417</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.430479</v>
+        <v>0.434021</v>
       </c>
       <c r="C84" t="n">
-        <v>0.365516</v>
+        <v>0.3721</v>
       </c>
       <c r="D84" t="n">
-        <v>0.348975</v>
+        <v>0.36115</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.425114</v>
+        <v>0.42873</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35602</v>
+        <v>0.361557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.34</v>
+        <v>0.351188</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.419582</v>
+        <v>0.423433</v>
       </c>
       <c r="C86" t="n">
-        <v>0.346881</v>
+        <v>0.351221</v>
       </c>
       <c r="D86" t="n">
-        <v>0.33159</v>
+        <v>0.341736</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.414103</v>
+        <v>0.418255</v>
       </c>
       <c r="C87" t="n">
-        <v>0.337759</v>
+        <v>0.3416</v>
       </c>
       <c r="D87" t="n">
-        <v>0.323145</v>
+        <v>0.333003</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.408459</v>
+        <v>0.412462</v>
       </c>
       <c r="C88" t="n">
-        <v>0.329685</v>
+        <v>0.332524</v>
       </c>
       <c r="D88" t="n">
-        <v>0.31538</v>
+        <v>0.324975</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.403054</v>
+        <v>0.407021</v>
       </c>
       <c r="C89" t="n">
-        <v>0.322057</v>
+        <v>0.324103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.307957</v>
+        <v>0.317292</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.39801</v>
+        <v>0.401909</v>
       </c>
       <c r="C90" t="n">
-        <v>0.314894</v>
+        <v>0.316917</v>
       </c>
       <c r="D90" t="n">
-        <v>0.301476</v>
+        <v>0.31093</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.392993</v>
+        <v>0.39719</v>
       </c>
       <c r="C91" t="n">
-        <v>0.308366</v>
+        <v>0.309516</v>
       </c>
       <c r="D91" t="n">
-        <v>0.295711</v>
+        <v>0.304999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.38869</v>
+        <v>0.392631</v>
       </c>
       <c r="C92" t="n">
-        <v>0.302798</v>
+        <v>0.30412</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291239</v>
+        <v>0.300501</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.384677</v>
+        <v>0.388978</v>
       </c>
       <c r="C93" t="n">
-        <v>0.298575</v>
+        <v>0.299686</v>
       </c>
       <c r="D93" t="n">
-        <v>0.288898</v>
+        <v>0.298137</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.38239</v>
+        <v>0.3866</v>
       </c>
       <c r="C94" t="n">
-        <v>0.296477</v>
+        <v>0.297462</v>
       </c>
       <c r="D94" t="n">
-        <v>0.574676</v>
+        <v>0.570979</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.575563</v>
+        <v>0.580492</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516029</v>
+        <v>0.517563</v>
       </c>
       <c r="D95" t="n">
-        <v>0.561551</v>
+        <v>0.556638</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.572674</v>
+        <v>0.577884</v>
       </c>
       <c r="C96" t="n">
-        <v>0.509815</v>
+        <v>0.50858</v>
       </c>
       <c r="D96" t="n">
-        <v>0.546057</v>
+        <v>0.541983</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.564314</v>
+        <v>0.568293</v>
       </c>
       <c r="C97" t="n">
-        <v>0.495632</v>
+        <v>0.495543</v>
       </c>
       <c r="D97" t="n">
-        <v>0.52911</v>
+        <v>0.527525</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.555196</v>
+        <v>0.560131</v>
       </c>
       <c r="C98" t="n">
-        <v>0.482833</v>
+        <v>0.483087</v>
       </c>
       <c r="D98" t="n">
-        <v>0.514029</v>
+        <v>0.50981</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.546276</v>
+        <v>0.551246</v>
       </c>
       <c r="C99" t="n">
-        <v>0.469178</v>
+        <v>0.471416</v>
       </c>
       <c r="D99" t="n">
-        <v>0.498289</v>
+        <v>0.496935</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.537418</v>
+        <v>0.543802</v>
       </c>
       <c r="C100" t="n">
-        <v>0.45656</v>
+        <v>0.460473</v>
       </c>
       <c r="D100" t="n">
-        <v>0.484581</v>
+        <v>0.484342</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5286</v>
+        <v>0.53585</v>
       </c>
       <c r="C101" t="n">
-        <v>0.444233</v>
+        <v>0.447877</v>
       </c>
       <c r="D101" t="n">
-        <v>0.470837</v>
+        <v>0.474818</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.521411</v>
+        <v>0.527535</v>
       </c>
       <c r="C102" t="n">
-        <v>0.433064</v>
+        <v>0.436658</v>
       </c>
       <c r="D102" t="n">
-        <v>0.458387</v>
+        <v>0.462043</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.515303</v>
+        <v>0.520622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.422865</v>
+        <v>0.426563</v>
       </c>
       <c r="D103" t="n">
-        <v>0.446124</v>
+        <v>0.451413</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.508212</v>
+        <v>0.514972</v>
       </c>
       <c r="C104" t="n">
-        <v>0.411996</v>
+        <v>0.418828</v>
       </c>
       <c r="D104" t="n">
-        <v>0.435277</v>
+        <v>0.441853</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.501963</v>
+        <v>0.508307</v>
       </c>
       <c r="C105" t="n">
-        <v>0.404274</v>
+        <v>0.411917</v>
       </c>
       <c r="D105" t="n">
-        <v>0.425306</v>
+        <v>0.43465</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.496656</v>
+        <v>0.503899</v>
       </c>
       <c r="C106" t="n">
-        <v>0.396498</v>
+        <v>0.404634</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416775</v>
+        <v>0.427142</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.492114</v>
+        <v>0.498754</v>
       </c>
       <c r="C107" t="n">
-        <v>0.390281</v>
+        <v>0.398722</v>
       </c>
       <c r="D107" t="n">
-        <v>0.409975</v>
+        <v>0.420832</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.488926</v>
+        <v>0.496073</v>
       </c>
       <c r="C108" t="n">
-        <v>0.386198</v>
+        <v>0.395789</v>
       </c>
       <c r="D108" t="n">
-        <v>0.622827</v>
+        <v>0.627569</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.487122</v>
+        <v>0.494229</v>
       </c>
       <c r="C109" t="n">
-        <v>0.384913</v>
+        <v>0.391992</v>
       </c>
       <c r="D109" t="n">
-        <v>0.60905</v>
+        <v>0.615093</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.684422</v>
+        <v>0.685812</v>
       </c>
       <c r="C110" t="n">
-        <v>0.597604</v>
+        <v>0.607109</v>
       </c>
       <c r="D110" t="n">
-        <v>0.593149</v>
+        <v>0.604026</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.673107</v>
+        <v>0.675901</v>
       </c>
       <c r="C111" t="n">
-        <v>0.583767</v>
+        <v>0.592764</v>
       </c>
       <c r="D111" t="n">
-        <v>0.577017</v>
+        <v>0.590736</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.66157</v>
+        <v>0.664004</v>
       </c>
       <c r="C112" t="n">
-        <v>0.569823</v>
+        <v>0.582651</v>
       </c>
       <c r="D112" t="n">
-        <v>0.561665</v>
+        <v>0.580928</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.65038</v>
+        <v>0.6518620000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5556140000000001</v>
+        <v>0.571156</v>
       </c>
       <c r="D113" t="n">
-        <v>0.546604</v>
+        <v>0.5701580000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.64003</v>
+        <v>0.641045</v>
       </c>
       <c r="C114" t="n">
-        <v>0.542208</v>
+        <v>0.55791</v>
       </c>
       <c r="D114" t="n">
-        <v>0.533479</v>
+        <v>0.560411</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.630277</v>
+        <v>0.6334959999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.529046</v>
+        <v>0.5490660000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.519384</v>
+        <v>0.549131</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620174</v>
+        <v>0.625057</v>
       </c>
       <c r="C116" t="n">
-        <v>0.517294</v>
+        <v>0.540608</v>
       </c>
       <c r="D116" t="n">
-        <v>0.507097</v>
+        <v>0.539676</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612571</v>
+        <v>0.615402</v>
       </c>
       <c r="C117" t="n">
-        <v>0.505518</v>
+        <v>0.531953</v>
       </c>
       <c r="D117" t="n">
-        <v>0.495378</v>
+        <v>0.531328</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.603733</v>
+        <v>0.607649</v>
       </c>
       <c r="C118" t="n">
-        <v>0.495596</v>
+        <v>0.522392</v>
       </c>
       <c r="D118" t="n">
-        <v>0.484225</v>
+        <v>0.523157</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.595925</v>
+        <v>0.599823</v>
       </c>
       <c r="C119" t="n">
-        <v>0.485123</v>
+        <v>0.5168430000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.473741</v>
+        <v>0.516718</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.589377</v>
+        <v>0.590869</v>
       </c>
       <c r="C120" t="n">
-        <v>0.477337</v>
+        <v>0.509868</v>
       </c>
       <c r="D120" t="n">
-        <v>0.46503</v>
+        <v>0.509486</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.58327</v>
+        <v>0.5874509999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.469309</v>
+        <v>0.504425</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457485</v>
+        <v>0.504062</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.577626</v>
+        <v>0.578635</v>
       </c>
       <c r="C122" t="n">
-        <v>0.462693</v>
+        <v>0.500143</v>
       </c>
       <c r="D122" t="n">
-        <v>0.452322</v>
+        <v>0.497901</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574348</v>
+        <v>0.579275</v>
       </c>
       <c r="C123" t="n">
-        <v>0.45891</v>
+        <v>0.499349</v>
       </c>
       <c r="D123" t="n">
-        <v>0.667293</v>
+        <v>0.7011810000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.765751</v>
+        <v>0.768342</v>
       </c>
       <c r="C124" t="n">
-        <v>0.674381</v>
+        <v>0.714789</v>
       </c>
       <c r="D124" t="n">
-        <v>0.652809</v>
+        <v>0.688592</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7576850000000001</v>
+        <v>0.758927</v>
       </c>
       <c r="C125" t="n">
-        <v>0.661308</v>
+        <v>0.697453</v>
       </c>
       <c r="D125" t="n">
-        <v>0.639343</v>
+        <v>0.676875</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.748396</v>
+        <v>0.751542</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6477000000000001</v>
+        <v>0.6824440000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6259710000000001</v>
+        <v>0.665124</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740062</v>
+        <v>0.744028</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6344880000000001</v>
+        <v>0.670984</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6133110000000001</v>
+        <v>0.653132</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.73193</v>
+        <v>0.738406</v>
       </c>
       <c r="C128" t="n">
-        <v>0.622335</v>
+        <v>0.659932</v>
       </c>
       <c r="D128" t="n">
-        <v>0.601475</v>
+        <v>0.645298</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7246860000000001</v>
+        <v>0.728948</v>
       </c>
       <c r="C129" t="n">
-        <v>0.610707</v>
+        <v>0.649193</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5905049999999999</v>
+        <v>0.635396</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.717492</v>
+        <v>0.721284</v>
       </c>
       <c r="C130" t="n">
-        <v>0.600685</v>
+        <v>0.637732</v>
       </c>
       <c r="D130" t="n">
-        <v>0.57977</v>
+        <v>0.626831</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.710636</v>
+        <v>0.716581</v>
       </c>
       <c r="C131" t="n">
-        <v>0.590861</v>
+        <v>0.627262</v>
       </c>
       <c r="D131" t="n">
-        <v>0.569202</v>
+        <v>0.619386</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.703996</v>
+        <v>0.708933</v>
       </c>
       <c r="C132" t="n">
-        <v>0.581816</v>
+        <v>0.618799</v>
       </c>
       <c r="D132" t="n">
-        <v>0.560354</v>
+        <v>0.61143</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.698708</v>
+        <v>0.704809</v>
       </c>
       <c r="C133" t="n">
-        <v>0.573948</v>
+        <v>0.61148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551071</v>
+        <v>0.604174</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.694006</v>
+        <v>0.69944</v>
       </c>
       <c r="C134" t="n">
-        <v>0.566448</v>
+        <v>0.604047</v>
       </c>
       <c r="D134" t="n">
-        <v>0.543759</v>
+        <v>0.599167</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.689329</v>
+        <v>0.695932</v>
       </c>
       <c r="C135" t="n">
-        <v>0.560015</v>
+        <v>0.599038</v>
       </c>
       <c r="D135" t="n">
-        <v>0.537118</v>
+        <v>0.59389</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.68558</v>
+        <v>0.6912430000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.554519</v>
+        <v>0.596353</v>
       </c>
       <c r="D136" t="n">
-        <v>0.531539</v>
+        <v>0.590098</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.682732</v>
+        <v>0.688667</v>
       </c>
       <c r="C137" t="n">
-        <v>0.551059</v>
+        <v>0.593321</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7474229999999999</v>
+        <v>0.796207</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.870209</v>
+        <v>0.87417</v>
       </c>
       <c r="C138" t="n">
-        <v>0.770946</v>
+        <v>0.811586</v>
       </c>
       <c r="D138" t="n">
-        <v>0.732146</v>
+        <v>0.780284</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.86329</v>
+        <v>0.866567</v>
       </c>
       <c r="C139" t="n">
-        <v>0.757349</v>
+        <v>0.794436</v>
       </c>
       <c r="D139" t="n">
-        <v>0.718314</v>
+        <v>0.766533</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.856858</v>
+        <v>0.860944</v>
       </c>
       <c r="C140" t="n">
-        <v>0.743675</v>
+        <v>0.7788890000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.704672</v>
+        <v>0.752981</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8503810000000001</v>
+        <v>0.85646</v>
       </c>
       <c r="C141" t="n">
-        <v>0.730751</v>
+        <v>0.761576</v>
       </c>
       <c r="D141" t="n">
-        <v>0.692203</v>
+        <v>0.740432</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.844185</v>
+        <v>0.848074</v>
       </c>
       <c r="C142" t="n">
-        <v>0.718713</v>
+        <v>0.746711</v>
       </c>
       <c r="D142" t="n">
-        <v>0.679696</v>
+        <v>0.728477</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.839154</v>
+        <v>0.845604</v>
       </c>
       <c r="C143" t="n">
-        <v>0.707012</v>
+        <v>0.732799</v>
       </c>
       <c r="D143" t="n">
-        <v>0.668747</v>
+        <v>0.717742</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246634</v>
+        <v>0.251488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210728</v>
+        <v>0.21681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207705</v>
+        <v>0.263042</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241424</v>
+        <v>0.246936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.204235</v>
+        <v>0.209949</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201773</v>
+        <v>0.256699</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.23576</v>
+        <v>0.240516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199142</v>
+        <v>0.204155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196437</v>
+        <v>0.250541</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.231123</v>
+        <v>0.235598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194609</v>
+        <v>0.200517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192654</v>
+        <v>0.245736</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.226942</v>
+        <v>0.231947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.190293</v>
+        <v>0.196497</v>
       </c>
       <c r="D6" t="n">
-        <v>0.189426</v>
+        <v>0.241494</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224149</v>
+        <v>0.229042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187727</v>
+        <v>0.19338</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18793</v>
+        <v>0.238063</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221924</v>
+        <v>0.227445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18602</v>
+        <v>0.191929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.188772</v>
+        <v>0.236715</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222219</v>
+        <v>0.228505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187145</v>
+        <v>0.193106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.283469</v>
+        <v>0.336757</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308264</v>
+        <v>0.315589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27604</v>
+        <v>0.282479</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273373</v>
+        <v>0.326524</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2995</v>
+        <v>0.305749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.266661</v>
+        <v>0.272854</v>
       </c>
       <c r="D11" t="n">
-        <v>0.26418</v>
+        <v>0.316888</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290877</v>
+        <v>0.297844</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257298</v>
+        <v>0.263627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254904</v>
+        <v>0.307663</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.282644</v>
+        <v>0.28849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.248585</v>
+        <v>0.254496</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246362</v>
+        <v>0.298702</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.275453</v>
+        <v>0.280797</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240187</v>
+        <v>0.246401</v>
       </c>
       <c r="D14" t="n">
-        <v>0.238663</v>
+        <v>0.290601</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268184</v>
+        <v>0.273821</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232424</v>
+        <v>0.238443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.231173</v>
+        <v>0.283146</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.261958</v>
+        <v>0.267219</v>
       </c>
       <c r="C16" t="n">
-        <v>0.224856</v>
+        <v>0.231096</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223997</v>
+        <v>0.275362</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255943</v>
+        <v>0.260197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218104</v>
+        <v>0.224289</v>
       </c>
       <c r="D17" t="n">
-        <v>0.218134</v>
+        <v>0.268786</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.249586</v>
+        <v>0.254223</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212239</v>
+        <v>0.218403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.212643</v>
+        <v>0.262925</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.244421</v>
+        <v>0.24894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206614</v>
+        <v>0.212796</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207663</v>
+        <v>0.257626</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24006</v>
+        <v>0.244442</v>
       </c>
       <c r="C20" t="n">
-        <v>0.202174</v>
+        <v>0.2081</v>
       </c>
       <c r="D20" t="n">
-        <v>0.203915</v>
+        <v>0.252981</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.237151</v>
+        <v>0.240664</v>
       </c>
       <c r="C21" t="n">
-        <v>0.198999</v>
+        <v>0.204901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202436</v>
+        <v>0.249921</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234746</v>
+        <v>0.238048</v>
       </c>
       <c r="C22" t="n">
-        <v>0.196886</v>
+        <v>0.203141</v>
       </c>
       <c r="D22" t="n">
-        <v>0.202817</v>
+        <v>0.248738</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.234376</v>
+        <v>0.237043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197532</v>
+        <v>0.203741</v>
       </c>
       <c r="D23" t="n">
-        <v>0.296469</v>
+        <v>0.347755</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.320009</v>
+        <v>0.323511</v>
       </c>
       <c r="C24" t="n">
-        <v>0.287328</v>
+        <v>0.294567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.286433</v>
+        <v>0.337395</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.31123</v>
+        <v>0.314213</v>
       </c>
       <c r="C25" t="n">
-        <v>0.277498</v>
+        <v>0.283975</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276771</v>
+        <v>0.327297</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.302912</v>
+        <v>0.305423</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268095</v>
+        <v>0.274584</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267477</v>
+        <v>0.317848</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.294602</v>
+        <v>0.297126</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258995</v>
+        <v>0.265625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.258691</v>
+        <v>0.308895</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286954</v>
+        <v>0.28943</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250844</v>
+        <v>0.257141</v>
       </c>
       <c r="D28" t="n">
-        <v>0.250475</v>
+        <v>0.300382</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.279424</v>
+        <v>0.281805</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24269</v>
+        <v>0.249354</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242382</v>
+        <v>0.292354</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.272454</v>
+        <v>0.274782</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235128</v>
+        <v>0.241572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2356</v>
+        <v>0.284727</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.266022</v>
+        <v>0.268264</v>
       </c>
       <c r="C31" t="n">
-        <v>0.228173</v>
+        <v>0.234626</v>
       </c>
       <c r="D31" t="n">
-        <v>0.228894</v>
+        <v>0.277663</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260079</v>
+        <v>0.262258</v>
       </c>
       <c r="C32" t="n">
-        <v>0.221484</v>
+        <v>0.228108</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222678</v>
+        <v>0.271137</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.254772</v>
+        <v>0.256851</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215679</v>
+        <v>0.22237</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217425</v>
+        <v>0.26496</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.249358</v>
+        <v>0.25185</v>
       </c>
       <c r="C34" t="n">
-        <v>0.210309</v>
+        <v>0.216613</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212124</v>
+        <v>0.259949</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.245529</v>
+        <v>0.247769</v>
       </c>
       <c r="C35" t="n">
-        <v>0.205958</v>
+        <v>0.212621</v>
       </c>
       <c r="D35" t="n">
-        <v>0.20995</v>
+        <v>0.255987</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.242721</v>
+        <v>0.244885</v>
       </c>
       <c r="C36" t="n">
-        <v>0.203309</v>
+        <v>0.20999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209204</v>
+        <v>0.253973</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.241468</v>
+        <v>0.243605</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20246</v>
+        <v>0.20866</v>
       </c>
       <c r="D37" t="n">
-        <v>0.304233</v>
+        <v>0.355581</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325155</v>
+        <v>0.326577</v>
       </c>
       <c r="C38" t="n">
-        <v>0.295015</v>
+        <v>0.301676</v>
       </c>
       <c r="D38" t="n">
-        <v>0.294677</v>
+        <v>0.344912</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317428</v>
+        <v>0.318453</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285228</v>
+        <v>0.291898</v>
       </c>
       <c r="D39" t="n">
-        <v>0.284948</v>
+        <v>0.334581</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.307971</v>
+        <v>0.309955</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275891</v>
+        <v>0.28262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.275735</v>
+        <v>0.324845</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300129</v>
+        <v>0.30187</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267084</v>
+        <v>0.273841</v>
       </c>
       <c r="D41" t="n">
-        <v>0.267016</v>
+        <v>0.315681</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292783</v>
+        <v>0.293969</v>
       </c>
       <c r="C42" t="n">
-        <v>0.258675</v>
+        <v>0.26547</v>
       </c>
       <c r="D42" t="n">
-        <v>0.258813</v>
+        <v>0.306855</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285273</v>
+        <v>0.286827</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250636</v>
+        <v>0.256777</v>
       </c>
       <c r="D43" t="n">
-        <v>0.25101</v>
+        <v>0.298547</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279218</v>
+        <v>0.279837</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243123</v>
+        <v>0.249076</v>
       </c>
       <c r="D44" t="n">
-        <v>0.243656</v>
+        <v>0.290541</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.271664</v>
+        <v>0.273578</v>
       </c>
       <c r="C45" t="n">
-        <v>0.236308</v>
+        <v>0.242253</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23699</v>
+        <v>0.283486</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266158</v>
+        <v>0.267712</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229841</v>
+        <v>0.235665</v>
       </c>
       <c r="D46" t="n">
-        <v>0.230896</v>
+        <v>0.276806</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26123</v>
+        <v>0.262355</v>
       </c>
       <c r="C47" t="n">
-        <v>0.224063</v>
+        <v>0.229846</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225607</v>
+        <v>0.270687</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257162</v>
+        <v>0.257593</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218748</v>
+        <v>0.224629</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221023</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252845</v>
+        <v>0.253585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21465</v>
+        <v>0.22033</v>
       </c>
       <c r="D49" t="n">
-        <v>0.217872</v>
+        <v>0.261242</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249356</v>
+        <v>0.250576</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211598</v>
+        <v>0.217191</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216361</v>
+        <v>0.25892</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24827</v>
+        <v>0.248973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209698</v>
+        <v>0.216006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.315338</v>
+        <v>0.364539</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250164</v>
+        <v>0.250024</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211132</v>
+        <v>0.217535</v>
       </c>
       <c r="D52" t="n">
-        <v>0.305054</v>
+        <v>0.353502</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329702</v>
+        <v>0.331313</v>
       </c>
       <c r="C53" t="n">
-        <v>0.295547</v>
+        <v>0.303533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.295175</v>
+        <v>0.342868</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321607</v>
+        <v>0.32295</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285901</v>
+        <v>0.29422</v>
       </c>
       <c r="D54" t="n">
-        <v>0.285738</v>
+        <v>0.332911</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313676</v>
+        <v>0.315571</v>
       </c>
       <c r="C55" t="n">
-        <v>0.277161</v>
+        <v>0.285019</v>
       </c>
       <c r="D55" t="n">
-        <v>0.276815</v>
+        <v>0.323433</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306401</v>
+        <v>0.307773</v>
       </c>
       <c r="C56" t="n">
-        <v>0.268706</v>
+        <v>0.276336</v>
       </c>
       <c r="D56" t="n">
-        <v>0.268485</v>
+        <v>0.31457</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299291</v>
+        <v>0.301113</v>
       </c>
       <c r="C57" t="n">
-        <v>0.260636</v>
+        <v>0.268386</v>
       </c>
       <c r="D57" t="n">
-        <v>0.260614</v>
+        <v>0.306145</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292765</v>
+        <v>0.294151</v>
       </c>
       <c r="C58" t="n">
-        <v>0.253064</v>
+        <v>0.260316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.253163</v>
+        <v>0.298129</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286507</v>
+        <v>0.288179</v>
       </c>
       <c r="C59" t="n">
-        <v>0.245872</v>
+        <v>0.253499</v>
       </c>
       <c r="D59" t="n">
-        <v>0.246223</v>
+        <v>0.290538</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280667</v>
+        <v>0.282376</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239301</v>
+        <v>0.247046</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239993</v>
+        <v>0.283968</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275533</v>
+        <v>0.277294</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233351</v>
+        <v>0.241259</v>
       </c>
       <c r="D61" t="n">
-        <v>0.234517</v>
+        <v>0.277889</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270828</v>
+        <v>0.272541</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227924</v>
+        <v>0.235905</v>
       </c>
       <c r="D62" t="n">
-        <v>0.229748</v>
+        <v>0.272456</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26692</v>
+        <v>0.268671</v>
       </c>
       <c r="C63" t="n">
-        <v>0.223191</v>
+        <v>0.231559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.226173</v>
+        <v>0.268244</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263944</v>
+        <v>0.26562</v>
       </c>
       <c r="C64" t="n">
-        <v>0.219462</v>
+        <v>0.228062</v>
       </c>
       <c r="D64" t="n">
-        <v>0.224235</v>
+        <v>0.265385</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262309</v>
+        <v>0.264357</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217547</v>
+        <v>0.226288</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224797</v>
+        <v>0.265003</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.262815</v>
+        <v>0.264635</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218331</v>
+        <v>0.227291</v>
       </c>
       <c r="D66" t="n">
-        <v>0.337686</v>
+        <v>0.381644</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.384243</v>
+        <v>0.395948</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334689</v>
+        <v>0.345591</v>
       </c>
       <c r="D67" t="n">
-        <v>0.327141</v>
+        <v>0.370133</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376493</v>
+        <v>0.388349</v>
       </c>
       <c r="C68" t="n">
-        <v>0.324371</v>
+        <v>0.335864</v>
       </c>
       <c r="D68" t="n">
-        <v>0.317028</v>
+        <v>0.360373</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.368866</v>
+        <v>0.381471</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314604</v>
+        <v>0.326032</v>
       </c>
       <c r="D69" t="n">
-        <v>0.307392</v>
+        <v>0.350966</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362263</v>
+        <v>0.375142</v>
       </c>
       <c r="C70" t="n">
-        <v>0.305388</v>
+        <v>0.316219</v>
       </c>
       <c r="D70" t="n">
-        <v>0.298269</v>
+        <v>0.341619</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.355969</v>
+        <v>0.369019</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296344</v>
+        <v>0.307564</v>
       </c>
       <c r="D71" t="n">
-        <v>0.289414</v>
+        <v>0.332704</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.34995</v>
+        <v>0.363102</v>
       </c>
       <c r="C72" t="n">
-        <v>0.287994</v>
+        <v>0.298837</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28132</v>
+        <v>0.324231</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344185</v>
+        <v>0.357117</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28005</v>
+        <v>0.290586</v>
       </c>
       <c r="D73" t="n">
-        <v>0.273578</v>
+        <v>0.315917</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.338644</v>
+        <v>0.351441</v>
       </c>
       <c r="C74" t="n">
-        <v>0.272433</v>
+        <v>0.283178</v>
       </c>
       <c r="D74" t="n">
-        <v>0.266585</v>
+        <v>0.30864</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.332957</v>
+        <v>0.345544</v>
       </c>
       <c r="C75" t="n">
-        <v>0.265617</v>
+        <v>0.276155</v>
       </c>
       <c r="D75" t="n">
-        <v>0.260272</v>
+        <v>0.301736</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.32741</v>
+        <v>0.339842</v>
       </c>
       <c r="C76" t="n">
-        <v>0.259327</v>
+        <v>0.27002</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254891</v>
+        <v>0.29594</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.32245</v>
+        <v>0.334963</v>
       </c>
       <c r="C77" t="n">
-        <v>0.253902</v>
+        <v>0.264474</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250283</v>
+        <v>0.29092</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318116</v>
+        <v>0.33008</v>
       </c>
       <c r="C78" t="n">
-        <v>0.249705</v>
+        <v>0.260372</v>
       </c>
       <c r="D78" t="n">
-        <v>0.247557</v>
+        <v>0.287165</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.314813</v>
+        <v>0.326259</v>
       </c>
       <c r="C79" t="n">
-        <v>0.246626</v>
+        <v>0.258027</v>
       </c>
       <c r="D79" t="n">
-        <v>0.247145</v>
+        <v>0.285785</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.313309</v>
+        <v>0.324264</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246004</v>
+        <v>0.257617</v>
       </c>
       <c r="D80" t="n">
-        <v>0.401092</v>
+        <v>0.452094</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.448027</v>
+        <v>0.568379</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4018</v>
+        <v>0.429252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.392281</v>
+        <v>0.444717</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.444277</v>
+        <v>0.561994</v>
       </c>
       <c r="C82" t="n">
-        <v>0.393621</v>
+        <v>0.422335</v>
       </c>
       <c r="D82" t="n">
-        <v>0.381969</v>
+        <v>0.439444</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.438988</v>
+        <v>0.5528380000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.383232</v>
+        <v>0.411787</v>
       </c>
       <c r="D83" t="n">
-        <v>0.371417</v>
+        <v>0.430844</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.434021</v>
+        <v>0.544198</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3721</v>
+        <v>0.398986</v>
       </c>
       <c r="D84" t="n">
-        <v>0.36115</v>
+        <v>0.424516</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.42873</v>
+        <v>0.535017</v>
       </c>
       <c r="C85" t="n">
-        <v>0.361557</v>
+        <v>0.387494</v>
       </c>
       <c r="D85" t="n">
-        <v>0.351188</v>
+        <v>0.417533</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.423433</v>
+        <v>0.525181</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351221</v>
+        <v>0.376506</v>
       </c>
       <c r="D86" t="n">
-        <v>0.341736</v>
+        <v>0.409557</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.418255</v>
+        <v>0.5160090000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3416</v>
+        <v>0.366623</v>
       </c>
       <c r="D87" t="n">
-        <v>0.333003</v>
+        <v>0.401247</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.412462</v>
+        <v>0.506981</v>
       </c>
       <c r="C88" t="n">
-        <v>0.332524</v>
+        <v>0.357682</v>
       </c>
       <c r="D88" t="n">
-        <v>0.324975</v>
+        <v>0.396343</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.407021</v>
+        <v>0.498212</v>
       </c>
       <c r="C89" t="n">
-        <v>0.324103</v>
+        <v>0.348223</v>
       </c>
       <c r="D89" t="n">
-        <v>0.317292</v>
+        <v>0.388394</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.401909</v>
+        <v>0.489879</v>
       </c>
       <c r="C90" t="n">
-        <v>0.316917</v>
+        <v>0.340587</v>
       </c>
       <c r="D90" t="n">
-        <v>0.31093</v>
+        <v>0.384353</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.39719</v>
+        <v>0.481505</v>
       </c>
       <c r="C91" t="n">
-        <v>0.309516</v>
+        <v>0.334912</v>
       </c>
       <c r="D91" t="n">
-        <v>0.304999</v>
+        <v>0.381677</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.392631</v>
+        <v>0.473783</v>
       </c>
       <c r="C92" t="n">
-        <v>0.30412</v>
+        <v>0.327375</v>
       </c>
       <c r="D92" t="n">
-        <v>0.300501</v>
+        <v>0.374621</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.388978</v>
+        <v>0.467109</v>
       </c>
       <c r="C93" t="n">
-        <v>0.299686</v>
+        <v>0.322277</v>
       </c>
       <c r="D93" t="n">
-        <v>0.298137</v>
+        <v>0.373487</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3866</v>
+        <v>0.461884</v>
       </c>
       <c r="C94" t="n">
-        <v>0.297462</v>
+        <v>0.319867</v>
       </c>
       <c r="D94" t="n">
-        <v>0.570979</v>
+        <v>0.687199</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.580492</v>
+        <v>0.593005</v>
       </c>
       <c r="C95" t="n">
-        <v>0.517563</v>
+        <v>0.556816</v>
       </c>
       <c r="D95" t="n">
-        <v>0.556638</v>
+        <v>0.677899</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.577884</v>
+        <v>0.592408</v>
       </c>
       <c r="C96" t="n">
-        <v>0.50858</v>
+        <v>0.549915</v>
       </c>
       <c r="D96" t="n">
-        <v>0.541983</v>
+        <v>0.665743</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.568293</v>
+        <v>0.583492</v>
       </c>
       <c r="C97" t="n">
-        <v>0.495543</v>
+        <v>0.536386</v>
       </c>
       <c r="D97" t="n">
-        <v>0.527525</v>
+        <v>0.65213</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.560131</v>
+        <v>0.576002</v>
       </c>
       <c r="C98" t="n">
-        <v>0.483087</v>
+        <v>0.5209859999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.50981</v>
+        <v>0.640099</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.551246</v>
+        <v>0.56655</v>
       </c>
       <c r="C99" t="n">
-        <v>0.471416</v>
+        <v>0.506857</v>
       </c>
       <c r="D99" t="n">
-        <v>0.496935</v>
+        <v>0.6279169999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.543802</v>
+        <v>0.560007</v>
       </c>
       <c r="C100" t="n">
-        <v>0.460473</v>
+        <v>0.495194</v>
       </c>
       <c r="D100" t="n">
-        <v>0.484342</v>
+        <v>0.61818</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.53585</v>
+        <v>0.551881</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447877</v>
+        <v>0.483239</v>
       </c>
       <c r="D101" t="n">
-        <v>0.474818</v>
+        <v>0.609246</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.527535</v>
+        <v>0.54511</v>
       </c>
       <c r="C102" t="n">
-        <v>0.436658</v>
+        <v>0.471662</v>
       </c>
       <c r="D102" t="n">
-        <v>0.462043</v>
+        <v>0.6002420000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.520622</v>
+        <v>0.538178</v>
       </c>
       <c r="C103" t="n">
-        <v>0.426563</v>
+        <v>0.46142</v>
       </c>
       <c r="D103" t="n">
-        <v>0.451413</v>
+        <v>0.5917750000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.514972</v>
+        <v>0.532232</v>
       </c>
       <c r="C104" t="n">
-        <v>0.418828</v>
+        <v>0.451933</v>
       </c>
       <c r="D104" t="n">
-        <v>0.441853</v>
+        <v>0.583876</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508307</v>
+        <v>0.527213</v>
       </c>
       <c r="C105" t="n">
-        <v>0.411917</v>
+        <v>0.444323</v>
       </c>
       <c r="D105" t="n">
-        <v>0.43465</v>
+        <v>0.5761810000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.503899</v>
+        <v>0.521548</v>
       </c>
       <c r="C106" t="n">
-        <v>0.404634</v>
+        <v>0.437094</v>
       </c>
       <c r="D106" t="n">
-        <v>0.427142</v>
+        <v>0.5704939999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.498754</v>
+        <v>0.51744</v>
       </c>
       <c r="C107" t="n">
-        <v>0.398722</v>
+        <v>0.430175</v>
       </c>
       <c r="D107" t="n">
-        <v>0.420832</v>
+        <v>0.565048</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.496073</v>
+        <v>0.513907</v>
       </c>
       <c r="C108" t="n">
-        <v>0.395789</v>
+        <v>0.425674</v>
       </c>
       <c r="D108" t="n">
-        <v>0.627569</v>
+        <v>0.804091</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494229</v>
+        <v>0.512803</v>
       </c>
       <c r="C109" t="n">
-        <v>0.391992</v>
+        <v>0.424599</v>
       </c>
       <c r="D109" t="n">
-        <v>0.615093</v>
+        <v>0.790416</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.685812</v>
+        <v>0.712828</v>
       </c>
       <c r="C110" t="n">
-        <v>0.607109</v>
+        <v>0.639334</v>
       </c>
       <c r="D110" t="n">
-        <v>0.604026</v>
+        <v>0.776865</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.675901</v>
+        <v>0.7033160000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.592764</v>
+        <v>0.628162</v>
       </c>
       <c r="D111" t="n">
-        <v>0.590736</v>
+        <v>0.763799</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.664004</v>
+        <v>0.6928879999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.582651</v>
+        <v>0.617858</v>
       </c>
       <c r="D112" t="n">
-        <v>0.580928</v>
+        <v>0.752434</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6518620000000001</v>
+        <v>0.6821390000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.571156</v>
+        <v>0.608108</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5701580000000001</v>
+        <v>0.740025</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.641045</v>
+        <v>0.67176</v>
       </c>
       <c r="C114" t="n">
-        <v>0.55791</v>
+        <v>0.598014</v>
       </c>
       <c r="D114" t="n">
-        <v>0.560411</v>
+        <v>0.729746</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6334959999999999</v>
+        <v>0.662677</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5490660000000001</v>
+        <v>0.588832</v>
       </c>
       <c r="D115" t="n">
-        <v>0.549131</v>
+        <v>0.719642</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.625057</v>
+        <v>0.653954</v>
       </c>
       <c r="C116" t="n">
-        <v>0.540608</v>
+        <v>0.580612</v>
       </c>
       <c r="D116" t="n">
-        <v>0.539676</v>
+        <v>0.709944</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.615402</v>
+        <v>0.645831</v>
       </c>
       <c r="C117" t="n">
-        <v>0.531953</v>
+        <v>0.575377</v>
       </c>
       <c r="D117" t="n">
-        <v>0.531328</v>
+        <v>0.70164</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.607649</v>
+        <v>0.6375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.522392</v>
+        <v>0.56832</v>
       </c>
       <c r="D118" t="n">
-        <v>0.523157</v>
+        <v>0.692954</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599823</v>
+        <v>0.630258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5168430000000001</v>
+        <v>0.560318</v>
       </c>
       <c r="D119" t="n">
-        <v>0.516718</v>
+        <v>0.686548</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.590869</v>
+        <v>0.623954</v>
       </c>
       <c r="C120" t="n">
-        <v>0.509868</v>
+        <v>0.554996</v>
       </c>
       <c r="D120" t="n">
-        <v>0.509486</v>
+        <v>0.6816680000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5874509999999999</v>
+        <v>0.618138</v>
       </c>
       <c r="C121" t="n">
-        <v>0.504425</v>
+        <v>0.549632</v>
       </c>
       <c r="D121" t="n">
-        <v>0.504062</v>
+        <v>0.676544</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.578635</v>
+        <v>0.613559</v>
       </c>
       <c r="C122" t="n">
-        <v>0.500143</v>
+        <v>0.545956</v>
       </c>
       <c r="D122" t="n">
-        <v>0.497901</v>
+        <v>0.672686</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.579275</v>
+        <v>0.610542</v>
       </c>
       <c r="C123" t="n">
-        <v>0.499349</v>
+        <v>0.544739</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7011810000000001</v>
+        <v>0.902542</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.768342</v>
+        <v>0.81074</v>
       </c>
       <c r="C124" t="n">
-        <v>0.714789</v>
+        <v>0.7607969999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.688592</v>
+        <v>0.891875</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.758927</v>
+        <v>0.802213</v>
       </c>
       <c r="C125" t="n">
-        <v>0.697453</v>
+        <v>0.746426</v>
       </c>
       <c r="D125" t="n">
-        <v>0.676875</v>
+        <v>0.867283</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.751542</v>
+        <v>0.794286</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6824440000000001</v>
+        <v>0.733708</v>
       </c>
       <c r="D126" t="n">
-        <v>0.665124</v>
+        <v>0.86064</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.744028</v>
+        <v>0.787252</v>
       </c>
       <c r="C127" t="n">
-        <v>0.670984</v>
+        <v>0.7199989999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.653132</v>
+        <v>0.844542</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.738406</v>
+        <v>0.779911</v>
       </c>
       <c r="C128" t="n">
-        <v>0.659932</v>
+        <v>0.709022</v>
       </c>
       <c r="D128" t="n">
-        <v>0.645298</v>
+        <v>0.833142</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.728948</v>
+        <v>0.773122</v>
       </c>
       <c r="C129" t="n">
-        <v>0.649193</v>
+        <v>0.698044</v>
       </c>
       <c r="D129" t="n">
-        <v>0.635396</v>
+        <v>0.8218299999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.721284</v>
+        <v>0.767052</v>
       </c>
       <c r="C130" t="n">
-        <v>0.637732</v>
+        <v>0.687531</v>
       </c>
       <c r="D130" t="n">
-        <v>0.626831</v>
+        <v>0.802405</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.716581</v>
+        <v>0.76144</v>
       </c>
       <c r="C131" t="n">
-        <v>0.627262</v>
+        <v>0.6792820000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.619386</v>
+        <v>0.811071</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.708933</v>
+        <v>0.754928</v>
       </c>
       <c r="C132" t="n">
-        <v>0.618799</v>
+        <v>0.671757</v>
       </c>
       <c r="D132" t="n">
-        <v>0.61143</v>
+        <v>0.7923</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.704809</v>
+        <v>0.750232</v>
       </c>
       <c r="C133" t="n">
-        <v>0.61148</v>
+        <v>0.6662979999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.604174</v>
+        <v>0.777575</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.69944</v>
+        <v>0.745121</v>
       </c>
       <c r="C134" t="n">
-        <v>0.604047</v>
+        <v>0.6579390000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.599167</v>
+        <v>0.781945</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.695932</v>
+        <v>0.741348</v>
       </c>
       <c r="C135" t="n">
-        <v>0.599038</v>
+        <v>0.6521169999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.59389</v>
+        <v>0.769655</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6912430000000001</v>
+        <v>0.738103</v>
       </c>
       <c r="C136" t="n">
-        <v>0.596353</v>
+        <v>0.651214</v>
       </c>
       <c r="D136" t="n">
-        <v>0.590098</v>
+        <v>0.78261</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.688667</v>
+        <v>0.734246</v>
       </c>
       <c r="C137" t="n">
-        <v>0.593321</v>
+        <v>0.650447</v>
       </c>
       <c r="D137" t="n">
-        <v>0.796207</v>
+        <v>0.996797</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.87417</v>
+        <v>0.921884</v>
       </c>
       <c r="C138" t="n">
-        <v>0.811586</v>
+        <v>0.881023</v>
       </c>
       <c r="D138" t="n">
-        <v>0.780284</v>
+        <v>0.976778</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866567</v>
+        <v>0.91515</v>
       </c>
       <c r="C139" t="n">
-        <v>0.794436</v>
+        <v>0.857603</v>
       </c>
       <c r="D139" t="n">
-        <v>0.766533</v>
+        <v>0.963372</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.860944</v>
+        <v>0.91024</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7788890000000001</v>
+        <v>0.84237</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752981</v>
+        <v>0.942056</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.85646</v>
+        <v>0.904627</v>
       </c>
       <c r="C141" t="n">
-        <v>0.761576</v>
+        <v>0.828874</v>
       </c>
       <c r="D141" t="n">
-        <v>0.740432</v>
+        <v>0.936625</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.848074</v>
+        <v>0.900154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.746711</v>
+        <v>0.819798</v>
       </c>
       <c r="D142" t="n">
-        <v>0.728477</v>
+        <v>0.918749</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.845604</v>
+        <v>0.894914</v>
       </c>
       <c r="C143" t="n">
-        <v>0.732799</v>
+        <v>0.8069730000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.717742</v>
+        <v>0.909223</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251488</v>
+        <v>0.252157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21681</v>
+        <v>0.214836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.263042</v>
+        <v>0.264092</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246936</v>
+        <v>0.246254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209949</v>
+        <v>0.209878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.256699</v>
+        <v>0.257965</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240516</v>
+        <v>0.241109</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204155</v>
+        <v>0.203117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.250541</v>
+        <v>0.251707</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235598</v>
+        <v>0.235937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200517</v>
+        <v>0.196429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.245736</v>
+        <v>0.247103</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231947</v>
+        <v>0.231873</v>
       </c>
       <c r="C6" t="n">
-        <v>0.196497</v>
+        <v>0.191935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.241494</v>
+        <v>0.242331</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229042</v>
+        <v>0.22912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19338</v>
+        <v>0.189336</v>
       </c>
       <c r="D7" t="n">
-        <v>0.238063</v>
+        <v>0.239288</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227445</v>
+        <v>0.227485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191929</v>
+        <v>0.187862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.236715</v>
+        <v>0.238663</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228505</v>
+        <v>0.228022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193106</v>
+        <v>0.189256</v>
       </c>
       <c r="D9" t="n">
-        <v>0.336757</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315589</v>
+        <v>0.31472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.282479</v>
+        <v>0.277744</v>
       </c>
       <c r="D10" t="n">
-        <v>0.326524</v>
+        <v>0.326594</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305749</v>
+        <v>0.304666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.272854</v>
+        <v>0.268391</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316888</v>
+        <v>0.316758</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297844</v>
+        <v>0.297027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.263627</v>
+        <v>0.258852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307663</v>
+        <v>0.308376</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28849</v>
+        <v>0.287911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.254496</v>
+        <v>0.25022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.298702</v>
+        <v>0.299579</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280797</v>
+        <v>0.280311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246401</v>
+        <v>0.242024</v>
       </c>
       <c r="D14" t="n">
-        <v>0.290601</v>
+        <v>0.291389</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273821</v>
+        <v>0.272737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238443</v>
+        <v>0.234079</v>
       </c>
       <c r="D15" t="n">
-        <v>0.283146</v>
+        <v>0.283738</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267219</v>
+        <v>0.265766</v>
       </c>
       <c r="C16" t="n">
-        <v>0.231096</v>
+        <v>0.226821</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275362</v>
+        <v>0.275561</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260197</v>
+        <v>0.259329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224289</v>
+        <v>0.220335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.268786</v>
+        <v>0.269402</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254223</v>
+        <v>0.253386</v>
       </c>
       <c r="C18" t="n">
-        <v>0.218403</v>
+        <v>0.21433</v>
       </c>
       <c r="D18" t="n">
-        <v>0.262925</v>
+        <v>0.263504</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24894</v>
+        <v>0.248345</v>
       </c>
       <c r="C19" t="n">
-        <v>0.212796</v>
+        <v>0.209299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257626</v>
+        <v>0.258213</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244442</v>
+        <v>0.24393</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2081</v>
+        <v>0.204727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252981</v>
+        <v>0.253206</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240664</v>
+        <v>0.240082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.204901</v>
+        <v>0.201949</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249921</v>
+        <v>0.249629</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238048</v>
+        <v>0.237243</v>
       </c>
       <c r="C22" t="n">
-        <v>0.203141</v>
+        <v>0.200325</v>
       </c>
       <c r="D22" t="n">
-        <v>0.248738</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237043</v>
+        <v>0.236353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.203741</v>
+        <v>0.201307</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347755</v>
+        <v>0.347866</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323511</v>
+        <v>0.323147</v>
       </c>
       <c r="C24" t="n">
-        <v>0.294567</v>
+        <v>0.289655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.337395</v>
+        <v>0.33737</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314213</v>
+        <v>0.313658</v>
       </c>
       <c r="C25" t="n">
-        <v>0.283975</v>
+        <v>0.279926</v>
       </c>
       <c r="D25" t="n">
-        <v>0.327297</v>
+        <v>0.327267</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305423</v>
+        <v>0.304832</v>
       </c>
       <c r="C26" t="n">
-        <v>0.274584</v>
+        <v>0.270389</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317848</v>
+        <v>0.317873</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297126</v>
+        <v>0.296347</v>
       </c>
       <c r="C27" t="n">
-        <v>0.265625</v>
+        <v>0.261543</v>
       </c>
       <c r="D27" t="n">
-        <v>0.308895</v>
+        <v>0.308857</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28943</v>
+        <v>0.288469</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257141</v>
+        <v>0.253719</v>
       </c>
       <c r="D28" t="n">
-        <v>0.300382</v>
+        <v>0.300446</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281805</v>
+        <v>0.281601</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249354</v>
+        <v>0.245217</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292354</v>
+        <v>0.292514</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274782</v>
+        <v>0.274025</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241572</v>
+        <v>0.237713</v>
       </c>
       <c r="D30" t="n">
-        <v>0.284727</v>
+        <v>0.284845</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268264</v>
+        <v>0.267519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234626</v>
+        <v>0.231198</v>
       </c>
       <c r="D31" t="n">
-        <v>0.277663</v>
+        <v>0.277779</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262258</v>
+        <v>0.261297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228108</v>
+        <v>0.224568</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271137</v>
+        <v>0.271032</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256851</v>
+        <v>0.255964</v>
       </c>
       <c r="C33" t="n">
-        <v>0.22237</v>
+        <v>0.218661</v>
       </c>
       <c r="D33" t="n">
-        <v>0.26496</v>
+        <v>0.265136</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25185</v>
+        <v>0.250921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.216613</v>
+        <v>0.213702</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259949</v>
+        <v>0.25999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247769</v>
+        <v>0.246924</v>
       </c>
       <c r="C35" t="n">
-        <v>0.212621</v>
+        <v>0.209819</v>
       </c>
       <c r="D35" t="n">
-        <v>0.255987</v>
+        <v>0.256037</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244885</v>
+        <v>0.2437</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20999</v>
+        <v>0.207205</v>
       </c>
       <c r="D36" t="n">
-        <v>0.253973</v>
+        <v>0.254044</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243605</v>
+        <v>0.243116</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20866</v>
+        <v>0.206493</v>
       </c>
       <c r="D37" t="n">
-        <v>0.355581</v>
+        <v>0.355448</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326577</v>
+        <v>0.325707</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301676</v>
+        <v>0.299198</v>
       </c>
       <c r="D38" t="n">
-        <v>0.344912</v>
+        <v>0.344731</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318453</v>
+        <v>0.316657</v>
       </c>
       <c r="C39" t="n">
-        <v>0.291898</v>
+        <v>0.28934</v>
       </c>
       <c r="D39" t="n">
-        <v>0.334581</v>
+        <v>0.33454</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309955</v>
+        <v>0.308153</v>
       </c>
       <c r="C40" t="n">
-        <v>0.28262</v>
+        <v>0.279801</v>
       </c>
       <c r="D40" t="n">
-        <v>0.324845</v>
+        <v>0.324892</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.30187</v>
+        <v>0.299957</v>
       </c>
       <c r="C41" t="n">
-        <v>0.273841</v>
+        <v>0.270851</v>
       </c>
       <c r="D41" t="n">
-        <v>0.315681</v>
+        <v>0.315704</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293969</v>
+        <v>0.292273</v>
       </c>
       <c r="C42" t="n">
-        <v>0.26547</v>
+        <v>0.262325</v>
       </c>
       <c r="D42" t="n">
-        <v>0.306855</v>
+        <v>0.306756</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286827</v>
+        <v>0.285275</v>
       </c>
       <c r="C43" t="n">
-        <v>0.256777</v>
+        <v>0.253851</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298547</v>
+        <v>0.298797</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279837</v>
+        <v>0.278168</v>
       </c>
       <c r="C44" t="n">
-        <v>0.249076</v>
+        <v>0.246453</v>
       </c>
       <c r="D44" t="n">
-        <v>0.290541</v>
+        <v>0.290965</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273578</v>
+        <v>0.271767</v>
       </c>
       <c r="C45" t="n">
-        <v>0.242253</v>
+        <v>0.239549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283486</v>
+        <v>0.283821</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267712</v>
+        <v>0.265971</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235665</v>
+        <v>0.233031</v>
       </c>
       <c r="D46" t="n">
-        <v>0.276806</v>
+        <v>0.277172</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262355</v>
+        <v>0.260693</v>
       </c>
       <c r="C47" t="n">
-        <v>0.229846</v>
+        <v>0.226939</v>
       </c>
       <c r="D47" t="n">
-        <v>0.270687</v>
+        <v>0.27133</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257593</v>
+        <v>0.255696</v>
       </c>
       <c r="C48" t="n">
-        <v>0.224629</v>
+        <v>0.221881</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2654</v>
+        <v>0.266089</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253585</v>
+        <v>0.251721</v>
       </c>
       <c r="C49" t="n">
-        <v>0.22033</v>
+        <v>0.217707</v>
       </c>
       <c r="D49" t="n">
-        <v>0.261242</v>
+        <v>0.262105</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250576</v>
+        <v>0.248673</v>
       </c>
       <c r="C50" t="n">
-        <v>0.217191</v>
+        <v>0.214514</v>
       </c>
       <c r="D50" t="n">
-        <v>0.25892</v>
+        <v>0.259416</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248973</v>
+        <v>0.246908</v>
       </c>
       <c r="C51" t="n">
-        <v>0.216006</v>
+        <v>0.213304</v>
       </c>
       <c r="D51" t="n">
-        <v>0.364539</v>
+        <v>0.363659</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250024</v>
+        <v>0.247866</v>
       </c>
       <c r="C52" t="n">
-        <v>0.217535</v>
+        <v>0.214801</v>
       </c>
       <c r="D52" t="n">
-        <v>0.353502</v>
+        <v>0.352235</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331313</v>
+        <v>0.331907</v>
       </c>
       <c r="C53" t="n">
-        <v>0.303533</v>
+        <v>0.298836</v>
       </c>
       <c r="D53" t="n">
-        <v>0.342868</v>
+        <v>0.342094</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.32295</v>
+        <v>0.323611</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29422</v>
+        <v>0.289429</v>
       </c>
       <c r="D54" t="n">
-        <v>0.332911</v>
+        <v>0.332279</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.315571</v>
+        <v>0.315776</v>
       </c>
       <c r="C55" t="n">
-        <v>0.285019</v>
+        <v>0.280391</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323433</v>
+        <v>0.32368</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307773</v>
+        <v>0.308421</v>
       </c>
       <c r="C56" t="n">
-        <v>0.276336</v>
+        <v>0.271703</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31457</v>
+        <v>0.314823</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.301113</v>
+        <v>0.301361</v>
       </c>
       <c r="C57" t="n">
-        <v>0.268386</v>
+        <v>0.263587</v>
       </c>
       <c r="D57" t="n">
-        <v>0.306145</v>
+        <v>0.306622</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294151</v>
+        <v>0.294724</v>
       </c>
       <c r="C58" t="n">
-        <v>0.260316</v>
+        <v>0.255848</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298129</v>
+        <v>0.298731</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288179</v>
+        <v>0.288643</v>
       </c>
       <c r="C59" t="n">
-        <v>0.253499</v>
+        <v>0.248688</v>
       </c>
       <c r="D59" t="n">
-        <v>0.290538</v>
+        <v>0.291222</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282376</v>
+        <v>0.282914</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247046</v>
+        <v>0.241975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.283968</v>
+        <v>0.284669</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277294</v>
+        <v>0.277393</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241259</v>
+        <v>0.235981</v>
       </c>
       <c r="D61" t="n">
-        <v>0.277889</v>
+        <v>0.278564</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272541</v>
+        <v>0.272779</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235905</v>
+        <v>0.230566</v>
       </c>
       <c r="D62" t="n">
-        <v>0.272456</v>
+        <v>0.273247</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268671</v>
+        <v>0.269732</v>
       </c>
       <c r="C63" t="n">
-        <v>0.231559</v>
+        <v>0.225941</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268244</v>
+        <v>0.268857</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26562</v>
+        <v>0.266021</v>
       </c>
       <c r="C64" t="n">
-        <v>0.228062</v>
+        <v>0.222574</v>
       </c>
       <c r="D64" t="n">
-        <v>0.265385</v>
+        <v>0.266095</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264357</v>
+        <v>0.264498</v>
       </c>
       <c r="C65" t="n">
-        <v>0.226288</v>
+        <v>0.220624</v>
       </c>
       <c r="D65" t="n">
-        <v>0.265003</v>
+        <v>0.265595</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264635</v>
+        <v>0.264856</v>
       </c>
       <c r="C66" t="n">
-        <v>0.227291</v>
+        <v>0.221685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.381644</v>
+        <v>0.377122</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395948</v>
+        <v>0.386532</v>
       </c>
       <c r="C67" t="n">
-        <v>0.345591</v>
+        <v>0.333256</v>
       </c>
       <c r="D67" t="n">
-        <v>0.370133</v>
+        <v>0.366371</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388349</v>
+        <v>0.378811</v>
       </c>
       <c r="C68" t="n">
-        <v>0.335864</v>
+        <v>0.322617</v>
       </c>
       <c r="D68" t="n">
-        <v>0.360373</v>
+        <v>0.356079</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.381471</v>
+        <v>0.371356</v>
       </c>
       <c r="C69" t="n">
-        <v>0.326032</v>
+        <v>0.312483</v>
       </c>
       <c r="D69" t="n">
-        <v>0.350966</v>
+        <v>0.346734</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.375142</v>
+        <v>0.364403</v>
       </c>
       <c r="C70" t="n">
-        <v>0.316219</v>
+        <v>0.302983</v>
       </c>
       <c r="D70" t="n">
-        <v>0.341619</v>
+        <v>0.337333</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.369019</v>
+        <v>0.358068</v>
       </c>
       <c r="C71" t="n">
-        <v>0.307564</v>
+        <v>0.29388</v>
       </c>
       <c r="D71" t="n">
-        <v>0.332704</v>
+        <v>0.328382</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363102</v>
+        <v>0.35215</v>
       </c>
       <c r="C72" t="n">
-        <v>0.298837</v>
+        <v>0.285435</v>
       </c>
       <c r="D72" t="n">
-        <v>0.324231</v>
+        <v>0.320186</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.357117</v>
+        <v>0.346235</v>
       </c>
       <c r="C73" t="n">
-        <v>0.290586</v>
+        <v>0.277526</v>
       </c>
       <c r="D73" t="n">
-        <v>0.315917</v>
+        <v>0.312004</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351441</v>
+        <v>0.340159</v>
       </c>
       <c r="C74" t="n">
-        <v>0.283178</v>
+        <v>0.270039</v>
       </c>
       <c r="D74" t="n">
-        <v>0.30864</v>
+        <v>0.304813</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.345544</v>
+        <v>0.334506</v>
       </c>
       <c r="C75" t="n">
-        <v>0.276155</v>
+        <v>0.263145</v>
       </c>
       <c r="D75" t="n">
-        <v>0.301736</v>
+        <v>0.297834</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.339842</v>
+        <v>0.329294</v>
       </c>
       <c r="C76" t="n">
-        <v>0.27002</v>
+        <v>0.257058</v>
       </c>
       <c r="D76" t="n">
-        <v>0.29594</v>
+        <v>0.292312</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.334963</v>
+        <v>0.324284</v>
       </c>
       <c r="C77" t="n">
-        <v>0.264474</v>
+        <v>0.251755</v>
       </c>
       <c r="D77" t="n">
-        <v>0.29092</v>
+        <v>0.286911</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.33008</v>
+        <v>0.32019</v>
       </c>
       <c r="C78" t="n">
-        <v>0.260372</v>
+        <v>0.247738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.287165</v>
+        <v>0.283133</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.326259</v>
+        <v>0.316795</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258027</v>
+        <v>0.245553</v>
       </c>
       <c r="D79" t="n">
-        <v>0.285785</v>
+        <v>0.282245</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324264</v>
+        <v>0.315424</v>
       </c>
       <c r="C80" t="n">
-        <v>0.257617</v>
+        <v>0.245337</v>
       </c>
       <c r="D80" t="n">
-        <v>0.452094</v>
+        <v>0.427087</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.568379</v>
+        <v>0.550906</v>
       </c>
       <c r="C81" t="n">
-        <v>0.429252</v>
+        <v>0.392591</v>
       </c>
       <c r="D81" t="n">
-        <v>0.444717</v>
+        <v>0.420401</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.561994</v>
+        <v>0.543509</v>
       </c>
       <c r="C82" t="n">
-        <v>0.422335</v>
+        <v>0.386217</v>
       </c>
       <c r="D82" t="n">
-        <v>0.439444</v>
+        <v>0.415571</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5528380000000001</v>
+        <v>0.534183</v>
       </c>
       <c r="C83" t="n">
-        <v>0.411787</v>
+        <v>0.376568</v>
       </c>
       <c r="D83" t="n">
-        <v>0.430844</v>
+        <v>0.409611</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544198</v>
+        <v>0.524489</v>
       </c>
       <c r="C84" t="n">
-        <v>0.398986</v>
+        <v>0.364168</v>
       </c>
       <c r="D84" t="n">
-        <v>0.424516</v>
+        <v>0.400852</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.535017</v>
+        <v>0.514333</v>
       </c>
       <c r="C85" t="n">
-        <v>0.387494</v>
+        <v>0.354967</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417533</v>
+        <v>0.395343</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.525181</v>
+        <v>0.505027</v>
       </c>
       <c r="C86" t="n">
-        <v>0.376506</v>
+        <v>0.344344</v>
       </c>
       <c r="D86" t="n">
-        <v>0.409557</v>
+        <v>0.386096</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5160090000000001</v>
+        <v>0.495851</v>
       </c>
       <c r="C87" t="n">
-        <v>0.366623</v>
+        <v>0.333308</v>
       </c>
       <c r="D87" t="n">
-        <v>0.401247</v>
+        <v>0.378489</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.506981</v>
+        <v>0.48653</v>
       </c>
       <c r="C88" t="n">
-        <v>0.357682</v>
+        <v>0.325482</v>
       </c>
       <c r="D88" t="n">
-        <v>0.396343</v>
+        <v>0.372667</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.498212</v>
+        <v>0.477803</v>
       </c>
       <c r="C89" t="n">
-        <v>0.348223</v>
+        <v>0.318455</v>
       </c>
       <c r="D89" t="n">
-        <v>0.388394</v>
+        <v>0.368344</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.489879</v>
+        <v>0.468632</v>
       </c>
       <c r="C90" t="n">
-        <v>0.340587</v>
+        <v>0.311786</v>
       </c>
       <c r="D90" t="n">
-        <v>0.384353</v>
+        <v>0.362079</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.481505</v>
+        <v>0.460718</v>
       </c>
       <c r="C91" t="n">
-        <v>0.334912</v>
+        <v>0.304422</v>
       </c>
       <c r="D91" t="n">
-        <v>0.381677</v>
+        <v>0.357009</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.473783</v>
+        <v>0.452634</v>
       </c>
       <c r="C92" t="n">
-        <v>0.327375</v>
+        <v>0.298798</v>
       </c>
       <c r="D92" t="n">
-        <v>0.374621</v>
+        <v>0.352761</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.467109</v>
+        <v>0.446264</v>
       </c>
       <c r="C93" t="n">
-        <v>0.322277</v>
+        <v>0.293314</v>
       </c>
       <c r="D93" t="n">
-        <v>0.373487</v>
+        <v>0.350296</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.461884</v>
+        <v>0.441274</v>
       </c>
       <c r="C94" t="n">
-        <v>0.319867</v>
+        <v>0.292608</v>
       </c>
       <c r="D94" t="n">
-        <v>0.687199</v>
+        <v>0.639566</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593005</v>
+        <v>0.566715</v>
       </c>
       <c r="C95" t="n">
-        <v>0.556816</v>
+        <v>0.518124</v>
       </c>
       <c r="D95" t="n">
-        <v>0.677899</v>
+        <v>0.629051</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.592408</v>
+        <v>0.565248</v>
       </c>
       <c r="C96" t="n">
-        <v>0.549915</v>
+        <v>0.508351</v>
       </c>
       <c r="D96" t="n">
-        <v>0.665743</v>
+        <v>0.617926</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.583492</v>
+        <v>0.556732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.536386</v>
+        <v>0.495534</v>
       </c>
       <c r="D97" t="n">
-        <v>0.65213</v>
+        <v>0.60645</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.576002</v>
+        <v>0.548221</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5209859999999999</v>
+        <v>0.481903</v>
       </c>
       <c r="D98" t="n">
-        <v>0.640099</v>
+        <v>0.594838</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.56655</v>
+        <v>0.540092</v>
       </c>
       <c r="C99" t="n">
-        <v>0.506857</v>
+        <v>0.466212</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6279169999999999</v>
+        <v>0.585103</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.560007</v>
+        <v>0.53209</v>
       </c>
       <c r="C100" t="n">
-        <v>0.495194</v>
+        <v>0.455522</v>
       </c>
       <c r="D100" t="n">
-        <v>0.61818</v>
+        <v>0.574808</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.551881</v>
+        <v>0.525736</v>
       </c>
       <c r="C101" t="n">
-        <v>0.483239</v>
+        <v>0.443945</v>
       </c>
       <c r="D101" t="n">
-        <v>0.609246</v>
+        <v>0.565518</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.54511</v>
+        <v>0.516852</v>
       </c>
       <c r="C102" t="n">
-        <v>0.471662</v>
+        <v>0.434755</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6002420000000001</v>
+        <v>0.556851</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.538178</v>
+        <v>0.510512</v>
       </c>
       <c r="C103" t="n">
-        <v>0.46142</v>
+        <v>0.425571</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5917750000000001</v>
+        <v>0.549102</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.532232</v>
+        <v>0.5052140000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.451933</v>
+        <v>0.419409</v>
       </c>
       <c r="D104" t="n">
-        <v>0.583876</v>
+        <v>0.542061</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.527213</v>
+        <v>0.49929</v>
       </c>
       <c r="C105" t="n">
-        <v>0.444323</v>
+        <v>0.410834</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5761810000000001</v>
+        <v>0.535589</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.521548</v>
+        <v>0.494568</v>
       </c>
       <c r="C106" t="n">
-        <v>0.437094</v>
+        <v>0.404367</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5704939999999999</v>
+        <v>0.52989</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51744</v>
+        <v>0.490018</v>
       </c>
       <c r="C107" t="n">
-        <v>0.430175</v>
+        <v>0.397932</v>
       </c>
       <c r="D107" t="n">
-        <v>0.565048</v>
+        <v>0.52643</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.513907</v>
+        <v>0.486913</v>
       </c>
       <c r="C108" t="n">
-        <v>0.425674</v>
+        <v>0.395246</v>
       </c>
       <c r="D108" t="n">
-        <v>0.804091</v>
+        <v>0.7403110000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.512803</v>
+        <v>0.486083</v>
       </c>
       <c r="C109" t="n">
-        <v>0.424599</v>
+        <v>0.393425</v>
       </c>
       <c r="D109" t="n">
-        <v>0.790416</v>
+        <v>0.72744</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.712828</v>
+        <v>0.681745</v>
       </c>
       <c r="C110" t="n">
-        <v>0.639334</v>
+        <v>0.615024</v>
       </c>
       <c r="D110" t="n">
-        <v>0.776865</v>
+        <v>0.714329</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7033160000000001</v>
+        <v>0.670645</v>
       </c>
       <c r="C111" t="n">
-        <v>0.628162</v>
+        <v>0.60166</v>
       </c>
       <c r="D111" t="n">
-        <v>0.763799</v>
+        <v>0.701134</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6928879999999999</v>
+        <v>0.66101</v>
       </c>
       <c r="C112" t="n">
-        <v>0.617858</v>
+        <v>0.588496</v>
       </c>
       <c r="D112" t="n">
-        <v>0.752434</v>
+        <v>0.690237</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6821390000000001</v>
+        <v>0.649402</v>
       </c>
       <c r="C113" t="n">
-        <v>0.608108</v>
+        <v>0.575065</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740025</v>
+        <v>0.679713</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.67176</v>
+        <v>0.640746</v>
       </c>
       <c r="C114" t="n">
-        <v>0.598014</v>
+        <v>0.562389</v>
       </c>
       <c r="D114" t="n">
-        <v>0.729746</v>
+        <v>0.668851</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.662677</v>
+        <v>0.631311</v>
       </c>
       <c r="C115" t="n">
-        <v>0.588832</v>
+        <v>0.553453</v>
       </c>
       <c r="D115" t="n">
-        <v>0.719642</v>
+        <v>0.659925</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.653954</v>
+        <v>0.622468</v>
       </c>
       <c r="C116" t="n">
-        <v>0.580612</v>
+        <v>0.542467</v>
       </c>
       <c r="D116" t="n">
-        <v>0.709944</v>
+        <v>0.651513</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.645831</v>
+        <v>0.613334</v>
       </c>
       <c r="C117" t="n">
-        <v>0.575377</v>
+        <v>0.533487</v>
       </c>
       <c r="D117" t="n">
-        <v>0.70164</v>
+        <v>0.642534</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6375</v>
+        <v>0.6063269999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.56832</v>
+        <v>0.524944</v>
       </c>
       <c r="D118" t="n">
-        <v>0.692954</v>
+        <v>0.63451</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.630258</v>
+        <v>0.599281</v>
       </c>
       <c r="C119" t="n">
-        <v>0.560318</v>
+        <v>0.518122</v>
       </c>
       <c r="D119" t="n">
-        <v>0.686548</v>
+        <v>0.628097</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.623954</v>
+        <v>0.592778</v>
       </c>
       <c r="C120" t="n">
-        <v>0.554996</v>
+        <v>0.511111</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6816680000000001</v>
+        <v>0.622431</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.618138</v>
+        <v>0.586715</v>
       </c>
       <c r="C121" t="n">
-        <v>0.549632</v>
+        <v>0.506702</v>
       </c>
       <c r="D121" t="n">
-        <v>0.676544</v>
+        <v>0.616779</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613559</v>
+        <v>0.58212</v>
       </c>
       <c r="C122" t="n">
-        <v>0.545956</v>
+        <v>0.502459</v>
       </c>
       <c r="D122" t="n">
-        <v>0.672686</v>
+        <v>0.612885</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.610542</v>
+        <v>0.578962</v>
       </c>
       <c r="C123" t="n">
-        <v>0.544739</v>
+        <v>0.501117</v>
       </c>
       <c r="D123" t="n">
-        <v>0.902542</v>
+        <v>0.827227</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.81074</v>
+        <v>0.769774</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7607969999999999</v>
+        <v>0.7224930000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.891875</v>
+        <v>0.8125599999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.802213</v>
+        <v>0.761884</v>
       </c>
       <c r="C125" t="n">
-        <v>0.746426</v>
+        <v>0.702893</v>
       </c>
       <c r="D125" t="n">
-        <v>0.867283</v>
+        <v>0.79761</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.794286</v>
+        <v>0.753153</v>
       </c>
       <c r="C126" t="n">
-        <v>0.733708</v>
+        <v>0.687997</v>
       </c>
       <c r="D126" t="n">
-        <v>0.86064</v>
+        <v>0.782619</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.787252</v>
+        <v>0.745068</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7199989999999999</v>
+        <v>0.67253</v>
       </c>
       <c r="D127" t="n">
-        <v>0.844542</v>
+        <v>0.770018</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.779911</v>
+        <v>0.737248</v>
       </c>
       <c r="C128" t="n">
-        <v>0.709022</v>
+        <v>0.659849</v>
       </c>
       <c r="D128" t="n">
-        <v>0.833142</v>
+        <v>0.755729</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.773122</v>
+        <v>0.731059</v>
       </c>
       <c r="C129" t="n">
-        <v>0.698044</v>
+        <v>0.647473</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8218299999999999</v>
+        <v>0.744072</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.767052</v>
+        <v>0.724753</v>
       </c>
       <c r="C130" t="n">
-        <v>0.687531</v>
+        <v>0.63597</v>
       </c>
       <c r="D130" t="n">
-        <v>0.802405</v>
+        <v>0.735325</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.76144</v>
+        <v>0.718191</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6792820000000001</v>
+        <v>0.626655</v>
       </c>
       <c r="D131" t="n">
-        <v>0.811071</v>
+        <v>0.726104</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.754928</v>
+        <v>0.713044</v>
       </c>
       <c r="C132" t="n">
-        <v>0.671757</v>
+        <v>0.6168090000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7923</v>
+        <v>0.717865</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.750232</v>
+        <v>0.70683</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6662979999999999</v>
+        <v>0.607386</v>
       </c>
       <c r="D133" t="n">
-        <v>0.777575</v>
+        <v>0.70932</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.745121</v>
+        <v>0.702624</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6579390000000001</v>
+        <v>0.600523</v>
       </c>
       <c r="D134" t="n">
-        <v>0.781945</v>
+        <v>0.704555</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.741348</v>
+        <v>0.6987370000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6521169999999999</v>
+        <v>0.594897</v>
       </c>
       <c r="D135" t="n">
-        <v>0.769655</v>
+        <v>0.701395</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.738103</v>
+        <v>0.695338</v>
       </c>
       <c r="C136" t="n">
-        <v>0.651214</v>
+        <v>0.590997</v>
       </c>
       <c r="D136" t="n">
-        <v>0.78261</v>
+        <v>0.700673</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.734246</v>
+        <v>0.692289</v>
       </c>
       <c r="C137" t="n">
-        <v>0.650447</v>
+        <v>0.5902500000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.996797</v>
+        <v>0.911872</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.921884</v>
+        <v>0.877775</v>
       </c>
       <c r="C138" t="n">
-        <v>0.881023</v>
+        <v>0.809765</v>
       </c>
       <c r="D138" t="n">
-        <v>0.976778</v>
+        <v>0.893612</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.91515</v>
+        <v>0.871165</v>
       </c>
       <c r="C139" t="n">
-        <v>0.857603</v>
+        <v>0.791309</v>
       </c>
       <c r="D139" t="n">
-        <v>0.963372</v>
+        <v>0.875418</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.91024</v>
+        <v>0.8655929999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.84237</v>
+        <v>0.772739</v>
       </c>
       <c r="D140" t="n">
-        <v>0.942056</v>
+        <v>0.8595930000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.904627</v>
+        <v>0.8594039999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828874</v>
+        <v>0.755682</v>
       </c>
       <c r="D141" t="n">
-        <v>0.936625</v>
+        <v>0.8436</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.900154</v>
+        <v>0.853679</v>
       </c>
       <c r="C142" t="n">
-        <v>0.819798</v>
+        <v>0.740204</v>
       </c>
       <c r="D142" t="n">
-        <v>0.918749</v>
+        <v>0.827672</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.894914</v>
+        <v>0.848374</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8069730000000001</v>
+        <v>0.7246010000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.909223</v>
+        <v>0.815269</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252157</v>
+        <v>0.251913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214836</v>
+        <v>0.200254</v>
       </c>
       <c r="D2" t="n">
-        <v>0.264092</v>
+        <v>0.200983</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246254</v>
+        <v>0.24625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209878</v>
+        <v>0.195538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.257965</v>
+        <v>0.194673</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241109</v>
+        <v>0.240578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203117</v>
+        <v>0.19047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251707</v>
+        <v>0.189558</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235937</v>
+        <v>0.236126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196429</v>
+        <v>0.187386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247103</v>
+        <v>0.186197</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231873</v>
+        <v>0.231993</v>
       </c>
       <c r="C6" t="n">
-        <v>0.191935</v>
+        <v>0.183527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242331</v>
+        <v>0.182988</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22912</v>
+        <v>0.228915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.189336</v>
+        <v>0.180654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.239288</v>
+        <v>0.182042</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227485</v>
+        <v>0.227426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187862</v>
+        <v>0.179718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238663</v>
+        <v>0.181754</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228022</v>
+        <v>0.228195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189256</v>
+        <v>0.181832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.337</v>
+        <v>0.276478</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31472</v>
+        <v>0.314924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.277744</v>
+        <v>0.268265</v>
       </c>
       <c r="D10" t="n">
-        <v>0.326594</v>
+        <v>0.267114</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.304666</v>
+        <v>0.305284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.268391</v>
+        <v>0.259025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316758</v>
+        <v>0.257995</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297027</v>
+        <v>0.29655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.258852</v>
+        <v>0.250505</v>
       </c>
       <c r="D12" t="n">
-        <v>0.308376</v>
+        <v>0.248756</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287911</v>
+        <v>0.288025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.25022</v>
+        <v>0.241749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.299579</v>
+        <v>0.240306</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280311</v>
+        <v>0.280313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.242024</v>
+        <v>0.234091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.291389</v>
+        <v>0.233301</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272737</v>
+        <v>0.272948</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234079</v>
+        <v>0.226596</v>
       </c>
       <c r="D15" t="n">
-        <v>0.283738</v>
+        <v>0.225706</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.265766</v>
+        <v>0.266209</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226821</v>
+        <v>0.21974</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275561</v>
+        <v>0.219076</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259329</v>
+        <v>0.259786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.220335</v>
+        <v>0.213646</v>
       </c>
       <c r="D17" t="n">
-        <v>0.269402</v>
+        <v>0.213366</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253386</v>
+        <v>0.253586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21433</v>
+        <v>0.208369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.263504</v>
+        <v>0.208306</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248345</v>
+        <v>0.248493</v>
       </c>
       <c r="C19" t="n">
-        <v>0.209299</v>
+        <v>0.203635</v>
       </c>
       <c r="D19" t="n">
-        <v>0.258213</v>
+        <v>0.204105</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24393</v>
+        <v>0.244014</v>
       </c>
       <c r="C20" t="n">
-        <v>0.204727</v>
+        <v>0.199537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.253206</v>
+        <v>0.200649</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240082</v>
+        <v>0.240109</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201949</v>
+        <v>0.196503</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249629</v>
+        <v>0.199461</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237243</v>
+        <v>0.237771</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200325</v>
+        <v>0.194733</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249345</v>
+        <v>0.199604</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.236353</v>
+        <v>0.237281</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201307</v>
+        <v>0.195574</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347866</v>
+        <v>0.292354</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323147</v>
+        <v>0.323301</v>
       </c>
       <c r="C24" t="n">
-        <v>0.289655</v>
+        <v>0.280982</v>
       </c>
       <c r="D24" t="n">
-        <v>0.33737</v>
+        <v>0.281758</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.313658</v>
+        <v>0.314363</v>
       </c>
       <c r="C25" t="n">
-        <v>0.279926</v>
+        <v>0.271877</v>
       </c>
       <c r="D25" t="n">
-        <v>0.327267</v>
+        <v>0.271975</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.304832</v>
+        <v>0.305529</v>
       </c>
       <c r="C26" t="n">
-        <v>0.270389</v>
+        <v>0.262616</v>
       </c>
       <c r="D26" t="n">
-        <v>0.317873</v>
+        <v>0.263153</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296347</v>
+        <v>0.296355</v>
       </c>
       <c r="C27" t="n">
-        <v>0.261543</v>
+        <v>0.253968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.308857</v>
+        <v>0.254525</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288469</v>
+        <v>0.288366</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253719</v>
+        <v>0.245215</v>
       </c>
       <c r="D28" t="n">
-        <v>0.300446</v>
+        <v>0.24619</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281601</v>
+        <v>0.280928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245217</v>
+        <v>0.238123</v>
       </c>
       <c r="D29" t="n">
-        <v>0.292514</v>
+        <v>0.23869</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274025</v>
+        <v>0.274604</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237713</v>
+        <v>0.23048</v>
       </c>
       <c r="D30" t="n">
-        <v>0.284845</v>
+        <v>0.231391</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267519</v>
+        <v>0.267195</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231198</v>
+        <v>0.224136</v>
       </c>
       <c r="D31" t="n">
-        <v>0.277779</v>
+        <v>0.224801</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261297</v>
+        <v>0.261744</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224568</v>
+        <v>0.21802</v>
       </c>
       <c r="D32" t="n">
-        <v>0.271032</v>
+        <v>0.218837</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255964</v>
+        <v>0.255775</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218661</v>
+        <v>0.212564</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265136</v>
+        <v>0.213773</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.250921</v>
+        <v>0.251214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213702</v>
+        <v>0.207799</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25999</v>
+        <v>0.209622</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.246924</v>
+        <v>0.24663</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209819</v>
+        <v>0.203654</v>
       </c>
       <c r="D35" t="n">
-        <v>0.256037</v>
+        <v>0.206924</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2437</v>
+        <v>0.243985</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207205</v>
+        <v>0.201512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254044</v>
+        <v>0.205848</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243116</v>
+        <v>0.242231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206493</v>
+        <v>0.201191</v>
       </c>
       <c r="D37" t="n">
-        <v>0.355448</v>
+        <v>0.301384</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325707</v>
+        <v>0.325736</v>
       </c>
       <c r="C38" t="n">
-        <v>0.299198</v>
+        <v>0.289014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.344731</v>
+        <v>0.291245</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.316657</v>
+        <v>0.316647</v>
       </c>
       <c r="C39" t="n">
-        <v>0.28934</v>
+        <v>0.279623</v>
       </c>
       <c r="D39" t="n">
-        <v>0.33454</v>
+        <v>0.281251</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308153</v>
+        <v>0.308064</v>
       </c>
       <c r="C40" t="n">
-        <v>0.279801</v>
+        <v>0.270774</v>
       </c>
       <c r="D40" t="n">
-        <v>0.324892</v>
+        <v>0.271812</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.299957</v>
+        <v>0.300347</v>
       </c>
       <c r="C41" t="n">
-        <v>0.270851</v>
+        <v>0.262088</v>
       </c>
       <c r="D41" t="n">
-        <v>0.315704</v>
+        <v>0.263006</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292273</v>
+        <v>0.292776</v>
       </c>
       <c r="C42" t="n">
-        <v>0.262325</v>
+        <v>0.254033</v>
       </c>
       <c r="D42" t="n">
-        <v>0.306756</v>
+        <v>0.254377</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285275</v>
+        <v>0.285253</v>
       </c>
       <c r="C43" t="n">
-        <v>0.253851</v>
+        <v>0.245752</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298797</v>
+        <v>0.247209</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.278168</v>
+        <v>0.2787</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246453</v>
+        <v>0.238593</v>
       </c>
       <c r="D44" t="n">
-        <v>0.290965</v>
+        <v>0.239304</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.271767</v>
+        <v>0.272005</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239549</v>
+        <v>0.232094</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283821</v>
+        <v>0.233197</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.265971</v>
+        <v>0.266326</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233031</v>
+        <v>0.226128</v>
       </c>
       <c r="D46" t="n">
-        <v>0.277172</v>
+        <v>0.226974</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260693</v>
+        <v>0.260882</v>
       </c>
       <c r="C47" t="n">
-        <v>0.226939</v>
+        <v>0.220798</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27133</v>
+        <v>0.222275</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.255696</v>
+        <v>0.256117</v>
       </c>
       <c r="C48" t="n">
-        <v>0.221881</v>
+        <v>0.216098</v>
       </c>
       <c r="D48" t="n">
-        <v>0.266089</v>
+        <v>0.217561</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251721</v>
+        <v>0.252653</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217707</v>
+        <v>0.212223</v>
       </c>
       <c r="D49" t="n">
-        <v>0.262105</v>
+        <v>0.214639</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248673</v>
+        <v>0.249203</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214514</v>
+        <v>0.209239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259416</v>
+        <v>0.213753</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.246908</v>
+        <v>0.247251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213304</v>
+        <v>0.2082</v>
       </c>
       <c r="D51" t="n">
-        <v>0.363659</v>
+        <v>0.312483</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.247866</v>
+        <v>0.248825</v>
       </c>
       <c r="C52" t="n">
-        <v>0.214801</v>
+        <v>0.209541</v>
       </c>
       <c r="D52" t="n">
-        <v>0.352235</v>
+        <v>0.301943</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331907</v>
+        <v>0.331186</v>
       </c>
       <c r="C53" t="n">
-        <v>0.298836</v>
+        <v>0.290294</v>
       </c>
       <c r="D53" t="n">
-        <v>0.342094</v>
+        <v>0.292272</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.323611</v>
+        <v>0.322835</v>
       </c>
       <c r="C54" t="n">
-        <v>0.289429</v>
+        <v>0.28123</v>
       </c>
       <c r="D54" t="n">
-        <v>0.332279</v>
+        <v>0.283082</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.315776</v>
+        <v>0.314921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.280391</v>
+        <v>0.272555</v>
       </c>
       <c r="D55" t="n">
-        <v>0.32368</v>
+        <v>0.273883</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.308421</v>
+        <v>0.307511</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271703</v>
+        <v>0.264117</v>
       </c>
       <c r="D56" t="n">
-        <v>0.314823</v>
+        <v>0.265781</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.301361</v>
+        <v>0.30044</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263587</v>
+        <v>0.256603</v>
       </c>
       <c r="D57" t="n">
-        <v>0.306622</v>
+        <v>0.257536</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294724</v>
+        <v>0.294031</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255848</v>
+        <v>0.249335</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298731</v>
+        <v>0.250533</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288643</v>
+        <v>0.287865</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248688</v>
+        <v>0.242157</v>
       </c>
       <c r="D59" t="n">
-        <v>0.291222</v>
+        <v>0.243609</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282914</v>
+        <v>0.282215</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241975</v>
+        <v>0.235994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.284669</v>
+        <v>0.237894</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277393</v>
+        <v>0.277354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.235981</v>
+        <v>0.230501</v>
       </c>
       <c r="D61" t="n">
-        <v>0.278564</v>
+        <v>0.23287</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272779</v>
+        <v>0.272114</v>
       </c>
       <c r="C62" t="n">
-        <v>0.230566</v>
+        <v>0.225373</v>
       </c>
       <c r="D62" t="n">
-        <v>0.273247</v>
+        <v>0.228455</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269732</v>
+        <v>0.268558</v>
       </c>
       <c r="C63" t="n">
-        <v>0.225941</v>
+        <v>0.221184</v>
       </c>
       <c r="D63" t="n">
-        <v>0.268857</v>
+        <v>0.225051</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266021</v>
+        <v>0.265662</v>
       </c>
       <c r="C64" t="n">
-        <v>0.222574</v>
+        <v>0.218078</v>
       </c>
       <c r="D64" t="n">
-        <v>0.266095</v>
+        <v>0.223214</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264498</v>
+        <v>0.264085</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220624</v>
+        <v>0.216132</v>
       </c>
       <c r="D65" t="n">
-        <v>0.265595</v>
+        <v>0.223778</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264856</v>
+        <v>0.264379</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221685</v>
+        <v>0.217529</v>
       </c>
       <c r="D66" t="n">
-        <v>0.377122</v>
+        <v>0.334166</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.386532</v>
+        <v>0.387496</v>
       </c>
       <c r="C67" t="n">
-        <v>0.333256</v>
+        <v>0.325351</v>
       </c>
       <c r="D67" t="n">
-        <v>0.366371</v>
+        <v>0.323123</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.378811</v>
+        <v>0.379725</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322617</v>
+        <v>0.315707</v>
       </c>
       <c r="D68" t="n">
-        <v>0.356079</v>
+        <v>0.313002</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.371356</v>
+        <v>0.372375</v>
       </c>
       <c r="C69" t="n">
-        <v>0.312483</v>
+        <v>0.306493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.346734</v>
+        <v>0.303823</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364403</v>
+        <v>0.365182</v>
       </c>
       <c r="C70" t="n">
-        <v>0.302983</v>
+        <v>0.297391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.337333</v>
+        <v>0.294881</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358068</v>
+        <v>0.358792</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29388</v>
+        <v>0.289275</v>
       </c>
       <c r="D71" t="n">
-        <v>0.328382</v>
+        <v>0.286694</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35215</v>
+        <v>0.352578</v>
       </c>
       <c r="C72" t="n">
-        <v>0.285435</v>
+        <v>0.281361</v>
       </c>
       <c r="D72" t="n">
-        <v>0.320186</v>
+        <v>0.278645</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346235</v>
+        <v>0.346368</v>
       </c>
       <c r="C73" t="n">
-        <v>0.277526</v>
+        <v>0.273912</v>
       </c>
       <c r="D73" t="n">
-        <v>0.312004</v>
+        <v>0.271419</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.340159</v>
+        <v>0.340341</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270039</v>
+        <v>0.267073</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304813</v>
+        <v>0.264966</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.334506</v>
+        <v>0.334292</v>
       </c>
       <c r="C75" t="n">
-        <v>0.263145</v>
+        <v>0.260884</v>
       </c>
       <c r="D75" t="n">
-        <v>0.297834</v>
+        <v>0.25892</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329294</v>
+        <v>0.329127</v>
       </c>
       <c r="C76" t="n">
-        <v>0.257058</v>
+        <v>0.254947</v>
       </c>
       <c r="D76" t="n">
-        <v>0.292312</v>
+        <v>0.253629</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324284</v>
+        <v>0.32384</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251755</v>
+        <v>0.250072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.286911</v>
+        <v>0.249527</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.32019</v>
+        <v>0.319528</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247738</v>
+        <v>0.246222</v>
       </c>
       <c r="D78" t="n">
-        <v>0.283133</v>
+        <v>0.247048</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.316795</v>
+        <v>0.316334</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245553</v>
+        <v>0.244241</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282245</v>
+        <v>0.246649</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315424</v>
+        <v>0.314819</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245337</v>
+        <v>0.243221</v>
       </c>
       <c r="D80" t="n">
-        <v>0.427087</v>
+        <v>0.388962</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.550906</v>
+        <v>0.552515</v>
       </c>
       <c r="C81" t="n">
-        <v>0.392591</v>
+        <v>0.390557</v>
       </c>
       <c r="D81" t="n">
-        <v>0.420401</v>
+        <v>0.380835</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.543509</v>
+        <v>0.544597</v>
       </c>
       <c r="C82" t="n">
-        <v>0.386217</v>
+        <v>0.381799</v>
       </c>
       <c r="D82" t="n">
-        <v>0.415571</v>
+        <v>0.37101</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534183</v>
+        <v>0.534597</v>
       </c>
       <c r="C83" t="n">
-        <v>0.376568</v>
+        <v>0.373822</v>
       </c>
       <c r="D83" t="n">
-        <v>0.409611</v>
+        <v>0.361824</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.524489</v>
+        <v>0.525183</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364168</v>
+        <v>0.362704</v>
       </c>
       <c r="D84" t="n">
-        <v>0.400852</v>
+        <v>0.350945</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.514333</v>
+        <v>0.515312</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354967</v>
+        <v>0.353878</v>
       </c>
       <c r="D85" t="n">
-        <v>0.395343</v>
+        <v>0.343503</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.505027</v>
+        <v>0.505697</v>
       </c>
       <c r="C86" t="n">
-        <v>0.344344</v>
+        <v>0.344769</v>
       </c>
       <c r="D86" t="n">
-        <v>0.386096</v>
+        <v>0.33373</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.495851</v>
+        <v>0.496235</v>
       </c>
       <c r="C87" t="n">
-        <v>0.333308</v>
+        <v>0.335422</v>
       </c>
       <c r="D87" t="n">
-        <v>0.378489</v>
+        <v>0.325214</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.48653</v>
+        <v>0.487067</v>
       </c>
       <c r="C88" t="n">
-        <v>0.325482</v>
+        <v>0.328246</v>
       </c>
       <c r="D88" t="n">
-        <v>0.372667</v>
+        <v>0.319404</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.477803</v>
+        <v>0.47796</v>
       </c>
       <c r="C89" t="n">
-        <v>0.318455</v>
+        <v>0.320109</v>
       </c>
       <c r="D89" t="n">
-        <v>0.368344</v>
+        <v>0.311745</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.468632</v>
+        <v>0.469254</v>
       </c>
       <c r="C90" t="n">
-        <v>0.311786</v>
+        <v>0.313288</v>
       </c>
       <c r="D90" t="n">
-        <v>0.362079</v>
+        <v>0.305195</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.460718</v>
+        <v>0.46095</v>
       </c>
       <c r="C91" t="n">
-        <v>0.304422</v>
+        <v>0.307471</v>
       </c>
       <c r="D91" t="n">
-        <v>0.357009</v>
+        <v>0.299356</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.452634</v>
+        <v>0.453315</v>
       </c>
       <c r="C92" t="n">
-        <v>0.298798</v>
+        <v>0.302052</v>
       </c>
       <c r="D92" t="n">
-        <v>0.352761</v>
+        <v>0.295117</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.446264</v>
+        <v>0.447348</v>
       </c>
       <c r="C93" t="n">
-        <v>0.293314</v>
+        <v>0.297976</v>
       </c>
       <c r="D93" t="n">
-        <v>0.350296</v>
+        <v>0.292769</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.441274</v>
+        <v>0.441947</v>
       </c>
       <c r="C94" t="n">
-        <v>0.292608</v>
+        <v>0.296829</v>
       </c>
       <c r="D94" t="n">
-        <v>0.639566</v>
+        <v>0.568766</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.566715</v>
+        <v>0.5651389999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.518124</v>
+        <v>0.516359</v>
       </c>
       <c r="D95" t="n">
-        <v>0.629051</v>
+        <v>0.555985</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.565248</v>
+        <v>0.563885</v>
       </c>
       <c r="C96" t="n">
-        <v>0.508351</v>
+        <v>0.508148</v>
       </c>
       <c r="D96" t="n">
-        <v>0.617926</v>
+        <v>0.540489</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.556732</v>
+        <v>0.55696</v>
       </c>
       <c r="C97" t="n">
-        <v>0.495534</v>
+        <v>0.496034</v>
       </c>
       <c r="D97" t="n">
-        <v>0.60645</v>
+        <v>0.5240860000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.548221</v>
+        <v>0.54822</v>
       </c>
       <c r="C98" t="n">
-        <v>0.481903</v>
+        <v>0.482168</v>
       </c>
       <c r="D98" t="n">
-        <v>0.594838</v>
+        <v>0.508729</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.540092</v>
+        <v>0.53825</v>
       </c>
       <c r="C99" t="n">
-        <v>0.466212</v>
+        <v>0.468311</v>
       </c>
       <c r="D99" t="n">
-        <v>0.585103</v>
+        <v>0.49377</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.53209</v>
+        <v>0.532175</v>
       </c>
       <c r="C100" t="n">
-        <v>0.455522</v>
+        <v>0.455843</v>
       </c>
       <c r="D100" t="n">
-        <v>0.574808</v>
+        <v>0.479594</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.525736</v>
+        <v>0.524263</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443945</v>
+        <v>0.44384</v>
       </c>
       <c r="D101" t="n">
-        <v>0.565518</v>
+        <v>0.466223</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.516852</v>
+        <v>0.516392</v>
       </c>
       <c r="C102" t="n">
-        <v>0.434755</v>
+        <v>0.432525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.556851</v>
+        <v>0.453923</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.510512</v>
+        <v>0.509949</v>
       </c>
       <c r="C103" t="n">
-        <v>0.425571</v>
+        <v>0.421848</v>
       </c>
       <c r="D103" t="n">
-        <v>0.549102</v>
+        <v>0.442274</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5052140000000001</v>
+        <v>0.503607</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419409</v>
+        <v>0.412555</v>
       </c>
       <c r="D104" t="n">
-        <v>0.542061</v>
+        <v>0.431546</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.49929</v>
+        <v>0.497743</v>
       </c>
       <c r="C105" t="n">
-        <v>0.410834</v>
+        <v>0.404407</v>
       </c>
       <c r="D105" t="n">
-        <v>0.535589</v>
+        <v>0.421996</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.494568</v>
+        <v>0.491788</v>
       </c>
       <c r="C106" t="n">
-        <v>0.404367</v>
+        <v>0.396231</v>
       </c>
       <c r="D106" t="n">
-        <v>0.52989</v>
+        <v>0.414335</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.490018</v>
+        <v>0.488237</v>
       </c>
       <c r="C107" t="n">
-        <v>0.397932</v>
+        <v>0.390321</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52643</v>
+        <v>0.407538</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.486913</v>
+        <v>0.485421</v>
       </c>
       <c r="C108" t="n">
-        <v>0.395246</v>
+        <v>0.386134</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7403110000000001</v>
+        <v>0.613066</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486083</v>
+        <v>0.484405</v>
       </c>
       <c r="C109" t="n">
-        <v>0.393425</v>
+        <v>0.385261</v>
       </c>
       <c r="D109" t="n">
-        <v>0.72744</v>
+        <v>0.601919</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.681745</v>
+        <v>0.67984</v>
       </c>
       <c r="C110" t="n">
-        <v>0.615024</v>
+        <v>0.598238</v>
       </c>
       <c r="D110" t="n">
-        <v>0.714329</v>
+        <v>0.586144</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.670645</v>
+        <v>0.669336</v>
       </c>
       <c r="C111" t="n">
-        <v>0.60166</v>
+        <v>0.584624</v>
       </c>
       <c r="D111" t="n">
-        <v>0.701134</v>
+        <v>0.570281</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.66101</v>
+        <v>0.6590780000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588496</v>
+        <v>0.570187</v>
       </c>
       <c r="D112" t="n">
-        <v>0.690237</v>
+        <v>0.555774</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.649402</v>
+        <v>0.648946</v>
       </c>
       <c r="C113" t="n">
-        <v>0.575065</v>
+        <v>0.556675</v>
       </c>
       <c r="D113" t="n">
-        <v>0.679713</v>
+        <v>0.541537</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.640746</v>
+        <v>0.638704</v>
       </c>
       <c r="C114" t="n">
-        <v>0.562389</v>
+        <v>0.54312</v>
       </c>
       <c r="D114" t="n">
-        <v>0.668851</v>
+        <v>0.5284</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.631311</v>
+        <v>0.630677</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553453</v>
+        <v>0.5301709999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.659925</v>
+        <v>0.516108</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.622468</v>
+        <v>0.621163</v>
       </c>
       <c r="C116" t="n">
-        <v>0.542467</v>
+        <v>0.517492</v>
       </c>
       <c r="D116" t="n">
-        <v>0.651513</v>
+        <v>0.504036</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.613334</v>
+        <v>0.612558</v>
       </c>
       <c r="C117" t="n">
-        <v>0.533487</v>
+        <v>0.506861</v>
       </c>
       <c r="D117" t="n">
-        <v>0.642534</v>
+        <v>0.49362</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6063269999999999</v>
+        <v>0.605132</v>
       </c>
       <c r="C118" t="n">
-        <v>0.524944</v>
+        <v>0.497267</v>
       </c>
       <c r="D118" t="n">
-        <v>0.63451</v>
+        <v>0.483961</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599281</v>
+        <v>0.5984660000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.518122</v>
+        <v>0.488038</v>
       </c>
       <c r="D119" t="n">
-        <v>0.628097</v>
+        <v>0.474902</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.592778</v>
+        <v>0.592105</v>
       </c>
       <c r="C120" t="n">
-        <v>0.511111</v>
+        <v>0.479923</v>
       </c>
       <c r="D120" t="n">
-        <v>0.622431</v>
+        <v>0.466212</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.586715</v>
+        <v>0.586562</v>
       </c>
       <c r="C121" t="n">
-        <v>0.506702</v>
+        <v>0.472659</v>
       </c>
       <c r="D121" t="n">
-        <v>0.616779</v>
+        <v>0.459037</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.58212</v>
+        <v>0.581777</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502459</v>
+        <v>0.465663</v>
       </c>
       <c r="D122" t="n">
-        <v>0.612885</v>
+        <v>0.453988</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.578962</v>
+        <v>0.578399</v>
       </c>
       <c r="C123" t="n">
-        <v>0.501117</v>
+        <v>0.461981</v>
       </c>
       <c r="D123" t="n">
-        <v>0.827227</v>
+        <v>0.661246</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.769774</v>
+        <v>0.770149</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7224930000000001</v>
+        <v>0.677329</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8125599999999999</v>
+        <v>0.647528</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.761884</v>
+        <v>0.761392</v>
       </c>
       <c r="C125" t="n">
-        <v>0.702893</v>
+        <v>0.664392</v>
       </c>
       <c r="D125" t="n">
-        <v>0.79761</v>
+        <v>0.63187</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.753153</v>
+        <v>0.7523260000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.687997</v>
+        <v>0.651115</v>
       </c>
       <c r="D126" t="n">
-        <v>0.782619</v>
+        <v>0.62019</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.745068</v>
+        <v>0.7443920000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.67253</v>
+        <v>0.637737</v>
       </c>
       <c r="D127" t="n">
-        <v>0.770018</v>
+        <v>0.606417</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.737248</v>
+        <v>0.736935</v>
       </c>
       <c r="C128" t="n">
-        <v>0.659849</v>
+        <v>0.625559</v>
       </c>
       <c r="D128" t="n">
-        <v>0.755729</v>
+        <v>0.593391</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.731059</v>
+        <v>0.730149</v>
       </c>
       <c r="C129" t="n">
-        <v>0.647473</v>
+        <v>0.613734</v>
       </c>
       <c r="D129" t="n">
-        <v>0.744072</v>
+        <v>0.583216</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.724753</v>
+        <v>0.7237440000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.63597</v>
+        <v>0.604344</v>
       </c>
       <c r="D130" t="n">
-        <v>0.735325</v>
+        <v>0.572797</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.718191</v>
+        <v>0.717392</v>
       </c>
       <c r="C131" t="n">
-        <v>0.626655</v>
+        <v>0.595435</v>
       </c>
       <c r="D131" t="n">
-        <v>0.726104</v>
+        <v>0.566279</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.713044</v>
+        <v>0.711604</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6168090000000001</v>
+        <v>0.586755</v>
       </c>
       <c r="D132" t="n">
-        <v>0.717865</v>
+        <v>0.558316</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.70683</v>
+        <v>0.706116</v>
       </c>
       <c r="C133" t="n">
-        <v>0.607386</v>
+        <v>0.578179</v>
       </c>
       <c r="D133" t="n">
-        <v>0.70932</v>
+        <v>0.551044</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.702624</v>
+        <v>0.70114</v>
       </c>
       <c r="C134" t="n">
-        <v>0.600523</v>
+        <v>0.571433</v>
       </c>
       <c r="D134" t="n">
-        <v>0.704555</v>
+        <v>0.543318</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6987370000000001</v>
+        <v>0.69704</v>
       </c>
       <c r="C135" t="n">
-        <v>0.594897</v>
+        <v>0.565343</v>
       </c>
       <c r="D135" t="n">
-        <v>0.701395</v>
+        <v>0.536936</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.695338</v>
+        <v>0.693451</v>
       </c>
       <c r="C136" t="n">
-        <v>0.590997</v>
+        <v>0.5601930000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.700673</v>
+        <v>0.532254</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.692289</v>
+        <v>0.69076</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5902500000000001</v>
+        <v>0.556269</v>
       </c>
       <c r="D137" t="n">
-        <v>0.911872</v>
+        <v>0.740476</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.877775</v>
+        <v>0.875286</v>
       </c>
       <c r="C138" t="n">
-        <v>0.809765</v>
+        <v>0.774242</v>
       </c>
       <c r="D138" t="n">
-        <v>0.893612</v>
+        <v>0.7255509999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.871165</v>
+        <v>0.869431</v>
       </c>
       <c r="C139" t="n">
-        <v>0.791309</v>
+        <v>0.7598279999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.875418</v>
+        <v>0.711791</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8655929999999999</v>
+        <v>0.864018</v>
       </c>
       <c r="C140" t="n">
-        <v>0.772739</v>
+        <v>0.74676</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8595930000000001</v>
+        <v>0.699512</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8594039999999999</v>
+        <v>0.857954</v>
       </c>
       <c r="C141" t="n">
-        <v>0.755682</v>
+        <v>0.733621</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8436</v>
+        <v>0.685669</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.853679</v>
+        <v>0.8524</v>
       </c>
       <c r="C142" t="n">
-        <v>0.740204</v>
+        <v>0.721488</v>
       </c>
       <c r="D142" t="n">
-        <v>0.827672</v>
+        <v>0.674726</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.848374</v>
+        <v>0.8481070000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7246010000000001</v>
+        <v>0.711006</v>
       </c>
       <c r="D143" t="n">
-        <v>0.815269</v>
+        <v>0.665781</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251913</v>
+        <v>0.251689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200254</v>
+        <v>0.197809</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200983</v>
+        <v>0.197815</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24625</v>
+        <v>0.246245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195538</v>
+        <v>0.191575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194673</v>
+        <v>0.191405</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240578</v>
+        <v>0.240621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19047</v>
+        <v>0.186058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.189558</v>
+        <v>0.18631</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236126</v>
+        <v>0.235908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187386</v>
+        <v>0.181683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186197</v>
+        <v>0.182316</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231993</v>
+        <v>0.232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183527</v>
+        <v>0.178389</v>
       </c>
       <c r="D6" t="n">
-        <v>0.182988</v>
+        <v>0.179409</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228915</v>
+        <v>0.22865</v>
       </c>
       <c r="C7" t="n">
-        <v>0.180654</v>
+        <v>0.176626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182042</v>
+        <v>0.17834</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227426</v>
+        <v>0.227487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179718</v>
+        <v>0.175692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181754</v>
+        <v>0.179571</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228195</v>
+        <v>0.227742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.181832</v>
+        <v>0.177603</v>
       </c>
       <c r="D9" t="n">
-        <v>0.276478</v>
+        <v>0.273688</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314924</v>
+        <v>0.314783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268265</v>
+        <v>0.264038</v>
       </c>
       <c r="D10" t="n">
-        <v>0.267114</v>
+        <v>0.264157</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305284</v>
+        <v>0.305464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.259025</v>
+        <v>0.254447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257995</v>
+        <v>0.254973</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.29655</v>
+        <v>0.296783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.250505</v>
+        <v>0.245942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248756</v>
+        <v>0.246201</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288025</v>
+        <v>0.28856</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241749</v>
+        <v>0.237812</v>
       </c>
       <c r="D13" t="n">
-        <v>0.240306</v>
+        <v>0.237342</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280313</v>
+        <v>0.280592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234091</v>
+        <v>0.230354</v>
       </c>
       <c r="D14" t="n">
-        <v>0.233301</v>
+        <v>0.230117</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.272948</v>
+        <v>0.273305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226596</v>
+        <v>0.222533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225706</v>
+        <v>0.222728</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266209</v>
+        <v>0.266076</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21974</v>
+        <v>0.216158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219076</v>
+        <v>0.216262</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259786</v>
+        <v>0.260259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.213646</v>
+        <v>0.210388</v>
       </c>
       <c r="D17" t="n">
-        <v>0.213366</v>
+        <v>0.210189</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253586</v>
+        <v>0.254309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208369</v>
+        <v>0.205229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208306</v>
+        <v>0.205749</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248493</v>
+        <v>0.249125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.203635</v>
+        <v>0.200526</v>
       </c>
       <c r="D19" t="n">
-        <v>0.204105</v>
+        <v>0.201199</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244014</v>
+        <v>0.24405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.199537</v>
+        <v>0.196243</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200649</v>
+        <v>0.198265</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240109</v>
+        <v>0.240809</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196503</v>
+        <v>0.193318</v>
       </c>
       <c r="D21" t="n">
-        <v>0.199461</v>
+        <v>0.196835</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237771</v>
+        <v>0.238187</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194733</v>
+        <v>0.191852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.199604</v>
+        <v>0.197387</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237281</v>
+        <v>0.237271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195574</v>
+        <v>0.192677</v>
       </c>
       <c r="D23" t="n">
-        <v>0.292354</v>
+        <v>0.288919</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323301</v>
+        <v>0.323488</v>
       </c>
       <c r="C24" t="n">
-        <v>0.280982</v>
+        <v>0.277769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.281758</v>
+        <v>0.279006</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314363</v>
+        <v>0.314132</v>
       </c>
       <c r="C25" t="n">
-        <v>0.271877</v>
+        <v>0.26831</v>
       </c>
       <c r="D25" t="n">
-        <v>0.271975</v>
+        <v>0.269561</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305529</v>
+        <v>0.305276</v>
       </c>
       <c r="C26" t="n">
-        <v>0.262616</v>
+        <v>0.259358</v>
       </c>
       <c r="D26" t="n">
-        <v>0.263153</v>
+        <v>0.260456</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296355</v>
+        <v>0.296958</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253968</v>
+        <v>0.250797</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254525</v>
+        <v>0.251891</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288366</v>
+        <v>0.288906</v>
       </c>
       <c r="C28" t="n">
-        <v>0.245215</v>
+        <v>0.242628</v>
       </c>
       <c r="D28" t="n">
-        <v>0.24619</v>
+        <v>0.244491</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.280928</v>
+        <v>0.281451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238123</v>
+        <v>0.23552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23869</v>
+        <v>0.23634</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274604</v>
+        <v>0.27442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23048</v>
+        <v>0.228024</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231391</v>
+        <v>0.229125</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267195</v>
+        <v>0.268121</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224136</v>
+        <v>0.221376</v>
       </c>
       <c r="D31" t="n">
-        <v>0.224801</v>
+        <v>0.222577</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261744</v>
+        <v>0.261947</v>
       </c>
       <c r="C32" t="n">
-        <v>0.21802</v>
+        <v>0.215224</v>
       </c>
       <c r="D32" t="n">
-        <v>0.218837</v>
+        <v>0.21669</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255775</v>
+        <v>0.255859</v>
       </c>
       <c r="C33" t="n">
-        <v>0.212564</v>
+        <v>0.209288</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213773</v>
+        <v>0.212682</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251214</v>
+        <v>0.251363</v>
       </c>
       <c r="C34" t="n">
-        <v>0.207799</v>
+        <v>0.204885</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209622</v>
+        <v>0.208601</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24663</v>
+        <v>0.247062</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203654</v>
+        <v>0.200587</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206924</v>
+        <v>0.205663</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243985</v>
+        <v>0.244211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201512</v>
+        <v>0.199056</v>
       </c>
       <c r="D36" t="n">
-        <v>0.205848</v>
+        <v>0.204476</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242231</v>
+        <v>0.242478</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201191</v>
+        <v>0.198573</v>
       </c>
       <c r="D37" t="n">
-        <v>0.301384</v>
+        <v>0.298504</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325736</v>
+        <v>0.325518</v>
       </c>
       <c r="C38" t="n">
-        <v>0.289014</v>
+        <v>0.286249</v>
       </c>
       <c r="D38" t="n">
-        <v>0.291245</v>
+        <v>0.288364</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.316647</v>
+        <v>0.316696</v>
       </c>
       <c r="C39" t="n">
-        <v>0.279623</v>
+        <v>0.276987</v>
       </c>
       <c r="D39" t="n">
-        <v>0.281251</v>
+        <v>0.278787</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308064</v>
+        <v>0.308052</v>
       </c>
       <c r="C40" t="n">
-        <v>0.270774</v>
+        <v>0.268109</v>
       </c>
       <c r="D40" t="n">
-        <v>0.271812</v>
+        <v>0.269497</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.300347</v>
+        <v>0.299933</v>
       </c>
       <c r="C41" t="n">
-        <v>0.262088</v>
+        <v>0.25935</v>
       </c>
       <c r="D41" t="n">
-        <v>0.263006</v>
+        <v>0.261284</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292776</v>
+        <v>0.292359</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254033</v>
+        <v>0.251263</v>
       </c>
       <c r="D42" t="n">
-        <v>0.254377</v>
+        <v>0.253216</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285253</v>
+        <v>0.285041</v>
       </c>
       <c r="C43" t="n">
-        <v>0.245752</v>
+        <v>0.243559</v>
       </c>
       <c r="D43" t="n">
-        <v>0.247209</v>
+        <v>0.245491</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2787</v>
+        <v>0.278023</v>
       </c>
       <c r="C44" t="n">
-        <v>0.238593</v>
+        <v>0.236344</v>
       </c>
       <c r="D44" t="n">
-        <v>0.239304</v>
+        <v>0.237567</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272005</v>
+        <v>0.271678</v>
       </c>
       <c r="C45" t="n">
-        <v>0.232094</v>
+        <v>0.229978</v>
       </c>
       <c r="D45" t="n">
-        <v>0.233197</v>
+        <v>0.231004</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266326</v>
+        <v>0.26581</v>
       </c>
       <c r="C46" t="n">
-        <v>0.226128</v>
+        <v>0.224035</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226974</v>
+        <v>0.225034</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260882</v>
+        <v>0.260415</v>
       </c>
       <c r="C47" t="n">
-        <v>0.220798</v>
+        <v>0.218303</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222275</v>
+        <v>0.220853</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256117</v>
+        <v>0.255621</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216098</v>
+        <v>0.213632</v>
       </c>
       <c r="D48" t="n">
-        <v>0.217561</v>
+        <v>0.216446</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252653</v>
+        <v>0.251663</v>
       </c>
       <c r="C49" t="n">
-        <v>0.212223</v>
+        <v>0.209421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.214639</v>
+        <v>0.212257</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249203</v>
+        <v>0.248482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.209239</v>
+        <v>0.206156</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213753</v>
+        <v>0.210665</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247251</v>
+        <v>0.246671</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2082</v>
+        <v>0.205265</v>
       </c>
       <c r="D51" t="n">
-        <v>0.312483</v>
+        <v>0.309752</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248825</v>
+        <v>0.24802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.209541</v>
+        <v>0.205941</v>
       </c>
       <c r="D52" t="n">
-        <v>0.301943</v>
+        <v>0.299529</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.331186</v>
+        <v>0.329019</v>
       </c>
       <c r="C53" t="n">
-        <v>0.290294</v>
+        <v>0.287676</v>
       </c>
       <c r="D53" t="n">
-        <v>0.292272</v>
+        <v>0.290045</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322835</v>
+        <v>0.320835</v>
       </c>
       <c r="C54" t="n">
-        <v>0.28123</v>
+        <v>0.278735</v>
       </c>
       <c r="D54" t="n">
-        <v>0.283082</v>
+        <v>0.281206</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.314921</v>
+        <v>0.313143</v>
       </c>
       <c r="C55" t="n">
-        <v>0.272555</v>
+        <v>0.270218</v>
       </c>
       <c r="D55" t="n">
-        <v>0.273883</v>
+        <v>0.272367</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307511</v>
+        <v>0.305722</v>
       </c>
       <c r="C56" t="n">
-        <v>0.264117</v>
+        <v>0.262154</v>
       </c>
       <c r="D56" t="n">
-        <v>0.265781</v>
+        <v>0.26335</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.30044</v>
+        <v>0.298803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.256603</v>
+        <v>0.254643</v>
       </c>
       <c r="D57" t="n">
-        <v>0.257536</v>
+        <v>0.255658</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294031</v>
+        <v>0.292348</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249335</v>
+        <v>0.247456</v>
       </c>
       <c r="D58" t="n">
-        <v>0.250533</v>
+        <v>0.248303</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.287865</v>
+        <v>0.286353</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242157</v>
+        <v>0.240856</v>
       </c>
       <c r="D59" t="n">
-        <v>0.243609</v>
+        <v>0.241518</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282215</v>
+        <v>0.280834</v>
       </c>
       <c r="C60" t="n">
-        <v>0.235994</v>
+        <v>0.23493</v>
       </c>
       <c r="D60" t="n">
-        <v>0.237894</v>
+        <v>0.235577</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277354</v>
+        <v>0.275616</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230501</v>
+        <v>0.229427</v>
       </c>
       <c r="D61" t="n">
-        <v>0.23287</v>
+        <v>0.230549</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272114</v>
+        <v>0.271083</v>
       </c>
       <c r="C62" t="n">
-        <v>0.225373</v>
+        <v>0.224412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228455</v>
+        <v>0.226008</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268558</v>
+        <v>0.26725</v>
       </c>
       <c r="C63" t="n">
-        <v>0.221184</v>
+        <v>0.220037</v>
       </c>
       <c r="D63" t="n">
-        <v>0.225051</v>
+        <v>0.222298</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265662</v>
+        <v>0.264636</v>
       </c>
       <c r="C64" t="n">
-        <v>0.218078</v>
+        <v>0.2168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223214</v>
+        <v>0.221397</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264085</v>
+        <v>0.263109</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216132</v>
+        <v>0.21504</v>
       </c>
       <c r="D65" t="n">
-        <v>0.223778</v>
+        <v>0.220918</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264379</v>
+        <v>0.263622</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217529</v>
+        <v>0.215638</v>
       </c>
       <c r="D66" t="n">
-        <v>0.334166</v>
+        <v>0.330089</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387496</v>
+        <v>0.38584</v>
       </c>
       <c r="C67" t="n">
-        <v>0.325351</v>
+        <v>0.321606</v>
       </c>
       <c r="D67" t="n">
-        <v>0.323123</v>
+        <v>0.31857</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.379725</v>
+        <v>0.377837</v>
       </c>
       <c r="C68" t="n">
-        <v>0.315707</v>
+        <v>0.312113</v>
       </c>
       <c r="D68" t="n">
-        <v>0.313002</v>
+        <v>0.309129</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372375</v>
+        <v>0.370462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.306493</v>
+        <v>0.303149</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303823</v>
+        <v>0.299951</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365182</v>
+        <v>0.36353</v>
       </c>
       <c r="C70" t="n">
-        <v>0.297391</v>
+        <v>0.294606</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294881</v>
+        <v>0.291251</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358792</v>
+        <v>0.357125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.289275</v>
+        <v>0.286274</v>
       </c>
       <c r="D71" t="n">
-        <v>0.286694</v>
+        <v>0.282845</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.352578</v>
+        <v>0.351049</v>
       </c>
       <c r="C72" t="n">
-        <v>0.281361</v>
+        <v>0.278636</v>
       </c>
       <c r="D72" t="n">
-        <v>0.278645</v>
+        <v>0.275228</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346368</v>
+        <v>0.344714</v>
       </c>
       <c r="C73" t="n">
-        <v>0.273912</v>
+        <v>0.271268</v>
       </c>
       <c r="D73" t="n">
-        <v>0.271419</v>
+        <v>0.267945</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.340341</v>
+        <v>0.338969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267073</v>
+        <v>0.264361</v>
       </c>
       <c r="D74" t="n">
-        <v>0.264966</v>
+        <v>0.261228</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.334292</v>
+        <v>0.333159</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260884</v>
+        <v>0.258291</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25892</v>
+        <v>0.255497</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329127</v>
+        <v>0.327768</v>
       </c>
       <c r="C76" t="n">
-        <v>0.254947</v>
+        <v>0.252612</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253629</v>
+        <v>0.250362</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.32384</v>
+        <v>0.322773</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250072</v>
+        <v>0.247726</v>
       </c>
       <c r="D77" t="n">
-        <v>0.249527</v>
+        <v>0.246204</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.319528</v>
+        <v>0.318402</v>
       </c>
       <c r="C78" t="n">
-        <v>0.246222</v>
+        <v>0.243903</v>
       </c>
       <c r="D78" t="n">
-        <v>0.247048</v>
+        <v>0.243399</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.316334</v>
+        <v>0.315371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.244241</v>
+        <v>0.241563</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246649</v>
+        <v>0.24298</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.314819</v>
+        <v>0.313719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.243221</v>
+        <v>0.241172</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388962</v>
+        <v>0.386613</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.552515</v>
+        <v>0.551101</v>
       </c>
       <c r="C81" t="n">
-        <v>0.390557</v>
+        <v>0.387099</v>
       </c>
       <c r="D81" t="n">
-        <v>0.380835</v>
+        <v>0.377916</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.544597</v>
+        <v>0.544251</v>
       </c>
       <c r="C82" t="n">
-        <v>0.381799</v>
+        <v>0.378858</v>
       </c>
       <c r="D82" t="n">
-        <v>0.37101</v>
+        <v>0.367352</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534597</v>
+        <v>0.534547</v>
       </c>
       <c r="C83" t="n">
-        <v>0.373822</v>
+        <v>0.370455</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361824</v>
+        <v>0.357646</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.525183</v>
+        <v>0.524483</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362704</v>
+        <v>0.362552</v>
       </c>
       <c r="D84" t="n">
-        <v>0.350945</v>
+        <v>0.34912</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.515312</v>
+        <v>0.51439</v>
       </c>
       <c r="C85" t="n">
-        <v>0.353878</v>
+        <v>0.352129</v>
       </c>
       <c r="D85" t="n">
-        <v>0.343503</v>
+        <v>0.339995</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.505697</v>
+        <v>0.505072</v>
       </c>
       <c r="C86" t="n">
-        <v>0.344769</v>
+        <v>0.343475</v>
       </c>
       <c r="D86" t="n">
-        <v>0.33373</v>
+        <v>0.330659</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.496235</v>
+        <v>0.495375</v>
       </c>
       <c r="C87" t="n">
-        <v>0.335422</v>
+        <v>0.334492</v>
       </c>
       <c r="D87" t="n">
-        <v>0.325214</v>
+        <v>0.322725</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.487067</v>
+        <v>0.486123</v>
       </c>
       <c r="C88" t="n">
-        <v>0.328246</v>
+        <v>0.327793</v>
       </c>
       <c r="D88" t="n">
-        <v>0.319404</v>
+        <v>0.315228</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.47796</v>
+        <v>0.477042</v>
       </c>
       <c r="C89" t="n">
-        <v>0.320109</v>
+        <v>0.318566</v>
       </c>
       <c r="D89" t="n">
-        <v>0.311745</v>
+        <v>0.308577</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.469254</v>
+        <v>0.468239</v>
       </c>
       <c r="C90" t="n">
-        <v>0.313288</v>
+        <v>0.312338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.305195</v>
+        <v>0.30156</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.46095</v>
+        <v>0.46013</v>
       </c>
       <c r="C91" t="n">
-        <v>0.307471</v>
+        <v>0.306134</v>
       </c>
       <c r="D91" t="n">
-        <v>0.299356</v>
+        <v>0.296757</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.453315</v>
+        <v>0.452356</v>
       </c>
       <c r="C92" t="n">
-        <v>0.302052</v>
+        <v>0.301233</v>
       </c>
       <c r="D92" t="n">
-        <v>0.295117</v>
+        <v>0.292345</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.447348</v>
+        <v>0.446238</v>
       </c>
       <c r="C93" t="n">
-        <v>0.297976</v>
+        <v>0.296476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.292769</v>
+        <v>0.289079</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.441947</v>
+        <v>0.440827</v>
       </c>
       <c r="C94" t="n">
-        <v>0.296829</v>
+        <v>0.294353</v>
       </c>
       <c r="D94" t="n">
-        <v>0.568766</v>
+        <v>0.564824</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5651389999999999</v>
+        <v>0.566902</v>
       </c>
       <c r="C95" t="n">
-        <v>0.516359</v>
+        <v>0.515543</v>
       </c>
       <c r="D95" t="n">
-        <v>0.555985</v>
+        <v>0.5522359999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.563885</v>
+        <v>0.562543</v>
       </c>
       <c r="C96" t="n">
-        <v>0.508148</v>
+        <v>0.507871</v>
       </c>
       <c r="D96" t="n">
-        <v>0.540489</v>
+        <v>0.53789</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.55696</v>
+        <v>0.555607</v>
       </c>
       <c r="C97" t="n">
-        <v>0.496034</v>
+        <v>0.494562</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5240860000000001</v>
+        <v>0.520564</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.54822</v>
+        <v>0.544868</v>
       </c>
       <c r="C98" t="n">
-        <v>0.482168</v>
+        <v>0.479595</v>
       </c>
       <c r="D98" t="n">
-        <v>0.508729</v>
+        <v>0.504489</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.53825</v>
+        <v>0.538004</v>
       </c>
       <c r="C99" t="n">
-        <v>0.468311</v>
+        <v>0.467306</v>
       </c>
       <c r="D99" t="n">
-        <v>0.49377</v>
+        <v>0.489367</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.532175</v>
+        <v>0.530991</v>
       </c>
       <c r="C100" t="n">
-        <v>0.455843</v>
+        <v>0.454427</v>
       </c>
       <c r="D100" t="n">
-        <v>0.479594</v>
+        <v>0.474676</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.524263</v>
+        <v>0.523573</v>
       </c>
       <c r="C101" t="n">
-        <v>0.44384</v>
+        <v>0.443038</v>
       </c>
       <c r="D101" t="n">
-        <v>0.466223</v>
+        <v>0.461431</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.516392</v>
+        <v>0.515827</v>
       </c>
       <c r="C102" t="n">
-        <v>0.432525</v>
+        <v>0.431979</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453923</v>
+        <v>0.448675</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509949</v>
+        <v>0.50812</v>
       </c>
       <c r="C103" t="n">
-        <v>0.421848</v>
+        <v>0.420737</v>
       </c>
       <c r="D103" t="n">
-        <v>0.442274</v>
+        <v>0.436713</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.503607</v>
+        <v>0.502555</v>
       </c>
       <c r="C104" t="n">
-        <v>0.412555</v>
+        <v>0.41094</v>
       </c>
       <c r="D104" t="n">
-        <v>0.431546</v>
+        <v>0.425943</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.497743</v>
+        <v>0.496512</v>
       </c>
       <c r="C105" t="n">
-        <v>0.404407</v>
+        <v>0.40293</v>
       </c>
       <c r="D105" t="n">
-        <v>0.421996</v>
+        <v>0.416417</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.491788</v>
+        <v>0.491721</v>
       </c>
       <c r="C106" t="n">
-        <v>0.396231</v>
+        <v>0.395881</v>
       </c>
       <c r="D106" t="n">
-        <v>0.414335</v>
+        <v>0.408506</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.488237</v>
+        <v>0.487477</v>
       </c>
       <c r="C107" t="n">
-        <v>0.390321</v>
+        <v>0.389018</v>
       </c>
       <c r="D107" t="n">
-        <v>0.407538</v>
+        <v>0.402143</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.485421</v>
+        <v>0.483396</v>
       </c>
       <c r="C108" t="n">
-        <v>0.386134</v>
+        <v>0.38437</v>
       </c>
       <c r="D108" t="n">
-        <v>0.613066</v>
+        <v>0.608114</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.484405</v>
+        <v>0.482309</v>
       </c>
       <c r="C109" t="n">
-        <v>0.385261</v>
+        <v>0.383369</v>
       </c>
       <c r="D109" t="n">
-        <v>0.601919</v>
+        <v>0.59615</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.67984</v>
+        <v>0.68027</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598238</v>
+        <v>0.597047</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586144</v>
+        <v>0.580837</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669336</v>
+        <v>0.669138</v>
       </c>
       <c r="C111" t="n">
-        <v>0.584624</v>
+        <v>0.582527</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570281</v>
+        <v>0.563937</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6590780000000001</v>
+        <v>0.657605</v>
       </c>
       <c r="C112" t="n">
-        <v>0.570187</v>
+        <v>0.568129</v>
       </c>
       <c r="D112" t="n">
-        <v>0.555774</v>
+        <v>0.549726</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.648946</v>
+        <v>0.647631</v>
       </c>
       <c r="C113" t="n">
-        <v>0.556675</v>
+        <v>0.554041</v>
       </c>
       <c r="D113" t="n">
-        <v>0.541537</v>
+        <v>0.5355490000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.638704</v>
+        <v>0.637558</v>
       </c>
       <c r="C114" t="n">
-        <v>0.54312</v>
+        <v>0.540503</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5284</v>
+        <v>0.521977</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.630677</v>
+        <v>0.628194</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5301709999999999</v>
+        <v>0.527713</v>
       </c>
       <c r="D115" t="n">
-        <v>0.516108</v>
+        <v>0.509554</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.621163</v>
+        <v>0.619256</v>
       </c>
       <c r="C116" t="n">
-        <v>0.517492</v>
+        <v>0.515938</v>
       </c>
       <c r="D116" t="n">
-        <v>0.504036</v>
+        <v>0.498206</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612558</v>
+        <v>0.6108209999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.506861</v>
+        <v>0.505369</v>
       </c>
       <c r="D117" t="n">
-        <v>0.49362</v>
+        <v>0.486221</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.605132</v>
+        <v>0.603239</v>
       </c>
       <c r="C118" t="n">
-        <v>0.497267</v>
+        <v>0.495279</v>
       </c>
       <c r="D118" t="n">
-        <v>0.483961</v>
+        <v>0.476705</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5984660000000001</v>
+        <v>0.596307</v>
       </c>
       <c r="C119" t="n">
-        <v>0.488038</v>
+        <v>0.485661</v>
       </c>
       <c r="D119" t="n">
-        <v>0.474902</v>
+        <v>0.46551</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.592105</v>
+        <v>0.589735</v>
       </c>
       <c r="C120" t="n">
-        <v>0.479923</v>
+        <v>0.47664</v>
       </c>
       <c r="D120" t="n">
-        <v>0.466212</v>
+        <v>0.457139</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.586562</v>
+        <v>0.583389</v>
       </c>
       <c r="C121" t="n">
-        <v>0.472659</v>
+        <v>0.469283</v>
       </c>
       <c r="D121" t="n">
-        <v>0.459037</v>
+        <v>0.450208</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.581777</v>
+        <v>0.578174</v>
       </c>
       <c r="C122" t="n">
-        <v>0.465663</v>
+        <v>0.462609</v>
       </c>
       <c r="D122" t="n">
-        <v>0.453988</v>
+        <v>0.444756</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.578399</v>
+        <v>0.5755479999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.461981</v>
+        <v>0.458744</v>
       </c>
       <c r="D123" t="n">
-        <v>0.661246</v>
+        <v>0.656179</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.770149</v>
+        <v>0.765744</v>
       </c>
       <c r="C124" t="n">
-        <v>0.677329</v>
+        <v>0.675444</v>
       </c>
       <c r="D124" t="n">
-        <v>0.647528</v>
+        <v>0.641989</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.761392</v>
+        <v>0.756526</v>
       </c>
       <c r="C125" t="n">
-        <v>0.664392</v>
+        <v>0.661135</v>
       </c>
       <c r="D125" t="n">
-        <v>0.63187</v>
+        <v>0.629885</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7523260000000001</v>
+        <v>0.748588</v>
       </c>
       <c r="C126" t="n">
-        <v>0.651115</v>
+        <v>0.647184</v>
       </c>
       <c r="D126" t="n">
-        <v>0.62019</v>
+        <v>0.616309</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7443920000000001</v>
+        <v>0.739777</v>
       </c>
       <c r="C127" t="n">
-        <v>0.637737</v>
+        <v>0.633942</v>
       </c>
       <c r="D127" t="n">
-        <v>0.606417</v>
+        <v>0.60483</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.736935</v>
+        <v>0.732622</v>
       </c>
       <c r="C128" t="n">
-        <v>0.625559</v>
+        <v>0.621447</v>
       </c>
       <c r="D128" t="n">
-        <v>0.593391</v>
+        <v>0.5930800000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730149</v>
+        <v>0.7265160000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.613734</v>
+        <v>0.6101569999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.583216</v>
+        <v>0.583421</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7237440000000001</v>
+        <v>0.71915</v>
       </c>
       <c r="C130" t="n">
-        <v>0.604344</v>
+        <v>0.6004429999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.572797</v>
+        <v>0.573888</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.717392</v>
+        <v>0.713081</v>
       </c>
       <c r="C131" t="n">
-        <v>0.595435</v>
+        <v>0.590483</v>
       </c>
       <c r="D131" t="n">
-        <v>0.566279</v>
+        <v>0.564676</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.711604</v>
+        <v>0.708218</v>
       </c>
       <c r="C132" t="n">
-        <v>0.586755</v>
+        <v>0.581687</v>
       </c>
       <c r="D132" t="n">
-        <v>0.558316</v>
+        <v>0.556871</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.706116</v>
+        <v>0.703412</v>
       </c>
       <c r="C133" t="n">
-        <v>0.578179</v>
+        <v>0.574932</v>
       </c>
       <c r="D133" t="n">
-        <v>0.551044</v>
+        <v>0.548855</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.70114</v>
+        <v>0.69754</v>
       </c>
       <c r="C134" t="n">
-        <v>0.571433</v>
+        <v>0.56763</v>
       </c>
       <c r="D134" t="n">
-        <v>0.543318</v>
+        <v>0.54113</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.69704</v>
+        <v>0.693618</v>
       </c>
       <c r="C135" t="n">
-        <v>0.565343</v>
+        <v>0.5606910000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.536936</v>
+        <v>0.53445</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.693451</v>
+        <v>0.690272</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5601930000000001</v>
+        <v>0.55562</v>
       </c>
       <c r="D136" t="n">
-        <v>0.532254</v>
+        <v>0.529043</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.69076</v>
+        <v>0.688403</v>
       </c>
       <c r="C137" t="n">
-        <v>0.556269</v>
+        <v>0.552169</v>
       </c>
       <c r="D137" t="n">
-        <v>0.740476</v>
+        <v>0.73767</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875286</v>
+        <v>0.872505</v>
       </c>
       <c r="C138" t="n">
-        <v>0.774242</v>
+        <v>0.771135</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7255509999999999</v>
+        <v>0.72287</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.869431</v>
+        <v>0.867055</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7598279999999999</v>
+        <v>0.756876</v>
       </c>
       <c r="D139" t="n">
-        <v>0.711791</v>
+        <v>0.709861</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864018</v>
+        <v>0.860384</v>
       </c>
       <c r="C140" t="n">
-        <v>0.74676</v>
+        <v>0.742147</v>
       </c>
       <c r="D140" t="n">
-        <v>0.699512</v>
+        <v>0.696008</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.857954</v>
+        <v>0.8552</v>
       </c>
       <c r="C141" t="n">
-        <v>0.733621</v>
+        <v>0.729117</v>
       </c>
       <c r="D141" t="n">
-        <v>0.685669</v>
+        <v>0.6859730000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8524</v>
+        <v>0.850714</v>
       </c>
       <c r="C142" t="n">
-        <v>0.721488</v>
+        <v>0.717637</v>
       </c>
       <c r="D142" t="n">
-        <v>0.674726</v>
+        <v>0.674776</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8481070000000001</v>
+        <v>0.845894</v>
       </c>
       <c r="C143" t="n">
-        <v>0.711006</v>
+        <v>0.705855</v>
       </c>
       <c r="D143" t="n">
-        <v>0.665781</v>
+        <v>0.662923</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251689</v>
+        <v>0.251559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197809</v>
+        <v>0.203625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197815</v>
+        <v>0.197236</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246245</v>
+        <v>0.24668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191575</v>
+        <v>0.197111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191405</v>
+        <v>0.19051</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240621</v>
+        <v>0.241124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186058</v>
+        <v>0.192392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18631</v>
+        <v>0.185738</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235908</v>
+        <v>0.236368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.181683</v>
+        <v>0.187971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.182316</v>
+        <v>0.181847</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232</v>
+        <v>0.232181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178389</v>
+        <v>0.183546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.179409</v>
+        <v>0.178076</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22865</v>
+        <v>0.228666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.176626</v>
+        <v>0.182217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17834</v>
+        <v>0.175796</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227487</v>
+        <v>0.227696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.175692</v>
+        <v>0.181807</v>
       </c>
       <c r="D8" t="n">
-        <v>0.179571</v>
+        <v>0.176908</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227742</v>
+        <v>0.228404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177603</v>
+        <v>0.183477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.273688</v>
+        <v>0.271288</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314783</v>
+        <v>0.314881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.264038</v>
+        <v>0.270825</v>
       </c>
       <c r="D10" t="n">
-        <v>0.264157</v>
+        <v>0.261885</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305464</v>
+        <v>0.305648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.254447</v>
+        <v>0.261723</v>
       </c>
       <c r="D11" t="n">
-        <v>0.254973</v>
+        <v>0.252572</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296783</v>
+        <v>0.296349</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245942</v>
+        <v>0.252796</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246201</v>
+        <v>0.244031</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28856</v>
+        <v>0.288033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237812</v>
+        <v>0.244579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.237342</v>
+        <v>0.235794</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280592</v>
+        <v>0.281005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.230354</v>
+        <v>0.237069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.230117</v>
+        <v>0.228134</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273305</v>
+        <v>0.27287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.222533</v>
+        <v>0.229823</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222728</v>
+        <v>0.221031</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266076</v>
+        <v>0.26602</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216158</v>
+        <v>0.222981</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216262</v>
+        <v>0.21419</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260259</v>
+        <v>0.259587</v>
       </c>
       <c r="C17" t="n">
-        <v>0.210388</v>
+        <v>0.217283</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210189</v>
+        <v>0.208309</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254309</v>
+        <v>0.253706</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205229</v>
+        <v>0.211583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.205749</v>
+        <v>0.203051</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249125</v>
+        <v>0.248458</v>
       </c>
       <c r="C19" t="n">
-        <v>0.200526</v>
+        <v>0.207397</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201199</v>
+        <v>0.199269</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24405</v>
+        <v>0.244928</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196243</v>
+        <v>0.203463</v>
       </c>
       <c r="D20" t="n">
-        <v>0.198265</v>
+        <v>0.196086</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240809</v>
+        <v>0.241036</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193318</v>
+        <v>0.200661</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196835</v>
+        <v>0.194776</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238187</v>
+        <v>0.238644</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191852</v>
+        <v>0.199498</v>
       </c>
       <c r="D22" t="n">
-        <v>0.197387</v>
+        <v>0.195842</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237271</v>
+        <v>0.237583</v>
       </c>
       <c r="C23" t="n">
-        <v>0.192677</v>
+        <v>0.200422</v>
       </c>
       <c r="D23" t="n">
-        <v>0.288919</v>
+        <v>0.288866</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323488</v>
+        <v>0.323884</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277769</v>
+        <v>0.286225</v>
       </c>
       <c r="D24" t="n">
-        <v>0.279006</v>
+        <v>0.279017</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314132</v>
+        <v>0.314666</v>
       </c>
       <c r="C25" t="n">
-        <v>0.26831</v>
+        <v>0.276681</v>
       </c>
       <c r="D25" t="n">
-        <v>0.269561</v>
+        <v>0.26959</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305276</v>
+        <v>0.305921</v>
       </c>
       <c r="C26" t="n">
-        <v>0.259358</v>
+        <v>0.267791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260456</v>
+        <v>0.260379</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296958</v>
+        <v>0.297522</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250797</v>
+        <v>0.259335</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251891</v>
+        <v>0.251896</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288906</v>
+        <v>0.289667</v>
       </c>
       <c r="C28" t="n">
-        <v>0.242628</v>
+        <v>0.251307</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244491</v>
+        <v>0.243997</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281451</v>
+        <v>0.282188</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23552</v>
+        <v>0.243849</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23634</v>
+        <v>0.236519</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27442</v>
+        <v>0.275152</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228024</v>
+        <v>0.236893</v>
       </c>
       <c r="D30" t="n">
-        <v>0.229125</v>
+        <v>0.229438</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268121</v>
+        <v>0.268689</v>
       </c>
       <c r="C31" t="n">
-        <v>0.221376</v>
+        <v>0.230335</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222577</v>
+        <v>0.222947</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261947</v>
+        <v>0.262572</v>
       </c>
       <c r="C32" t="n">
-        <v>0.215224</v>
+        <v>0.224222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.21669</v>
+        <v>0.216882</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.255859</v>
+        <v>0.257338</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209288</v>
+        <v>0.219351</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212682</v>
+        <v>0.211556</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251363</v>
+        <v>0.251922</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204885</v>
+        <v>0.214453</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208601</v>
+        <v>0.207366</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247062</v>
+        <v>0.247333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200587</v>
+        <v>0.209719</v>
       </c>
       <c r="D35" t="n">
-        <v>0.205663</v>
+        <v>0.204375</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244211</v>
+        <v>0.245233</v>
       </c>
       <c r="C36" t="n">
-        <v>0.199056</v>
+        <v>0.207713</v>
       </c>
       <c r="D36" t="n">
-        <v>0.204476</v>
+        <v>0.203409</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242478</v>
+        <v>0.244008</v>
       </c>
       <c r="C37" t="n">
-        <v>0.198573</v>
+        <v>0.207223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.298504</v>
+        <v>0.298554</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325518</v>
+        <v>0.3273</v>
       </c>
       <c r="C38" t="n">
-        <v>0.286249</v>
+        <v>0.295598</v>
       </c>
       <c r="D38" t="n">
-        <v>0.288364</v>
+        <v>0.288673</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.316696</v>
+        <v>0.318665</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276987</v>
+        <v>0.286531</v>
       </c>
       <c r="D39" t="n">
-        <v>0.278787</v>
+        <v>0.279125</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308052</v>
+        <v>0.310276</v>
       </c>
       <c r="C40" t="n">
-        <v>0.268109</v>
+        <v>0.277402</v>
       </c>
       <c r="D40" t="n">
-        <v>0.269497</v>
+        <v>0.270036</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.299933</v>
+        <v>0.301502</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25935</v>
+        <v>0.269138</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261284</v>
+        <v>0.261414</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292359</v>
+        <v>0.294451</v>
       </c>
       <c r="C42" t="n">
-        <v>0.251263</v>
+        <v>0.261162</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253216</v>
+        <v>0.253307</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285041</v>
+        <v>0.287433</v>
       </c>
       <c r="C43" t="n">
-        <v>0.243559</v>
+        <v>0.253395</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245491</v>
+        <v>0.245472</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.278023</v>
+        <v>0.280622</v>
       </c>
       <c r="C44" t="n">
-        <v>0.236344</v>
+        <v>0.246125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.237567</v>
+        <v>0.238488</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.271678</v>
+        <v>0.274289</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229978</v>
+        <v>0.239711</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231004</v>
+        <v>0.231929</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26581</v>
+        <v>0.268486</v>
       </c>
       <c r="C46" t="n">
-        <v>0.224035</v>
+        <v>0.233594</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225034</v>
+        <v>0.225988</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260415</v>
+        <v>0.263218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218303</v>
+        <v>0.228064</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220853</v>
+        <v>0.220717</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.255621</v>
+        <v>0.257814</v>
       </c>
       <c r="C48" t="n">
-        <v>0.213632</v>
+        <v>0.222956</v>
       </c>
       <c r="D48" t="n">
-        <v>0.216446</v>
+        <v>0.216168</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.251663</v>
+        <v>0.252886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.209421</v>
+        <v>0.219212</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212257</v>
+        <v>0.212794</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248482</v>
+        <v>0.250073</v>
       </c>
       <c r="C50" t="n">
-        <v>0.206156</v>
+        <v>0.21625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.210665</v>
+        <v>0.211127</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.246671</v>
+        <v>0.248941</v>
       </c>
       <c r="C51" t="n">
-        <v>0.205265</v>
+        <v>0.214803</v>
       </c>
       <c r="D51" t="n">
-        <v>0.309752</v>
+        <v>0.310008</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.24802</v>
+        <v>0.250582</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205941</v>
+        <v>0.216149</v>
       </c>
       <c r="D52" t="n">
-        <v>0.299529</v>
+        <v>0.29984</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329019</v>
+        <v>0.33064</v>
       </c>
       <c r="C53" t="n">
-        <v>0.287676</v>
+        <v>0.297874</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290045</v>
+        <v>0.290184</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320835</v>
+        <v>0.322442</v>
       </c>
       <c r="C54" t="n">
-        <v>0.278735</v>
+        <v>0.288973</v>
       </c>
       <c r="D54" t="n">
-        <v>0.281206</v>
+        <v>0.28065</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313143</v>
+        <v>0.314753</v>
       </c>
       <c r="C55" t="n">
-        <v>0.270218</v>
+        <v>0.280542</v>
       </c>
       <c r="D55" t="n">
-        <v>0.272367</v>
+        <v>0.271781</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.305722</v>
+        <v>0.307474</v>
       </c>
       <c r="C56" t="n">
-        <v>0.262154</v>
+        <v>0.272751</v>
       </c>
       <c r="D56" t="n">
-        <v>0.26335</v>
+        <v>0.26367</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298803</v>
+        <v>0.30055</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254643</v>
+        <v>0.265198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.255658</v>
+        <v>0.256009</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292348</v>
+        <v>0.294133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247456</v>
+        <v>0.25794</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248303</v>
+        <v>0.24867</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286353</v>
+        <v>0.288011</v>
       </c>
       <c r="C59" t="n">
-        <v>0.240856</v>
+        <v>0.251269</v>
       </c>
       <c r="D59" t="n">
-        <v>0.241518</v>
+        <v>0.242121</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280834</v>
+        <v>0.282401</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23493</v>
+        <v>0.245276</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235577</v>
+        <v>0.235438</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275616</v>
+        <v>0.277332</v>
       </c>
       <c r="C61" t="n">
-        <v>0.229427</v>
+        <v>0.239598</v>
       </c>
       <c r="D61" t="n">
-        <v>0.230549</v>
+        <v>0.229946</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271083</v>
+        <v>0.272832</v>
       </c>
       <c r="C62" t="n">
-        <v>0.224412</v>
+        <v>0.234624</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226008</v>
+        <v>0.225997</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26725</v>
+        <v>0.268965</v>
       </c>
       <c r="C63" t="n">
-        <v>0.220037</v>
+        <v>0.230321</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222298</v>
+        <v>0.222426</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264636</v>
+        <v>0.266207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2168</v>
+        <v>0.22695</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221397</v>
+        <v>0.220348</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263109</v>
+        <v>0.264586</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21504</v>
+        <v>0.225003</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220918</v>
+        <v>0.220973</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263622</v>
+        <v>0.265115</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215638</v>
+        <v>0.225873</v>
       </c>
       <c r="D66" t="n">
-        <v>0.330089</v>
+        <v>0.332108</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38584</v>
+        <v>0.388902</v>
       </c>
       <c r="C67" t="n">
-        <v>0.321606</v>
+        <v>0.332803</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31857</v>
+        <v>0.321126</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.377837</v>
+        <v>0.380272</v>
       </c>
       <c r="C68" t="n">
-        <v>0.312113</v>
+        <v>0.323517</v>
       </c>
       <c r="D68" t="n">
-        <v>0.309129</v>
+        <v>0.311506</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.370462</v>
+        <v>0.372885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.303149</v>
+        <v>0.314599</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299951</v>
+        <v>0.302357</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36353</v>
+        <v>0.365996</v>
       </c>
       <c r="C70" t="n">
-        <v>0.294606</v>
+        <v>0.306125</v>
       </c>
       <c r="D70" t="n">
-        <v>0.291251</v>
+        <v>0.293687</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.357125</v>
+        <v>0.35966</v>
       </c>
       <c r="C71" t="n">
-        <v>0.286274</v>
+        <v>0.297738</v>
       </c>
       <c r="D71" t="n">
-        <v>0.282845</v>
+        <v>0.285311</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351049</v>
+        <v>0.353179</v>
       </c>
       <c r="C72" t="n">
-        <v>0.278636</v>
+        <v>0.290432</v>
       </c>
       <c r="D72" t="n">
-        <v>0.275228</v>
+        <v>0.277408</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344714</v>
+        <v>0.347097</v>
       </c>
       <c r="C73" t="n">
-        <v>0.271268</v>
+        <v>0.283058</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267945</v>
+        <v>0.270145</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.338969</v>
+        <v>0.34119</v>
       </c>
       <c r="C74" t="n">
-        <v>0.264361</v>
+        <v>0.27614</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261228</v>
+        <v>0.263314</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333159</v>
+        <v>0.335248</v>
       </c>
       <c r="C75" t="n">
-        <v>0.258291</v>
+        <v>0.2699</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255497</v>
+        <v>0.257215</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327768</v>
+        <v>0.329954</v>
       </c>
       <c r="C76" t="n">
-        <v>0.252612</v>
+        <v>0.264126</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250362</v>
+        <v>0.252022</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.322773</v>
+        <v>0.324934</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247726</v>
+        <v>0.259227</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246204</v>
+        <v>0.24762</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318402</v>
+        <v>0.320313</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243903</v>
+        <v>0.255351</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243399</v>
+        <v>0.244738</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315371</v>
+        <v>0.316952</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241563</v>
+        <v>0.252942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24298</v>
+        <v>0.244142</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.313719</v>
+        <v>0.315412</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241172</v>
+        <v>0.252274</v>
       </c>
       <c r="D80" t="n">
-        <v>0.386613</v>
+        <v>0.388306</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.551101</v>
+        <v>0.552246</v>
       </c>
       <c r="C81" t="n">
-        <v>0.387099</v>
+        <v>0.397866</v>
       </c>
       <c r="D81" t="n">
-        <v>0.377916</v>
+        <v>0.379959</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.544251</v>
+        <v>0.545146</v>
       </c>
       <c r="C82" t="n">
-        <v>0.378858</v>
+        <v>0.392109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.367352</v>
+        <v>0.369418</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534547</v>
+        <v>0.535361</v>
       </c>
       <c r="C83" t="n">
-        <v>0.370455</v>
+        <v>0.382354</v>
       </c>
       <c r="D83" t="n">
-        <v>0.357646</v>
+        <v>0.359698</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.524483</v>
+        <v>0.526062</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362552</v>
+        <v>0.371916</v>
       </c>
       <c r="D84" t="n">
-        <v>0.34912</v>
+        <v>0.350567</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.51439</v>
+        <v>0.515931</v>
       </c>
       <c r="C85" t="n">
-        <v>0.352129</v>
+        <v>0.362868</v>
       </c>
       <c r="D85" t="n">
-        <v>0.339995</v>
+        <v>0.340679</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.505072</v>
+        <v>0.50679</v>
       </c>
       <c r="C86" t="n">
-        <v>0.343475</v>
+        <v>0.354131</v>
       </c>
       <c r="D86" t="n">
-        <v>0.330659</v>
+        <v>0.331997</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.495375</v>
+        <v>0.497567</v>
       </c>
       <c r="C87" t="n">
-        <v>0.334492</v>
+        <v>0.345659</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322725</v>
+        <v>0.324488</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.486123</v>
+        <v>0.487888</v>
       </c>
       <c r="C88" t="n">
-        <v>0.327793</v>
+        <v>0.3382</v>
       </c>
       <c r="D88" t="n">
-        <v>0.315228</v>
+        <v>0.31602</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.477042</v>
+        <v>0.478828</v>
       </c>
       <c r="C89" t="n">
-        <v>0.318566</v>
+        <v>0.331458</v>
       </c>
       <c r="D89" t="n">
-        <v>0.308577</v>
+        <v>0.310008</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.468239</v>
+        <v>0.470479</v>
       </c>
       <c r="C90" t="n">
-        <v>0.312338</v>
+        <v>0.32439</v>
       </c>
       <c r="D90" t="n">
-        <v>0.30156</v>
+        <v>0.303465</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.46013</v>
+        <v>0.462048</v>
       </c>
       <c r="C91" t="n">
-        <v>0.306134</v>
+        <v>0.317011</v>
       </c>
       <c r="D91" t="n">
-        <v>0.296757</v>
+        <v>0.296735</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.452356</v>
+        <v>0.45425</v>
       </c>
       <c r="C92" t="n">
-        <v>0.301233</v>
+        <v>0.311418</v>
       </c>
       <c r="D92" t="n">
-        <v>0.292345</v>
+        <v>0.291781</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.446238</v>
+        <v>0.447924</v>
       </c>
       <c r="C93" t="n">
-        <v>0.296476</v>
+        <v>0.307882</v>
       </c>
       <c r="D93" t="n">
-        <v>0.289079</v>
+        <v>0.290068</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.440827</v>
+        <v>0.44252</v>
       </c>
       <c r="C94" t="n">
-        <v>0.294353</v>
+        <v>0.306266</v>
       </c>
       <c r="D94" t="n">
-        <v>0.564824</v>
+        <v>0.568181</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.566902</v>
+        <v>0.566005</v>
       </c>
       <c r="C95" t="n">
-        <v>0.515543</v>
+        <v>0.525804</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5522359999999999</v>
+        <v>0.55558</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.562543</v>
+        <v>0.563368</v>
       </c>
       <c r="C96" t="n">
-        <v>0.507871</v>
+        <v>0.519851</v>
       </c>
       <c r="D96" t="n">
-        <v>0.53789</v>
+        <v>0.539524</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.555607</v>
+        <v>0.555878</v>
       </c>
       <c r="C97" t="n">
-        <v>0.494562</v>
+        <v>0.507798</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520564</v>
+        <v>0.52439</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.544868</v>
+        <v>0.548249</v>
       </c>
       <c r="C98" t="n">
-        <v>0.479595</v>
+        <v>0.493711</v>
       </c>
       <c r="D98" t="n">
-        <v>0.504489</v>
+        <v>0.508668</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.538004</v>
+        <v>0.5403</v>
       </c>
       <c r="C99" t="n">
-        <v>0.467306</v>
+        <v>0.480828</v>
       </c>
       <c r="D99" t="n">
-        <v>0.489367</v>
+        <v>0.493789</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.530991</v>
+        <v>0.531067</v>
       </c>
       <c r="C100" t="n">
-        <v>0.454427</v>
+        <v>0.469362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.474676</v>
+        <v>0.479152</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.523573</v>
+        <v>0.521998</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443038</v>
+        <v>0.457804</v>
       </c>
       <c r="D101" t="n">
-        <v>0.461431</v>
+        <v>0.466023</v>
       </c>
     </row>
     <row r="102">
@@ -4651,10 +4651,10 @@
         <v>0.515827</v>
       </c>
       <c r="C102" t="n">
-        <v>0.431979</v>
+        <v>0.445639</v>
       </c>
       <c r="D102" t="n">
-        <v>0.448675</v>
+        <v>0.453407</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50812</v>
+        <v>0.509108</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420737</v>
+        <v>0.436135</v>
       </c>
       <c r="D103" t="n">
-        <v>0.436713</v>
+        <v>0.441403</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.502555</v>
+        <v>0.5018359999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.41094</v>
+        <v>0.426227</v>
       </c>
       <c r="D104" t="n">
-        <v>0.425943</v>
+        <v>0.430932</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.496512</v>
+        <v>0.495782</v>
       </c>
       <c r="C105" t="n">
-        <v>0.40293</v>
+        <v>0.417397</v>
       </c>
       <c r="D105" t="n">
-        <v>0.416417</v>
+        <v>0.421205</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.491721</v>
+        <v>0.491235</v>
       </c>
       <c r="C106" t="n">
-        <v>0.395881</v>
+        <v>0.409534</v>
       </c>
       <c r="D106" t="n">
-        <v>0.408506</v>
+        <v>0.412911</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.487477</v>
+        <v>0.486456</v>
       </c>
       <c r="C107" t="n">
-        <v>0.389018</v>
+        <v>0.403768</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402143</v>
+        <v>0.406212</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.483396</v>
+        <v>0.483883</v>
       </c>
       <c r="C108" t="n">
-        <v>0.38437</v>
+        <v>0.399079</v>
       </c>
       <c r="D108" t="n">
-        <v>0.608114</v>
+        <v>0.612885</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482309</v>
+        <v>0.482855</v>
       </c>
       <c r="C109" t="n">
-        <v>0.383369</v>
+        <v>0.397334</v>
       </c>
       <c r="D109" t="n">
-        <v>0.59615</v>
+        <v>0.601267</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.68027</v>
+        <v>0.680473</v>
       </c>
       <c r="C110" t="n">
-        <v>0.597047</v>
+        <v>0.613425</v>
       </c>
       <c r="D110" t="n">
-        <v>0.580837</v>
+        <v>0.586006</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669138</v>
+        <v>0.669615</v>
       </c>
       <c r="C111" t="n">
-        <v>0.582527</v>
+        <v>0.5989</v>
       </c>
       <c r="D111" t="n">
-        <v>0.563937</v>
+        <v>0.570225</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657605</v>
+        <v>0.659264</v>
       </c>
       <c r="C112" t="n">
-        <v>0.568129</v>
+        <v>0.585587</v>
       </c>
       <c r="D112" t="n">
-        <v>0.549726</v>
+        <v>0.5551700000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.647631</v>
+        <v>0.647572</v>
       </c>
       <c r="C113" t="n">
-        <v>0.554041</v>
+        <v>0.571004</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5355490000000001</v>
+        <v>0.540479</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.637558</v>
+        <v>0.6373490000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.540503</v>
+        <v>0.558716</v>
       </c>
       <c r="D114" t="n">
-        <v>0.521977</v>
+        <v>0.527102</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.628194</v>
+        <v>0.628462</v>
       </c>
       <c r="C115" t="n">
-        <v>0.527713</v>
+        <v>0.5466259999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.509554</v>
+        <v>0.515252</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.619256</v>
+        <v>0.618967</v>
       </c>
       <c r="C116" t="n">
-        <v>0.515938</v>
+        <v>0.534411</v>
       </c>
       <c r="D116" t="n">
-        <v>0.498206</v>
+        <v>0.502444</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6108209999999999</v>
+        <v>0.610895</v>
       </c>
       <c r="C117" t="n">
-        <v>0.505369</v>
+        <v>0.523274</v>
       </c>
       <c r="D117" t="n">
-        <v>0.486221</v>
+        <v>0.491183</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.603239</v>
+        <v>0.6025430000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.495279</v>
+        <v>0.512458</v>
       </c>
       <c r="D118" t="n">
-        <v>0.476705</v>
+        <v>0.480653</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.596307</v>
+        <v>0.595108</v>
       </c>
       <c r="C119" t="n">
-        <v>0.485661</v>
+        <v>0.503198</v>
       </c>
       <c r="D119" t="n">
-        <v>0.46551</v>
+        <v>0.471086</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.589735</v>
+        <v>0.5890300000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.47664</v>
+        <v>0.494536</v>
       </c>
       <c r="D120" t="n">
-        <v>0.457139</v>
+        <v>0.462878</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.583389</v>
+        <v>0.582588</v>
       </c>
       <c r="C121" t="n">
-        <v>0.469283</v>
+        <v>0.486909</v>
       </c>
       <c r="D121" t="n">
-        <v>0.450208</v>
+        <v>0.455621</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.578174</v>
+        <v>0.5774</v>
       </c>
       <c r="C122" t="n">
-        <v>0.462609</v>
+        <v>0.480249</v>
       </c>
       <c r="D122" t="n">
-        <v>0.444756</v>
+        <v>0.450203</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5755479999999999</v>
+        <v>0.574364</v>
       </c>
       <c r="C123" t="n">
-        <v>0.458744</v>
+        <v>0.476078</v>
       </c>
       <c r="D123" t="n">
-        <v>0.656179</v>
+        <v>0.660848</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.765744</v>
+        <v>0.766091</v>
       </c>
       <c r="C124" t="n">
-        <v>0.675444</v>
+        <v>0.694273</v>
       </c>
       <c r="D124" t="n">
-        <v>0.641989</v>
+        <v>0.64701</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.756526</v>
+        <v>0.757699</v>
       </c>
       <c r="C125" t="n">
-        <v>0.661135</v>
+        <v>0.682261</v>
       </c>
       <c r="D125" t="n">
-        <v>0.629885</v>
+        <v>0.634158</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.748588</v>
+        <v>0.749601</v>
       </c>
       <c r="C126" t="n">
-        <v>0.647184</v>
+        <v>0.669934</v>
       </c>
       <c r="D126" t="n">
-        <v>0.616309</v>
+        <v>0.6224690000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.739777</v>
+        <v>0.741492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.633942</v>
+        <v>0.65745</v>
       </c>
       <c r="D127" t="n">
-        <v>0.60483</v>
+        <v>0.609776</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732622</v>
+        <v>0.733835</v>
       </c>
       <c r="C128" t="n">
-        <v>0.621447</v>
+        <v>0.645949</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5930800000000001</v>
+        <v>0.599356</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7265160000000001</v>
+        <v>0.726637</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6101569999999999</v>
+        <v>0.637037</v>
       </c>
       <c r="D129" t="n">
-        <v>0.583421</v>
+        <v>0.587738</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.71915</v>
+        <v>0.72016</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6004429999999999</v>
+        <v>0.627595</v>
       </c>
       <c r="D130" t="n">
-        <v>0.573888</v>
+        <v>0.578477</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.713081</v>
+        <v>0.7136169999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.590483</v>
+        <v>0.618364</v>
       </c>
       <c r="D131" t="n">
-        <v>0.564676</v>
+        <v>0.571921</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.708218</v>
+        <v>0.708827</v>
       </c>
       <c r="C132" t="n">
-        <v>0.581687</v>
+        <v>0.6100680000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.556871</v>
+        <v>0.56469</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.703412</v>
+        <v>0.702873</v>
       </c>
       <c r="C133" t="n">
-        <v>0.574932</v>
+        <v>0.602618</v>
       </c>
       <c r="D133" t="n">
-        <v>0.548855</v>
+        <v>0.556619</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.69754</v>
+        <v>0.698987</v>
       </c>
       <c r="C134" t="n">
-        <v>0.56763</v>
+        <v>0.595217</v>
       </c>
       <c r="D134" t="n">
-        <v>0.54113</v>
+        <v>0.549335</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.693618</v>
+        <v>0.694646</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5606910000000001</v>
+        <v>0.589201</v>
       </c>
       <c r="D135" t="n">
-        <v>0.53445</v>
+        <v>0.541867</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.690272</v>
+        <v>0.690963</v>
       </c>
       <c r="C136" t="n">
-        <v>0.55562</v>
+        <v>0.5853159999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.529043</v>
+        <v>0.535775</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.688403</v>
+        <v>0.68821</v>
       </c>
       <c r="C137" t="n">
-        <v>0.552169</v>
+        <v>0.580692</v>
       </c>
       <c r="D137" t="n">
-        <v>0.73767</v>
+        <v>0.747088</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.872505</v>
+        <v>0.872949</v>
       </c>
       <c r="C138" t="n">
-        <v>0.771135</v>
+        <v>0.799745</v>
       </c>
       <c r="D138" t="n">
-        <v>0.72287</v>
+        <v>0.73444</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.867055</v>
+        <v>0.866457</v>
       </c>
       <c r="C139" t="n">
-        <v>0.756876</v>
+        <v>0.789056</v>
       </c>
       <c r="D139" t="n">
-        <v>0.709861</v>
+        <v>0.721342</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.860384</v>
+        <v>0.858694</v>
       </c>
       <c r="C140" t="n">
-        <v>0.742147</v>
+        <v>0.7772520000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.696008</v>
+        <v>0.71144</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8552</v>
+        <v>0.853445</v>
       </c>
       <c r="C141" t="n">
-        <v>0.729117</v>
+        <v>0.766354</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6859730000000001</v>
+        <v>0.700421</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.850714</v>
+        <v>0.847762</v>
       </c>
       <c r="C142" t="n">
-        <v>0.717637</v>
+        <v>0.756569</v>
       </c>
       <c r="D142" t="n">
-        <v>0.674776</v>
+        <v>0.690082</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.845894</v>
+        <v>0.8419219999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.705855</v>
+        <v>0.746729</v>
       </c>
       <c r="D143" t="n">
-        <v>0.662923</v>
+        <v>0.680754</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251559</v>
+        <v>0.247881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203625</v>
+        <v>0.393737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197236</v>
+        <v>0.194766</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24668</v>
+        <v>0.242062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197111</v>
+        <v>0.390416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19051</v>
+        <v>0.188792</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241124</v>
+        <v>0.236995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192392</v>
+        <v>0.38776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185738</v>
+        <v>0.183631</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236368</v>
+        <v>0.231962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187971</v>
+        <v>0.386979</v>
       </c>
       <c r="D5" t="n">
-        <v>0.181847</v>
+        <v>0.179766</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232181</v>
+        <v>0.228108</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183546</v>
+        <v>0.388881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.178076</v>
+        <v>0.175337</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228666</v>
+        <v>0.224867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182217</v>
+        <v>0.39112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175796</v>
+        <v>0.173746</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227696</v>
+        <v>0.222713</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181807</v>
+        <v>0.455293</v>
       </c>
       <c r="D8" t="n">
-        <v>0.176908</v>
+        <v>0.176107</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228404</v>
+        <v>0.223561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.183477</v>
+        <v>0.443669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271288</v>
+        <v>0.271065</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314881</v>
+        <v>0.310339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270825</v>
+        <v>0.434943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261885</v>
+        <v>0.2617</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305648</v>
+        <v>0.301453</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261723</v>
+        <v>0.424379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252572</v>
+        <v>0.252829</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296349</v>
+        <v>0.293181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252796</v>
+        <v>0.416038</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244031</v>
+        <v>0.244513</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288033</v>
+        <v>0.28502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244579</v>
+        <v>0.417041</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235794</v>
+        <v>0.236331</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281005</v>
+        <v>0.276823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237069</v>
+        <v>0.410528</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228134</v>
+        <v>0.228853</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27287</v>
+        <v>0.270376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229823</v>
+        <v>0.404912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221031</v>
+        <v>0.222102</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26602</v>
+        <v>0.263241</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222981</v>
+        <v>0.400502</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21419</v>
+        <v>0.216205</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259587</v>
+        <v>0.257107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217283</v>
+        <v>0.396898</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208309</v>
+        <v>0.210157</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253706</v>
+        <v>0.252092</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211583</v>
+        <v>0.394836</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203051</v>
+        <v>0.205117</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248458</v>
+        <v>0.247555</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207397</v>
+        <v>0.395399</v>
       </c>
       <c r="D19" t="n">
-        <v>0.199269</v>
+        <v>0.20136</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244928</v>
+        <v>0.243244</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203463</v>
+        <v>0.39529</v>
       </c>
       <c r="D20" t="n">
-        <v>0.196086</v>
+        <v>0.198296</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241036</v>
+        <v>0.239242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200661</v>
+        <v>0.396896</v>
       </c>
       <c r="D21" t="n">
-        <v>0.194776</v>
+        <v>0.197389</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238644</v>
+        <v>0.235908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199498</v>
+        <v>0.469185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195842</v>
+        <v>0.198374</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237583</v>
+        <v>0.236136</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200422</v>
+        <v>0.458825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.288866</v>
+        <v>0.28996</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323884</v>
+        <v>0.32195</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286225</v>
+        <v>0.449255</v>
       </c>
       <c r="D24" t="n">
-        <v>0.279017</v>
+        <v>0.279926</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314666</v>
+        <v>0.313207</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276681</v>
+        <v>0.437903</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26959</v>
+        <v>0.271204</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305921</v>
+        <v>0.30457</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267791</v>
+        <v>0.432156</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260379</v>
+        <v>0.262223</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297522</v>
+        <v>0.296484</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259335</v>
+        <v>0.43142</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251896</v>
+        <v>0.253893</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289667</v>
+        <v>0.288501</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251307</v>
+        <v>0.42332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243997</v>
+        <v>0.245802</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282188</v>
+        <v>0.281198</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243849</v>
+        <v>0.417638</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236519</v>
+        <v>0.238429</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275152</v>
+        <v>0.27427</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236893</v>
+        <v>0.413574</v>
       </c>
       <c r="D30" t="n">
-        <v>0.229438</v>
+        <v>0.231495</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268689</v>
+        <v>0.267785</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230335</v>
+        <v>0.412024</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222947</v>
+        <v>0.225443</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262572</v>
+        <v>0.261869</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224222</v>
+        <v>0.408665</v>
       </c>
       <c r="D32" t="n">
-        <v>0.216882</v>
+        <v>0.219753</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257338</v>
+        <v>0.256526</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219351</v>
+        <v>0.409258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211556</v>
+        <v>0.214772</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251922</v>
+        <v>0.251216</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214453</v>
+        <v>0.40775</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207366</v>
+        <v>0.210968</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247333</v>
+        <v>0.247504</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209719</v>
+        <v>0.410719</v>
       </c>
       <c r="D35" t="n">
-        <v>0.204375</v>
+        <v>0.208253</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245233</v>
+        <v>0.244586</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207713</v>
+        <v>0.413997</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203409</v>
+        <v>0.208051</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.244008</v>
+        <v>0.243493</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207223</v>
+        <v>0.479041</v>
       </c>
       <c r="D37" t="n">
-        <v>0.298554</v>
+        <v>0.301249</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3273</v>
+        <v>0.327018</v>
       </c>
       <c r="C38" t="n">
-        <v>0.295598</v>
+        <v>0.470002</v>
       </c>
       <c r="D38" t="n">
-        <v>0.288673</v>
+        <v>0.291435</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318665</v>
+        <v>0.317506</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286531</v>
+        <v>0.458634</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279125</v>
+        <v>0.282025</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310276</v>
+        <v>0.309107</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277402</v>
+        <v>0.448123</v>
       </c>
       <c r="D40" t="n">
-        <v>0.270036</v>
+        <v>0.273141</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301502</v>
+        <v>0.300865</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269138</v>
+        <v>0.44771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261414</v>
+        <v>0.264692</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294451</v>
+        <v>0.2934</v>
       </c>
       <c r="C42" t="n">
-        <v>0.261162</v>
+        <v>0.440554</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253307</v>
+        <v>0.256679</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287433</v>
+        <v>0.285931</v>
       </c>
       <c r="C43" t="n">
-        <v>0.253395</v>
+        <v>0.432624</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245472</v>
+        <v>0.249225</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280622</v>
+        <v>0.279365</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246125</v>
+        <v>0.427634</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238488</v>
+        <v>0.242123</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274289</v>
+        <v>0.273463</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239711</v>
+        <v>0.42391</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231929</v>
+        <v>0.235484</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268486</v>
+        <v>0.267052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233594</v>
+        <v>0.421052</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225988</v>
+        <v>0.229529</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263218</v>
+        <v>0.261894</v>
       </c>
       <c r="C47" t="n">
-        <v>0.228064</v>
+        <v>0.419945</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220717</v>
+        <v>0.224129</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257814</v>
+        <v>0.257136</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222956</v>
+        <v>0.420775</v>
       </c>
       <c r="D48" t="n">
-        <v>0.216168</v>
+        <v>0.219829</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252886</v>
+        <v>0.253042</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219212</v>
+        <v>0.423363</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212794</v>
+        <v>0.216708</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250073</v>
+        <v>0.250162</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21625</v>
+        <v>0.427379</v>
       </c>
       <c r="D50" t="n">
-        <v>0.211127</v>
+        <v>0.215154</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248941</v>
+        <v>0.24849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214803</v>
+        <v>0.500398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.310008</v>
+        <v>0.311961</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250582</v>
+        <v>0.249802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216149</v>
+        <v>0.487293</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29984</v>
+        <v>0.301997</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33064</v>
+        <v>0.331512</v>
       </c>
       <c r="C53" t="n">
-        <v>0.297874</v>
+        <v>0.477328</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290184</v>
+        <v>0.292564</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322442</v>
+        <v>0.323441</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288973</v>
+        <v>0.467692</v>
       </c>
       <c r="D54" t="n">
-        <v>0.28065</v>
+        <v>0.283629</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.314753</v>
+        <v>0.31564</v>
       </c>
       <c r="C55" t="n">
-        <v>0.280542</v>
+        <v>0.461755</v>
       </c>
       <c r="D55" t="n">
-        <v>0.271781</v>
+        <v>0.275429</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307474</v>
+        <v>0.308107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.272751</v>
+        <v>0.459455</v>
       </c>
       <c r="D56" t="n">
-        <v>0.26367</v>
+        <v>0.267438</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.30055</v>
+        <v>0.301</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265198</v>
+        <v>0.450501</v>
       </c>
       <c r="D57" t="n">
-        <v>0.256009</v>
+        <v>0.259897</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294133</v>
+        <v>0.294292</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25794</v>
+        <v>0.444512</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24867</v>
+        <v>0.252835</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288011</v>
+        <v>0.288115</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251269</v>
+        <v>0.442812</v>
       </c>
       <c r="D59" t="n">
-        <v>0.242121</v>
+        <v>0.246272</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282401</v>
+        <v>0.282336</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245276</v>
+        <v>0.437824</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235438</v>
+        <v>0.24035</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277332</v>
+        <v>0.277071</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239598</v>
+        <v>0.434456</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229946</v>
+        <v>0.235034</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272832</v>
+        <v>0.272481</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234624</v>
+        <v>0.435876</v>
       </c>
       <c r="D62" t="n">
-        <v>0.225997</v>
+        <v>0.230645</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268965</v>
+        <v>0.268406</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230321</v>
+        <v>0.436786</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222426</v>
+        <v>0.227339</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266207</v>
+        <v>0.265657</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22695</v>
+        <v>0.44334</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220348</v>
+        <v>0.225482</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264586</v>
+        <v>0.263805</v>
       </c>
       <c r="C65" t="n">
-        <v>0.225003</v>
+        <v>0.5225880000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220973</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265115</v>
+        <v>0.263875</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225873</v>
+        <v>0.506403</v>
       </c>
       <c r="D66" t="n">
-        <v>0.332108</v>
+        <v>0.339114</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388902</v>
+        <v>0.38619</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332803</v>
+        <v>0.495072</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321126</v>
+        <v>0.32858</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380272</v>
+        <v>0.378162</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323517</v>
+        <v>0.48283</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311506</v>
+        <v>0.318626</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372885</v>
+        <v>0.370868</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314599</v>
+        <v>0.472866</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302357</v>
+        <v>0.309299</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365996</v>
+        <v>0.363623</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306125</v>
+        <v>0.476119</v>
       </c>
       <c r="D70" t="n">
-        <v>0.293687</v>
+        <v>0.300434</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35966</v>
+        <v>0.357433</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297738</v>
+        <v>0.468896</v>
       </c>
       <c r="D71" t="n">
-        <v>0.285311</v>
+        <v>0.29181</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353179</v>
+        <v>0.35086</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290432</v>
+        <v>0.462971</v>
       </c>
       <c r="D72" t="n">
-        <v>0.277408</v>
+        <v>0.283703</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347097</v>
+        <v>0.344666</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283058</v>
+        <v>0.458371</v>
       </c>
       <c r="D73" t="n">
-        <v>0.270145</v>
+        <v>0.27624</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34119</v>
+        <v>0.33857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27614</v>
+        <v>0.454619</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263314</v>
+        <v>0.269412</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335248</v>
+        <v>0.332686</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2699</v>
+        <v>0.452079</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257215</v>
+        <v>0.263133</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329954</v>
+        <v>0.327049</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264126</v>
+        <v>0.452567</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252022</v>
+        <v>0.257562</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324934</v>
+        <v>0.321967</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259227</v>
+        <v>0.453262</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24762</v>
+        <v>0.253281</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320313</v>
+        <v>0.317607</v>
       </c>
       <c r="C78" t="n">
-        <v>0.255351</v>
+        <v>0.457407</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244738</v>
+        <v>0.250259</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.316952</v>
+        <v>0.314146</v>
       </c>
       <c r="C79" t="n">
-        <v>0.252942</v>
+        <v>0.545607</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244142</v>
+        <v>0.249758</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315412</v>
+        <v>0.312899</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252274</v>
+        <v>0.531494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388306</v>
+        <v>0.401915</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.552246</v>
+        <v>0.5486220000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.397866</v>
+        <v>0.5190900000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.379959</v>
+        <v>0.390422</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.545146</v>
+        <v>0.541961</v>
       </c>
       <c r="C82" t="n">
-        <v>0.392109</v>
+        <v>0.506194</v>
       </c>
       <c r="D82" t="n">
-        <v>0.369418</v>
+        <v>0.384503</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.535361</v>
+        <v>0.5330240000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.382354</v>
+        <v>0.498266</v>
       </c>
       <c r="D83" t="n">
-        <v>0.359698</v>
+        <v>0.374831</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.526062</v>
+        <v>0.522755</v>
       </c>
       <c r="C84" t="n">
-        <v>0.371916</v>
+        <v>0.517381</v>
       </c>
       <c r="D84" t="n">
-        <v>0.350567</v>
+        <v>0.360654</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.515931</v>
+        <v>0.513411</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362868</v>
+        <v>0.515447</v>
       </c>
       <c r="D85" t="n">
-        <v>0.340679</v>
+        <v>0.353976</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.50679</v>
+        <v>0.504939</v>
       </c>
       <c r="C86" t="n">
-        <v>0.354131</v>
+        <v>0.51351</v>
       </c>
       <c r="D86" t="n">
-        <v>0.331997</v>
+        <v>0.344631</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.497567</v>
+        <v>0.49547</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345659</v>
+        <v>0.512078</v>
       </c>
       <c r="D87" t="n">
-        <v>0.324488</v>
+        <v>0.332922</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.487888</v>
+        <v>0.486621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3382</v>
+        <v>0.505557</v>
       </c>
       <c r="D88" t="n">
-        <v>0.31602</v>
+        <v>0.326483</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.478828</v>
+        <v>0.477361</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331458</v>
+        <v>0.501982</v>
       </c>
       <c r="D89" t="n">
-        <v>0.310008</v>
+        <v>0.320392</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.470479</v>
+        <v>0.468755</v>
       </c>
       <c r="C90" t="n">
-        <v>0.32439</v>
+        <v>0.500186</v>
       </c>
       <c r="D90" t="n">
-        <v>0.303465</v>
+        <v>0.313538</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.462048</v>
+        <v>0.460788</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317011</v>
+        <v>0.501266</v>
       </c>
       <c r="D91" t="n">
-        <v>0.296735</v>
+        <v>0.307705</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.45425</v>
+        <v>0.452543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.311418</v>
+        <v>0.500789</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291781</v>
+        <v>0.302092</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.447924</v>
+        <v>0.44509</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307882</v>
+        <v>0.507203</v>
       </c>
       <c r="D93" t="n">
-        <v>0.290068</v>
+        <v>0.300505</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.44252</v>
+        <v>0.44152</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306266</v>
+        <v>0.651617</v>
       </c>
       <c r="D94" t="n">
-        <v>0.568181</v>
+        <v>0.5675249999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.566005</v>
+        <v>0.570363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.525804</v>
+        <v>0.626152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55558</v>
+        <v>0.555254</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.563368</v>
+        <v>0.56782</v>
       </c>
       <c r="C96" t="n">
-        <v>0.519851</v>
+        <v>0.614619</v>
       </c>
       <c r="D96" t="n">
-        <v>0.539524</v>
+        <v>0.539515</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.555878</v>
+        <v>0.559615</v>
       </c>
       <c r="C97" t="n">
-        <v>0.507798</v>
+        <v>0.601916</v>
       </c>
       <c r="D97" t="n">
-        <v>0.52439</v>
+        <v>0.5239549999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.548249</v>
+        <v>0.550241</v>
       </c>
       <c r="C98" t="n">
-        <v>0.493711</v>
+        <v>0.643172</v>
       </c>
       <c r="D98" t="n">
-        <v>0.508668</v>
+        <v>0.50652</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5403</v>
+        <v>0.542696</v>
       </c>
       <c r="C99" t="n">
-        <v>0.480828</v>
+        <v>0.639178</v>
       </c>
       <c r="D99" t="n">
-        <v>0.493789</v>
+        <v>0.493038</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.531067</v>
+        <v>0.535201</v>
       </c>
       <c r="C100" t="n">
-        <v>0.469362</v>
+        <v>0.635423</v>
       </c>
       <c r="D100" t="n">
-        <v>0.479152</v>
+        <v>0.478958</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.521998</v>
+        <v>0.527101</v>
       </c>
       <c r="C101" t="n">
-        <v>0.457804</v>
+        <v>0.628475</v>
       </c>
       <c r="D101" t="n">
-        <v>0.466023</v>
+        <v>0.465557</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.515827</v>
+        <v>0.520412</v>
       </c>
       <c r="C102" t="n">
-        <v>0.445639</v>
+        <v>0.625851</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453407</v>
+        <v>0.452832</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509108</v>
+        <v>0.512497</v>
       </c>
       <c r="C103" t="n">
-        <v>0.436135</v>
+        <v>0.623275</v>
       </c>
       <c r="D103" t="n">
-        <v>0.441403</v>
+        <v>0.438066</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5018359999999999</v>
+        <v>0.507311</v>
       </c>
       <c r="C104" t="n">
-        <v>0.426227</v>
+        <v>0.622839</v>
       </c>
       <c r="D104" t="n">
-        <v>0.430932</v>
+        <v>0.430951</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.495782</v>
+        <v>0.501497</v>
       </c>
       <c r="C105" t="n">
-        <v>0.417397</v>
+        <v>0.627406</v>
       </c>
       <c r="D105" t="n">
-        <v>0.421205</v>
+        <v>0.422015</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.491235</v>
+        <v>0.496715</v>
       </c>
       <c r="C106" t="n">
-        <v>0.409534</v>
+        <v>0.633162</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412911</v>
+        <v>0.408016</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.486456</v>
+        <v>0.492557</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403768</v>
+        <v>0.642266</v>
       </c>
       <c r="D107" t="n">
-        <v>0.406212</v>
+        <v>0.402336</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.483883</v>
+        <v>0.48962</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399079</v>
+        <v>0.827118</v>
       </c>
       <c r="D108" t="n">
-        <v>0.612885</v>
+        <v>0.599521</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482855</v>
+        <v>0.488983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.397334</v>
+        <v>0.809013</v>
       </c>
       <c r="D109" t="n">
-        <v>0.601267</v>
+        <v>0.588831</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.680473</v>
+        <v>0.682761</v>
       </c>
       <c r="C110" t="n">
-        <v>0.613425</v>
+        <v>0.79521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586006</v>
+        <v>0.58243</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669615</v>
+        <v>0.672602</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5989</v>
+        <v>0.780202</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570225</v>
+        <v>0.565793</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659264</v>
+        <v>0.661218</v>
       </c>
       <c r="C112" t="n">
-        <v>0.585587</v>
+        <v>0.815563</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5551700000000001</v>
+        <v>0.5481200000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.647572</v>
+        <v>0.650322</v>
       </c>
       <c r="C113" t="n">
-        <v>0.571004</v>
+        <v>0.805131</v>
       </c>
       <c r="D113" t="n">
-        <v>0.540479</v>
+        <v>0.539961</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6373490000000001</v>
+        <v>0.640744</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558716</v>
+        <v>0.794172</v>
       </c>
       <c r="D114" t="n">
-        <v>0.527102</v>
+        <v>0.526473</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.628462</v>
+        <v>0.631146</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5466259999999999</v>
+        <v>0.787403</v>
       </c>
       <c r="D115" t="n">
-        <v>0.515252</v>
+        <v>0.514564</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.618967</v>
+        <v>0.6230329999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.534411</v>
+        <v>0.780531</v>
       </c>
       <c r="D116" t="n">
-        <v>0.502444</v>
+        <v>0.500368</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610895</v>
+        <v>0.614215</v>
       </c>
       <c r="C117" t="n">
-        <v>0.523274</v>
+        <v>0.778372</v>
       </c>
       <c r="D117" t="n">
-        <v>0.491183</v>
+        <v>0.489352</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6025430000000001</v>
+        <v>0.606464</v>
       </c>
       <c r="C118" t="n">
-        <v>0.512458</v>
+        <v>0.779962</v>
       </c>
       <c r="D118" t="n">
-        <v>0.480653</v>
+        <v>0.478809</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.595108</v>
+        <v>0.59936</v>
       </c>
       <c r="C119" t="n">
-        <v>0.503198</v>
+        <v>0.786036</v>
       </c>
       <c r="D119" t="n">
-        <v>0.471086</v>
+        <v>0.465397</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5890300000000001</v>
+        <v>0.592719</v>
       </c>
       <c r="C120" t="n">
-        <v>0.494536</v>
+        <v>0.797975</v>
       </c>
       <c r="D120" t="n">
-        <v>0.462878</v>
+        <v>0.462516</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.582588</v>
+        <v>0.587364</v>
       </c>
       <c r="C121" t="n">
-        <v>0.486909</v>
+        <v>0.816211</v>
       </c>
       <c r="D121" t="n">
-        <v>0.455621</v>
+        <v>0.45071</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5774</v>
+        <v>0.582452</v>
       </c>
       <c r="C122" t="n">
-        <v>0.480249</v>
+        <v>1.05566</v>
       </c>
       <c r="D122" t="n">
-        <v>0.450203</v>
+        <v>0.451778</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574364</v>
+        <v>0.579559</v>
       </c>
       <c r="C123" t="n">
-        <v>0.476078</v>
+        <v>1.02566</v>
       </c>
       <c r="D123" t="n">
-        <v>0.660848</v>
+        <v>0.654984</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.766091</v>
+        <v>0.7673140000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.694273</v>
+        <v>1.00378</v>
       </c>
       <c r="D124" t="n">
-        <v>0.64701</v>
+        <v>0.643226</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.757699</v>
+        <v>0.7607429999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.682261</v>
+        <v>0.976552</v>
       </c>
       <c r="D125" t="n">
-        <v>0.634158</v>
+        <v>0.62987</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.749601</v>
+        <v>0.747182</v>
       </c>
       <c r="C126" t="n">
-        <v>0.669934</v>
+        <v>0.960018</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6224690000000001</v>
+        <v>0.621997</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741492</v>
+        <v>0.74043</v>
       </c>
       <c r="C127" t="n">
-        <v>0.65745</v>
+        <v>0.989838</v>
       </c>
       <c r="D127" t="n">
-        <v>0.609776</v>
+        <v>0.611275</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.733835</v>
+        <v>0.734513</v>
       </c>
       <c r="C128" t="n">
-        <v>0.645949</v>
+        <v>0.97348</v>
       </c>
       <c r="D128" t="n">
-        <v>0.599356</v>
+        <v>0.598537</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.726637</v>
+        <v>0.72953</v>
       </c>
       <c r="C129" t="n">
-        <v>0.637037</v>
+        <v>0.954122</v>
       </c>
       <c r="D129" t="n">
-        <v>0.587738</v>
+        <v>0.588147</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.72016</v>
+        <v>0.720062</v>
       </c>
       <c r="C130" t="n">
-        <v>0.627595</v>
+        <v>0.946273</v>
       </c>
       <c r="D130" t="n">
-        <v>0.578477</v>
+        <v>0.5823120000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7136169999999999</v>
+        <v>0.7135280000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.618364</v>
+        <v>0.93879</v>
       </c>
       <c r="D131" t="n">
-        <v>0.571921</v>
+        <v>0.573004</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.708827</v>
+        <v>0.71228</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6100680000000001</v>
+        <v>0.934687</v>
       </c>
       <c r="D132" t="n">
-        <v>0.56469</v>
+        <v>0.565526</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.702873</v>
+        <v>0.707886</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602618</v>
+        <v>0.944269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.556619</v>
+        <v>0.556554</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698987</v>
+        <v>0.702017</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595217</v>
+        <v>0.953801</v>
       </c>
       <c r="D134" t="n">
-        <v>0.549335</v>
+        <v>0.549268</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.694646</v>
+        <v>0.698893</v>
       </c>
       <c r="C135" t="n">
-        <v>0.589201</v>
+        <v>0.974341</v>
       </c>
       <c r="D135" t="n">
-        <v>0.541867</v>
+        <v>0.5443519999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.690963</v>
+        <v>0.693069</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5853159999999999</v>
+        <v>1.23836</v>
       </c>
       <c r="D136" t="n">
-        <v>0.535775</v>
+        <v>0.539735</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.68821</v>
+        <v>0.688992</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580692</v>
+        <v>1.19955</v>
       </c>
       <c r="D137" t="n">
-        <v>0.747088</v>
+        <v>0.745103</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.872949</v>
+        <v>0.874378</v>
       </c>
       <c r="C138" t="n">
-        <v>0.799745</v>
+        <v>1.1693</v>
       </c>
       <c r="D138" t="n">
-        <v>0.73444</v>
+        <v>0.73258</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866457</v>
+        <v>0.868461</v>
       </c>
       <c r="C139" t="n">
-        <v>0.789056</v>
+        <v>1.14243</v>
       </c>
       <c r="D139" t="n">
-        <v>0.721342</v>
+        <v>0.719687</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.858694</v>
+        <v>0.863384</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7772520000000001</v>
+        <v>1.11442</v>
       </c>
       <c r="D140" t="n">
-        <v>0.71144</v>
+        <v>0.708475</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.853445</v>
+        <v>0.85787</v>
       </c>
       <c r="C141" t="n">
-        <v>0.766354</v>
+        <v>1.13965</v>
       </c>
       <c r="D141" t="n">
-        <v>0.700421</v>
+        <v>0.697113</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.847762</v>
+        <v>0.849039</v>
       </c>
       <c r="C142" t="n">
-        <v>0.756569</v>
+        <v>1.1152</v>
       </c>
       <c r="D142" t="n">
-        <v>0.690082</v>
+        <v>0.687246</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8419219999999999</v>
+        <v>0.845236</v>
       </c>
       <c r="C143" t="n">
-        <v>0.746729</v>
+        <v>1.08685</v>
       </c>
       <c r="D143" t="n">
-        <v>0.680754</v>
+        <v>0.679048</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.176173</v>
+                  <v>0.158876</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.170454</v>
+                  <v>0.161214</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16664</v>
+                  <v>0.155941</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.162842</v>
+                  <v>0.151916</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.15949</v>
+                  <v>0.150106</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.157601</v>
+                  <v>0.148802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.157526</v>
+                  <v>0.149237</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158158</v>
+                  <v>0.140723</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224312</v>
+                  <v>0.210905</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216303</v>
+                  <v>0.198261</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20828</v>
+                  <v>0.204428</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.199434</v>
+                  <v>0.196456</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.192234</v>
+                  <v>0.177931</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.186342</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.179839</v>
+                  <v>0.170107</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.174481</v>
+                  <v>0.163874</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.169736</v>
+                  <v>0.159725</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164781</v>
+                  <v>0.157348</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.161275</v>
+                  <v>0.151874</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.1601</v>
+                  <v>0.152381</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.160533</v>
+                  <v>0.154995</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.161606</v>
+                  <v>0.157347</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244449</v>
+                  <v>0.237559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234816</v>
+                  <v>0.220873</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.226429</v>
+                  <v>0.214475</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.217678</v>
+                  <v>0.206091</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.209945</v>
+                  <v>0.197067</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.203289</v>
+                  <v>0.192214</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196451</v>
+                  <v>0.184954</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190226</v>
+                  <v>0.184717</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187762</v>
+                  <v>0.176078</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.183073</v>
+                  <v>0.170965</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.179351</v>
+                  <v>0.169165</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.174756</v>
+                  <v>0.168637</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.174169</v>
+                  <v>0.167198</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.174738</v>
+                  <v>0.163541</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.249169</v>
+                  <v>0.241383</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.239482</v>
+                  <v>0.233404</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.230602</v>
+                  <v>0.225761</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.218626</v>
+                  <v>0.217497</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.210872</v>
+                  <v>0.207765</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.203724</v>
+                  <v>0.200795</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.196883</v>
+                  <v>0.19468</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.191412</v>
+                  <v>0.189512</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.18555</v>
+                  <v>0.183938</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.181005</v>
+                  <v>0.179517</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.177226</v>
+                  <v>0.17516</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.174961</v>
+                  <v>0.172927</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.173021</v>
+                  <v>0.171961</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173452</v>
+                  <v>0.17438</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.17753</v>
+                  <v>0.178211</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.24268</v>
+                  <v>0.245341</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233963</v>
+                  <v>0.23579</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.2252</v>
+                  <v>0.227579</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.217991</v>
+                  <v>0.219406</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.209943</v>
+                  <v>0.211736</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.203009</v>
+                  <v>0.205172</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.196908</v>
+                  <v>0.196218</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.191258</v>
+                  <v>0.190791</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.18607</v>
+                  <v>0.18588</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.182011</v>
+                  <v>0.181958</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.178467</v>
+                  <v>0.178817</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.177595</v>
+                  <v>0.177214</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177299</v>
+                  <v>0.177436</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.180167</v>
+                  <v>0.17996</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.244646</v>
+                  <v>0.245532</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235989</v>
+                  <v>0.236902</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228156</v>
+                  <v>0.228132</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220387</v>
+                  <v>0.219607</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212482</v>
+                  <v>0.213187</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205975</v>
+                  <v>0.206148</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.200613</v>
+                  <v>0.200273</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.194739</v>
+                  <v>0.195172</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.189617</v>
+                  <v>0.189341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.184908</v>
+                  <v>0.185412</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.181292</v>
+                  <v>0.181546</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.178826</v>
+                  <v>0.180116</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179163</v>
+                  <v>0.179348</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.181138</v>
+                  <v>0.182272</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257644</v>
+                  <v>0.259263</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.249569</v>
+                  <v>0.251205</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.241893</v>
+                  <v>0.2435</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.234751</v>
+                  <v>0.235615</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.226978</v>
+                  <v>0.228388</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.219799</v>
+                  <v>0.221376</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213375</v>
+                  <v>0.214945</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.207166</v>
+                  <v>0.208247</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.201474</v>
+                  <v>0.202942</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.19677</v>
+                  <v>0.197737</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.192537</v>
+                  <v>0.193751</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189582</v>
+                  <v>0.190759</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.188357</v>
+                  <v>0.189849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18918</v>
+                  <v>0.190332</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.26912</v>
+                  <v>0.278685</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263515</v>
+                  <v>0.272544</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.258001</v>
+                  <v>0.265182</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.251707</v>
+                  <v>0.258313</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.244324</v>
+                  <v>0.251306</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.237919</v>
+                  <v>0.244968</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.232212</v>
+                  <v>0.238935</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227439</v>
+                  <v>0.23311</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221821</v>
+                  <v>0.227571</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.217357</v>
+                  <v>0.223329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213424</v>
+                  <v>0.218763</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210226</v>
+                  <v>0.215284</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.207964</v>
+                  <v>0.213046</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207921</v>
+                  <v>0.212911</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209559</v>
+                  <v>0.214607</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.283981</v>
+                  <v>0.288817</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.277131</v>
+                  <v>0.28218</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.270794</v>
+                  <v>0.275825</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.264867</v>
+                  <v>0.269577</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.259794</v>
+                  <v>0.263923</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.253954</v>
+                  <v>0.258708</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24921</v>
+                  <v>0.253064</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.244865</v>
+                  <v>0.248715</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.240339</v>
+                  <v>0.24411</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.236998</v>
+                  <v>0.240326</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.233953</v>
+                  <v>0.237178</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.231224</v>
+                  <v>0.234517</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.230513</v>
+                  <v>0.236811</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.231737</v>
+                  <v>0.234526</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319243</v>
+                  <v>0.318667</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.313506</v>
+                  <v>0.312584</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.307885</v>
+                  <v>0.306993</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.302012</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.296555</v>
+                  <v>0.296711</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.291959</v>
+                  <v>0.29159</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.287332</v>
+                  <v>0.287093</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.283552</v>
+                  <v>0.283405</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.279594</v>
+                  <v>0.280238</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.276526</v>
+                  <v>0.275407</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.273541</v>
+                  <v>0.272868</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.271458</v>
+                  <v>0.270697</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.271185</v>
+                  <v>0.270941</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.271892</v>
+                  <v>0.277476</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.37228</v>
+                  <v>0.379316</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.367218</v>
+                  <v>0.373187</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.360389</v>
+                  <v>0.366806</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.354692</v>
+                  <v>0.362246</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.350179</v>
+                  <v>0.356714</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.345269</v>
+                  <v>0.352186</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185496</v>
+                  <v>0.242276</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17914</v>
+                  <v>0.245317</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.170524</v>
+                  <v>0.238347</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.169499</v>
+                  <v>0.248739</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.149657</v>
+                  <v>0.239565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.161619</v>
+                  <v>0.253177</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160816</v>
+                  <v>0.303239</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.161312</v>
+                  <v>0.293143</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.237105</v>
+                  <v>0.289925</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225645</v>
+                  <v>0.280454</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217736</v>
+                  <v>0.280751</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210439</v>
+                  <v>0.276354</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.202388</v>
+                  <v>0.277223</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.195072</v>
+                  <v>0.275769</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.188701</v>
+                  <v>0.267259</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.182715</v>
+                  <v>0.271819</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.178189</v>
+                  <v>0.267378</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.173444</v>
+                  <v>0.26539</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.169013</v>
+                  <v>0.275272</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.16628</v>
+                  <v>0.277668</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16432</v>
+                  <v>0.335169</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164868</v>
+                  <v>0.328025</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.244335</v>
+                  <v>0.317668</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.234904</v>
+                  <v>0.310287</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227016</v>
+                  <v>0.303702</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218274</v>
+                  <v>0.315946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211272</v>
+                  <v>0.318479</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.204111</v>
+                  <v>0.309369</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196912</v>
+                  <v>0.300635</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.190547</v>
+                  <v>0.306206</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.187527</v>
+                  <v>0.303272</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.182838</v>
+                  <v>0.301406</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.180848</v>
+                  <v>0.300323</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.17426</v>
+                  <v>0.302527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.172159</v>
+                  <v>0.303998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171778</v>
+                  <v>0.355212</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.256269</v>
+                  <v>0.348006</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.246739</v>
+                  <v>0.341682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.23547</v>
+                  <v>0.330945</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225397</v>
+                  <v>0.33383</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.217593</v>
+                  <v>0.3284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.209907</v>
+                  <v>0.322896</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.202922</v>
+                  <v>0.319092</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.196554</v>
+                  <v>0.315296</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.190564</v>
+                  <v>0.311465</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.185285</v>
+                  <v>0.310595</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.180769</v>
+                  <v>0.311461</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.177066</v>
+                  <v>0.312306</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.174203</v>
+                  <v>0.315883</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.173722</v>
+                  <v>0.376165</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.175298</v>
+                  <v>0.366457</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.251635</v>
+                  <v>0.356919</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.242034</v>
+                  <v>0.348636</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.233004</v>
+                  <v>0.34225</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225257</v>
+                  <v>0.349186</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217553</v>
+                  <v>0.342571</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.209839</v>
+                  <v>0.338049</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.202907</v>
+                  <v>0.330812</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.197025</v>
+                  <v>0.328029</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.1914</v>
+                  <v>0.325825</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.186386</v>
+                  <v>0.325188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.182207</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.179104</v>
+                  <v>0.328388</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177727</v>
+                  <v>0.394765</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.178898</v>
+                  <v>0.383521</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.260092</v>
+                  <v>0.373421</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.251907</v>
+                  <v>0.363382</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.241291</v>
+                  <v>0.355342</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.232729</v>
+                  <v>0.359583</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224656</v>
+                  <v>0.353516</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216811</v>
+                  <v>0.347095</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.20989</v>
+                  <v>0.343045</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.203254</v>
+                  <v>0.33957</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.19737</v>
+                  <v>0.335342</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.192268</v>
+                  <v>0.335714</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.187689</v>
+                  <v>0.335851</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.184139</v>
+                  <v>0.337831</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.182458</v>
+                  <v>0.417771</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.182405</v>
+                  <v>0.409385</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.263051</v>
+                  <v>0.398219</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.254497</v>
+                  <v>0.388863</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.245979</v>
+                  <v>0.379638</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.237991</v>
+                  <v>0.380784</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.229829</v>
+                  <v>0.374844</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.222655</v>
+                  <v>0.367629</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.215492</v>
+                  <v>0.363659</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208861</v>
+                  <v>0.35982</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.202819</v>
+                  <v>0.357441</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197551</v>
+                  <v>0.354621</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.19288</v>
+                  <v>0.35597</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.189225</v>
+                  <v>0.35806</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.186981</v>
+                  <v>0.361104</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.18652</v>
+                  <v>0.460271</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.279398</v>
+                  <v>0.448516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.272839</v>
+                  <v>0.438966</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.265664</v>
+                  <v>0.429595</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.25832</v>
+                  <v>0.431839</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.251327</v>
+                  <v>0.425911</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.243832</v>
+                  <v>0.419946</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.237699</v>
+                  <v>0.415513</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.231533</v>
+                  <v>0.412338</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.225275</v>
+                  <v>0.411588</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.221074</v>
+                  <v>0.411164</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.215871</v>
+                  <v>0.414228</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212823</v>
+                  <v>0.419344</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.211155</v>
+                  <v>0.42665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.210494</v>
+                  <v>0.549334</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.212712</v>
+                  <v>0.536852</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.296635</v>
+                  <v>0.524792</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.289079</v>
+                  <v>0.514422</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.281344</v>
+                  <v>0.515606</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.274607</v>
+                  <v>0.507982</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.268304</v>
+                  <v>0.500902</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.26231</v>
+                  <v>0.494814</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256897</v>
+                  <v>0.491499</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.251768</v>
+                  <v>0.491159</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.247624</v>
+                  <v>0.493968</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.243795</v>
+                  <v>0.501803</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.240537</v>
+                  <v>0.513307</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.237909</v>
+                  <v>0.528149</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237154</v>
+                  <v>0.676284</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238699</v>
+                  <v>0.6586689999999999</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.324651</v>
+                  <v>0.643774</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318184</v>
+                  <v>0.629144</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.312519</v>
+                  <v>0.61551</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.307125</v>
+                  <v>0.6149019999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.302006</v>
+                  <v>0.603787</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.29769</v>
+                  <v>0.595767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.293184</v>
+                  <v>0.582529</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.28978</v>
+                  <v>0.582479</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.286402</v>
+                  <v>0.583156</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.283895</v>
+                  <v>0.592506</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.281675</v>
+                  <v>0.60753</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.280269</v>
+                  <v>0.626672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.280711</v>
+                  <v>0.798616</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.282617</v>
+                  <v>0.778193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.382259</v>
+                  <v>0.757042</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37477</v>
+                  <v>0.73654</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.368197</v>
+                  <v>0.720079</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.362373</v>
+                  <v>0.718014</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.35649</v>
+                  <v>0.70311</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.35135</v>
+                  <v>0.691505</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.177535</v>
+                  <v>0.146893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.17311</v>
+                  <v>0.131691</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.162867</v>
+                  <v>0.137036</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.164279</v>
+                  <v>0.131842</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160258</v>
+                  <v>0.125616</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.149896</v>
+                  <v>0.121087</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.158577</v>
+                  <v>0.121584</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.234336</v>
+                  <v>0.194024</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224925</v>
+                  <v>0.184754</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216883</v>
+                  <v>0.180606</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20972</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.201848</v>
+                  <v>0.171019</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.194494</v>
+                  <v>0.162719</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.187921</v>
+                  <v>0.155949</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.182167</v>
+                  <v>0.152252</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.177316</v>
+                  <v>0.149936</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.171691</v>
+                  <v>0.140064</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.168023</v>
+                  <v>0.137412</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165471</v>
+                  <v>0.136896</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163669</v>
+                  <v>0.131549</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163704</v>
+                  <v>0.138279</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.242678</v>
+                  <v>0.226752</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.235687</v>
+                  <v>0.217993</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.22455</v>
+                  <v>0.211366</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.218977</v>
+                  <v>0.201647</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.21035</v>
+                  <v>0.195417</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.203212</v>
+                  <v>0.187558</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.195416</v>
+                  <v>0.176767</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.188549</v>
+                  <v>0.17144</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.18509</v>
+                  <v>0.162653</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.182046</v>
+                  <v>0.158209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.179224</v>
+                  <v>0.156432</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.177848</v>
+                  <v>0.152501</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.173541</v>
+                  <v>0.149703</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.169102</v>
+                  <v>0.148753</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.254042</v>
+                  <v>0.227069</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.259149</v>
+                  <v>0.217668</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.236306</v>
+                  <v>0.209495</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.222767</v>
+                  <v>0.201759</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.216405</v>
+                  <v>0.194217</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.208142</v>
+                  <v>0.18695</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.201677</v>
+                  <v>0.180087</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.195548</v>
+                  <v>0.173936</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.189056</v>
+                  <v>0.168134</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.182624</v>
+                  <v>0.163137</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.178156</v>
+                  <v>0.158203</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.174608</v>
+                  <v>0.154742</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.171633</v>
+                  <v>0.152434</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.170934</v>
+                  <v>0.152332</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.255758</v>
+                  <v>0.239051</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.247302</v>
+                  <v>0.229893</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.23943</v>
+                  <v>0.220943</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.22978</v>
+                  <v>0.212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.220805</v>
+                  <v>0.204206</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213086</v>
+                  <v>0.196844</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.206423</v>
+                  <v>0.189546</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.199202</v>
+                  <v>0.182825</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.193161</v>
+                  <v>0.174747</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.188345</v>
+                  <v>0.168998</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.183701</v>
+                  <v>0.164893</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.179105</v>
+                  <v>0.160717</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.175983</v>
+                  <v>0.158017</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.175207</v>
+                  <v>0.156965</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.176868</v>
+                  <v>0.158007</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.255168</v>
+                  <v>0.235105</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.245687</v>
+                  <v>0.226133</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.235894</v>
+                  <v>0.217421</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228449</v>
+                  <v>0.209352</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220252</v>
+                  <v>0.201509</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212395</v>
+                  <v>0.194248</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.205789</v>
+                  <v>0.187578</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.198979</v>
+                  <v>0.18116</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.193168</v>
+                  <v>0.175182</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.187939</v>
+                  <v>0.170499</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.183439</v>
+                  <v>0.166167</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.179541</v>
+                  <v>0.163124</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.179061</v>
+                  <v>0.161408</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179082</v>
+                  <v>0.162135</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.259911</v>
+                  <v>0.239824</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251563</v>
+                  <v>0.231207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.242857</v>
+                  <v>0.223021</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234493</v>
+                  <v>0.214563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.226465</v>
+                  <v>0.207392</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218893</v>
+                  <v>0.199601</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.211566</v>
+                  <v>0.192903</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.20522</v>
+                  <v>0.18693</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.199014</v>
+                  <v>0.18099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.193511</v>
+                  <v>0.175736</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.189531</v>
+                  <v>0.171048</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.185885</v>
+                  <v>0.167716</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.18375</v>
+                  <v>0.16583</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183845</v>
+                  <v>0.165434</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.278244</v>
+                  <v>0.268553</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.271679</v>
+                  <v>0.260033</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.265508</v>
+                  <v>0.252128</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.256713</v>
+                  <v>0.243344</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.249207</v>
+                  <v>0.235396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.24149</v>
+                  <v>0.227774</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.235856</v>
+                  <v>0.220711</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228715</v>
+                  <v>0.214081</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.223444</v>
+                  <v>0.20743</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.218043</v>
+                  <v>0.201386</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213537</v>
+                  <v>0.1967</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210039</v>
+                  <v>0.192345</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.208195</v>
+                  <v>0.189046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208204</v>
+                  <v>0.18825</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.304461</v>
+                  <v>0.27939</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.297571</v>
+                  <v>0.272222</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.287177</v>
+                  <v>0.264317</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.279271</v>
+                  <v>0.255839</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.273178</v>
+                  <v>0.248083</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.266397</v>
+                  <v>0.241457</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.260727</v>
+                  <v>0.234387</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255738</v>
+                  <v>0.227987</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.250645</v>
+                  <v>0.22155</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.245993</v>
+                  <v>0.216636</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.241963</v>
+                  <v>0.212065</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.238673</v>
+                  <v>0.207207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.236356</v>
+                  <v>0.204174</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.235818</v>
+                  <v>0.20283</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.237864</v>
+                  <v>0.203562</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.32462</v>
+                  <v>0.289005</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.319055</v>
+                  <v>0.281919</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.314235</v>
+                  <v>0.27536</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.309144</v>
+                  <v>0.269401</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.304711</v>
+                  <v>0.264112</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.300168</v>
+                  <v>0.25879</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.296269</v>
+                  <v>0.254136</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.292886</v>
+                  <v>0.252103</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.289318</v>
+                  <v>0.247631</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287032</v>
+                  <v>0.243658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.285057</v>
+                  <v>0.240053</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.283504</v>
+                  <v>0.237326</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.284257</v>
+                  <v>0.236049</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.286675</v>
+                  <v>0.234281</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.386674</v>
+                  <v>0.33018</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.379899</v>
+                  <v>0.324289</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.37323</v>
+                  <v>0.318664</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.367346</v>
+                  <v>0.312845</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.361801</v>
+                  <v>0.30874</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.356534</v>
+                  <v>0.303599</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.351406</v>
+                  <v>0.299485</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251559</v>
+        <v>0.251529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203625</v>
+        <v>0.204615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197236</v>
+        <v>0.190577</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24668</v>
+        <v>0.24583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197111</v>
+        <v>0.198786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19051</v>
+        <v>0.184577</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241124</v>
+        <v>0.240472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192392</v>
+        <v>0.193299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185738</v>
+        <v>0.180008</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236368</v>
+        <v>0.235749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187971</v>
+        <v>0.188216</v>
       </c>
       <c r="D5" t="n">
-        <v>0.181847</v>
+        <v>0.175983</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232181</v>
+        <v>0.231851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183546</v>
+        <v>0.182971</v>
       </c>
       <c r="D6" t="n">
-        <v>0.178076</v>
+        <v>0.17223</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228666</v>
+        <v>0.229044</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182217</v>
+        <v>0.181672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.175796</v>
+        <v>0.171445</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227696</v>
+        <v>0.227562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181807</v>
+        <v>0.180805</v>
       </c>
       <c r="D8" t="n">
-        <v>0.176908</v>
+        <v>0.171178</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228404</v>
+        <v>0.228136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.183477</v>
+        <v>0.182625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271288</v>
+        <v>0.26198</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314881</v>
+        <v>0.314942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270825</v>
+        <v>0.275966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.261885</v>
+        <v>0.25255</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305648</v>
+        <v>0.305703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261723</v>
+        <v>0.266707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252572</v>
+        <v>0.244155</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296349</v>
+        <v>0.297021</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252796</v>
+        <v>0.257498</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244031</v>
+        <v>0.235214</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288033</v>
+        <v>0.28878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244579</v>
+        <v>0.248607</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235794</v>
+        <v>0.228322</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281005</v>
+        <v>0.281057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237069</v>
+        <v>0.240331</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228134</v>
+        <v>0.220904</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27287</v>
+        <v>0.273802</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229823</v>
+        <v>0.232694</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221031</v>
+        <v>0.214109</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26602</v>
+        <v>0.266882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222981</v>
+        <v>0.225284</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21419</v>
+        <v>0.207327</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259587</v>
+        <v>0.260482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217283</v>
+        <v>0.219113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208309</v>
+        <v>0.202351</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.253706</v>
+        <v>0.254495</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211583</v>
+        <v>0.212945</v>
       </c>
       <c r="D18" t="n">
-        <v>0.203051</v>
+        <v>0.197105</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.248458</v>
+        <v>0.249381</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207397</v>
+        <v>0.207628</v>
       </c>
       <c r="D19" t="n">
-        <v>0.199269</v>
+        <v>0.193688</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244928</v>
+        <v>0.244897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203463</v>
+        <v>0.203098</v>
       </c>
       <c r="D20" t="n">
-        <v>0.196086</v>
+        <v>0.190938</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241036</v>
+        <v>0.241004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200661</v>
+        <v>0.200471</v>
       </c>
       <c r="D21" t="n">
-        <v>0.194776</v>
+        <v>0.189847</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238644</v>
+        <v>0.238508</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199498</v>
+        <v>0.199214</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195842</v>
+        <v>0.191125</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237583</v>
+        <v>0.237433</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200422</v>
+        <v>0.199916</v>
       </c>
       <c r="D23" t="n">
-        <v>0.288866</v>
+        <v>0.278552</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323884</v>
+        <v>0.323711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286225</v>
+        <v>0.291312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.279017</v>
+        <v>0.269155</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314666</v>
+        <v>0.314846</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276681</v>
+        <v>0.281502</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26959</v>
+        <v>0.260189</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305921</v>
+        <v>0.305969</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267791</v>
+        <v>0.271585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.260379</v>
+        <v>0.251547</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297522</v>
+        <v>0.297554</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259335</v>
+        <v>0.2629</v>
       </c>
       <c r="D27" t="n">
-        <v>0.251896</v>
+        <v>0.243552</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289667</v>
+        <v>0.289678</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251307</v>
+        <v>0.25378</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243997</v>
+        <v>0.236082</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282188</v>
+        <v>0.281862</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243849</v>
+        <v>0.245754</v>
       </c>
       <c r="D29" t="n">
-        <v>0.236519</v>
+        <v>0.229018</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275152</v>
+        <v>0.27509</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236893</v>
+        <v>0.237893</v>
       </c>
       <c r="D30" t="n">
-        <v>0.229438</v>
+        <v>0.222184</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268689</v>
+        <v>0.268839</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230335</v>
+        <v>0.231644</v>
       </c>
       <c r="D31" t="n">
-        <v>0.222947</v>
+        <v>0.216258</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262572</v>
+        <v>0.262565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224222</v>
+        <v>0.225022</v>
       </c>
       <c r="D32" t="n">
-        <v>0.216882</v>
+        <v>0.210406</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257338</v>
+        <v>0.25739</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219351</v>
+        <v>0.219095</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211556</v>
+        <v>0.205617</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251922</v>
+        <v>0.252506</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214453</v>
+        <v>0.213524</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207366</v>
+        <v>0.201897</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247333</v>
+        <v>0.248358</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209719</v>
+        <v>0.208988</v>
       </c>
       <c r="D35" t="n">
-        <v>0.204375</v>
+        <v>0.199513</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245233</v>
+        <v>0.245424</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207713</v>
+        <v>0.206855</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203409</v>
+        <v>0.199063</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.244008</v>
+        <v>0.244242</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207223</v>
+        <v>0.205375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.298554</v>
+        <v>0.288271</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3273</v>
+        <v>0.327375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.295598</v>
+        <v>0.299045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.288673</v>
+        <v>0.278796</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318665</v>
+        <v>0.318824</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286531</v>
+        <v>0.28949</v>
       </c>
       <c r="D39" t="n">
-        <v>0.279125</v>
+        <v>0.26984</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310276</v>
+        <v>0.310291</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277402</v>
+        <v>0.280122</v>
       </c>
       <c r="D40" t="n">
-        <v>0.270036</v>
+        <v>0.261406</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301502</v>
+        <v>0.301162</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269138</v>
+        <v>0.270839</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261414</v>
+        <v>0.253377</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294451</v>
+        <v>0.294017</v>
       </c>
       <c r="C42" t="n">
-        <v>0.261162</v>
+        <v>0.262682</v>
       </c>
       <c r="D42" t="n">
-        <v>0.253307</v>
+        <v>0.245709</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287433</v>
+        <v>0.2872</v>
       </c>
       <c r="C43" t="n">
-        <v>0.253395</v>
+        <v>0.254547</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245472</v>
+        <v>0.238502</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280622</v>
+        <v>0.280328</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246125</v>
+        <v>0.246829</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238488</v>
+        <v>0.231828</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274289</v>
+        <v>0.273567</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239711</v>
+        <v>0.239906</v>
       </c>
       <c r="D45" t="n">
-        <v>0.231929</v>
+        <v>0.225663</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268486</v>
+        <v>0.267853</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233594</v>
+        <v>0.233569</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225988</v>
+        <v>0.220179</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263218</v>
+        <v>0.262844</v>
       </c>
       <c r="C47" t="n">
-        <v>0.228064</v>
+        <v>0.227611</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220717</v>
+        <v>0.215406</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257814</v>
+        <v>0.257495</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222956</v>
+        <v>0.222261</v>
       </c>
       <c r="D48" t="n">
-        <v>0.216168</v>
+        <v>0.211289</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252886</v>
+        <v>0.25413</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219212</v>
+        <v>0.218053</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212794</v>
+        <v>0.208468</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250073</v>
+        <v>0.25045</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21625</v>
+        <v>0.214744</v>
       </c>
       <c r="D50" t="n">
-        <v>0.211127</v>
+        <v>0.207311</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248941</v>
+        <v>0.248982</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214803</v>
+        <v>0.213365</v>
       </c>
       <c r="D51" t="n">
-        <v>0.310008</v>
+        <v>0.299604</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250582</v>
+        <v>0.250054</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216149</v>
+        <v>0.214339</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29984</v>
+        <v>0.289864</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33064</v>
+        <v>0.328466</v>
       </c>
       <c r="C53" t="n">
-        <v>0.297874</v>
+        <v>0.299548</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290184</v>
+        <v>0.280968</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322442</v>
+        <v>0.320313</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288973</v>
+        <v>0.290153</v>
       </c>
       <c r="D54" t="n">
-        <v>0.28065</v>
+        <v>0.272427</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.314753</v>
+        <v>0.312578</v>
       </c>
       <c r="C55" t="n">
-        <v>0.280542</v>
+        <v>0.281037</v>
       </c>
       <c r="D55" t="n">
-        <v>0.271781</v>
+        <v>0.264015</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307474</v>
+        <v>0.3053</v>
       </c>
       <c r="C56" t="n">
-        <v>0.272751</v>
+        <v>0.272544</v>
       </c>
       <c r="D56" t="n">
-        <v>0.26367</v>
+        <v>0.25657</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.30055</v>
+        <v>0.298323</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265198</v>
+        <v>0.264524</v>
       </c>
       <c r="D57" t="n">
-        <v>0.256009</v>
+        <v>0.249335</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294133</v>
+        <v>0.291799</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25794</v>
+        <v>0.256984</v>
       </c>
       <c r="D58" t="n">
-        <v>0.24867</v>
+        <v>0.242477</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288011</v>
+        <v>0.285102</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251269</v>
+        <v>0.249864</v>
       </c>
       <c r="D59" t="n">
-        <v>0.242121</v>
+        <v>0.236151</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282401</v>
+        <v>0.279847</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245276</v>
+        <v>0.243368</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235438</v>
+        <v>0.230623</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277332</v>
+        <v>0.274409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239598</v>
+        <v>0.237301</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229946</v>
+        <v>0.225651</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272832</v>
+        <v>0.270037</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234624</v>
+        <v>0.231935</v>
       </c>
       <c r="D62" t="n">
-        <v>0.225997</v>
+        <v>0.22103</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.268965</v>
+        <v>0.26573</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230321</v>
+        <v>0.227467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.222426</v>
+        <v>0.21795</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266207</v>
+        <v>0.263193</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22695</v>
+        <v>0.223811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220348</v>
+        <v>0.216522</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264586</v>
+        <v>0.26298</v>
       </c>
       <c r="C65" t="n">
-        <v>0.225003</v>
+        <v>0.221554</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220973</v>
+        <v>0.217285</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265115</v>
+        <v>0.263314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225873</v>
+        <v>0.22259</v>
       </c>
       <c r="D66" t="n">
-        <v>0.332108</v>
+        <v>0.323173</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388902</v>
+        <v>0.388912</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332803</v>
+        <v>0.328664</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321126</v>
+        <v>0.313163</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380272</v>
+        <v>0.380625</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323517</v>
+        <v>0.318724</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311506</v>
+        <v>0.304027</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372885</v>
+        <v>0.373212</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314599</v>
+        <v>0.309322</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302357</v>
+        <v>0.295284</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365996</v>
+        <v>0.366412</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306125</v>
+        <v>0.300865</v>
       </c>
       <c r="D70" t="n">
-        <v>0.293687</v>
+        <v>0.286992</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35966</v>
+        <v>0.359527</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297738</v>
+        <v>0.292243</v>
       </c>
       <c r="D71" t="n">
-        <v>0.285311</v>
+        <v>0.27912</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353179</v>
+        <v>0.353325</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290432</v>
+        <v>0.284018</v>
       </c>
       <c r="D72" t="n">
-        <v>0.277408</v>
+        <v>0.271658</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347097</v>
+        <v>0.346965</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283058</v>
+        <v>0.27662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.270145</v>
+        <v>0.264709</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.34119</v>
+        <v>0.340663</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27614</v>
+        <v>0.269621</v>
       </c>
       <c r="D74" t="n">
-        <v>0.263314</v>
+        <v>0.258423</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335248</v>
+        <v>0.335005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2699</v>
+        <v>0.263063</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257215</v>
+        <v>0.252724</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329954</v>
+        <v>0.329284</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264126</v>
+        <v>0.257278</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252022</v>
+        <v>0.248083</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324934</v>
+        <v>0.324158</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259227</v>
+        <v>0.252191</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24762</v>
+        <v>0.244363</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320313</v>
+        <v>0.319908</v>
       </c>
       <c r="C78" t="n">
-        <v>0.255351</v>
+        <v>0.24827</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244738</v>
+        <v>0.24189</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.316952</v>
+        <v>0.316806</v>
       </c>
       <c r="C79" t="n">
-        <v>0.252942</v>
+        <v>0.245967</v>
       </c>
       <c r="D79" t="n">
-        <v>0.244142</v>
+        <v>0.241726</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315412</v>
+        <v>0.315014</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252274</v>
+        <v>0.245577</v>
       </c>
       <c r="D80" t="n">
-        <v>0.388306</v>
+        <v>0.377272</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.552246</v>
+        <v>0.552596</v>
       </c>
       <c r="C81" t="n">
-        <v>0.397866</v>
+        <v>0.390278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.379959</v>
+        <v>0.36991</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.545146</v>
+        <v>0.544855</v>
       </c>
       <c r="C82" t="n">
-        <v>0.392109</v>
+        <v>0.384071</v>
       </c>
       <c r="D82" t="n">
-        <v>0.369418</v>
+        <v>0.361054</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.535361</v>
+        <v>0.535366</v>
       </c>
       <c r="C83" t="n">
-        <v>0.382354</v>
+        <v>0.374204</v>
       </c>
       <c r="D83" t="n">
-        <v>0.359698</v>
+        <v>0.351456</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.526062</v>
+        <v>0.525902</v>
       </c>
       <c r="C84" t="n">
-        <v>0.371916</v>
+        <v>0.364953</v>
       </c>
       <c r="D84" t="n">
-        <v>0.350567</v>
+        <v>0.342748</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.515931</v>
+        <v>0.516377</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362868</v>
+        <v>0.354882</v>
       </c>
       <c r="D85" t="n">
-        <v>0.340679</v>
+        <v>0.333973</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.50679</v>
+        <v>0.506681</v>
       </c>
       <c r="C86" t="n">
-        <v>0.354131</v>
+        <v>0.346532</v>
       </c>
       <c r="D86" t="n">
-        <v>0.331997</v>
+        <v>0.326119</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.497567</v>
+        <v>0.497379</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345659</v>
+        <v>0.337689</v>
       </c>
       <c r="D87" t="n">
-        <v>0.324488</v>
+        <v>0.318214</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.487888</v>
+        <v>0.488288</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3382</v>
+        <v>0.329707</v>
       </c>
       <c r="D88" t="n">
-        <v>0.31602</v>
+        <v>0.310388</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.478828</v>
+        <v>0.479115</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331458</v>
+        <v>0.322204</v>
       </c>
       <c r="D89" t="n">
-        <v>0.310008</v>
+        <v>0.304706</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.470479</v>
+        <v>0.470459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.32439</v>
+        <v>0.315125</v>
       </c>
       <c r="D90" t="n">
-        <v>0.303465</v>
+        <v>0.298668</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.462048</v>
+        <v>0.462274</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317011</v>
+        <v>0.308984</v>
       </c>
       <c r="D91" t="n">
-        <v>0.296735</v>
+        <v>0.293107</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.45425</v>
+        <v>0.454812</v>
       </c>
       <c r="C92" t="n">
-        <v>0.311418</v>
+        <v>0.30381</v>
       </c>
       <c r="D92" t="n">
-        <v>0.291781</v>
+        <v>0.289958</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.447924</v>
+        <v>0.448056</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307882</v>
+        <v>0.300413</v>
       </c>
       <c r="D93" t="n">
-        <v>0.290068</v>
+        <v>0.288178</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.44252</v>
+        <v>0.442612</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306266</v>
+        <v>0.297708</v>
       </c>
       <c r="D94" t="n">
-        <v>0.568181</v>
+        <v>0.55204</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.566005</v>
+        <v>0.565856</v>
       </c>
       <c r="C95" t="n">
-        <v>0.525804</v>
+        <v>0.524766</v>
       </c>
       <c r="D95" t="n">
-        <v>0.55558</v>
+        <v>0.541627</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.563368</v>
+        <v>0.563629</v>
       </c>
       <c r="C96" t="n">
-        <v>0.519851</v>
+        <v>0.5169</v>
       </c>
       <c r="D96" t="n">
-        <v>0.539524</v>
+        <v>0.527818</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.555878</v>
+        <v>0.555067</v>
       </c>
       <c r="C97" t="n">
-        <v>0.507798</v>
+        <v>0.503342</v>
       </c>
       <c r="D97" t="n">
-        <v>0.52439</v>
+        <v>0.5124030000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.548249</v>
+        <v>0.5482860000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.493711</v>
+        <v>0.490735</v>
       </c>
       <c r="D98" t="n">
-        <v>0.508668</v>
+        <v>0.498583</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5403</v>
+        <v>0.538382</v>
       </c>
       <c r="C99" t="n">
-        <v>0.480828</v>
+        <v>0.474819</v>
       </c>
       <c r="D99" t="n">
-        <v>0.493789</v>
+        <v>0.484255</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.531067</v>
+        <v>0.530591</v>
       </c>
       <c r="C100" t="n">
-        <v>0.469362</v>
+        <v>0.462617</v>
       </c>
       <c r="D100" t="n">
-        <v>0.479152</v>
+        <v>0.470847</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.521998</v>
+        <v>0.52307</v>
       </c>
       <c r="C101" t="n">
-        <v>0.457804</v>
+        <v>0.451263</v>
       </c>
       <c r="D101" t="n">
-        <v>0.466023</v>
+        <v>0.45845</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.515827</v>
+        <v>0.516281</v>
       </c>
       <c r="C102" t="n">
-        <v>0.445639</v>
+        <v>0.440645</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453407</v>
+        <v>0.445824</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509108</v>
+        <v>0.509174</v>
       </c>
       <c r="C103" t="n">
-        <v>0.436135</v>
+        <v>0.429786</v>
       </c>
       <c r="D103" t="n">
-        <v>0.441403</v>
+        <v>0.434492</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5018359999999999</v>
+        <v>0.503947</v>
       </c>
       <c r="C104" t="n">
-        <v>0.426227</v>
+        <v>0.420189</v>
       </c>
       <c r="D104" t="n">
-        <v>0.430932</v>
+        <v>0.424609</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.495782</v>
+        <v>0.497775</v>
       </c>
       <c r="C105" t="n">
-        <v>0.417397</v>
+        <v>0.411196</v>
       </c>
       <c r="D105" t="n">
-        <v>0.421205</v>
+        <v>0.416683</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.491235</v>
+        <v>0.492228</v>
       </c>
       <c r="C106" t="n">
-        <v>0.409534</v>
+        <v>0.403127</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412911</v>
+        <v>0.40789</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.486456</v>
+        <v>0.488878</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403768</v>
+        <v>0.397232</v>
       </c>
       <c r="D107" t="n">
-        <v>0.406212</v>
+        <v>0.403748</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.483883</v>
+        <v>0.484705</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399079</v>
+        <v>0.392378</v>
       </c>
       <c r="D108" t="n">
-        <v>0.612885</v>
+        <v>0.601384</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482855</v>
+        <v>0.484465</v>
       </c>
       <c r="C109" t="n">
-        <v>0.397334</v>
+        <v>0.391011</v>
       </c>
       <c r="D109" t="n">
-        <v>0.601267</v>
+        <v>0.591709</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.680473</v>
+        <v>0.679836</v>
       </c>
       <c r="C110" t="n">
-        <v>0.613425</v>
+        <v>0.61797</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586006</v>
+        <v>0.577446</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669615</v>
+        <v>0.669964</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5989</v>
+        <v>0.602986</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570225</v>
+        <v>0.562153</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659264</v>
+        <v>0.659071</v>
       </c>
       <c r="C112" t="n">
-        <v>0.585587</v>
+        <v>0.5892770000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5551700000000001</v>
+        <v>0.549288</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.647572</v>
+        <v>0.648203</v>
       </c>
       <c r="C113" t="n">
-        <v>0.571004</v>
+        <v>0.573254</v>
       </c>
       <c r="D113" t="n">
-        <v>0.540479</v>
+        <v>0.534921</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6373490000000001</v>
+        <v>0.639033</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558716</v>
+        <v>0.561017</v>
       </c>
       <c r="D114" t="n">
-        <v>0.527102</v>
+        <v>0.52343</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.628462</v>
+        <v>0.629727</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5466259999999999</v>
+        <v>0.545676</v>
       </c>
       <c r="D115" t="n">
-        <v>0.515252</v>
+        <v>0.510012</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.618967</v>
+        <v>0.6211410000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.534411</v>
+        <v>0.53387</v>
       </c>
       <c r="D116" t="n">
-        <v>0.502444</v>
+        <v>0.500714</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610895</v>
+        <v>0.612755</v>
       </c>
       <c r="C117" t="n">
-        <v>0.523274</v>
+        <v>0.521858</v>
       </c>
       <c r="D117" t="n">
-        <v>0.491183</v>
+        <v>0.488615</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6025430000000001</v>
+        <v>0.605672</v>
       </c>
       <c r="C118" t="n">
-        <v>0.512458</v>
+        <v>0.5124069999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.480653</v>
+        <v>0.479456</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.595108</v>
+        <v>0.598615</v>
       </c>
       <c r="C119" t="n">
-        <v>0.503198</v>
+        <v>0.502567</v>
       </c>
       <c r="D119" t="n">
-        <v>0.471086</v>
+        <v>0.471592</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5890300000000001</v>
+        <v>0.5914430000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.494536</v>
+        <v>0.49271</v>
       </c>
       <c r="D120" t="n">
-        <v>0.462878</v>
+        <v>0.463541</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.582588</v>
+        <v>0.586287</v>
       </c>
       <c r="C121" t="n">
-        <v>0.486909</v>
+        <v>0.485904</v>
       </c>
       <c r="D121" t="n">
-        <v>0.455621</v>
+        <v>0.456877</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5774</v>
+        <v>0.578996</v>
       </c>
       <c r="C122" t="n">
-        <v>0.480249</v>
+        <v>0.479057</v>
       </c>
       <c r="D122" t="n">
-        <v>0.450203</v>
+        <v>0.452625</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574364</v>
+        <v>0.574148</v>
       </c>
       <c r="C123" t="n">
-        <v>0.476078</v>
+        <v>0.474801</v>
       </c>
       <c r="D123" t="n">
-        <v>0.660848</v>
+        <v>0.653122</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.766091</v>
+        <v>0.768239</v>
       </c>
       <c r="C124" t="n">
-        <v>0.694273</v>
+        <v>0.697654</v>
       </c>
       <c r="D124" t="n">
-        <v>0.64701</v>
+        <v>0.641895</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.757699</v>
+        <v>0.75935</v>
       </c>
       <c r="C125" t="n">
-        <v>0.682261</v>
+        <v>0.682837</v>
       </c>
       <c r="D125" t="n">
-        <v>0.634158</v>
+        <v>0.630935</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.749601</v>
+        <v>0.752185</v>
       </c>
       <c r="C126" t="n">
-        <v>0.669934</v>
+        <v>0.67225</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6224690000000001</v>
+        <v>0.619158</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741492</v>
+        <v>0.738519</v>
       </c>
       <c r="C127" t="n">
-        <v>0.65745</v>
+        <v>0.657332</v>
       </c>
       <c r="D127" t="n">
-        <v>0.609776</v>
+        <v>0.611336</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.733835</v>
+        <v>0.735796</v>
       </c>
       <c r="C128" t="n">
-        <v>0.645949</v>
+        <v>0.6430399999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.599356</v>
+        <v>0.601807</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.726637</v>
+        <v>0.727785</v>
       </c>
       <c r="C129" t="n">
-        <v>0.637037</v>
+        <v>0.631942</v>
       </c>
       <c r="D129" t="n">
-        <v>0.587738</v>
+        <v>0.592285</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.72016</v>
+        <v>0.722536</v>
       </c>
       <c r="C130" t="n">
-        <v>0.627595</v>
+        <v>0.620471</v>
       </c>
       <c r="D130" t="n">
-        <v>0.578477</v>
+        <v>0.582556</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7136169999999999</v>
+        <v>0.71636</v>
       </c>
       <c r="C131" t="n">
-        <v>0.618364</v>
+        <v>0.611717</v>
       </c>
       <c r="D131" t="n">
-        <v>0.571921</v>
+        <v>0.577633</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.708827</v>
+        <v>0.711053</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6100680000000001</v>
+        <v>0.603321</v>
       </c>
       <c r="D132" t="n">
-        <v>0.56469</v>
+        <v>0.570526</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.702873</v>
+        <v>0.705603</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602618</v>
+        <v>0.5944120000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.556619</v>
+        <v>0.5643319999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698987</v>
+        <v>0.698553</v>
       </c>
       <c r="C134" t="n">
-        <v>0.595217</v>
+        <v>0.58663</v>
       </c>
       <c r="D134" t="n">
-        <v>0.549335</v>
+        <v>0.554776</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.694646</v>
+        <v>0.698258</v>
       </c>
       <c r="C135" t="n">
-        <v>0.589201</v>
+        <v>0.579439</v>
       </c>
       <c r="D135" t="n">
-        <v>0.541867</v>
+        <v>0.55302</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.690963</v>
+        <v>0.691673</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5853159999999999</v>
+        <v>0.574647</v>
       </c>
       <c r="D136" t="n">
-        <v>0.535775</v>
+        <v>0.545383</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.68821</v>
+        <v>0.689868</v>
       </c>
       <c r="C137" t="n">
-        <v>0.580692</v>
+        <v>0.570347</v>
       </c>
       <c r="D137" t="n">
-        <v>0.747088</v>
+        <v>0.748796</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.872949</v>
+        <v>0.875283</v>
       </c>
       <c r="C138" t="n">
-        <v>0.799745</v>
+        <v>0.796423</v>
       </c>
       <c r="D138" t="n">
-        <v>0.73444</v>
+        <v>0.7397629999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866457</v>
+        <v>0.869509</v>
       </c>
       <c r="C139" t="n">
-        <v>0.789056</v>
+        <v>0.781604</v>
       </c>
       <c r="D139" t="n">
-        <v>0.721342</v>
+        <v>0.728342</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.858694</v>
+        <v>0.863065</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7772520000000001</v>
+        <v>0.768269</v>
       </c>
       <c r="D140" t="n">
-        <v>0.71144</v>
+        <v>0.72017</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.853445</v>
+        <v>0.858088</v>
       </c>
       <c r="C141" t="n">
-        <v>0.766354</v>
+        <v>0.754555</v>
       </c>
       <c r="D141" t="n">
-        <v>0.700421</v>
+        <v>0.713019</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.847762</v>
+        <v>0.85251</v>
       </c>
       <c r="C142" t="n">
-        <v>0.756569</v>
+        <v>0.743777</v>
       </c>
       <c r="D142" t="n">
-        <v>0.690082</v>
+        <v>0.7055</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8419219999999999</v>
+        <v>0.8460490000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.746729</v>
+        <v>0.73112</v>
       </c>
       <c r="D143" t="n">
-        <v>0.680754</v>
+        <v>0.697161</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251529</v>
+        <v>0.251862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204615</v>
+        <v>0.203543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.190577</v>
+        <v>0.191157</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24583</v>
+        <v>0.246677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.198786</v>
+        <v>0.197702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.184577</v>
+        <v>0.185736</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240472</v>
+        <v>0.241496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193299</v>
+        <v>0.191594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.180008</v>
+        <v>0.180288</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235749</v>
+        <v>0.236942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188216</v>
+        <v>0.18767</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175983</v>
+        <v>0.176917</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231851</v>
+        <v>0.232649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182971</v>
+        <v>0.18363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17223</v>
+        <v>0.173326</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229044</v>
+        <v>0.229506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181672</v>
+        <v>0.18229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.171445</v>
+        <v>0.172867</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227562</v>
+        <v>0.228021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.180805</v>
+        <v>0.18199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171178</v>
+        <v>0.172018</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228136</v>
+        <v>0.228745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182625</v>
+        <v>0.183186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26198</v>
+        <v>0.261875</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314942</v>
+        <v>0.314765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275966</v>
+        <v>0.27067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25255</v>
+        <v>0.25335</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305703</v>
+        <v>0.305805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.266707</v>
+        <v>0.261679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244155</v>
+        <v>0.244191</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297021</v>
+        <v>0.297159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.257498</v>
+        <v>0.253268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.235214</v>
+        <v>0.236066</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.28878</v>
+        <v>0.289316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.248607</v>
+        <v>0.244847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228322</v>
+        <v>0.227842</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281057</v>
+        <v>0.281042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240331</v>
+        <v>0.237506</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220904</v>
+        <v>0.220971</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273802</v>
+        <v>0.273721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.232694</v>
+        <v>0.23042</v>
       </c>
       <c r="D15" t="n">
-        <v>0.214109</v>
+        <v>0.213917</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266882</v>
+        <v>0.266746</v>
       </c>
       <c r="C16" t="n">
-        <v>0.225284</v>
+        <v>0.22344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.207327</v>
+        <v>0.207704</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260482</v>
+        <v>0.260488</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219113</v>
+        <v>0.217719</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202351</v>
+        <v>0.202492</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254495</v>
+        <v>0.25454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212945</v>
+        <v>0.212181</v>
       </c>
       <c r="D18" t="n">
-        <v>0.197105</v>
+        <v>0.198058</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249381</v>
+        <v>0.249385</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207628</v>
+        <v>0.206678</v>
       </c>
       <c r="D19" t="n">
-        <v>0.193688</v>
+        <v>0.194014</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244897</v>
+        <v>0.245025</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203098</v>
+        <v>0.203286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190938</v>
+        <v>0.191339</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241004</v>
+        <v>0.240803</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200471</v>
+        <v>0.199977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.189847</v>
+        <v>0.189771</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238508</v>
+        <v>0.238545</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199214</v>
+        <v>0.199216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.191125</v>
+        <v>0.19143</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237433</v>
+        <v>0.237519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199916</v>
+        <v>0.200258</v>
       </c>
       <c r="D23" t="n">
-        <v>0.278552</v>
+        <v>0.278634</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323711</v>
+        <v>0.330235</v>
       </c>
       <c r="C24" t="n">
-        <v>0.291312</v>
+        <v>0.285968</v>
       </c>
       <c r="D24" t="n">
-        <v>0.269155</v>
+        <v>0.269435</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314846</v>
+        <v>0.324541</v>
       </c>
       <c r="C25" t="n">
-        <v>0.281502</v>
+        <v>0.276933</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260189</v>
+        <v>0.260531</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305969</v>
+        <v>0.311686</v>
       </c>
       <c r="C26" t="n">
-        <v>0.271585</v>
+        <v>0.267897</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251547</v>
+        <v>0.251826</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297554</v>
+        <v>0.303501</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2629</v>
+        <v>0.259319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243552</v>
+        <v>0.243775</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289678</v>
+        <v>0.294452</v>
       </c>
       <c r="C28" t="n">
-        <v>0.25378</v>
+        <v>0.251327</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236082</v>
+        <v>0.236275</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281862</v>
+        <v>0.286966</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245754</v>
+        <v>0.243964</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229018</v>
+        <v>0.229372</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.27509</v>
+        <v>0.279918</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237893</v>
+        <v>0.236968</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222184</v>
+        <v>0.222523</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268839</v>
+        <v>0.270216</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231644</v>
+        <v>0.230294</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216258</v>
+        <v>0.216369</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262565</v>
+        <v>0.267101</v>
       </c>
       <c r="C32" t="n">
-        <v>0.225022</v>
+        <v>0.223643</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210406</v>
+        <v>0.210661</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.25739</v>
+        <v>0.261328</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219095</v>
+        <v>0.217873</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205617</v>
+        <v>0.205933</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252506</v>
+        <v>0.256229</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213524</v>
+        <v>0.213404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.201897</v>
+        <v>0.20201</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248358</v>
+        <v>0.251214</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208988</v>
+        <v>0.209649</v>
       </c>
       <c r="D35" t="n">
-        <v>0.199513</v>
+        <v>0.199348</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245424</v>
+        <v>0.248819</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206855</v>
+        <v>0.206866</v>
       </c>
       <c r="D36" t="n">
-        <v>0.199063</v>
+        <v>0.198823</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.244242</v>
+        <v>0.246975</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205375</v>
+        <v>0.205925</v>
       </c>
       <c r="D37" t="n">
-        <v>0.288271</v>
+        <v>0.288238</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327375</v>
+        <v>0.330502</v>
       </c>
       <c r="C38" t="n">
-        <v>0.299045</v>
+        <v>0.294717</v>
       </c>
       <c r="D38" t="n">
-        <v>0.278796</v>
+        <v>0.278817</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318824</v>
+        <v>0.321806</v>
       </c>
       <c r="C39" t="n">
-        <v>0.28949</v>
+        <v>0.285714</v>
       </c>
       <c r="D39" t="n">
-        <v>0.26984</v>
+        <v>0.269804</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310291</v>
+        <v>0.312579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280122</v>
+        <v>0.276757</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261406</v>
+        <v>0.261147</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301162</v>
+        <v>0.304827</v>
       </c>
       <c r="C41" t="n">
-        <v>0.270839</v>
+        <v>0.268209</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253377</v>
+        <v>0.253111</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294017</v>
+        <v>0.296059</v>
       </c>
       <c r="C42" t="n">
-        <v>0.262682</v>
+        <v>0.260204</v>
       </c>
       <c r="D42" t="n">
-        <v>0.245709</v>
+        <v>0.245318</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2872</v>
+        <v>0.289061</v>
       </c>
       <c r="C43" t="n">
-        <v>0.254547</v>
+        <v>0.252529</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238502</v>
+        <v>0.238194</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280328</v>
+        <v>0.281756</v>
       </c>
       <c r="C44" t="n">
-        <v>0.246829</v>
+        <v>0.245168</v>
       </c>
       <c r="D44" t="n">
-        <v>0.231828</v>
+        <v>0.231358</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273567</v>
+        <v>0.276072</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239906</v>
+        <v>0.238796</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225663</v>
+        <v>0.225307</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267853</v>
+        <v>0.26935</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233569</v>
+        <v>0.232216</v>
       </c>
       <c r="D46" t="n">
-        <v>0.220179</v>
+        <v>0.219666</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262844</v>
+        <v>0.26407</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227611</v>
+        <v>0.227302</v>
       </c>
       <c r="D47" t="n">
-        <v>0.215406</v>
+        <v>0.214815</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257495</v>
+        <v>0.259837</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222261</v>
+        <v>0.222432</v>
       </c>
       <c r="D48" t="n">
-        <v>0.211289</v>
+        <v>0.210651</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25413</v>
+        <v>0.254913</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218053</v>
+        <v>0.218572</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208468</v>
+        <v>0.207788</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.25045</v>
+        <v>0.251869</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214744</v>
+        <v>0.215424</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207311</v>
+        <v>0.206285</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248982</v>
+        <v>0.250137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213365</v>
+        <v>0.214297</v>
       </c>
       <c r="D51" t="n">
-        <v>0.299604</v>
+        <v>0.298779</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250054</v>
+        <v>0.251986</v>
       </c>
       <c r="C52" t="n">
-        <v>0.214339</v>
+        <v>0.215104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289864</v>
+        <v>0.289385</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.328466</v>
+        <v>0.330611</v>
       </c>
       <c r="C53" t="n">
-        <v>0.299548</v>
+        <v>0.298278</v>
       </c>
       <c r="D53" t="n">
-        <v>0.280968</v>
+        <v>0.280305</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320313</v>
+        <v>0.322405</v>
       </c>
       <c r="C54" t="n">
-        <v>0.290153</v>
+        <v>0.289348</v>
       </c>
       <c r="D54" t="n">
-        <v>0.272427</v>
+        <v>0.271803</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.312578</v>
+        <v>0.31473</v>
       </c>
       <c r="C55" t="n">
-        <v>0.281037</v>
+        <v>0.280946</v>
       </c>
       <c r="D55" t="n">
-        <v>0.264015</v>
+        <v>0.263347</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3053</v>
+        <v>0.307698</v>
       </c>
       <c r="C56" t="n">
-        <v>0.272544</v>
+        <v>0.273015</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25657</v>
+        <v>0.255341</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298323</v>
+        <v>0.300701</v>
       </c>
       <c r="C57" t="n">
-        <v>0.264524</v>
+        <v>0.265494</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249335</v>
+        <v>0.248401</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291799</v>
+        <v>0.294368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256984</v>
+        <v>0.258449</v>
       </c>
       <c r="D58" t="n">
-        <v>0.242477</v>
+        <v>0.242212</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285102</v>
+        <v>0.288219</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249864</v>
+        <v>0.251805</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236151</v>
+        <v>0.235979</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.279847</v>
+        <v>0.282455</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243368</v>
+        <v>0.2454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.230623</v>
+        <v>0.230297</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.274409</v>
+        <v>0.277808</v>
       </c>
       <c r="C61" t="n">
-        <v>0.237301</v>
+        <v>0.23985</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225651</v>
+        <v>0.225338</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270037</v>
+        <v>0.272434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.231935</v>
+        <v>0.234938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22103</v>
+        <v>0.221189</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26573</v>
+        <v>0.2691</v>
       </c>
       <c r="C63" t="n">
-        <v>0.227467</v>
+        <v>0.23062</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21795</v>
+        <v>0.218032</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263193</v>
+        <v>0.266294</v>
       </c>
       <c r="C64" t="n">
-        <v>0.223811</v>
+        <v>0.227357</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216522</v>
+        <v>0.216451</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26298</v>
+        <v>0.264637</v>
       </c>
       <c r="C65" t="n">
-        <v>0.221554</v>
+        <v>0.225347</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217285</v>
+        <v>0.21722</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263314</v>
+        <v>0.265396</v>
       </c>
       <c r="C66" t="n">
-        <v>0.22259</v>
+        <v>0.226342</v>
       </c>
       <c r="D66" t="n">
-        <v>0.323173</v>
+        <v>0.321893</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388912</v>
+        <v>0.388727</v>
       </c>
       <c r="C67" t="n">
-        <v>0.328664</v>
+        <v>0.332039</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313163</v>
+        <v>0.311472</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380625</v>
+        <v>0.38039</v>
       </c>
       <c r="C68" t="n">
-        <v>0.318724</v>
+        <v>0.322427</v>
       </c>
       <c r="D68" t="n">
-        <v>0.304027</v>
+        <v>0.302249</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.373212</v>
+        <v>0.373233</v>
       </c>
       <c r="C69" t="n">
-        <v>0.309322</v>
+        <v>0.313464</v>
       </c>
       <c r="D69" t="n">
-        <v>0.295284</v>
+        <v>0.293714</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366412</v>
+        <v>0.365958</v>
       </c>
       <c r="C70" t="n">
-        <v>0.300865</v>
+        <v>0.304902</v>
       </c>
       <c r="D70" t="n">
-        <v>0.286992</v>
+        <v>0.285617</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359527</v>
+        <v>0.35973</v>
       </c>
       <c r="C71" t="n">
-        <v>0.292243</v>
+        <v>0.296872</v>
       </c>
       <c r="D71" t="n">
-        <v>0.27912</v>
+        <v>0.277981</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353325</v>
+        <v>0.354035</v>
       </c>
       <c r="C72" t="n">
-        <v>0.284018</v>
+        <v>0.289409</v>
       </c>
       <c r="D72" t="n">
-        <v>0.271658</v>
+        <v>0.270606</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346965</v>
+        <v>0.347853</v>
       </c>
       <c r="C73" t="n">
-        <v>0.27662</v>
+        <v>0.282188</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264709</v>
+        <v>0.263857</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.340663</v>
+        <v>0.341747</v>
       </c>
       <c r="C74" t="n">
-        <v>0.269621</v>
+        <v>0.275468</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258423</v>
+        <v>0.257745</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335005</v>
+        <v>0.335907</v>
       </c>
       <c r="C75" t="n">
-        <v>0.263063</v>
+        <v>0.269164</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252724</v>
+        <v>0.251961</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329284</v>
+        <v>0.330179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.257278</v>
+        <v>0.26333</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248083</v>
+        <v>0.247202</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324158</v>
+        <v>0.324851</v>
       </c>
       <c r="C77" t="n">
-        <v>0.252191</v>
+        <v>0.258226</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244363</v>
+        <v>0.243163</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.319908</v>
+        <v>0.320839</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24827</v>
+        <v>0.254408</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24189</v>
+        <v>0.240761</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.316806</v>
+        <v>0.317272</v>
       </c>
       <c r="C79" t="n">
-        <v>0.245967</v>
+        <v>0.251942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.241726</v>
+        <v>0.24055</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315014</v>
+        <v>0.315637</v>
       </c>
       <c r="C80" t="n">
-        <v>0.245577</v>
+        <v>0.25148</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377272</v>
+        <v>0.37645</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.552596</v>
+        <v>0.551843</v>
       </c>
       <c r="C81" t="n">
-        <v>0.390278</v>
+        <v>0.396148</v>
       </c>
       <c r="D81" t="n">
-        <v>0.36991</v>
+        <v>0.369124</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.544855</v>
+        <v>0.544783</v>
       </c>
       <c r="C82" t="n">
-        <v>0.384071</v>
+        <v>0.390192</v>
       </c>
       <c r="D82" t="n">
-        <v>0.361054</v>
+        <v>0.360342</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.535366</v>
+        <v>0.5347769999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.374204</v>
+        <v>0.381772</v>
       </c>
       <c r="D83" t="n">
-        <v>0.351456</v>
+        <v>0.351692</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.525902</v>
+        <v>0.524679</v>
       </c>
       <c r="C84" t="n">
-        <v>0.364953</v>
+        <v>0.372089</v>
       </c>
       <c r="D84" t="n">
-        <v>0.342748</v>
+        <v>0.342627</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.516377</v>
+        <v>0.514954</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354882</v>
+        <v>0.362666</v>
       </c>
       <c r="D85" t="n">
-        <v>0.333973</v>
+        <v>0.333515</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.506681</v>
+        <v>0.505243</v>
       </c>
       <c r="C86" t="n">
-        <v>0.346532</v>
+        <v>0.354051</v>
       </c>
       <c r="D86" t="n">
-        <v>0.326119</v>
+        <v>0.326002</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.497379</v>
+        <v>0.495689</v>
       </c>
       <c r="C87" t="n">
-        <v>0.337689</v>
+        <v>0.345469</v>
       </c>
       <c r="D87" t="n">
-        <v>0.318214</v>
+        <v>0.317753</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.488288</v>
+        <v>0.486411</v>
       </c>
       <c r="C88" t="n">
-        <v>0.329707</v>
+        <v>0.33807</v>
       </c>
       <c r="D88" t="n">
-        <v>0.310388</v>
+        <v>0.310772</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.479115</v>
+        <v>0.477654</v>
       </c>
       <c r="C89" t="n">
-        <v>0.322204</v>
+        <v>0.330061</v>
       </c>
       <c r="D89" t="n">
-        <v>0.304706</v>
+        <v>0.304868</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.470459</v>
+        <v>0.469367</v>
       </c>
       <c r="C90" t="n">
-        <v>0.315125</v>
+        <v>0.323341</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298668</v>
+        <v>0.298543</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.462274</v>
+        <v>0.461262</v>
       </c>
       <c r="C91" t="n">
-        <v>0.308984</v>
+        <v>0.317289</v>
       </c>
       <c r="D91" t="n">
-        <v>0.293107</v>
+        <v>0.293483</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.454812</v>
+        <v>0.453492</v>
       </c>
       <c r="C92" t="n">
-        <v>0.30381</v>
+        <v>0.311446</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289958</v>
+        <v>0.289839</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.448056</v>
+        <v>0.446407</v>
       </c>
       <c r="C93" t="n">
-        <v>0.300413</v>
+        <v>0.307607</v>
       </c>
       <c r="D93" t="n">
-        <v>0.288178</v>
+        <v>0.287531</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.442612</v>
+        <v>0.441577</v>
       </c>
       <c r="C94" t="n">
-        <v>0.297708</v>
+        <v>0.305747</v>
       </c>
       <c r="D94" t="n">
-        <v>0.55204</v>
+        <v>0.5545870000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.565856</v>
+        <v>0.564325</v>
       </c>
       <c r="C95" t="n">
-        <v>0.524766</v>
+        <v>0.526019</v>
       </c>
       <c r="D95" t="n">
-        <v>0.541627</v>
+        <v>0.543474</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.563629</v>
+        <v>0.561782</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5169</v>
+        <v>0.520049</v>
       </c>
       <c r="D96" t="n">
-        <v>0.527818</v>
+        <v>0.529235</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.555067</v>
+        <v>0.554604</v>
       </c>
       <c r="C97" t="n">
-        <v>0.503342</v>
+        <v>0.5065730000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5124030000000001</v>
+        <v>0.513014</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5482860000000001</v>
+        <v>0.545981</v>
       </c>
       <c r="C98" t="n">
-        <v>0.490735</v>
+        <v>0.493803</v>
       </c>
       <c r="D98" t="n">
-        <v>0.498583</v>
+        <v>0.49632</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.538382</v>
+        <v>0.539201</v>
       </c>
       <c r="C99" t="n">
-        <v>0.474819</v>
+        <v>0.480847</v>
       </c>
       <c r="D99" t="n">
-        <v>0.484255</v>
+        <v>0.484037</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.530591</v>
+        <v>0.53104</v>
       </c>
       <c r="C100" t="n">
-        <v>0.462617</v>
+        <v>0.468605</v>
       </c>
       <c r="D100" t="n">
-        <v>0.470847</v>
+        <v>0.470628</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.52307</v>
+        <v>0.523079</v>
       </c>
       <c r="C101" t="n">
-        <v>0.451263</v>
+        <v>0.45716</v>
       </c>
       <c r="D101" t="n">
-        <v>0.45845</v>
+        <v>0.458065</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.516281</v>
+        <v>0.516109</v>
       </c>
       <c r="C102" t="n">
-        <v>0.440645</v>
+        <v>0.445526</v>
       </c>
       <c r="D102" t="n">
-        <v>0.445824</v>
+        <v>0.446841</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.509174</v>
+        <v>0.508978</v>
       </c>
       <c r="C103" t="n">
-        <v>0.429786</v>
+        <v>0.435553</v>
       </c>
       <c r="D103" t="n">
-        <v>0.434492</v>
+        <v>0.433635</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.503947</v>
+        <v>0.504254</v>
       </c>
       <c r="C104" t="n">
-        <v>0.420189</v>
+        <v>0.425893</v>
       </c>
       <c r="D104" t="n">
-        <v>0.424609</v>
+        <v>0.425463</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.497775</v>
+        <v>0.498897</v>
       </c>
       <c r="C105" t="n">
-        <v>0.411196</v>
+        <v>0.417449</v>
       </c>
       <c r="D105" t="n">
-        <v>0.416683</v>
+        <v>0.416389</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.492228</v>
+        <v>0.492963</v>
       </c>
       <c r="C106" t="n">
-        <v>0.403127</v>
+        <v>0.409453</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40789</v>
+        <v>0.409064</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.488878</v>
+        <v>0.4885</v>
       </c>
       <c r="C107" t="n">
-        <v>0.397232</v>
+        <v>0.403206</v>
       </c>
       <c r="D107" t="n">
-        <v>0.403748</v>
+        <v>0.402036</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.484705</v>
+        <v>0.486703</v>
       </c>
       <c r="C108" t="n">
-        <v>0.392378</v>
+        <v>0.400516</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601384</v>
+        <v>0.599139</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.484465</v>
+        <v>0.485251</v>
       </c>
       <c r="C109" t="n">
-        <v>0.391011</v>
+        <v>0.398747</v>
       </c>
       <c r="D109" t="n">
-        <v>0.591709</v>
+        <v>0.5902809999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.679836</v>
+        <v>0.679266</v>
       </c>
       <c r="C110" t="n">
-        <v>0.61797</v>
+        <v>0.61243</v>
       </c>
       <c r="D110" t="n">
-        <v>0.577446</v>
+        <v>0.576622</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669964</v>
+        <v>0.669434</v>
       </c>
       <c r="C111" t="n">
-        <v>0.602986</v>
+        <v>0.598153</v>
       </c>
       <c r="D111" t="n">
-        <v>0.562153</v>
+        <v>0.561227</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659071</v>
+        <v>0.659408</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5892770000000001</v>
+        <v>0.585622</v>
       </c>
       <c r="D112" t="n">
-        <v>0.549288</v>
+        <v>0.547165</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.648203</v>
+        <v>0.6490939999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.573254</v>
+        <v>0.571597</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534921</v>
+        <v>0.534989</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.639033</v>
+        <v>0.637988</v>
       </c>
       <c r="C114" t="n">
-        <v>0.561017</v>
+        <v>0.55821</v>
       </c>
       <c r="D114" t="n">
-        <v>0.52343</v>
+        <v>0.522243</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.629727</v>
+        <v>0.629104</v>
       </c>
       <c r="C115" t="n">
-        <v>0.545676</v>
+        <v>0.544704</v>
       </c>
       <c r="D115" t="n">
-        <v>0.510012</v>
+        <v>0.508499</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6211410000000001</v>
+        <v>0.620364</v>
       </c>
       <c r="C116" t="n">
-        <v>0.53387</v>
+        <v>0.533303</v>
       </c>
       <c r="D116" t="n">
-        <v>0.500714</v>
+        <v>0.497584</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612755</v>
+        <v>0.612135</v>
       </c>
       <c r="C117" t="n">
-        <v>0.521858</v>
+        <v>0.522061</v>
       </c>
       <c r="D117" t="n">
-        <v>0.488615</v>
+        <v>0.486754</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.605672</v>
+        <v>0.604814</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5124069999999999</v>
+        <v>0.514158</v>
       </c>
       <c r="D118" t="n">
-        <v>0.479456</v>
+        <v>0.479286</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.598615</v>
+        <v>0.596292</v>
       </c>
       <c r="C119" t="n">
-        <v>0.502567</v>
+        <v>0.504769</v>
       </c>
       <c r="D119" t="n">
-        <v>0.471592</v>
+        <v>0.469858</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5914430000000001</v>
+        <v>0.590881</v>
       </c>
       <c r="C120" t="n">
-        <v>0.49271</v>
+        <v>0.49579</v>
       </c>
       <c r="D120" t="n">
-        <v>0.463541</v>
+        <v>0.462766</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.586287</v>
+        <v>0.581782</v>
       </c>
       <c r="C121" t="n">
-        <v>0.485904</v>
+        <v>0.488608</v>
       </c>
       <c r="D121" t="n">
-        <v>0.456877</v>
+        <v>0.456777</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.578996</v>
+        <v>0.576553</v>
       </c>
       <c r="C122" t="n">
-        <v>0.479057</v>
+        <v>0.481859</v>
       </c>
       <c r="D122" t="n">
-        <v>0.452625</v>
+        <v>0.451121</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574148</v>
+        <v>0.577858</v>
       </c>
       <c r="C123" t="n">
-        <v>0.474801</v>
+        <v>0.478648</v>
       </c>
       <c r="D123" t="n">
-        <v>0.653122</v>
+        <v>0.6496960000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.768239</v>
+        <v>0.766198</v>
       </c>
       <c r="C124" t="n">
-        <v>0.697654</v>
+        <v>0.69364</v>
       </c>
       <c r="D124" t="n">
-        <v>0.641895</v>
+        <v>0.640419</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.75935</v>
+        <v>0.758911</v>
       </c>
       <c r="C125" t="n">
-        <v>0.682837</v>
+        <v>0.6817220000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.630935</v>
+        <v>0.6300519999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.752185</v>
+        <v>0.750934</v>
       </c>
       <c r="C126" t="n">
-        <v>0.67225</v>
+        <v>0.6697920000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.619158</v>
+        <v>0.619216</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.738519</v>
+        <v>0.7418670000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657332</v>
+        <v>0.657126</v>
       </c>
       <c r="D127" t="n">
-        <v>0.611336</v>
+        <v>0.609729</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.735796</v>
+        <v>0.734776</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6430399999999999</v>
+        <v>0.646277</v>
       </c>
       <c r="D128" t="n">
-        <v>0.601807</v>
+        <v>0.599909</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.727785</v>
+        <v>0.7282189999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.631942</v>
+        <v>0.635737</v>
       </c>
       <c r="D129" t="n">
-        <v>0.592285</v>
+        <v>0.591503</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722536</v>
+        <v>0.7216</v>
       </c>
       <c r="C130" t="n">
-        <v>0.620471</v>
+        <v>0.626775</v>
       </c>
       <c r="D130" t="n">
-        <v>0.582556</v>
+        <v>0.583118</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.71636</v>
+        <v>0.714494</v>
       </c>
       <c r="C131" t="n">
-        <v>0.611717</v>
+        <v>0.618153</v>
       </c>
       <c r="D131" t="n">
-        <v>0.577633</v>
+        <v>0.575614</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.711053</v>
+        <v>0.711294</v>
       </c>
       <c r="C132" t="n">
-        <v>0.603321</v>
+        <v>0.609772</v>
       </c>
       <c r="D132" t="n">
-        <v>0.570526</v>
+        <v>0.5687449999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.705603</v>
+        <v>0.7060149999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5944120000000001</v>
+        <v>0.602697</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5643319999999999</v>
+        <v>0.5623860000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.698553</v>
+        <v>0.701106</v>
       </c>
       <c r="C134" t="n">
-        <v>0.58663</v>
+        <v>0.598568</v>
       </c>
       <c r="D134" t="n">
-        <v>0.554776</v>
+        <v>0.556611</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.698258</v>
+        <v>0.696748</v>
       </c>
       <c r="C135" t="n">
-        <v>0.579439</v>
+        <v>0.591387</v>
       </c>
       <c r="D135" t="n">
-        <v>0.55302</v>
+        <v>0.551482</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.691673</v>
+        <v>0.694358</v>
       </c>
       <c r="C136" t="n">
-        <v>0.574647</v>
+        <v>0.587423</v>
       </c>
       <c r="D136" t="n">
-        <v>0.545383</v>
+        <v>0.5456299999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.689868</v>
+        <v>0.690683</v>
       </c>
       <c r="C137" t="n">
-        <v>0.570347</v>
+        <v>0.582789</v>
       </c>
       <c r="D137" t="n">
-        <v>0.748796</v>
+        <v>0.746198</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875283</v>
+        <v>0.875123</v>
       </c>
       <c r="C138" t="n">
-        <v>0.796423</v>
+        <v>0.801269</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7397629999999999</v>
+        <v>0.735636</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.869509</v>
+        <v>0.868613</v>
       </c>
       <c r="C139" t="n">
-        <v>0.781604</v>
+        <v>0.788977</v>
       </c>
       <c r="D139" t="n">
-        <v>0.728342</v>
+        <v>0.728276</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863065</v>
+        <v>0.863923</v>
       </c>
       <c r="C140" t="n">
-        <v>0.768269</v>
+        <v>0.778274</v>
       </c>
       <c r="D140" t="n">
-        <v>0.72017</v>
+        <v>0.71887</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.858088</v>
+        <v>0.85726</v>
       </c>
       <c r="C141" t="n">
-        <v>0.754555</v>
+        <v>0.76684</v>
       </c>
       <c r="D141" t="n">
-        <v>0.713019</v>
+        <v>0.710549</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.85251</v>
+        <v>0.8478290000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.743777</v>
+        <v>0.755633</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7055</v>
+        <v>0.702761</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8460490000000001</v>
+        <v>0.846549</v>
       </c>
       <c r="C143" t="n">
-        <v>0.73112</v>
+        <v>0.746731</v>
       </c>
       <c r="D143" t="n">
-        <v>0.697161</v>
+        <v>0.694791</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251862</v>
+        <v>0.250391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203543</v>
+        <v>0.204121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191157</v>
+        <v>0.19756</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246677</v>
+        <v>0.24539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197702</v>
+        <v>0.197542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185736</v>
+        <v>0.191445</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241496</v>
+        <v>0.2404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191594</v>
+        <v>0.191807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.180288</v>
+        <v>0.186969</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236942</v>
+        <v>0.235691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18767</v>
+        <v>0.188392</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176917</v>
+        <v>0.182817</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232649</v>
+        <v>0.231685</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18363</v>
+        <v>0.184476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.173326</v>
+        <v>0.179243</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229506</v>
+        <v>0.229131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18229</v>
+        <v>0.182563</v>
       </c>
       <c r="D7" t="n">
-        <v>0.172867</v>
+        <v>0.178463</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228021</v>
+        <v>0.22802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.18199</v>
+        <v>0.181613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.172018</v>
+        <v>0.180039</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228745</v>
+        <v>0.228248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.183186</v>
+        <v>0.182972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.261875</v>
+        <v>0.268552</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314765</v>
+        <v>0.314768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.27067</v>
+        <v>0.271121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.25335</v>
+        <v>0.259627</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305805</v>
+        <v>0.30559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261679</v>
+        <v>0.261945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244191</v>
+        <v>0.250464</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297159</v>
+        <v>0.297043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.253268</v>
+        <v>0.253502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236066</v>
+        <v>0.242544</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289316</v>
+        <v>0.289225</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244847</v>
+        <v>0.245165</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227842</v>
+        <v>0.234619</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281042</v>
+        <v>0.280847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237506</v>
+        <v>0.237716</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220971</v>
+        <v>0.227441</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273721</v>
+        <v>0.273746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23042</v>
+        <v>0.230285</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213917</v>
+        <v>0.220508</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266746</v>
+        <v>0.266906</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22344</v>
+        <v>0.223614</v>
       </c>
       <c r="D16" t="n">
-        <v>0.207704</v>
+        <v>0.214314</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260488</v>
+        <v>0.260513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217719</v>
+        <v>0.217529</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202492</v>
+        <v>0.208677</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25454</v>
+        <v>0.254801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212181</v>
+        <v>0.211986</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198058</v>
+        <v>0.20416</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249385</v>
+        <v>0.24962</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206678</v>
+        <v>0.207362</v>
       </c>
       <c r="D19" t="n">
-        <v>0.194014</v>
+        <v>0.200124</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245025</v>
+        <v>0.244999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203286</v>
+        <v>0.203264</v>
       </c>
       <c r="D20" t="n">
-        <v>0.191339</v>
+        <v>0.197142</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240803</v>
+        <v>0.241401</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199977</v>
+        <v>0.200635</v>
       </c>
       <c r="D21" t="n">
-        <v>0.189771</v>
+        <v>0.195958</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238545</v>
+        <v>0.238735</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199216</v>
+        <v>0.199295</v>
       </c>
       <c r="D22" t="n">
-        <v>0.19143</v>
+        <v>0.197077</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237519</v>
+        <v>0.238459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200258</v>
+        <v>0.200355</v>
       </c>
       <c r="D23" t="n">
-        <v>0.278634</v>
+        <v>0.284855</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.330235</v>
+        <v>0.324914</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285968</v>
+        <v>0.286058</v>
       </c>
       <c r="D24" t="n">
-        <v>0.269435</v>
+        <v>0.275631</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.324541</v>
+        <v>0.315932</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276933</v>
+        <v>0.277054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260531</v>
+        <v>0.26656</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.311686</v>
+        <v>0.306863</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267897</v>
+        <v>0.268244</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251826</v>
+        <v>0.25772</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.303501</v>
+        <v>0.298486</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259319</v>
+        <v>0.259649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243775</v>
+        <v>0.249287</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.294452</v>
+        <v>0.290421</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251327</v>
+        <v>0.251443</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236275</v>
+        <v>0.242105</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.286966</v>
+        <v>0.282928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243964</v>
+        <v>0.243846</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229372</v>
+        <v>0.235086</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.279918</v>
+        <v>0.275497</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236968</v>
+        <v>0.236349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222523</v>
+        <v>0.227956</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270216</v>
+        <v>0.268899</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230294</v>
+        <v>0.230298</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216369</v>
+        <v>0.22216</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.267101</v>
+        <v>0.262901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223643</v>
+        <v>0.224147</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210661</v>
+        <v>0.216541</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.261328</v>
+        <v>0.257593</v>
       </c>
       <c r="C33" t="n">
-        <v>0.217873</v>
+        <v>0.218292</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205933</v>
+        <v>0.211732</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.256229</v>
+        <v>0.252857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213404</v>
+        <v>0.213695</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20201</v>
+        <v>0.20777</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.251214</v>
+        <v>0.248366</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209649</v>
+        <v>0.209593</v>
       </c>
       <c r="D35" t="n">
-        <v>0.199348</v>
+        <v>0.205051</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.248819</v>
+        <v>0.245714</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206866</v>
+        <v>0.206661</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198823</v>
+        <v>0.204471</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.246975</v>
+        <v>0.244264</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205925</v>
+        <v>0.205889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.288238</v>
+        <v>0.293665</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.330502</v>
+        <v>0.328399</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294717</v>
+        <v>0.294556</v>
       </c>
       <c r="D38" t="n">
-        <v>0.278817</v>
+        <v>0.284495</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321806</v>
+        <v>0.319825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285714</v>
+        <v>0.285615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.269804</v>
+        <v>0.27547</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.312579</v>
+        <v>0.311395</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276757</v>
+        <v>0.276698</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261147</v>
+        <v>0.266894</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.304827</v>
+        <v>0.302829</v>
       </c>
       <c r="C41" t="n">
-        <v>0.268209</v>
+        <v>0.268326</v>
       </c>
       <c r="D41" t="n">
-        <v>0.253111</v>
+        <v>0.258786</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.296059</v>
+        <v>0.294835</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260204</v>
+        <v>0.26032</v>
       </c>
       <c r="D42" t="n">
-        <v>0.245318</v>
+        <v>0.251184</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.289061</v>
+        <v>0.28732</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252529</v>
+        <v>0.252686</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238194</v>
+        <v>0.244004</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281756</v>
+        <v>0.28049</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245168</v>
+        <v>0.2454</v>
       </c>
       <c r="D44" t="n">
-        <v>0.231358</v>
+        <v>0.237265</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.276072</v>
+        <v>0.274214</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238796</v>
+        <v>0.238908</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225307</v>
+        <v>0.230873</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26935</v>
+        <v>0.267851</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232216</v>
+        <v>0.232768</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219666</v>
+        <v>0.225239</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26407</v>
+        <v>0.263305</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227302</v>
+        <v>0.227328</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214815</v>
+        <v>0.220718</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.259837</v>
+        <v>0.25893</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222432</v>
+        <v>0.222454</v>
       </c>
       <c r="D48" t="n">
-        <v>0.210651</v>
+        <v>0.216529</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254913</v>
+        <v>0.253582</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218572</v>
+        <v>0.218435</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207788</v>
+        <v>0.213647</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251869</v>
+        <v>0.250462</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215424</v>
+        <v>0.215401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206285</v>
+        <v>0.212202</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250137</v>
+        <v>0.249036</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214297</v>
+        <v>0.214135</v>
       </c>
       <c r="D51" t="n">
-        <v>0.298779</v>
+        <v>0.304163</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.251986</v>
+        <v>0.250907</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215104</v>
+        <v>0.215397</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289385</v>
+        <v>0.294823</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330611</v>
+        <v>0.333428</v>
       </c>
       <c r="C53" t="n">
-        <v>0.298278</v>
+        <v>0.296586</v>
       </c>
       <c r="D53" t="n">
-        <v>0.280305</v>
+        <v>0.286012</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.322405</v>
+        <v>0.324923</v>
       </c>
       <c r="C54" t="n">
-        <v>0.289348</v>
+        <v>0.287818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271803</v>
+        <v>0.277194</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.31473</v>
+        <v>0.316691</v>
       </c>
       <c r="C55" t="n">
-        <v>0.280946</v>
+        <v>0.279402</v>
       </c>
       <c r="D55" t="n">
-        <v>0.263347</v>
+        <v>0.269185</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307698</v>
+        <v>0.309131</v>
       </c>
       <c r="C56" t="n">
-        <v>0.273015</v>
+        <v>0.271445</v>
       </c>
       <c r="D56" t="n">
-        <v>0.255341</v>
+        <v>0.261696</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.300701</v>
+        <v>0.301515</v>
       </c>
       <c r="C57" t="n">
-        <v>0.265494</v>
+        <v>0.263952</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248401</v>
+        <v>0.25472</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.294368</v>
+        <v>0.29532</v>
       </c>
       <c r="C58" t="n">
-        <v>0.258449</v>
+        <v>0.256788</v>
       </c>
       <c r="D58" t="n">
-        <v>0.242212</v>
+        <v>0.247672</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.288219</v>
+        <v>0.289052</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251805</v>
+        <v>0.250298</v>
       </c>
       <c r="D59" t="n">
-        <v>0.235979</v>
+        <v>0.241826</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282455</v>
+        <v>0.283329</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2454</v>
+        <v>0.243994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.230297</v>
+        <v>0.235671</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.277808</v>
+        <v>0.278148</v>
       </c>
       <c r="C61" t="n">
-        <v>0.23985</v>
+        <v>0.238272</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225338</v>
+        <v>0.231114</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272434</v>
+        <v>0.273829</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234938</v>
+        <v>0.233566</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221189</v>
+        <v>0.22754</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2691</v>
+        <v>0.269433</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23062</v>
+        <v>0.229489</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218032</v>
+        <v>0.22325</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266294</v>
+        <v>0.266104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227357</v>
+        <v>0.226173</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216451</v>
+        <v>0.221757</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264637</v>
+        <v>0.264392</v>
       </c>
       <c r="C65" t="n">
-        <v>0.225347</v>
+        <v>0.22436</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21722</v>
+        <v>0.222363</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265396</v>
+        <v>0.264683</v>
       </c>
       <c r="C66" t="n">
-        <v>0.226342</v>
+        <v>0.225338</v>
       </c>
       <c r="D66" t="n">
-        <v>0.321893</v>
+        <v>0.330527</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388727</v>
+        <v>0.390101</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332039</v>
+        <v>0.333211</v>
       </c>
       <c r="D67" t="n">
-        <v>0.311472</v>
+        <v>0.320802</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.38039</v>
+        <v>0.382186</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322427</v>
+        <v>0.323922</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302249</v>
+        <v>0.311673</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.373233</v>
+        <v>0.374893</v>
       </c>
       <c r="C69" t="n">
-        <v>0.313464</v>
+        <v>0.315271</v>
       </c>
       <c r="D69" t="n">
-        <v>0.293714</v>
+        <v>0.303159</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365958</v>
+        <v>0.368292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.304902</v>
+        <v>0.306937</v>
       </c>
       <c r="D70" t="n">
-        <v>0.285617</v>
+        <v>0.294671</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.35973</v>
+        <v>0.362034</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296872</v>
+        <v>0.298535</v>
       </c>
       <c r="D71" t="n">
-        <v>0.277981</v>
+        <v>0.287251</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.354035</v>
+        <v>0.355768</v>
       </c>
       <c r="C72" t="n">
-        <v>0.289409</v>
+        <v>0.290864</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270606</v>
+        <v>0.280063</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347853</v>
+        <v>0.349471</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282188</v>
+        <v>0.283699</v>
       </c>
       <c r="D73" t="n">
-        <v>0.263857</v>
+        <v>0.273031</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341747</v>
+        <v>0.343386</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275468</v>
+        <v>0.276588</v>
       </c>
       <c r="D74" t="n">
-        <v>0.257745</v>
+        <v>0.267012</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335907</v>
+        <v>0.337532</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269164</v>
+        <v>0.27045</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251961</v>
+        <v>0.261265</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.330179</v>
+        <v>0.331905</v>
       </c>
       <c r="C76" t="n">
-        <v>0.26333</v>
+        <v>0.264526</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247202</v>
+        <v>0.256434</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324851</v>
+        <v>0.326759</v>
       </c>
       <c r="C77" t="n">
-        <v>0.258226</v>
+        <v>0.259633</v>
       </c>
       <c r="D77" t="n">
-        <v>0.243163</v>
+        <v>0.252486</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320839</v>
+        <v>0.322452</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254408</v>
+        <v>0.255649</v>
       </c>
       <c r="D78" t="n">
-        <v>0.240761</v>
+        <v>0.249969</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.317272</v>
+        <v>0.319046</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251942</v>
+        <v>0.253247</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24055</v>
+        <v>0.249686</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315637</v>
+        <v>0.317671</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25148</v>
+        <v>0.25273</v>
       </c>
       <c r="D80" t="n">
-        <v>0.37645</v>
+        <v>0.383924</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.551843</v>
+        <v>0.551177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396148</v>
+        <v>0.396517</v>
       </c>
       <c r="D81" t="n">
-        <v>0.369124</v>
+        <v>0.37656</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.544783</v>
+        <v>0.544399</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390192</v>
+        <v>0.390235</v>
       </c>
       <c r="D82" t="n">
-        <v>0.360342</v>
+        <v>0.366845</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5347769999999999</v>
+        <v>0.534712</v>
       </c>
       <c r="C83" t="n">
-        <v>0.381772</v>
+        <v>0.382124</v>
       </c>
       <c r="D83" t="n">
-        <v>0.351692</v>
+        <v>0.358292</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.524679</v>
+        <v>0.525174</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372089</v>
+        <v>0.371193</v>
       </c>
       <c r="D84" t="n">
-        <v>0.342627</v>
+        <v>0.348931</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.514954</v>
+        <v>0.51537</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362666</v>
+        <v>0.3637</v>
       </c>
       <c r="D85" t="n">
-        <v>0.333515</v>
+        <v>0.341532</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.505243</v>
+        <v>0.505735</v>
       </c>
       <c r="C86" t="n">
-        <v>0.354051</v>
+        <v>0.354326</v>
       </c>
       <c r="D86" t="n">
-        <v>0.326002</v>
+        <v>0.33256</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.495689</v>
+        <v>0.496157</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345469</v>
+        <v>0.345326</v>
       </c>
       <c r="D87" t="n">
-        <v>0.317753</v>
+        <v>0.325146</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.486411</v>
+        <v>0.486908</v>
       </c>
       <c r="C88" t="n">
-        <v>0.33807</v>
+        <v>0.337374</v>
       </c>
       <c r="D88" t="n">
-        <v>0.310772</v>
+        <v>0.318002</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.477654</v>
+        <v>0.477926</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330061</v>
+        <v>0.330706</v>
       </c>
       <c r="D89" t="n">
-        <v>0.304868</v>
+        <v>0.31142</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.469367</v>
+        <v>0.469129</v>
       </c>
       <c r="C90" t="n">
-        <v>0.323341</v>
+        <v>0.323829</v>
       </c>
       <c r="D90" t="n">
-        <v>0.298543</v>
+        <v>0.304978</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461262</v>
+        <v>0.461074</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317289</v>
+        <v>0.317199</v>
       </c>
       <c r="D91" t="n">
-        <v>0.293483</v>
+        <v>0.300144</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.453492</v>
+        <v>0.453588</v>
       </c>
       <c r="C92" t="n">
-        <v>0.311446</v>
+        <v>0.311593</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289839</v>
+        <v>0.296366</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.446407</v>
+        <v>0.446892</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307607</v>
+        <v>0.308361</v>
       </c>
       <c r="D93" t="n">
-        <v>0.287531</v>
+        <v>0.294423</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.441577</v>
+        <v>0.441201</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305747</v>
+        <v>0.307029</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5545870000000001</v>
+        <v>0.55926</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.564325</v>
+        <v>0.570582</v>
       </c>
       <c r="C95" t="n">
-        <v>0.526019</v>
+        <v>0.524928</v>
       </c>
       <c r="D95" t="n">
-        <v>0.543474</v>
+        <v>0.548075</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.561782</v>
+        <v>0.567693</v>
       </c>
       <c r="C96" t="n">
-        <v>0.520049</v>
+        <v>0.517992</v>
       </c>
       <c r="D96" t="n">
-        <v>0.529235</v>
+        <v>0.5314990000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.554604</v>
+        <v>0.558393</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5065730000000001</v>
+        <v>0.5046119999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.513014</v>
+        <v>0.516123</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.545981</v>
+        <v>0.549996</v>
       </c>
       <c r="C98" t="n">
-        <v>0.493803</v>
+        <v>0.490871</v>
       </c>
       <c r="D98" t="n">
-        <v>0.49632</v>
+        <v>0.501457</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.539201</v>
+        <v>0.540831</v>
       </c>
       <c r="C99" t="n">
-        <v>0.480847</v>
+        <v>0.479521</v>
       </c>
       <c r="D99" t="n">
-        <v>0.484037</v>
+        <v>0.48927</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.53104</v>
+        <v>0.534046</v>
       </c>
       <c r="C100" t="n">
-        <v>0.468605</v>
+        <v>0.468102</v>
       </c>
       <c r="D100" t="n">
-        <v>0.470628</v>
+        <v>0.475151</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.523079</v>
+        <v>0.526591</v>
       </c>
       <c r="C101" t="n">
-        <v>0.45716</v>
+        <v>0.45433</v>
       </c>
       <c r="D101" t="n">
-        <v>0.458065</v>
+        <v>0.463565</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.516109</v>
+        <v>0.5208930000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.445526</v>
+        <v>0.445271</v>
       </c>
       <c r="D102" t="n">
-        <v>0.446841</v>
+        <v>0.45186</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508978</v>
+        <v>0.5127080000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.435553</v>
+        <v>0.432752</v>
       </c>
       <c r="D103" t="n">
-        <v>0.433635</v>
+        <v>0.440516</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504254</v>
+        <v>0.506223</v>
       </c>
       <c r="C104" t="n">
-        <v>0.425893</v>
+        <v>0.426112</v>
       </c>
       <c r="D104" t="n">
-        <v>0.425463</v>
+        <v>0.429442</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.498897</v>
+        <v>0.500412</v>
       </c>
       <c r="C105" t="n">
-        <v>0.417449</v>
+        <v>0.416972</v>
       </c>
       <c r="D105" t="n">
-        <v>0.416389</v>
+        <v>0.421118</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.492963</v>
+        <v>0.495462</v>
       </c>
       <c r="C106" t="n">
-        <v>0.409453</v>
+        <v>0.409488</v>
       </c>
       <c r="D106" t="n">
-        <v>0.409064</v>
+        <v>0.41424</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4885</v>
+        <v>0.49194</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403206</v>
+        <v>0.403107</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402036</v>
+        <v>0.407996</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.486703</v>
+        <v>0.487806</v>
       </c>
       <c r="C108" t="n">
-        <v>0.400516</v>
+        <v>0.39924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.599139</v>
+        <v>0.606507</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.485251</v>
+        <v>0.48688</v>
       </c>
       <c r="C109" t="n">
-        <v>0.398747</v>
+        <v>0.397298</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5902809999999999</v>
+        <v>0.595734</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.679266</v>
+        <v>0.681032</v>
       </c>
       <c r="C110" t="n">
-        <v>0.61243</v>
+        <v>0.61042</v>
       </c>
       <c r="D110" t="n">
-        <v>0.576622</v>
+        <v>0.581067</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.669434</v>
+        <v>0.671618</v>
       </c>
       <c r="C111" t="n">
-        <v>0.598153</v>
+        <v>0.597496</v>
       </c>
       <c r="D111" t="n">
-        <v>0.561227</v>
+        <v>0.567599</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.659408</v>
+        <v>0.658475</v>
       </c>
       <c r="C112" t="n">
-        <v>0.585622</v>
+        <v>0.583688</v>
       </c>
       <c r="D112" t="n">
-        <v>0.547165</v>
+        <v>0.553133</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6490939999999999</v>
+        <v>0.648348</v>
       </c>
       <c r="C113" t="n">
-        <v>0.571597</v>
+        <v>0.569704</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534989</v>
+        <v>0.54089</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.637988</v>
+        <v>0.640343</v>
       </c>
       <c r="C114" t="n">
-        <v>0.55821</v>
+        <v>0.557803</v>
       </c>
       <c r="D114" t="n">
-        <v>0.522243</v>
+        <v>0.527902</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.629104</v>
+        <v>0.630663</v>
       </c>
       <c r="C115" t="n">
-        <v>0.544704</v>
+        <v>0.546698</v>
       </c>
       <c r="D115" t="n">
-        <v>0.508499</v>
+        <v>0.516719</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.620364</v>
+        <v>0.621918</v>
       </c>
       <c r="C116" t="n">
-        <v>0.533303</v>
+        <v>0.534734</v>
       </c>
       <c r="D116" t="n">
-        <v>0.497584</v>
+        <v>0.505242</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612135</v>
+        <v>0.610457</v>
       </c>
       <c r="C117" t="n">
-        <v>0.522061</v>
+        <v>0.52404</v>
       </c>
       <c r="D117" t="n">
-        <v>0.486754</v>
+        <v>0.494843</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.604814</v>
+        <v>0.602175</v>
       </c>
       <c r="C118" t="n">
-        <v>0.514158</v>
+        <v>0.513103</v>
       </c>
       <c r="D118" t="n">
-        <v>0.479286</v>
+        <v>0.484112</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.596292</v>
+        <v>0.599121</v>
       </c>
       <c r="C119" t="n">
-        <v>0.504769</v>
+        <v>0.504984</v>
       </c>
       <c r="D119" t="n">
-        <v>0.469858</v>
+        <v>0.476316</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.590881</v>
+        <v>0.592657</v>
       </c>
       <c r="C120" t="n">
-        <v>0.49579</v>
+        <v>0.494224</v>
       </c>
       <c r="D120" t="n">
-        <v>0.462766</v>
+        <v>0.467342</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.581782</v>
+        <v>0.586747</v>
       </c>
       <c r="C121" t="n">
-        <v>0.488608</v>
+        <v>0.487924</v>
       </c>
       <c r="D121" t="n">
-        <v>0.456777</v>
+        <v>0.461762</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.576553</v>
+        <v>0.577528</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481859</v>
+        <v>0.481356</v>
       </c>
       <c r="D122" t="n">
-        <v>0.451121</v>
+        <v>0.457038</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.577858</v>
+        <v>0.574045</v>
       </c>
       <c r="C123" t="n">
-        <v>0.478648</v>
+        <v>0.47718</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6496960000000001</v>
+        <v>0.657659</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.766198</v>
+        <v>0.76708</v>
       </c>
       <c r="C124" t="n">
-        <v>0.69364</v>
+        <v>0.691546</v>
       </c>
       <c r="D124" t="n">
-        <v>0.640419</v>
+        <v>0.64323</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.758911</v>
+        <v>0.758584</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6817220000000001</v>
+        <v>0.6791700000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6300519999999999</v>
+        <v>0.632506</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.750934</v>
+        <v>0.750598</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6697920000000001</v>
+        <v>0.668374</v>
       </c>
       <c r="D126" t="n">
-        <v>0.619216</v>
+        <v>0.623502</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7418670000000001</v>
+        <v>0.740748</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657126</v>
+        <v>0.658009</v>
       </c>
       <c r="D127" t="n">
-        <v>0.609729</v>
+        <v>0.613804</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.734776</v>
+        <v>0.732787</v>
       </c>
       <c r="C128" t="n">
-        <v>0.646277</v>
+        <v>0.6448</v>
       </c>
       <c r="D128" t="n">
-        <v>0.599909</v>
+        <v>0.604057</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7282189999999999</v>
+        <v>0.7279640000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.635737</v>
+        <v>0.636221</v>
       </c>
       <c r="D129" t="n">
-        <v>0.591503</v>
+        <v>0.595245</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7216</v>
+        <v>0.722366</v>
       </c>
       <c r="C130" t="n">
-        <v>0.626775</v>
+        <v>0.628922</v>
       </c>
       <c r="D130" t="n">
-        <v>0.583118</v>
+        <v>0.587761</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.714494</v>
+        <v>0.716384</v>
       </c>
       <c r="C131" t="n">
-        <v>0.618153</v>
+        <v>0.619764</v>
       </c>
       <c r="D131" t="n">
-        <v>0.575614</v>
+        <v>0.579704</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.711294</v>
+        <v>0.710044</v>
       </c>
       <c r="C132" t="n">
-        <v>0.609772</v>
+        <v>0.609688</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5687449999999999</v>
+        <v>0.569744</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7060149999999999</v>
+        <v>0.704669</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602697</v>
+        <v>0.603305</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5623860000000001</v>
+        <v>0.566453</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.701106</v>
+        <v>0.6968259999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.598568</v>
+        <v>0.59649</v>
       </c>
       <c r="D134" t="n">
-        <v>0.556611</v>
+        <v>0.5600850000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.696748</v>
+        <v>0.695457</v>
       </c>
       <c r="C135" t="n">
-        <v>0.591387</v>
+        <v>0.592329</v>
       </c>
       <c r="D135" t="n">
-        <v>0.551482</v>
+        <v>0.554461</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.694358</v>
+        <v>0.691483</v>
       </c>
       <c r="C136" t="n">
-        <v>0.587423</v>
+        <v>0.585625</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5456299999999999</v>
+        <v>0.549476</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.690683</v>
+        <v>0.6892470000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.582789</v>
+        <v>0.583673</v>
       </c>
       <c r="D137" t="n">
-        <v>0.746198</v>
+        <v>0.751119</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875123</v>
+        <v>0.872754</v>
       </c>
       <c r="C138" t="n">
-        <v>0.801269</v>
+        <v>0.800365</v>
       </c>
       <c r="D138" t="n">
-        <v>0.735636</v>
+        <v>0.738635</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.868613</v>
+        <v>0.866917</v>
       </c>
       <c r="C139" t="n">
-        <v>0.788977</v>
+        <v>0.78875</v>
       </c>
       <c r="D139" t="n">
-        <v>0.728276</v>
+        <v>0.730181</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863923</v>
+        <v>0.862422</v>
       </c>
       <c r="C140" t="n">
-        <v>0.778274</v>
+        <v>0.776425</v>
       </c>
       <c r="D140" t="n">
-        <v>0.71887</v>
+        <v>0.719426</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.85726</v>
+        <v>0.855652</v>
       </c>
       <c r="C141" t="n">
-        <v>0.76684</v>
+        <v>0.766533</v>
       </c>
       <c r="D141" t="n">
-        <v>0.710549</v>
+        <v>0.711577</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8478290000000001</v>
+        <v>0.849956</v>
       </c>
       <c r="C142" t="n">
-        <v>0.755633</v>
+        <v>0.756171</v>
       </c>
       <c r="D142" t="n">
-        <v>0.702761</v>
+        <v>0.703506</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.846549</v>
+        <v>0.84509</v>
       </c>
       <c r="C143" t="n">
-        <v>0.746731</v>
+        <v>0.74698</v>
       </c>
       <c r="D143" t="n">
-        <v>0.694791</v>
+        <v>0.696043</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250391</v>
+        <v>0.250295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204121</v>
+        <v>0.204211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19756</v>
+        <v>0.192724</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24539</v>
+        <v>0.245567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197542</v>
+        <v>0.197232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191445</v>
+        <v>0.187056</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2404</v>
+        <v>0.240045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191807</v>
+        <v>0.192791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186969</v>
+        <v>0.182192</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235691</v>
+        <v>0.23525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188392</v>
+        <v>0.188066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.182817</v>
+        <v>0.178103</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231685</v>
+        <v>0.231896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184476</v>
+        <v>0.184401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.179243</v>
+        <v>0.174369</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229131</v>
+        <v>0.229144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182563</v>
+        <v>0.182965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.178463</v>
+        <v>0.172815</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22802</v>
+        <v>0.22799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181613</v>
+        <v>0.181899</v>
       </c>
       <c r="D8" t="n">
-        <v>0.180039</v>
+        <v>0.17415</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228248</v>
+        <v>0.228461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182972</v>
+        <v>0.183582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.268552</v>
+        <v>0.262706</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314768</v>
+        <v>0.326179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271121</v>
+        <v>0.271037</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259627</v>
+        <v>0.252975</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30559</v>
+        <v>0.316624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261945</v>
+        <v>0.261863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250464</v>
+        <v>0.244819</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297043</v>
+        <v>0.305455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.253502</v>
+        <v>0.253251</v>
       </c>
       <c r="D12" t="n">
-        <v>0.242544</v>
+        <v>0.236743</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289225</v>
+        <v>0.296875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245165</v>
+        <v>0.24505</v>
       </c>
       <c r="D13" t="n">
-        <v>0.234619</v>
+        <v>0.229152</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280847</v>
+        <v>0.28791</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237716</v>
+        <v>0.237668</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227441</v>
+        <v>0.221873</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273746</v>
+        <v>0.281188</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230285</v>
+        <v>0.230528</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220508</v>
+        <v>0.215073</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266906</v>
+        <v>0.273935</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223614</v>
+        <v>0.223715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.214314</v>
+        <v>0.208619</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260513</v>
+        <v>0.268259</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217529</v>
+        <v>0.217788</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208677</v>
+        <v>0.203124</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254801</v>
+        <v>0.261221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211986</v>
+        <v>0.212165</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20416</v>
+        <v>0.198318</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24962</v>
+        <v>0.255222</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207362</v>
+        <v>0.207667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200124</v>
+        <v>0.194621</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244999</v>
+        <v>0.250924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203264</v>
+        <v>0.203668</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197142</v>
+        <v>0.191673</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241401</v>
+        <v>0.247291</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200635</v>
+        <v>0.201064</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195958</v>
+        <v>0.190524</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238735</v>
+        <v>0.244087</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199295</v>
+        <v>0.199583</v>
       </c>
       <c r="D22" t="n">
-        <v>0.197077</v>
+        <v>0.19177</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238459</v>
+        <v>0.244328</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200355</v>
+        <v>0.200503</v>
       </c>
       <c r="D23" t="n">
-        <v>0.284855</v>
+        <v>0.27867</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324914</v>
+        <v>0.330039</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286058</v>
+        <v>0.285912</v>
       </c>
       <c r="D24" t="n">
-        <v>0.275631</v>
+        <v>0.269264</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315932</v>
+        <v>0.320825</v>
       </c>
       <c r="C25" t="n">
-        <v>0.277054</v>
+        <v>0.276074</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26656</v>
+        <v>0.260349</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306863</v>
+        <v>0.311234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.268244</v>
+        <v>0.266985</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25772</v>
+        <v>0.251805</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298486</v>
+        <v>0.302568</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259649</v>
+        <v>0.258397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249287</v>
+        <v>0.24369</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290421</v>
+        <v>0.294716</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251443</v>
+        <v>0.250394</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242105</v>
+        <v>0.236246</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282928</v>
+        <v>0.286688</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243846</v>
+        <v>0.243397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235086</v>
+        <v>0.228969</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275497</v>
+        <v>0.278951</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236349</v>
+        <v>0.235978</v>
       </c>
       <c r="D30" t="n">
-        <v>0.227956</v>
+        <v>0.222475</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268899</v>
+        <v>0.272555</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230298</v>
+        <v>0.229302</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22216</v>
+        <v>0.216588</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262901</v>
+        <v>0.266036</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224147</v>
+        <v>0.22334</v>
       </c>
       <c r="D32" t="n">
-        <v>0.216541</v>
+        <v>0.211022</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257593</v>
+        <v>0.259836</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218292</v>
+        <v>0.21796</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211732</v>
+        <v>0.206117</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252857</v>
+        <v>0.25507</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213695</v>
+        <v>0.213292</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20777</v>
+        <v>0.202297</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248366</v>
+        <v>0.249043</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209593</v>
+        <v>0.209367</v>
       </c>
       <c r="D35" t="n">
-        <v>0.205051</v>
+        <v>0.199641</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245714</v>
+        <v>0.247496</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206661</v>
+        <v>0.20656</v>
       </c>
       <c r="D36" t="n">
-        <v>0.204471</v>
+        <v>0.199185</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.244264</v>
+        <v>0.246043</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205889</v>
+        <v>0.206263</v>
       </c>
       <c r="D37" t="n">
-        <v>0.293665</v>
+        <v>0.288587</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328399</v>
+        <v>0.332744</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294556</v>
+        <v>0.29495</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284495</v>
+        <v>0.279175</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.319825</v>
+        <v>0.322994</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285615</v>
+        <v>0.285517</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27547</v>
+        <v>0.270229</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311395</v>
+        <v>0.314171</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276698</v>
+        <v>0.277017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.266894</v>
+        <v>0.261793</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302829</v>
+        <v>0.305952</v>
       </c>
       <c r="C41" t="n">
-        <v>0.268326</v>
+        <v>0.268511</v>
       </c>
       <c r="D41" t="n">
-        <v>0.258786</v>
+        <v>0.25335</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294835</v>
+        <v>0.299633</v>
       </c>
       <c r="C42" t="n">
-        <v>0.26032</v>
+        <v>0.260376</v>
       </c>
       <c r="D42" t="n">
-        <v>0.251184</v>
+        <v>0.246031</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.28732</v>
+        <v>0.291027</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252686</v>
+        <v>0.25291</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244004</v>
+        <v>0.238735</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.28049</v>
+        <v>0.283645</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2454</v>
+        <v>0.24557</v>
       </c>
       <c r="D44" t="n">
-        <v>0.237265</v>
+        <v>0.232032</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274214</v>
+        <v>0.277686</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238908</v>
+        <v>0.238666</v>
       </c>
       <c r="D45" t="n">
-        <v>0.230873</v>
+        <v>0.225887</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267851</v>
+        <v>0.270675</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232768</v>
+        <v>0.232294</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225239</v>
+        <v>0.220272</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263305</v>
+        <v>0.265167</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227328</v>
+        <v>0.226942</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220718</v>
+        <v>0.215443</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.25893</v>
+        <v>0.26035</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222454</v>
+        <v>0.222355</v>
       </c>
       <c r="D48" t="n">
-        <v>0.216529</v>
+        <v>0.211325</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253582</v>
+        <v>0.256015</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218435</v>
+        <v>0.218154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213647</v>
+        <v>0.208449</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250462</v>
+        <v>0.253883</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215401</v>
+        <v>0.215482</v>
       </c>
       <c r="D50" t="n">
-        <v>0.212202</v>
+        <v>0.206983</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.249036</v>
+        <v>0.251359</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214135</v>
+        <v>0.213919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.304163</v>
+        <v>0.299941</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.250907</v>
+        <v>0.252861</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215397</v>
+        <v>0.21529</v>
       </c>
       <c r="D52" t="n">
-        <v>0.294823</v>
+        <v>0.290584</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.333428</v>
+        <v>0.333757</v>
       </c>
       <c r="C53" t="n">
-        <v>0.296586</v>
+        <v>0.297075</v>
       </c>
       <c r="D53" t="n">
-        <v>0.286012</v>
+        <v>0.281494</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.324923</v>
+        <v>0.325385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287818</v>
+        <v>0.288224</v>
       </c>
       <c r="D54" t="n">
-        <v>0.277194</v>
+        <v>0.273089</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.316691</v>
+        <v>0.317436</v>
       </c>
       <c r="C55" t="n">
-        <v>0.279402</v>
+        <v>0.279897</v>
       </c>
       <c r="D55" t="n">
-        <v>0.269185</v>
+        <v>0.265012</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.309131</v>
+        <v>0.309798</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271445</v>
+        <v>0.271825</v>
       </c>
       <c r="D56" t="n">
-        <v>0.261696</v>
+        <v>0.257308</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.301515</v>
+        <v>0.303063</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263952</v>
+        <v>0.264453</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25472</v>
+        <v>0.250118</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29532</v>
+        <v>0.296128</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256788</v>
+        <v>0.257289</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247672</v>
+        <v>0.243359</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.289052</v>
+        <v>0.289791</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250298</v>
+        <v>0.250705</v>
       </c>
       <c r="D59" t="n">
-        <v>0.241826</v>
+        <v>0.237097</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.283329</v>
+        <v>0.284041</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243994</v>
+        <v>0.244596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235671</v>
+        <v>0.231338</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.278148</v>
+        <v>0.278778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238272</v>
+        <v>0.239091</v>
       </c>
       <c r="D61" t="n">
-        <v>0.231114</v>
+        <v>0.226599</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273829</v>
+        <v>0.274255</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233566</v>
+        <v>0.234232</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22754</v>
+        <v>0.222246</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.269433</v>
+        <v>0.270151</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229489</v>
+        <v>0.23003</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22325</v>
+        <v>0.218945</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.266104</v>
+        <v>0.267222</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226173</v>
+        <v>0.226762</v>
       </c>
       <c r="D64" t="n">
-        <v>0.221757</v>
+        <v>0.217448</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264392</v>
+        <v>0.265324</v>
       </c>
       <c r="C65" t="n">
-        <v>0.22436</v>
+        <v>0.224785</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222363</v>
+        <v>0.218158</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264683</v>
+        <v>0.265814</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225338</v>
+        <v>0.225666</v>
       </c>
       <c r="D66" t="n">
-        <v>0.330527</v>
+        <v>0.323703</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.390101</v>
+        <v>0.388557</v>
       </c>
       <c r="C67" t="n">
-        <v>0.333211</v>
+        <v>0.332291</v>
       </c>
       <c r="D67" t="n">
-        <v>0.320802</v>
+        <v>0.313193</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.382186</v>
+        <v>0.380455</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323922</v>
+        <v>0.323202</v>
       </c>
       <c r="D68" t="n">
-        <v>0.311673</v>
+        <v>0.30432</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.374893</v>
+        <v>0.373162</v>
       </c>
       <c r="C69" t="n">
-        <v>0.315271</v>
+        <v>0.314574</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303159</v>
+        <v>0.29576</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.368292</v>
+        <v>0.366312</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306937</v>
+        <v>0.305695</v>
       </c>
       <c r="D70" t="n">
-        <v>0.294671</v>
+        <v>0.287671</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.362034</v>
+        <v>0.359488</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298535</v>
+        <v>0.297734</v>
       </c>
       <c r="D71" t="n">
-        <v>0.287251</v>
+        <v>0.279645</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.355768</v>
+        <v>0.353214</v>
       </c>
       <c r="C72" t="n">
-        <v>0.290864</v>
+        <v>0.289927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.280063</v>
+        <v>0.272303</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.349471</v>
+        <v>0.347221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283699</v>
+        <v>0.282893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.273031</v>
+        <v>0.26548</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.343386</v>
+        <v>0.341435</v>
       </c>
       <c r="C74" t="n">
-        <v>0.276588</v>
+        <v>0.275938</v>
       </c>
       <c r="D74" t="n">
-        <v>0.267012</v>
+        <v>0.259237</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.337532</v>
+        <v>0.335748</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27045</v>
+        <v>0.26967</v>
       </c>
       <c r="D75" t="n">
-        <v>0.261265</v>
+        <v>0.253357</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.331905</v>
+        <v>0.330303</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264526</v>
+        <v>0.2641</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256434</v>
+        <v>0.248606</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.326759</v>
+        <v>0.325318</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259633</v>
+        <v>0.258936</v>
       </c>
       <c r="D77" t="n">
-        <v>0.252486</v>
+        <v>0.244607</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.322452</v>
+        <v>0.320935</v>
       </c>
       <c r="C78" t="n">
-        <v>0.255649</v>
+        <v>0.254824</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249969</v>
+        <v>0.24211</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.319046</v>
+        <v>0.317609</v>
       </c>
       <c r="C79" t="n">
-        <v>0.253247</v>
+        <v>0.252539</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249686</v>
+        <v>0.241679</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.317671</v>
+        <v>0.315889</v>
       </c>
       <c r="C80" t="n">
-        <v>0.25273</v>
+        <v>0.252053</v>
       </c>
       <c r="D80" t="n">
-        <v>0.383924</v>
+        <v>0.372312</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.551177</v>
+        <v>0.55321</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396517</v>
+        <v>0.397221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.37656</v>
+        <v>0.365949</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.544399</v>
+        <v>0.5466760000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390235</v>
+        <v>0.391248</v>
       </c>
       <c r="D82" t="n">
-        <v>0.366845</v>
+        <v>0.357454</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534712</v>
+        <v>0.53729</v>
       </c>
       <c r="C83" t="n">
-        <v>0.382124</v>
+        <v>0.381245</v>
       </c>
       <c r="D83" t="n">
-        <v>0.358292</v>
+        <v>0.347813</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.525174</v>
+        <v>0.527432</v>
       </c>
       <c r="C84" t="n">
-        <v>0.371193</v>
+        <v>0.372247</v>
       </c>
       <c r="D84" t="n">
-        <v>0.348931</v>
+        <v>0.338583</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.51537</v>
+        <v>0.517756</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3637</v>
+        <v>0.363095</v>
       </c>
       <c r="D85" t="n">
-        <v>0.341532</v>
+        <v>0.330822</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.505735</v>
+        <v>0.508122</v>
       </c>
       <c r="C86" t="n">
-        <v>0.354326</v>
+        <v>0.352669</v>
       </c>
       <c r="D86" t="n">
-        <v>0.33256</v>
+        <v>0.321854</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.496157</v>
+        <v>0.506024</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345326</v>
+        <v>0.344316</v>
       </c>
       <c r="D87" t="n">
-        <v>0.325146</v>
+        <v>0.313757</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.486908</v>
+        <v>0.495726</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337374</v>
+        <v>0.336965</v>
       </c>
       <c r="D88" t="n">
-        <v>0.318002</v>
+        <v>0.306969</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.477926</v>
+        <v>0.486231</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330706</v>
+        <v>0.32942</v>
       </c>
       <c r="D89" t="n">
-        <v>0.31142</v>
+        <v>0.300068</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.469129</v>
+        <v>0.476802</v>
       </c>
       <c r="C90" t="n">
-        <v>0.323829</v>
+        <v>0.322286</v>
       </c>
       <c r="D90" t="n">
-        <v>0.304978</v>
+        <v>0.294352</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461074</v>
+        <v>0.46829</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317199</v>
+        <v>0.316823</v>
       </c>
       <c r="D91" t="n">
-        <v>0.300144</v>
+        <v>0.289313</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.453588</v>
+        <v>0.46025</v>
       </c>
       <c r="C92" t="n">
-        <v>0.311593</v>
+        <v>0.310539</v>
       </c>
       <c r="D92" t="n">
-        <v>0.296366</v>
+        <v>0.285406</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.446892</v>
+        <v>0.453588</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308361</v>
+        <v>0.307646</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294423</v>
+        <v>0.284882</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.441201</v>
+        <v>0.448207</v>
       </c>
       <c r="C94" t="n">
-        <v>0.307029</v>
+        <v>0.30503</v>
       </c>
       <c r="D94" t="n">
-        <v>0.55926</v>
+        <v>0.5544829999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.570582</v>
+        <v>0.57966</v>
       </c>
       <c r="C95" t="n">
-        <v>0.524928</v>
+        <v>0.53326</v>
       </c>
       <c r="D95" t="n">
-        <v>0.548075</v>
+        <v>0.543396</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.567693</v>
+        <v>0.577534</v>
       </c>
       <c r="C96" t="n">
-        <v>0.517992</v>
+        <v>0.525753</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5314990000000001</v>
+        <v>0.527906</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.558393</v>
+        <v>0.567904</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5046119999999999</v>
+        <v>0.512926</v>
       </c>
       <c r="D97" t="n">
-        <v>0.516123</v>
+        <v>0.511949</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.549996</v>
+        <v>0.558357</v>
       </c>
       <c r="C98" t="n">
-        <v>0.490871</v>
+        <v>0.498378</v>
       </c>
       <c r="D98" t="n">
-        <v>0.501457</v>
+        <v>0.497155</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.540831</v>
+        <v>0.549288</v>
       </c>
       <c r="C99" t="n">
-        <v>0.479521</v>
+        <v>0.486425</v>
       </c>
       <c r="D99" t="n">
-        <v>0.48927</v>
+        <v>0.482778</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.534046</v>
+        <v>0.540891</v>
       </c>
       <c r="C100" t="n">
-        <v>0.468102</v>
+        <v>0.473214</v>
       </c>
       <c r="D100" t="n">
-        <v>0.475151</v>
+        <v>0.469353</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.526591</v>
+        <v>0.532854</v>
       </c>
       <c r="C101" t="n">
-        <v>0.45433</v>
+        <v>0.461386</v>
       </c>
       <c r="D101" t="n">
-        <v>0.463565</v>
+        <v>0.456662</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5208930000000001</v>
+        <v>0.525035</v>
       </c>
       <c r="C102" t="n">
-        <v>0.445271</v>
+        <v>0.450369</v>
       </c>
       <c r="D102" t="n">
-        <v>0.45186</v>
+        <v>0.443836</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5127080000000001</v>
+        <v>0.517999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.432752</v>
+        <v>0.440638</v>
       </c>
       <c r="D103" t="n">
-        <v>0.440516</v>
+        <v>0.432642</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.506223</v>
+        <v>0.511012</v>
       </c>
       <c r="C104" t="n">
-        <v>0.426112</v>
+        <v>0.430351</v>
       </c>
       <c r="D104" t="n">
-        <v>0.429442</v>
+        <v>0.422738</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.500412</v>
+        <v>0.504849</v>
       </c>
       <c r="C105" t="n">
-        <v>0.416972</v>
+        <v>0.421195</v>
       </c>
       <c r="D105" t="n">
-        <v>0.421118</v>
+        <v>0.414253</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.495462</v>
+        <v>0.499562</v>
       </c>
       <c r="C106" t="n">
-        <v>0.409488</v>
+        <v>0.413387</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41424</v>
+        <v>0.40578</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.49194</v>
+        <v>0.494636</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403107</v>
+        <v>0.406783</v>
       </c>
       <c r="D107" t="n">
-        <v>0.407996</v>
+        <v>0.400054</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.487806</v>
+        <v>0.491343</v>
       </c>
       <c r="C108" t="n">
-        <v>0.39924</v>
+        <v>0.402599</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606507</v>
+        <v>0.59824</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.48688</v>
+        <v>0.489423</v>
       </c>
       <c r="C109" t="n">
-        <v>0.397298</v>
+        <v>0.401043</v>
       </c>
       <c r="D109" t="n">
-        <v>0.595734</v>
+        <v>0.587224</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.681032</v>
+        <v>0.689292</v>
       </c>
       <c r="C110" t="n">
-        <v>0.61042</v>
+        <v>0.618086</v>
       </c>
       <c r="D110" t="n">
-        <v>0.581067</v>
+        <v>0.572468</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.671618</v>
+        <v>0.678401</v>
       </c>
       <c r="C111" t="n">
-        <v>0.597496</v>
+        <v>0.604999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.567599</v>
+        <v>0.558012</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.658475</v>
+        <v>0.667002</v>
       </c>
       <c r="C112" t="n">
-        <v>0.583688</v>
+        <v>0.590462</v>
       </c>
       <c r="D112" t="n">
-        <v>0.553133</v>
+        <v>0.543718</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.648348</v>
+        <v>0.655534</v>
       </c>
       <c r="C113" t="n">
-        <v>0.569704</v>
+        <v>0.576504</v>
       </c>
       <c r="D113" t="n">
-        <v>0.54089</v>
+        <v>0.530613</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.640343</v>
+        <v>0.645165</v>
       </c>
       <c r="C114" t="n">
-        <v>0.557803</v>
+        <v>0.5631969999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.527902</v>
+        <v>0.517713</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.630663</v>
+        <v>0.6351250000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.546698</v>
+        <v>0.5506799999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.516719</v>
+        <v>0.50563</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.621918</v>
+        <v>0.62568</v>
       </c>
       <c r="C116" t="n">
-        <v>0.534734</v>
+        <v>0.538685</v>
       </c>
       <c r="D116" t="n">
-        <v>0.505242</v>
+        <v>0.494252</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610457</v>
+        <v>0.616876</v>
       </c>
       <c r="C117" t="n">
-        <v>0.52404</v>
+        <v>0.527429</v>
       </c>
       <c r="D117" t="n">
-        <v>0.494843</v>
+        <v>0.483404</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.602175</v>
+        <v>0.608647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.513103</v>
+        <v>0.517346</v>
       </c>
       <c r="D118" t="n">
-        <v>0.484112</v>
+        <v>0.472463</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599121</v>
+        <v>0.601438</v>
       </c>
       <c r="C119" t="n">
-        <v>0.504984</v>
+        <v>0.507718</v>
       </c>
       <c r="D119" t="n">
-        <v>0.476316</v>
+        <v>0.463377</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.592657</v>
+        <v>0.594258</v>
       </c>
       <c r="C120" t="n">
-        <v>0.494224</v>
+        <v>0.498723</v>
       </c>
       <c r="D120" t="n">
-        <v>0.467342</v>
+        <v>0.455197</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.586747</v>
+        <v>0.587977</v>
       </c>
       <c r="C121" t="n">
-        <v>0.487924</v>
+        <v>0.490504</v>
       </c>
       <c r="D121" t="n">
-        <v>0.461762</v>
+        <v>0.448221</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.577528</v>
+        <v>0.582985</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481356</v>
+        <v>0.484441</v>
       </c>
       <c r="D122" t="n">
-        <v>0.457038</v>
+        <v>0.443874</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.574045</v>
+        <v>0.579859</v>
       </c>
       <c r="C123" t="n">
-        <v>0.47718</v>
+        <v>0.479725</v>
       </c>
       <c r="D123" t="n">
-        <v>0.657659</v>
+        <v>0.639891</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.76708</v>
+        <v>0.772513</v>
       </c>
       <c r="C124" t="n">
-        <v>0.691546</v>
+        <v>0.69853</v>
       </c>
       <c r="D124" t="n">
-        <v>0.64323</v>
+        <v>0.628035</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.758584</v>
+        <v>0.763439</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6791700000000001</v>
+        <v>0.686839</v>
       </c>
       <c r="D125" t="n">
-        <v>0.632506</v>
+        <v>0.616565</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.750598</v>
+        <v>0.754625</v>
       </c>
       <c r="C126" t="n">
-        <v>0.668374</v>
+        <v>0.674333</v>
       </c>
       <c r="D126" t="n">
-        <v>0.623502</v>
+        <v>0.60441</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740748</v>
+        <v>0.7460869999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.658009</v>
+        <v>0.661705</v>
       </c>
       <c r="D127" t="n">
-        <v>0.613804</v>
+        <v>0.595377</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732787</v>
+        <v>0.738688</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6448</v>
+        <v>0.650092</v>
       </c>
       <c r="D128" t="n">
-        <v>0.604057</v>
+        <v>0.585143</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7279640000000001</v>
+        <v>0.7310759999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.636221</v>
+        <v>0.639497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595245</v>
+        <v>0.576251</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.722366</v>
+        <v>0.724244</v>
       </c>
       <c r="C130" t="n">
-        <v>0.628922</v>
+        <v>0.630903</v>
       </c>
       <c r="D130" t="n">
-        <v>0.587761</v>
+        <v>0.56747</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.716384</v>
+        <v>0.717429</v>
       </c>
       <c r="C131" t="n">
-        <v>0.619764</v>
+        <v>0.621685</v>
       </c>
       <c r="D131" t="n">
-        <v>0.579704</v>
+        <v>0.55935</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.710044</v>
+        <v>0.7118910000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.609688</v>
+        <v>0.612633</v>
       </c>
       <c r="D132" t="n">
-        <v>0.569744</v>
+        <v>0.551908</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.704669</v>
+        <v>0.705962</v>
       </c>
       <c r="C133" t="n">
-        <v>0.603305</v>
+        <v>0.604932</v>
       </c>
       <c r="D133" t="n">
-        <v>0.566453</v>
+        <v>0.54383</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6968259999999999</v>
+        <v>0.700895</v>
       </c>
       <c r="C134" t="n">
-        <v>0.59649</v>
+        <v>0.597393</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5600850000000001</v>
+        <v>0.53901</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.695457</v>
+        <v>0.696426</v>
       </c>
       <c r="C135" t="n">
-        <v>0.592329</v>
+        <v>0.591823</v>
       </c>
       <c r="D135" t="n">
-        <v>0.554461</v>
+        <v>0.532689</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.691483</v>
+        <v>0.692483</v>
       </c>
       <c r="C136" t="n">
-        <v>0.585625</v>
+        <v>0.586443</v>
       </c>
       <c r="D136" t="n">
-        <v>0.549476</v>
+        <v>0.527704</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6892470000000001</v>
+        <v>0.6895520000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.583673</v>
+        <v>0.581779</v>
       </c>
       <c r="D137" t="n">
-        <v>0.751119</v>
+        <v>0.7234660000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.872754</v>
+        <v>0.875634</v>
       </c>
       <c r="C138" t="n">
-        <v>0.800365</v>
+        <v>0.801531</v>
       </c>
       <c r="D138" t="n">
-        <v>0.738635</v>
+        <v>0.710958</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866917</v>
+        <v>0.868513</v>
       </c>
       <c r="C139" t="n">
-        <v>0.78875</v>
+        <v>0.791164</v>
       </c>
       <c r="D139" t="n">
-        <v>0.730181</v>
+        <v>0.700528</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.862422</v>
+        <v>0.862017</v>
       </c>
       <c r="C140" t="n">
-        <v>0.776425</v>
+        <v>0.779176</v>
       </c>
       <c r="D140" t="n">
-        <v>0.719426</v>
+        <v>0.688755</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.855652</v>
+        <v>0.855596</v>
       </c>
       <c r="C141" t="n">
-        <v>0.766533</v>
+        <v>0.768386</v>
       </c>
       <c r="D141" t="n">
-        <v>0.711577</v>
+        <v>0.678704</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.849956</v>
+        <v>0.849567</v>
       </c>
       <c r="C142" t="n">
-        <v>0.756171</v>
+        <v>0.757811</v>
       </c>
       <c r="D142" t="n">
-        <v>0.703506</v>
+        <v>0.669502</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.84509</v>
+        <v>0.844409</v>
       </c>
       <c r="C143" t="n">
-        <v>0.74698</v>
+        <v>0.748335</v>
       </c>
       <c r="D143" t="n">
-        <v>0.696043</v>
+        <v>0.6617189999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250295</v>
+        <v>0.250644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204211</v>
+        <v>0.203168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.192724</v>
+        <v>0.211309</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245567</v>
+        <v>0.245198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197232</v>
+        <v>0.196489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.187056</v>
+        <v>0.205734</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240045</v>
+        <v>0.239916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192791</v>
+        <v>0.192213</v>
       </c>
       <c r="D4" t="n">
-        <v>0.182192</v>
+        <v>0.200812</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23525</v>
+        <v>0.235944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188066</v>
+        <v>0.188364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.178103</v>
+        <v>0.197125</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231896</v>
+        <v>0.231521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.184401</v>
+        <v>0.183763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.174369</v>
+        <v>0.193444</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229144</v>
+        <v>0.228578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182965</v>
+        <v>0.18152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.172815</v>
+        <v>0.192554</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22799</v>
+        <v>0.227657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181899</v>
+        <v>0.181329</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17415</v>
+        <v>0.193786</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228461</v>
+        <v>0.227983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.183582</v>
+        <v>0.183544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262706</v>
+        <v>0.199333</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.326179</v>
+        <v>0.315049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271037</v>
+        <v>0.270292</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252975</v>
+        <v>0.288531</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.316624</v>
+        <v>0.305356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261863</v>
+        <v>0.260927</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244819</v>
+        <v>0.279303</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.305455</v>
+        <v>0.296743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.253251</v>
+        <v>0.251972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236743</v>
+        <v>0.26939</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.296875</v>
+        <v>0.288964</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24505</v>
+        <v>0.243896</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229152</v>
+        <v>0.259325</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28791</v>
+        <v>0.28082</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237668</v>
+        <v>0.23611</v>
       </c>
       <c r="D14" t="n">
-        <v>0.221873</v>
+        <v>0.250706</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.281188</v>
+        <v>0.273351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230528</v>
+        <v>0.229145</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215073</v>
+        <v>0.242673</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.273935</v>
+        <v>0.266556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223715</v>
+        <v>0.22247</v>
       </c>
       <c r="D16" t="n">
-        <v>0.208619</v>
+        <v>0.234791</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.268259</v>
+        <v>0.260105</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217788</v>
+        <v>0.216662</v>
       </c>
       <c r="D17" t="n">
-        <v>0.203124</v>
+        <v>0.228109</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.261221</v>
+        <v>0.254148</v>
       </c>
       <c r="C18" t="n">
-        <v>0.212165</v>
+        <v>0.21118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198318</v>
+        <v>0.222261</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255222</v>
+        <v>0.249105</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207667</v>
+        <v>0.206111</v>
       </c>
       <c r="D19" t="n">
-        <v>0.194621</v>
+        <v>0.218222</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250924</v>
+        <v>0.245232</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203668</v>
+        <v>0.202292</v>
       </c>
       <c r="D20" t="n">
-        <v>0.191673</v>
+        <v>0.214187</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.247291</v>
+        <v>0.241549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201064</v>
+        <v>0.199804</v>
       </c>
       <c r="D21" t="n">
-        <v>0.190524</v>
+        <v>0.210985</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244087</v>
+        <v>0.238385</v>
       </c>
       <c r="C22" t="n">
-        <v>0.199583</v>
+        <v>0.198535</v>
       </c>
       <c r="D22" t="n">
-        <v>0.19177</v>
+        <v>0.211041</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.244328</v>
+        <v>0.238065</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200503</v>
+        <v>0.199484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.27867</v>
+        <v>0.214603</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.330039</v>
+        <v>0.324914</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285912</v>
+        <v>0.28555</v>
       </c>
       <c r="D24" t="n">
-        <v>0.269264</v>
+        <v>0.304178</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.320825</v>
+        <v>0.315752</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276074</v>
+        <v>0.275764</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260349</v>
+        <v>0.293591</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.311234</v>
+        <v>0.306286</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266985</v>
+        <v>0.267186</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251805</v>
+        <v>0.283498</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.302568</v>
+        <v>0.29825</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258397</v>
+        <v>0.258795</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24369</v>
+        <v>0.274007</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.294716</v>
+        <v>0.289746</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250394</v>
+        <v>0.250362</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236246</v>
+        <v>0.265192</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.286688</v>
+        <v>0.282048</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243397</v>
+        <v>0.243365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228969</v>
+        <v>0.256699</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.278951</v>
+        <v>0.275262</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235978</v>
+        <v>0.235717</v>
       </c>
       <c r="D30" t="n">
-        <v>0.222475</v>
+        <v>0.248843</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.272555</v>
+        <v>0.268285</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229302</v>
+        <v>0.229355</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216588</v>
+        <v>0.241126</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.266036</v>
+        <v>0.262114</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22334</v>
+        <v>0.223836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.211022</v>
+        <v>0.234589</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.259836</v>
+        <v>0.256634</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21796</v>
+        <v>0.21738</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206117</v>
+        <v>0.228215</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25507</v>
+        <v>0.251772</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213292</v>
+        <v>0.213179</v>
       </c>
       <c r="D34" t="n">
-        <v>0.202297</v>
+        <v>0.223017</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.249043</v>
+        <v>0.247458</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209367</v>
+        <v>0.208834</v>
       </c>
       <c r="D35" t="n">
-        <v>0.199641</v>
+        <v>0.218968</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.247496</v>
+        <v>0.244574</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20656</v>
+        <v>0.206663</v>
       </c>
       <c r="D36" t="n">
-        <v>0.199185</v>
+        <v>0.218417</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.246043</v>
+        <v>0.243526</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206263</v>
+        <v>0.205908</v>
       </c>
       <c r="D37" t="n">
-        <v>0.288587</v>
+        <v>0.218629</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.332744</v>
+        <v>0.327993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.29495</v>
+        <v>0.294759</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279175</v>
+        <v>0.312529</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.322994</v>
+        <v>0.318309</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285517</v>
+        <v>0.286069</v>
       </c>
       <c r="D39" t="n">
-        <v>0.270229</v>
+        <v>0.302104</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.314171</v>
+        <v>0.309998</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277017</v>
+        <v>0.276861</v>
       </c>
       <c r="D40" t="n">
-        <v>0.261793</v>
+        <v>0.292128</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305952</v>
+        <v>0.301694</v>
       </c>
       <c r="C41" t="n">
-        <v>0.268511</v>
+        <v>0.26839</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25335</v>
+        <v>0.282478</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.299633</v>
+        <v>0.294431</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260376</v>
+        <v>0.260276</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246031</v>
+        <v>0.273536</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.291027</v>
+        <v>0.286867</v>
       </c>
       <c r="C43" t="n">
-        <v>0.25291</v>
+        <v>0.252162</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238735</v>
+        <v>0.264936</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.283645</v>
+        <v>0.280151</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24557</v>
+        <v>0.245525</v>
       </c>
       <c r="D44" t="n">
-        <v>0.232032</v>
+        <v>0.256887</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.277686</v>
+        <v>0.273454</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238666</v>
+        <v>0.238973</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225887</v>
+        <v>0.249541</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.270675</v>
+        <v>0.268202</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232294</v>
+        <v>0.232619</v>
       </c>
       <c r="D46" t="n">
-        <v>0.220272</v>
+        <v>0.242677</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.265167</v>
+        <v>0.26272</v>
       </c>
       <c r="C47" t="n">
-        <v>0.226942</v>
+        <v>0.227244</v>
       </c>
       <c r="D47" t="n">
-        <v>0.215443</v>
+        <v>0.236811</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.26035</v>
+        <v>0.257288</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222355</v>
+        <v>0.222468</v>
       </c>
       <c r="D48" t="n">
-        <v>0.211325</v>
+        <v>0.231551</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.256015</v>
+        <v>0.254326</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218154</v>
+        <v>0.21813</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208449</v>
+        <v>0.227679</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.253883</v>
+        <v>0.250931</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215482</v>
+        <v>0.214187</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206983</v>
+        <v>0.225412</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.251359</v>
+        <v>0.248316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213919</v>
+        <v>0.214128</v>
       </c>
       <c r="D51" t="n">
-        <v>0.299941</v>
+        <v>0.225739</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.252861</v>
+        <v>0.249235</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21529</v>
+        <v>0.21426</v>
       </c>
       <c r="D52" t="n">
-        <v>0.290584</v>
+        <v>0.229535</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.333757</v>
+        <v>0.33077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.297075</v>
+        <v>0.297148</v>
       </c>
       <c r="D53" t="n">
-        <v>0.281494</v>
+        <v>0.314811</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.325385</v>
+        <v>0.32255</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288224</v>
+        <v>0.287982</v>
       </c>
       <c r="D54" t="n">
-        <v>0.273089</v>
+        <v>0.304536</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.317436</v>
+        <v>0.314666</v>
       </c>
       <c r="C55" t="n">
-        <v>0.279897</v>
+        <v>0.279719</v>
       </c>
       <c r="D55" t="n">
-        <v>0.265012</v>
+        <v>0.294883</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.309798</v>
+        <v>0.307167</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271825</v>
+        <v>0.271589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.257308</v>
+        <v>0.285797</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.303063</v>
+        <v>0.300044</v>
       </c>
       <c r="C57" t="n">
-        <v>0.264453</v>
+        <v>0.264618</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250118</v>
+        <v>0.277775</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.296128</v>
+        <v>0.293272</v>
       </c>
       <c r="C58" t="n">
-        <v>0.257289</v>
+        <v>0.257396</v>
       </c>
       <c r="D58" t="n">
-        <v>0.243359</v>
+        <v>0.269363</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.289791</v>
+        <v>0.287162</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250705</v>
+        <v>0.251181</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237097</v>
+        <v>0.262294</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.284041</v>
+        <v>0.281375</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244596</v>
+        <v>0.24514</v>
       </c>
       <c r="D60" t="n">
-        <v>0.231338</v>
+        <v>0.255233</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.278778</v>
+        <v>0.27619</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239091</v>
+        <v>0.239495</v>
       </c>
       <c r="D61" t="n">
-        <v>0.226599</v>
+        <v>0.249123</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274255</v>
+        <v>0.271571</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234232</v>
+        <v>0.234569</v>
       </c>
       <c r="D62" t="n">
-        <v>0.222246</v>
+        <v>0.243747</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.270151</v>
+        <v>0.267783</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23003</v>
+        <v>0.230408</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218945</v>
+        <v>0.239664</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.267222</v>
+        <v>0.264643</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226762</v>
+        <v>0.226915</v>
       </c>
       <c r="D64" t="n">
-        <v>0.217448</v>
+        <v>0.236827</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.265324</v>
+        <v>0.262947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224785</v>
+        <v>0.224907</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218158</v>
+        <v>0.236389</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.265814</v>
+        <v>0.263461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225666</v>
+        <v>0.225984</v>
       </c>
       <c r="D66" t="n">
-        <v>0.323703</v>
+        <v>0.239463</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.388557</v>
+        <v>0.387581</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332291</v>
+        <v>0.334613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.313193</v>
+        <v>0.350666</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.380455</v>
+        <v>0.379521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.323202</v>
+        <v>0.325143</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30432</v>
+        <v>0.340041</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.373162</v>
+        <v>0.372502</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314574</v>
+        <v>0.316074</v>
       </c>
       <c r="D69" t="n">
-        <v>0.29576</v>
+        <v>0.329522</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366312</v>
+        <v>0.365811</v>
       </c>
       <c r="C70" t="n">
-        <v>0.305695</v>
+        <v>0.307153</v>
       </c>
       <c r="D70" t="n">
-        <v>0.287671</v>
+        <v>0.319913</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359488</v>
+        <v>0.359132</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297734</v>
+        <v>0.29876</v>
       </c>
       <c r="D71" t="n">
-        <v>0.279645</v>
+        <v>0.310537</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.353214</v>
+        <v>0.352759</v>
       </c>
       <c r="C72" t="n">
-        <v>0.289927</v>
+        <v>0.291139</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272303</v>
+        <v>0.301546</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347221</v>
+        <v>0.346546</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282893</v>
+        <v>0.283552</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26548</v>
+        <v>0.293363</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341435</v>
+        <v>0.340631</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275938</v>
+        <v>0.276792</v>
       </c>
       <c r="D74" t="n">
-        <v>0.259237</v>
+        <v>0.285637</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.335748</v>
+        <v>0.334772</v>
       </c>
       <c r="C75" t="n">
-        <v>0.26967</v>
+        <v>0.270518</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253357</v>
+        <v>0.278698</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.330303</v>
+        <v>0.329334</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2641</v>
+        <v>0.264832</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248606</v>
+        <v>0.272487</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.325318</v>
+        <v>0.324143</v>
       </c>
       <c r="C77" t="n">
-        <v>0.258936</v>
+        <v>0.259643</v>
       </c>
       <c r="D77" t="n">
-        <v>0.244607</v>
+        <v>0.267421</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320935</v>
+        <v>0.31972</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254824</v>
+        <v>0.255816</v>
       </c>
       <c r="D78" t="n">
-        <v>0.24211</v>
+        <v>0.263748</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.317609</v>
+        <v>0.316537</v>
       </c>
       <c r="C79" t="n">
-        <v>0.252539</v>
+        <v>0.253086</v>
       </c>
       <c r="D79" t="n">
-        <v>0.241679</v>
+        <v>0.26232</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315889</v>
+        <v>0.314906</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252053</v>
+        <v>0.252652</v>
       </c>
       <c r="D80" t="n">
-        <v>0.372312</v>
+        <v>0.264186</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.55321</v>
+        <v>0.553697</v>
       </c>
       <c r="C81" t="n">
-        <v>0.397221</v>
+        <v>0.396018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.365949</v>
+        <v>0.408925</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5466760000000001</v>
+        <v>0.54612</v>
       </c>
       <c r="C82" t="n">
-        <v>0.391248</v>
+        <v>0.390605</v>
       </c>
       <c r="D82" t="n">
-        <v>0.357454</v>
+        <v>0.403139</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.53729</v>
+        <v>0.536455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.381245</v>
+        <v>0.381617</v>
       </c>
       <c r="D83" t="n">
-        <v>0.347813</v>
+        <v>0.39235</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.527432</v>
+        <v>0.5249819999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372247</v>
+        <v>0.372756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.338583</v>
+        <v>0.382979</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.517756</v>
+        <v>0.516578</v>
       </c>
       <c r="C85" t="n">
-        <v>0.363095</v>
+        <v>0.362522</v>
       </c>
       <c r="D85" t="n">
-        <v>0.330822</v>
+        <v>0.372219</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.508122</v>
+        <v>0.506494</v>
       </c>
       <c r="C86" t="n">
-        <v>0.352669</v>
+        <v>0.353814</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321854</v>
+        <v>0.363428</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.506024</v>
+        <v>0.497134</v>
       </c>
       <c r="C87" t="n">
-        <v>0.344316</v>
+        <v>0.345336</v>
       </c>
       <c r="D87" t="n">
-        <v>0.313757</v>
+        <v>0.352799</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.495726</v>
+        <v>0.487767</v>
       </c>
       <c r="C88" t="n">
-        <v>0.336965</v>
+        <v>0.337655</v>
       </c>
       <c r="D88" t="n">
-        <v>0.306969</v>
+        <v>0.344826</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.486231</v>
+        <v>0.478995</v>
       </c>
       <c r="C89" t="n">
-        <v>0.32942</v>
+        <v>0.330353</v>
       </c>
       <c r="D89" t="n">
-        <v>0.300068</v>
+        <v>0.337276</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.476802</v>
+        <v>0.470083</v>
       </c>
       <c r="C90" t="n">
-        <v>0.322286</v>
+        <v>0.323256</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294352</v>
+        <v>0.329132</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.46829</v>
+        <v>0.461496</v>
       </c>
       <c r="C91" t="n">
-        <v>0.316823</v>
+        <v>0.317327</v>
       </c>
       <c r="D91" t="n">
-        <v>0.289313</v>
+        <v>0.323037</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.46025</v>
+        <v>0.454113</v>
       </c>
       <c r="C92" t="n">
-        <v>0.310539</v>
+        <v>0.312061</v>
       </c>
       <c r="D92" t="n">
-        <v>0.285406</v>
+        <v>0.317644</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.453588</v>
+        <v>0.447677</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307646</v>
+        <v>0.308117</v>
       </c>
       <c r="D93" t="n">
-        <v>0.284882</v>
+        <v>0.314911</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.448207</v>
+        <v>0.44282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.30503</v>
+        <v>0.306417</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5544829999999999</v>
+        <v>0.314768</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57966</v>
+        <v>0.646239</v>
       </c>
       <c r="C95" t="n">
-        <v>0.53326</v>
+        <v>0.527212</v>
       </c>
       <c r="D95" t="n">
-        <v>0.543396</v>
+        <v>0.532563</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.577534</v>
+        <v>0.641324</v>
       </c>
       <c r="C96" t="n">
-        <v>0.525753</v>
+        <v>0.52015</v>
       </c>
       <c r="D96" t="n">
-        <v>0.527906</v>
+        <v>0.524894</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.567904</v>
+        <v>0.63053</v>
       </c>
       <c r="C97" t="n">
-        <v>0.512926</v>
+        <v>0.508396</v>
       </c>
       <c r="D97" t="n">
-        <v>0.511949</v>
+        <v>0.511024</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.558357</v>
+        <v>0.618998</v>
       </c>
       <c r="C98" t="n">
-        <v>0.498378</v>
+        <v>0.495036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.497155</v>
+        <v>0.497316</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.549288</v>
+        <v>0.6072340000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.486425</v>
+        <v>0.481471</v>
       </c>
       <c r="D99" t="n">
-        <v>0.482778</v>
+        <v>0.482488</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.540891</v>
+        <v>0.595772</v>
       </c>
       <c r="C100" t="n">
-        <v>0.473214</v>
+        <v>0.469037</v>
       </c>
       <c r="D100" t="n">
-        <v>0.469353</v>
+        <v>0.4691</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.532854</v>
+        <v>0.584771</v>
       </c>
       <c r="C101" t="n">
-        <v>0.461386</v>
+        <v>0.457856</v>
       </c>
       <c r="D101" t="n">
-        <v>0.456662</v>
+        <v>0.457436</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.525035</v>
+        <v>0.575043</v>
       </c>
       <c r="C102" t="n">
-        <v>0.450369</v>
+        <v>0.446985</v>
       </c>
       <c r="D102" t="n">
-        <v>0.443836</v>
+        <v>0.445776</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.517999</v>
+        <v>0.565598</v>
       </c>
       <c r="C103" t="n">
-        <v>0.440638</v>
+        <v>0.436387</v>
       </c>
       <c r="D103" t="n">
-        <v>0.432642</v>
+        <v>0.435162</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.511012</v>
+        <v>0.556852</v>
       </c>
       <c r="C104" t="n">
-        <v>0.430351</v>
+        <v>0.427362</v>
       </c>
       <c r="D104" t="n">
-        <v>0.422738</v>
+        <v>0.424948</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.504849</v>
+        <v>0.548785</v>
       </c>
       <c r="C105" t="n">
-        <v>0.421195</v>
+        <v>0.418371</v>
       </c>
       <c r="D105" t="n">
-        <v>0.414253</v>
+        <v>0.415177</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.499562</v>
+        <v>0.5413520000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.413387</v>
+        <v>0.411374</v>
       </c>
       <c r="D106" t="n">
-        <v>0.40578</v>
+        <v>0.409098</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494636</v>
+        <v>0.534577</v>
       </c>
       <c r="C107" t="n">
-        <v>0.406783</v>
+        <v>0.403859</v>
       </c>
       <c r="D107" t="n">
-        <v>0.400054</v>
+        <v>0.402215</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.491343</v>
+        <v>0.528879</v>
       </c>
       <c r="C108" t="n">
-        <v>0.402599</v>
+        <v>0.399787</v>
       </c>
       <c r="D108" t="n">
-        <v>0.59824</v>
+        <v>0.398829</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489423</v>
+        <v>0.5256150000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.401043</v>
+        <v>0.398493</v>
       </c>
       <c r="D109" t="n">
-        <v>0.587224</v>
+        <v>0.399937</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.689292</v>
+        <v>0.721545</v>
       </c>
       <c r="C110" t="n">
-        <v>0.618086</v>
+        <v>0.613356</v>
       </c>
       <c r="D110" t="n">
-        <v>0.572468</v>
+        <v>0.613976</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.678401</v>
+        <v>0.709645</v>
       </c>
       <c r="C111" t="n">
-        <v>0.604999</v>
+        <v>0.59985</v>
       </c>
       <c r="D111" t="n">
-        <v>0.558012</v>
+        <v>0.599045</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.667002</v>
+        <v>0.69655</v>
       </c>
       <c r="C112" t="n">
-        <v>0.590462</v>
+        <v>0.585494</v>
       </c>
       <c r="D112" t="n">
-        <v>0.543718</v>
+        <v>0.5845089999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.655534</v>
+        <v>0.683766</v>
       </c>
       <c r="C113" t="n">
-        <v>0.576504</v>
+        <v>0.572055</v>
       </c>
       <c r="D113" t="n">
-        <v>0.530613</v>
+        <v>0.5696329999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.645165</v>
+        <v>0.672193</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5631969999999999</v>
+        <v>0.558804</v>
       </c>
       <c r="D114" t="n">
-        <v>0.517713</v>
+        <v>0.555744</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6351250000000001</v>
+        <v>0.661382</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5506799999999999</v>
+        <v>0.546362</v>
       </c>
       <c r="D115" t="n">
-        <v>0.50563</v>
+        <v>0.5417650000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.62568</v>
+        <v>0.650687</v>
       </c>
       <c r="C116" t="n">
-        <v>0.538685</v>
+        <v>0.53432</v>
       </c>
       <c r="D116" t="n">
-        <v>0.494252</v>
+        <v>0.529878</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.616876</v>
+        <v>0.640738</v>
       </c>
       <c r="C117" t="n">
-        <v>0.527429</v>
+        <v>0.523526</v>
       </c>
       <c r="D117" t="n">
-        <v>0.483404</v>
+        <v>0.517773</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.608647</v>
+        <v>0.631344</v>
       </c>
       <c r="C118" t="n">
-        <v>0.517346</v>
+        <v>0.513121</v>
       </c>
       <c r="D118" t="n">
-        <v>0.472463</v>
+        <v>0.506113</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.601438</v>
+        <v>0.622572</v>
       </c>
       <c r="C119" t="n">
-        <v>0.507718</v>
+        <v>0.503883</v>
       </c>
       <c r="D119" t="n">
-        <v>0.463377</v>
+        <v>0.496113</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.594258</v>
+        <v>0.614814</v>
       </c>
       <c r="C120" t="n">
-        <v>0.498723</v>
+        <v>0.495767</v>
       </c>
       <c r="D120" t="n">
-        <v>0.455197</v>
+        <v>0.487552</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.587977</v>
+        <v>0.6077939999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.490504</v>
+        <v>0.488249</v>
       </c>
       <c r="D121" t="n">
-        <v>0.448221</v>
+        <v>0.479898</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.582985</v>
+        <v>0.601799</v>
       </c>
       <c r="C122" t="n">
-        <v>0.484441</v>
+        <v>0.481356</v>
       </c>
       <c r="D122" t="n">
-        <v>0.443874</v>
+        <v>0.473303</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.579859</v>
+        <v>0.597642</v>
       </c>
       <c r="C123" t="n">
-        <v>0.479725</v>
+        <v>0.477067</v>
       </c>
       <c r="D123" t="n">
-        <v>0.639891</v>
+        <v>0.47043</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.772513</v>
+        <v>0.788245</v>
       </c>
       <c r="C124" t="n">
-        <v>0.69853</v>
+        <v>0.694645</v>
       </c>
       <c r="D124" t="n">
-        <v>0.628035</v>
+        <v>0.68796</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.763439</v>
+        <v>0.778294</v>
       </c>
       <c r="C125" t="n">
-        <v>0.686839</v>
+        <v>0.681469</v>
       </c>
       <c r="D125" t="n">
-        <v>0.616565</v>
+        <v>0.674283</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.754625</v>
+        <v>0.768922</v>
       </c>
       <c r="C126" t="n">
-        <v>0.674333</v>
+        <v>0.669557</v>
       </c>
       <c r="D126" t="n">
-        <v>0.60441</v>
+        <v>0.65978</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7460869999999999</v>
+        <v>0.760008</v>
       </c>
       <c r="C127" t="n">
-        <v>0.661705</v>
+        <v>0.657863</v>
       </c>
       <c r="D127" t="n">
-        <v>0.595377</v>
+        <v>0.648597</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.738688</v>
+        <v>0.751553</v>
       </c>
       <c r="C128" t="n">
-        <v>0.650092</v>
+        <v>0.646953</v>
       </c>
       <c r="D128" t="n">
-        <v>0.585143</v>
+        <v>0.634297</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7310759999999999</v>
+        <v>0.743753</v>
       </c>
       <c r="C129" t="n">
-        <v>0.639497</v>
+        <v>0.637128</v>
       </c>
       <c r="D129" t="n">
-        <v>0.576251</v>
+        <v>0.622435</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.724244</v>
+        <v>0.736483</v>
       </c>
       <c r="C130" t="n">
-        <v>0.630903</v>
+        <v>0.62865</v>
       </c>
       <c r="D130" t="n">
-        <v>0.56747</v>
+        <v>0.612087</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.717429</v>
+        <v>0.729035</v>
       </c>
       <c r="C131" t="n">
-        <v>0.621685</v>
+        <v>0.619678</v>
       </c>
       <c r="D131" t="n">
-        <v>0.55935</v>
+        <v>0.602328</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7118910000000001</v>
+        <v>0.723395</v>
       </c>
       <c r="C132" t="n">
-        <v>0.612633</v>
+        <v>0.611559</v>
       </c>
       <c r="D132" t="n">
-        <v>0.551908</v>
+        <v>0.593095</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.705962</v>
+        <v>0.717016</v>
       </c>
       <c r="C133" t="n">
-        <v>0.604932</v>
+        <v>0.603591</v>
       </c>
       <c r="D133" t="n">
-        <v>0.54383</v>
+        <v>0.58453</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.700895</v>
+        <v>0.711833</v>
       </c>
       <c r="C134" t="n">
-        <v>0.597393</v>
+        <v>0.597031</v>
       </c>
       <c r="D134" t="n">
-        <v>0.53901</v>
+        <v>0.575642</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.696426</v>
+        <v>0.70681</v>
       </c>
       <c r="C135" t="n">
-        <v>0.591823</v>
+        <v>0.591264</v>
       </c>
       <c r="D135" t="n">
-        <v>0.532689</v>
+        <v>0.568253</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.692483</v>
+        <v>0.702852</v>
       </c>
       <c r="C136" t="n">
-        <v>0.586443</v>
+        <v>0.586251</v>
       </c>
       <c r="D136" t="n">
-        <v>0.527704</v>
+        <v>0.562681</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6895520000000001</v>
+        <v>0.699386</v>
       </c>
       <c r="C137" t="n">
-        <v>0.581779</v>
+        <v>0.581535</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7234660000000001</v>
+        <v>0.557071</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.875634</v>
+        <v>0.885908</v>
       </c>
       <c r="C138" t="n">
-        <v>0.801531</v>
+        <v>0.8021160000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.710958</v>
+        <v>0.777537</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.868513</v>
+        <v>0.877904</v>
       </c>
       <c r="C139" t="n">
-        <v>0.791164</v>
+        <v>0.789478</v>
       </c>
       <c r="D139" t="n">
-        <v>0.700528</v>
+        <v>0.763172</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.862017</v>
+        <v>0.870774</v>
       </c>
       <c r="C140" t="n">
-        <v>0.779176</v>
+        <v>0.778083</v>
       </c>
       <c r="D140" t="n">
-        <v>0.688755</v>
+        <v>0.750378</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.855596</v>
+        <v>0.864502</v>
       </c>
       <c r="C141" t="n">
-        <v>0.768386</v>
+        <v>0.769243</v>
       </c>
       <c r="D141" t="n">
-        <v>0.678704</v>
+        <v>0.738408</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.849567</v>
+        <v>0.858456</v>
       </c>
       <c r="C142" t="n">
-        <v>0.757811</v>
+        <v>0.758842</v>
       </c>
       <c r="D142" t="n">
-        <v>0.669502</v>
+        <v>0.726759</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.844409</v>
+        <v>0.852474</v>
       </c>
       <c r="C143" t="n">
-        <v>0.748335</v>
+        <v>0.748618</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6617189999999999</v>
+        <v>0.715789</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250644</v>
+        <v>0.259894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203168</v>
+        <v>0.203011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211309</v>
+        <v>0.217546</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245198</v>
+        <v>0.253345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196489</v>
+        <v>0.197066</v>
       </c>
       <c r="D3" t="n">
-        <v>0.205734</v>
+        <v>0.211313</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239916</v>
+        <v>0.247197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192213</v>
+        <v>0.191801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200812</v>
+        <v>0.206104</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235944</v>
+        <v>0.242186</v>
       </c>
       <c r="C5" t="n">
-        <v>0.188364</v>
+        <v>0.1876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197125</v>
+        <v>0.201591</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231521</v>
+        <v>0.237523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183763</v>
+        <v>0.183818</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193444</v>
+        <v>0.198924</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228578</v>
+        <v>0.234385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18152</v>
+        <v>0.181736</v>
       </c>
       <c r="D7" t="n">
-        <v>0.192554</v>
+        <v>0.198033</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227657</v>
+        <v>0.23224</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181329</v>
+        <v>0.181476</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193786</v>
+        <v>0.199912</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227983</v>
+        <v>0.233528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.183544</v>
+        <v>0.182826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.199333</v>
+        <v>0.205365</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315049</v>
+        <v>0.319045</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270292</v>
+        <v>0.270792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.288531</v>
+        <v>0.295692</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305356</v>
+        <v>0.309791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260927</v>
+        <v>0.260762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.279303</v>
+        <v>0.284424</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296743</v>
+        <v>0.300606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.251972</v>
+        <v>0.252552</v>
       </c>
       <c r="D12" t="n">
-        <v>0.26939</v>
+        <v>0.275049</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288964</v>
+        <v>0.292207</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243896</v>
+        <v>0.24436</v>
       </c>
       <c r="D13" t="n">
-        <v>0.259325</v>
+        <v>0.266014</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28082</v>
+        <v>0.284285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23611</v>
+        <v>0.236595</v>
       </c>
       <c r="D14" t="n">
-        <v>0.250706</v>
+        <v>0.257307</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273351</v>
+        <v>0.277166</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229145</v>
+        <v>0.22933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242673</v>
+        <v>0.24917</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266556</v>
+        <v>0.269952</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22247</v>
+        <v>0.222712</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234791</v>
+        <v>0.24141</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260105</v>
+        <v>0.262625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216662</v>
+        <v>0.216331</v>
       </c>
       <c r="D17" t="n">
-        <v>0.228109</v>
+        <v>0.234811</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254148</v>
+        <v>0.256632</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21118</v>
+        <v>0.211078</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222261</v>
+        <v>0.228548</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249105</v>
+        <v>0.251762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206111</v>
+        <v>0.206034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218222</v>
+        <v>0.22357</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245232</v>
+        <v>0.247254</v>
       </c>
       <c r="C20" t="n">
-        <v>0.202292</v>
+        <v>0.202286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.214187</v>
+        <v>0.219028</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.241549</v>
+        <v>0.242393</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199804</v>
+        <v>0.199692</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210985</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238385</v>
+        <v>0.239969</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198535</v>
+        <v>0.198423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.211041</v>
+        <v>0.217007</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238065</v>
+        <v>0.239397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199484</v>
+        <v>0.199527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.214603</v>
+        <v>0.219789</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324914</v>
+        <v>0.3254</v>
       </c>
       <c r="C24" t="n">
-        <v>0.28555</v>
+        <v>0.285792</v>
       </c>
       <c r="D24" t="n">
-        <v>0.304178</v>
+        <v>0.30946</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315752</v>
+        <v>0.316579</v>
       </c>
       <c r="C25" t="n">
-        <v>0.275764</v>
+        <v>0.278758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.293591</v>
+        <v>0.300749</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306286</v>
+        <v>0.306896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267186</v>
+        <v>0.269065</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283498</v>
+        <v>0.290267</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29825</v>
+        <v>0.298375</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258795</v>
+        <v>0.261231</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274007</v>
+        <v>0.280715</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289746</v>
+        <v>0.290446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250362</v>
+        <v>0.252365</v>
       </c>
       <c r="D28" t="n">
-        <v>0.265192</v>
+        <v>0.271552</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282048</v>
+        <v>0.283165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243365</v>
+        <v>0.244982</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256699</v>
+        <v>0.262758</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275262</v>
+        <v>0.275988</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235717</v>
+        <v>0.238073</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248843</v>
+        <v>0.254845</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268285</v>
+        <v>0.268793</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229355</v>
+        <v>0.231118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241126</v>
+        <v>0.247273</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262114</v>
+        <v>0.26326</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223836</v>
+        <v>0.22462</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234589</v>
+        <v>0.240014</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256634</v>
+        <v>0.258171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21738</v>
+        <v>0.219448</v>
       </c>
       <c r="D33" t="n">
-        <v>0.228215</v>
+        <v>0.234408</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251772</v>
+        <v>0.252998</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213179</v>
+        <v>0.214794</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223017</v>
+        <v>0.22932</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247458</v>
+        <v>0.248284</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208834</v>
+        <v>0.209865</v>
       </c>
       <c r="D35" t="n">
-        <v>0.218968</v>
+        <v>0.225782</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244574</v>
+        <v>0.245453</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206663</v>
+        <v>0.207128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218417</v>
+        <v>0.224108</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243526</v>
+        <v>0.243994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205908</v>
+        <v>0.206319</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218629</v>
+        <v>0.225279</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327993</v>
+        <v>0.327145</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294759</v>
+        <v>0.294446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.312529</v>
+        <v>0.318095</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318309</v>
+        <v>0.318451</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286069</v>
+        <v>0.284958</v>
       </c>
       <c r="D39" t="n">
-        <v>0.302104</v>
+        <v>0.307212</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309998</v>
+        <v>0.310248</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276861</v>
+        <v>0.276543</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292128</v>
+        <v>0.297073</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301694</v>
+        <v>0.301511</v>
       </c>
       <c r="C41" t="n">
-        <v>0.26839</v>
+        <v>0.2672</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282478</v>
+        <v>0.287335</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294431</v>
+        <v>0.29393</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260276</v>
+        <v>0.259968</v>
       </c>
       <c r="D42" t="n">
-        <v>0.273536</v>
+        <v>0.278107</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286867</v>
+        <v>0.287254</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252162</v>
+        <v>0.251939</v>
       </c>
       <c r="D43" t="n">
-        <v>0.264936</v>
+        <v>0.26949</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280151</v>
+        <v>0.280012</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245525</v>
+        <v>0.245208</v>
       </c>
       <c r="D44" t="n">
-        <v>0.256887</v>
+        <v>0.26126</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.273454</v>
+        <v>0.274158</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238973</v>
+        <v>0.238013</v>
       </c>
       <c r="D45" t="n">
-        <v>0.249541</v>
+        <v>0.253802</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268202</v>
+        <v>0.267694</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232619</v>
+        <v>0.232275</v>
       </c>
       <c r="D46" t="n">
-        <v>0.242677</v>
+        <v>0.247096</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.26272</v>
+        <v>0.262503</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227244</v>
+        <v>0.226219</v>
       </c>
       <c r="D47" t="n">
-        <v>0.236811</v>
+        <v>0.241117</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257288</v>
+        <v>0.257702</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222468</v>
+        <v>0.222008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231551</v>
+        <v>0.235875</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254326</v>
+        <v>0.253611</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21813</v>
+        <v>0.217428</v>
       </c>
       <c r="D49" t="n">
-        <v>0.227679</v>
+        <v>0.232083</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250931</v>
+        <v>0.250344</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214187</v>
+        <v>0.214578</v>
       </c>
       <c r="D50" t="n">
-        <v>0.225412</v>
+        <v>0.229789</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248316</v>
+        <v>0.248733</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214128</v>
+        <v>0.213213</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225739</v>
+        <v>0.23034</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249235</v>
+        <v>0.249779</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21426</v>
+        <v>0.21435</v>
       </c>
       <c r="D52" t="n">
-        <v>0.229535</v>
+        <v>0.234444</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33077</v>
+        <v>0.330103</v>
       </c>
       <c r="C53" t="n">
-        <v>0.297148</v>
+        <v>0.295458</v>
       </c>
       <c r="D53" t="n">
-        <v>0.314811</v>
+        <v>0.317226</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.32255</v>
+        <v>0.321622</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287982</v>
+        <v>0.286686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.304536</v>
+        <v>0.306855</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.314666</v>
+        <v>0.313521</v>
       </c>
       <c r="C55" t="n">
-        <v>0.279719</v>
+        <v>0.27906</v>
       </c>
       <c r="D55" t="n">
-        <v>0.294883</v>
+        <v>0.297002</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307167</v>
+        <v>0.306266</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271589</v>
+        <v>0.271062</v>
       </c>
       <c r="D56" t="n">
-        <v>0.285797</v>
+        <v>0.288243</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.300044</v>
+        <v>0.299265</v>
       </c>
       <c r="C57" t="n">
-        <v>0.264618</v>
+        <v>0.263066</v>
       </c>
       <c r="D57" t="n">
-        <v>0.277775</v>
+        <v>0.279171</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293272</v>
+        <v>0.292761</v>
       </c>
       <c r="C58" t="n">
-        <v>0.257396</v>
+        <v>0.255795</v>
       </c>
       <c r="D58" t="n">
-        <v>0.269363</v>
+        <v>0.271403</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.287162</v>
+        <v>0.286695</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251181</v>
+        <v>0.249799</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262294</v>
+        <v>0.263496</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281375</v>
+        <v>0.280868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24514</v>
+        <v>0.24357</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255233</v>
+        <v>0.256312</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27619</v>
+        <v>0.27574</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239495</v>
+        <v>0.238053</v>
       </c>
       <c r="D61" t="n">
-        <v>0.249123</v>
+        <v>0.250759</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271571</v>
+        <v>0.271174</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234569</v>
+        <v>0.23271</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243747</v>
+        <v>0.245331</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267783</v>
+        <v>0.26715</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230408</v>
+        <v>0.228969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.239664</v>
+        <v>0.241034</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264643</v>
+        <v>0.264535</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226915</v>
+        <v>0.225253</v>
       </c>
       <c r="D64" t="n">
-        <v>0.236827</v>
+        <v>0.238324</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262947</v>
+        <v>0.263369</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224907</v>
+        <v>0.223645</v>
       </c>
       <c r="D65" t="n">
-        <v>0.236389</v>
+        <v>0.23821</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263461</v>
+        <v>0.263919</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225984</v>
+        <v>0.224514</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239463</v>
+        <v>0.241495</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.387581</v>
+        <v>0.384576</v>
       </c>
       <c r="C67" t="n">
-        <v>0.334613</v>
+        <v>0.330841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.350666</v>
+        <v>0.351223</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.379521</v>
+        <v>0.376446</v>
       </c>
       <c r="C68" t="n">
-        <v>0.325143</v>
+        <v>0.321757</v>
       </c>
       <c r="D68" t="n">
-        <v>0.340041</v>
+        <v>0.340729</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372502</v>
+        <v>0.369636</v>
       </c>
       <c r="C69" t="n">
-        <v>0.316074</v>
+        <v>0.312802</v>
       </c>
       <c r="D69" t="n">
-        <v>0.329522</v>
+        <v>0.330577</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365811</v>
+        <v>0.362957</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307153</v>
+        <v>0.304612</v>
       </c>
       <c r="D70" t="n">
-        <v>0.319913</v>
+        <v>0.320834</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359132</v>
+        <v>0.356659</v>
       </c>
       <c r="C71" t="n">
-        <v>0.29876</v>
+        <v>0.296466</v>
       </c>
       <c r="D71" t="n">
-        <v>0.310537</v>
+        <v>0.311613</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.352759</v>
+        <v>0.350328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.291139</v>
+        <v>0.288933</v>
       </c>
       <c r="D72" t="n">
-        <v>0.301546</v>
+        <v>0.302941</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.346546</v>
+        <v>0.344221</v>
       </c>
       <c r="C73" t="n">
-        <v>0.283552</v>
+        <v>0.281922</v>
       </c>
       <c r="D73" t="n">
-        <v>0.293363</v>
+        <v>0.294864</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.340631</v>
+        <v>0.338405</v>
       </c>
       <c r="C74" t="n">
-        <v>0.276792</v>
+        <v>0.275116</v>
       </c>
       <c r="D74" t="n">
-        <v>0.285637</v>
+        <v>0.28737</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.334772</v>
+        <v>0.332809</v>
       </c>
       <c r="C75" t="n">
-        <v>0.270518</v>
+        <v>0.268838</v>
       </c>
       <c r="D75" t="n">
-        <v>0.278698</v>
+        <v>0.280321</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.329334</v>
+        <v>0.327372</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264832</v>
+        <v>0.263404</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272487</v>
+        <v>0.274473</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.324143</v>
+        <v>0.322432</v>
       </c>
       <c r="C77" t="n">
-        <v>0.259643</v>
+        <v>0.258378</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267421</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.31972</v>
+        <v>0.318234</v>
       </c>
       <c r="C78" t="n">
-        <v>0.255816</v>
+        <v>0.254304</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263748</v>
+        <v>0.266003</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.316537</v>
+        <v>0.315104</v>
       </c>
       <c r="C79" t="n">
-        <v>0.253086</v>
+        <v>0.251833</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26232</v>
+        <v>0.264866</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.314906</v>
+        <v>0.313429</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252652</v>
+        <v>0.251405</v>
       </c>
       <c r="D80" t="n">
-        <v>0.264186</v>
+        <v>0.266768</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553697</v>
+        <v>0.551601</v>
       </c>
       <c r="C81" t="n">
-        <v>0.396018</v>
+        <v>0.397412</v>
       </c>
       <c r="D81" t="n">
-        <v>0.408925</v>
+        <v>0.417467</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.54612</v>
+        <v>0.54483</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390605</v>
+        <v>0.390558</v>
       </c>
       <c r="D82" t="n">
-        <v>0.403139</v>
+        <v>0.408518</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.536455</v>
+        <v>0.5349429999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.381617</v>
+        <v>0.37937</v>
       </c>
       <c r="D83" t="n">
-        <v>0.39235</v>
+        <v>0.39683</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5249819999999999</v>
+        <v>0.525146</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372756</v>
+        <v>0.371564</v>
       </c>
       <c r="D84" t="n">
-        <v>0.382979</v>
+        <v>0.38815</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.516578</v>
+        <v>0.516393</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362522</v>
+        <v>0.362892</v>
       </c>
       <c r="D85" t="n">
-        <v>0.372219</v>
+        <v>0.378644</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.506494</v>
+        <v>0.5071639999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.353814</v>
+        <v>0.354167</v>
       </c>
       <c r="D86" t="n">
-        <v>0.363428</v>
+        <v>0.368878</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.497134</v>
+        <v>0.49776</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345336</v>
+        <v>0.345184</v>
       </c>
       <c r="D87" t="n">
-        <v>0.352799</v>
+        <v>0.358727</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.487767</v>
+        <v>0.488904</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337655</v>
+        <v>0.337822</v>
       </c>
       <c r="D88" t="n">
-        <v>0.344826</v>
+        <v>0.350835</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.478995</v>
+        <v>0.479732</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330353</v>
+        <v>0.330136</v>
       </c>
       <c r="D89" t="n">
-        <v>0.337276</v>
+        <v>0.342564</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.470083</v>
+        <v>0.470885</v>
       </c>
       <c r="C90" t="n">
-        <v>0.323256</v>
+        <v>0.322901</v>
       </c>
       <c r="D90" t="n">
-        <v>0.329132</v>
+        <v>0.334657</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.461496</v>
+        <v>0.462781</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317327</v>
+        <v>0.317355</v>
       </c>
       <c r="D91" t="n">
-        <v>0.323037</v>
+        <v>0.329149</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.454113</v>
+        <v>0.45511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.312061</v>
+        <v>0.312006</v>
       </c>
       <c r="D92" t="n">
-        <v>0.317644</v>
+        <v>0.32438</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.447677</v>
+        <v>0.448599</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308117</v>
+        <v>0.307826</v>
       </c>
       <c r="D93" t="n">
-        <v>0.314911</v>
+        <v>0.320865</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.44282</v>
+        <v>0.443161</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306417</v>
+        <v>0.305875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.314768</v>
+        <v>0.32052</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.646239</v>
+        <v>0.640414</v>
       </c>
       <c r="C95" t="n">
-        <v>0.527212</v>
+        <v>0.527393</v>
       </c>
       <c r="D95" t="n">
-        <v>0.532563</v>
+        <v>0.554353</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.641324</v>
+        <v>0.636553</v>
       </c>
       <c r="C96" t="n">
-        <v>0.52015</v>
+        <v>0.521073</v>
       </c>
       <c r="D96" t="n">
-        <v>0.524894</v>
+        <v>0.545687</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.63053</v>
+        <v>0.625651</v>
       </c>
       <c r="C97" t="n">
-        <v>0.508396</v>
+        <v>0.509285</v>
       </c>
       <c r="D97" t="n">
-        <v>0.511024</v>
+        <v>0.531325</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.618998</v>
+        <v>0.614245</v>
       </c>
       <c r="C98" t="n">
-        <v>0.495036</v>
+        <v>0.495062</v>
       </c>
       <c r="D98" t="n">
-        <v>0.497316</v>
+        <v>0.516452</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6072340000000001</v>
+        <v>0.603061</v>
       </c>
       <c r="C99" t="n">
-        <v>0.481471</v>
+        <v>0.481785</v>
       </c>
       <c r="D99" t="n">
-        <v>0.482488</v>
+        <v>0.501793</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.595772</v>
+        <v>0.592189</v>
       </c>
       <c r="C100" t="n">
-        <v>0.469037</v>
+        <v>0.469682</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4691</v>
+        <v>0.487829</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.584771</v>
+        <v>0.582009</v>
       </c>
       <c r="C101" t="n">
-        <v>0.457856</v>
+        <v>0.458194</v>
       </c>
       <c r="D101" t="n">
-        <v>0.457436</v>
+        <v>0.476141</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.575043</v>
+        <v>0.572055</v>
       </c>
       <c r="C102" t="n">
-        <v>0.446985</v>
+        <v>0.447616</v>
       </c>
       <c r="D102" t="n">
-        <v>0.445776</v>
+        <v>0.463824</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.565598</v>
+        <v>0.562845</v>
       </c>
       <c r="C103" t="n">
-        <v>0.436387</v>
+        <v>0.436714</v>
       </c>
       <c r="D103" t="n">
-        <v>0.435162</v>
+        <v>0.452337</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.556852</v>
+        <v>0.554379</v>
       </c>
       <c r="C104" t="n">
-        <v>0.427362</v>
+        <v>0.427101</v>
       </c>
       <c r="D104" t="n">
-        <v>0.424948</v>
+        <v>0.442165</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.548785</v>
+        <v>0.546056</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418371</v>
+        <v>0.418598</v>
       </c>
       <c r="D105" t="n">
-        <v>0.415177</v>
+        <v>0.433936</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5413520000000001</v>
+        <v>0.538402</v>
       </c>
       <c r="C106" t="n">
-        <v>0.411374</v>
+        <v>0.411315</v>
       </c>
       <c r="D106" t="n">
-        <v>0.409098</v>
+        <v>0.425801</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.534577</v>
+        <v>0.531709</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403859</v>
+        <v>0.404816</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402215</v>
+        <v>0.419806</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.528879</v>
+        <v>0.526587</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399787</v>
+        <v>0.399876</v>
       </c>
       <c r="D108" t="n">
-        <v>0.398829</v>
+        <v>0.416589</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5256150000000001</v>
+        <v>0.52374</v>
       </c>
       <c r="C109" t="n">
-        <v>0.398493</v>
+        <v>0.399026</v>
       </c>
       <c r="D109" t="n">
-        <v>0.399937</v>
+        <v>0.41783</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.721545</v>
+        <v>0.72071</v>
       </c>
       <c r="C110" t="n">
-        <v>0.613356</v>
+        <v>0.614587</v>
       </c>
       <c r="D110" t="n">
-        <v>0.613976</v>
+        <v>0.650118</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.709645</v>
+        <v>0.708466</v>
       </c>
       <c r="C111" t="n">
-        <v>0.59985</v>
+        <v>0.601838</v>
       </c>
       <c r="D111" t="n">
-        <v>0.599045</v>
+        <v>0.634132</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.69655</v>
+        <v>0.695227</v>
       </c>
       <c r="C112" t="n">
-        <v>0.585494</v>
+        <v>0.586993</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5845089999999999</v>
+        <v>0.61875</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.683766</v>
+        <v>0.682648</v>
       </c>
       <c r="C113" t="n">
-        <v>0.572055</v>
+        <v>0.573522</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5696329999999999</v>
+        <v>0.602814</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.672193</v>
+        <v>0.671021</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558804</v>
+        <v>0.560828</v>
       </c>
       <c r="D114" t="n">
-        <v>0.555744</v>
+        <v>0.588571</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.661382</v>
+        <v>0.660501</v>
       </c>
       <c r="C115" t="n">
-        <v>0.546362</v>
+        <v>0.547966</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5417650000000001</v>
+        <v>0.573712</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.650687</v>
+        <v>0.650016</v>
       </c>
       <c r="C116" t="n">
-        <v>0.53432</v>
+        <v>0.536628</v>
       </c>
       <c r="D116" t="n">
-        <v>0.529878</v>
+        <v>0.560297</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.640738</v>
+        <v>0.640338</v>
       </c>
       <c r="C117" t="n">
-        <v>0.523526</v>
+        <v>0.525715</v>
       </c>
       <c r="D117" t="n">
-        <v>0.517773</v>
+        <v>0.547691</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.631344</v>
+        <v>0.631108</v>
       </c>
       <c r="C118" t="n">
-        <v>0.513121</v>
+        <v>0.515164</v>
       </c>
       <c r="D118" t="n">
-        <v>0.506113</v>
+        <v>0.536311</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622572</v>
+        <v>0.622857</v>
       </c>
       <c r="C119" t="n">
-        <v>0.503883</v>
+        <v>0.505962</v>
       </c>
       <c r="D119" t="n">
-        <v>0.496113</v>
+        <v>0.525468</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.614814</v>
+        <v>0.614805</v>
       </c>
       <c r="C120" t="n">
-        <v>0.495767</v>
+        <v>0.497436</v>
       </c>
       <c r="D120" t="n">
-        <v>0.487552</v>
+        <v>0.515933</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6077939999999999</v>
+        <v>0.607857</v>
       </c>
       <c r="C121" t="n">
-        <v>0.488249</v>
+        <v>0.490283</v>
       </c>
       <c r="D121" t="n">
-        <v>0.479898</v>
+        <v>0.508759</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.601799</v>
+        <v>0.601604</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481356</v>
+        <v>0.48333</v>
       </c>
       <c r="D122" t="n">
-        <v>0.473303</v>
+        <v>0.502806</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.597642</v>
+        <v>0.597606</v>
       </c>
       <c r="C123" t="n">
-        <v>0.477067</v>
+        <v>0.478319</v>
       </c>
       <c r="D123" t="n">
-        <v>0.47043</v>
+        <v>0.499715</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.788245</v>
+        <v>0.7884409999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.694645</v>
+        <v>0.696954</v>
       </c>
       <c r="D124" t="n">
-        <v>0.68796</v>
+        <v>0.728922</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.778294</v>
+        <v>0.779444</v>
       </c>
       <c r="C125" t="n">
-        <v>0.681469</v>
+        <v>0.684259</v>
       </c>
       <c r="D125" t="n">
-        <v>0.674283</v>
+        <v>0.7142269999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.768922</v>
+        <v>0.769767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.669557</v>
+        <v>0.6708190000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.65978</v>
+        <v>0.698748</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.760008</v>
+        <v>0.760867</v>
       </c>
       <c r="C127" t="n">
-        <v>0.657863</v>
+        <v>0.659739</v>
       </c>
       <c r="D127" t="n">
-        <v>0.648597</v>
+        <v>0.68479</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.751553</v>
+        <v>0.752928</v>
       </c>
       <c r="C128" t="n">
-        <v>0.646953</v>
+        <v>0.648838</v>
       </c>
       <c r="D128" t="n">
-        <v>0.634297</v>
+        <v>0.671916</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.743753</v>
+        <v>0.745019</v>
       </c>
       <c r="C129" t="n">
-        <v>0.637128</v>
+        <v>0.63928</v>
       </c>
       <c r="D129" t="n">
-        <v>0.622435</v>
+        <v>0.660382</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.736483</v>
+        <v>0.737749</v>
       </c>
       <c r="C130" t="n">
-        <v>0.62865</v>
+        <v>0.629955</v>
       </c>
       <c r="D130" t="n">
-        <v>0.612087</v>
+        <v>0.647266</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.729035</v>
+        <v>0.730822</v>
       </c>
       <c r="C131" t="n">
-        <v>0.619678</v>
+        <v>0.6213959999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.602328</v>
+        <v>0.637744</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.723395</v>
+        <v>0.724382</v>
       </c>
       <c r="C132" t="n">
-        <v>0.611559</v>
+        <v>0.612704</v>
       </c>
       <c r="D132" t="n">
-        <v>0.593095</v>
+        <v>0.628151</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.717016</v>
+        <v>0.718826</v>
       </c>
       <c r="C133" t="n">
-        <v>0.603591</v>
+        <v>0.605509</v>
       </c>
       <c r="D133" t="n">
-        <v>0.58453</v>
+        <v>0.619211</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.711833</v>
+        <v>0.71378</v>
       </c>
       <c r="C134" t="n">
-        <v>0.597031</v>
+        <v>0.599438</v>
       </c>
       <c r="D134" t="n">
-        <v>0.575642</v>
+        <v>0.611271</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.70681</v>
+        <v>0.709495</v>
       </c>
       <c r="C135" t="n">
-        <v>0.591264</v>
+        <v>0.593622</v>
       </c>
       <c r="D135" t="n">
-        <v>0.568253</v>
+        <v>0.603183</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.702852</v>
+        <v>0.704716</v>
       </c>
       <c r="C136" t="n">
-        <v>0.586251</v>
+        <v>0.588668</v>
       </c>
       <c r="D136" t="n">
-        <v>0.562681</v>
+        <v>0.597118</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.699386</v>
+        <v>0.701479</v>
       </c>
       <c r="C137" t="n">
-        <v>0.581535</v>
+        <v>0.584116</v>
       </c>
       <c r="D137" t="n">
-        <v>0.557071</v>
+        <v>0.591306</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.885908</v>
+        <v>0.886662</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8021160000000001</v>
+        <v>0.804016</v>
       </c>
       <c r="D138" t="n">
-        <v>0.777537</v>
+        <v>0.822557</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.877904</v>
+        <v>0.879513</v>
       </c>
       <c r="C139" t="n">
-        <v>0.789478</v>
+        <v>0.7918770000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.763172</v>
+        <v>0.807325</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870774</v>
+        <v>0.872779</v>
       </c>
       <c r="C140" t="n">
-        <v>0.778083</v>
+        <v>0.7804</v>
       </c>
       <c r="D140" t="n">
-        <v>0.750378</v>
+        <v>0.793744</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.864502</v>
+        <v>0.866368</v>
       </c>
       <c r="C141" t="n">
-        <v>0.769243</v>
+        <v>0.76908</v>
       </c>
       <c r="D141" t="n">
-        <v>0.738408</v>
+        <v>0.779346</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.858456</v>
+        <v>0.860412</v>
       </c>
       <c r="C142" t="n">
-        <v>0.758842</v>
+        <v>0.759124</v>
       </c>
       <c r="D142" t="n">
-        <v>0.726759</v>
+        <v>0.76679</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.852474</v>
+        <v>0.854277</v>
       </c>
       <c r="C143" t="n">
-        <v>0.748618</v>
+        <v>0.7495810000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.715789</v>
+        <v>0.754385</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259894</v>
+        <v>0.252146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203011</v>
+        <v>0.201609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217546</v>
+        <v>0.21808</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.253345</v>
+        <v>0.24611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.197066</v>
+        <v>0.196682</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211313</v>
+        <v>0.211006</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247197</v>
+        <v>0.240572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191801</v>
+        <v>0.190679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206104</v>
+        <v>0.20588</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242186</v>
+        <v>0.236319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1876</v>
+        <v>0.18678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201591</v>
+        <v>0.202844</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237523</v>
+        <v>0.231922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.183818</v>
+        <v>0.18243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.198924</v>
+        <v>0.199348</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.234385</v>
+        <v>0.228963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181736</v>
+        <v>0.181462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198033</v>
+        <v>0.197578</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23224</v>
+        <v>0.227218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181476</v>
+        <v>0.180551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199912</v>
+        <v>0.199586</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.233528</v>
+        <v>0.228507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182826</v>
+        <v>0.182391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.205365</v>
+        <v>0.205719</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.319045</v>
+        <v>0.315339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.270792</v>
+        <v>0.26938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.295692</v>
+        <v>0.294574</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.309791</v>
+        <v>0.305367</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260762</v>
+        <v>0.260351</v>
       </c>
       <c r="D11" t="n">
-        <v>0.284424</v>
+        <v>0.284018</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.300606</v>
+        <v>0.297222</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252552</v>
+        <v>0.252169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.275049</v>
+        <v>0.274157</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.292207</v>
+        <v>0.288172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24436</v>
+        <v>0.244063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.266014</v>
+        <v>0.265466</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.284285</v>
+        <v>0.280595</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236595</v>
+        <v>0.236625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257307</v>
+        <v>0.256767</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.277166</v>
+        <v>0.273314</v>
       </c>
       <c r="C15" t="n">
-        <v>0.22933</v>
+        <v>0.229703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24917</v>
+        <v>0.248746</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.269952</v>
+        <v>0.266223</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222712</v>
+        <v>0.22281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24141</v>
+        <v>0.24107</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.262625</v>
+        <v>0.259991</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216331</v>
+        <v>0.216629</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234811</v>
+        <v>0.234398</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.256632</v>
+        <v>0.254133</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211078</v>
+        <v>0.211457</v>
       </c>
       <c r="D18" t="n">
-        <v>0.228548</v>
+        <v>0.22838</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.251762</v>
+        <v>0.24881</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206034</v>
+        <v>0.206681</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22357</v>
+        <v>0.223289</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247254</v>
+        <v>0.244624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.202286</v>
+        <v>0.202549</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219028</v>
+        <v>0.219308</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.242393</v>
+        <v>0.240505</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199692</v>
+        <v>0.200177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.217</v>
+        <v>0.217267</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239969</v>
+        <v>0.238162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198423</v>
+        <v>0.198853</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217007</v>
+        <v>0.217038</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.239397</v>
+        <v>0.237279</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199527</v>
+        <v>0.200064</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219789</v>
+        <v>0.22035</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3254</v>
+        <v>0.323</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285792</v>
+        <v>0.285588</v>
       </c>
       <c r="D24" t="n">
-        <v>0.30946</v>
+        <v>0.309306</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.316579</v>
+        <v>0.314114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.278758</v>
+        <v>0.276705</v>
       </c>
       <c r="D25" t="n">
-        <v>0.300749</v>
+        <v>0.298678</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306896</v>
+        <v>0.30517</v>
       </c>
       <c r="C26" t="n">
-        <v>0.269065</v>
+        <v>0.267964</v>
       </c>
       <c r="D26" t="n">
-        <v>0.290267</v>
+        <v>0.288486</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298375</v>
+        <v>0.296821</v>
       </c>
       <c r="C27" t="n">
-        <v>0.261231</v>
+        <v>0.259385</v>
       </c>
       <c r="D27" t="n">
-        <v>0.280715</v>
+        <v>0.279055</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.290446</v>
+        <v>0.288877</v>
       </c>
       <c r="C28" t="n">
-        <v>0.252365</v>
+        <v>0.251155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.271552</v>
+        <v>0.269861</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.283165</v>
+        <v>0.281401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244982</v>
+        <v>0.243493</v>
       </c>
       <c r="D29" t="n">
-        <v>0.262758</v>
+        <v>0.261252</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275988</v>
+        <v>0.274123</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238073</v>
+        <v>0.236778</v>
       </c>
       <c r="D30" t="n">
-        <v>0.254845</v>
+        <v>0.253361</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268793</v>
+        <v>0.267869</v>
       </c>
       <c r="C31" t="n">
-        <v>0.231118</v>
+        <v>0.230013</v>
       </c>
       <c r="D31" t="n">
-        <v>0.247273</v>
+        <v>0.246034</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26326</v>
+        <v>0.26174</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22462</v>
+        <v>0.2234</v>
       </c>
       <c r="D32" t="n">
-        <v>0.240014</v>
+        <v>0.239026</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258171</v>
+        <v>0.256496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.219448</v>
+        <v>0.218306</v>
       </c>
       <c r="D33" t="n">
-        <v>0.234408</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.252998</v>
+        <v>0.251522</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214794</v>
+        <v>0.213114</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22932</v>
+        <v>0.228021</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.248284</v>
+        <v>0.247364</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209865</v>
+        <v>0.209</v>
       </c>
       <c r="D35" t="n">
-        <v>0.225782</v>
+        <v>0.224496</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245453</v>
+        <v>0.244446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207128</v>
+        <v>0.206529</v>
       </c>
       <c r="D36" t="n">
-        <v>0.224108</v>
+        <v>0.223045</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243994</v>
+        <v>0.243032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206319</v>
+        <v>0.205939</v>
       </c>
       <c r="D37" t="n">
-        <v>0.225279</v>
+        <v>0.224372</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.327145</v>
+        <v>0.325784</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294446</v>
+        <v>0.29464</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318095</v>
+        <v>0.318759</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318451</v>
+        <v>0.317549</v>
       </c>
       <c r="C39" t="n">
-        <v>0.284958</v>
+        <v>0.285426</v>
       </c>
       <c r="D39" t="n">
-        <v>0.307212</v>
+        <v>0.308048</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310248</v>
+        <v>0.309121</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276543</v>
+        <v>0.276584</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297073</v>
+        <v>0.297786</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301511</v>
+        <v>0.301098</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2672</v>
+        <v>0.268201</v>
       </c>
       <c r="D41" t="n">
-        <v>0.287335</v>
+        <v>0.288083</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.29393</v>
+        <v>0.292561</v>
       </c>
       <c r="C42" t="n">
-        <v>0.259968</v>
+        <v>0.260086</v>
       </c>
       <c r="D42" t="n">
-        <v>0.278107</v>
+        <v>0.278756</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287254</v>
+        <v>0.285415</v>
       </c>
       <c r="C43" t="n">
-        <v>0.251939</v>
+        <v>0.252545</v>
       </c>
       <c r="D43" t="n">
-        <v>0.26949</v>
+        <v>0.270149</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280012</v>
+        <v>0.279291</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245208</v>
+        <v>0.245205</v>
       </c>
       <c r="D44" t="n">
-        <v>0.26126</v>
+        <v>0.261987</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274158</v>
+        <v>0.271984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238013</v>
+        <v>0.238728</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253802</v>
+        <v>0.254342</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267694</v>
+        <v>0.267282</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232275</v>
+        <v>0.232551</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247096</v>
+        <v>0.247572</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262503</v>
+        <v>0.261154</v>
       </c>
       <c r="C47" t="n">
-        <v>0.226219</v>
+        <v>0.227165</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241117</v>
+        <v>0.241634</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257702</v>
+        <v>0.256985</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222008</v>
+        <v>0.222155</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235875</v>
+        <v>0.23627</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253611</v>
+        <v>0.253475</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217428</v>
+        <v>0.217967</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232083</v>
+        <v>0.232565</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250344</v>
+        <v>0.249358</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214578</v>
+        <v>0.215019</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229789</v>
+        <v>0.230282</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248733</v>
+        <v>0.247869</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213213</v>
+        <v>0.213721</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23034</v>
+        <v>0.230742</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249779</v>
+        <v>0.248605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21435</v>
+        <v>0.214798</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234444</v>
+        <v>0.234516</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.330103</v>
+        <v>0.329315</v>
       </c>
       <c r="C53" t="n">
-        <v>0.295458</v>
+        <v>0.296112</v>
       </c>
       <c r="D53" t="n">
-        <v>0.317226</v>
+        <v>0.318711</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321622</v>
+        <v>0.321398</v>
       </c>
       <c r="C54" t="n">
-        <v>0.286686</v>
+        <v>0.287353</v>
       </c>
       <c r="D54" t="n">
-        <v>0.306855</v>
+        <v>0.308712</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313521</v>
+        <v>0.313717</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27906</v>
+        <v>0.278957</v>
       </c>
       <c r="D55" t="n">
-        <v>0.297002</v>
+        <v>0.298623</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306266</v>
+        <v>0.306432</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271062</v>
+        <v>0.271139</v>
       </c>
       <c r="D56" t="n">
-        <v>0.288243</v>
+        <v>0.289674</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299265</v>
+        <v>0.299501</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263066</v>
+        <v>0.263849</v>
       </c>
       <c r="D57" t="n">
-        <v>0.279171</v>
+        <v>0.280823</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.292761</v>
+        <v>0.293</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255795</v>
+        <v>0.256718</v>
       </c>
       <c r="D58" t="n">
-        <v>0.271403</v>
+        <v>0.272666</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286695</v>
+        <v>0.286773</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249799</v>
+        <v>0.250211</v>
       </c>
       <c r="D59" t="n">
-        <v>0.263496</v>
+        <v>0.264844</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280868</v>
+        <v>0.281352</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24357</v>
+        <v>0.244125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.256312</v>
+        <v>0.258266</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27574</v>
+        <v>0.276059</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238053</v>
+        <v>0.238543</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250759</v>
+        <v>0.251818</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271174</v>
+        <v>0.271407</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23271</v>
+        <v>0.233546</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245331</v>
+        <v>0.246659</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26715</v>
+        <v>0.267789</v>
       </c>
       <c r="C63" t="n">
-        <v>0.228969</v>
+        <v>0.229464</v>
       </c>
       <c r="D63" t="n">
-        <v>0.241034</v>
+        <v>0.242558</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264535</v>
+        <v>0.264934</v>
       </c>
       <c r="C64" t="n">
-        <v>0.225253</v>
+        <v>0.226202</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238324</v>
+        <v>0.239734</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263369</v>
+        <v>0.263466</v>
       </c>
       <c r="C65" t="n">
-        <v>0.223645</v>
+        <v>0.224301</v>
       </c>
       <c r="D65" t="n">
-        <v>0.23821</v>
+        <v>0.239707</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263919</v>
+        <v>0.264058</v>
       </c>
       <c r="C66" t="n">
-        <v>0.224514</v>
+        <v>0.225205</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241495</v>
+        <v>0.243113</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.384576</v>
+        <v>0.38572</v>
       </c>
       <c r="C67" t="n">
-        <v>0.330841</v>
+        <v>0.332086</v>
       </c>
       <c r="D67" t="n">
-        <v>0.351223</v>
+        <v>0.352994</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376446</v>
+        <v>0.378102</v>
       </c>
       <c r="C68" t="n">
-        <v>0.321757</v>
+        <v>0.32296</v>
       </c>
       <c r="D68" t="n">
-        <v>0.340729</v>
+        <v>0.342556</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369636</v>
+        <v>0.370845</v>
       </c>
       <c r="C69" t="n">
-        <v>0.312802</v>
+        <v>0.314144</v>
       </c>
       <c r="D69" t="n">
-        <v>0.330577</v>
+        <v>0.332249</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362957</v>
+        <v>0.364265</v>
       </c>
       <c r="C70" t="n">
-        <v>0.304612</v>
+        <v>0.305527</v>
       </c>
       <c r="D70" t="n">
-        <v>0.320834</v>
+        <v>0.322335</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.356659</v>
+        <v>0.357741</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296466</v>
+        <v>0.297464</v>
       </c>
       <c r="D71" t="n">
-        <v>0.311613</v>
+        <v>0.313018</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350328</v>
+        <v>0.351418</v>
       </c>
       <c r="C72" t="n">
-        <v>0.288933</v>
+        <v>0.289735</v>
       </c>
       <c r="D72" t="n">
-        <v>0.302941</v>
+        <v>0.304211</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344221</v>
+        <v>0.345427</v>
       </c>
       <c r="C73" t="n">
-        <v>0.281922</v>
+        <v>0.28246</v>
       </c>
       <c r="D73" t="n">
-        <v>0.294864</v>
+        <v>0.295988</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.338405</v>
+        <v>0.339316</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275116</v>
+        <v>0.275589</v>
       </c>
       <c r="D74" t="n">
-        <v>0.28737</v>
+        <v>0.288343</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.332809</v>
+        <v>0.333705</v>
       </c>
       <c r="C75" t="n">
-        <v>0.268838</v>
+        <v>0.269211</v>
       </c>
       <c r="D75" t="n">
-        <v>0.280321</v>
+        <v>0.281322</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327372</v>
+        <v>0.327775</v>
       </c>
       <c r="C76" t="n">
-        <v>0.263404</v>
+        <v>0.263595</v>
       </c>
       <c r="D76" t="n">
-        <v>0.274473</v>
+        <v>0.275493</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.322432</v>
+        <v>0.323199</v>
       </c>
       <c r="C77" t="n">
-        <v>0.258378</v>
+        <v>0.258537</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2695</v>
+        <v>0.27052</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318234</v>
+        <v>0.318675</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254304</v>
+        <v>0.254479</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266003</v>
+        <v>0.266518</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315104</v>
+        <v>0.315347</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251833</v>
+        <v>0.251941</v>
       </c>
       <c r="D79" t="n">
-        <v>0.264866</v>
+        <v>0.265528</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.313429</v>
+        <v>0.313737</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251405</v>
+        <v>0.251461</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266768</v>
+        <v>0.267363</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.551601</v>
+        <v>0.553077</v>
       </c>
       <c r="C81" t="n">
-        <v>0.397412</v>
+        <v>0.398275</v>
       </c>
       <c r="D81" t="n">
-        <v>0.417467</v>
+        <v>0.419231</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.54483</v>
+        <v>0.545806</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390558</v>
+        <v>0.391734</v>
       </c>
       <c r="D82" t="n">
-        <v>0.408518</v>
+        <v>0.411273</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5349429999999999</v>
+        <v>0.536524</v>
       </c>
       <c r="C83" t="n">
-        <v>0.37937</v>
+        <v>0.381263</v>
       </c>
       <c r="D83" t="n">
-        <v>0.39683</v>
+        <v>0.399227</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.525146</v>
+        <v>0.5269470000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.371564</v>
+        <v>0.372678</v>
       </c>
       <c r="D84" t="n">
-        <v>0.38815</v>
+        <v>0.38909</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.516393</v>
+        <v>0.517521</v>
       </c>
       <c r="C85" t="n">
-        <v>0.362892</v>
+        <v>0.363999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.378644</v>
+        <v>0.379762</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5071639999999999</v>
+        <v>0.508041</v>
       </c>
       <c r="C86" t="n">
-        <v>0.354167</v>
+        <v>0.355101</v>
       </c>
       <c r="D86" t="n">
-        <v>0.368878</v>
+        <v>0.369706</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.49776</v>
+        <v>0.498569</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345184</v>
+        <v>0.346297</v>
       </c>
       <c r="D87" t="n">
-        <v>0.358727</v>
+        <v>0.360559</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.488904</v>
+        <v>0.488952</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337822</v>
+        <v>0.338292</v>
       </c>
       <c r="D88" t="n">
-        <v>0.350835</v>
+        <v>0.351255</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.479732</v>
+        <v>0.480237</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330136</v>
+        <v>0.330411</v>
       </c>
       <c r="D89" t="n">
-        <v>0.342564</v>
+        <v>0.3433</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.470885</v>
+        <v>0.471396</v>
       </c>
       <c r="C90" t="n">
-        <v>0.322901</v>
+        <v>0.324023</v>
       </c>
       <c r="D90" t="n">
-        <v>0.334657</v>
+        <v>0.336471</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.462781</v>
+        <v>0.463312</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317355</v>
+        <v>0.317939</v>
       </c>
       <c r="D91" t="n">
-        <v>0.329149</v>
+        <v>0.32977</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.45511</v>
+        <v>0.455285</v>
       </c>
       <c r="C92" t="n">
-        <v>0.312006</v>
+        <v>0.313423</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32438</v>
+        <v>0.32547</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.448599</v>
+        <v>0.448908</v>
       </c>
       <c r="C93" t="n">
-        <v>0.307826</v>
+        <v>0.308878</v>
       </c>
       <c r="D93" t="n">
-        <v>0.320865</v>
+        <v>0.322086</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.443161</v>
+        <v>0.443577</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305875</v>
+        <v>0.305952</v>
       </c>
       <c r="D94" t="n">
-        <v>0.32052</v>
+        <v>0.321133</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.640414</v>
+        <v>0.640379</v>
       </c>
       <c r="C95" t="n">
-        <v>0.527393</v>
+        <v>0.528895</v>
       </c>
       <c r="D95" t="n">
-        <v>0.554353</v>
+        <v>0.555481</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.636553</v>
+        <v>0.636146</v>
       </c>
       <c r="C96" t="n">
-        <v>0.521073</v>
+        <v>0.5211440000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.545687</v>
+        <v>0.546107</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.625651</v>
+        <v>0.625452</v>
       </c>
       <c r="C97" t="n">
-        <v>0.509285</v>
+        <v>0.508548</v>
       </c>
       <c r="D97" t="n">
-        <v>0.531325</v>
+        <v>0.531538</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.614245</v>
+        <v>0.613579</v>
       </c>
       <c r="C98" t="n">
-        <v>0.495062</v>
+        <v>0.495106</v>
       </c>
       <c r="D98" t="n">
-        <v>0.516452</v>
+        <v>0.516844</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.603061</v>
+        <v>0.602858</v>
       </c>
       <c r="C99" t="n">
-        <v>0.481785</v>
+        <v>0.482365</v>
       </c>
       <c r="D99" t="n">
-        <v>0.501793</v>
+        <v>0.502448</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.592189</v>
+        <v>0.591953</v>
       </c>
       <c r="C100" t="n">
-        <v>0.469682</v>
+        <v>0.470258</v>
       </c>
       <c r="D100" t="n">
-        <v>0.487829</v>
+        <v>0.48888</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.582009</v>
+        <v>0.581229</v>
       </c>
       <c r="C101" t="n">
-        <v>0.458194</v>
+        <v>0.458339</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476141</v>
+        <v>0.476351</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.572055</v>
+        <v>0.571354</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447616</v>
+        <v>0.447487</v>
       </c>
       <c r="D102" t="n">
-        <v>0.463824</v>
+        <v>0.464318</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.562845</v>
+        <v>0.5623050000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.436714</v>
+        <v>0.436622</v>
       </c>
       <c r="D103" t="n">
-        <v>0.452337</v>
+        <v>0.452732</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.554379</v>
+        <v>0.553237</v>
       </c>
       <c r="C104" t="n">
-        <v>0.427101</v>
+        <v>0.427592</v>
       </c>
       <c r="D104" t="n">
-        <v>0.442165</v>
+        <v>0.443493</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.546056</v>
+        <v>0.544896</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418598</v>
+        <v>0.41899</v>
       </c>
       <c r="D105" t="n">
-        <v>0.433936</v>
+        <v>0.433604</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.538402</v>
+        <v>0.537951</v>
       </c>
       <c r="C106" t="n">
-        <v>0.411315</v>
+        <v>0.411788</v>
       </c>
       <c r="D106" t="n">
-        <v>0.425801</v>
+        <v>0.426443</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.531709</v>
+        <v>0.5313369999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.404816</v>
+        <v>0.404795</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419806</v>
+        <v>0.419913</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526587</v>
+        <v>0.526184</v>
       </c>
       <c r="C108" t="n">
-        <v>0.399876</v>
+        <v>0.400366</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416589</v>
+        <v>0.416892</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.52374</v>
+        <v>0.522968</v>
       </c>
       <c r="C109" t="n">
-        <v>0.399026</v>
+        <v>0.39881</v>
       </c>
       <c r="D109" t="n">
-        <v>0.41783</v>
+        <v>0.417391</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.72071</v>
+        <v>0.718905</v>
       </c>
       <c r="C110" t="n">
-        <v>0.614587</v>
+        <v>0.6143110000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.650118</v>
+        <v>0.648707</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.708466</v>
+        <v>0.7066210000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.601838</v>
+        <v>0.600002</v>
       </c>
       <c r="D111" t="n">
-        <v>0.634132</v>
+        <v>0.633723</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.695227</v>
+        <v>0.693782</v>
       </c>
       <c r="C112" t="n">
-        <v>0.586993</v>
+        <v>0.586448</v>
       </c>
       <c r="D112" t="n">
-        <v>0.61875</v>
+        <v>0.617788</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.682648</v>
+        <v>0.681173</v>
       </c>
       <c r="C113" t="n">
-        <v>0.573522</v>
+        <v>0.573199</v>
       </c>
       <c r="D113" t="n">
-        <v>0.602814</v>
+        <v>0.602735</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.671021</v>
+        <v>0.669822</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560828</v>
+        <v>0.5595599999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.588571</v>
+        <v>0.587642</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.660501</v>
+        <v>0.658782</v>
       </c>
       <c r="C115" t="n">
-        <v>0.547966</v>
+        <v>0.547497</v>
       </c>
       <c r="D115" t="n">
-        <v>0.573712</v>
+        <v>0.572636</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.650016</v>
+        <v>0.648441</v>
       </c>
       <c r="C116" t="n">
-        <v>0.536628</v>
+        <v>0.535721</v>
       </c>
       <c r="D116" t="n">
-        <v>0.560297</v>
+        <v>0.560071</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.640338</v>
+        <v>0.639344</v>
       </c>
       <c r="C117" t="n">
-        <v>0.525715</v>
+        <v>0.524409</v>
       </c>
       <c r="D117" t="n">
-        <v>0.547691</v>
+        <v>0.547661</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.631108</v>
+        <v>0.630626</v>
       </c>
       <c r="C118" t="n">
-        <v>0.515164</v>
+        <v>0.514725</v>
       </c>
       <c r="D118" t="n">
-        <v>0.536311</v>
+        <v>0.536116</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622857</v>
+        <v>0.622335</v>
       </c>
       <c r="C119" t="n">
-        <v>0.505962</v>
+        <v>0.50502</v>
       </c>
       <c r="D119" t="n">
-        <v>0.525468</v>
+        <v>0.524796</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.614805</v>
+        <v>0.614397</v>
       </c>
       <c r="C120" t="n">
-        <v>0.497436</v>
+        <v>0.497122</v>
       </c>
       <c r="D120" t="n">
-        <v>0.515933</v>
+        <v>0.515815</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.607857</v>
+        <v>0.606394</v>
       </c>
       <c r="C121" t="n">
-        <v>0.490283</v>
+        <v>0.489572</v>
       </c>
       <c r="D121" t="n">
-        <v>0.508759</v>
+        <v>0.507756</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.601604</v>
+        <v>0.600521</v>
       </c>
       <c r="C122" t="n">
-        <v>0.48333</v>
+        <v>0.482152</v>
       </c>
       <c r="D122" t="n">
-        <v>0.502806</v>
+        <v>0.501284</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.597606</v>
+        <v>0.596174</v>
       </c>
       <c r="C123" t="n">
-        <v>0.478319</v>
+        <v>0.477677</v>
       </c>
       <c r="D123" t="n">
-        <v>0.499715</v>
+        <v>0.499339</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7884409999999999</v>
+        <v>0.78787</v>
       </c>
       <c r="C124" t="n">
-        <v>0.696954</v>
+        <v>0.696763</v>
       </c>
       <c r="D124" t="n">
-        <v>0.728922</v>
+        <v>0.729187</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.779444</v>
+        <v>0.77833</v>
       </c>
       <c r="C125" t="n">
-        <v>0.684259</v>
+        <v>0.685016</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7142269999999999</v>
+        <v>0.714083</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.769767</v>
+        <v>0.769209</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6708190000000001</v>
+        <v>0.672164</v>
       </c>
       <c r="D126" t="n">
-        <v>0.698748</v>
+        <v>0.69959</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.760867</v>
+        <v>0.76019</v>
       </c>
       <c r="C127" t="n">
-        <v>0.659739</v>
+        <v>0.659842</v>
       </c>
       <c r="D127" t="n">
-        <v>0.68479</v>
+        <v>0.6854</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.752928</v>
+        <v>0.752189</v>
       </c>
       <c r="C128" t="n">
-        <v>0.648838</v>
+        <v>0.648892</v>
       </c>
       <c r="D128" t="n">
-        <v>0.671916</v>
+        <v>0.6731470000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.745019</v>
+        <v>0.744769</v>
       </c>
       <c r="C129" t="n">
-        <v>0.63928</v>
+        <v>0.640397</v>
       </c>
       <c r="D129" t="n">
-        <v>0.660382</v>
+        <v>0.661179</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737749</v>
+        <v>0.737495</v>
       </c>
       <c r="C130" t="n">
-        <v>0.629955</v>
+        <v>0.630094</v>
       </c>
       <c r="D130" t="n">
-        <v>0.647266</v>
+        <v>0.649416</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.730822</v>
+        <v>0.730417</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6213959999999999</v>
+        <v>0.6217510000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.637744</v>
+        <v>0.638757</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.724382</v>
+        <v>0.724175</v>
       </c>
       <c r="C132" t="n">
-        <v>0.612704</v>
+        <v>0.614226</v>
       </c>
       <c r="D132" t="n">
-        <v>0.628151</v>
+        <v>0.628763</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.718826</v>
+        <v>0.718132</v>
       </c>
       <c r="C133" t="n">
-        <v>0.605509</v>
+        <v>0.606275</v>
       </c>
       <c r="D133" t="n">
-        <v>0.619211</v>
+        <v>0.618665</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.71378</v>
+        <v>0.713103</v>
       </c>
       <c r="C134" t="n">
-        <v>0.599438</v>
+        <v>0.598866</v>
       </c>
       <c r="D134" t="n">
-        <v>0.611271</v>
+        <v>0.610994</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.709495</v>
+        <v>0.708216</v>
       </c>
       <c r="C135" t="n">
-        <v>0.593622</v>
+        <v>0.593851</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603183</v>
+        <v>0.603615</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.704716</v>
+        <v>0.704278</v>
       </c>
       <c r="C136" t="n">
-        <v>0.588668</v>
+        <v>0.588716</v>
       </c>
       <c r="D136" t="n">
-        <v>0.597118</v>
+        <v>0.596191</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.701479</v>
+        <v>0.701059</v>
       </c>
       <c r="C137" t="n">
-        <v>0.584116</v>
+        <v>0.584722</v>
       </c>
       <c r="D137" t="n">
-        <v>0.591306</v>
+        <v>0.591614</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.886662</v>
+        <v>0.886742</v>
       </c>
       <c r="C138" t="n">
-        <v>0.804016</v>
+        <v>0.803866</v>
       </c>
       <c r="D138" t="n">
-        <v>0.822557</v>
+        <v>0.822659</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.879513</v>
+        <v>0.8797509999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7918770000000001</v>
+        <v>0.792878</v>
       </c>
       <c r="D139" t="n">
-        <v>0.807325</v>
+        <v>0.807922</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.872779</v>
+        <v>0.872759</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7804</v>
+        <v>0.780822</v>
       </c>
       <c r="D140" t="n">
-        <v>0.793744</v>
+        <v>0.793256</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.866368</v>
+        <v>0.86637</v>
       </c>
       <c r="C141" t="n">
-        <v>0.76908</v>
+        <v>0.771031</v>
       </c>
       <c r="D141" t="n">
-        <v>0.779346</v>
+        <v>0.780923</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.860412</v>
+        <v>0.8599020000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.759124</v>
+        <v>0.762276</v>
       </c>
       <c r="D142" t="n">
-        <v>0.76679</v>
+        <v>0.769163</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854277</v>
+        <v>0.854525</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7495810000000001</v>
+        <v>0.7506429999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.754385</v>
+        <v>0.755757</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252146</v>
+        <v>0.252125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201609</v>
+        <v>0.201937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21808</v>
+        <v>0.227984</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24611</v>
+        <v>0.246456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196682</v>
+        <v>0.196356</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211006</v>
+        <v>0.224996</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240572</v>
+        <v>0.241124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190679</v>
+        <v>0.191022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20588</v>
+        <v>0.222147</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236319</v>
+        <v>0.236066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18678</v>
+        <v>0.186722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.202844</v>
+        <v>0.218691</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231922</v>
+        <v>0.231985</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18243</v>
+        <v>0.182485</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199348</v>
+        <v>0.215897</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228963</v>
+        <v>0.229285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181462</v>
+        <v>0.181489</v>
       </c>
       <c r="D7" t="n">
-        <v>0.197578</v>
+        <v>0.209861</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227218</v>
+        <v>0.227508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.180551</v>
+        <v>0.180379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199586</v>
+        <v>0.214013</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228507</v>
+        <v>0.228232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182391</v>
+        <v>0.182441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.205719</v>
+        <v>0.219305</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315339</v>
+        <v>0.31481</v>
       </c>
       <c r="C10" t="n">
-        <v>0.26938</v>
+        <v>0.269563</v>
       </c>
       <c r="D10" t="n">
-        <v>0.294574</v>
+        <v>0.30989</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305367</v>
+        <v>0.305764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260351</v>
+        <v>0.260271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.284018</v>
+        <v>0.300996</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.297222</v>
+        <v>0.296585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252169</v>
+        <v>0.251994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274157</v>
+        <v>0.290943</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288172</v>
+        <v>0.2887</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244063</v>
+        <v>0.243362</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265466</v>
+        <v>0.280948</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280595</v>
+        <v>0.280899</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236625</v>
+        <v>0.236521</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256767</v>
+        <v>0.271941</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273314</v>
+        <v>0.27358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229703</v>
+        <v>0.228963</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248746</v>
+        <v>0.261763</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266223</v>
+        <v>0.266664</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22281</v>
+        <v>0.22296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24107</v>
+        <v>0.252058</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259991</v>
+        <v>0.260073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216629</v>
+        <v>0.216404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234398</v>
+        <v>0.243281</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254133</v>
+        <v>0.254091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211457</v>
+        <v>0.210967</v>
       </c>
       <c r="D18" t="n">
-        <v>0.22838</v>
+        <v>0.242398</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24881</v>
+        <v>0.249287</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206681</v>
+        <v>0.20617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.223289</v>
+        <v>0.236928</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244624</v>
+        <v>0.244598</v>
       </c>
       <c r="C20" t="n">
-        <v>0.202549</v>
+        <v>0.20207</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219308</v>
+        <v>0.232432</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240505</v>
+        <v>0.240656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200177</v>
+        <v>0.199739</v>
       </c>
       <c r="D21" t="n">
-        <v>0.217267</v>
+        <v>0.229033</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238162</v>
+        <v>0.2379</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198853</v>
+        <v>0.198405</v>
       </c>
       <c r="D22" t="n">
-        <v>0.217038</v>
+        <v>0.228417</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237279</v>
+        <v>0.237083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.200064</v>
+        <v>0.199421</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22035</v>
+        <v>0.231635</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323</v>
+        <v>0.323329</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285588</v>
+        <v>0.284682</v>
       </c>
       <c r="D24" t="n">
-        <v>0.309306</v>
+        <v>0.326034</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314114</v>
+        <v>0.314471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276705</v>
+        <v>0.275627</v>
       </c>
       <c r="D25" t="n">
-        <v>0.298678</v>
+        <v>0.315386</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.30517</v>
+        <v>0.305104</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267964</v>
+        <v>0.267339</v>
       </c>
       <c r="D26" t="n">
-        <v>0.288486</v>
+        <v>0.304625</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296821</v>
+        <v>0.297282</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259385</v>
+        <v>0.259009</v>
       </c>
       <c r="D27" t="n">
-        <v>0.279055</v>
+        <v>0.293398</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.288877</v>
+        <v>0.28888</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251155</v>
+        <v>0.250926</v>
       </c>
       <c r="D28" t="n">
-        <v>0.269861</v>
+        <v>0.285176</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281401</v>
+        <v>0.281458</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243493</v>
+        <v>0.243401</v>
       </c>
       <c r="D29" t="n">
-        <v>0.261252</v>
+        <v>0.276286</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274123</v>
+        <v>0.2744</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236778</v>
+        <v>0.236445</v>
       </c>
       <c r="D30" t="n">
-        <v>0.253361</v>
+        <v>0.268029</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267869</v>
+        <v>0.267884</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230013</v>
+        <v>0.229706</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246034</v>
+        <v>0.25716</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26174</v>
+        <v>0.261707</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2234</v>
+        <v>0.223828</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239026</v>
+        <v>0.253394</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256496</v>
+        <v>0.256294</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218306</v>
+        <v>0.218322</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233098</v>
+        <v>0.241136</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251522</v>
+        <v>0.251532</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213114</v>
+        <v>0.21328</v>
       </c>
       <c r="D34" t="n">
-        <v>0.228021</v>
+        <v>0.235908</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247364</v>
+        <v>0.247649</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209</v>
+        <v>0.209835</v>
       </c>
       <c r="D35" t="n">
-        <v>0.224496</v>
+        <v>0.231947</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244446</v>
+        <v>0.243962</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206529</v>
+        <v>0.206753</v>
       </c>
       <c r="D36" t="n">
-        <v>0.223045</v>
+        <v>0.231972</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243032</v>
+        <v>0.242811</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205939</v>
+        <v>0.206287</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224372</v>
+        <v>0.236981</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.325784</v>
+        <v>0.326331</v>
       </c>
       <c r="C38" t="n">
-        <v>0.29464</v>
+        <v>0.294932</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318759</v>
+        <v>0.334999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.317549</v>
+        <v>0.316913</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285426</v>
+        <v>0.285755</v>
       </c>
       <c r="D39" t="n">
-        <v>0.308048</v>
+        <v>0.324342</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309121</v>
+        <v>0.308565</v>
       </c>
       <c r="C40" t="n">
-        <v>0.276584</v>
+        <v>0.277083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297786</v>
+        <v>0.313389</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301098</v>
+        <v>0.301561</v>
       </c>
       <c r="C41" t="n">
-        <v>0.268201</v>
+        <v>0.268379</v>
       </c>
       <c r="D41" t="n">
-        <v>0.288083</v>
+        <v>0.303424</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292561</v>
+        <v>0.292743</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260086</v>
+        <v>0.260702</v>
       </c>
       <c r="D42" t="n">
-        <v>0.278756</v>
+        <v>0.293621</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285415</v>
+        <v>0.285256</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252545</v>
+        <v>0.253065</v>
       </c>
       <c r="D43" t="n">
-        <v>0.270149</v>
+        <v>0.284647</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279291</v>
+        <v>0.278494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245205</v>
+        <v>0.245907</v>
       </c>
       <c r="D44" t="n">
-        <v>0.261987</v>
+        <v>0.276467</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.271984</v>
+        <v>0.272051</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238728</v>
+        <v>0.239325</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254342</v>
+        <v>0.268822</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.267282</v>
+        <v>0.266389</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232551</v>
+        <v>0.233277</v>
       </c>
       <c r="D46" t="n">
-        <v>0.247572</v>
+        <v>0.256006</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261154</v>
+        <v>0.260795</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227165</v>
+        <v>0.227742</v>
       </c>
       <c r="D47" t="n">
-        <v>0.241634</v>
+        <v>0.255808</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256985</v>
+        <v>0.257124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222155</v>
+        <v>0.223001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23627</v>
+        <v>0.244113</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.253475</v>
+        <v>0.25341</v>
       </c>
       <c r="C49" t="n">
-        <v>0.217967</v>
+        <v>0.219024</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232565</v>
+        <v>0.244998</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249358</v>
+        <v>0.248856</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215019</v>
+        <v>0.21601</v>
       </c>
       <c r="D50" t="n">
-        <v>0.230282</v>
+        <v>0.243235</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247869</v>
+        <v>0.247103</v>
       </c>
       <c r="C51" t="n">
-        <v>0.213721</v>
+        <v>0.214671</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230742</v>
+        <v>0.241111</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.248605</v>
+        <v>0.249065</v>
       </c>
       <c r="C52" t="n">
-        <v>0.214798</v>
+        <v>0.21547</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234516</v>
+        <v>0.247151</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329315</v>
+        <v>0.329457</v>
       </c>
       <c r="C53" t="n">
-        <v>0.296112</v>
+        <v>0.296289</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318711</v>
+        <v>0.334498</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321398</v>
+        <v>0.320976</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287353</v>
+        <v>0.287482</v>
       </c>
       <c r="D54" t="n">
-        <v>0.308712</v>
+        <v>0.319168</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313717</v>
+        <v>0.312891</v>
       </c>
       <c r="C55" t="n">
-        <v>0.278957</v>
+        <v>0.27913</v>
       </c>
       <c r="D55" t="n">
-        <v>0.298623</v>
+        <v>0.313614</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306432</v>
+        <v>0.305343</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271139</v>
+        <v>0.271149</v>
       </c>
       <c r="D56" t="n">
-        <v>0.289674</v>
+        <v>0.304137</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.299501</v>
+        <v>0.298096</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263849</v>
+        <v>0.263568</v>
       </c>
       <c r="D57" t="n">
-        <v>0.280823</v>
+        <v>0.295219</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293</v>
+        <v>0.291368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256718</v>
+        <v>0.25654</v>
       </c>
       <c r="D58" t="n">
-        <v>0.272666</v>
+        <v>0.284303</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286773</v>
+        <v>0.285173</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250211</v>
+        <v>0.250006</v>
       </c>
       <c r="D59" t="n">
-        <v>0.264844</v>
+        <v>0.278804</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281352</v>
+        <v>0.279335</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244125</v>
+        <v>0.243893</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258266</v>
+        <v>0.271505</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276059</v>
+        <v>0.274584</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238543</v>
+        <v>0.238263</v>
       </c>
       <c r="D61" t="n">
-        <v>0.251818</v>
+        <v>0.265074</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271407</v>
+        <v>0.270627</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233546</v>
+        <v>0.233317</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246659</v>
+        <v>0.25953</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267789</v>
+        <v>0.267223</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229464</v>
+        <v>0.229392</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242558</v>
+        <v>0.255228</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264934</v>
+        <v>0.264548</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226202</v>
+        <v>0.226125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.239734</v>
+        <v>0.252173</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263466</v>
+        <v>0.262923</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224301</v>
+        <v>0.224229</v>
       </c>
       <c r="D65" t="n">
-        <v>0.239707</v>
+        <v>0.251754</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264058</v>
+        <v>0.263437</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225205</v>
+        <v>0.224974</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243113</v>
+        <v>0.253872</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.38572</v>
+        <v>0.384285</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332086</v>
+        <v>0.332066</v>
       </c>
       <c r="D67" t="n">
-        <v>0.352994</v>
+        <v>0.35769</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.378102</v>
+        <v>0.376299</v>
       </c>
       <c r="C68" t="n">
-        <v>0.32296</v>
+        <v>0.322747</v>
       </c>
       <c r="D68" t="n">
-        <v>0.342556</v>
+        <v>0.346588</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.370845</v>
+        <v>0.369147</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314144</v>
+        <v>0.313961</v>
       </c>
       <c r="D69" t="n">
-        <v>0.332249</v>
+        <v>0.336215</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.364265</v>
+        <v>0.362853</v>
       </c>
       <c r="C70" t="n">
-        <v>0.305527</v>
+        <v>0.305525</v>
       </c>
       <c r="D70" t="n">
-        <v>0.322335</v>
+        <v>0.326365</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.357741</v>
+        <v>0.356704</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297464</v>
+        <v>0.297403</v>
       </c>
       <c r="D71" t="n">
-        <v>0.313018</v>
+        <v>0.322862</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.351418</v>
+        <v>0.350522</v>
       </c>
       <c r="C72" t="n">
-        <v>0.289735</v>
+        <v>0.289705</v>
       </c>
       <c r="D72" t="n">
-        <v>0.304211</v>
+        <v>0.314227</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.345427</v>
+        <v>0.344549</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28246</v>
+        <v>0.282479</v>
       </c>
       <c r="D73" t="n">
-        <v>0.295988</v>
+        <v>0.305946</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.339316</v>
+        <v>0.3389</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275589</v>
+        <v>0.275598</v>
       </c>
       <c r="D74" t="n">
-        <v>0.288343</v>
+        <v>0.298374</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333705</v>
+        <v>0.333206</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269211</v>
+        <v>0.269359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.281322</v>
+        <v>0.291407</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327775</v>
+        <v>0.327856</v>
       </c>
       <c r="C76" t="n">
-        <v>0.263595</v>
+        <v>0.263625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.275493</v>
+        <v>0.285014</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.323199</v>
+        <v>0.32312</v>
       </c>
       <c r="C77" t="n">
-        <v>0.258537</v>
+        <v>0.258604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.27052</v>
+        <v>0.279483</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318675</v>
+        <v>0.318811</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254479</v>
+        <v>0.254744</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266518</v>
+        <v>0.276168</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315347</v>
+        <v>0.315711</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251941</v>
+        <v>0.252137</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265528</v>
+        <v>0.274549</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.313737</v>
+        <v>0.314208</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251461</v>
+        <v>0.251575</v>
       </c>
       <c r="D80" t="n">
-        <v>0.267363</v>
+        <v>0.276506</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.553077</v>
+        <v>0.5527339999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.398275</v>
+        <v>0.398267</v>
       </c>
       <c r="D81" t="n">
-        <v>0.419231</v>
+        <v>0.427432</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.545806</v>
+        <v>0.5458</v>
       </c>
       <c r="C82" t="n">
-        <v>0.391734</v>
+        <v>0.391443</v>
       </c>
       <c r="D82" t="n">
-        <v>0.411273</v>
+        <v>0.413344</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.536524</v>
+        <v>0.5362749999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.381263</v>
+        <v>0.383469</v>
       </c>
       <c r="D83" t="n">
-        <v>0.399227</v>
+        <v>0.409683</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5269470000000001</v>
+        <v>0.527231</v>
       </c>
       <c r="C84" t="n">
-        <v>0.372678</v>
+        <v>0.37357</v>
       </c>
       <c r="D84" t="n">
-        <v>0.38909</v>
+        <v>0.397909</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.517521</v>
+        <v>0.517833</v>
       </c>
       <c r="C85" t="n">
-        <v>0.363999</v>
+        <v>0.363685</v>
       </c>
       <c r="D85" t="n">
-        <v>0.379762</v>
+        <v>0.380898</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.508041</v>
+        <v>0.508008</v>
       </c>
       <c r="C86" t="n">
-        <v>0.355101</v>
+        <v>0.354622</v>
       </c>
       <c r="D86" t="n">
-        <v>0.369706</v>
+        <v>0.376801</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.498569</v>
+        <v>0.498716</v>
       </c>
       <c r="C87" t="n">
-        <v>0.346297</v>
+        <v>0.345692</v>
       </c>
       <c r="D87" t="n">
-        <v>0.360559</v>
+        <v>0.363936</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.488952</v>
+        <v>0.489304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.338292</v>
+        <v>0.337943</v>
       </c>
       <c r="D88" t="n">
-        <v>0.351255</v>
+        <v>0.357632</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.480237</v>
+        <v>0.4803</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330411</v>
+        <v>0.331146</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3433</v>
+        <v>0.344789</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471396</v>
+        <v>0.471622</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324023</v>
+        <v>0.323648</v>
       </c>
       <c r="D90" t="n">
-        <v>0.336471</v>
+        <v>0.33708</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.463312</v>
+        <v>0.463162</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317939</v>
+        <v>0.317161</v>
       </c>
       <c r="D91" t="n">
-        <v>0.32977</v>
+        <v>0.335398</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.455285</v>
+        <v>0.455472</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313423</v>
+        <v>0.313165</v>
       </c>
       <c r="D92" t="n">
-        <v>0.32547</v>
+        <v>0.331425</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.448908</v>
+        <v>0.44868</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308878</v>
+        <v>0.30847</v>
       </c>
       <c r="D93" t="n">
-        <v>0.322086</v>
+        <v>0.327835</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.443577</v>
+        <v>0.443787</v>
       </c>
       <c r="C94" t="n">
-        <v>0.305952</v>
+        <v>0.306594</v>
       </c>
       <c r="D94" t="n">
-        <v>0.321133</v>
+        <v>0.326741</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.640379</v>
+        <v>0.641353</v>
       </c>
       <c r="C95" t="n">
-        <v>0.528895</v>
+        <v>0.528743</v>
       </c>
       <c r="D95" t="n">
-        <v>0.555481</v>
+        <v>0.564082</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.636146</v>
+        <v>0.636998</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5211440000000001</v>
+        <v>0.522056</v>
       </c>
       <c r="D96" t="n">
-        <v>0.546107</v>
+        <v>0.558774</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.625452</v>
+        <v>0.626305</v>
       </c>
       <c r="C97" t="n">
-        <v>0.508548</v>
+        <v>0.509511</v>
       </c>
       <c r="D97" t="n">
-        <v>0.531538</v>
+        <v>0.539216</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.613579</v>
+        <v>0.614838</v>
       </c>
       <c r="C98" t="n">
-        <v>0.495106</v>
+        <v>0.496039</v>
       </c>
       <c r="D98" t="n">
-        <v>0.516844</v>
+        <v>0.525678</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.602858</v>
+        <v>0.604065</v>
       </c>
       <c r="C99" t="n">
-        <v>0.482365</v>
+        <v>0.483697</v>
       </c>
       <c r="D99" t="n">
-        <v>0.502448</v>
+        <v>0.513107</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.591953</v>
+        <v>0.594013</v>
       </c>
       <c r="C100" t="n">
-        <v>0.470258</v>
+        <v>0.469994</v>
       </c>
       <c r="D100" t="n">
-        <v>0.48888</v>
+        <v>0.499215</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.581229</v>
+        <v>0.583041</v>
       </c>
       <c r="C101" t="n">
-        <v>0.458339</v>
+        <v>0.460512</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476351</v>
+        <v>0.481314</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.571354</v>
+        <v>0.57359</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447487</v>
+        <v>0.448332</v>
       </c>
       <c r="D102" t="n">
-        <v>0.464318</v>
+        <v>0.468905</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5623050000000001</v>
+        <v>0.564596</v>
       </c>
       <c r="C103" t="n">
-        <v>0.436622</v>
+        <v>0.437958</v>
       </c>
       <c r="D103" t="n">
-        <v>0.452732</v>
+        <v>0.462805</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.553237</v>
+        <v>0.55597</v>
       </c>
       <c r="C104" t="n">
-        <v>0.427592</v>
+        <v>0.428026</v>
       </c>
       <c r="D104" t="n">
-        <v>0.443493</v>
+        <v>0.448259</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.544896</v>
+        <v>0.548069</v>
       </c>
       <c r="C105" t="n">
-        <v>0.41899</v>
+        <v>0.419488</v>
       </c>
       <c r="D105" t="n">
-        <v>0.433604</v>
+        <v>0.442691</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.537951</v>
+        <v>0.540748</v>
       </c>
       <c r="C106" t="n">
-        <v>0.411788</v>
+        <v>0.410954</v>
       </c>
       <c r="D106" t="n">
-        <v>0.426443</v>
+        <v>0.434912</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5313369999999999</v>
+        <v>0.534246</v>
       </c>
       <c r="C107" t="n">
-        <v>0.404795</v>
+        <v>0.404562</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419913</v>
+        <v>0.427164</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526184</v>
+        <v>0.529013</v>
       </c>
       <c r="C108" t="n">
-        <v>0.400366</v>
+        <v>0.401393</v>
       </c>
       <c r="D108" t="n">
-        <v>0.416892</v>
+        <v>0.426018</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.522968</v>
+        <v>0.526451</v>
       </c>
       <c r="C109" t="n">
-        <v>0.39881</v>
+        <v>0.400097</v>
       </c>
       <c r="D109" t="n">
-        <v>0.417391</v>
+        <v>0.426664</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.718905</v>
+        <v>0.721228</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6143110000000001</v>
+        <v>0.616005</v>
       </c>
       <c r="D110" t="n">
-        <v>0.648707</v>
+        <v>0.663641</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7066210000000001</v>
+        <v>0.709019</v>
       </c>
       <c r="C111" t="n">
-        <v>0.600002</v>
+        <v>0.600719</v>
       </c>
       <c r="D111" t="n">
-        <v>0.633723</v>
+        <v>0.647074</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.693782</v>
+        <v>0.695765</v>
       </c>
       <c r="C112" t="n">
-        <v>0.586448</v>
+        <v>0.587174</v>
       </c>
       <c r="D112" t="n">
-        <v>0.617788</v>
+        <v>0.629627</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.681173</v>
+        <v>0.683738</v>
       </c>
       <c r="C113" t="n">
-        <v>0.573199</v>
+        <v>0.573078</v>
       </c>
       <c r="D113" t="n">
-        <v>0.602735</v>
+        <v>0.619147</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.669822</v>
+        <v>0.6719889999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5595599999999999</v>
+        <v>0.560528</v>
       </c>
       <c r="D114" t="n">
-        <v>0.587642</v>
+        <v>0.601502</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.658782</v>
+        <v>0.661388</v>
       </c>
       <c r="C115" t="n">
-        <v>0.547497</v>
+        <v>0.548967</v>
       </c>
       <c r="D115" t="n">
-        <v>0.572636</v>
+        <v>0.586711</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.648441</v>
+        <v>0.650971</v>
       </c>
       <c r="C116" t="n">
-        <v>0.535721</v>
+        <v>0.536031</v>
       </c>
       <c r="D116" t="n">
-        <v>0.560071</v>
+        <v>0.567672</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.639344</v>
+        <v>0.641754</v>
       </c>
       <c r="C117" t="n">
-        <v>0.524409</v>
+        <v>0.5252599999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.547661</v>
+        <v>0.558808</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.630626</v>
+        <v>0.6737570000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.514725</v>
+        <v>0.556478</v>
       </c>
       <c r="D118" t="n">
-        <v>0.536116</v>
+        <v>0.580979</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622335</v>
+        <v>0.666131</v>
       </c>
       <c r="C119" t="n">
-        <v>0.50502</v>
+        <v>0.545411</v>
       </c>
       <c r="D119" t="n">
-        <v>0.524796</v>
+        <v>0.564201</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.614397</v>
+        <v>0.657666</v>
       </c>
       <c r="C120" t="n">
-        <v>0.497122</v>
+        <v>0.536805</v>
       </c>
       <c r="D120" t="n">
-        <v>0.515815</v>
+        <v>0.554724</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.606394</v>
+        <v>0.6500860000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.489572</v>
+        <v>0.527571</v>
       </c>
       <c r="D121" t="n">
-        <v>0.507756</v>
+        <v>0.549741</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.600521</v>
+        <v>0.644037</v>
       </c>
       <c r="C122" t="n">
-        <v>0.482152</v>
+        <v>0.521196</v>
       </c>
       <c r="D122" t="n">
-        <v>0.501284</v>
+        <v>0.5464869999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.596174</v>
+        <v>0.640493</v>
       </c>
       <c r="C123" t="n">
-        <v>0.477677</v>
+        <v>0.518649</v>
       </c>
       <c r="D123" t="n">
-        <v>0.499339</v>
+        <v>0.545559</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.78787</v>
+        <v>0.842155</v>
       </c>
       <c r="C124" t="n">
-        <v>0.696763</v>
+        <v>0.748022</v>
       </c>
       <c r="D124" t="n">
-        <v>0.729187</v>
+        <v>0.795215</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.77833</v>
+        <v>0.833766</v>
       </c>
       <c r="C125" t="n">
-        <v>0.685016</v>
+        <v>0.735885</v>
       </c>
       <c r="D125" t="n">
-        <v>0.714083</v>
+        <v>0.77973</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.769209</v>
+        <v>0.824708</v>
       </c>
       <c r="C126" t="n">
-        <v>0.672164</v>
+        <v>0.72122</v>
       </c>
       <c r="D126" t="n">
-        <v>0.69959</v>
+        <v>0.763536</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.76019</v>
+        <v>0.815326</v>
       </c>
       <c r="C127" t="n">
-        <v>0.659842</v>
+        <v>0.709932</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6854</v>
+        <v>0.748265</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.752189</v>
+        <v>0.80642</v>
       </c>
       <c r="C128" t="n">
-        <v>0.648892</v>
+        <v>0.698298</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6731470000000001</v>
+        <v>0.732217</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.744769</v>
+        <v>0.7996529999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.640397</v>
+        <v>0.686995</v>
       </c>
       <c r="D129" t="n">
-        <v>0.661179</v>
+        <v>0.721267</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737495</v>
+        <v>0.792326</v>
       </c>
       <c r="C130" t="n">
-        <v>0.630094</v>
+        <v>0.676583</v>
       </c>
       <c r="D130" t="n">
-        <v>0.649416</v>
+        <v>0.705622</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.730417</v>
+        <v>0.785643</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6217510000000001</v>
+        <v>0.66712</v>
       </c>
       <c r="D131" t="n">
-        <v>0.638757</v>
+        <v>0.693263</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.724175</v>
+        <v>0.779172</v>
       </c>
       <c r="C132" t="n">
-        <v>0.614226</v>
+        <v>0.658474</v>
       </c>
       <c r="D132" t="n">
-        <v>0.628763</v>
+        <v>0.686449</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.718132</v>
+        <v>0.773944</v>
       </c>
       <c r="C133" t="n">
-        <v>0.606275</v>
+        <v>0.650516</v>
       </c>
       <c r="D133" t="n">
-        <v>0.618665</v>
+        <v>0.6770389999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.713103</v>
+        <v>0.769379</v>
       </c>
       <c r="C134" t="n">
-        <v>0.598866</v>
+        <v>0.643117</v>
       </c>
       <c r="D134" t="n">
-        <v>0.610994</v>
+        <v>0.66683</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.708216</v>
+        <v>0.764157</v>
       </c>
       <c r="C135" t="n">
-        <v>0.593851</v>
+        <v>0.6364379999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.603615</v>
+        <v>0.655567</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.704278</v>
+        <v>0.761921</v>
       </c>
       <c r="C136" t="n">
-        <v>0.588716</v>
+        <v>0.632526</v>
       </c>
       <c r="D136" t="n">
-        <v>0.596191</v>
+        <v>0.649962</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.701059</v>
+        <v>0.759039</v>
       </c>
       <c r="C137" t="n">
-        <v>0.584722</v>
+        <v>0.629074</v>
       </c>
       <c r="D137" t="n">
-        <v>0.591614</v>
+        <v>0.6539469999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.886742</v>
+        <v>0.946711</v>
       </c>
       <c r="C138" t="n">
-        <v>0.803866</v>
+        <v>0.865281</v>
       </c>
       <c r="D138" t="n">
-        <v>0.822659</v>
+        <v>0.909015</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8797509999999999</v>
+        <v>0.9405019999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.792878</v>
+        <v>0.851733</v>
       </c>
       <c r="D139" t="n">
-        <v>0.807922</v>
+        <v>0.891034</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.872759</v>
+        <v>0.933818</v>
       </c>
       <c r="C140" t="n">
-        <v>0.780822</v>
+        <v>0.841316</v>
       </c>
       <c r="D140" t="n">
-        <v>0.793256</v>
+        <v>0.876347</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.86637</v>
+        <v>0.927973</v>
       </c>
       <c r="C141" t="n">
-        <v>0.771031</v>
+        <v>0.828815</v>
       </c>
       <c r="D141" t="n">
-        <v>0.780923</v>
+        <v>0.854371</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8599020000000001</v>
+        <v>0.923524</v>
       </c>
       <c r="C142" t="n">
-        <v>0.762276</v>
+        <v>0.819735</v>
       </c>
       <c r="D142" t="n">
-        <v>0.769163</v>
+        <v>0.840581</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.854525</v>
+        <v>0.918264</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7506429999999999</v>
+        <v>0.8100579999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.755757</v>
+        <v>0.827928</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252125</v>
+        <v>0.251088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201937</v>
+        <v>0.202306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227984</v>
+        <v>0.189467</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.246456</v>
+        <v>0.245275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196356</v>
+        <v>0.196095</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224996</v>
+        <v>0.182985</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.241124</v>
+        <v>0.239914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191022</v>
+        <v>0.191537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222147</v>
+        <v>0.17846</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.236066</v>
+        <v>0.235779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186722</v>
+        <v>0.186684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.218691</v>
+        <v>0.174907</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231985</v>
+        <v>0.231499</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182485</v>
+        <v>0.182235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215897</v>
+        <v>0.171602</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229285</v>
+        <v>0.229021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181489</v>
+        <v>0.181025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.209861</v>
+        <v>0.170334</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227508</v>
+        <v>0.227782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.180379</v>
+        <v>0.180444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.214013</v>
+        <v>0.171943</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228232</v>
+        <v>0.228136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182441</v>
+        <v>0.182748</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219305</v>
+        <v>0.261115</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31481</v>
+        <v>0.314996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.269563</v>
+        <v>0.269782</v>
       </c>
       <c r="D10" t="n">
-        <v>0.30989</v>
+        <v>0.252189</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305764</v>
+        <v>0.306085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260271</v>
+        <v>0.260982</v>
       </c>
       <c r="D11" t="n">
-        <v>0.300996</v>
+        <v>0.243505</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296585</v>
+        <v>0.29713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.251994</v>
+        <v>0.252234</v>
       </c>
       <c r="D12" t="n">
-        <v>0.290943</v>
+        <v>0.235392</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2887</v>
+        <v>0.289151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243362</v>
+        <v>0.244036</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280948</v>
+        <v>0.227354</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280899</v>
+        <v>0.281331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236521</v>
+        <v>0.236501</v>
       </c>
       <c r="D14" t="n">
-        <v>0.271941</v>
+        <v>0.220492</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27358</v>
+        <v>0.274002</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228963</v>
+        <v>0.229519</v>
       </c>
       <c r="D15" t="n">
-        <v>0.261763</v>
+        <v>0.213659</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266664</v>
+        <v>0.267185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22296</v>
+        <v>0.222494</v>
       </c>
       <c r="D16" t="n">
-        <v>0.252058</v>
+        <v>0.207313</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260073</v>
+        <v>0.260579</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216404</v>
+        <v>0.216414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.243281</v>
+        <v>0.202019</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254091</v>
+        <v>0.254843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210967</v>
+        <v>0.210926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.242398</v>
+        <v>0.196728</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249287</v>
+        <v>0.249681</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20617</v>
+        <v>0.206151</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236928</v>
+        <v>0.19307</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244598</v>
+        <v>0.244909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.20207</v>
+        <v>0.201799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.232432</v>
+        <v>0.190321</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240656</v>
+        <v>0.24124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199739</v>
+        <v>0.199202</v>
       </c>
       <c r="D21" t="n">
-        <v>0.229033</v>
+        <v>0.189176</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2379</v>
+        <v>0.238903</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198405</v>
+        <v>0.197935</v>
       </c>
       <c r="D22" t="n">
-        <v>0.228417</v>
+        <v>0.19032</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237083</v>
+        <v>0.238515</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199421</v>
+        <v>0.198864</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231635</v>
+        <v>0.278181</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.323329</v>
+        <v>0.32477</v>
       </c>
       <c r="C24" t="n">
-        <v>0.284682</v>
+        <v>0.284208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.326034</v>
+        <v>0.269096</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314471</v>
+        <v>0.315511</v>
       </c>
       <c r="C25" t="n">
-        <v>0.275627</v>
+        <v>0.275055</v>
       </c>
       <c r="D25" t="n">
-        <v>0.315386</v>
+        <v>0.25992</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305104</v>
+        <v>0.30659</v>
       </c>
       <c r="C26" t="n">
-        <v>0.267339</v>
+        <v>0.266308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.304625</v>
+        <v>0.251474</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297282</v>
+        <v>0.298078</v>
       </c>
       <c r="C27" t="n">
-        <v>0.259009</v>
+        <v>0.257628</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293398</v>
+        <v>0.243317</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28888</v>
+        <v>0.289934</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250926</v>
+        <v>0.249752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.285176</v>
+        <v>0.235788</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281458</v>
+        <v>0.282151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.243401</v>
+        <v>0.242005</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276286</v>
+        <v>0.228796</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2744</v>
+        <v>0.275053</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236445</v>
+        <v>0.235233</v>
       </c>
       <c r="D30" t="n">
-        <v>0.268029</v>
+        <v>0.22191</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267884</v>
+        <v>0.268316</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229706</v>
+        <v>0.228653</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25716</v>
+        <v>0.215888</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261707</v>
+        <v>0.262168</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223828</v>
+        <v>0.222458</v>
       </c>
       <c r="D32" t="n">
-        <v>0.253394</v>
+        <v>0.210045</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256294</v>
+        <v>0.256653</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218322</v>
+        <v>0.216799</v>
       </c>
       <c r="D33" t="n">
-        <v>0.241136</v>
+        <v>0.205348</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251532</v>
+        <v>0.251722</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21328</v>
+        <v>0.211913</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235908</v>
+        <v>0.201353</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247649</v>
+        <v>0.24744</v>
       </c>
       <c r="C35" t="n">
-        <v>0.209835</v>
+        <v>0.20783</v>
       </c>
       <c r="D35" t="n">
-        <v>0.231947</v>
+        <v>0.198844</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243962</v>
+        <v>0.244567</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206753</v>
+        <v>0.205348</v>
       </c>
       <c r="D36" t="n">
-        <v>0.231972</v>
+        <v>0.198211</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.242811</v>
+        <v>0.243419</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206287</v>
+        <v>0.204686</v>
       </c>
       <c r="D37" t="n">
-        <v>0.236981</v>
+        <v>0.287719</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326331</v>
+        <v>0.326871</v>
       </c>
       <c r="C38" t="n">
-        <v>0.294932</v>
+        <v>0.292456</v>
       </c>
       <c r="D38" t="n">
-        <v>0.334999</v>
+        <v>0.278269</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.316913</v>
+        <v>0.318636</v>
       </c>
       <c r="C39" t="n">
-        <v>0.285755</v>
+        <v>0.283491</v>
       </c>
       <c r="D39" t="n">
-        <v>0.324342</v>
+        <v>0.269619</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.308565</v>
+        <v>0.310191</v>
       </c>
       <c r="C40" t="n">
-        <v>0.277083</v>
+        <v>0.274715</v>
       </c>
       <c r="D40" t="n">
-        <v>0.313389</v>
+        <v>0.260868</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301561</v>
+        <v>0.302135</v>
       </c>
       <c r="C41" t="n">
-        <v>0.268379</v>
+        <v>0.266337</v>
       </c>
       <c r="D41" t="n">
-        <v>0.303424</v>
+        <v>0.252567</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.292743</v>
+        <v>0.294609</v>
       </c>
       <c r="C42" t="n">
-        <v>0.260702</v>
+        <v>0.258332</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293621</v>
+        <v>0.245068</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.285256</v>
+        <v>0.287265</v>
       </c>
       <c r="C43" t="n">
-        <v>0.253065</v>
+        <v>0.250725</v>
       </c>
       <c r="D43" t="n">
-        <v>0.284647</v>
+        <v>0.237628</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.278494</v>
+        <v>0.280131</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245907</v>
+        <v>0.243575</v>
       </c>
       <c r="D44" t="n">
-        <v>0.276467</v>
+        <v>0.230915</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272051</v>
+        <v>0.274117</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239325</v>
+        <v>0.23712</v>
       </c>
       <c r="D45" t="n">
-        <v>0.268822</v>
+        <v>0.224774</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266389</v>
+        <v>0.268232</v>
       </c>
       <c r="C46" t="n">
-        <v>0.233277</v>
+        <v>0.230918</v>
       </c>
       <c r="D46" t="n">
-        <v>0.256006</v>
+        <v>0.219056</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260795</v>
+        <v>0.262807</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227742</v>
+        <v>0.225566</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255808</v>
+        <v>0.214215</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257124</v>
+        <v>0.257895</v>
       </c>
       <c r="C48" t="n">
-        <v>0.223001</v>
+        <v>0.220555</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244113</v>
+        <v>0.209961</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.25341</v>
+        <v>0.254079</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219024</v>
+        <v>0.216433</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244998</v>
+        <v>0.207213</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248856</v>
+        <v>0.251155</v>
       </c>
       <c r="C50" t="n">
-        <v>0.21601</v>
+        <v>0.213587</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243235</v>
+        <v>0.20611</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247103</v>
+        <v>0.249564</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214671</v>
+        <v>0.212404</v>
       </c>
       <c r="D51" t="n">
-        <v>0.241111</v>
+        <v>0.298441</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249065</v>
+        <v>0.249817</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21547</v>
+        <v>0.213692</v>
       </c>
       <c r="D52" t="n">
-        <v>0.247151</v>
+        <v>0.289016</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.329457</v>
+        <v>0.332176</v>
       </c>
       <c r="C53" t="n">
-        <v>0.296289</v>
+        <v>0.294255</v>
       </c>
       <c r="D53" t="n">
-        <v>0.334498</v>
+        <v>0.280005</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.320976</v>
+        <v>0.323628</v>
       </c>
       <c r="C54" t="n">
-        <v>0.287482</v>
+        <v>0.285461</v>
       </c>
       <c r="D54" t="n">
-        <v>0.319168</v>
+        <v>0.27147</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.312891</v>
+        <v>0.315531</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27913</v>
+        <v>0.277065</v>
       </c>
       <c r="D55" t="n">
-        <v>0.313614</v>
+        <v>0.263336</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.305343</v>
+        <v>0.307727</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271149</v>
+        <v>0.269119</v>
       </c>
       <c r="D56" t="n">
-        <v>0.304137</v>
+        <v>0.25568</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.298096</v>
+        <v>0.300326</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263568</v>
+        <v>0.261678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295219</v>
+        <v>0.248401</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.291368</v>
+        <v>0.293451</v>
       </c>
       <c r="C58" t="n">
-        <v>0.25654</v>
+        <v>0.254465</v>
       </c>
       <c r="D58" t="n">
-        <v>0.284303</v>
+        <v>0.241486</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.285173</v>
+        <v>0.287328</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250006</v>
+        <v>0.247904</v>
       </c>
       <c r="D59" t="n">
-        <v>0.278804</v>
+        <v>0.23525</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.279335</v>
+        <v>0.281359</v>
       </c>
       <c r="C60" t="n">
-        <v>0.243893</v>
+        <v>0.241789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.271505</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.274584</v>
+        <v>0.276153</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238263</v>
+        <v>0.236255</v>
       </c>
       <c r="D61" t="n">
-        <v>0.265074</v>
+        <v>0.224587</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270627</v>
+        <v>0.271384</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233317</v>
+        <v>0.2313</v>
       </c>
       <c r="D62" t="n">
-        <v>0.25953</v>
+        <v>0.22028</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267223</v>
+        <v>0.267488</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229392</v>
+        <v>0.227379</v>
       </c>
       <c r="D63" t="n">
-        <v>0.255228</v>
+        <v>0.217039</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264548</v>
+        <v>0.264815</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226125</v>
+        <v>0.224068</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252173</v>
+        <v>0.215356</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262923</v>
+        <v>0.263494</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224229</v>
+        <v>0.222318</v>
       </c>
       <c r="D65" t="n">
-        <v>0.251754</v>
+        <v>0.216151</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.263437</v>
+        <v>0.264051</v>
       </c>
       <c r="C66" t="n">
-        <v>0.224974</v>
+        <v>0.223085</v>
       </c>
       <c r="D66" t="n">
-        <v>0.253872</v>
+        <v>0.328264</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.384285</v>
+        <v>0.395943</v>
       </c>
       <c r="C67" t="n">
-        <v>0.332066</v>
+        <v>0.335899</v>
       </c>
       <c r="D67" t="n">
-        <v>0.35769</v>
+        <v>0.317686</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.376299</v>
+        <v>0.388636</v>
       </c>
       <c r="C68" t="n">
-        <v>0.322747</v>
+        <v>0.326288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.346588</v>
+        <v>0.308735</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.369147</v>
+        <v>0.381495</v>
       </c>
       <c r="C69" t="n">
-        <v>0.313961</v>
+        <v>0.317258</v>
       </c>
       <c r="D69" t="n">
-        <v>0.336215</v>
+        <v>0.299525</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362853</v>
+        <v>0.37501</v>
       </c>
       <c r="C70" t="n">
-        <v>0.305525</v>
+        <v>0.308321</v>
       </c>
       <c r="D70" t="n">
-        <v>0.326365</v>
+        <v>0.29104</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.356704</v>
+        <v>0.369041</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297403</v>
+        <v>0.300068</v>
       </c>
       <c r="D71" t="n">
-        <v>0.322862</v>
+        <v>0.283067</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.350522</v>
+        <v>0.363314</v>
       </c>
       <c r="C72" t="n">
-        <v>0.289705</v>
+        <v>0.292393</v>
       </c>
       <c r="D72" t="n">
-        <v>0.314227</v>
+        <v>0.275407</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.344549</v>
+        <v>0.357546</v>
       </c>
       <c r="C73" t="n">
-        <v>0.282479</v>
+        <v>0.284817</v>
       </c>
       <c r="D73" t="n">
-        <v>0.305946</v>
+        <v>0.268539</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3389</v>
+        <v>0.351988</v>
       </c>
       <c r="C74" t="n">
-        <v>0.275598</v>
+        <v>0.278051</v>
       </c>
       <c r="D74" t="n">
-        <v>0.298374</v>
+        <v>0.261972</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.333206</v>
+        <v>0.346195</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269359</v>
+        <v>0.271489</v>
       </c>
       <c r="D75" t="n">
-        <v>0.291407</v>
+        <v>0.255958</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.327856</v>
+        <v>0.340769</v>
       </c>
       <c r="C76" t="n">
-        <v>0.263625</v>
+        <v>0.26563</v>
       </c>
       <c r="D76" t="n">
-        <v>0.285014</v>
+        <v>0.250816</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.32312</v>
+        <v>0.33597</v>
       </c>
       <c r="C77" t="n">
-        <v>0.258604</v>
+        <v>0.260367</v>
       </c>
       <c r="D77" t="n">
-        <v>0.279483</v>
+        <v>0.24678</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318811</v>
+        <v>0.331997</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254744</v>
+        <v>0.256405</v>
       </c>
       <c r="D78" t="n">
-        <v>0.276168</v>
+        <v>0.244056</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315711</v>
+        <v>0.328545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.252137</v>
+        <v>0.253615</v>
       </c>
       <c r="D79" t="n">
-        <v>0.274549</v>
+        <v>0.243939</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.314208</v>
+        <v>0.326982</v>
       </c>
       <c r="C80" t="n">
-        <v>0.251575</v>
+        <v>0.253264</v>
       </c>
       <c r="D80" t="n">
-        <v>0.276506</v>
+        <v>0.395299</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5527339999999999</v>
+        <v>0.568334</v>
       </c>
       <c r="C81" t="n">
-        <v>0.398267</v>
+        <v>0.425855</v>
       </c>
       <c r="D81" t="n">
-        <v>0.427432</v>
+        <v>0.38885</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5458</v>
+        <v>0.562482</v>
       </c>
       <c r="C82" t="n">
-        <v>0.391443</v>
+        <v>0.419921</v>
       </c>
       <c r="D82" t="n">
-        <v>0.413344</v>
+        <v>0.380224</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5362749999999999</v>
+        <v>0.553128</v>
       </c>
       <c r="C83" t="n">
-        <v>0.383469</v>
+        <v>0.408849</v>
       </c>
       <c r="D83" t="n">
-        <v>0.409683</v>
+        <v>0.369726</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.527231</v>
+        <v>0.544156</v>
       </c>
       <c r="C84" t="n">
-        <v>0.37357</v>
+        <v>0.399186</v>
       </c>
       <c r="D84" t="n">
-        <v>0.397909</v>
+        <v>0.35992</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.517833</v>
+        <v>0.534978</v>
       </c>
       <c r="C85" t="n">
-        <v>0.363685</v>
+        <v>0.388363</v>
       </c>
       <c r="D85" t="n">
-        <v>0.380898</v>
+        <v>0.350399</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.508008</v>
+        <v>0.525995</v>
       </c>
       <c r="C86" t="n">
-        <v>0.354622</v>
+        <v>0.379316</v>
       </c>
       <c r="D86" t="n">
-        <v>0.376801</v>
+        <v>0.342995</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.498716</v>
+        <v>0.516586</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345692</v>
+        <v>0.369886</v>
       </c>
       <c r="D87" t="n">
-        <v>0.363936</v>
+        <v>0.33338</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.489304</v>
+        <v>0.5074070000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337943</v>
+        <v>0.36088</v>
       </c>
       <c r="D88" t="n">
-        <v>0.357632</v>
+        <v>0.325403</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4803</v>
+        <v>0.498822</v>
       </c>
       <c r="C89" t="n">
-        <v>0.331146</v>
+        <v>0.353194</v>
       </c>
       <c r="D89" t="n">
-        <v>0.344789</v>
+        <v>0.31854</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.471622</v>
+        <v>0.490312</v>
       </c>
       <c r="C90" t="n">
-        <v>0.323648</v>
+        <v>0.345006</v>
       </c>
       <c r="D90" t="n">
-        <v>0.33708</v>
+        <v>0.312655</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.463162</v>
+        <v>0.48255</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317161</v>
+        <v>0.33868</v>
       </c>
       <c r="D91" t="n">
-        <v>0.335398</v>
+        <v>0.307162</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.455472</v>
+        <v>0.474418</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313165</v>
+        <v>0.331937</v>
       </c>
       <c r="D92" t="n">
-        <v>0.331425</v>
+        <v>0.301759</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.44868</v>
+        <v>0.467776</v>
       </c>
       <c r="C93" t="n">
-        <v>0.30847</v>
+        <v>0.327634</v>
       </c>
       <c r="D93" t="n">
-        <v>0.327835</v>
+        <v>0.299548</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.443787</v>
+        <v>0.463195</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306594</v>
+        <v>0.325819</v>
       </c>
       <c r="D94" t="n">
-        <v>0.326741</v>
+        <v>0.589688</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.641353</v>
+        <v>0.599067</v>
       </c>
       <c r="C95" t="n">
-        <v>0.528743</v>
+        <v>0.5626989999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.564082</v>
+        <v>0.577192</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.636998</v>
+        <v>0.5994620000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.522056</v>
+        <v>0.5570040000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.558774</v>
+        <v>0.561741</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.626305</v>
+        <v>0.591163</v>
       </c>
       <c r="C97" t="n">
-        <v>0.509511</v>
+        <v>0.542834</v>
       </c>
       <c r="D97" t="n">
-        <v>0.539216</v>
+        <v>0.545732</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.614838</v>
+        <v>0.582616</v>
       </c>
       <c r="C98" t="n">
-        <v>0.496039</v>
+        <v>0.528479</v>
       </c>
       <c r="D98" t="n">
-        <v>0.525678</v>
+        <v>0.5294140000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.604065</v>
+        <v>0.575209</v>
       </c>
       <c r="C99" t="n">
-        <v>0.483697</v>
+        <v>0.5146810000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.513107</v>
+        <v>0.513779</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.594013</v>
+        <v>0.568304</v>
       </c>
       <c r="C100" t="n">
-        <v>0.469994</v>
+        <v>0.501237</v>
       </c>
       <c r="D100" t="n">
-        <v>0.499215</v>
+        <v>0.498704</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.583041</v>
+        <v>0.560848</v>
       </c>
       <c r="C101" t="n">
-        <v>0.460512</v>
+        <v>0.488304</v>
       </c>
       <c r="D101" t="n">
-        <v>0.481314</v>
+        <v>0.484675</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.57359</v>
+        <v>0.553518</v>
       </c>
       <c r="C102" t="n">
-        <v>0.448332</v>
+        <v>0.477562</v>
       </c>
       <c r="D102" t="n">
-        <v>0.468905</v>
+        <v>0.473206</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.564596</v>
+        <v>0.547318</v>
       </c>
       <c r="C103" t="n">
-        <v>0.437958</v>
+        <v>0.466493</v>
       </c>
       <c r="D103" t="n">
-        <v>0.462805</v>
+        <v>0.460699</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.55597</v>
+        <v>0.541442</v>
       </c>
       <c r="C104" t="n">
-        <v>0.428026</v>
+        <v>0.456099</v>
       </c>
       <c r="D104" t="n">
-        <v>0.448259</v>
+        <v>0.450192</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.548069</v>
+        <v>0.535423</v>
       </c>
       <c r="C105" t="n">
-        <v>0.419488</v>
+        <v>0.446818</v>
       </c>
       <c r="D105" t="n">
-        <v>0.442691</v>
+        <v>0.44041</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.540748</v>
+        <v>0.529701</v>
       </c>
       <c r="C106" t="n">
-        <v>0.410954</v>
+        <v>0.438245</v>
       </c>
       <c r="D106" t="n">
-        <v>0.434912</v>
+        <v>0.431901</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.534246</v>
+        <v>0.524973</v>
       </c>
       <c r="C107" t="n">
-        <v>0.404562</v>
+        <v>0.431441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.427164</v>
+        <v>0.425036</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.529013</v>
+        <v>0.522136</v>
       </c>
       <c r="C108" t="n">
-        <v>0.401393</v>
+        <v>0.42585</v>
       </c>
       <c r="D108" t="n">
-        <v>0.426018</v>
+        <v>0.648386</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.526451</v>
+        <v>0.521265</v>
       </c>
       <c r="C109" t="n">
-        <v>0.400097</v>
+        <v>0.425061</v>
       </c>
       <c r="D109" t="n">
-        <v>0.426664</v>
+        <v>0.638312</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.721228</v>
+        <v>0.721442</v>
       </c>
       <c r="C110" t="n">
-        <v>0.616005</v>
+        <v>0.666544</v>
       </c>
       <c r="D110" t="n">
-        <v>0.663641</v>
+        <v>0.622533</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.709019</v>
+        <v>0.711655</v>
       </c>
       <c r="C111" t="n">
-        <v>0.600719</v>
+        <v>0.652269</v>
       </c>
       <c r="D111" t="n">
-        <v>0.647074</v>
+        <v>0.6057439999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.695765</v>
+        <v>0.700192</v>
       </c>
       <c r="C112" t="n">
-        <v>0.587174</v>
+        <v>0.635105</v>
       </c>
       <c r="D112" t="n">
-        <v>0.629627</v>
+        <v>0.590927</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.683738</v>
+        <v>0.6911119999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.573078</v>
+        <v>0.618726</v>
       </c>
       <c r="D113" t="n">
-        <v>0.619147</v>
+        <v>0.575616</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6719889999999999</v>
+        <v>0.681162</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560528</v>
+        <v>0.605631</v>
       </c>
       <c r="D114" t="n">
-        <v>0.601502</v>
+        <v>0.562793</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.661388</v>
+        <v>0.671183</v>
       </c>
       <c r="C115" t="n">
-        <v>0.548967</v>
+        <v>0.5925589999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.586711</v>
+        <v>0.549627</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.650971</v>
+        <v>0.663126</v>
       </c>
       <c r="C116" t="n">
-        <v>0.536031</v>
+        <v>0.5786790000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.567672</v>
+        <v>0.536767</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.641754</v>
+        <v>0.654877</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5252599999999999</v>
+        <v>0.567092</v>
       </c>
       <c r="D117" t="n">
-        <v>0.558808</v>
+        <v>0.524116</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6737570000000001</v>
+        <v>0.645748</v>
       </c>
       <c r="C118" t="n">
-        <v>0.556478</v>
+        <v>0.554596</v>
       </c>
       <c r="D118" t="n">
-        <v>0.580979</v>
+        <v>0.513343</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.666131</v>
+        <v>0.641109</v>
       </c>
       <c r="C119" t="n">
-        <v>0.545411</v>
+        <v>0.544239</v>
       </c>
       <c r="D119" t="n">
-        <v>0.564201</v>
+        <v>0.503485</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.657666</v>
+        <v>0.63367</v>
       </c>
       <c r="C120" t="n">
-        <v>0.536805</v>
+        <v>0.535629</v>
       </c>
       <c r="D120" t="n">
-        <v>0.554724</v>
+        <v>0.496397</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6500860000000001</v>
+        <v>0.628464</v>
       </c>
       <c r="C121" t="n">
-        <v>0.527571</v>
+        <v>0.5282520000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.549741</v>
+        <v>0.489631</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.644037</v>
+        <v>0.619703</v>
       </c>
       <c r="C122" t="n">
-        <v>0.521196</v>
+        <v>0.520402</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5464869999999999</v>
+        <v>0.484274</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.640493</v>
+        <v>0.616078</v>
       </c>
       <c r="C123" t="n">
-        <v>0.518649</v>
+        <v>0.5174879999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.545559</v>
+        <v>0.69696</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.842155</v>
+        <v>0.822661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.748022</v>
+        <v>0.748721</v>
       </c>
       <c r="D124" t="n">
-        <v>0.795215</v>
+        <v>0.685157</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.833766</v>
+        <v>0.813754</v>
       </c>
       <c r="C125" t="n">
-        <v>0.735885</v>
+        <v>0.735654</v>
       </c>
       <c r="D125" t="n">
-        <v>0.77973</v>
+        <v>0.673503</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.824708</v>
+        <v>0.806098</v>
       </c>
       <c r="C126" t="n">
-        <v>0.72122</v>
+        <v>0.723414</v>
       </c>
       <c r="D126" t="n">
-        <v>0.763536</v>
+        <v>0.660721</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.815326</v>
+        <v>0.7983789999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.709932</v>
+        <v>0.710703</v>
       </c>
       <c r="D127" t="n">
-        <v>0.748265</v>
+        <v>0.64923</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.80642</v>
+        <v>0.791757</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698298</v>
+        <v>0.6992</v>
       </c>
       <c r="D128" t="n">
-        <v>0.732217</v>
+        <v>0.637919</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7996529999999999</v>
+        <v>0.784567</v>
       </c>
       <c r="C129" t="n">
-        <v>0.686995</v>
+        <v>0.687658</v>
       </c>
       <c r="D129" t="n">
-        <v>0.721267</v>
+        <v>0.629661</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.792326</v>
+        <v>0.778589</v>
       </c>
       <c r="C130" t="n">
-        <v>0.676583</v>
+        <v>0.6790929999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.705622</v>
+        <v>0.620553</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.785643</v>
+        <v>0.773062</v>
       </c>
       <c r="C131" t="n">
-        <v>0.66712</v>
+        <v>0.668903</v>
       </c>
       <c r="D131" t="n">
-        <v>0.693263</v>
+        <v>0.610541</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.779172</v>
+        <v>0.766496</v>
       </c>
       <c r="C132" t="n">
-        <v>0.658474</v>
+        <v>0.6593869999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.686449</v>
+        <v>0.604785</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.773944</v>
+        <v>0.762751</v>
       </c>
       <c r="C133" t="n">
-        <v>0.650516</v>
+        <v>0.651215</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6770389999999999</v>
+        <v>0.596731</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.769379</v>
+        <v>0.756314</v>
       </c>
       <c r="C134" t="n">
-        <v>0.643117</v>
+        <v>0.644177</v>
       </c>
       <c r="D134" t="n">
-        <v>0.66683</v>
+        <v>0.590803</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.764157</v>
+        <v>0.755037</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6364379999999999</v>
+        <v>0.6375729999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.655567</v>
+        <v>0.58868</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.761921</v>
+        <v>0.7498860000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.632526</v>
+        <v>0.634093</v>
       </c>
       <c r="D136" t="n">
-        <v>0.649962</v>
+        <v>0.585319</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.759039</v>
+        <v>0.749281</v>
       </c>
       <c r="C137" t="n">
-        <v>0.629074</v>
+        <v>0.630941</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6539469999999999</v>
+        <v>0.799094</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.946711</v>
+        <v>0.938307</v>
       </c>
       <c r="C138" t="n">
-        <v>0.865281</v>
+        <v>0.866047</v>
       </c>
       <c r="D138" t="n">
-        <v>0.909015</v>
+        <v>0.78766</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9405019999999999</v>
+        <v>0.932159</v>
       </c>
       <c r="C139" t="n">
-        <v>0.851733</v>
+        <v>0.853593</v>
       </c>
       <c r="D139" t="n">
-        <v>0.891034</v>
+        <v>0.775945</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.933818</v>
+        <v>0.927941</v>
       </c>
       <c r="C140" t="n">
-        <v>0.841316</v>
+        <v>0.8424700000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.876347</v>
+        <v>0.764722</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.927973</v>
+        <v>0.922072</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828815</v>
+        <v>0.830033</v>
       </c>
       <c r="D141" t="n">
-        <v>0.854371</v>
+        <v>0.753587</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.923524</v>
+        <v>0.918136</v>
       </c>
       <c r="C142" t="n">
-        <v>0.819735</v>
+        <v>0.819229</v>
       </c>
       <c r="D142" t="n">
-        <v>0.840581</v>
+        <v>0.744138</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.918264</v>
+        <v>0.9134679999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8100579999999999</v>
+        <v>0.810936</v>
       </c>
       <c r="D143" t="n">
-        <v>0.827928</v>
+        <v>0.735889</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.251088</v>
+        <v>0.250752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202306</v>
+        <v>0.202467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.189467</v>
+        <v>0.191103</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245275</v>
+        <v>0.245378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196095</v>
+        <v>0.196356</v>
       </c>
       <c r="D3" t="n">
-        <v>0.182985</v>
+        <v>0.184926</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239914</v>
+        <v>0.240066</v>
       </c>
       <c r="C4" t="n">
-        <v>0.191537</v>
+        <v>0.190434</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17846</v>
+        <v>0.17966</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235779</v>
+        <v>0.235439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186684</v>
+        <v>0.186055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.174907</v>
+        <v>0.17558</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231499</v>
+        <v>0.231591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182235</v>
+        <v>0.182427</v>
       </c>
       <c r="D6" t="n">
-        <v>0.171602</v>
+        <v>0.172934</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.229021</v>
+        <v>0.228866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181025</v>
+        <v>0.181305</v>
       </c>
       <c r="D7" t="n">
-        <v>0.170334</v>
+        <v>0.171923</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227782</v>
+        <v>0.227392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.180444</v>
+        <v>0.180457</v>
       </c>
       <c r="D8" t="n">
-        <v>0.171943</v>
+        <v>0.173023</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228136</v>
+        <v>0.228244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182748</v>
+        <v>0.182327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.261115</v>
+        <v>0.262803</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.314996</v>
+        <v>0.315526</v>
       </c>
       <c r="C10" t="n">
-        <v>0.269782</v>
+        <v>0.269769</v>
       </c>
       <c r="D10" t="n">
-        <v>0.252189</v>
+        <v>0.253428</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.306085</v>
+        <v>0.305589</v>
       </c>
       <c r="C11" t="n">
-        <v>0.260982</v>
+        <v>0.261113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.243505</v>
+        <v>0.244506</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.29713</v>
+        <v>0.296634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252234</v>
+        <v>0.25279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.235392</v>
+        <v>0.236464</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.289151</v>
+        <v>0.288347</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244036</v>
+        <v>0.244397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227354</v>
+        <v>0.228789</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.281331</v>
+        <v>0.280619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236501</v>
+        <v>0.23685</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220492</v>
+        <v>0.221815</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.274002</v>
+        <v>0.273376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229519</v>
+        <v>0.229902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213659</v>
+        <v>0.215043</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267185</v>
+        <v>0.266602</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222494</v>
+        <v>0.222223</v>
       </c>
       <c r="D16" t="n">
-        <v>0.207313</v>
+        <v>0.208382</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260579</v>
+        <v>0.260313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216414</v>
+        <v>0.216864</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202019</v>
+        <v>0.20355</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254843</v>
+        <v>0.25446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210926</v>
+        <v>0.211667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196728</v>
+        <v>0.199085</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249681</v>
+        <v>0.249257</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206151</v>
+        <v>0.206428</v>
       </c>
       <c r="D19" t="n">
-        <v>0.19307</v>
+        <v>0.195379</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244909</v>
+        <v>0.244699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.201799</v>
+        <v>0.202129</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190321</v>
+        <v>0.192745</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24124</v>
+        <v>0.240902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199202</v>
+        <v>0.200103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.189176</v>
+        <v>0.191433</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238903</v>
+        <v>0.238277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197935</v>
+        <v>0.198736</v>
       </c>
       <c r="D22" t="n">
-        <v>0.19032</v>
+        <v>0.192428</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.238515</v>
+        <v>0.237659</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198864</v>
+        <v>0.199569</v>
       </c>
       <c r="D23" t="n">
-        <v>0.278181</v>
+        <v>0.279805</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.32477</v>
+        <v>0.324153</v>
       </c>
       <c r="C24" t="n">
-        <v>0.284208</v>
+        <v>0.285499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.269096</v>
+        <v>0.27048</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.315511</v>
+        <v>0.314828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.275055</v>
+        <v>0.27636</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25992</v>
+        <v>0.261543</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.30659</v>
+        <v>0.306097</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266308</v>
+        <v>0.266981</v>
       </c>
       <c r="D26" t="n">
-        <v>0.251474</v>
+        <v>0.252825</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298078</v>
+        <v>0.297646</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257628</v>
+        <v>0.258548</v>
       </c>
       <c r="D27" t="n">
-        <v>0.243317</v>
+        <v>0.244769</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289934</v>
+        <v>0.289705</v>
       </c>
       <c r="C28" t="n">
-        <v>0.249752</v>
+        <v>0.251183</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235788</v>
+        <v>0.237263</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.282151</v>
+        <v>0.281981</v>
       </c>
       <c r="C29" t="n">
-        <v>0.242005</v>
+        <v>0.24376</v>
       </c>
       <c r="D29" t="n">
-        <v>0.228796</v>
+        <v>0.230218</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.275053</v>
+        <v>0.274781</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235233</v>
+        <v>0.23638</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22191</v>
+        <v>0.223529</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268316</v>
+        <v>0.268186</v>
       </c>
       <c r="C31" t="n">
-        <v>0.228653</v>
+        <v>0.229557</v>
       </c>
       <c r="D31" t="n">
-        <v>0.215888</v>
+        <v>0.217479</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262168</v>
+        <v>0.261808</v>
       </c>
       <c r="C32" t="n">
-        <v>0.222458</v>
+        <v>0.223483</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210045</v>
+        <v>0.211775</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256653</v>
+        <v>0.256386</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216799</v>
+        <v>0.218275</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205348</v>
+        <v>0.207086</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251722</v>
+        <v>0.251707</v>
       </c>
       <c r="C34" t="n">
-        <v>0.211913</v>
+        <v>0.213136</v>
       </c>
       <c r="D34" t="n">
-        <v>0.201353</v>
+        <v>0.20308</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.24744</v>
+        <v>0.247</v>
       </c>
       <c r="C35" t="n">
-        <v>0.20783</v>
+        <v>0.208978</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198844</v>
+        <v>0.200571</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244567</v>
+        <v>0.244614</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205348</v>
+        <v>0.206549</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198211</v>
+        <v>0.199962</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.243419</v>
+        <v>0.24358</v>
       </c>
       <c r="C37" t="n">
-        <v>0.204686</v>
+        <v>0.205833</v>
       </c>
       <c r="D37" t="n">
-        <v>0.287719</v>
+        <v>0.289629</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326871</v>
+        <v>0.326305</v>
       </c>
       <c r="C38" t="n">
-        <v>0.292456</v>
+        <v>0.29352</v>
       </c>
       <c r="D38" t="n">
-        <v>0.278269</v>
+        <v>0.280348</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318636</v>
+        <v>0.318026</v>
       </c>
       <c r="C39" t="n">
-        <v>0.283491</v>
+        <v>0.284684</v>
       </c>
       <c r="D39" t="n">
-        <v>0.269619</v>
+        <v>0.27147</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.310191</v>
+        <v>0.309459</v>
       </c>
       <c r="C40" t="n">
-        <v>0.274715</v>
+        <v>0.275895</v>
       </c>
       <c r="D40" t="n">
-        <v>0.260868</v>
+        <v>0.262851</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.302135</v>
+        <v>0.301429</v>
       </c>
       <c r="C41" t="n">
-        <v>0.266337</v>
+        <v>0.267605</v>
       </c>
       <c r="D41" t="n">
-        <v>0.252567</v>
+        <v>0.25477</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.294609</v>
+        <v>0.293214</v>
       </c>
       <c r="C42" t="n">
-        <v>0.258332</v>
+        <v>0.259676</v>
       </c>
       <c r="D42" t="n">
-        <v>0.245068</v>
+        <v>0.247195</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.287265</v>
+        <v>0.286152</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250725</v>
+        <v>0.252171</v>
       </c>
       <c r="D43" t="n">
-        <v>0.237628</v>
+        <v>0.239974</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.280131</v>
+        <v>0.279198</v>
       </c>
       <c r="C44" t="n">
-        <v>0.243575</v>
+        <v>0.245093</v>
       </c>
       <c r="D44" t="n">
-        <v>0.230915</v>
+        <v>0.233321</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.274117</v>
+        <v>0.27252</v>
       </c>
       <c r="C45" t="n">
-        <v>0.23712</v>
+        <v>0.238681</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224774</v>
+        <v>0.227175</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.268232</v>
+        <v>0.266886</v>
       </c>
       <c r="C46" t="n">
-        <v>0.230918</v>
+        <v>0.232505</v>
       </c>
       <c r="D46" t="n">
-        <v>0.219056</v>
+        <v>0.221628</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.262807</v>
+        <v>0.261275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.225566</v>
+        <v>0.227161</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214215</v>
+        <v>0.216829</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.257895</v>
+        <v>0.256718</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220555</v>
+        <v>0.222304</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209961</v>
+        <v>0.212593</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254079</v>
+        <v>0.252269</v>
       </c>
       <c r="C49" t="n">
-        <v>0.216433</v>
+        <v>0.218332</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207213</v>
+        <v>0.209825</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251155</v>
+        <v>0.249749</v>
       </c>
       <c r="C50" t="n">
-        <v>0.213587</v>
+        <v>0.215228</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20611</v>
+        <v>0.208527</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.249564</v>
+        <v>0.247481</v>
       </c>
       <c r="C51" t="n">
-        <v>0.212404</v>
+        <v>0.214006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.298441</v>
+        <v>0.300886</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249817</v>
+        <v>0.249943</v>
       </c>
       <c r="C52" t="n">
-        <v>0.213692</v>
+        <v>0.215063</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289016</v>
+        <v>0.291344</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.332176</v>
+        <v>0.32956</v>
       </c>
       <c r="C53" t="n">
-        <v>0.294255</v>
+        <v>0.297052</v>
       </c>
       <c r="D53" t="n">
-        <v>0.280005</v>
+        <v>0.282571</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.323628</v>
+        <v>0.321206</v>
       </c>
       <c r="C54" t="n">
-        <v>0.285461</v>
+        <v>0.288171</v>
       </c>
       <c r="D54" t="n">
-        <v>0.27147</v>
+        <v>0.273977</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.315531</v>
+        <v>0.313364</v>
       </c>
       <c r="C55" t="n">
-        <v>0.277065</v>
+        <v>0.279615</v>
       </c>
       <c r="D55" t="n">
-        <v>0.263336</v>
+        <v>0.26584</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.307727</v>
+        <v>0.306272</v>
       </c>
       <c r="C56" t="n">
-        <v>0.269119</v>
+        <v>0.271743</v>
       </c>
       <c r="D56" t="n">
-        <v>0.25568</v>
+        <v>0.258271</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.300326</v>
+        <v>0.29935</v>
       </c>
       <c r="C57" t="n">
-        <v>0.261678</v>
+        <v>0.264325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.248401</v>
+        <v>0.251095</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.293451</v>
+        <v>0.29272</v>
       </c>
       <c r="C58" t="n">
-        <v>0.254465</v>
+        <v>0.257197</v>
       </c>
       <c r="D58" t="n">
-        <v>0.241486</v>
+        <v>0.244236</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.287328</v>
+        <v>0.286468</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247904</v>
+        <v>0.250791</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23525</v>
+        <v>0.23799</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281359</v>
+        <v>0.280696</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241789</v>
+        <v>0.244566</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2296</v>
+        <v>0.232219</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.276153</v>
+        <v>0.275612</v>
       </c>
       <c r="C61" t="n">
-        <v>0.236255</v>
+        <v>0.238921</v>
       </c>
       <c r="D61" t="n">
-        <v>0.224587</v>
+        <v>0.227285</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.271384</v>
+        <v>0.270707</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2313</v>
+        <v>0.233979</v>
       </c>
       <c r="D62" t="n">
-        <v>0.22028</v>
+        <v>0.223071</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267488</v>
+        <v>0.266858</v>
       </c>
       <c r="C63" t="n">
-        <v>0.227379</v>
+        <v>0.229703</v>
       </c>
       <c r="D63" t="n">
-        <v>0.217039</v>
+        <v>0.219771</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264815</v>
+        <v>0.263907</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224068</v>
+        <v>0.226352</v>
       </c>
       <c r="D64" t="n">
-        <v>0.215356</v>
+        <v>0.218048</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263494</v>
+        <v>0.261989</v>
       </c>
       <c r="C65" t="n">
-        <v>0.222318</v>
+        <v>0.224522</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216151</v>
+        <v>0.218906</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.264051</v>
+        <v>0.26206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223085</v>
+        <v>0.225204</v>
       </c>
       <c r="D66" t="n">
-        <v>0.328264</v>
+        <v>0.325937</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.395943</v>
+        <v>0.386817</v>
       </c>
       <c r="C67" t="n">
-        <v>0.335899</v>
+        <v>0.333766</v>
       </c>
       <c r="D67" t="n">
-        <v>0.317686</v>
+        <v>0.31591</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.388636</v>
+        <v>0.379834</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326288</v>
+        <v>0.324741</v>
       </c>
       <c r="D68" t="n">
-        <v>0.308735</v>
+        <v>0.30685</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.381495</v>
+        <v>0.372782</v>
       </c>
       <c r="C69" t="n">
-        <v>0.317258</v>
+        <v>0.316069</v>
       </c>
       <c r="D69" t="n">
-        <v>0.299525</v>
+        <v>0.298311</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.37501</v>
+        <v>0.366109</v>
       </c>
       <c r="C70" t="n">
-        <v>0.308321</v>
+        <v>0.307656</v>
       </c>
       <c r="D70" t="n">
-        <v>0.29104</v>
+        <v>0.289809</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.369041</v>
+        <v>0.359823</v>
       </c>
       <c r="C71" t="n">
-        <v>0.300068</v>
+        <v>0.299409</v>
       </c>
       <c r="D71" t="n">
-        <v>0.283067</v>
+        <v>0.282186</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363314</v>
+        <v>0.35379</v>
       </c>
       <c r="C72" t="n">
-        <v>0.292393</v>
+        <v>0.291574</v>
       </c>
       <c r="D72" t="n">
-        <v>0.275407</v>
+        <v>0.274557</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.357546</v>
+        <v>0.347793</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284817</v>
+        <v>0.284233</v>
       </c>
       <c r="D73" t="n">
-        <v>0.268539</v>
+        <v>0.267679</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.351988</v>
+        <v>0.341837</v>
       </c>
       <c r="C74" t="n">
-        <v>0.278051</v>
+        <v>0.277527</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261972</v>
+        <v>0.261341</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.346195</v>
+        <v>0.33626</v>
       </c>
       <c r="C75" t="n">
-        <v>0.271489</v>
+        <v>0.271178</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255958</v>
+        <v>0.255445</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.340769</v>
+        <v>0.330775</v>
       </c>
       <c r="C76" t="n">
-        <v>0.26563</v>
+        <v>0.265294</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250816</v>
+        <v>0.250233</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.33597</v>
+        <v>0.326174</v>
       </c>
       <c r="C77" t="n">
-        <v>0.260367</v>
+        <v>0.260344</v>
       </c>
       <c r="D77" t="n">
-        <v>0.24678</v>
+        <v>0.246173</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.331997</v>
+        <v>0.321624</v>
       </c>
       <c r="C78" t="n">
-        <v>0.256405</v>
+        <v>0.256271</v>
       </c>
       <c r="D78" t="n">
-        <v>0.244056</v>
+        <v>0.243552</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.328545</v>
+        <v>0.318538</v>
       </c>
       <c r="C79" t="n">
-        <v>0.253615</v>
+        <v>0.253548</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243939</v>
+        <v>0.243142</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326982</v>
+        <v>0.316941</v>
       </c>
       <c r="C80" t="n">
-        <v>0.253264</v>
+        <v>0.252992</v>
       </c>
       <c r="D80" t="n">
-        <v>0.395299</v>
+        <v>0.377631</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.568334</v>
+        <v>0.550057</v>
       </c>
       <c r="C81" t="n">
-        <v>0.425855</v>
+        <v>0.400252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.38885</v>
+        <v>0.368218</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.562482</v>
+        <v>0.544176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.419921</v>
+        <v>0.39275</v>
       </c>
       <c r="D82" t="n">
-        <v>0.380224</v>
+        <v>0.35928</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.553128</v>
+        <v>0.534733</v>
       </c>
       <c r="C83" t="n">
-        <v>0.408849</v>
+        <v>0.385913</v>
       </c>
       <c r="D83" t="n">
-        <v>0.369726</v>
+        <v>0.351726</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.544156</v>
+        <v>0.5256150000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.399186</v>
+        <v>0.375905</v>
       </c>
       <c r="D84" t="n">
-        <v>0.35992</v>
+        <v>0.342651</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.534978</v>
+        <v>0.516165</v>
       </c>
       <c r="C85" t="n">
-        <v>0.388363</v>
+        <v>0.366346</v>
       </c>
       <c r="D85" t="n">
-        <v>0.350399</v>
+        <v>0.334107</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.525995</v>
+        <v>0.5064419999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.379316</v>
+        <v>0.357062</v>
       </c>
       <c r="D86" t="n">
-        <v>0.342995</v>
+        <v>0.325175</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.516586</v>
+        <v>0.496651</v>
       </c>
       <c r="C87" t="n">
-        <v>0.369886</v>
+        <v>0.349722</v>
       </c>
       <c r="D87" t="n">
-        <v>0.33338</v>
+        <v>0.31727</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5074070000000001</v>
+        <v>0.487997</v>
       </c>
       <c r="C88" t="n">
-        <v>0.36088</v>
+        <v>0.341319</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325403</v>
+        <v>0.310947</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.498822</v>
+        <v>0.4789</v>
       </c>
       <c r="C89" t="n">
-        <v>0.353194</v>
+        <v>0.333335</v>
       </c>
       <c r="D89" t="n">
-        <v>0.31854</v>
+        <v>0.303888</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.490312</v>
+        <v>0.470137</v>
       </c>
       <c r="C90" t="n">
-        <v>0.345006</v>
+        <v>0.322754</v>
       </c>
       <c r="D90" t="n">
-        <v>0.312655</v>
+        <v>0.294639</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.48255</v>
+        <v>0.462327</v>
       </c>
       <c r="C91" t="n">
-        <v>0.33868</v>
+        <v>0.315513</v>
       </c>
       <c r="D91" t="n">
-        <v>0.307162</v>
+        <v>0.290034</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.474418</v>
+        <v>0.454583</v>
       </c>
       <c r="C92" t="n">
-        <v>0.331937</v>
+        <v>0.31414</v>
       </c>
       <c r="D92" t="n">
-        <v>0.301759</v>
+        <v>0.288277</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.467776</v>
+        <v>0.448089</v>
       </c>
       <c r="C93" t="n">
-        <v>0.327634</v>
+        <v>0.306501</v>
       </c>
       <c r="D93" t="n">
-        <v>0.299548</v>
+        <v>0.284616</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.463195</v>
+        <v>0.442574</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325819</v>
+        <v>0.308593</v>
       </c>
       <c r="D94" t="n">
-        <v>0.589688</v>
+        <v>0.543165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.599067</v>
+        <v>0.570778</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5626989999999999</v>
+        <v>0.527733</v>
       </c>
       <c r="D95" t="n">
-        <v>0.577192</v>
+        <v>0.531431</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5994620000000001</v>
+        <v>0.568192</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5570040000000001</v>
+        <v>0.5198390000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.561741</v>
+        <v>0.518671</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.591163</v>
+        <v>0.560972</v>
       </c>
       <c r="C97" t="n">
-        <v>0.542834</v>
+        <v>0.51048</v>
       </c>
       <c r="D97" t="n">
-        <v>0.545732</v>
+        <v>0.500808</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.582616</v>
+        <v>0.552688</v>
       </c>
       <c r="C98" t="n">
-        <v>0.528479</v>
+        <v>0.49637</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5294140000000001</v>
+        <v>0.489754</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.575209</v>
+        <v>0.544923</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5146810000000001</v>
+        <v>0.4831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.513779</v>
+        <v>0.47549</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.568304</v>
+        <v>0.536144</v>
       </c>
       <c r="C100" t="n">
-        <v>0.501237</v>
+        <v>0.471593</v>
       </c>
       <c r="D100" t="n">
-        <v>0.498704</v>
+        <v>0.458484</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.560848</v>
+        <v>0.529308</v>
       </c>
       <c r="C101" t="n">
-        <v>0.488304</v>
+        <v>0.458949</v>
       </c>
       <c r="D101" t="n">
-        <v>0.484675</v>
+        <v>0.445046</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.553518</v>
+        <v>0.521533</v>
       </c>
       <c r="C102" t="n">
-        <v>0.477562</v>
+        <v>0.448213</v>
       </c>
       <c r="D102" t="n">
-        <v>0.473206</v>
+        <v>0.437007</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.547318</v>
+        <v>0.51442</v>
       </c>
       <c r="C103" t="n">
-        <v>0.466493</v>
+        <v>0.438049</v>
       </c>
       <c r="D103" t="n">
-        <v>0.460699</v>
+        <v>0.418201</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.541442</v>
+        <v>0.5084340000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.456099</v>
+        <v>0.428299</v>
       </c>
       <c r="D104" t="n">
-        <v>0.450192</v>
+        <v>0.416588</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.535423</v>
+        <v>0.503789</v>
       </c>
       <c r="C105" t="n">
-        <v>0.446818</v>
+        <v>0.419895</v>
       </c>
       <c r="D105" t="n">
-        <v>0.44041</v>
+        <v>0.408138</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.529701</v>
+        <v>0.496972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.438245</v>
+        <v>0.412366</v>
       </c>
       <c r="D106" t="n">
-        <v>0.431901</v>
+        <v>0.390968</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.524973</v>
+        <v>0.49346</v>
       </c>
       <c r="C107" t="n">
-        <v>0.431441</v>
+        <v>0.401884</v>
       </c>
       <c r="D107" t="n">
-        <v>0.425036</v>
+        <v>0.392339</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.522136</v>
+        <v>0.490803</v>
       </c>
       <c r="C108" t="n">
-        <v>0.42585</v>
+        <v>0.40154</v>
       </c>
       <c r="D108" t="n">
-        <v>0.648386</v>
+        <v>0.57885</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.521265</v>
+        <v>0.48892</v>
       </c>
       <c r="C109" t="n">
-        <v>0.425061</v>
+        <v>0.400402</v>
       </c>
       <c r="D109" t="n">
-        <v>0.638312</v>
+        <v>0.56978</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.721442</v>
+        <v>0.682179</v>
       </c>
       <c r="C110" t="n">
-        <v>0.666544</v>
+        <v>0.607927</v>
       </c>
       <c r="D110" t="n">
-        <v>0.622533</v>
+        <v>0.56284</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.711655</v>
+        <v>0.6717379999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.652269</v>
+        <v>0.59613</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6057439999999999</v>
+        <v>0.5454830000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.700192</v>
+        <v>0.660886</v>
       </c>
       <c r="C112" t="n">
-        <v>0.635105</v>
+        <v>0.584169</v>
       </c>
       <c r="D112" t="n">
-        <v>0.590927</v>
+        <v>0.529962</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6911119999999999</v>
+        <v>0.649993</v>
       </c>
       <c r="C113" t="n">
-        <v>0.618726</v>
+        <v>0.571891</v>
       </c>
       <c r="D113" t="n">
-        <v>0.575616</v>
+        <v>0.51709</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.681162</v>
+        <v>0.639557</v>
       </c>
       <c r="C114" t="n">
-        <v>0.605631</v>
+        <v>0.558832</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562793</v>
+        <v>0.510367</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.671183</v>
+        <v>0.629688</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5925589999999999</v>
+        <v>0.546519</v>
       </c>
       <c r="D115" t="n">
-        <v>0.549627</v>
+        <v>0.499421</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.663126</v>
+        <v>0.618835</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5786790000000001</v>
+        <v>0.535649</v>
       </c>
       <c r="D116" t="n">
-        <v>0.536767</v>
+        <v>0.485707</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.654877</v>
+        <v>0.613312</v>
       </c>
       <c r="C117" t="n">
-        <v>0.567092</v>
+        <v>0.525141</v>
       </c>
       <c r="D117" t="n">
-        <v>0.524116</v>
+        <v>0.478174</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.645748</v>
+        <v>0.601992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.554596</v>
+        <v>0.511061</v>
       </c>
       <c r="D118" t="n">
-        <v>0.513343</v>
+        <v>0.467242</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.641109</v>
+        <v>0.598836</v>
       </c>
       <c r="C119" t="n">
-        <v>0.544239</v>
+        <v>0.504979</v>
       </c>
       <c r="D119" t="n">
-        <v>0.503485</v>
+        <v>0.459057</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.63367</v>
+        <v>0.592708</v>
       </c>
       <c r="C120" t="n">
-        <v>0.535629</v>
+        <v>0.494772</v>
       </c>
       <c r="D120" t="n">
-        <v>0.496397</v>
+        <v>0.453681</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.628464</v>
+        <v>0.585934</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5282520000000001</v>
+        <v>0.489971</v>
       </c>
       <c r="D121" t="n">
-        <v>0.489631</v>
+        <v>0.447445</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.619703</v>
+        <v>0.579039</v>
       </c>
       <c r="C122" t="n">
-        <v>0.520402</v>
+        <v>0.479078</v>
       </c>
       <c r="D122" t="n">
-        <v>0.484274</v>
+        <v>0.439842</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.616078</v>
+        <v>0.577579</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5174879999999999</v>
+        <v>0.476006</v>
       </c>
       <c r="D123" t="n">
-        <v>0.69696</v>
+        <v>0.636232</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.822661</v>
+        <v>0.765456</v>
       </c>
       <c r="C124" t="n">
-        <v>0.748721</v>
+        <v>0.689253</v>
       </c>
       <c r="D124" t="n">
-        <v>0.685157</v>
+        <v>0.623788</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.813754</v>
+        <v>0.755739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.735654</v>
+        <v>0.67908</v>
       </c>
       <c r="D125" t="n">
-        <v>0.673503</v>
+        <v>0.611336</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.806098</v>
+        <v>0.750715</v>
       </c>
       <c r="C126" t="n">
-        <v>0.723414</v>
+        <v>0.669099</v>
       </c>
       <c r="D126" t="n">
-        <v>0.660721</v>
+        <v>0.601668</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7983789999999999</v>
+        <v>0.742195</v>
       </c>
       <c r="C127" t="n">
-        <v>0.710703</v>
+        <v>0.656782</v>
       </c>
       <c r="D127" t="n">
-        <v>0.64923</v>
+        <v>0.58969</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.791757</v>
+        <v>0.731115</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6992</v>
+        <v>0.643447</v>
       </c>
       <c r="D128" t="n">
-        <v>0.637919</v>
+        <v>0.580704</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.784567</v>
+        <v>0.728071</v>
       </c>
       <c r="C129" t="n">
-        <v>0.687658</v>
+        <v>0.634896</v>
       </c>
       <c r="D129" t="n">
-        <v>0.629661</v>
+        <v>0.571221</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.778589</v>
+        <v>0.721148</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6790929999999999</v>
+        <v>0.626645</v>
       </c>
       <c r="D130" t="n">
-        <v>0.620553</v>
+        <v>0.565648</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.773062</v>
+        <v>0.711757</v>
       </c>
       <c r="C131" t="n">
-        <v>0.668903</v>
+        <v>0.615103</v>
       </c>
       <c r="D131" t="n">
-        <v>0.610541</v>
+        <v>0.554673</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.766496</v>
+        <v>0.704416</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6593869999999999</v>
+        <v>0.608614</v>
       </c>
       <c r="D132" t="n">
-        <v>0.604785</v>
+        <v>0.55041</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762751</v>
+        <v>0.701134</v>
       </c>
       <c r="C133" t="n">
-        <v>0.651215</v>
+        <v>0.6019139999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.596731</v>
+        <v>0.542838</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.756314</v>
+        <v>0.701164</v>
       </c>
       <c r="C134" t="n">
-        <v>0.644177</v>
+        <v>0.596842</v>
       </c>
       <c r="D134" t="n">
-        <v>0.590803</v>
+        <v>0.536543</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.755037</v>
+        <v>0.695681</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6375729999999999</v>
+        <v>0.588439</v>
       </c>
       <c r="D135" t="n">
-        <v>0.58868</v>
+        <v>0.532511</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7498860000000001</v>
+        <v>0.690582</v>
       </c>
       <c r="C136" t="n">
-        <v>0.634093</v>
+        <v>0.5856170000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.585319</v>
+        <v>0.527248</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.749281</v>
+        <v>0.685936</v>
       </c>
       <c r="C137" t="n">
-        <v>0.630941</v>
+        <v>0.581267</v>
       </c>
       <c r="D137" t="n">
-        <v>0.799094</v>
+        <v>0.7239679999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.938307</v>
+        <v>0.871407</v>
       </c>
       <c r="C138" t="n">
-        <v>0.866047</v>
+        <v>0.79844</v>
       </c>
       <c r="D138" t="n">
-        <v>0.78766</v>
+        <v>0.712678</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.932159</v>
+        <v>0.865421</v>
       </c>
       <c r="C139" t="n">
-        <v>0.853593</v>
+        <v>0.788503</v>
       </c>
       <c r="D139" t="n">
-        <v>0.775945</v>
+        <v>0.700408</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.927941</v>
+        <v>0.858118</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8424700000000001</v>
+        <v>0.7777500000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.764722</v>
+        <v>0.6914400000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.922072</v>
+        <v>0.853467</v>
       </c>
       <c r="C141" t="n">
-        <v>0.830033</v>
+        <v>0.7685149999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.753587</v>
+        <v>0.68133</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.918136</v>
+        <v>0.847141</v>
       </c>
       <c r="C142" t="n">
-        <v>0.819229</v>
+        <v>0.7579399999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.744138</v>
+        <v>0.673167</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9134679999999999</v>
+        <v>0.844562</v>
       </c>
       <c r="C143" t="n">
-        <v>0.810936</v>
+        <v>0.748686</v>
       </c>
       <c r="D143" t="n">
-        <v>0.735889</v>
+        <v>0.666221</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running insertion.xlsx
+++ b/gcc-x64/Running insertion.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.250752</v>
+        <v>0.250561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202467</v>
+        <v>0.202119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191103</v>
+        <v>0.193699</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245378</v>
+        <v>0.245021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196356</v>
+        <v>0.196324</v>
       </c>
       <c r="D3" t="n">
-        <v>0.184926</v>
+        <v>0.186953</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.240066</v>
+        <v>0.240143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.190434</v>
+        <v>0.19099</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17966</v>
+        <v>0.183172</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235439</v>
+        <v>0.235268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.186055</v>
+        <v>0.186245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17558</v>
+        <v>0.179498</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.231591</v>
+        <v>0.231203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182427</v>
+        <v>0.18287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.172934</v>
+        <v>0.17604</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.228866</v>
+        <v>0.2284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.181305</v>
+        <v>0.181618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.171923</v>
+        <v>0.174214</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227392</v>
+        <v>0.227167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.180457</v>
+        <v>0.180283</v>
       </c>
       <c r="D8" t="n">
-        <v>0.173023</v>
+        <v>0.175311</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.228244</v>
+        <v>0.227319</v>
       </c>
       <c r="C9" t="n">
-        <v>0.182327</v>
+        <v>0.181643</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262803</v>
+        <v>0.276586</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.315526</v>
+        <v>0.314186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.269769</v>
+        <v>0.269384</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253428</v>
+        <v>0.266089</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305589</v>
+        <v>0.304801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261113</v>
+        <v>0.259963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244506</v>
+        <v>0.257957</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.296634</v>
+        <v>0.295719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25279</v>
+        <v>0.251715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.236464</v>
+        <v>0.248101</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288347</v>
+        <v>0.287502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.244397</v>
+        <v>0.243485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.228789</v>
+        <v>0.24024</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.280619</v>
+        <v>0.279741</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23685</v>
+        <v>0.235875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.221815</v>
+        <v>0.232814</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.273376</v>
+        <v>0.272448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.229902</v>
+        <v>0.228731</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215043</v>
+        <v>0.226109</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.266602</v>
+        <v>0.26575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222223</v>
+        <v>0.221884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.208382</v>
+        <v>0.218034</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260313</v>
+        <v>0.259987</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216864</v>
+        <v>0.216225</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20355</v>
+        <v>0.212213</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25446</v>
+        <v>0.253423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.211667</v>
+        <v>0.210849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.199085</v>
+        <v>0.207286</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249257</v>
+        <v>0.248994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206428</v>
+        <v>0.205913</v>
       </c>
       <c r="D19" t="n">
-        <v>0.195379</v>
+        <v>0.20127</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.244699</v>
+        <v>0.243622</v>
       </c>
       <c r="C20" t="n">
-        <v>0.202129</v>
+        <v>0.201869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192745</v>
+        <v>0.200636</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240902</v>
+        <v>0.240096</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200103</v>
+        <v>0.199416</v>
       </c>
       <c r="D21" t="n">
-        <v>0.191433</v>
+        <v>0.19812</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238277</v>
+        <v>0.237334</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198736</v>
+        <v>0.197943</v>
       </c>
       <c r="D22" t="n">
-        <v>0.192428</v>
+        <v>0.199941</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237659</v>
+        <v>0.237886</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199569</v>
+        <v>0.19915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279805</v>
+        <v>0.28206</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.324153</v>
+        <v>0.324061</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285499</v>
+        <v>0.28541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.27048</v>
+        <v>0.272471</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.314828</v>
+        <v>0.314459</v>
       </c>
       <c r="C25" t="n">
-        <v>0.27636</v>
+        <v>0.275728</v>
       </c>
       <c r="D25" t="n">
-        <v>0.261543</v>
+        <v>0.263501</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.306097</v>
+        <v>0.306186</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266981</v>
+        <v>0.266169</v>
       </c>
       <c r="D26" t="n">
-        <v>0.252825</v>
+        <v>0.254815</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297646</v>
+        <v>0.297107</v>
       </c>
       <c r="C27" t="n">
-        <v>0.258548</v>
+        <v>0.25759</v>
       </c>
       <c r="D27" t="n">
-        <v>0.244769</v>
+        <v>0.246846</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.289705</v>
+        <v>0.289733</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251183</v>
+        <v>0.250142</v>
       </c>
       <c r="D28" t="n">
-        <v>0.237263</v>
+        <v>0.238238</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.281981</v>
+        <v>0.281847</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24376</v>
+        <v>0.242379</v>
       </c>
       <c r="D29" t="n">
-        <v>0.230218</v>
+        <v>0.231078</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.274781</v>
+        <v>0.274831</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23638</v>
+        <v>0.235346</v>
       </c>
       <c r="D30" t="n">
-        <v>0.223529</v>
+        <v>0.224383</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.268186</v>
+        <v>0.267663</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229557</v>
+        <v>0.229287</v>
       </c>
       <c r="D31" t="n">
-        <v>0.217479</v>
+        <v>0.218369</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.261808</v>
+        <v>0.261976</v>
       </c>
       <c r="C32" t="n">
-        <v>0.223483</v>
+        <v>0.222584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.211775</v>
+        <v>0.212787</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.256386</v>
+        <v>0.256733</v>
       </c>
       <c r="C33" t="n">
-        <v>0.218275</v>
+        <v>0.217032</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207086</v>
+        <v>0.20776</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.251707</v>
+        <v>0.252018</v>
       </c>
       <c r="C34" t="n">
-        <v>0.213136</v>
+        <v>0.212489</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20308</v>
+        <v>0.204041</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.247</v>
+        <v>0.247578</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208978</v>
+        <v>0.208085</v>
       </c>
       <c r="D35" t="n">
-        <v>0.200571</v>
+        <v>0.201431</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244614</v>
+        <v>0.244439</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206549</v>
+        <v>0.205564</v>
       </c>
       <c r="D36" t="n">
-        <v>0.199962</v>
+        <v>0.20088</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.24358</v>
+        <v>0.243567</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205833</v>
+        <v>0.205774</v>
       </c>
       <c r="D37" t="n">
-        <v>0.289629</v>
+        <v>0.291923</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.326305</v>
+        <v>0.327139</v>
       </c>
       <c r="C38" t="n">
-        <v>0.29352</v>
+        <v>0.293383</v>
       </c>
       <c r="D38" t="n">
-        <v>0.280348</v>
+        <v>0.282083</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318026</v>
+        <v>0.318175</v>
       </c>
       <c r="C39" t="n">
-        <v>0.284684</v>
+        <v>0.2847</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27147</v>
+        <v>0.271838</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.309459</v>
+        <v>0.30911</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275895</v>
+        <v>0.275605</v>
       </c>
       <c r="D40" t="n">
-        <v>0.262851</v>
+        <v>0.262932</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301429</v>
+        <v>0.301102</v>
       </c>
       <c r="C41" t="n">
-        <v>0.267605</v>
+        <v>0.266657</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25477</v>
+        <v>0.254881</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.293214</v>
+        <v>0.294921</v>
       </c>
       <c r="C42" t="n">
-        <v>0.259676</v>
+        <v>0.259292</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247195</v>
+        <v>0.247255</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.286152</v>
+        <v>0.286747</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252171</v>
+        <v>0.252051</v>
       </c>
       <c r="D43" t="n">
-        <v>0.239974</v>
+        <v>0.240054</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.279198</v>
+        <v>0.279607</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245093</v>
+        <v>0.244167</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233321</v>
+        <v>0.233216</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27252</v>
+        <v>0.274517</v>
       </c>
       <c r="C45" t="n">
-        <v>0.238681</v>
+        <v>0.237066</v>
       </c>
       <c r="D45" t="n">
-        <v>0.227175</v>
+        <v>0.227207</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.266886</v>
+        <v>0.267959</v>
       </c>
       <c r="C46" t="n">
-        <v>0.232505</v>
+        <v>0.231688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.221628</v>
+        <v>0.2216</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261275</v>
+        <v>0.262837</v>
       </c>
       <c r="C47" t="n">
-        <v>0.227161</v>
+        <v>0.2262</v>
       </c>
       <c r="D47" t="n">
-        <v>0.216829</v>
+        <v>0.21678</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.256718</v>
+        <v>0.257163</v>
       </c>
       <c r="C48" t="n">
-        <v>0.222304</v>
+        <v>0.221369</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212593</v>
+        <v>0.212644</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.252269</v>
+        <v>0.252966</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218332</v>
+        <v>0.217636</v>
       </c>
       <c r="D49" t="n">
-        <v>0.209825</v>
+        <v>0.209778</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249749</v>
+        <v>0.250541</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215228</v>
+        <v>0.214634</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208527</v>
+        <v>0.208384</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247481</v>
+        <v>0.248497</v>
       </c>
       <c r="C51" t="n">
-        <v>0.214006</v>
+        <v>0.21343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.300886</v>
+        <v>0.300055</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.249943</v>
+        <v>0.250946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215063</v>
+        <v>0.213912</v>
       </c>
       <c r="D52" t="n">
-        <v>0.291344</v>
+        <v>0.290713</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.32956</v>
+        <v>0.330261</v>
       </c>
       <c r="C53" t="n">
-        <v>0.297052</v>
+        <v>0.29471</v>
       </c>
       <c r="D53" t="n">
-        <v>0.282571</v>
+        <v>0.281814</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.321206</v>
+        <v>0.321711</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288171</v>
+        <v>0.285954</v>
       </c>
       <c r="D54" t="n">
-        <v>0.273977</v>
+        <v>0.272825</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.313364</v>
+        <v>0.313477</v>
       </c>
       <c r="C55" t="n">
-        <v>0.279615</v>
+        <v>0.277408</v>
       </c>
       <c r="D55" t="n">
-        <v>0.26584</v>
+        <v>0.264836</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.306272</v>
+        <v>0.305763</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271743</v>
+        <v>0.26943</v>
       </c>
       <c r="D56" t="n">
-        <v>0.258271</v>
+        <v>0.257076</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29935</v>
+        <v>0.299065</v>
       </c>
       <c r="C57" t="n">
-        <v>0.264325</v>
+        <v>0.261963</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251095</v>
+        <v>0.249895</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.29272</v>
+        <v>0.292112</v>
       </c>
       <c r="C58" t="n">
-        <v>0.257197</v>
+        <v>0.254782</v>
       </c>
       <c r="D58" t="n">
-        <v>0.244236</v>
+        <v>0.243063</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286468</v>
+        <v>0.285717</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250791</v>
+        <v>0.248216</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23799</v>
+        <v>0.23704</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280696</v>
+        <v>0.27974</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244566</v>
+        <v>0.242058</v>
       </c>
       <c r="D60" t="n">
-        <v>0.232219</v>
+        <v>0.231523</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.275612</v>
+        <v>0.274478</v>
       </c>
       <c r="C61" t="n">
-        <v>0.238921</v>
+        <v>0.236532</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227285</v>
+        <v>0.226353</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270707</v>
+        <v>0.269666</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233979</v>
+        <v>0.231502</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223071</v>
+        <v>0.22187</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266858</v>
+        <v>0.26575</v>
       </c>
       <c r="C63" t="n">
-        <v>0.229703</v>
+        <v>0.227222</v>
       </c>
       <c r="D63" t="n">
-        <v>0.219771</v>
+        <v>0.218885</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263907</v>
+        <v>0.262644</v>
       </c>
       <c r="C64" t="n">
-        <v>0.226352</v>
+        <v>0.22394</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218048</v>
+        <v>0.217368</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261989</v>
+        <v>0.26134</v>
       </c>
       <c r="C65" t="n">
-        <v>0.224522</v>
+        <v>0.222874</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218906</v>
+        <v>0.219045</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.26206</v>
+        <v>0.262853</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225204</v>
+        <v>0.223559</v>
       </c>
       <c r="D66" t="n">
-        <v>0.325937</v>
+        <v>0.325147</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.386817</v>
+        <v>0.386073</v>
       </c>
       <c r="C67" t="n">
-        <v>0.333766</v>
+        <v>0.331624</v>
       </c>
       <c r="D67" t="n">
-        <v>0.31591</v>
+        <v>0.315292</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.379834</v>
+        <v>0.378122</v>
       </c>
       <c r="C68" t="n">
-        <v>0.324741</v>
+        <v>0.322502</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30685</v>
+        <v>0.306282</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.372782</v>
+        <v>0.371128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.316069</v>
+        <v>0.313679</v>
       </c>
       <c r="D69" t="n">
-        <v>0.298311</v>
+        <v>0.297601</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.366109</v>
+        <v>0.364462</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307656</v>
+        <v>0.305133</v>
       </c>
       <c r="D70" t="n">
-        <v>0.289809</v>
+        <v>0.289526</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.359823</v>
+        <v>0.358052</v>
       </c>
       <c r="C71" t="n">
-        <v>0.299409</v>
+        <v>0.297059</v>
       </c>
       <c r="D71" t="n">
-        <v>0.282186</v>
+        <v>0.281959</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.35379</v>
+        <v>0.351893</v>
       </c>
       <c r="C72" t="n">
-        <v>0.291574</v>
+        <v>0.289617</v>
       </c>
       <c r="D72" t="n">
-        <v>0.274557</v>
+        <v>0.274639</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.347793</v>
+        <v>0.345827</v>
       </c>
       <c r="C73" t="n">
-        <v>0.284233</v>
+        <v>0.282638</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267679</v>
+        <v>0.267827</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.341837</v>
+        <v>0.340073</v>
       </c>
       <c r="C74" t="n">
-        <v>0.277527</v>
+        <v>0.275639</v>
       </c>
       <c r="D74" t="n">
-        <v>0.261341</v>
+        <v>0.261576</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.33626</v>
+        <v>0.334297</v>
       </c>
       <c r="C75" t="n">
-        <v>0.271178</v>
+        <v>0.269576</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255445</v>
+        <v>0.256046</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.330775</v>
+        <v>0.329248</v>
       </c>
       <c r="C76" t="n">
-        <v>0.265294</v>
+        <v>0.263838</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250233</v>
+        <v>0.251334</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.326174</v>
+        <v>0.324351</v>
       </c>
       <c r="C77" t="n">
-        <v>0.260344</v>
+        <v>0.258709</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246173</v>
+        <v>0.24752</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.321624</v>
+        <v>0.320195</v>
       </c>
       <c r="C78" t="n">
-        <v>0.256271</v>
+        <v>0.254875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.243552</v>
+        <v>0.245101</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.318538</v>
+        <v>0.317021</v>
       </c>
       <c r="C79" t="n">
-        <v>0.253548</v>
+        <v>0.252294</v>
       </c>
       <c r="D79" t="n">
-        <v>0.243142</v>
+        <v>0.245025</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.316941</v>
+        <v>0.315489</v>
       </c>
       <c r="C80" t="n">
-        <v>0.252992</v>
+        <v>0.25202</v>
       </c>
       <c r="D80" t="n">
-        <v>0.377631</v>
+        <v>0.378498</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.550057</v>
+        <v>0.551675</v>
       </c>
       <c r="C81" t="n">
-        <v>0.400252</v>
+        <v>0.400072</v>
       </c>
       <c r="D81" t="n">
-        <v>0.368218</v>
+        <v>0.371666</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.544176</v>
+        <v>0.544659</v>
       </c>
       <c r="C82" t="n">
-        <v>0.39275</v>
+        <v>0.393116</v>
       </c>
       <c r="D82" t="n">
-        <v>0.35928</v>
+        <v>0.362407</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.534733</v>
+        <v>0.5354950000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.385913</v>
+        <v>0.383635</v>
       </c>
       <c r="D83" t="n">
-        <v>0.351726</v>
+        <v>0.354806</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5256150000000001</v>
+        <v>0.526263</v>
       </c>
       <c r="C84" t="n">
-        <v>0.375905</v>
+        <v>0.37523</v>
       </c>
       <c r="D84" t="n">
-        <v>0.342651</v>
+        <v>0.345992</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.516165</v>
+        <v>0.516294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.366346</v>
+        <v>0.364856</v>
       </c>
       <c r="D85" t="n">
-        <v>0.334107</v>
+        <v>0.336261</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5064419999999999</v>
+        <v>0.506392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.357062</v>
+        <v>0.356221</v>
       </c>
       <c r="D86" t="n">
-        <v>0.325175</v>
+        <v>0.329398</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.496651</v>
+        <v>0.497103</v>
       </c>
       <c r="C87" t="n">
-        <v>0.349722</v>
+        <v>0.34851</v>
       </c>
       <c r="D87" t="n">
-        <v>0.31727</v>
+        <v>0.321989</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.487997</v>
+        <v>0.487837</v>
       </c>
       <c r="C88" t="n">
-        <v>0.341319</v>
+        <v>0.339725</v>
       </c>
       <c r="D88" t="n">
-        <v>0.310947</v>
+        <v>0.314533</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4789</v>
+        <v>0.478613</v>
       </c>
       <c r="C89" t="n">
-        <v>0.333335</v>
+        <v>0.332221</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303888</v>
+        <v>0.308067</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.470137</v>
+        <v>0.469064</v>
       </c>
       <c r="C90" t="n">
-        <v>0.322754</v>
+        <v>0.324778</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294639</v>
+        <v>0.300957</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.462327</v>
+        <v>0.461467</v>
       </c>
       <c r="C91" t="n">
-        <v>0.315513</v>
+        <v>0.318929</v>
       </c>
       <c r="D91" t="n">
-        <v>0.290034</v>
+        <v>0.297464</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.454583</v>
+        <v>0.453821</v>
       </c>
       <c r="C92" t="n">
-        <v>0.31414</v>
+        <v>0.313589</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288277</v>
+        <v>0.292664</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.448089</v>
+        <v>0.447145</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306501</v>
+        <v>0.309797</v>
       </c>
       <c r="D93" t="n">
-        <v>0.284616</v>
+        <v>0.29168</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.442574</v>
+        <v>0.442025</v>
       </c>
       <c r="C94" t="n">
-        <v>0.308593</v>
+        <v>0.307092</v>
       </c>
       <c r="D94" t="n">
-        <v>0.543165</v>
+        <v>0.54901</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.570778</v>
+        <v>0.570566</v>
       </c>
       <c r="C95" t="n">
-        <v>0.527733</v>
+        <v>0.528485</v>
       </c>
       <c r="D95" t="n">
-        <v>0.531431</v>
+        <v>0.5387690000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.568192</v>
+        <v>0.568062</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5198390000000001</v>
+        <v>0.521522</v>
       </c>
       <c r="D96" t="n">
-        <v>0.518671</v>
+        <v>0.522286</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.560972</v>
+        <v>0.560033</v>
       </c>
       <c r="C97" t="n">
-        <v>0.51048</v>
+        <v>0.508261</v>
       </c>
       <c r="D97" t="n">
-        <v>0.500808</v>
+        <v>0.508476</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.552688</v>
+        <v>0.552006</v>
       </c>
       <c r="C98" t="n">
-        <v>0.49637</v>
+        <v>0.496453</v>
       </c>
       <c r="D98" t="n">
-        <v>0.489754</v>
+        <v>0.493538</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.544923</v>
+        <v>0.543394</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4831</v>
+        <v>0.481559</v>
       </c>
       <c r="D99" t="n">
-        <v>0.47549</v>
+        <v>0.480977</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.536144</v>
+        <v>0.53631</v>
       </c>
       <c r="C100" t="n">
-        <v>0.471593</v>
+        <v>0.471707</v>
       </c>
       <c r="D100" t="n">
-    